--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="200">
   <si>
     <t>Source</t>
   </si>
@@ -237,9 +238,6 @@
   </si>
   <si>
     <t>MJ/km2</t>
-  </si>
-  <si>
-    <t>Source 4</t>
   </si>
   <si>
     <t>Page</t>
@@ -435,9 +433,6 @@
     <t>http://refman.et-model.com/publications/1708</t>
   </si>
   <si>
-    <t>Assumed dependent on gasoline costs</t>
-  </si>
-  <si>
     <t>EU JRC</t>
   </si>
   <si>
@@ -515,24 +510,254 @@
   </si>
   <si>
     <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
+  </si>
+  <si>
+    <t>http://www.biotanken.nl/brandstoffen/bioethanol.html</t>
+  </si>
+  <si>
+    <t>Bio-ethanol</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>85% bio-ethanol</t>
+  </si>
+  <si>
+    <t>15% unleaded gasoline</t>
+  </si>
+  <si>
+    <t>European Commission - Weekly Oil Bulletin</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/energy/observatory/oil/bulletin_en.htm</t>
+  </si>
+  <si>
+    <t>Calculate monthly average</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ExchangeRateTo €</t>
+  </si>
+  <si>
+    <t>Euro-super 95(I)</t>
+  </si>
+  <si>
+    <t>1000L</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>EUR/1000L</t>
+  </si>
+  <si>
+    <t>EUR/L</t>
+  </si>
+  <si>
+    <t>No taxes</t>
+  </si>
+  <si>
+    <t>Incl taxes</t>
+  </si>
+  <si>
+    <r>
+      <t>price difference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per liter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bio-ethanol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with unleaded gasoline</t>
+    </r>
+  </si>
+  <si>
+    <t>unleaded gasoline, pump prices (incl tax)</t>
+  </si>
+  <si>
+    <t>E85 estimated pump price (incl tax)</t>
+  </si>
+  <si>
+    <t>Excise</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Excise rate</t>
+  </si>
+  <si>
+    <t>VAT rate</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>E85 estimated pump price (Excl tax)</t>
+  </si>
+  <si>
+    <t>Other indirect</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>EUR/L (inc tax)</t>
+  </si>
+  <si>
+    <t>Oher indirect tax</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>gasoline</t>
+  </si>
+  <si>
+    <t>Gasoline ratio</t>
+  </si>
+  <si>
+    <t>ethanol ratio</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>weighing</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>in energy</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Total weight</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>LHV E85</t>
+  </si>
+  <si>
+    <t>Debt:</t>
+  </si>
+  <si>
+    <t>This fuel has been priced as E85, which is the actual fuel purchased at the pump</t>
+  </si>
+  <si>
+    <t>The physical properties included in the ETM, like CO2 emissions, energy content, etc</t>
+  </si>
+  <si>
+    <t>are those of actual ethanol</t>
+  </si>
+  <si>
+    <t>EC Oil Bulletin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assumed dependent on gasoline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>price</t>
+    </r>
+  </si>
+  <si>
+    <t>EC Oil Bulletin and biotanken.nl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -756,8 +981,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF900000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF900000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="16"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,8 +1116,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF58C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1123,662 +1439,882 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="331">
+  <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="37" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="42" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="331">
+  <cellStyles count="358">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2020,6 +2556,33 @@
     <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3091,6 +3654,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>609</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="104648000"/>
+          <a:ext cx="6527800" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="104609900"/>
+          <a:ext cx="7137400" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="106337100"/>
+          <a:ext cx="7391400" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>542</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="107962700"/>
+          <a:ext cx="7213600" cy="1816100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3202,6 +3917,24 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3530,9 +4263,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3563,10 +4298,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3720,6 +4455,29 @@
       <c r="B24" s="181"/>
       <c r="C24" s="182"/>
       <c r="D24" s="183"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="233">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="232" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="232" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="232" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3739,7 +4497,9 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3763,28 +4523,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="184" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="B2" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="193"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3837,7 +4597,7 @@
     <row r="9" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -3877,17 +4637,22 @@
       <c r="D11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="239">
+        <f>'Research data'!G7</f>
+        <v>4.7634896159827043E-2</v>
+      </c>
       <c r="F11" s="37"/>
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="133"/>
+      <c r="I11" s="238" t="s">
+        <v>199</v>
+      </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>61</v>
@@ -3900,7 +4665,7 @@
       <c r="G12" s="132"/>
       <c r="H12" s="32"/>
       <c r="I12" s="133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" s="46"/>
     </row>
@@ -3942,7 +4707,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J14" s="118"/>
       <c r="K14" s="36"/>
@@ -3972,7 +4737,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -4006,7 +4771,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J27"/>
@@ -4035,29 +4800,29 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="193"/>
+      <c r="B2" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="194"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="195"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="196" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4493,12 +5258,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4516,7 +5283,7 @@
     <col min="12" max="12" width="3.25" style="74" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="74" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="74" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="74" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.75" style="74" customWidth="1"/>
     <col min="17" max="17" width="60" style="73" customWidth="1"/>
     <col min="18" max="16384" width="10.625" style="73"/>
@@ -4556,11 +5323,11 @@
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
@@ -4568,7 +5335,7 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="P3" s="69"/>
       <c r="Q3" s="1" t="s">
@@ -4655,7 +5422,10 @@
       <c r="F7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="237">
+        <f>O7</f>
+        <v>4.7634896159827043E-2</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -4663,16 +5433,19 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="16"/>
+      <c r="O7" s="236">
+        <f>Notes!F576</f>
+        <v>4.7634896159827043E-2</v>
+      </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="165" t="s">
-        <v>123</v>
+      <c r="Q7" s="235" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="137" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="137" t="s">
         <v>60</v>
@@ -5027,7 +5800,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="83"/>
       <c r="Q20" s="165" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16" thickBot="1">
@@ -5258,7 +6031,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="86"/>
       <c r="Q29" s="165" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16" thickBot="1">
@@ -5310,7 +6083,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L22"/>
@@ -5419,27 +6192,27 @@
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="170" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="167" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>121</v>
-      </c>
       <c r="I7" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="71"/>
     </row>
@@ -5476,21 +6249,21 @@
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="167" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="58" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>127</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" s="72"/>
     </row>
@@ -5525,19 +6298,19 @@
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
       <c r="E13" s="167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="167"/>
       <c r="G13" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" s="62"/>
     </row>
@@ -5557,11 +6330,11 @@
     <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="167"/>
       <c r="G15" s="62" t="s">
@@ -5653,9 +6426,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y516"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Y613"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="F576" sqref="F576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5673,7 +6449,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="130"/>
       <c r="F2" s="130" t="s">
@@ -5720,7 +6496,7 @@
     <row r="4" spans="2:25" customFormat="1" ht="16">
       <c r="B4" s="127"/>
       <c r="C4" s="140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="140"/>
       <c r="E4" s="140"/>
@@ -5802,7 +6578,9 @@
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
+      <c r="F7" s="140" t="s">
+        <v>180</v>
+      </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
       <c r="I7" s="140"/>
@@ -5833,10 +6611,10 @@
         <v>794</v>
       </c>
       <c r="G8" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="142" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="142" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="140"/>
       <c r="J8" s="140"/>
@@ -5864,10 +6642,10 @@
         <v>26.8</v>
       </c>
       <c r="G9" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="142" t="s">
         <v>70</v>
-      </c>
-      <c r="H9" s="142" t="s">
-        <v>71</v>
       </c>
       <c r="I9" s="140"/>
       <c r="J9" s="140"/>
@@ -5896,10 +6674,10 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="142" t="s">
         <v>72</v>
-      </c>
-      <c r="H10" s="142" t="s">
-        <v>73</v>
       </c>
       <c r="I10" s="140"/>
       <c r="J10" s="140"/>
@@ -5928,10 +6706,10 @@
         <v>21.279200000000003</v>
       </c>
       <c r="G11" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="140"/>
       <c r="J11" s="140"/>
@@ -6008,7 +6786,9 @@
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
+      <c r="F14" s="140" t="s">
+        <v>181</v>
+      </c>
       <c r="G14" s="140"/>
       <c r="H14" s="140"/>
       <c r="I14" s="140"/>
@@ -6034,9 +6814,15 @@
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
       <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
+      <c r="F15" s="140">
+        <v>745</v>
+      </c>
+      <c r="G15" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="142" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="140"/>
       <c r="J15" s="140"/>
       <c r="K15" s="140"/>
@@ -6060,9 +6846,15 @@
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
       <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
+      <c r="F16" s="140">
+        <v>43.2</v>
+      </c>
+      <c r="G16" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="142" t="s">
+        <v>70</v>
+      </c>
       <c r="I16" s="140"/>
       <c r="J16" s="140"/>
       <c r="K16" s="140"/>
@@ -6086,9 +6878,16 @@
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
       <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
+      <c r="F17" s="140">
+        <f>F15/1000</f>
+        <v>0.745</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="142" t="s">
+        <v>72</v>
+      </c>
       <c r="I17" s="140"/>
       <c r="J17" s="140"/>
       <c r="K17" s="140"/>
@@ -6112,9 +6911,16 @@
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
       <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
+      <c r="F18" s="140">
+        <f>F16*F17</f>
+        <v>32.184000000000005</v>
+      </c>
+      <c r="G18" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="142" t="s">
+        <v>70</v>
+      </c>
       <c r="I18" s="140"/>
       <c r="J18" s="140"/>
       <c r="K18" s="140"/>
@@ -6164,7 +6970,9 @@
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
+      <c r="F20" s="140" t="s">
+        <v>150</v>
+      </c>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
       <c r="I20" s="140"/>
@@ -6216,9 +7024,13 @@
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="F22" s="223">
+        <v>0.15</v>
+      </c>
       <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
+      <c r="H22" s="140" t="s">
+        <v>182</v>
+      </c>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
       <c r="K22" s="140"/>
@@ -6242,9 +7054,14 @@
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
+      <c r="F23" s="223">
+        <f>1-F22</f>
+        <v>0.85</v>
+      </c>
       <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
+      <c r="H23" s="140" t="s">
+        <v>183</v>
+      </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
       <c r="K23" s="140"/>
@@ -6268,9 +7085,16 @@
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
+      <c r="F24" s="224">
+        <f>F22*F18+F23*F11</f>
+        <v>22.914920000000002</v>
+      </c>
+      <c r="G24" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="140" t="s">
+        <v>192</v>
+      </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
       <c r="K24" s="140"/>
@@ -6345,10 +7169,16 @@
       <c r="B27" s="127"/>
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="154">
+        <v>1</v>
+      </c>
+      <c r="G27" s="154" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="155" t="s">
+        <v>150</v>
+      </c>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
       <c r="K27" s="140"/>
@@ -6371,10 +7201,18 @@
       <c r="B28" s="127"/>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
+      <c r="E28" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="157">
+        <v>0.15</v>
+      </c>
+      <c r="G28" s="157" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="158" t="s">
+        <v>160</v>
+      </c>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
       <c r="K28" s="140"/>
@@ -6395,62 +7233,176 @@
     </row>
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="127"/>
+      <c r="E29" s="159" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="157">
+        <f>F28*F18</f>
+        <v>4.8276000000000003</v>
+      </c>
+      <c r="G29" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="158" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="30" spans="2:25" customFormat="1" ht="16">
       <c r="B30" s="127"/>
+      <c r="E30" s="159" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="157">
+        <f>F28*F17</f>
+        <v>0.11175</v>
+      </c>
+      <c r="G30" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="158" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="2:25" customFormat="1" ht="16">
       <c r="B31" s="127"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="227"/>
     </row>
     <row r="32" spans="2:25" customFormat="1" ht="16">
       <c r="B32" s="127"/>
-    </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+      <c r="E32" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="157">
+        <f>1-F28</f>
+        <v>0.85</v>
+      </c>
+      <c r="G32" s="157" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" customFormat="1" ht="16">
       <c r="B33" s="127"/>
-    </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+      <c r="E33" s="159" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="157">
+        <f>F32*F11</f>
+        <v>18.087320000000002</v>
+      </c>
+      <c r="G33" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" customFormat="1" ht="16">
       <c r="B34" s="127"/>
-    </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+      <c r="E34" s="159" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="157">
+        <f>F32*F10</f>
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="G34" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" customFormat="1" ht="16">
       <c r="B35" s="127"/>
-    </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+      <c r="E35" s="159"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="158"/>
+    </row>
+    <row r="36" spans="2:8" customFormat="1" ht="16">
       <c r="B36" s="127"/>
-    </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+      <c r="E36" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="157">
+        <f>F30+F34</f>
+        <v>0.78665000000000007</v>
+      </c>
+      <c r="G36" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" customFormat="1" ht="16">
       <c r="B37" s="127"/>
-    </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+      <c r="E37" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="157">
+        <f>F29+F33</f>
+        <v>22.914920000000002</v>
+      </c>
+      <c r="G37" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" customFormat="1" ht="16">
       <c r="B38" s="127"/>
-    </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+      <c r="E38" s="159"/>
+      <c r="F38" s="231">
+        <f>F37/F36</f>
+        <v>29.129752748998918</v>
+      </c>
+      <c r="G38" s="157" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" customFormat="1" ht="16">
       <c r="B39" s="127"/>
-    </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+      <c r="E39" s="228"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="230"/>
+    </row>
+    <row r="40" spans="2:8" customFormat="1" ht="16">
       <c r="B40" s="127"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:8" customFormat="1" ht="16">
       <c r="B41" s="127"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:8" customFormat="1" ht="16">
       <c r="B42" s="127"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:8" customFormat="1" ht="16">
       <c r="B43" s="127"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:8" customFormat="1" ht="16">
       <c r="B44" s="127"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:8" customFormat="1" ht="16">
       <c r="B45" s="127"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:8" customFormat="1" ht="16">
       <c r="B46" s="127"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:8" customFormat="1" ht="16">
       <c r="B47" s="127"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:8" customFormat="1" ht="16">
       <c r="B48" s="127"/>
     </row>
     <row r="49" spans="2:25" customFormat="1" ht="16">
@@ -6498,7 +7450,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="130"/>
       <c r="F62" s="130" t="s">
@@ -6549,7 +7501,7 @@
     <row r="64" spans="2:25" customFormat="1" ht="16">
       <c r="B64" s="127"/>
       <c r="C64" s="167" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
@@ -6862,7 +7814,7 @@
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F76" s="140"/>
       <c r="G76" s="140"/>
@@ -7479,7 +8431,7 @@
         <v>105</v>
       </c>
       <c r="G177" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="2:7" customFormat="1" ht="16">
@@ -7489,7 +8441,7 @@
         <v>105000</v>
       </c>
       <c r="G178" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="2:7" customFormat="1" ht="16">
@@ -7499,7 +8451,7 @@
         <v>10500000</v>
       </c>
       <c r="G179" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="2:7" customFormat="1" ht="16">
@@ -7571,7 +8523,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E201" s="130"/>
       <c r="F201" s="130" t="s">
@@ -7596,7 +8548,7 @@
     <row r="202" spans="2:25" customFormat="1" ht="16">
       <c r="B202" s="127"/>
       <c r="C202" s="140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D202" s="140"/>
       <c r="E202" s="140"/>
@@ -7652,7 +8604,7 @@
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F204" s="140"/>
       <c r="G204" s="140"/>
@@ -8025,10 +8977,10 @@
       <c r="J218" s="140"/>
       <c r="K218" s="140"/>
       <c r="L218" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="M218" s="145" t="s">
         <v>77</v>
-      </c>
-      <c r="M218" s="145" t="s">
-        <v>78</v>
       </c>
       <c r="N218" s="140"/>
       <c r="O218" s="140"/>
@@ -8055,7 +9007,7 @@
       <c r="J219" s="140"/>
       <c r="K219" s="140"/>
       <c r="L219" s="146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M219" s="147">
         <v>5900</v>
@@ -8085,7 +9037,7 @@
       <c r="J220" s="140"/>
       <c r="K220" s="140"/>
       <c r="L220" s="146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M220" s="147">
         <v>5000</v>
@@ -8115,7 +9067,7 @@
       <c r="J221" s="140"/>
       <c r="K221" s="140"/>
       <c r="L221" s="146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M221" s="147">
         <v>4000</v>
@@ -8145,7 +9097,7 @@
       <c r="J222" s="140"/>
       <c r="K222" s="140"/>
       <c r="L222" s="146" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M222" s="147">
         <v>3200</v>
@@ -8175,7 +9127,7 @@
       <c r="J223" s="140"/>
       <c r="K223" s="140"/>
       <c r="L223" s="148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M223" s="149">
         <v>2100</v>
@@ -8666,7 +9618,7 @@
       <c r="C242" s="140"/>
       <c r="D242" s="140"/>
       <c r="E242" s="140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F242" s="140"/>
       <c r="G242" s="140"/>
@@ -8799,10 +9751,10 @@
       <c r="D247" s="140"/>
       <c r="E247" s="140"/>
       <c r="F247" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="G247" s="140" t="s">
         <v>85</v>
-      </c>
-      <c r="G247" s="140" t="s">
-        <v>86</v>
       </c>
       <c r="H247" s="140"/>
       <c r="I247" s="140"/>
@@ -8829,10 +9781,10 @@
       <c r="D248" s="140"/>
       <c r="E248" s="140"/>
       <c r="F248" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="G248" s="140" t="s">
         <v>87</v>
-      </c>
-      <c r="G248" s="140" t="s">
-        <v>88</v>
       </c>
       <c r="H248" s="140"/>
       <c r="I248" s="140"/>
@@ -8884,7 +9836,7 @@
       <c r="C250" s="140"/>
       <c r="D250" s="140"/>
       <c r="E250" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F250" s="140"/>
       <c r="G250" s="140"/>
@@ -9406,7 +10358,7 @@
       <c r="C270" s="140"/>
       <c r="D270" s="140"/>
       <c r="E270" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F270" s="140"/>
       <c r="G270" s="140"/>
@@ -9694,7 +10646,7 @@
       <c r="C281" s="140"/>
       <c r="D281" s="140"/>
       <c r="E281" s="140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F281" s="140"/>
       <c r="G281" s="140"/>
@@ -10321,7 +11273,7 @@
         <v>25</v>
       </c>
       <c r="D305" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E305" s="130"/>
       <c r="F305" s="130" t="s">
@@ -10346,7 +11298,7 @@
     <row r="306" spans="2:25" customFormat="1" ht="16">
       <c r="B306" s="127"/>
       <c r="C306" s="150" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D306" s="140"/>
       <c r="E306" s="140"/>
@@ -10949,7 +11901,7 @@
         <v>25</v>
       </c>
       <c r="D329" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E329" s="130"/>
       <c r="F329" s="130" t="s">
@@ -10974,7 +11926,7 @@
     <row r="330" spans="2:25" customFormat="1" ht="16">
       <c r="B330" s="127"/>
       <c r="C330" s="140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D330" s="140"/>
       <c r="E330" s="140"/>
@@ -11056,7 +12008,7 @@
       <c r="C333" s="140"/>
       <c r="D333" s="140"/>
       <c r="E333" s="140" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F333" s="140"/>
       <c r="G333" s="140"/>
@@ -11159,7 +12111,7 @@
       <c r="C337" s="140"/>
       <c r="D337" s="140"/>
       <c r="F337" s="140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G337" s="140"/>
       <c r="H337" s="140"/>
@@ -11189,10 +12141,10 @@
         <v>5000</v>
       </c>
       <c r="G338" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="H338" s="140" t="s">
         <v>96</v>
-      </c>
-      <c r="H338" s="140" t="s">
-        <v>97</v>
       </c>
       <c r="I338" s="140"/>
       <c r="J338" s="140"/>
@@ -11220,7 +12172,7 @@
         <v>1.27</v>
       </c>
       <c r="G339" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H339" s="140"/>
       <c r="I339" s="140"/>
@@ -11250,7 +12202,7 @@
         <v>515620</v>
       </c>
       <c r="G340" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H340" s="140"/>
       <c r="I340" s="140"/>
@@ -11280,7 +12232,7 @@
         <v>5156.2</v>
       </c>
       <c r="G341" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H341" s="140"/>
       <c r="I341" s="140"/>
@@ -11309,7 +12261,7 @@
         <v>4060</v>
       </c>
       <c r="G342" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H342" s="140"/>
       <c r="I342" s="140"/>
@@ -11339,7 +12291,7 @@
         <v>406000</v>
       </c>
       <c r="G343" s="140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H343" s="140"/>
       <c r="I343" s="140"/>
@@ -11368,7 +12320,7 @@
         <v>103</v>
       </c>
       <c r="G344" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H344" s="140"/>
       <c r="I344" s="140"/>
@@ -11399,7 +12351,7 @@
         <v>10300000</v>
       </c>
       <c r="G345" s="172" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H345" s="140"/>
       <c r="I345" s="173"/>
@@ -11429,10 +12381,10 @@
         <v>2.5369458128078819E-2</v>
       </c>
       <c r="G346" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="H346" s="140" t="s">
         <v>104</v>
-      </c>
-      <c r="H346" s="140" t="s">
-        <v>105</v>
       </c>
       <c r="I346" s="140"/>
       <c r="J346" s="140"/>
@@ -11464,7 +12416,7 @@
         <v>61</v>
       </c>
       <c r="H347" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I347" s="140"/>
       <c r="J347" s="140"/>
@@ -11494,7 +12446,7 @@
         <v>19.975951281951826</v>
       </c>
       <c r="G348" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H348" s="140"/>
       <c r="I348" s="140"/>
@@ -12587,7 +13539,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E390" s="130"/>
       <c r="F390" s="130" t="s">
@@ -12664,7 +13616,7 @@
     <row r="393" spans="2:25" customFormat="1" ht="16">
       <c r="B393" s="127"/>
       <c r="C393" s="151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D393" s="140"/>
       <c r="E393" s="140"/>
@@ -12776,7 +13728,7 @@
         <v>1055</v>
       </c>
       <c r="G397" s="140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H397" s="140"/>
       <c r="K397" s="140"/>
@@ -12804,7 +13756,7 @@
         <v>3.78541178</v>
       </c>
       <c r="G398" s="140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J398" s="140"/>
       <c r="K398" s="140"/>
@@ -12906,13 +13858,13 @@
       <c r="C402" s="140"/>
       <c r="D402" s="140"/>
       <c r="E402" s="156" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F402" s="157">
         <v>76330</v>
       </c>
       <c r="G402" s="157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H402" s="157"/>
       <c r="I402" s="158"/>
@@ -12943,7 +13895,7 @@
         <v>80528150</v>
       </c>
       <c r="G403" s="157" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H403" s="157"/>
       <c r="I403" s="158"/>
@@ -12974,7 +13926,7 @@
         <v>80.528149999999997</v>
       </c>
       <c r="G404" s="157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H404" s="157"/>
       <c r="I404" s="158"/>
@@ -13000,14 +13952,14 @@
       <c r="C405" s="140"/>
       <c r="D405" s="140"/>
       <c r="E405" s="160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F405" s="161">
         <f>F404/F398</f>
         <v>21.273286680584061</v>
       </c>
       <c r="G405" s="161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H405" s="162"/>
       <c r="I405" s="163"/>
@@ -13502,7 +14454,7 @@
         <v>25</v>
       </c>
       <c r="D424" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E424" s="130"/>
       <c r="F424" s="130" t="s">
@@ -13527,7 +14479,7 @@
     <row r="425" spans="2:25" customFormat="1" ht="16">
       <c r="B425" s="127"/>
       <c r="C425" s="164" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D425" s="140"/>
       <c r="E425" s="140"/>
@@ -13611,13 +14563,13 @@
       <c r="C428" s="140"/>
       <c r="D428" s="140"/>
       <c r="E428" s="140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F428" s="140">
         <v>21.1</v>
       </c>
       <c r="G428" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H428" s="140"/>
       <c r="I428" s="140"/>
@@ -13643,13 +14595,13 @@
       <c r="C429" s="140"/>
       <c r="D429" s="140"/>
       <c r="E429" s="140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F429" s="140">
         <v>23.4</v>
       </c>
       <c r="G429" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H429" s="140"/>
       <c r="I429" s="140"/>
@@ -13727,7 +14679,7 @@
       <c r="C432" s="140"/>
       <c r="D432" s="140"/>
       <c r="E432" s="140" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F432" s="140"/>
       <c r="G432" s="140"/>
@@ -14198,7 +15150,7 @@
         <v>25</v>
       </c>
       <c r="D450" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E450" s="130"/>
       <c r="F450" s="130" t="s">
@@ -14249,7 +15201,7 @@
     <row r="452" spans="2:25" customFormat="1" ht="17">
       <c r="B452" s="127"/>
       <c r="C452" s="175" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D452" s="140"/>
       <c r="E452" s="140"/>
@@ -14364,11 +15316,11 @@
         <v>0</v>
       </c>
       <c r="I462" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J462" s="140"/>
       <c r="K462" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="2:25">
@@ -14382,7 +15334,7 @@
         <v>11.5</v>
       </c>
       <c r="I463" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J463" s="140"/>
       <c r="K463" s="140"/>
@@ -14398,7 +15350,7 @@
         <v>16.7</v>
       </c>
       <c r="I464" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J464" s="140"/>
       <c r="K464" s="140"/>
@@ -14415,7 +15367,7 @@
         <v>1.3</v>
       </c>
       <c r="I465" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J465" s="140"/>
       <c r="K465" s="140"/>
@@ -14432,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="I466" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J466" s="140"/>
       <c r="K466" s="140"/>
@@ -14449,11 +15401,11 @@
         <v>0</v>
       </c>
       <c r="I467" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J467" s="140"/>
       <c r="K467" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="468" spans="2:11">
@@ -14489,11 +15441,11 @@
         <v>0</v>
       </c>
       <c r="I470" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J470" s="140"/>
       <c r="K470" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="471" spans="2:11">
@@ -14508,7 +15460,7 @@
         <v>1.15E-2</v>
       </c>
       <c r="I471" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J471" s="140"/>
       <c r="K471" s="140"/>
@@ -14525,7 +15477,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="I472" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J472" s="140"/>
       <c r="K472" s="140"/>
@@ -14542,7 +15494,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I473" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J473" s="140"/>
       <c r="K473" s="140"/>
@@ -14559,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="I474" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J474" s="140"/>
       <c r="K474" s="140"/>
@@ -14576,11 +15528,11 @@
         <v>0</v>
       </c>
       <c r="I475" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J475" s="140"/>
       <c r="K475" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="476" spans="2:11">
@@ -14612,11 +15564,11 @@
         <v>0</v>
       </c>
       <c r="I479" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J479" s="140"/>
       <c r="K479" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="480" spans="2:11">
@@ -14630,7 +15582,7 @@
         <v>14.3</v>
       </c>
       <c r="I480" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J480" s="140"/>
       <c r="K480" s="140"/>
@@ -14646,7 +15598,7 @@
         <v>0.9</v>
       </c>
       <c r="I481" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J481" s="140"/>
       <c r="K481" s="140"/>
@@ -14662,7 +15614,7 @@
         <v>2.4</v>
       </c>
       <c r="I482" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J482" s="140"/>
       <c r="K482" s="140"/>
@@ -14678,7 +15630,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J483" s="140"/>
       <c r="K483" s="140"/>
@@ -14694,11 +15646,11 @@
         <v>0</v>
       </c>
       <c r="I484" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J484" s="140"/>
       <c r="K484" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="485" spans="2:11">
@@ -14733,11 +15685,11 @@
         <v>0</v>
       </c>
       <c r="I487" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J487" s="140"/>
       <c r="K487" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="488" spans="2:11">
@@ -14752,7 +15704,7 @@
         <v>1.43E-2</v>
       </c>
       <c r="I488" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J488" s="140"/>
       <c r="K488" s="140"/>
@@ -14769,7 +15721,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I489" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J489" s="140"/>
       <c r="K489" s="140"/>
@@ -14786,7 +15738,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="I490" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J490" s="140"/>
       <c r="K490" s="140"/>
@@ -14803,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="I491" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J491" s="140"/>
       <c r="K491" s="140"/>
@@ -14820,11 +15772,11 @@
         <v>0</v>
       </c>
       <c r="I492" s="140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J492" s="140"/>
       <c r="K492" s="140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="493" spans="2:11">
@@ -14884,30 +15836,1627 @@
     <row r="511" spans="2:2">
       <c r="B511" s="127"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" ht="16" thickBot="1">
       <c r="B512" s="127"/>
     </row>
-    <row r="513" spans="2:2">
-      <c r="B513" s="127"/>
-    </row>
-    <row r="514" spans="2:2">
-      <c r="B514" s="127"/>
-    </row>
-    <row r="515" spans="2:2">
-      <c r="B515" s="127"/>
-    </row>
-    <row r="516" spans="2:2">
-      <c r="B516" s="127"/>
+    <row r="513" spans="1:25">
+      <c r="A513" s="199"/>
+      <c r="B513" s="200"/>
+      <c r="C513" s="200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D513" s="200" t="s">
+        <v>65</v>
+      </c>
+      <c r="E513" s="200"/>
+      <c r="F513" s="200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G513" s="200"/>
+      <c r="H513" s="200"/>
+      <c r="I513" s="200"/>
+      <c r="J513" s="200"/>
+      <c r="K513" s="200"/>
+      <c r="L513" s="200"/>
+      <c r="M513" s="200"/>
+      <c r="N513" s="200"/>
+      <c r="O513" s="200"/>
+      <c r="P513" s="200"/>
+      <c r="Q513" s="200"/>
+      <c r="R513" s="200"/>
+      <c r="S513" s="200"/>
+      <c r="T513" s="200"/>
+      <c r="U513" s="200"/>
+      <c r="V513" s="199"/>
+      <c r="W513" s="199"/>
+      <c r="X513" s="199"/>
+      <c r="Y513" s="199"/>
+    </row>
+    <row r="514" spans="1:25" ht="16">
+      <c r="A514" s="201"/>
+      <c r="B514" s="202"/>
+      <c r="C514" s="140"/>
+      <c r="D514" s="140"/>
+      <c r="E514" s="140"/>
+      <c r="F514" s="140"/>
+      <c r="G514" s="140"/>
+      <c r="H514" s="140"/>
+      <c r="I514" s="140"/>
+      <c r="J514" s="140"/>
+      <c r="K514" s="140"/>
+      <c r="L514" s="140"/>
+      <c r="M514" s="140"/>
+      <c r="N514" s="140"/>
+      <c r="O514" s="140"/>
+      <c r="P514" s="140"/>
+      <c r="Q514" s="140"/>
+      <c r="R514" s="140"/>
+      <c r="S514" s="140"/>
+      <c r="T514" s="140"/>
+      <c r="U514" s="140"/>
+      <c r="V514" s="140"/>
+      <c r="W514" s="140"/>
+      <c r="X514" s="140"/>
+      <c r="Y514" s="140"/>
+    </row>
+    <row r="515" spans="1:25" ht="16">
+      <c r="A515" s="201"/>
+      <c r="B515" s="202"/>
+      <c r="C515" s="199" t="s">
+        <v>153</v>
+      </c>
+      <c r="D515" s="140"/>
+      <c r="E515" s="140"/>
+      <c r="F515" s="140"/>
+      <c r="G515" s="140"/>
+      <c r="H515" s="140"/>
+      <c r="I515" s="140"/>
+      <c r="J515" s="140"/>
+      <c r="K515" s="140"/>
+      <c r="L515" s="140"/>
+      <c r="M515" s="140"/>
+      <c r="N515" s="140"/>
+      <c r="O515" s="140"/>
+      <c r="P515" s="140"/>
+      <c r="Q515" s="140"/>
+      <c r="R515" s="140"/>
+      <c r="S515" s="140"/>
+      <c r="T515" s="140"/>
+      <c r="U515" s="140"/>
+      <c r="V515" s="140"/>
+      <c r="W515" s="140"/>
+      <c r="X515" s="140"/>
+      <c r="Y515" s="140"/>
+    </row>
+    <row r="516" spans="1:25" ht="16">
+      <c r="A516" s="201"/>
+      <c r="B516" s="202"/>
+      <c r="C516" s="203" t="s">
+        <v>154</v>
+      </c>
+      <c r="D516" s="140"/>
+      <c r="E516" s="140"/>
+      <c r="F516" s="140"/>
+      <c r="G516" s="140"/>
+      <c r="H516" s="140"/>
+      <c r="I516" s="140"/>
+      <c r="J516" s="140"/>
+      <c r="K516" s="140"/>
+      <c r="L516" s="140"/>
+      <c r="M516" s="140"/>
+      <c r="N516" s="140"/>
+      <c r="O516" s="140"/>
+      <c r="P516" s="140"/>
+      <c r="Q516" s="140"/>
+      <c r="R516" s="140"/>
+      <c r="S516" s="140"/>
+      <c r="T516" s="140"/>
+      <c r="U516" s="140"/>
+      <c r="V516" s="140"/>
+      <c r="W516" s="140"/>
+      <c r="X516" s="140"/>
+      <c r="Y516" s="140"/>
+    </row>
+    <row r="517" spans="1:25" ht="16">
+      <c r="A517" s="201"/>
+      <c r="B517" s="202"/>
+      <c r="C517" s="140"/>
+      <c r="D517" s="201"/>
+      <c r="E517" s="140"/>
+      <c r="F517" s="140"/>
+      <c r="G517" s="140"/>
+      <c r="H517" s="140"/>
+      <c r="I517" s="140"/>
+      <c r="J517" s="140"/>
+      <c r="K517" s="140"/>
+      <c r="L517" s="140"/>
+      <c r="M517" s="140"/>
+      <c r="N517" s="140"/>
+      <c r="O517" s="140"/>
+      <c r="P517" s="140"/>
+      <c r="Q517" s="140"/>
+      <c r="R517" s="140"/>
+      <c r="S517" s="140"/>
+      <c r="T517" s="140"/>
+      <c r="U517" s="140"/>
+      <c r="V517" s="140"/>
+      <c r="W517" s="140"/>
+      <c r="X517" s="140"/>
+      <c r="Y517" s="140"/>
+    </row>
+    <row r="518" spans="1:25" ht="16">
+      <c r="A518" s="201"/>
+      <c r="B518" s="202"/>
+      <c r="C518" s="140"/>
+      <c r="D518" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="E518" s="140"/>
+      <c r="F518" s="140"/>
+      <c r="G518" s="140"/>
+      <c r="H518" s="140"/>
+      <c r="I518" s="140"/>
+      <c r="J518" s="140"/>
+      <c r="K518" s="140"/>
+      <c r="L518" s="140"/>
+      <c r="M518" s="140"/>
+      <c r="N518" s="140"/>
+      <c r="O518" s="140"/>
+      <c r="P518" s="140"/>
+      <c r="Q518" s="140"/>
+      <c r="R518" s="140"/>
+      <c r="S518" s="140"/>
+      <c r="T518" s="140"/>
+      <c r="U518" s="140"/>
+      <c r="V518" s="140"/>
+      <c r="W518" s="140"/>
+      <c r="X518" s="140"/>
+      <c r="Y518" s="140"/>
+    </row>
+    <row r="519" spans="1:25" ht="24">
+      <c r="A519" s="201"/>
+      <c r="B519" s="202"/>
+      <c r="C519" s="140"/>
+      <c r="D519" s="204" t="s">
+        <v>3</v>
+      </c>
+      <c r="E519" s="201"/>
+      <c r="F519" s="140"/>
+      <c r="G519" s="140"/>
+      <c r="H519" s="205" t="s">
+        <v>156</v>
+      </c>
+      <c r="I519" s="206" t="s">
+        <v>157</v>
+      </c>
+      <c r="J519" s="207" t="s">
+        <v>158</v>
+      </c>
+      <c r="K519" s="216" t="s">
+        <v>158</v>
+      </c>
+      <c r="L519" s="140"/>
+      <c r="M519" s="140"/>
+      <c r="N519" s="140"/>
+      <c r="O519" s="140"/>
+      <c r="P519" s="140"/>
+      <c r="Q519" s="140"/>
+      <c r="R519" s="140"/>
+      <c r="S519" s="140"/>
+      <c r="T519" s="140"/>
+      <c r="U519" s="140"/>
+      <c r="V519" s="140"/>
+    </row>
+    <row r="520" spans="1:25" ht="17" thickBot="1">
+      <c r="A520" s="201"/>
+      <c r="B520" s="202"/>
+      <c r="C520" s="140"/>
+      <c r="D520" s="140" t="s">
+        <v>163</v>
+      </c>
+      <c r="E520" s="201"/>
+      <c r="F520" s="140"/>
+      <c r="G520" s="140"/>
+      <c r="H520" s="208"/>
+      <c r="I520" s="209"/>
+      <c r="J520" s="210" t="s">
+        <v>159</v>
+      </c>
+      <c r="K520" s="217" t="s">
+        <v>159</v>
+      </c>
+      <c r="L520" s="140"/>
+      <c r="M520" s="140"/>
+      <c r="N520" s="140"/>
+      <c r="O520" s="140"/>
+      <c r="P520" s="140"/>
+      <c r="Q520" s="140"/>
+      <c r="R520" s="140"/>
+      <c r="S520" s="140"/>
+      <c r="T520" s="140"/>
+      <c r="U520" s="140"/>
+      <c r="V520" s="140"/>
+    </row>
+    <row r="521" spans="1:25" ht="17" thickBot="1">
+      <c r="A521" s="201"/>
+      <c r="B521" s="202"/>
+      <c r="C521" s="140"/>
+      <c r="D521" s="140"/>
+      <c r="E521" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F521" s="211">
+        <f>AVERAGE(J521:J525)</f>
+        <v>595.68200000000002</v>
+      </c>
+      <c r="G521" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="H521" s="212">
+        <v>42219</v>
+      </c>
+      <c r="I521" s="213">
+        <v>1</v>
+      </c>
+      <c r="J521" s="214">
+        <v>573.86</v>
+      </c>
+      <c r="K521" s="218">
+        <v>1631</v>
+      </c>
+      <c r="L521" s="140"/>
+      <c r="M521" s="140"/>
+      <c r="N521" s="140"/>
+      <c r="O521" s="140"/>
+      <c r="P521" s="140"/>
+      <c r="Q521" s="140"/>
+      <c r="R521" s="140"/>
+      <c r="S521" s="140"/>
+      <c r="T521" s="140"/>
+      <c r="U521" s="140"/>
+      <c r="V521" s="140"/>
+    </row>
+    <row r="522" spans="1:25" ht="17" thickBot="1">
+      <c r="A522" s="201"/>
+      <c r="B522" s="202"/>
+      <c r="C522" s="140"/>
+      <c r="D522" s="140"/>
+      <c r="E522" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F522" s="215">
+        <f>F521/1000</f>
+        <v>0.59568200000000004</v>
+      </c>
+      <c r="G522" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H522" s="212">
+        <v>42212</v>
+      </c>
+      <c r="I522" s="213">
+        <v>1</v>
+      </c>
+      <c r="J522" s="214">
+        <v>586.26</v>
+      </c>
+      <c r="K522" s="218">
+        <v>1646</v>
+      </c>
+      <c r="L522" s="140"/>
+      <c r="M522" s="140"/>
+      <c r="N522" s="140"/>
+      <c r="O522" s="140"/>
+      <c r="P522" s="140"/>
+      <c r="Q522" s="140"/>
+      <c r="R522" s="140"/>
+      <c r="S522" s="140"/>
+      <c r="T522" s="140"/>
+      <c r="U522" s="140"/>
+      <c r="V522" s="140"/>
+    </row>
+    <row r="523" spans="1:25" ht="17" thickBot="1">
+      <c r="A523" s="201"/>
+      <c r="B523" s="202"/>
+      <c r="C523" s="140"/>
+      <c r="D523" s="140"/>
+      <c r="E523" s="140"/>
+      <c r="F523" s="140"/>
+      <c r="G523" s="140"/>
+      <c r="H523" s="212">
+        <v>42205</v>
+      </c>
+      <c r="I523" s="213">
+        <v>1</v>
+      </c>
+      <c r="J523" s="214">
+        <v>599.48</v>
+      </c>
+      <c r="K523" s="218">
+        <v>1662</v>
+      </c>
+      <c r="L523" s="140"/>
+      <c r="M523" s="140"/>
+      <c r="N523" s="140"/>
+      <c r="O523" s="140"/>
+      <c r="P523" s="140"/>
+      <c r="Q523" s="140"/>
+      <c r="R523" s="140"/>
+      <c r="S523" s="140"/>
+      <c r="T523" s="140"/>
+      <c r="U523" s="140"/>
+      <c r="V523" s="140"/>
+    </row>
+    <row r="524" spans="1:25" ht="17" thickBot="1">
+      <c r="A524" s="201"/>
+      <c r="B524" s="202"/>
+      <c r="C524" s="140"/>
+      <c r="D524" s="140" t="s">
+        <v>164</v>
+      </c>
+      <c r="E524" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F524" s="211">
+        <f>AVERAGE(K521:K525)</f>
+        <v>1657.4</v>
+      </c>
+      <c r="G524" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="H524" s="212">
+        <v>42198</v>
+      </c>
+      <c r="I524" s="213">
+        <v>1</v>
+      </c>
+      <c r="J524" s="214">
+        <v>617.66999999999996</v>
+      </c>
+      <c r="K524" s="218">
+        <v>1684</v>
+      </c>
+      <c r="L524" s="140"/>
+      <c r="M524" s="140"/>
+      <c r="N524" s="140"/>
+      <c r="O524" s="140"/>
+      <c r="P524" s="140"/>
+      <c r="Q524" s="140"/>
+      <c r="R524" s="140"/>
+      <c r="S524" s="140"/>
+      <c r="T524" s="140"/>
+      <c r="U524" s="140"/>
+      <c r="V524" s="140"/>
+    </row>
+    <row r="525" spans="1:25" ht="17" thickBot="1">
+      <c r="A525" s="201"/>
+      <c r="B525" s="202"/>
+      <c r="C525" s="140"/>
+      <c r="D525" s="140"/>
+      <c r="E525" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F525" s="215">
+        <f>F524/1000</f>
+        <v>1.6574</v>
+      </c>
+      <c r="G525" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H525" s="212">
+        <v>42191</v>
+      </c>
+      <c r="I525" s="213">
+        <v>1</v>
+      </c>
+      <c r="J525" s="214">
+        <v>601.14</v>
+      </c>
+      <c r="K525" s="218">
+        <v>1664</v>
+      </c>
+      <c r="L525" s="140"/>
+      <c r="M525" s="140"/>
+      <c r="N525" s="140"/>
+      <c r="O525" s="140"/>
+      <c r="P525" s="140"/>
+      <c r="Q525" s="140"/>
+      <c r="R525" s="140"/>
+      <c r="S525" s="140"/>
+      <c r="T525" s="140"/>
+      <c r="U525" s="140"/>
+      <c r="V525" s="140"/>
+    </row>
+    <row r="526" spans="1:25" ht="16">
+      <c r="A526" s="201"/>
+      <c r="B526" s="202"/>
+      <c r="C526" s="140"/>
+      <c r="D526" s="140"/>
+      <c r="E526" s="140"/>
+      <c r="F526" s="140"/>
+      <c r="G526" s="140"/>
+      <c r="H526" s="212">
+        <v>42184</v>
+      </c>
+      <c r="I526" s="213">
+        <v>1</v>
+      </c>
+      <c r="J526" s="214">
+        <v>593.70000000000005</v>
+      </c>
+      <c r="K526" s="218">
+        <v>1655</v>
+      </c>
+      <c r="L526" s="140"/>
+      <c r="M526" s="140"/>
+      <c r="N526" s="140"/>
+      <c r="O526" s="140"/>
+      <c r="P526" s="140"/>
+      <c r="Q526" s="140"/>
+      <c r="R526" s="140"/>
+      <c r="S526" s="140"/>
+      <c r="T526" s="140"/>
+      <c r="U526" s="140"/>
+      <c r="V526" s="140"/>
+    </row>
+    <row r="527" spans="1:25" ht="16">
+      <c r="A527" s="201"/>
+      <c r="B527" s="202"/>
+      <c r="C527" s="140"/>
+      <c r="D527" s="143" t="s">
+        <v>175</v>
+      </c>
+      <c r="E527" s="140"/>
+      <c r="F527" s="219"/>
+      <c r="G527" s="140"/>
+      <c r="H527" s="212">
+        <v>42177</v>
+      </c>
+      <c r="I527" s="213">
+        <v>1</v>
+      </c>
+      <c r="J527" s="214">
+        <v>604.44000000000005</v>
+      </c>
+      <c r="K527" s="218">
+        <v>1668</v>
+      </c>
+      <c r="L527" s="140"/>
+      <c r="M527" s="140"/>
+      <c r="N527" s="140"/>
+      <c r="O527" s="140"/>
+      <c r="P527" s="140"/>
+      <c r="Q527" s="140"/>
+      <c r="R527" s="140"/>
+      <c r="S527" s="140"/>
+      <c r="T527" s="140"/>
+      <c r="U527" s="140"/>
+      <c r="V527" s="140"/>
+    </row>
+    <row r="528" spans="1:25" ht="16">
+      <c r="A528" s="201"/>
+      <c r="B528" s="202"/>
+      <c r="C528" s="140"/>
+      <c r="D528" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="E528" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F528" s="140">
+        <v>21</v>
+      </c>
+      <c r="G528" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="H528" s="212">
+        <v>42170</v>
+      </c>
+      <c r="I528" s="213">
+        <v>1</v>
+      </c>
+      <c r="J528" s="214">
+        <v>601.14</v>
+      </c>
+      <c r="K528" s="218">
+        <v>1664</v>
+      </c>
+      <c r="L528" s="140"/>
+      <c r="M528" s="140"/>
+      <c r="N528" s="140"/>
+      <c r="O528" s="140"/>
+      <c r="P528" s="140"/>
+      <c r="Q528" s="140"/>
+      <c r="R528" s="140"/>
+      <c r="S528" s="140"/>
+      <c r="T528" s="140"/>
+      <c r="U528" s="140"/>
+      <c r="V528" s="140"/>
+    </row>
+    <row r="529" spans="1:22" ht="16">
+      <c r="A529" s="201"/>
+      <c r="B529" s="202"/>
+      <c r="C529" s="140"/>
+      <c r="D529" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="E529" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F529" s="140">
+        <f>766.07/1000</f>
+        <v>0.76607000000000003</v>
+      </c>
+      <c r="G529" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H529" s="212">
+        <v>42163</v>
+      </c>
+      <c r="I529" s="213">
+        <v>1</v>
+      </c>
+      <c r="J529" s="214">
+        <v>585.42999999999995</v>
+      </c>
+      <c r="K529" s="218">
+        <v>1645</v>
+      </c>
+      <c r="L529" s="140"/>
+      <c r="M529" s="140"/>
+      <c r="N529" s="140"/>
+      <c r="O529" s="140"/>
+      <c r="P529" s="140"/>
+      <c r="Q529" s="140"/>
+      <c r="R529" s="140"/>
+      <c r="S529" s="140"/>
+      <c r="T529" s="140"/>
+      <c r="U529" s="140"/>
+      <c r="V529" s="140"/>
+    </row>
+    <row r="530" spans="1:22" ht="16">
+      <c r="A530" s="201"/>
+      <c r="B530" s="202"/>
+      <c r="C530" s="140"/>
+      <c r="D530" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="E530" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F530" s="219">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G530" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H530" s="212">
+        <v>42156</v>
+      </c>
+      <c r="I530" s="213">
+        <v>1</v>
+      </c>
+      <c r="J530" s="214">
+        <v>579.65</v>
+      </c>
+      <c r="K530" s="218">
+        <v>1638</v>
+      </c>
+      <c r="L530" s="140"/>
+      <c r="M530" s="140"/>
+      <c r="N530" s="140"/>
+      <c r="O530" s="140"/>
+      <c r="P530" s="140"/>
+      <c r="Q530" s="140"/>
+      <c r="R530" s="140"/>
+      <c r="S530" s="140"/>
+      <c r="T530" s="140"/>
+      <c r="U530" s="140"/>
+      <c r="V530" s="140"/>
+    </row>
+    <row r="531" spans="1:22" ht="16">
+      <c r="A531" s="201"/>
+      <c r="B531" s="202"/>
+      <c r="C531" s="140"/>
+      <c r="D531" s="140"/>
+      <c r="E531" s="140"/>
+      <c r="F531" s="140"/>
+      <c r="G531" s="140"/>
+      <c r="H531" s="212">
+        <v>42149</v>
+      </c>
+      <c r="I531" s="213">
+        <v>1</v>
+      </c>
+      <c r="J531" s="214">
+        <v>578</v>
+      </c>
+      <c r="K531" s="218">
+        <v>1636</v>
+      </c>
+      <c r="L531" s="140"/>
+      <c r="M531" s="140"/>
+      <c r="N531" s="140"/>
+      <c r="O531" s="140"/>
+      <c r="P531" s="140"/>
+      <c r="Q531" s="140"/>
+      <c r="R531" s="140"/>
+      <c r="S531" s="140"/>
+      <c r="T531" s="140"/>
+      <c r="U531" s="140"/>
+      <c r="V531" s="140"/>
+    </row>
+    <row r="532" spans="1:22" ht="16">
+      <c r="A532" s="201"/>
+      <c r="B532" s="202"/>
+      <c r="C532" s="140"/>
+      <c r="D532" s="140" t="s">
+        <v>176</v>
+      </c>
+      <c r="E532" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="F532" s="219">
+        <f>(F530+F529+F522)*1.21</f>
+        <v>1.65739992</v>
+      </c>
+      <c r="G532" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="H532" s="212">
+        <v>42142</v>
+      </c>
+      <c r="I532" s="213">
+        <v>1</v>
+      </c>
+      <c r="J532" s="214">
+        <v>582.13</v>
+      </c>
+      <c r="K532" s="218">
+        <v>1641</v>
+      </c>
+      <c r="L532" s="140"/>
+      <c r="M532" s="140"/>
+      <c r="N532" s="140"/>
+      <c r="O532" s="140"/>
+      <c r="P532" s="140"/>
+      <c r="Q532" s="140"/>
+      <c r="R532" s="140"/>
+      <c r="S532" s="140"/>
+      <c r="T532" s="140"/>
+      <c r="U532" s="140"/>
+      <c r="V532" s="140"/>
+    </row>
+    <row r="533" spans="1:22" ht="16">
+      <c r="A533" s="201"/>
+      <c r="B533" s="202"/>
+      <c r="C533" s="140"/>
+      <c r="D533" s="140"/>
+      <c r="E533" s="140"/>
+      <c r="F533" s="140"/>
+      <c r="G533" s="140"/>
+      <c r="H533" s="212">
+        <v>42135</v>
+      </c>
+      <c r="I533" s="213">
+        <v>1</v>
+      </c>
+      <c r="J533" s="214">
+        <v>587.91</v>
+      </c>
+      <c r="K533" s="218">
+        <v>1648</v>
+      </c>
+      <c r="L533" s="140"/>
+      <c r="M533" s="140"/>
+      <c r="N533" s="140"/>
+      <c r="O533" s="140"/>
+      <c r="P533" s="140"/>
+      <c r="Q533" s="140"/>
+      <c r="R533" s="140"/>
+      <c r="S533" s="140"/>
+      <c r="T533" s="140"/>
+      <c r="U533" s="140"/>
+      <c r="V533" s="140"/>
+    </row>
+    <row r="534" spans="1:22" ht="16">
+      <c r="A534" s="201"/>
+      <c r="B534" s="202"/>
+      <c r="C534" s="140"/>
+      <c r="D534" s="140"/>
+      <c r="E534" s="140"/>
+      <c r="F534" s="140"/>
+      <c r="G534" s="140"/>
+      <c r="H534" s="212">
+        <v>42128</v>
+      </c>
+      <c r="I534" s="213">
+        <v>1</v>
+      </c>
+      <c r="J534" s="214">
+        <v>584.61</v>
+      </c>
+      <c r="K534" s="218">
+        <v>1644</v>
+      </c>
+      <c r="L534" s="140"/>
+      <c r="M534" s="140"/>
+      <c r="N534" s="140"/>
+      <c r="O534" s="140"/>
+      <c r="P534" s="140"/>
+      <c r="Q534" s="140"/>
+      <c r="R534" s="140"/>
+      <c r="S534" s="140"/>
+      <c r="T534" s="140"/>
+      <c r="U534" s="140"/>
+      <c r="V534" s="140"/>
+    </row>
+    <row r="535" spans="1:22" ht="16">
+      <c r="A535" s="201"/>
+      <c r="B535" s="202"/>
+      <c r="C535" s="140"/>
+      <c r="D535" s="140"/>
+      <c r="E535" s="140"/>
+      <c r="F535" s="140"/>
+      <c r="G535" s="140"/>
+      <c r="H535" s="212">
+        <v>42121</v>
+      </c>
+      <c r="I535" s="213">
+        <v>1</v>
+      </c>
+      <c r="J535" s="214">
+        <v>583.78</v>
+      </c>
+      <c r="K535" s="218">
+        <v>1643</v>
+      </c>
+      <c r="L535" s="140"/>
+      <c r="M535" s="140"/>
+      <c r="N535" s="140"/>
+      <c r="O535" s="140"/>
+      <c r="P535" s="140"/>
+      <c r="Q535" s="140"/>
+      <c r="R535" s="140"/>
+      <c r="S535" s="140"/>
+      <c r="T535" s="140"/>
+      <c r="U535" s="140"/>
+      <c r="V535" s="140"/>
+    </row>
+    <row r="536" spans="1:22" ht="16">
+      <c r="A536" s="201"/>
+      <c r="B536" s="202"/>
+      <c r="C536" s="140"/>
+      <c r="D536" s="140"/>
+      <c r="E536" s="140"/>
+      <c r="F536" s="140"/>
+      <c r="G536" s="140"/>
+      <c r="H536" s="212">
+        <v>42114</v>
+      </c>
+      <c r="I536" s="213">
+        <v>1</v>
+      </c>
+      <c r="J536" s="214">
+        <v>567.25</v>
+      </c>
+      <c r="K536" s="218">
+        <v>1623</v>
+      </c>
+      <c r="L536" s="140"/>
+      <c r="M536" s="140"/>
+      <c r="N536" s="140"/>
+      <c r="O536" s="140"/>
+      <c r="P536" s="140"/>
+      <c r="Q536" s="140"/>
+      <c r="R536" s="140"/>
+      <c r="S536" s="140"/>
+      <c r="T536" s="140"/>
+      <c r="U536" s="140"/>
+      <c r="V536" s="140"/>
+    </row>
+    <row r="537" spans="1:22" ht="16">
+      <c r="A537" s="201"/>
+      <c r="B537" s="202"/>
+      <c r="C537" s="140"/>
+      <c r="D537" s="140"/>
+      <c r="E537" s="140"/>
+      <c r="F537" s="140"/>
+      <c r="G537" s="140"/>
+      <c r="H537" s="212">
+        <v>42107</v>
+      </c>
+      <c r="I537" s="213">
+        <v>1</v>
+      </c>
+      <c r="J537" s="214">
+        <v>544.11</v>
+      </c>
+      <c r="K537" s="218">
+        <v>1595</v>
+      </c>
+      <c r="L537" s="140"/>
+      <c r="M537" s="140"/>
+      <c r="N537" s="140"/>
+      <c r="O537" s="140"/>
+      <c r="P537" s="140"/>
+      <c r="Q537" s="140"/>
+      <c r="R537" s="140"/>
+      <c r="S537" s="140"/>
+      <c r="T537" s="140"/>
+      <c r="U537" s="140"/>
+      <c r="V537" s="140"/>
+    </row>
+    <row r="538" spans="1:22" ht="16">
+      <c r="A538" s="201"/>
+      <c r="B538" s="202"/>
+      <c r="C538" s="140"/>
+      <c r="D538" s="140"/>
+      <c r="E538" s="140"/>
+      <c r="F538" s="140"/>
+      <c r="G538" s="140"/>
+      <c r="H538" s="212">
+        <v>42093</v>
+      </c>
+      <c r="I538" s="213">
+        <v>1</v>
+      </c>
+      <c r="J538" s="214">
+        <v>550.72</v>
+      </c>
+      <c r="K538" s="218">
+        <v>1603</v>
+      </c>
+      <c r="L538" s="140"/>
+      <c r="M538" s="140"/>
+      <c r="N538" s="140"/>
+      <c r="O538" s="140"/>
+      <c r="P538" s="140"/>
+      <c r="Q538" s="140"/>
+      <c r="R538" s="140"/>
+      <c r="S538" s="140"/>
+      <c r="T538" s="140"/>
+      <c r="U538" s="140"/>
+      <c r="V538" s="140"/>
+    </row>
+    <row r="539" spans="1:22" ht="16">
+      <c r="A539" s="201"/>
+      <c r="B539" s="202"/>
+      <c r="C539" s="140"/>
+      <c r="D539" s="140"/>
+      <c r="E539" s="140"/>
+      <c r="F539" s="140"/>
+      <c r="G539" s="140"/>
+      <c r="H539" s="212">
+        <v>42086</v>
+      </c>
+      <c r="I539" s="213">
+        <v>1</v>
+      </c>
+      <c r="J539" s="214">
+        <v>539.98</v>
+      </c>
+      <c r="K539" s="218">
+        <v>1590</v>
+      </c>
+      <c r="L539" s="140"/>
+      <c r="M539" s="140"/>
+      <c r="N539" s="140"/>
+      <c r="O539" s="140"/>
+      <c r="P539" s="140"/>
+      <c r="Q539" s="140"/>
+      <c r="R539" s="140"/>
+      <c r="S539" s="140"/>
+      <c r="T539" s="140"/>
+      <c r="U539" s="140"/>
+      <c r="V539" s="140"/>
+    </row>
+    <row r="540" spans="1:22" ht="16">
+      <c r="A540" s="201"/>
+      <c r="B540" s="202"/>
+      <c r="C540" s="201"/>
+      <c r="D540" s="201"/>
+      <c r="E540" s="201"/>
+      <c r="F540" s="140"/>
+      <c r="G540" s="140"/>
+      <c r="H540" s="212">
+        <v>42079</v>
+      </c>
+      <c r="I540" s="213">
+        <v>1</v>
+      </c>
+      <c r="J540" s="214">
+        <v>543.29</v>
+      </c>
+      <c r="K540" s="218">
+        <v>1594</v>
+      </c>
+      <c r="L540" s="201"/>
+      <c r="M540" s="201"/>
+      <c r="N540" s="201"/>
+      <c r="O540" s="201"/>
+      <c r="P540" s="201"/>
+      <c r="Q540" s="201"/>
+      <c r="R540" s="201"/>
+      <c r="S540" s="201"/>
+      <c r="T540" s="201"/>
+      <c r="U540" s="201"/>
+      <c r="V540" s="201"/>
+    </row>
+    <row r="541" spans="1:22" ht="16">
+      <c r="A541" s="201"/>
+      <c r="B541" s="202"/>
+      <c r="C541" s="201"/>
+      <c r="D541" s="201"/>
+      <c r="E541" s="201"/>
+      <c r="F541" s="140"/>
+      <c r="G541" s="140"/>
+      <c r="H541" s="212">
+        <v>42072</v>
+      </c>
+      <c r="I541" s="213">
+        <v>1</v>
+      </c>
+      <c r="J541" s="214">
+        <v>533.37</v>
+      </c>
+      <c r="K541" s="218">
+        <v>1582</v>
+      </c>
+      <c r="L541" s="201"/>
+      <c r="M541" s="201"/>
+      <c r="N541" s="201"/>
+      <c r="O541" s="201"/>
+      <c r="P541" s="201"/>
+      <c r="Q541" s="201"/>
+      <c r="R541" s="201"/>
+      <c r="S541" s="201"/>
+      <c r="T541" s="201"/>
+      <c r="U541" s="201"/>
+      <c r="V541" s="201"/>
+    </row>
+    <row r="542" spans="1:22" ht="16">
+      <c r="A542" s="201"/>
+      <c r="B542" s="202"/>
+      <c r="C542" s="201"/>
+      <c r="D542" s="201"/>
+      <c r="E542" s="201"/>
+      <c r="F542" s="140"/>
+      <c r="G542" s="140"/>
+      <c r="H542" s="212">
+        <v>42065</v>
+      </c>
+      <c r="I542" s="213">
+        <v>1</v>
+      </c>
+      <c r="J542" s="214">
+        <v>515.19000000000005</v>
+      </c>
+      <c r="K542" s="218">
+        <v>1560</v>
+      </c>
+      <c r="L542" s="201"/>
+      <c r="M542" s="201"/>
+      <c r="N542" s="201"/>
+      <c r="O542" s="201"/>
+      <c r="P542" s="201"/>
+      <c r="Q542" s="201"/>
+      <c r="R542" s="201"/>
+      <c r="S542" s="201"/>
+      <c r="T542" s="201"/>
+      <c r="U542" s="201"/>
+      <c r="V542" s="201"/>
+    </row>
+    <row r="543" spans="1:22" ht="16">
+      <c r="A543" s="201"/>
+      <c r="B543" s="202"/>
+      <c r="C543" s="201"/>
+      <c r="D543" s="201"/>
+      <c r="E543" s="201"/>
+      <c r="F543" s="140"/>
+      <c r="G543" s="140"/>
+      <c r="H543" s="212">
+        <v>42058</v>
+      </c>
+      <c r="I543" s="213">
+        <v>1</v>
+      </c>
+      <c r="J543" s="214">
+        <v>502.79</v>
+      </c>
+      <c r="K543" s="218">
+        <v>1545</v>
+      </c>
+      <c r="L543" s="201"/>
+      <c r="M543" s="201"/>
+      <c r="N543" s="201"/>
+      <c r="O543" s="201"/>
+      <c r="P543" s="201"/>
+      <c r="Q543" s="201"/>
+      <c r="R543" s="201"/>
+      <c r="S543" s="201"/>
+      <c r="T543" s="201"/>
+      <c r="U543" s="201"/>
+      <c r="V543" s="201"/>
+    </row>
+    <row r="544" spans="1:22" ht="16">
+      <c r="A544" s="201"/>
+      <c r="B544" s="202"/>
+      <c r="C544" s="201"/>
+      <c r="D544" s="201"/>
+      <c r="E544" s="201"/>
+      <c r="F544" s="140"/>
+      <c r="G544" s="140"/>
+      <c r="H544" s="212">
+        <v>42051</v>
+      </c>
+      <c r="I544" s="213">
+        <v>1</v>
+      </c>
+      <c r="J544" s="214">
+        <v>497</v>
+      </c>
+      <c r="K544" s="218">
+        <v>1538</v>
+      </c>
+      <c r="L544" s="201"/>
+      <c r="M544" s="201"/>
+      <c r="N544" s="201"/>
+      <c r="O544" s="201"/>
+      <c r="P544" s="201"/>
+      <c r="Q544" s="201"/>
+      <c r="R544" s="201"/>
+      <c r="S544" s="201"/>
+      <c r="T544" s="201"/>
+      <c r="U544" s="201"/>
+      <c r="V544" s="201"/>
+    </row>
+    <row r="545" spans="1:25" ht="16">
+      <c r="A545" s="201"/>
+      <c r="B545" s="202"/>
+      <c r="C545" s="201"/>
+      <c r="D545" s="201"/>
+      <c r="E545" s="201"/>
+      <c r="F545" s="140"/>
+      <c r="G545" s="140"/>
+      <c r="H545" s="212">
+        <v>42044</v>
+      </c>
+      <c r="I545" s="213">
+        <v>1</v>
+      </c>
+      <c r="J545" s="214">
+        <v>463.12</v>
+      </c>
+      <c r="K545" s="218">
+        <v>1497</v>
+      </c>
+      <c r="L545" s="201"/>
+      <c r="M545" s="201"/>
+      <c r="N545" s="201"/>
+      <c r="O545" s="201"/>
+      <c r="P545" s="201"/>
+      <c r="Q545" s="201"/>
+      <c r="R545" s="201"/>
+      <c r="S545" s="201"/>
+      <c r="T545" s="201"/>
+      <c r="U545" s="201"/>
+      <c r="V545" s="201"/>
+    </row>
+    <row r="546" spans="1:25" ht="16">
+      <c r="A546" s="201"/>
+      <c r="B546" s="202"/>
+      <c r="C546" s="201"/>
+      <c r="D546" s="201"/>
+      <c r="E546" s="201"/>
+      <c r="F546" s="140"/>
+      <c r="G546" s="140"/>
+      <c r="H546" s="212">
+        <v>42037</v>
+      </c>
+      <c r="I546" s="213">
+        <v>1</v>
+      </c>
+      <c r="J546" s="214">
+        <v>435.02</v>
+      </c>
+      <c r="K546" s="218">
+        <v>1463</v>
+      </c>
+      <c r="L546" s="201"/>
+      <c r="M546" s="201"/>
+      <c r="N546" s="201"/>
+      <c r="O546" s="201"/>
+      <c r="P546" s="201"/>
+      <c r="Q546" s="201"/>
+      <c r="R546" s="201"/>
+      <c r="S546" s="201"/>
+      <c r="T546" s="201"/>
+      <c r="U546" s="201"/>
+      <c r="V546" s="201"/>
+    </row>
+    <row r="547" spans="1:25" ht="16">
+      <c r="A547" s="201"/>
+      <c r="B547" s="202"/>
+      <c r="C547" s="201"/>
+      <c r="D547" s="201"/>
+      <c r="E547" s="201"/>
+      <c r="F547" s="140"/>
+      <c r="G547" s="140"/>
+      <c r="H547" s="212">
+        <v>42030</v>
+      </c>
+      <c r="I547" s="213">
+        <v>1</v>
+      </c>
+      <c r="J547" s="214">
+        <v>434.19</v>
+      </c>
+      <c r="K547" s="218">
+        <v>1462</v>
+      </c>
+      <c r="L547" s="201"/>
+      <c r="M547" s="201"/>
+      <c r="N547" s="201"/>
+      <c r="O547" s="201"/>
+      <c r="P547" s="201"/>
+      <c r="Q547" s="201"/>
+      <c r="R547" s="201"/>
+      <c r="S547" s="201"/>
+      <c r="T547" s="201"/>
+      <c r="U547" s="201"/>
+      <c r="V547" s="201"/>
+    </row>
+    <row r="548" spans="1:25" ht="16">
+      <c r="A548" s="201"/>
+      <c r="B548" s="202"/>
+      <c r="C548" s="201"/>
+      <c r="D548" s="201"/>
+      <c r="E548" s="201"/>
+      <c r="F548" s="140"/>
+      <c r="G548" s="140"/>
+      <c r="H548" s="212">
+        <v>42023</v>
+      </c>
+      <c r="I548" s="213">
+        <v>1</v>
+      </c>
+      <c r="J548" s="214">
+        <v>435.02</v>
+      </c>
+      <c r="K548" s="218">
+        <v>1463</v>
+      </c>
+      <c r="L548" s="201"/>
+      <c r="M548" s="201"/>
+      <c r="N548" s="201"/>
+      <c r="O548" s="201"/>
+      <c r="P548" s="201"/>
+      <c r="Q548" s="201"/>
+      <c r="R548" s="201"/>
+      <c r="S548" s="201"/>
+      <c r="T548" s="201"/>
+      <c r="U548" s="201"/>
+      <c r="V548" s="201"/>
+    </row>
+    <row r="549" spans="1:25" ht="16">
+      <c r="A549" s="201"/>
+      <c r="B549" s="202"/>
+      <c r="C549" s="201"/>
+      <c r="D549" s="201"/>
+      <c r="E549" s="201"/>
+      <c r="F549" s="140"/>
+      <c r="G549" s="140"/>
+      <c r="H549" s="212">
+        <v>42016</v>
+      </c>
+      <c r="I549" s="213">
+        <v>1</v>
+      </c>
+      <c r="J549" s="214">
+        <v>448.24</v>
+      </c>
+      <c r="K549" s="218">
+        <v>1479</v>
+      </c>
+      <c r="L549" s="201"/>
+      <c r="M549" s="201"/>
+      <c r="N549" s="201"/>
+      <c r="O549" s="201"/>
+      <c r="P549" s="201"/>
+      <c r="Q549" s="201"/>
+      <c r="R549" s="201"/>
+      <c r="S549" s="201"/>
+      <c r="T549" s="201"/>
+      <c r="U549" s="201"/>
+      <c r="V549" s="201"/>
+    </row>
+    <row r="550" spans="1:25" ht="16">
+      <c r="A550" s="201"/>
+      <c r="B550" s="202"/>
+      <c r="C550" s="201"/>
+      <c r="D550" s="201"/>
+      <c r="E550" s="201"/>
+      <c r="F550" s="140"/>
+      <c r="G550" s="140"/>
+      <c r="H550" s="212">
+        <v>42009</v>
+      </c>
+      <c r="I550" s="213">
+        <v>1</v>
+      </c>
+      <c r="J550" s="214">
+        <v>466.43</v>
+      </c>
+      <c r="K550" s="218">
+        <v>1501</v>
+      </c>
+      <c r="L550" s="201"/>
+      <c r="M550" s="201"/>
+      <c r="N550" s="201"/>
+      <c r="O550" s="201"/>
+      <c r="P550" s="201"/>
+      <c r="Q550" s="201"/>
+      <c r="R550" s="201"/>
+      <c r="S550" s="201"/>
+      <c r="T550" s="201"/>
+      <c r="U550" s="201"/>
+      <c r="V550" s="201"/>
+    </row>
+    <row r="555" spans="1:25" ht="16" thickBot="1"/>
+    <row r="556" spans="1:25" s="26" customFormat="1">
+      <c r="B556" s="130"/>
+      <c r="C556" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D556" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="E556" s="130"/>
+      <c r="F556" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="G556" s="130"/>
+      <c r="H556" s="130"/>
+      <c r="I556" s="130"/>
+      <c r="J556" s="130"/>
+      <c r="K556" s="130"/>
+      <c r="L556" s="130"/>
+      <c r="M556" s="130"/>
+      <c r="N556" s="130"/>
+      <c r="O556" s="130"/>
+      <c r="P556" s="130"/>
+      <c r="Q556" s="130"/>
+      <c r="R556" s="130"/>
+      <c r="S556" s="130"/>
+      <c r="T556" s="130"/>
+      <c r="U556" s="130"/>
+    </row>
+    <row r="557" spans="1:25" customFormat="1" ht="16">
+      <c r="B557" s="127"/>
+      <c r="C557" s="164"/>
+      <c r="D557" s="140"/>
+      <c r="E557" s="140"/>
+      <c r="F557" s="140"/>
+      <c r="G557" s="140"/>
+      <c r="H557" s="140"/>
+      <c r="I557" s="140"/>
+      <c r="J557" s="140"/>
+      <c r="K557" s="140"/>
+      <c r="L557" s="140"/>
+      <c r="M557" s="140"/>
+      <c r="N557" s="140"/>
+      <c r="O557" s="140"/>
+      <c r="P557" s="140"/>
+      <c r="Q557" s="140"/>
+      <c r="R557" s="140"/>
+      <c r="S557" s="140"/>
+      <c r="T557" s="140"/>
+      <c r="U557" s="140"/>
+      <c r="V557" s="140"/>
+      <c r="W557" s="140"/>
+      <c r="X557" s="140"/>
+      <c r="Y557" s="140"/>
+    </row>
+    <row r="558" spans="1:25" customFormat="1" ht="16">
+      <c r="B558" s="127"/>
+      <c r="C558" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D558" s="140"/>
+      <c r="E558" s="140"/>
+      <c r="F558" s="140"/>
+      <c r="G558" s="140"/>
+      <c r="H558" s="140"/>
+      <c r="I558" s="140"/>
+      <c r="J558" s="140"/>
+      <c r="K558" s="140"/>
+      <c r="L558" s="140"/>
+      <c r="M558" s="140"/>
+      <c r="N558" s="140"/>
+      <c r="O558" s="140"/>
+      <c r="P558" s="140"/>
+      <c r="Q558" s="140"/>
+      <c r="R558" s="140"/>
+      <c r="S558" s="140"/>
+      <c r="T558" s="140"/>
+      <c r="U558" s="140"/>
+      <c r="V558" s="140"/>
+      <c r="W558" s="140"/>
+      <c r="X558" s="140"/>
+      <c r="Y558" s="140"/>
+    </row>
+    <row r="559" spans="1:25">
+      <c r="B559" s="127"/>
+    </row>
+    <row r="560" spans="1:25">
+      <c r="B560" s="127"/>
+    </row>
+    <row r="561" spans="2:8">
+      <c r="B561" s="127"/>
+      <c r="D561" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="F561" s="184" t="s">
+        <v>150</v>
+      </c>
+      <c r="G561" s="184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8">
+      <c r="B562" s="127"/>
+      <c r="D562" s="220" t="s">
+        <v>179</v>
+      </c>
+      <c r="G562" s="184" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8">
+      <c r="B563" s="127"/>
+    </row>
+    <row r="564" spans="2:8">
+      <c r="B564" s="127"/>
+      <c r="F564" s="126">
+        <v>0.6</v>
+      </c>
+      <c r="G564" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="H564" s="220" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8">
+      <c r="B565" s="127"/>
+      <c r="F565" s="221">
+        <f>F525</f>
+        <v>1.6574</v>
+      </c>
+      <c r="G565" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="H565" s="220" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8">
+      <c r="B566" s="127"/>
+      <c r="F566" s="221">
+        <f>F564+F565</f>
+        <v>2.2574000000000001</v>
+      </c>
+      <c r="G566" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="H566" s="220" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8">
+      <c r="B567" s="127"/>
+    </row>
+    <row r="568" spans="2:8">
+      <c r="B568" s="127"/>
+      <c r="F568" s="126">
+        <f>F529</f>
+        <v>0.76607000000000003</v>
+      </c>
+      <c r="G568" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="H568" s="220" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8">
+      <c r="B569" s="127"/>
+      <c r="F569" s="221">
+        <f>F530</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G569" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="H569" s="220" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8">
+      <c r="B570" s="127"/>
+      <c r="F570" s="126">
+        <f>F528</f>
+        <v>21</v>
+      </c>
+      <c r="G570" s="220" t="s">
+        <v>172</v>
+      </c>
+      <c r="H570" s="220" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8">
+      <c r="B571" s="127"/>
+    </row>
+    <row r="572" spans="2:8">
+      <c r="B572" s="127"/>
+      <c r="G572" s="220"/>
+      <c r="H572" s="220"/>
+    </row>
+    <row r="573" spans="2:8">
+      <c r="B573" s="127"/>
+      <c r="G573" s="220"/>
+      <c r="H573" s="220"/>
+    </row>
+    <row r="574" spans="2:8">
+      <c r="B574" s="127"/>
+    </row>
+    <row r="575" spans="2:8">
+      <c r="B575" s="127"/>
+      <c r="F575" s="222">
+        <f>F566/1.21-F569-F568</f>
+        <v>1.091549834710744</v>
+      </c>
+      <c r="G575" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="H575" s="220" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8">
+      <c r="B576" s="127"/>
+      <c r="F576" s="234">
+        <f>F575/F24</f>
+        <v>4.7634896159827043E-2</v>
+      </c>
+      <c r="G576" s="220" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="127"/>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="127"/>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="127"/>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="127"/>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="127"/>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="127"/>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="127"/>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="127"/>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="127"/>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" s="127"/>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="127"/>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="127"/>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="127"/>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="127"/>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" s="127"/>
+    </row>
+    <row r="592" spans="2:2">
+      <c r="B592" s="127"/>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="127"/>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="127"/>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" s="127"/>
+    </row>
+    <row r="596" spans="2:2">
+      <c r="B596" s="127"/>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" s="127"/>
+    </row>
+    <row r="598" spans="2:2">
+      <c r="B598" s="127"/>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" s="127"/>
+    </row>
+    <row r="600" spans="2:2">
+      <c r="B600" s="127"/>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="127"/>
+    </row>
+    <row r="602" spans="2:2">
+      <c r="B602" s="127"/>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="127"/>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="127"/>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" s="127"/>
+    </row>
+    <row r="606" spans="2:2">
+      <c r="B606" s="127"/>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="127"/>
+    </row>
+    <row r="608" spans="2:2">
+      <c r="B608" s="127"/>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="127"/>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="127"/>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" s="127"/>
+    </row>
+    <row r="612" spans="2:2">
+      <c r="B612" s="127"/>
+    </row>
+    <row r="613" spans="2:2">
+      <c r="B613" s="127"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C306" r:id="rId1"/>
     <hyperlink ref="C425" r:id="rId2"/>
     <hyperlink ref="C393" r:id="rId3"/>
+    <hyperlink ref="C516" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="762" activeTab="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
   <si>
     <t>Source</t>
   </si>
@@ -540,9 +540,6 @@
   </si>
   <si>
     <t>ExchangeRateTo €</t>
-  </si>
-  <si>
-    <t>Euro-super 95(I)</t>
   </si>
   <si>
     <t>1000L</t>
@@ -721,6 +718,12 @@
   <si>
     <t>EC Oil Bulletin and biotanken.nl</t>
   </si>
+  <si>
+    <t>Euro-super 95(I) incl tax</t>
+  </si>
+  <si>
+    <t>Euro-super 95(I) excl tax</t>
+  </si>
 </sst>
 </file>
 
@@ -733,10 +736,10 @@
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.00000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -744,6 +747,13 @@
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -991,28 +1001,12 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF900000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF900000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -1028,16 +1022,28 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FF800000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF800000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1146,14 +1152,8 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1530,21 +1530,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1561,758 +1546,761 @@
   </borders>
   <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="38" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="40" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="169" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="37" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="42" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="358">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4458,25 +4446,25 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="212">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="211" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="233">
-        <v>42227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" s="232" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="211" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="C29" s="232" t="s">
+    <row r="30" spans="1:4">
+      <c r="C30" s="211" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" s="232" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4497,9 +4485,7 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4523,28 +4509,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="219" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="187"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="190"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="191"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="193"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4637,15 +4623,15 @@
       <c r="D11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="239">
+      <c r="E11" s="218">
         <f>'Research data'!G7</f>
-        <v>4.7634896159827043E-2</v>
+        <v>3.9332535344938857E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="238" t="s">
-        <v>199</v>
+      <c r="I11" s="217" t="s">
+        <v>198</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -4800,29 +4786,29 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="219" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="194"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="228"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="195"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="229"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="230" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -5335,7 +5321,7 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P3" s="69"/>
       <c r="Q3" s="1" t="s">
@@ -5422,9 +5408,9 @@
       <c r="F7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="237">
+      <c r="G7" s="216">
         <f>O7</f>
-        <v>4.7634896159827043E-2</v>
+        <v>3.9332535344938857E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -5433,13 +5419,13 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="236">
+      <c r="O7" s="215">
         <f>Notes!F576</f>
-        <v>4.7634896159827043E-2</v>
+        <v>3.9332535344938857E-2</v>
       </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="235" t="s">
-        <v>198</v>
+      <c r="Q7" s="214" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
@@ -6429,8 +6415,8 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y613"/>
   <sheetViews>
-    <sheetView topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="F576" sqref="F576"/>
+    <sheetView topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="F566" sqref="F566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6579,7 +6565,7 @@
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
       <c r="F7" s="140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -6787,7 +6773,7 @@
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
       <c r="F14" s="140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="140"/>
@@ -7024,12 +7010,12 @@
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140"/>
-      <c r="F22" s="223">
+      <c r="F22" s="202">
         <v>0.15</v>
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
@@ -7054,13 +7040,13 @@
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140"/>
-      <c r="F23" s="223">
+      <c r="F23" s="202">
         <f>1-F22</f>
         <v>0.85</v>
       </c>
       <c r="G23" s="140"/>
       <c r="H23" s="140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
@@ -7085,7 +7071,7 @@
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140"/>
-      <c r="F24" s="224">
+      <c r="F24" s="203">
         <f>F22*F18+F23*F11</f>
         <v>22.914920000000002</v>
       </c>
@@ -7093,7 +7079,7 @@
         <v>73</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
@@ -7174,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H27" s="155" t="s">
         <v>150</v>
@@ -7202,16 +7188,16 @@
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F28" s="157">
         <v>0.15</v>
       </c>
       <c r="G28" s="157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H28" s="158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
@@ -7234,88 +7220,88 @@
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="127"/>
       <c r="E29" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" s="157">
         <f>F28*F18</f>
         <v>4.8276000000000003</v>
       </c>
       <c r="G29" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H29" s="158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:25" customFormat="1" ht="16">
       <c r="B30" s="127"/>
       <c r="E30" s="159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="157">
         <f>F28*F17</f>
         <v>0.11175</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:25" customFormat="1" ht="16">
       <c r="B31" s="127"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="227"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="206"/>
     </row>
     <row r="32" spans="2:25" customFormat="1" ht="16">
       <c r="B32" s="127"/>
       <c r="E32" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" s="157">
         <f>1-F28</f>
         <v>0.85</v>
       </c>
       <c r="G32" s="157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H32" s="158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:8" customFormat="1" ht="16">
       <c r="B33" s="127"/>
       <c r="E33" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" s="157">
         <f>F32*F11</f>
         <v>18.087320000000002</v>
       </c>
       <c r="G33" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H33" s="158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:8" customFormat="1" ht="16">
       <c r="B34" s="127"/>
       <c r="E34" s="159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="157">
         <f>F32*F10</f>
         <v>0.67490000000000006</v>
       </c>
       <c r="G34" s="157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H34" s="158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:8" customFormat="1" ht="16">
@@ -7328,14 +7314,14 @@
     <row r="36" spans="2:8" customFormat="1" ht="16">
       <c r="B36" s="127"/>
       <c r="E36" s="159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="157">
         <f>F30+F34</f>
         <v>0.78665000000000007</v>
       </c>
       <c r="G36" s="157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H36" s="158" t="s">
         <v>150</v>
@@ -7344,14 +7330,14 @@
     <row r="37" spans="2:8" customFormat="1" ht="16">
       <c r="B37" s="127"/>
       <c r="E37" s="159" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="157">
         <f>F29+F33</f>
         <v>22.914920000000002</v>
       </c>
       <c r="G37" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="158" t="s">
         <v>150</v>
@@ -7360,7 +7346,7 @@
     <row r="38" spans="2:8" customFormat="1" ht="16">
       <c r="B38" s="127"/>
       <c r="E38" s="159"/>
-      <c r="F38" s="231">
+      <c r="F38" s="210">
         <f>F37/F36</f>
         <v>29.129752748998918</v>
       </c>
@@ -7368,15 +7354,15 @@
         <v>61</v>
       </c>
       <c r="H38" s="158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="2:8" customFormat="1" ht="16">
       <c r="B39" s="127"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="230"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="209"/>
     </row>
     <row r="40" spans="2:8" customFormat="1" ht="16">
       <c r="B40" s="127"/>
@@ -15840,41 +15826,41 @@
       <c r="B512" s="127"/>
     </row>
     <row r="513" spans="1:25">
-      <c r="A513" s="199"/>
-      <c r="B513" s="200"/>
-      <c r="C513" s="200" t="s">
+      <c r="A513" s="185"/>
+      <c r="B513" s="186"/>
+      <c r="C513" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="D513" s="200" t="s">
+      <c r="D513" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="E513" s="200"/>
-      <c r="F513" s="200" t="s">
+      <c r="E513" s="186"/>
+      <c r="F513" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="G513" s="200"/>
-      <c r="H513" s="200"/>
-      <c r="I513" s="200"/>
-      <c r="J513" s="200"/>
-      <c r="K513" s="200"/>
-      <c r="L513" s="200"/>
-      <c r="M513" s="200"/>
-      <c r="N513" s="200"/>
-      <c r="O513" s="200"/>
-      <c r="P513" s="200"/>
-      <c r="Q513" s="200"/>
-      <c r="R513" s="200"/>
-      <c r="S513" s="200"/>
-      <c r="T513" s="200"/>
-      <c r="U513" s="200"/>
-      <c r="V513" s="199"/>
-      <c r="W513" s="199"/>
-      <c r="X513" s="199"/>
-      <c r="Y513" s="199"/>
+      <c r="G513" s="186"/>
+      <c r="H513" s="186"/>
+      <c r="I513" s="186"/>
+      <c r="J513" s="186"/>
+      <c r="K513" s="186"/>
+      <c r="L513" s="186"/>
+      <c r="M513" s="186"/>
+      <c r="N513" s="186"/>
+      <c r="O513" s="186"/>
+      <c r="P513" s="186"/>
+      <c r="Q513" s="186"/>
+      <c r="R513" s="186"/>
+      <c r="S513" s="186"/>
+      <c r="T513" s="186"/>
+      <c r="U513" s="186"/>
+      <c r="V513" s="185"/>
+      <c r="W513" s="185"/>
+      <c r="X513" s="185"/>
+      <c r="Y513" s="185"/>
     </row>
     <row r="514" spans="1:25" ht="16">
-      <c r="A514" s="201"/>
-      <c r="B514" s="202"/>
+      <c r="A514" s="187"/>
+      <c r="B514" s="188"/>
       <c r="C514" s="140"/>
       <c r="D514" s="140"/>
       <c r="E514" s="140"/>
@@ -15900,9 +15886,9 @@
       <c r="Y514" s="140"/>
     </row>
     <row r="515" spans="1:25" ht="16">
-      <c r="A515" s="201"/>
-      <c r="B515" s="202"/>
-      <c r="C515" s="199" t="s">
+      <c r="A515" s="187"/>
+      <c r="B515" s="188"/>
+      <c r="C515" s="185" t="s">
         <v>153</v>
       </c>
       <c r="D515" s="140"/>
@@ -15929,9 +15915,9 @@
       <c r="Y515" s="140"/>
     </row>
     <row r="516" spans="1:25" ht="16">
-      <c r="A516" s="201"/>
-      <c r="B516" s="202"/>
-      <c r="C516" s="203" t="s">
+      <c r="A516" s="187"/>
+      <c r="B516" s="188"/>
+      <c r="C516" s="189" t="s">
         <v>154</v>
       </c>
       <c r="D516" s="140"/>
@@ -15958,10 +15944,10 @@
       <c r="Y516" s="140"/>
     </row>
     <row r="517" spans="1:25" ht="16">
-      <c r="A517" s="201"/>
-      <c r="B517" s="202"/>
+      <c r="A517" s="187"/>
+      <c r="B517" s="188"/>
       <c r="C517" s="140"/>
-      <c r="D517" s="201"/>
+      <c r="D517" s="187"/>
       <c r="E517" s="140"/>
       <c r="F517" s="140"/>
       <c r="G517" s="140"/>
@@ -15985,8 +15971,8 @@
       <c r="Y517" s="140"/>
     </row>
     <row r="518" spans="1:25" ht="16">
-      <c r="A518" s="201"/>
-      <c r="B518" s="202"/>
+      <c r="A518" s="187"/>
+      <c r="B518" s="188"/>
       <c r="C518" s="140"/>
       <c r="D518" s="140" t="s">
         <v>155</v>
@@ -16014,26 +16000,26 @@
       <c r="Y518" s="140"/>
     </row>
     <row r="519" spans="1:25" ht="24">
-      <c r="A519" s="201"/>
-      <c r="B519" s="202"/>
+      <c r="A519" s="187"/>
+      <c r="B519" s="188"/>
       <c r="C519" s="140"/>
-      <c r="D519" s="204" t="s">
+      <c r="D519" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="E519" s="201"/>
+      <c r="E519" s="187"/>
       <c r="F519" s="140"/>
       <c r="G519" s="140"/>
-      <c r="H519" s="205" t="s">
+      <c r="H519" s="233" t="s">
         <v>156</v>
       </c>
-      <c r="I519" s="206" t="s">
+      <c r="I519" s="234" t="s">
         <v>157</v>
       </c>
-      <c r="J519" s="207" t="s">
-        <v>158</v>
-      </c>
-      <c r="K519" s="216" t="s">
-        <v>158</v>
+      <c r="J519" s="235" t="s">
+        <v>200</v>
+      </c>
+      <c r="K519" s="196" t="s">
+        <v>199</v>
       </c>
       <c r="L519" s="140"/>
       <c r="M519" s="140"/>
@@ -16048,22 +16034,22 @@
       <c r="V519" s="140"/>
     </row>
     <row r="520" spans="1:25" ht="17" thickBot="1">
-      <c r="A520" s="201"/>
-      <c r="B520" s="202"/>
+      <c r="A520" s="187"/>
+      <c r="B520" s="188"/>
       <c r="C520" s="140"/>
       <c r="D520" s="140" t="s">
-        <v>163</v>
-      </c>
-      <c r="E520" s="201"/>
+        <v>162</v>
+      </c>
+      <c r="E520" s="187"/>
       <c r="F520" s="140"/>
       <c r="G520" s="140"/>
-      <c r="H520" s="208"/>
-      <c r="I520" s="209"/>
-      <c r="J520" s="210" t="s">
-        <v>159</v>
-      </c>
-      <c r="K520" s="217" t="s">
-        <v>159</v>
+      <c r="H520" s="191"/>
+      <c r="I520" s="192"/>
+      <c r="J520" s="236" t="s">
+        <v>158</v>
+      </c>
+      <c r="K520" s="197" t="s">
+        <v>158</v>
       </c>
       <c r="L520" s="140"/>
       <c r="M520" s="140"/>
@@ -16078,31 +16064,31 @@
       <c r="V520" s="140"/>
     </row>
     <row r="521" spans="1:25" ht="17" thickBot="1">
-      <c r="A521" s="201"/>
-      <c r="B521" s="202"/>
+      <c r="A521" s="187"/>
+      <c r="B521" s="188"/>
       <c r="C521" s="140"/>
       <c r="D521" s="140"/>
-      <c r="E521" s="201" t="s">
+      <c r="E521" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="F521" s="193">
+        <f>AVERAGE(J521:J525)</f>
+        <v>401.60399999999998</v>
+      </c>
+      <c r="G521" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="F521" s="211">
-        <f>AVERAGE(J521:J525)</f>
-        <v>595.68200000000002</v>
-      </c>
-      <c r="G521" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="H521" s="212">
-        <v>42219</v>
-      </c>
-      <c r="I521" s="213">
+      <c r="H521" s="194">
+        <v>42408</v>
+      </c>
+      <c r="I521" s="237">
         <v>1</v>
       </c>
-      <c r="J521" s="214">
-        <v>573.86</v>
-      </c>
-      <c r="K521" s="218">
-        <v>1631</v>
+      <c r="J521" s="238">
+        <v>395.65</v>
+      </c>
+      <c r="K521" s="239">
+        <v>1420</v>
       </c>
       <c r="L521" s="140"/>
       <c r="M521" s="140"/>
@@ -16117,31 +16103,31 @@
       <c r="V521" s="140"/>
     </row>
     <row r="522" spans="1:25" ht="17" thickBot="1">
-      <c r="A522" s="201"/>
-      <c r="B522" s="202"/>
+      <c r="A522" s="187"/>
+      <c r="B522" s="188"/>
       <c r="C522" s="140"/>
       <c r="D522" s="140"/>
-      <c r="E522" s="201" t="s">
-        <v>160</v>
-      </c>
-      <c r="F522" s="215">
+      <c r="E522" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="F522" s="195">
         <f>F521/1000</f>
-        <v>0.59568200000000004</v>
+        <v>0.40160399999999996</v>
       </c>
       <c r="G522" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="H522" s="212">
-        <v>42212</v>
-      </c>
-      <c r="I522" s="213">
+        <v>161</v>
+      </c>
+      <c r="H522" s="194">
+        <v>42401</v>
+      </c>
+      <c r="I522" s="237">
         <v>1</v>
       </c>
-      <c r="J522" s="214">
-        <v>586.26</v>
-      </c>
-      <c r="K522" s="218">
-        <v>1646</v>
+      <c r="J522" s="238">
+        <v>399.79</v>
+      </c>
+      <c r="K522" s="240">
+        <v>1425</v>
       </c>
       <c r="L522" s="140"/>
       <c r="M522" s="140"/>
@@ -16156,24 +16142,24 @@
       <c r="V522" s="140"/>
     </row>
     <row r="523" spans="1:25" ht="17" thickBot="1">
-      <c r="A523" s="201"/>
-      <c r="B523" s="202"/>
+      <c r="A523" s="187"/>
+      <c r="B523" s="188"/>
       <c r="C523" s="140"/>
       <c r="D523" s="140"/>
       <c r="E523" s="140"/>
       <c r="F523" s="140"/>
       <c r="G523" s="140"/>
-      <c r="H523" s="212">
-        <v>42205</v>
-      </c>
-      <c r="I523" s="213">
+      <c r="H523" s="194">
+        <v>42394</v>
+      </c>
+      <c r="I523" s="237">
         <v>1</v>
       </c>
-      <c r="J523" s="214">
-        <v>599.48</v>
-      </c>
-      <c r="K523" s="218">
-        <v>1662</v>
+      <c r="J523" s="238">
+        <v>393.17</v>
+      </c>
+      <c r="K523" s="240">
+        <v>1417</v>
       </c>
       <c r="L523" s="140"/>
       <c r="M523" s="140"/>
@@ -16188,33 +16174,33 @@
       <c r="V523" s="140"/>
     </row>
     <row r="524" spans="1:25" ht="17" thickBot="1">
-      <c r="A524" s="201"/>
-      <c r="B524" s="202"/>
+      <c r="A524" s="187"/>
+      <c r="B524" s="188"/>
       <c r="C524" s="140"/>
       <c r="D524" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="E524" s="201" t="s">
+        <v>163</v>
+      </c>
+      <c r="E524" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="F524" s="193">
+        <f>AVERAGE(K521:K525)</f>
+        <v>1427.2</v>
+      </c>
+      <c r="G524" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="F524" s="211">
-        <f>AVERAGE(K521:K525)</f>
-        <v>1657.4</v>
-      </c>
-      <c r="G524" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="H524" s="212">
-        <v>42198</v>
-      </c>
-      <c r="I524" s="213">
+      <c r="H524" s="194">
+        <v>42387</v>
+      </c>
+      <c r="I524" s="237">
         <v>1</v>
       </c>
-      <c r="J524" s="214">
-        <v>617.66999999999996</v>
-      </c>
-      <c r="K524" s="218">
-        <v>1684</v>
+      <c r="J524" s="238">
+        <v>402.27</v>
+      </c>
+      <c r="K524" s="240">
+        <v>1428</v>
       </c>
       <c r="L524" s="140"/>
       <c r="M524" s="140"/>
@@ -16229,31 +16215,31 @@
       <c r="V524" s="140"/>
     </row>
     <row r="525" spans="1:25" ht="17" thickBot="1">
-      <c r="A525" s="201"/>
-      <c r="B525" s="202"/>
+      <c r="A525" s="187"/>
+      <c r="B525" s="188"/>
       <c r="C525" s="140"/>
       <c r="D525" s="140"/>
-      <c r="E525" s="201" t="s">
-        <v>160</v>
-      </c>
-      <c r="F525" s="215">
+      <c r="E525" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="F525" s="195">
         <f>F524/1000</f>
-        <v>1.6574</v>
+        <v>1.4272</v>
       </c>
       <c r="G525" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="H525" s="212">
-        <v>42191</v>
-      </c>
-      <c r="I525" s="213">
+        <v>161</v>
+      </c>
+      <c r="H525" s="194">
+        <v>42380</v>
+      </c>
+      <c r="I525" s="237">
         <v>1</v>
       </c>
-      <c r="J525" s="214">
-        <v>601.14</v>
-      </c>
-      <c r="K525" s="218">
-        <v>1664</v>
+      <c r="J525" s="238">
+        <v>417.14</v>
+      </c>
+      <c r="K525" s="240">
+        <v>1446</v>
       </c>
       <c r="L525" s="140"/>
       <c r="M525" s="140"/>
@@ -16268,24 +16254,24 @@
       <c r="V525" s="140"/>
     </row>
     <row r="526" spans="1:25" ht="16">
-      <c r="A526" s="201"/>
-      <c r="B526" s="202"/>
+      <c r="A526" s="187"/>
+      <c r="B526" s="188"/>
       <c r="C526" s="140"/>
       <c r="D526" s="140"/>
       <c r="E526" s="140"/>
       <c r="F526" s="140"/>
       <c r="G526" s="140"/>
-      <c r="H526" s="212">
-        <v>42184</v>
-      </c>
-      <c r="I526" s="213">
+      <c r="H526" s="194">
+        <v>42373</v>
+      </c>
+      <c r="I526" s="237">
         <v>1</v>
       </c>
-      <c r="J526" s="214">
-        <v>593.70000000000005</v>
-      </c>
-      <c r="K526" s="218">
-        <v>1655</v>
+      <c r="J526" s="238">
+        <v>412.18</v>
+      </c>
+      <c r="K526" s="240">
+        <v>1440</v>
       </c>
       <c r="L526" s="140"/>
       <c r="M526" s="140"/>
@@ -16300,26 +16286,26 @@
       <c r="V526" s="140"/>
     </row>
     <row r="527" spans="1:25" ht="16">
-      <c r="A527" s="201"/>
-      <c r="B527" s="202"/>
+      <c r="A527" s="187"/>
+      <c r="B527" s="188"/>
       <c r="C527" s="140"/>
       <c r="D527" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E527" s="140"/>
-      <c r="F527" s="219"/>
+      <c r="F527" s="198"/>
       <c r="G527" s="140"/>
-      <c r="H527" s="212">
-        <v>42177</v>
-      </c>
-      <c r="I527" s="213">
+      <c r="H527" s="194">
+        <v>42352</v>
+      </c>
+      <c r="I527" s="237">
         <v>1</v>
       </c>
-      <c r="J527" s="214">
-        <v>604.44000000000005</v>
-      </c>
-      <c r="K527" s="218">
-        <v>1668</v>
+      <c r="J527" s="238">
+        <v>435.02</v>
+      </c>
+      <c r="K527" s="240">
+        <v>1463</v>
       </c>
       <c r="L527" s="140"/>
       <c r="M527" s="140"/>
@@ -16334,32 +16320,32 @@
       <c r="V527" s="140"/>
     </row>
     <row r="528" spans="1:25" ht="16">
-      <c r="A528" s="201"/>
-      <c r="B528" s="202"/>
+      <c r="A528" s="187"/>
+      <c r="B528" s="188"/>
       <c r="C528" s="140"/>
       <c r="D528" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="E528" s="201" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="E528" s="187" t="s">
+        <v>159</v>
       </c>
       <c r="F528" s="140">
         <v>21</v>
       </c>
       <c r="G528" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="H528" s="212">
-        <v>42170</v>
-      </c>
-      <c r="I528" s="213">
+        <v>171</v>
+      </c>
+      <c r="H528" s="194">
+        <v>42345</v>
+      </c>
+      <c r="I528" s="237">
         <v>1</v>
       </c>
-      <c r="J528" s="214">
-        <v>601.14</v>
-      </c>
-      <c r="K528" s="218">
-        <v>1664</v>
+      <c r="J528" s="238">
+        <v>452.38</v>
+      </c>
+      <c r="K528" s="240">
+        <v>1484</v>
       </c>
       <c r="L528" s="140"/>
       <c r="M528" s="140"/>
@@ -16374,33 +16360,33 @@
       <c r="V528" s="140"/>
     </row>
     <row r="529" spans="1:22" ht="16">
-      <c r="A529" s="201"/>
-      <c r="B529" s="202"/>
+      <c r="A529" s="187"/>
+      <c r="B529" s="188"/>
       <c r="C529" s="140"/>
       <c r="D529" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="E529" s="201" t="s">
-        <v>160</v>
+        <v>167</v>
+      </c>
+      <c r="E529" s="187" t="s">
+        <v>159</v>
       </c>
       <c r="F529" s="140">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G529" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="H529" s="212">
-        <v>42163</v>
-      </c>
-      <c r="I529" s="213">
+        <v>161</v>
+      </c>
+      <c r="H529" s="194">
+        <v>42338</v>
+      </c>
+      <c r="I529" s="237">
         <v>1</v>
       </c>
-      <c r="J529" s="214">
-        <v>585.42999999999995</v>
-      </c>
-      <c r="K529" s="218">
-        <v>1645</v>
+      <c r="J529" s="238">
+        <v>459.81</v>
+      </c>
+      <c r="K529" s="240">
+        <v>1493</v>
       </c>
       <c r="L529" s="140"/>
       <c r="M529" s="140"/>
@@ -16415,33 +16401,33 @@
       <c r="V529" s="140"/>
     </row>
     <row r="530" spans="1:22" ht="16">
-      <c r="A530" s="201"/>
-      <c r="B530" s="202"/>
+      <c r="A530" s="187"/>
+      <c r="B530" s="188"/>
       <c r="C530" s="140"/>
       <c r="D530" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="E530" s="201" t="s">
-        <v>160</v>
-      </c>
-      <c r="F530" s="219">
+        <v>173</v>
+      </c>
+      <c r="E530" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="F530" s="198">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G530" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="H530" s="212">
-        <v>42156</v>
-      </c>
-      <c r="I530" s="213">
+        <v>161</v>
+      </c>
+      <c r="H530" s="194">
+        <v>42331</v>
+      </c>
+      <c r="I530" s="237">
         <v>1</v>
       </c>
-      <c r="J530" s="214">
-        <v>579.65</v>
-      </c>
-      <c r="K530" s="218">
-        <v>1638</v>
+      <c r="J530" s="238">
+        <v>469.73</v>
+      </c>
+      <c r="K530" s="240">
+        <v>1505</v>
       </c>
       <c r="L530" s="140"/>
       <c r="M530" s="140"/>
@@ -16456,24 +16442,24 @@
       <c r="V530" s="140"/>
     </row>
     <row r="531" spans="1:22" ht="16">
-      <c r="A531" s="201"/>
-      <c r="B531" s="202"/>
+      <c r="A531" s="187"/>
+      <c r="B531" s="188"/>
       <c r="C531" s="140"/>
       <c r="D531" s="140"/>
       <c r="E531" s="140"/>
       <c r="F531" s="140"/>
       <c r="G531" s="140"/>
-      <c r="H531" s="212">
-        <v>42149</v>
-      </c>
-      <c r="I531" s="213">
+      <c r="H531" s="194">
+        <v>42324</v>
+      </c>
+      <c r="I531" s="237">
         <v>1</v>
       </c>
-      <c r="J531" s="214">
-        <v>578</v>
-      </c>
-      <c r="K531" s="218">
-        <v>1636</v>
+      <c r="J531" s="238">
+        <v>492.87</v>
+      </c>
+      <c r="K531" s="240">
+        <v>1533</v>
       </c>
       <c r="L531" s="140"/>
       <c r="M531" s="140"/>
@@ -16488,33 +16474,33 @@
       <c r="V531" s="140"/>
     </row>
     <row r="532" spans="1:22" ht="16">
-      <c r="A532" s="201"/>
-      <c r="B532" s="202"/>
+      <c r="A532" s="187"/>
+      <c r="B532" s="188"/>
       <c r="C532" s="140"/>
       <c r="D532" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="E532" s="187" t="s">
+        <v>159</v>
+      </c>
+      <c r="F532" s="198">
+        <f>(F530+F529+F522)*1.21</f>
+        <v>1.4225655399999999</v>
+      </c>
+      <c r="G532" s="140" t="s">
         <v>176</v>
       </c>
-      <c r="E532" s="201" t="s">
-        <v>160</v>
-      </c>
-      <c r="F532" s="219">
-        <f>(F530+F529+F522)*1.21</f>
-        <v>1.65739992</v>
-      </c>
-      <c r="G532" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="H532" s="212">
-        <v>42142</v>
-      </c>
-      <c r="I532" s="213">
+      <c r="H532" s="194">
+        <v>42317</v>
+      </c>
+      <c r="I532" s="237">
         <v>1</v>
       </c>
-      <c r="J532" s="214">
-        <v>582.13</v>
-      </c>
-      <c r="K532" s="218">
-        <v>1641</v>
+      <c r="J532" s="238">
+        <v>478</v>
+      </c>
+      <c r="K532" s="240">
+        <v>1515</v>
       </c>
       <c r="L532" s="140"/>
       <c r="M532" s="140"/>
@@ -16529,24 +16515,24 @@
       <c r="V532" s="140"/>
     </row>
     <row r="533" spans="1:22" ht="16">
-      <c r="A533" s="201"/>
-      <c r="B533" s="202"/>
+      <c r="A533" s="187"/>
+      <c r="B533" s="188"/>
       <c r="C533" s="140"/>
       <c r="D533" s="140"/>
       <c r="E533" s="140"/>
       <c r="F533" s="140"/>
       <c r="G533" s="140"/>
-      <c r="H533" s="212">
-        <v>42135</v>
-      </c>
-      <c r="I533" s="213">
+      <c r="H533" s="194">
+        <v>42310</v>
+      </c>
+      <c r="I533" s="237">
         <v>1</v>
       </c>
-      <c r="J533" s="214">
-        <v>587.91</v>
-      </c>
-      <c r="K533" s="218">
-        <v>1648</v>
+      <c r="J533" s="238">
+        <v>449.07</v>
+      </c>
+      <c r="K533" s="240">
+        <v>1480</v>
       </c>
       <c r="L533" s="140"/>
       <c r="M533" s="140"/>
@@ -16561,24 +16547,24 @@
       <c r="V533" s="140"/>
     </row>
     <row r="534" spans="1:22" ht="16">
-      <c r="A534" s="201"/>
-      <c r="B534" s="202"/>
+      <c r="A534" s="187"/>
+      <c r="B534" s="188"/>
       <c r="C534" s="140"/>
       <c r="D534" s="140"/>
       <c r="E534" s="140"/>
       <c r="F534" s="140"/>
       <c r="G534" s="140"/>
-      <c r="H534" s="212">
-        <v>42128</v>
-      </c>
-      <c r="I534" s="213">
+      <c r="H534" s="194">
+        <v>42303</v>
+      </c>
+      <c r="I534" s="237">
         <v>1</v>
       </c>
-      <c r="J534" s="214">
-        <v>584.61</v>
-      </c>
-      <c r="K534" s="218">
-        <v>1644</v>
+      <c r="J534" s="238">
+        <v>439.98</v>
+      </c>
+      <c r="K534" s="240">
+        <v>1469</v>
       </c>
       <c r="L534" s="140"/>
       <c r="M534" s="140"/>
@@ -16593,24 +16579,24 @@
       <c r="V534" s="140"/>
     </row>
     <row r="535" spans="1:22" ht="16">
-      <c r="A535" s="201"/>
-      <c r="B535" s="202"/>
+      <c r="A535" s="187"/>
+      <c r="B535" s="188"/>
       <c r="C535" s="140"/>
       <c r="D535" s="140"/>
       <c r="E535" s="140"/>
       <c r="F535" s="140"/>
       <c r="G535" s="140"/>
-      <c r="H535" s="212">
-        <v>42121</v>
-      </c>
-      <c r="I535" s="213">
+      <c r="H535" s="194">
+        <v>42296</v>
+      </c>
+      <c r="I535" s="237">
         <v>1</v>
       </c>
-      <c r="J535" s="214">
-        <v>583.78</v>
-      </c>
-      <c r="K535" s="218">
-        <v>1643</v>
+      <c r="J535" s="238">
+        <v>454.03</v>
+      </c>
+      <c r="K535" s="240">
+        <v>1486</v>
       </c>
       <c r="L535" s="140"/>
       <c r="M535" s="140"/>
@@ -16625,24 +16611,24 @@
       <c r="V535" s="140"/>
     </row>
     <row r="536" spans="1:22" ht="16">
-      <c r="A536" s="201"/>
-      <c r="B536" s="202"/>
+      <c r="A536" s="187"/>
+      <c r="B536" s="188"/>
       <c r="C536" s="140"/>
       <c r="D536" s="140"/>
       <c r="E536" s="140"/>
       <c r="F536" s="140"/>
       <c r="G536" s="140"/>
-      <c r="H536" s="212">
-        <v>42114</v>
-      </c>
-      <c r="I536" s="213">
+      <c r="H536" s="194">
+        <v>42289</v>
+      </c>
+      <c r="I536" s="237">
         <v>1</v>
       </c>
-      <c r="J536" s="214">
-        <v>567.25</v>
-      </c>
-      <c r="K536" s="218">
-        <v>1623</v>
+      <c r="J536" s="238">
+        <v>462.29</v>
+      </c>
+      <c r="K536" s="240">
+        <v>1496</v>
       </c>
       <c r="L536" s="140"/>
       <c r="M536" s="140"/>
@@ -16657,24 +16643,24 @@
       <c r="V536" s="140"/>
     </row>
     <row r="537" spans="1:22" ht="16">
-      <c r="A537" s="201"/>
-      <c r="B537" s="202"/>
+      <c r="A537" s="187"/>
+      <c r="B537" s="188"/>
       <c r="C537" s="140"/>
       <c r="D537" s="140"/>
       <c r="E537" s="140"/>
       <c r="F537" s="140"/>
       <c r="G537" s="140"/>
-      <c r="H537" s="212">
-        <v>42107</v>
-      </c>
-      <c r="I537" s="213">
+      <c r="H537" s="194">
+        <v>42282</v>
+      </c>
+      <c r="I537" s="237">
         <v>1</v>
       </c>
-      <c r="J537" s="214">
-        <v>544.11</v>
-      </c>
-      <c r="K537" s="218">
-        <v>1595</v>
+      <c r="J537" s="238">
+        <v>451.55</v>
+      </c>
+      <c r="K537" s="240">
+        <v>1483</v>
       </c>
       <c r="L537" s="140"/>
       <c r="M537" s="140"/>
@@ -16689,24 +16675,24 @@
       <c r="V537" s="140"/>
     </row>
     <row r="538" spans="1:22" ht="16">
-      <c r="A538" s="201"/>
-      <c r="B538" s="202"/>
+      <c r="A538" s="187"/>
+      <c r="B538" s="188"/>
       <c r="C538" s="140"/>
       <c r="D538" s="140"/>
       <c r="E538" s="140"/>
       <c r="F538" s="140"/>
       <c r="G538" s="140"/>
-      <c r="H538" s="212">
-        <v>42093</v>
-      </c>
-      <c r="I538" s="213">
+      <c r="H538" s="194">
+        <v>42275</v>
+      </c>
+      <c r="I538" s="237">
         <v>1</v>
       </c>
-      <c r="J538" s="214">
-        <v>550.72</v>
-      </c>
-      <c r="K538" s="218">
-        <v>1603</v>
+      <c r="J538" s="238">
+        <v>463.12</v>
+      </c>
+      <c r="K538" s="240">
+        <v>1497</v>
       </c>
       <c r="L538" s="140"/>
       <c r="M538" s="140"/>
@@ -16721,24 +16707,24 @@
       <c r="V538" s="140"/>
     </row>
     <row r="539" spans="1:22" ht="16">
-      <c r="A539" s="201"/>
-      <c r="B539" s="202"/>
+      <c r="A539" s="187"/>
+      <c r="B539" s="188"/>
       <c r="C539" s="140"/>
       <c r="D539" s="140"/>
       <c r="E539" s="140"/>
       <c r="F539" s="140"/>
       <c r="G539" s="140"/>
-      <c r="H539" s="212">
-        <v>42086</v>
-      </c>
-      <c r="I539" s="213">
+      <c r="H539" s="194">
+        <v>42268</v>
+      </c>
+      <c r="I539" s="237">
         <v>1</v>
       </c>
-      <c r="J539" s="214">
-        <v>539.98</v>
-      </c>
-      <c r="K539" s="218">
-        <v>1590</v>
+      <c r="J539" s="238">
+        <v>472.21</v>
+      </c>
+      <c r="K539" s="240">
+        <v>1508</v>
       </c>
       <c r="L539" s="140"/>
       <c r="M539" s="140"/>
@@ -16753,356 +16739,356 @@
       <c r="V539" s="140"/>
     </row>
     <row r="540" spans="1:22" ht="16">
-      <c r="A540" s="201"/>
-      <c r="B540" s="202"/>
-      <c r="C540" s="201"/>
-      <c r="D540" s="201"/>
-      <c r="E540" s="201"/>
+      <c r="A540" s="187"/>
+      <c r="B540" s="188"/>
+      <c r="C540" s="187"/>
+      <c r="D540" s="187"/>
+      <c r="E540" s="187"/>
       <c r="F540" s="140"/>
       <c r="G540" s="140"/>
-      <c r="H540" s="212">
-        <v>42079</v>
-      </c>
-      <c r="I540" s="213">
+      <c r="H540" s="194">
+        <v>42261</v>
+      </c>
+      <c r="I540" s="237">
         <v>1</v>
       </c>
-      <c r="J540" s="214">
-        <v>543.29</v>
-      </c>
-      <c r="K540" s="218">
-        <v>1594</v>
-      </c>
-      <c r="L540" s="201"/>
-      <c r="M540" s="201"/>
-      <c r="N540" s="201"/>
-      <c r="O540" s="201"/>
-      <c r="P540" s="201"/>
-      <c r="Q540" s="201"/>
-      <c r="R540" s="201"/>
-      <c r="S540" s="201"/>
-      <c r="T540" s="201"/>
-      <c r="U540" s="201"/>
-      <c r="V540" s="201"/>
+      <c r="J540" s="238">
+        <v>481.3</v>
+      </c>
+      <c r="K540" s="240">
+        <v>1519</v>
+      </c>
+      <c r="L540" s="187"/>
+      <c r="M540" s="187"/>
+      <c r="N540" s="187"/>
+      <c r="O540" s="187"/>
+      <c r="P540" s="187"/>
+      <c r="Q540" s="187"/>
+      <c r="R540" s="187"/>
+      <c r="S540" s="187"/>
+      <c r="T540" s="187"/>
+      <c r="U540" s="187"/>
+      <c r="V540" s="187"/>
     </row>
     <row r="541" spans="1:22" ht="16">
-      <c r="A541" s="201"/>
-      <c r="B541" s="202"/>
-      <c r="C541" s="201"/>
-      <c r="D541" s="201"/>
-      <c r="E541" s="201"/>
+      <c r="A541" s="187"/>
+      <c r="B541" s="188"/>
+      <c r="C541" s="187"/>
+      <c r="D541" s="187"/>
+      <c r="E541" s="187"/>
       <c r="F541" s="140"/>
       <c r="G541" s="140"/>
-      <c r="H541" s="212">
-        <v>42072</v>
-      </c>
-      <c r="I541" s="213">
+      <c r="H541" s="194">
+        <v>42254</v>
+      </c>
+      <c r="I541" s="237">
         <v>1</v>
       </c>
-      <c r="J541" s="214">
-        <v>533.37</v>
-      </c>
-      <c r="K541" s="218">
-        <v>1582</v>
-      </c>
-      <c r="L541" s="201"/>
-      <c r="M541" s="201"/>
-      <c r="N541" s="201"/>
-      <c r="O541" s="201"/>
-      <c r="P541" s="201"/>
-      <c r="Q541" s="201"/>
-      <c r="R541" s="201"/>
-      <c r="S541" s="201"/>
-      <c r="T541" s="201"/>
-      <c r="U541" s="201"/>
-      <c r="V541" s="201"/>
+      <c r="J541" s="238">
+        <v>482.13</v>
+      </c>
+      <c r="K541" s="240">
+        <v>1520</v>
+      </c>
+      <c r="L541" s="187"/>
+      <c r="M541" s="187"/>
+      <c r="N541" s="187"/>
+      <c r="O541" s="187"/>
+      <c r="P541" s="187"/>
+      <c r="Q541" s="187"/>
+      <c r="R541" s="187"/>
+      <c r="S541" s="187"/>
+      <c r="T541" s="187"/>
+      <c r="U541" s="187"/>
+      <c r="V541" s="187"/>
     </row>
     <row r="542" spans="1:22" ht="16">
-      <c r="A542" s="201"/>
-      <c r="B542" s="202"/>
-      <c r="C542" s="201"/>
-      <c r="D542" s="201"/>
-      <c r="E542" s="201"/>
+      <c r="A542" s="187"/>
+      <c r="B542" s="188"/>
+      <c r="C542" s="187"/>
+      <c r="D542" s="187"/>
+      <c r="E542" s="187"/>
       <c r="F542" s="140"/>
       <c r="G542" s="140"/>
-      <c r="H542" s="212">
-        <v>42065</v>
-      </c>
-      <c r="I542" s="213">
+      <c r="H542" s="194">
+        <v>42247</v>
+      </c>
+      <c r="I542" s="237">
         <v>1</v>
       </c>
-      <c r="J542" s="214">
-        <v>515.19000000000005</v>
-      </c>
-      <c r="K542" s="218">
-        <v>1560</v>
-      </c>
-      <c r="L542" s="201"/>
-      <c r="M542" s="201"/>
-      <c r="N542" s="201"/>
-      <c r="O542" s="201"/>
-      <c r="P542" s="201"/>
-      <c r="Q542" s="201"/>
-      <c r="R542" s="201"/>
-      <c r="S542" s="201"/>
-      <c r="T542" s="201"/>
-      <c r="U542" s="201"/>
-      <c r="V542" s="201"/>
+      <c r="J542" s="238">
+        <v>482.95</v>
+      </c>
+      <c r="K542" s="240">
+        <v>1521</v>
+      </c>
+      <c r="L542" s="187"/>
+      <c r="M542" s="187"/>
+      <c r="N542" s="187"/>
+      <c r="O542" s="187"/>
+      <c r="P542" s="187"/>
+      <c r="Q542" s="187"/>
+      <c r="R542" s="187"/>
+      <c r="S542" s="187"/>
+      <c r="T542" s="187"/>
+      <c r="U542" s="187"/>
+      <c r="V542" s="187"/>
     </row>
     <row r="543" spans="1:22" ht="16">
-      <c r="A543" s="201"/>
-      <c r="B543" s="202"/>
-      <c r="C543" s="201"/>
-      <c r="D543" s="201"/>
-      <c r="E543" s="201"/>
+      <c r="A543" s="187"/>
+      <c r="B543" s="188"/>
+      <c r="C543" s="187"/>
+      <c r="D543" s="187"/>
+      <c r="E543" s="187"/>
       <c r="F543" s="140"/>
       <c r="G543" s="140"/>
-      <c r="H543" s="212">
-        <v>42058</v>
-      </c>
-      <c r="I543" s="213">
+      <c r="H543" s="194">
+        <v>42240</v>
+      </c>
+      <c r="I543" s="237">
         <v>1</v>
       </c>
-      <c r="J543" s="214">
-        <v>502.79</v>
-      </c>
-      <c r="K543" s="218">
-        <v>1545</v>
-      </c>
-      <c r="L543" s="201"/>
-      <c r="M543" s="201"/>
-      <c r="N543" s="201"/>
-      <c r="O543" s="201"/>
-      <c r="P543" s="201"/>
-      <c r="Q543" s="201"/>
-      <c r="R543" s="201"/>
-      <c r="S543" s="201"/>
-      <c r="T543" s="201"/>
-      <c r="U543" s="201"/>
-      <c r="V543" s="201"/>
+      <c r="J543" s="238">
+        <v>513.53</v>
+      </c>
+      <c r="K543" s="240">
+        <v>1558</v>
+      </c>
+      <c r="L543" s="187"/>
+      <c r="M543" s="187"/>
+      <c r="N543" s="187"/>
+      <c r="O543" s="187"/>
+      <c r="P543" s="187"/>
+      <c r="Q543" s="187"/>
+      <c r="R543" s="187"/>
+      <c r="S543" s="187"/>
+      <c r="T543" s="187"/>
+      <c r="U543" s="187"/>
+      <c r="V543" s="187"/>
     </row>
     <row r="544" spans="1:22" ht="16">
-      <c r="A544" s="201"/>
-      <c r="B544" s="202"/>
-      <c r="C544" s="201"/>
-      <c r="D544" s="201"/>
-      <c r="E544" s="201"/>
+      <c r="A544" s="187"/>
+      <c r="B544" s="188"/>
+      <c r="C544" s="187"/>
+      <c r="D544" s="187"/>
+      <c r="E544" s="187"/>
       <c r="F544" s="140"/>
       <c r="G544" s="140"/>
-      <c r="H544" s="212">
-        <v>42051</v>
-      </c>
-      <c r="I544" s="213">
+      <c r="H544" s="194">
+        <v>42233</v>
+      </c>
+      <c r="I544" s="237">
         <v>1</v>
       </c>
-      <c r="J544" s="214">
-        <v>497</v>
-      </c>
-      <c r="K544" s="218">
-        <v>1538</v>
-      </c>
-      <c r="L544" s="201"/>
-      <c r="M544" s="201"/>
-      <c r="N544" s="201"/>
-      <c r="O544" s="201"/>
-      <c r="P544" s="201"/>
-      <c r="Q544" s="201"/>
-      <c r="R544" s="201"/>
-      <c r="S544" s="201"/>
-      <c r="T544" s="201"/>
-      <c r="U544" s="201"/>
-      <c r="V544" s="201"/>
+      <c r="J544" s="238">
+        <v>542.46</v>
+      </c>
+      <c r="K544" s="240">
+        <v>1593</v>
+      </c>
+      <c r="L544" s="187"/>
+      <c r="M544" s="187"/>
+      <c r="N544" s="187"/>
+      <c r="O544" s="187"/>
+      <c r="P544" s="187"/>
+      <c r="Q544" s="187"/>
+      <c r="R544" s="187"/>
+      <c r="S544" s="187"/>
+      <c r="T544" s="187"/>
+      <c r="U544" s="187"/>
+      <c r="V544" s="187"/>
     </row>
     <row r="545" spans="1:25" ht="16">
-      <c r="A545" s="201"/>
-      <c r="B545" s="202"/>
-      <c r="C545" s="201"/>
-      <c r="D545" s="201"/>
-      <c r="E545" s="201"/>
+      <c r="A545" s="187"/>
+      <c r="B545" s="188"/>
+      <c r="C545" s="187"/>
+      <c r="D545" s="187"/>
+      <c r="E545" s="187"/>
       <c r="F545" s="140"/>
       <c r="G545" s="140"/>
-      <c r="H545" s="212">
-        <v>42044</v>
-      </c>
-      <c r="I545" s="213">
+      <c r="H545" s="194">
+        <v>42226</v>
+      </c>
+      <c r="I545" s="237">
         <v>1</v>
       </c>
-      <c r="J545" s="214">
-        <v>463.12</v>
-      </c>
-      <c r="K545" s="218">
-        <v>1497</v>
-      </c>
-      <c r="L545" s="201"/>
-      <c r="M545" s="201"/>
-      <c r="N545" s="201"/>
-      <c r="O545" s="201"/>
-      <c r="P545" s="201"/>
-      <c r="Q545" s="201"/>
-      <c r="R545" s="201"/>
-      <c r="S545" s="201"/>
-      <c r="T545" s="201"/>
-      <c r="U545" s="201"/>
-      <c r="V545" s="201"/>
+      <c r="J545" s="238">
+        <v>562.29</v>
+      </c>
+      <c r="K545" s="240">
+        <v>1617</v>
+      </c>
+      <c r="L545" s="187"/>
+      <c r="M545" s="187"/>
+      <c r="N545" s="187"/>
+      <c r="O545" s="187"/>
+      <c r="P545" s="187"/>
+      <c r="Q545" s="187"/>
+      <c r="R545" s="187"/>
+      <c r="S545" s="187"/>
+      <c r="T545" s="187"/>
+      <c r="U545" s="187"/>
+      <c r="V545" s="187"/>
     </row>
     <row r="546" spans="1:25" ht="16">
-      <c r="A546" s="201"/>
-      <c r="B546" s="202"/>
-      <c r="C546" s="201"/>
-      <c r="D546" s="201"/>
-      <c r="E546" s="201"/>
+      <c r="A546" s="187"/>
+      <c r="B546" s="188"/>
+      <c r="C546" s="187"/>
+      <c r="D546" s="187"/>
+      <c r="E546" s="187"/>
       <c r="F546" s="140"/>
       <c r="G546" s="140"/>
-      <c r="H546" s="212">
-        <v>42037</v>
-      </c>
-      <c r="I546" s="213">
+      <c r="H546" s="194">
+        <v>42219</v>
+      </c>
+      <c r="I546" s="237">
         <v>1</v>
       </c>
-      <c r="J546" s="214">
-        <v>435.02</v>
-      </c>
-      <c r="K546" s="218">
-        <v>1463</v>
-      </c>
-      <c r="L546" s="201"/>
-      <c r="M546" s="201"/>
-      <c r="N546" s="201"/>
-      <c r="O546" s="201"/>
-      <c r="P546" s="201"/>
-      <c r="Q546" s="201"/>
-      <c r="R546" s="201"/>
-      <c r="S546" s="201"/>
-      <c r="T546" s="201"/>
-      <c r="U546" s="201"/>
-      <c r="V546" s="201"/>
+      <c r="J546" s="238">
+        <v>573.86</v>
+      </c>
+      <c r="K546" s="240">
+        <v>1631</v>
+      </c>
+      <c r="L546" s="187"/>
+      <c r="M546" s="187"/>
+      <c r="N546" s="187"/>
+      <c r="O546" s="187"/>
+      <c r="P546" s="187"/>
+      <c r="Q546" s="187"/>
+      <c r="R546" s="187"/>
+      <c r="S546" s="187"/>
+      <c r="T546" s="187"/>
+      <c r="U546" s="187"/>
+      <c r="V546" s="187"/>
     </row>
     <row r="547" spans="1:25" ht="16">
-      <c r="A547" s="201"/>
-      <c r="B547" s="202"/>
-      <c r="C547" s="201"/>
-      <c r="D547" s="201"/>
-      <c r="E547" s="201"/>
+      <c r="A547" s="187"/>
+      <c r="B547" s="188"/>
+      <c r="C547" s="187"/>
+      <c r="D547" s="187"/>
+      <c r="E547" s="187"/>
       <c r="F547" s="140"/>
       <c r="G547" s="140"/>
-      <c r="H547" s="212">
-        <v>42030</v>
-      </c>
-      <c r="I547" s="213">
+      <c r="H547" s="194">
+        <v>42212</v>
+      </c>
+      <c r="I547" s="237">
         <v>1</v>
       </c>
-      <c r="J547" s="214">
-        <v>434.19</v>
-      </c>
-      <c r="K547" s="218">
-        <v>1462</v>
-      </c>
-      <c r="L547" s="201"/>
-      <c r="M547" s="201"/>
-      <c r="N547" s="201"/>
-      <c r="O547" s="201"/>
-      <c r="P547" s="201"/>
-      <c r="Q547" s="201"/>
-      <c r="R547" s="201"/>
-      <c r="S547" s="201"/>
-      <c r="T547" s="201"/>
-      <c r="U547" s="201"/>
-      <c r="V547" s="201"/>
+      <c r="J547" s="238">
+        <v>586.26</v>
+      </c>
+      <c r="K547" s="240">
+        <v>1646</v>
+      </c>
+      <c r="L547" s="187"/>
+      <c r="M547" s="187"/>
+      <c r="N547" s="187"/>
+      <c r="O547" s="187"/>
+      <c r="P547" s="187"/>
+      <c r="Q547" s="187"/>
+      <c r="R547" s="187"/>
+      <c r="S547" s="187"/>
+      <c r="T547" s="187"/>
+      <c r="U547" s="187"/>
+      <c r="V547" s="187"/>
     </row>
     <row r="548" spans="1:25" ht="16">
-      <c r="A548" s="201"/>
-      <c r="B548" s="202"/>
-      <c r="C548" s="201"/>
-      <c r="D548" s="201"/>
-      <c r="E548" s="201"/>
+      <c r="A548" s="187"/>
+      <c r="B548" s="188"/>
+      <c r="C548" s="187"/>
+      <c r="D548" s="187"/>
+      <c r="E548" s="187"/>
       <c r="F548" s="140"/>
       <c r="G548" s="140"/>
-      <c r="H548" s="212">
-        <v>42023</v>
-      </c>
-      <c r="I548" s="213">
+      <c r="H548" s="194">
+        <v>42205</v>
+      </c>
+      <c r="I548" s="237">
         <v>1</v>
       </c>
-      <c r="J548" s="214">
-        <v>435.02</v>
-      </c>
-      <c r="K548" s="218">
-        <v>1463</v>
-      </c>
-      <c r="L548" s="201"/>
-      <c r="M548" s="201"/>
-      <c r="N548" s="201"/>
-      <c r="O548" s="201"/>
-      <c r="P548" s="201"/>
-      <c r="Q548" s="201"/>
-      <c r="R548" s="201"/>
-      <c r="S548" s="201"/>
-      <c r="T548" s="201"/>
-      <c r="U548" s="201"/>
-      <c r="V548" s="201"/>
+      <c r="J548" s="238">
+        <v>599.48</v>
+      </c>
+      <c r="K548" s="240">
+        <v>1662</v>
+      </c>
+      <c r="L548" s="187"/>
+      <c r="M548" s="187"/>
+      <c r="N548" s="187"/>
+      <c r="O548" s="187"/>
+      <c r="P548" s="187"/>
+      <c r="Q548" s="187"/>
+      <c r="R548" s="187"/>
+      <c r="S548" s="187"/>
+      <c r="T548" s="187"/>
+      <c r="U548" s="187"/>
+      <c r="V548" s="187"/>
     </row>
     <row r="549" spans="1:25" ht="16">
-      <c r="A549" s="201"/>
-      <c r="B549" s="202"/>
-      <c r="C549" s="201"/>
-      <c r="D549" s="201"/>
-      <c r="E549" s="201"/>
+      <c r="A549" s="187"/>
+      <c r="B549" s="188"/>
+      <c r="C549" s="187"/>
+      <c r="D549" s="187"/>
+      <c r="E549" s="187"/>
       <c r="F549" s="140"/>
       <c r="G549" s="140"/>
-      <c r="H549" s="212">
-        <v>42016</v>
-      </c>
-      <c r="I549" s="213">
+      <c r="H549" s="194">
+        <v>42198</v>
+      </c>
+      <c r="I549" s="237">
         <v>1</v>
       </c>
-      <c r="J549" s="214">
-        <v>448.24</v>
-      </c>
-      <c r="K549" s="218">
-        <v>1479</v>
-      </c>
-      <c r="L549" s="201"/>
-      <c r="M549" s="201"/>
-      <c r="N549" s="201"/>
-      <c r="O549" s="201"/>
-      <c r="P549" s="201"/>
-      <c r="Q549" s="201"/>
-      <c r="R549" s="201"/>
-      <c r="S549" s="201"/>
-      <c r="T549" s="201"/>
-      <c r="U549" s="201"/>
-      <c r="V549" s="201"/>
+      <c r="J549" s="238">
+        <v>617.66999999999996</v>
+      </c>
+      <c r="K549" s="240">
+        <v>1684</v>
+      </c>
+      <c r="L549" s="187"/>
+      <c r="M549" s="187"/>
+      <c r="N549" s="187"/>
+      <c r="O549" s="187"/>
+      <c r="P549" s="187"/>
+      <c r="Q549" s="187"/>
+      <c r="R549" s="187"/>
+      <c r="S549" s="187"/>
+      <c r="T549" s="187"/>
+      <c r="U549" s="187"/>
+      <c r="V549" s="187"/>
     </row>
     <row r="550" spans="1:25" ht="16">
-      <c r="A550" s="201"/>
-      <c r="B550" s="202"/>
-      <c r="C550" s="201"/>
-      <c r="D550" s="201"/>
-      <c r="E550" s="201"/>
+      <c r="A550" s="187"/>
+      <c r="B550" s="188"/>
+      <c r="C550" s="187"/>
+      <c r="D550" s="187"/>
+      <c r="E550" s="187"/>
       <c r="F550" s="140"/>
       <c r="G550" s="140"/>
-      <c r="H550" s="212">
-        <v>42009</v>
-      </c>
-      <c r="I550" s="213">
+      <c r="H550" s="194">
+        <v>42191</v>
+      </c>
+      <c r="I550" s="237">
         <v>1</v>
       </c>
-      <c r="J550" s="214">
-        <v>466.43</v>
-      </c>
-      <c r="K550" s="218">
-        <v>1501</v>
-      </c>
-      <c r="L550" s="201"/>
-      <c r="M550" s="201"/>
-      <c r="N550" s="201"/>
-      <c r="O550" s="201"/>
-      <c r="P550" s="201"/>
-      <c r="Q550" s="201"/>
-      <c r="R550" s="201"/>
-      <c r="S550" s="201"/>
-      <c r="T550" s="201"/>
-      <c r="U550" s="201"/>
-      <c r="V550" s="201"/>
+      <c r="J550" s="238">
+        <v>601.14</v>
+      </c>
+      <c r="K550" s="240">
+        <v>1664</v>
+      </c>
+      <c r="L550" s="187"/>
+      <c r="M550" s="187"/>
+      <c r="N550" s="187"/>
+      <c r="O550" s="187"/>
+      <c r="P550" s="187"/>
+      <c r="Q550" s="187"/>
+      <c r="R550" s="187"/>
+      <c r="S550" s="187"/>
+      <c r="T550" s="187"/>
+      <c r="U550" s="187"/>
+      <c r="V550" s="187"/>
     </row>
     <row r="555" spans="1:25" ht="16" thickBot="1"/>
     <row r="556" spans="1:25" s="26" customFormat="1">
@@ -17207,8 +17193,8 @@
     </row>
     <row r="562" spans="2:8">
       <c r="B562" s="127"/>
-      <c r="D562" s="220" t="s">
-        <v>179</v>
+      <c r="D562" s="199" t="s">
+        <v>178</v>
       </c>
       <c r="G562" s="184" t="s">
         <v>152</v>
@@ -17222,37 +17208,37 @@
       <c r="F564" s="126">
         <v>0.6</v>
       </c>
-      <c r="G564" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="H564" s="220" t="s">
-        <v>165</v>
+      <c r="G564" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="H564" s="199" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="565" spans="2:8">
       <c r="B565" s="127"/>
-      <c r="F565" s="221">
+      <c r="F565" s="200">
         <f>F525</f>
-        <v>1.6574</v>
-      </c>
-      <c r="G565" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="H565" s="220" t="s">
-        <v>166</v>
+        <v>1.4272</v>
+      </c>
+      <c r="G565" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="H565" s="199" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="566" spans="2:8">
       <c r="B566" s="127"/>
-      <c r="F566" s="221">
+      <c r="F566" s="200">
         <f>F564+F565</f>
-        <v>2.2574000000000001</v>
-      </c>
-      <c r="G566" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="H566" s="220" t="s">
-        <v>167</v>
+        <v>2.0272000000000001</v>
+      </c>
+      <c r="G566" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="H566" s="199" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="567" spans="2:8">
@@ -17264,24 +17250,24 @@
         <f>F529</f>
         <v>0.76607000000000003</v>
       </c>
-      <c r="G568" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="H568" s="220" t="s">
-        <v>170</v>
+      <c r="G568" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="H568" s="199" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="569" spans="2:8">
       <c r="B569" s="127"/>
-      <c r="F569" s="221">
+      <c r="F569" s="200">
         <f>F530</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G569" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="H569" s="220" t="s">
-        <v>178</v>
+      <c r="G569" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="H569" s="199" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="570" spans="2:8">
@@ -17290,11 +17276,11 @@
         <f>F528</f>
         <v>21</v>
       </c>
-      <c r="G570" s="220" t="s">
-        <v>172</v>
-      </c>
-      <c r="H570" s="220" t="s">
+      <c r="G570" s="199" t="s">
         <v>171</v>
+      </c>
+      <c r="H570" s="199" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="571" spans="2:8">
@@ -17302,37 +17288,37 @@
     </row>
     <row r="572" spans="2:8">
       <c r="B572" s="127"/>
-      <c r="G572" s="220"/>
-      <c r="H572" s="220"/>
+      <c r="G572" s="199"/>
+      <c r="H572" s="199"/>
     </row>
     <row r="573" spans="2:8">
       <c r="B573" s="127"/>
-      <c r="G573" s="220"/>
-      <c r="H573" s="220"/>
+      <c r="G573" s="199"/>
+      <c r="H573" s="199"/>
     </row>
     <row r="574" spans="2:8">
       <c r="B574" s="127"/>
     </row>
     <row r="575" spans="2:8">
       <c r="B575" s="127"/>
-      <c r="F575" s="222">
+      <c r="F575" s="201">
         <f>F566/1.21-F569-F568</f>
-        <v>1.091549834710744</v>
-      </c>
-      <c r="G575" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="H575" s="220" t="s">
-        <v>173</v>
+        <v>0.90130190082644646</v>
+      </c>
+      <c r="G575" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="H575" s="199" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="576" spans="2:8">
       <c r="B576" s="127"/>
-      <c r="F576" s="234">
+      <c r="F576" s="213">
         <f>F575/F24</f>
-        <v>4.7634896159827043E-2</v>
-      </c>
-      <c r="G576" s="220" t="s">
+        <v>3.9332535344938857E-2</v>
+      </c>
+      <c r="G576" s="199" t="s">
         <v>62</v>
       </c>
     </row>

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="202">
   <si>
     <t>Source</t>
   </si>
@@ -507,9 +507,6 @@
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
-  </si>
-  <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
   </si>
   <si>
     <t>http://www.biotanken.nl/brandstoffen/bioethanol.html</t>
@@ -724,6 +721,56 @@
   <si>
     <t>Euro-super 95(I) excl tax</t>
   </si>
+  <si>
+    <r>
+      <t>from sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cane</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -741,12 +788,19 @@
     <numFmt numFmtId="172" formatCode="0.00000000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1546,760 +1600,761 @@
   </borders>
   <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="39" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="166" fontId="25" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="41" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="169" fontId="25" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="49" fontId="43" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="38" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="45" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="41" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="41" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="358">
@@ -2671,6 +2726,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2679,14 +2738,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2725,6 +2784,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3919,6 +4039,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4446,7 +4567,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="212">
         <v>42227</v>
@@ -4454,17 +4575,17 @@
     </row>
     <row r="28" spans="1:4">
       <c r="C28" s="211" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="C29" s="211" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="C30" s="211" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4509,28 +4630,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="221"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="230"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="222"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="233"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="225"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="227"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4631,7 +4752,7 @@
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
       <c r="I11" s="217" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -4728,14 +4849,37 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>177800</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4786,29 +4930,27 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="228" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="228"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="237"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="222"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="229"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="238"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="230" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4873,8 +5015,8 @@
     </row>
     <row r="10" spans="2:10" ht="16" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="132" t="s">
-        <v>46</v>
+      <c r="C10" s="227" t="s">
+        <v>200</v>
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132"/>
@@ -5051,8 +5193,8 @@
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="132" t="s">
-        <v>59</v>
+      <c r="C19" s="227" t="s">
+        <v>201</v>
       </c>
       <c r="D19" s="132"/>
       <c r="E19" s="132"/>
@@ -5321,7 +5463,7 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P3" s="69"/>
       <c r="Q3" s="1" t="s">
@@ -5425,7 +5567,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="214" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
@@ -6565,7 +6707,7 @@
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
       <c r="F7" s="140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -6773,7 +6915,7 @@
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
       <c r="F14" s="140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="140"/>
@@ -6957,7 +7099,7 @@
       <c r="D20" s="140"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
@@ -7015,7 +7157,7 @@
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
@@ -7046,7 +7188,7 @@
       </c>
       <c r="G23" s="140"/>
       <c r="H23" s="140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
@@ -7079,7 +7221,7 @@
         <v>73</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
@@ -7160,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="154" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -7188,16 +7330,16 @@
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F28" s="157">
         <v>0.15</v>
       </c>
       <c r="G28" s="157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H28" s="158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
@@ -7220,33 +7362,33 @@
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="127"/>
       <c r="E29" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="157">
         <f>F28*F18</f>
         <v>4.8276000000000003</v>
       </c>
       <c r="G29" s="157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H29" s="158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:25" customFormat="1" ht="16">
       <c r="B30" s="127"/>
       <c r="E30" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" s="157">
         <f>F28*F17</f>
         <v>0.11175</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:25" customFormat="1" ht="16">
@@ -7259,49 +7401,49 @@
     <row r="32" spans="2:25" customFormat="1" ht="16">
       <c r="B32" s="127"/>
       <c r="E32" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="157">
         <f>1-F28</f>
         <v>0.85</v>
       </c>
       <c r="G32" s="157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H32" s="158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:8" customFormat="1" ht="16">
       <c r="B33" s="127"/>
       <c r="E33" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="157">
         <f>F32*F11</f>
         <v>18.087320000000002</v>
       </c>
       <c r="G33" s="157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H33" s="158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:8" customFormat="1" ht="16">
       <c r="B34" s="127"/>
       <c r="E34" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F34" s="157">
         <f>F32*F10</f>
         <v>0.67490000000000006</v>
       </c>
       <c r="G34" s="157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H34" s="158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="2:8" customFormat="1" ht="16">
@@ -7314,33 +7456,33 @@
     <row r="36" spans="2:8" customFormat="1" ht="16">
       <c r="B36" s="127"/>
       <c r="E36" s="159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="157">
         <f>F30+F34</f>
         <v>0.78665000000000007</v>
       </c>
       <c r="G36" s="157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H36" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:8" customFormat="1" ht="16">
       <c r="B37" s="127"/>
       <c r="E37" s="159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F37" s="157">
         <f>F29+F33</f>
         <v>22.914920000000002</v>
       </c>
       <c r="G37" s="157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H37" s="158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:8" customFormat="1" ht="16">
@@ -7354,7 +7496,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="158" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="2:8" customFormat="1" ht="16">
@@ -15889,7 +16031,7 @@
       <c r="A515" s="187"/>
       <c r="B515" s="188"/>
       <c r="C515" s="185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D515" s="140"/>
       <c r="E515" s="140"/>
@@ -15918,7 +16060,7 @@
       <c r="A516" s="187"/>
       <c r="B516" s="188"/>
       <c r="C516" s="189" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D516" s="140"/>
       <c r="E516" s="140"/>
@@ -15975,7 +16117,7 @@
       <c r="B518" s="188"/>
       <c r="C518" s="140"/>
       <c r="D518" s="140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E518" s="140"/>
       <c r="F518" s="140"/>
@@ -16009,17 +16151,17 @@
       <c r="E519" s="187"/>
       <c r="F519" s="140"/>
       <c r="G519" s="140"/>
-      <c r="H519" s="233" t="s">
+      <c r="H519" s="219" t="s">
+        <v>155</v>
+      </c>
+      <c r="I519" s="220" t="s">
         <v>156</v>
       </c>
-      <c r="I519" s="234" t="s">
-        <v>157</v>
-      </c>
-      <c r="J519" s="235" t="s">
-        <v>200</v>
+      <c r="J519" s="221" t="s">
+        <v>199</v>
       </c>
       <c r="K519" s="196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L519" s="140"/>
       <c r="M519" s="140"/>
@@ -16038,18 +16180,18 @@
       <c r="B520" s="188"/>
       <c r="C520" s="140"/>
       <c r="D520" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E520" s="187"/>
       <c r="F520" s="140"/>
       <c r="G520" s="140"/>
       <c r="H520" s="191"/>
       <c r="I520" s="192"/>
-      <c r="J520" s="236" t="s">
-        <v>158</v>
+      <c r="J520" s="222" t="s">
+        <v>157</v>
       </c>
       <c r="K520" s="197" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L520" s="140"/>
       <c r="M520" s="140"/>
@@ -16069,25 +16211,25 @@
       <c r="C521" s="140"/>
       <c r="D521" s="140"/>
       <c r="E521" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F521" s="193">
         <f>AVERAGE(J521:J525)</f>
         <v>401.60399999999998</v>
       </c>
       <c r="G521" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H521" s="194">
         <v>42408</v>
       </c>
-      <c r="I521" s="237">
+      <c r="I521" s="223">
         <v>1</v>
       </c>
-      <c r="J521" s="238">
+      <c r="J521" s="224">
         <v>395.65</v>
       </c>
-      <c r="K521" s="239">
+      <c r="K521" s="225">
         <v>1420</v>
       </c>
       <c r="L521" s="140"/>
@@ -16108,25 +16250,25 @@
       <c r="C522" s="140"/>
       <c r="D522" s="140"/>
       <c r="E522" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F522" s="195">
         <f>F521/1000</f>
         <v>0.40160399999999996</v>
       </c>
       <c r="G522" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H522" s="194">
         <v>42401</v>
       </c>
-      <c r="I522" s="237">
+      <c r="I522" s="223">
         <v>1</v>
       </c>
-      <c r="J522" s="238">
+      <c r="J522" s="224">
         <v>399.79</v>
       </c>
-      <c r="K522" s="240">
+      <c r="K522" s="226">
         <v>1425</v>
       </c>
       <c r="L522" s="140"/>
@@ -16152,13 +16294,13 @@
       <c r="H523" s="194">
         <v>42394</v>
       </c>
-      <c r="I523" s="237">
+      <c r="I523" s="223">
         <v>1</v>
       </c>
-      <c r="J523" s="238">
+      <c r="J523" s="224">
         <v>393.17</v>
       </c>
-      <c r="K523" s="240">
+      <c r="K523" s="226">
         <v>1417</v>
       </c>
       <c r="L523" s="140"/>
@@ -16178,28 +16320,28 @@
       <c r="B524" s="188"/>
       <c r="C524" s="140"/>
       <c r="D524" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E524" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F524" s="193">
         <f>AVERAGE(K521:K525)</f>
         <v>1427.2</v>
       </c>
       <c r="G524" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H524" s="194">
         <v>42387</v>
       </c>
-      <c r="I524" s="237">
+      <c r="I524" s="223">
         <v>1</v>
       </c>
-      <c r="J524" s="238">
+      <c r="J524" s="224">
         <v>402.27</v>
       </c>
-      <c r="K524" s="240">
+      <c r="K524" s="226">
         <v>1428</v>
       </c>
       <c r="L524" s="140"/>
@@ -16220,25 +16362,25 @@
       <c r="C525" s="140"/>
       <c r="D525" s="140"/>
       <c r="E525" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F525" s="195">
         <f>F524/1000</f>
         <v>1.4272</v>
       </c>
       <c r="G525" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H525" s="194">
         <v>42380</v>
       </c>
-      <c r="I525" s="237">
+      <c r="I525" s="223">
         <v>1</v>
       </c>
-      <c r="J525" s="238">
+      <c r="J525" s="224">
         <v>417.14</v>
       </c>
-      <c r="K525" s="240">
+      <c r="K525" s="226">
         <v>1446</v>
       </c>
       <c r="L525" s="140"/>
@@ -16264,13 +16406,13 @@
       <c r="H526" s="194">
         <v>42373</v>
       </c>
-      <c r="I526" s="237">
+      <c r="I526" s="223">
         <v>1</v>
       </c>
-      <c r="J526" s="238">
+      <c r="J526" s="224">
         <v>412.18</v>
       </c>
-      <c r="K526" s="240">
+      <c r="K526" s="226">
         <v>1440</v>
       </c>
       <c r="L526" s="140"/>
@@ -16290,7 +16432,7 @@
       <c r="B527" s="188"/>
       <c r="C527" s="140"/>
       <c r="D527" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E527" s="140"/>
       <c r="F527" s="198"/>
@@ -16298,13 +16440,13 @@
       <c r="H527" s="194">
         <v>42352</v>
       </c>
-      <c r="I527" s="237">
+      <c r="I527" s="223">
         <v>1</v>
       </c>
-      <c r="J527" s="238">
+      <c r="J527" s="224">
         <v>435.02</v>
       </c>
-      <c r="K527" s="240">
+      <c r="K527" s="226">
         <v>1463</v>
       </c>
       <c r="L527" s="140"/>
@@ -16324,27 +16466,27 @@
       <c r="B528" s="188"/>
       <c r="C528" s="140"/>
       <c r="D528" s="140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E528" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F528" s="140">
         <v>21</v>
       </c>
       <c r="G528" s="140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H528" s="194">
         <v>42345</v>
       </c>
-      <c r="I528" s="237">
+      <c r="I528" s="223">
         <v>1</v>
       </c>
-      <c r="J528" s="238">
+      <c r="J528" s="224">
         <v>452.38</v>
       </c>
-      <c r="K528" s="240">
+      <c r="K528" s="226">
         <v>1484</v>
       </c>
       <c r="L528" s="140"/>
@@ -16364,28 +16506,28 @@
       <c r="B529" s="188"/>
       <c r="C529" s="140"/>
       <c r="D529" s="140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E529" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F529" s="140">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G529" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H529" s="194">
         <v>42338</v>
       </c>
-      <c r="I529" s="237">
+      <c r="I529" s="223">
         <v>1</v>
       </c>
-      <c r="J529" s="238">
+      <c r="J529" s="224">
         <v>459.81</v>
       </c>
-      <c r="K529" s="240">
+      <c r="K529" s="226">
         <v>1493</v>
       </c>
       <c r="L529" s="140"/>
@@ -16405,28 +16547,28 @@
       <c r="B530" s="188"/>
       <c r="C530" s="140"/>
       <c r="D530" s="140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E530" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F530" s="198">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G530" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H530" s="194">
         <v>42331</v>
       </c>
-      <c r="I530" s="237">
+      <c r="I530" s="223">
         <v>1</v>
       </c>
-      <c r="J530" s="238">
+      <c r="J530" s="224">
         <v>469.73</v>
       </c>
-      <c r="K530" s="240">
+      <c r="K530" s="226">
         <v>1505</v>
       </c>
       <c r="L530" s="140"/>
@@ -16452,13 +16594,13 @@
       <c r="H531" s="194">
         <v>42324</v>
       </c>
-      <c r="I531" s="237">
+      <c r="I531" s="223">
         <v>1</v>
       </c>
-      <c r="J531" s="238">
+      <c r="J531" s="224">
         <v>492.87</v>
       </c>
-      <c r="K531" s="240">
+      <c r="K531" s="226">
         <v>1533</v>
       </c>
       <c r="L531" s="140"/>
@@ -16478,28 +16620,28 @@
       <c r="B532" s="188"/>
       <c r="C532" s="140"/>
       <c r="D532" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E532" s="187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F532" s="198">
         <f>(F530+F529+F522)*1.21</f>
         <v>1.4225655399999999</v>
       </c>
       <c r="G532" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H532" s="194">
         <v>42317</v>
       </c>
-      <c r="I532" s="237">
+      <c r="I532" s="223">
         <v>1</v>
       </c>
-      <c r="J532" s="238">
+      <c r="J532" s="224">
         <v>478</v>
       </c>
-      <c r="K532" s="240">
+      <c r="K532" s="226">
         <v>1515</v>
       </c>
       <c r="L532" s="140"/>
@@ -16525,13 +16667,13 @@
       <c r="H533" s="194">
         <v>42310</v>
       </c>
-      <c r="I533" s="237">
+      <c r="I533" s="223">
         <v>1</v>
       </c>
-      <c r="J533" s="238">
+      <c r="J533" s="224">
         <v>449.07</v>
       </c>
-      <c r="K533" s="240">
+      <c r="K533" s="226">
         <v>1480</v>
       </c>
       <c r="L533" s="140"/>
@@ -16557,13 +16699,13 @@
       <c r="H534" s="194">
         <v>42303</v>
       </c>
-      <c r="I534" s="237">
+      <c r="I534" s="223">
         <v>1</v>
       </c>
-      <c r="J534" s="238">
+      <c r="J534" s="224">
         <v>439.98</v>
       </c>
-      <c r="K534" s="240">
+      <c r="K534" s="226">
         <v>1469</v>
       </c>
       <c r="L534" s="140"/>
@@ -16589,13 +16731,13 @@
       <c r="H535" s="194">
         <v>42296</v>
       </c>
-      <c r="I535" s="237">
+      <c r="I535" s="223">
         <v>1</v>
       </c>
-      <c r="J535" s="238">
+      <c r="J535" s="224">
         <v>454.03</v>
       </c>
-      <c r="K535" s="240">
+      <c r="K535" s="226">
         <v>1486</v>
       </c>
       <c r="L535" s="140"/>
@@ -16621,13 +16763,13 @@
       <c r="H536" s="194">
         <v>42289</v>
       </c>
-      <c r="I536" s="237">
+      <c r="I536" s="223">
         <v>1</v>
       </c>
-      <c r="J536" s="238">
+      <c r="J536" s="224">
         <v>462.29</v>
       </c>
-      <c r="K536" s="240">
+      <c r="K536" s="226">
         <v>1496</v>
       </c>
       <c r="L536" s="140"/>
@@ -16653,13 +16795,13 @@
       <c r="H537" s="194">
         <v>42282</v>
       </c>
-      <c r="I537" s="237">
+      <c r="I537" s="223">
         <v>1</v>
       </c>
-      <c r="J537" s="238">
+      <c r="J537" s="224">
         <v>451.55</v>
       </c>
-      <c r="K537" s="240">
+      <c r="K537" s="226">
         <v>1483</v>
       </c>
       <c r="L537" s="140"/>
@@ -16685,13 +16827,13 @@
       <c r="H538" s="194">
         <v>42275</v>
       </c>
-      <c r="I538" s="237">
+      <c r="I538" s="223">
         <v>1</v>
       </c>
-      <c r="J538" s="238">
+      <c r="J538" s="224">
         <v>463.12</v>
       </c>
-      <c r="K538" s="240">
+      <c r="K538" s="226">
         <v>1497</v>
       </c>
       <c r="L538" s="140"/>
@@ -16717,13 +16859,13 @@
       <c r="H539" s="194">
         <v>42268</v>
       </c>
-      <c r="I539" s="237">
+      <c r="I539" s="223">
         <v>1</v>
       </c>
-      <c r="J539" s="238">
+      <c r="J539" s="224">
         <v>472.21</v>
       </c>
-      <c r="K539" s="240">
+      <c r="K539" s="226">
         <v>1508</v>
       </c>
       <c r="L539" s="140"/>
@@ -16749,13 +16891,13 @@
       <c r="H540" s="194">
         <v>42261</v>
       </c>
-      <c r="I540" s="237">
+      <c r="I540" s="223">
         <v>1</v>
       </c>
-      <c r="J540" s="238">
+      <c r="J540" s="224">
         <v>481.3</v>
       </c>
-      <c r="K540" s="240">
+      <c r="K540" s="226">
         <v>1519</v>
       </c>
       <c r="L540" s="187"/>
@@ -16781,13 +16923,13 @@
       <c r="H541" s="194">
         <v>42254</v>
       </c>
-      <c r="I541" s="237">
+      <c r="I541" s="223">
         <v>1</v>
       </c>
-      <c r="J541" s="238">
+      <c r="J541" s="224">
         <v>482.13</v>
       </c>
-      <c r="K541" s="240">
+      <c r="K541" s="226">
         <v>1520</v>
       </c>
       <c r="L541" s="187"/>
@@ -16813,13 +16955,13 @@
       <c r="H542" s="194">
         <v>42247</v>
       </c>
-      <c r="I542" s="237">
+      <c r="I542" s="223">
         <v>1</v>
       </c>
-      <c r="J542" s="238">
+      <c r="J542" s="224">
         <v>482.95</v>
       </c>
-      <c r="K542" s="240">
+      <c r="K542" s="226">
         <v>1521</v>
       </c>
       <c r="L542" s="187"/>
@@ -16845,13 +16987,13 @@
       <c r="H543" s="194">
         <v>42240</v>
       </c>
-      <c r="I543" s="237">
+      <c r="I543" s="223">
         <v>1</v>
       </c>
-      <c r="J543" s="238">
+      <c r="J543" s="224">
         <v>513.53</v>
       </c>
-      <c r="K543" s="240">
+      <c r="K543" s="226">
         <v>1558</v>
       </c>
       <c r="L543" s="187"/>
@@ -16877,13 +17019,13 @@
       <c r="H544" s="194">
         <v>42233</v>
       </c>
-      <c r="I544" s="237">
+      <c r="I544" s="223">
         <v>1</v>
       </c>
-      <c r="J544" s="238">
+      <c r="J544" s="224">
         <v>542.46</v>
       </c>
-      <c r="K544" s="240">
+      <c r="K544" s="226">
         <v>1593</v>
       </c>
       <c r="L544" s="187"/>
@@ -16909,13 +17051,13 @@
       <c r="H545" s="194">
         <v>42226</v>
       </c>
-      <c r="I545" s="237">
+      <c r="I545" s="223">
         <v>1</v>
       </c>
-      <c r="J545" s="238">
+      <c r="J545" s="224">
         <v>562.29</v>
       </c>
-      <c r="K545" s="240">
+      <c r="K545" s="226">
         <v>1617</v>
       </c>
       <c r="L545" s="187"/>
@@ -16941,13 +17083,13 @@
       <c r="H546" s="194">
         <v>42219</v>
       </c>
-      <c r="I546" s="237">
+      <c r="I546" s="223">
         <v>1</v>
       </c>
-      <c r="J546" s="238">
+      <c r="J546" s="224">
         <v>573.86</v>
       </c>
-      <c r="K546" s="240">
+      <c r="K546" s="226">
         <v>1631</v>
       </c>
       <c r="L546" s="187"/>
@@ -16973,13 +17115,13 @@
       <c r="H547" s="194">
         <v>42212</v>
       </c>
-      <c r="I547" s="237">
+      <c r="I547" s="223">
         <v>1</v>
       </c>
-      <c r="J547" s="238">
+      <c r="J547" s="224">
         <v>586.26</v>
       </c>
-      <c r="K547" s="240">
+      <c r="K547" s="226">
         <v>1646</v>
       </c>
       <c r="L547" s="187"/>
@@ -17005,13 +17147,13 @@
       <c r="H548" s="194">
         <v>42205</v>
       </c>
-      <c r="I548" s="237">
+      <c r="I548" s="223">
         <v>1</v>
       </c>
-      <c r="J548" s="238">
+      <c r="J548" s="224">
         <v>599.48</v>
       </c>
-      <c r="K548" s="240">
+      <c r="K548" s="226">
         <v>1662</v>
       </c>
       <c r="L548" s="187"/>
@@ -17037,13 +17179,13 @@
       <c r="H549" s="194">
         <v>42198</v>
       </c>
-      <c r="I549" s="237">
+      <c r="I549" s="223">
         <v>1</v>
       </c>
-      <c r="J549" s="238">
+      <c r="J549" s="224">
         <v>617.66999999999996</v>
       </c>
-      <c r="K549" s="240">
+      <c r="K549" s="226">
         <v>1684</v>
       </c>
       <c r="L549" s="187"/>
@@ -17069,13 +17211,13 @@
       <c r="H550" s="194">
         <v>42191</v>
       </c>
-      <c r="I550" s="237">
+      <c r="I550" s="223">
         <v>1</v>
       </c>
-      <c r="J550" s="238">
+      <c r="J550" s="224">
         <v>601.14</v>
       </c>
-      <c r="K550" s="240">
+      <c r="K550" s="226">
         <v>1664</v>
       </c>
       <c r="L550" s="187"/>
@@ -17148,7 +17290,7 @@
     <row r="558" spans="1:25" customFormat="1" ht="16">
       <c r="B558" s="127"/>
       <c r="C558" s="126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D558" s="140"/>
       <c r="E558" s="140"/>
@@ -17182,22 +17324,22 @@
     <row r="561" spans="2:8">
       <c r="B561" s="127"/>
       <c r="D561" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="F561" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="F561" s="184" t="s">
+      <c r="G561" s="184" t="s">
         <v>150</v>
-      </c>
-      <c r="G561" s="184" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="562" spans="2:8">
       <c r="B562" s="127"/>
       <c r="D562" s="199" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G562" s="184" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="563" spans="2:8">
@@ -17209,10 +17351,10 @@
         <v>0.6</v>
       </c>
       <c r="G564" s="199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H564" s="199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="565" spans="2:8">
@@ -17222,10 +17364,10 @@
         <v>1.4272</v>
       </c>
       <c r="G565" s="199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H565" s="199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="566" spans="2:8">
@@ -17235,10 +17377,10 @@
         <v>2.0272000000000001</v>
       </c>
       <c r="G566" s="199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H566" s="199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="567" spans="2:8">
@@ -17251,10 +17393,10 @@
         <v>0.76607000000000003</v>
       </c>
       <c r="G568" s="199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H568" s="199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="569" spans="2:8">
@@ -17264,10 +17406,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G569" s="199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H569" s="199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="570" spans="2:8">
@@ -17277,10 +17419,10 @@
         <v>21</v>
       </c>
       <c r="G570" s="199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H570" s="199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="571" spans="2:8">
@@ -17306,10 +17448,10 @@
         <v>0.90130190082644646</v>
       </c>
       <c r="G575" s="199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H575" s="199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="576" spans="2:8">

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="213">
   <si>
     <t>Source</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Quintel definition</t>
-  </si>
-  <si>
-    <t>This is a definition</t>
   </si>
   <si>
     <t>from sugar beets</t>
@@ -771,6 +768,80 @@
       <t>cane</t>
     </r>
   </si>
+  <si>
+    <t>CO2 emission from biomass is defined as 0</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>definition biogasioline (includes bioethanol)</t>
+  </si>
+  <si>
+    <t>biogasoline</t>
+  </si>
 </sst>
 </file>
 
@@ -788,12 +859,26 @@
     <numFmt numFmtId="172" formatCode="0.00000000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1095,6 +1180,20 @@
       <sz val="10"/>
       <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1598,766 +1697,795 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="358">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="39" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="45" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="49" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="43" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="43" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="358">
+  <cellStyles count="362">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2626,6 +2754,10 @@
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3914,6 +4046,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>638</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="128244600"/>
+          <a:ext cx="9779000" cy="7785100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>618</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>629</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="124256800"/>
+          <a:ext cx="9410700" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4036,6 +4244,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -4044,6 +4253,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4407,10 +4617,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4567,7 +4777,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="212">
         <v>42227</v>
@@ -4575,17 +4785,17 @@
     </row>
     <row r="28" spans="1:4">
       <c r="C28" s="211" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="C29" s="211" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="C30" s="211" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4604,9 +4814,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4630,28 +4842,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="228" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="230"/>
+      <c r="B2" s="246" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="248"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="234"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="236"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="254"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4704,7 +4916,7 @@
     <row r="9" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4742,7 +4954,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="218">
         <f>'Research data'!G7</f>
@@ -4752,17 +4964,17 @@
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
       <c r="I11" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="47">
         <f>'Research data'!G8</f>
@@ -4772,7 +4984,7 @@
       <c r="G12" s="132"/>
       <c r="H12" s="32"/>
       <c r="I12" s="133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="46"/>
     </row>
@@ -4782,53 +4994,75 @@
         <v>40</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="48">
         <f>'Research data'!G9</f>
         <v>0</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="132" t="s">
-        <v>45</v>
+      <c r="G13" s="228" t="s">
+        <v>201</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="229" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="37" t="s">
+    <row r="14" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="230" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="125">
+        <f>'Research data'!G10</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="228" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="229" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="41"/>
+      <c r="C15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="134">
-        <f>'Research data'!G10</f>
+      <c r="D15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="134">
+        <f>'Research data'!G11</f>
         <v>10500000</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="118"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="118"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4930,27 +5164,27 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="228" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="237"/>
+      <c r="B2" s="246" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="255"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="238"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="239"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="241"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -5016,7 +5250,7 @@
     <row r="10" spans="2:10" ht="16" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="227" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132"/>
@@ -5029,88 +5263,88 @@
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="125">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="118"/>
     </row>
     <row r="12" spans="2:10" ht="16" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="125">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G16</f>
         <v>1.15E-2</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="118"/>
     </row>
     <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="125">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G17</f>
         <v>1.67E-2</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="118"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="125">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G18</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="118"/>
     </row>
@@ -5120,63 +5354,63 @@
         <v>40</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="125">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="118"/>
     </row>
     <row r="16" spans="2:10" ht="16" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="125">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="118"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G21</f>
         <v>0.6</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="118"/>
     </row>
@@ -5194,7 +5428,7 @@
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="227" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="132"/>
       <c r="E19" s="132"/>
@@ -5207,88 +5441,88 @@
     <row r="20" spans="2:10" ht="16" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="125">
-        <f>'Research data'!G23</f>
+        <f>'Research data'!G24</f>
         <v>0</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="118"/>
     </row>
     <row r="21" spans="2:10" ht="16" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="125">
-        <f>'Research data'!G24</f>
+        <f>'Research data'!G25</f>
         <v>1.43E-2</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="118"/>
     </row>
     <row r="22" spans="2:10" ht="16" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="E22" s="125">
-        <f>'Research data'!G25</f>
+        <f>'Research data'!G26</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="118"/>
     </row>
     <row r="23" spans="2:10" ht="16" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="125">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G27</f>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="118"/>
     </row>
@@ -5298,63 +5532,63 @@
         <v>40</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="125">
-        <f>'Research data'!G27</f>
+        <f>'Research data'!G28</f>
         <v>0</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="118"/>
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="125">
-        <f>'Research data'!G28</f>
+        <f>'Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="118"/>
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="48">
-        <f>'Research data'!G29</f>
+        <f>'Research data'!G30</f>
         <v>0.4</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="118"/>
     </row>
@@ -5389,10 +5623,10 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q36"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5412,13 +5646,14 @@
     <col min="13" max="13" width="8.5" style="74" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="74" customWidth="1"/>
     <col min="15" max="15" width="9.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="74" customWidth="1"/>
-    <col min="17" max="17" width="60" style="73" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="73"/>
+    <col min="16" max="16" width="9.75" style="74" customWidth="1"/>
+    <col min="17" max="17" width="2.75" style="74" customWidth="1"/>
+    <col min="18" max="18" width="60" style="73" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="75"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -5434,9 +5669,10 @@
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
       <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="2:17" s="26" customFormat="1">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78"/>
+    </row>
+    <row r="3" spans="2:18" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="122" t="s">
         <v>30</v>
@@ -5451,26 +5687,29 @@
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -5485,13 +5724,14 @@
       <c r="M4" s="119"/>
       <c r="N4" s="121"/>
       <c r="O4" s="119"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="119"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="79"/>
       <c r="C5" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -5506,9 +5746,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="79"/>
       <c r="C6" s="136" t="s">
         <v>38</v>
@@ -5534,9 +5775,10 @@
       <c r="N6" s="18"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="137" t="s">
         <v>39</v>
@@ -5548,7 +5790,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="216">
         <f>O7</f>
@@ -5561,28 +5803,29 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="215">
+      <c r="O7" s="237">
         <f>Notes!F576</f>
         <v>3.9332535344938857E-2</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="214" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="P7" s="215"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="214" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="G8" s="47">
         <f>I8</f>
@@ -5600,9 +5843,10 @@
       <c r="N8" s="18"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="138" t="s">
         <v>40</v>
@@ -5614,7 +5858,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="47">
         <v>0</v>
@@ -5628,68 +5872,83 @@
       <c r="N9" s="18"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
-      <c r="B10" s="79"/>
-      <c r="C10" s="138" t="s">
-        <v>41</v>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="231" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="134">
-        <f>K10</f>
-        <v>10500000</v>
-      </c>
-      <c r="H10" s="86"/>
+        <v>52</v>
+      </c>
+      <c r="G10" s="125">
+        <f>P10</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="134">
-        <f>Notes!F179</f>
-        <v>10500000</v>
-      </c>
+      <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="165"/>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="P10" s="238">
+        <f>Notes!H665</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" thickBot="1">
       <c r="B11" s="79"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="134">
+        <f>K11</f>
+        <v>10500000</v>
+      </c>
+      <c r="H11" s="86"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="134">
+        <f>Notes!F179</f>
+        <v>10500000</v>
+      </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="165"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="165"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="79"/>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="85"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5698,18 +5957,19 @@
       <c r="N12" s="18"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="165"/>
-    </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="165"/>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="79"/>
-      <c r="C13" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="132"/>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="115"/>
-      <c r="H13" s="86"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5718,83 +5978,76 @@
       <c r="N13" s="18"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="165"/>
+    </row>
+    <row r="14" spans="2:18" ht="16" thickBot="1">
       <c r="B14" s="79"/>
-      <c r="C14" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="125">
-        <f>M14</f>
-        <v>0</v>
-      </c>
+      <c r="C14" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="86"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="125">
-        <f>Notes!H470</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="16" thickBot="1">
       <c r="B15" s="79"/>
       <c r="C15" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="125">
-        <f t="shared" ref="G15:G19" si="0">M15</f>
-        <v>1.15E-2</v>
-      </c>
-      <c r="H15" s="18"/>
+        <f>M15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="86"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="125">
-        <f>Notes!H471</f>
-        <v>1.15E-2</v>
+        <f>Notes!H470</f>
+        <v>0</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="16" thickBot="1">
       <c r="B16" s="79"/>
       <c r="C16" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="G16" s="125">
-        <f t="shared" si="0"/>
-        <v>1.67E-2</v>
+        <f t="shared" ref="G16:G20" si="0">M16</f>
+        <v>1.15E-2</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5802,17 +6055,18 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="125">
-        <f>Notes!H472</f>
-        <v>1.67E-2</v>
+        <f>Notes!H471</f>
+        <v>1.15E-2</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="16" thickBot="1">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16" thickBot="1">
       <c r="B17" s="79"/>
       <c r="C17" s="139" t="s">
         <v>51</v>
@@ -5820,11 +6074,11 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="125">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5832,77 +6086,80 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="125">
-        <f>Notes!H473</f>
-        <v>1.2999999999999999E-3</v>
+        <f>Notes!H472</f>
+        <v>1.67E-2</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="16" thickBot="1">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="16" thickBot="1">
       <c r="B18" s="79"/>
       <c r="C18" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+        <v>50</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="86"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="125">
-        <f>Notes!H474</f>
-        <v>0</v>
+        <f>Notes!H473</f>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="16" thickBot="1">
       <c r="B19" s="79"/>
       <c r="C19" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="125">
-        <f>Notes!H475</f>
+        <f>Notes!H474</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="16" thickBot="1">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="16" thickBot="1">
       <c r="B20" s="79"/>
       <c r="C20" s="139" t="s">
         <v>49</v>
@@ -5910,52 +6167,64 @@
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="48">
-        <f>M20</f>
-        <v>0.6</v>
+        <v>52</v>
+      </c>
+      <c r="G20" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="48">
-        <v>0.6</v>
+      <c r="M20" s="125">
+        <f>Notes!H475</f>
+        <v>0</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="16" thickBot="1">
       <c r="B21" s="79"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48">
+        <f>M21</f>
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="48">
+        <v>0.6</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="165"/>
-    </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="165" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="16" thickBot="1">
       <c r="B22" s="79"/>
-      <c r="C22" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="132"/>
       <c r="G22" s="132"/>
       <c r="H22" s="86"/>
@@ -5963,159 +6232,158 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="132"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="16" thickBot="1">
+      <c r="P22" s="18"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="165"/>
+    </row>
+    <row r="23" spans="2:18" ht="16" thickBot="1">
       <c r="B23" s="79"/>
-      <c r="C23" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="48">
-        <f>M23</f>
-        <v>0</v>
-      </c>
+      <c r="C23" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
       <c r="H23" s="86"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="48">
-        <f>Notes!H487</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="132"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="16" thickBot="1">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="16" thickBot="1">
       <c r="B24" s="79"/>
       <c r="C24" s="139" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="125">
-        <f t="shared" ref="G24:G29" si="1">M24</f>
-        <v>1.43E-2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G24" s="48">
+        <f>M24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="86"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="125">
-        <f>Notes!H488</f>
-        <v>1.43E-2</v>
+      <c r="M24" s="48">
+        <f>Notes!H487</f>
+        <v>0</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="16" thickBot="1">
+      <c r="P24" s="18"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="16" thickBot="1">
       <c r="B25" s="79"/>
       <c r="C25" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="G25" s="125">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999998E-4</v>
+        <f t="shared" ref="G25:G30" si="1">M25</f>
+        <v>1.43E-2</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="125">
-        <f>Notes!H489</f>
-        <v>8.9999999999999998E-4</v>
+        <f>Notes!H488</f>
+        <v>1.43E-2</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="16" thickBot="1">
+      <c r="P25" s="18"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="16" thickBot="1">
       <c r="B26" s="79"/>
       <c r="C26" s="139" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="125">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="125">
-        <f>Notes!H490</f>
-        <v>2.3999999999999998E-3</v>
+        <f>Notes!H489</f>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="16" thickBot="1">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="16" thickBot="1">
       <c r="B27" s="79"/>
       <c r="C27" s="139" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="125">
-        <f>Notes!H491</f>
-        <v>0</v>
+        <f>Notes!H490</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="16" thickBot="1">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="16" thickBot="1">
       <c r="B28" s="79"/>
       <c r="C28" s="139" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="125">
         <f t="shared" si="1"/>
@@ -6126,77 +6394,113 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="125">
-        <f>Notes!H492</f>
+        <f>Notes!H491</f>
         <v>0</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="16" thickBot="1">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="16" thickBot="1">
       <c r="B29" s="79"/>
       <c r="C29" s="139" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="48">
+        <v>52</v>
+      </c>
+      <c r="G29" s="125">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="48">
-        <v>0.4</v>
+      <c r="M29" s="125">
+        <f>Notes!H492</f>
+        <v>0</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="16" thickBot="1">
-      <c r="B30" s="93"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-    </row>
-    <row r="31" spans="2:17">
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="2:17">
+      <c r="P29" s="18"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="16" thickBot="1">
+      <c r="B30" s="79"/>
+      <c r="C30" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="165" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="16" thickBot="1">
+      <c r="B31" s="93"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96"/>
+    </row>
+    <row r="32" spans="2:18">
       <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="15:17">
+      <c r="P32" s="18"/>
+    </row>
+    <row r="33" spans="15:18">
       <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="15:17">
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" spans="15:18">
       <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="15:17">
+      <c r="P34" s="18"/>
+    </row>
+    <row r="35" spans="15:18">
       <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="15:17">
-      <c r="Q36" s="165"/>
+      <c r="P35" s="18"/>
+    </row>
+    <row r="36" spans="15:18">
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="15:18">
+      <c r="R37" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6216,7 +6520,9 @@
   </sheetPr>
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6320,41 +6626,51 @@
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="167" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>120</v>
-      </c>
       <c r="I7" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="71"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="54"/>
-      <c r="C8" s="63"/>
+      <c r="C8" s="232" t="s">
+        <v>205</v>
+      </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="E8" s="233" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="233"/>
+      <c r="G8" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>206</v>
+      </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="K8" s="260" t="s">
+        <v>207</v>
+      </c>
       <c r="L8" s="72"/>
     </row>
     <row r="9" spans="2:12">
@@ -6377,21 +6693,21 @@
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="167" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="167" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="57" t="s">
+      <c r="H10" s="58" t="s">
         <v>124</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>125</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" s="72"/>
     </row>
@@ -6426,19 +6742,19 @@
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
       <c r="E13" s="167" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="167"/>
       <c r="G13" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="62"/>
     </row>
@@ -6458,11 +6774,11 @@
     <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="167"/>
       <c r="G15" s="62" t="s">
@@ -6476,7 +6792,7 @@
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="66"/>
     </row>
@@ -6555,10 +6871,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y613"/>
+  <dimension ref="A1:Y682"/>
   <sheetViews>
-    <sheetView topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="F566" sqref="F566"/>
+    <sheetView topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="G628" sqref="G628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6577,7 +6893,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="130"/>
       <c r="F2" s="130" t="s">
@@ -6624,7 +6940,7 @@
     <row r="4" spans="2:25" customFormat="1" ht="16">
       <c r="B4" s="127"/>
       <c r="C4" s="140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="140"/>
       <c r="E4" s="140"/>
@@ -6707,7 +7023,7 @@
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
       <c r="F7" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -6739,10 +7055,10 @@
         <v>794</v>
       </c>
       <c r="G8" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="142" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="142" t="s">
-        <v>68</v>
       </c>
       <c r="I8" s="140"/>
       <c r="J8" s="140"/>
@@ -6770,10 +7086,10 @@
         <v>26.8</v>
       </c>
       <c r="G9" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="142" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="142" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="140"/>
       <c r="J9" s="140"/>
@@ -6802,10 +7118,10 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="142" t="s">
         <v>71</v>
-      </c>
-      <c r="H10" s="142" t="s">
-        <v>72</v>
       </c>
       <c r="I10" s="140"/>
       <c r="J10" s="140"/>
@@ -6834,10 +7150,10 @@
         <v>21.279200000000003</v>
       </c>
       <c r="G11" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="140"/>
       <c r="J11" s="140"/>
@@ -6915,7 +7231,7 @@
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
       <c r="F14" s="140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="140"/>
@@ -6946,10 +7262,10 @@
         <v>745</v>
       </c>
       <c r="G15" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="142" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" s="142" t="s">
-        <v>68</v>
       </c>
       <c r="I15" s="140"/>
       <c r="J15" s="140"/>
@@ -6978,10 +7294,10 @@
         <v>43.2</v>
       </c>
       <c r="G16" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="142" t="s">
         <v>69</v>
-      </c>
-      <c r="H16" s="142" t="s">
-        <v>70</v>
       </c>
       <c r="I16" s="140"/>
       <c r="J16" s="140"/>
@@ -7011,10 +7327,10 @@
         <v>0.745</v>
       </c>
       <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="142" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" s="142" t="s">
-        <v>72</v>
       </c>
       <c r="I17" s="140"/>
       <c r="J17" s="140"/>
@@ -7044,10 +7360,10 @@
         <v>32.184000000000005</v>
       </c>
       <c r="G18" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="140"/>
       <c r="J18" s="140"/>
@@ -7099,7 +7415,7 @@
       <c r="D20" s="140"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
@@ -7157,7 +7473,7 @@
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
@@ -7188,7 +7504,7 @@
       </c>
       <c r="G23" s="140"/>
       <c r="H23" s="140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
@@ -7218,10 +7534,10 @@
         <v>22.914920000000002</v>
       </c>
       <c r="G24" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
@@ -7302,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H27" s="155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -7330,16 +7646,16 @@
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="157">
         <v>0.15</v>
       </c>
       <c r="G28" s="157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H28" s="158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
@@ -7362,33 +7678,33 @@
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="127"/>
       <c r="E29" s="159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="157">
         <f>F28*F18</f>
         <v>4.8276000000000003</v>
       </c>
       <c r="G29" s="157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H29" s="158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="2:25" customFormat="1" ht="16">
       <c r="B30" s="127"/>
       <c r="E30" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="157">
         <f>F28*F17</f>
         <v>0.11175</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:25" customFormat="1" ht="16">
@@ -7401,49 +7717,49 @@
     <row r="32" spans="2:25" customFormat="1" ht="16">
       <c r="B32" s="127"/>
       <c r="E32" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F32" s="157">
         <f>1-F28</f>
         <v>0.85</v>
       </c>
       <c r="G32" s="157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="2:8" customFormat="1" ht="16">
       <c r="B33" s="127"/>
       <c r="E33" s="159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="157">
         <f>F32*F11</f>
         <v>18.087320000000002</v>
       </c>
       <c r="G33" s="157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H33" s="158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="2:8" customFormat="1" ht="16">
       <c r="B34" s="127"/>
       <c r="E34" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F34" s="157">
         <f>F32*F10</f>
         <v>0.67490000000000006</v>
       </c>
       <c r="G34" s="157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H34" s="158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="2:8" customFormat="1" ht="16">
@@ -7456,33 +7772,33 @@
     <row r="36" spans="2:8" customFormat="1" ht="16">
       <c r="B36" s="127"/>
       <c r="E36" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="157">
         <f>F30+F34</f>
         <v>0.78665000000000007</v>
       </c>
       <c r="G36" s="157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H36" s="158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:8" customFormat="1" ht="16">
       <c r="B37" s="127"/>
       <c r="E37" s="159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="157">
         <f>F29+F33</f>
         <v>22.914920000000002</v>
       </c>
       <c r="G37" s="157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H37" s="158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:8" customFormat="1" ht="16">
@@ -7493,10 +7809,10 @@
         <v>29.129752748998918</v>
       </c>
       <c r="G38" s="157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="2:8" customFormat="1" ht="16">
@@ -7578,7 +7894,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E62" s="130"/>
       <c r="F62" s="130" t="s">
@@ -7629,7 +7945,7 @@
     <row r="64" spans="2:25" customFormat="1" ht="16">
       <c r="B64" s="127"/>
       <c r="C64" s="167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
@@ -7942,7 +8258,7 @@
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="140"/>
       <c r="G76" s="140"/>
@@ -8559,7 +8875,7 @@
         <v>105</v>
       </c>
       <c r="G177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="2:7" customFormat="1" ht="16">
@@ -8569,7 +8885,7 @@
         <v>105000</v>
       </c>
       <c r="G178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="2:7" customFormat="1" ht="16">
@@ -8579,7 +8895,7 @@
         <v>10500000</v>
       </c>
       <c r="G179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="2:7" customFormat="1" ht="16">
@@ -8651,7 +8967,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E201" s="130"/>
       <c r="F201" s="130" t="s">
@@ -8676,7 +8992,7 @@
     <row r="202" spans="2:25" customFormat="1" ht="16">
       <c r="B202" s="127"/>
       <c r="C202" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D202" s="140"/>
       <c r="E202" s="140"/>
@@ -8732,7 +9048,7 @@
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F204" s="140"/>
       <c r="G204" s="140"/>
@@ -9105,10 +9421,10 @@
       <c r="J218" s="140"/>
       <c r="K218" s="140"/>
       <c r="L218" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="M218" s="145" t="s">
         <v>76</v>
-      </c>
-      <c r="M218" s="145" t="s">
-        <v>77</v>
       </c>
       <c r="N218" s="140"/>
       <c r="O218" s="140"/>
@@ -9135,7 +9451,7 @@
       <c r="J219" s="140"/>
       <c r="K219" s="140"/>
       <c r="L219" s="146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M219" s="147">
         <v>5900</v>
@@ -9165,7 +9481,7 @@
       <c r="J220" s="140"/>
       <c r="K220" s="140"/>
       <c r="L220" s="146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M220" s="147">
         <v>5000</v>
@@ -9195,7 +9511,7 @@
       <c r="J221" s="140"/>
       <c r="K221" s="140"/>
       <c r="L221" s="146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M221" s="147">
         <v>4000</v>
@@ -9225,7 +9541,7 @@
       <c r="J222" s="140"/>
       <c r="K222" s="140"/>
       <c r="L222" s="146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M222" s="147">
         <v>3200</v>
@@ -9255,7 +9571,7 @@
       <c r="J223" s="140"/>
       <c r="K223" s="140"/>
       <c r="L223" s="148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M223" s="149">
         <v>2100</v>
@@ -9746,7 +10062,7 @@
       <c r="C242" s="140"/>
       <c r="D242" s="140"/>
       <c r="E242" s="140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F242" s="140"/>
       <c r="G242" s="140"/>
@@ -9879,10 +10195,10 @@
       <c r="D247" s="140"/>
       <c r="E247" s="140"/>
       <c r="F247" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="G247" s="140" t="s">
         <v>84</v>
-      </c>
-      <c r="G247" s="140" t="s">
-        <v>85</v>
       </c>
       <c r="H247" s="140"/>
       <c r="I247" s="140"/>
@@ -9909,10 +10225,10 @@
       <c r="D248" s="140"/>
       <c r="E248" s="140"/>
       <c r="F248" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="G248" s="140" t="s">
         <v>86</v>
-      </c>
-      <c r="G248" s="140" t="s">
-        <v>87</v>
       </c>
       <c r="H248" s="140"/>
       <c r="I248" s="140"/>
@@ -9964,7 +10280,7 @@
       <c r="C250" s="140"/>
       <c r="D250" s="140"/>
       <c r="E250" s="140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F250" s="140"/>
       <c r="G250" s="140"/>
@@ -10486,7 +10802,7 @@
       <c r="C270" s="140"/>
       <c r="D270" s="140"/>
       <c r="E270" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F270" s="140"/>
       <c r="G270" s="140"/>
@@ -10774,7 +11090,7 @@
       <c r="C281" s="140"/>
       <c r="D281" s="140"/>
       <c r="E281" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F281" s="140"/>
       <c r="G281" s="140"/>
@@ -11401,7 +11717,7 @@
         <v>25</v>
       </c>
       <c r="D305" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E305" s="130"/>
       <c r="F305" s="130" t="s">
@@ -11426,7 +11742,7 @@
     <row r="306" spans="2:25" customFormat="1" ht="16">
       <c r="B306" s="127"/>
       <c r="C306" s="150" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D306" s="140"/>
       <c r="E306" s="140"/>
@@ -12029,7 +12345,7 @@
         <v>25</v>
       </c>
       <c r="D329" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E329" s="130"/>
       <c r="F329" s="130" t="s">
@@ -12054,7 +12370,7 @@
     <row r="330" spans="2:25" customFormat="1" ht="16">
       <c r="B330" s="127"/>
       <c r="C330" s="140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D330" s="140"/>
       <c r="E330" s="140"/>
@@ -12136,7 +12452,7 @@
       <c r="C333" s="140"/>
       <c r="D333" s="140"/>
       <c r="E333" s="140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F333" s="140"/>
       <c r="G333" s="140"/>
@@ -12239,7 +12555,7 @@
       <c r="C337" s="140"/>
       <c r="D337" s="140"/>
       <c r="F337" s="140" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G337" s="140"/>
       <c r="H337" s="140"/>
@@ -12269,10 +12585,10 @@
         <v>5000</v>
       </c>
       <c r="G338" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="H338" s="140" t="s">
         <v>95</v>
-      </c>
-      <c r="H338" s="140" t="s">
-        <v>96</v>
       </c>
       <c r="I338" s="140"/>
       <c r="J338" s="140"/>
@@ -12300,7 +12616,7 @@
         <v>1.27</v>
       </c>
       <c r="G339" s="140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H339" s="140"/>
       <c r="I339" s="140"/>
@@ -12330,7 +12646,7 @@
         <v>515620</v>
       </c>
       <c r="G340" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H340" s="140"/>
       <c r="I340" s="140"/>
@@ -12360,7 +12676,7 @@
         <v>5156.2</v>
       </c>
       <c r="G341" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H341" s="140"/>
       <c r="I341" s="140"/>
@@ -12389,7 +12705,7 @@
         <v>4060</v>
       </c>
       <c r="G342" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H342" s="140"/>
       <c r="I342" s="140"/>
@@ -12419,7 +12735,7 @@
         <v>406000</v>
       </c>
       <c r="G343" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H343" s="140"/>
       <c r="I343" s="140"/>
@@ -12448,7 +12764,7 @@
         <v>103</v>
       </c>
       <c r="G344" s="140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H344" s="140"/>
       <c r="I344" s="140"/>
@@ -12479,7 +12795,7 @@
         <v>10300000</v>
       </c>
       <c r="G345" s="172" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H345" s="140"/>
       <c r="I345" s="173"/>
@@ -12509,10 +12825,10 @@
         <v>2.5369458128078819E-2</v>
       </c>
       <c r="G346" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="H346" s="140" t="s">
         <v>103</v>
-      </c>
-      <c r="H346" s="140" t="s">
-        <v>104</v>
       </c>
       <c r="I346" s="140"/>
       <c r="J346" s="140"/>
@@ -12541,10 +12857,10 @@
         <v>25.369458128078819</v>
       </c>
       <c r="G347" s="140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H347" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I347" s="140"/>
       <c r="J347" s="140"/>
@@ -12574,7 +12890,7 @@
         <v>19.975951281951826</v>
       </c>
       <c r="G348" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H348" s="140"/>
       <c r="I348" s="140"/>
@@ -13667,7 +13983,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E390" s="130"/>
       <c r="F390" s="130" t="s">
@@ -13744,7 +14060,7 @@
     <row r="393" spans="2:25" customFormat="1" ht="16">
       <c r="B393" s="127"/>
       <c r="C393" s="151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D393" s="140"/>
       <c r="E393" s="140"/>
@@ -13856,7 +14172,7 @@
         <v>1055</v>
       </c>
       <c r="G397" s="140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H397" s="140"/>
       <c r="K397" s="140"/>
@@ -13884,7 +14200,7 @@
         <v>3.78541178</v>
       </c>
       <c r="G398" s="140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J398" s="140"/>
       <c r="K398" s="140"/>
@@ -13986,13 +14302,13 @@
       <c r="C402" s="140"/>
       <c r="D402" s="140"/>
       <c r="E402" s="156" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F402" s="157">
         <v>76330</v>
       </c>
       <c r="G402" s="157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H402" s="157"/>
       <c r="I402" s="158"/>
@@ -14023,7 +14339,7 @@
         <v>80528150</v>
       </c>
       <c r="G403" s="157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H403" s="157"/>
       <c r="I403" s="158"/>
@@ -14054,7 +14370,7 @@
         <v>80.528149999999997</v>
       </c>
       <c r="G404" s="157" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H404" s="157"/>
       <c r="I404" s="158"/>
@@ -14080,14 +14396,14 @@
       <c r="C405" s="140"/>
       <c r="D405" s="140"/>
       <c r="E405" s="160" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F405" s="161">
         <f>F404/F398</f>
         <v>21.273286680584061</v>
       </c>
       <c r="G405" s="161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H405" s="162"/>
       <c r="I405" s="163"/>
@@ -14582,7 +14898,7 @@
         <v>25</v>
       </c>
       <c r="D424" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E424" s="130"/>
       <c r="F424" s="130" t="s">
@@ -14607,7 +14923,7 @@
     <row r="425" spans="2:25" customFormat="1" ht="16">
       <c r="B425" s="127"/>
       <c r="C425" s="164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D425" s="140"/>
       <c r="E425" s="140"/>
@@ -14691,13 +15007,13 @@
       <c r="C428" s="140"/>
       <c r="D428" s="140"/>
       <c r="E428" s="140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F428" s="140">
         <v>21.1</v>
       </c>
       <c r="G428" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H428" s="140"/>
       <c r="I428" s="140"/>
@@ -14723,13 +15039,13 @@
       <c r="C429" s="140"/>
       <c r="D429" s="140"/>
       <c r="E429" s="140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F429" s="140">
         <v>23.4</v>
       </c>
       <c r="G429" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H429" s="140"/>
       <c r="I429" s="140"/>
@@ -14807,7 +15123,7 @@
       <c r="C432" s="140"/>
       <c r="D432" s="140"/>
       <c r="E432" s="140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F432" s="140"/>
       <c r="G432" s="140"/>
@@ -15278,7 +15594,7 @@
         <v>25</v>
       </c>
       <c r="D450" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E450" s="130"/>
       <c r="F450" s="130" t="s">
@@ -15329,7 +15645,7 @@
     <row r="452" spans="2:25" customFormat="1" ht="17">
       <c r="B452" s="127"/>
       <c r="C452" s="175" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D452" s="140"/>
       <c r="E452" s="140"/>
@@ -15430,13 +15746,13 @@
     <row r="461" spans="2:25">
       <c r="B461" s="127"/>
       <c r="E461" s="176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="462" spans="2:25">
       <c r="B462" s="127"/>
       <c r="E462" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F462" s="140"/>
       <c r="G462" s="140"/>
@@ -15444,17 +15760,17 @@
         <v>0</v>
       </c>
       <c r="I462" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J462" s="140"/>
       <c r="K462" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="463" spans="2:25">
       <c r="B463" s="127"/>
       <c r="E463" s="140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F463" s="140"/>
       <c r="G463" s="140"/>
@@ -15462,7 +15778,7 @@
         <v>11.5</v>
       </c>
       <c r="I463" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J463" s="140"/>
       <c r="K463" s="140"/>
@@ -15470,7 +15786,7 @@
     <row r="464" spans="2:25">
       <c r="B464" s="127"/>
       <c r="E464" s="140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F464" s="140"/>
       <c r="G464" s="140"/>
@@ -15478,7 +15794,7 @@
         <v>16.7</v>
       </c>
       <c r="I464" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J464" s="140"/>
       <c r="K464" s="140"/>
@@ -15487,7 +15803,7 @@
       <c r="B465" s="127"/>
       <c r="D465" s="140"/>
       <c r="E465" s="140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F465" s="140"/>
       <c r="G465" s="140"/>
@@ -15495,7 +15811,7 @@
         <v>1.3</v>
       </c>
       <c r="I465" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J465" s="140"/>
       <c r="K465" s="140"/>
@@ -15512,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="I466" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J466" s="140"/>
       <c r="K466" s="140"/>
@@ -15521,7 +15837,7 @@
       <c r="B467" s="127"/>
       <c r="D467" s="140"/>
       <c r="E467" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F467" s="140"/>
       <c r="G467" s="140"/>
@@ -15529,11 +15845,11 @@
         <v>0</v>
       </c>
       <c r="I467" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J467" s="140"/>
       <c r="K467" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="468" spans="2:11">
@@ -15560,7 +15876,7 @@
       <c r="B470" s="127"/>
       <c r="D470" s="140"/>
       <c r="E470" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F470" s="140"/>
       <c r="G470" s="140"/>
@@ -15569,17 +15885,17 @@
         <v>0</v>
       </c>
       <c r="I470" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J470" s="140"/>
       <c r="K470" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="471" spans="2:11">
       <c r="B471" s="127"/>
       <c r="E471" s="140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F471" s="140"/>
       <c r="G471" s="140"/>
@@ -15588,7 +15904,7 @@
         <v>1.15E-2</v>
       </c>
       <c r="I471" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J471" s="140"/>
       <c r="K471" s="140"/>
@@ -15596,7 +15912,7 @@
     <row r="472" spans="2:11">
       <c r="B472" s="127"/>
       <c r="E472" s="140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F472" s="140"/>
       <c r="G472" s="140"/>
@@ -15605,7 +15921,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="I472" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J472" s="140"/>
       <c r="K472" s="140"/>
@@ -15613,7 +15929,7 @@
     <row r="473" spans="2:11">
       <c r="B473" s="127"/>
       <c r="E473" s="140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F473" s="140"/>
       <c r="G473" s="140"/>
@@ -15622,7 +15938,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I473" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J473" s="140"/>
       <c r="K473" s="140"/>
@@ -15639,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="I474" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J474" s="140"/>
       <c r="K474" s="140"/>
@@ -15647,7 +15963,7 @@
     <row r="475" spans="2:11">
       <c r="B475" s="127"/>
       <c r="E475" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F475" s="140"/>
       <c r="G475" s="140"/>
@@ -15656,11 +15972,11 @@
         <v>0</v>
       </c>
       <c r="I475" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J475" s="140"/>
       <c r="K475" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="476" spans="2:11">
@@ -15672,7 +15988,7 @@
     <row r="478" spans="2:11">
       <c r="B478" s="127"/>
       <c r="E478" s="177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F478" s="178"/>
       <c r="G478" s="178"/>
@@ -15684,7 +16000,7 @@
     <row r="479" spans="2:11">
       <c r="B479" s="127"/>
       <c r="E479" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F479" s="140"/>
       <c r="G479" s="140"/>
@@ -15692,17 +16008,17 @@
         <v>0</v>
       </c>
       <c r="I479" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J479" s="140"/>
       <c r="K479" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="480" spans="2:11">
       <c r="B480" s="127"/>
       <c r="E480" s="140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F480" s="140"/>
       <c r="G480" s="140"/>
@@ -15710,7 +16026,7 @@
         <v>14.3</v>
       </c>
       <c r="I480" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J480" s="140"/>
       <c r="K480" s="140"/>
@@ -15718,7 +16034,7 @@
     <row r="481" spans="2:11">
       <c r="B481" s="127"/>
       <c r="E481" s="140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F481" s="140"/>
       <c r="G481" s="140"/>
@@ -15726,7 +16042,7 @@
         <v>0.9</v>
       </c>
       <c r="I481" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J481" s="140"/>
       <c r="K481" s="140"/>
@@ -15734,7 +16050,7 @@
     <row r="482" spans="2:11">
       <c r="B482" s="127"/>
       <c r="E482" s="140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F482" s="140"/>
       <c r="G482" s="140"/>
@@ -15742,7 +16058,7 @@
         <v>2.4</v>
       </c>
       <c r="I482" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J482" s="140"/>
       <c r="K482" s="140"/>
@@ -15758,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J483" s="140"/>
       <c r="K483" s="140"/>
@@ -15766,7 +16082,7 @@
     <row r="484" spans="2:11">
       <c r="B484" s="127"/>
       <c r="E484" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F484" s="140"/>
       <c r="G484" s="140"/>
@@ -15774,11 +16090,11 @@
         <v>0</v>
       </c>
       <c r="I484" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J484" s="140"/>
       <c r="K484" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="485" spans="2:11">
@@ -15804,7 +16120,7 @@
     <row r="487" spans="2:11">
       <c r="B487" s="127"/>
       <c r="E487" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F487" s="140"/>
       <c r="G487" s="140"/>
@@ -15813,17 +16129,17 @@
         <v>0</v>
       </c>
       <c r="I487" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J487" s="140"/>
       <c r="K487" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="488" spans="2:11">
       <c r="B488" s="127"/>
       <c r="E488" s="140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F488" s="140"/>
       <c r="G488" s="140"/>
@@ -15832,7 +16148,7 @@
         <v>1.43E-2</v>
       </c>
       <c r="I488" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J488" s="140"/>
       <c r="K488" s="140"/>
@@ -15840,7 +16156,7 @@
     <row r="489" spans="2:11">
       <c r="B489" s="127"/>
       <c r="E489" s="140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F489" s="140"/>
       <c r="G489" s="140"/>
@@ -15849,7 +16165,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I489" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J489" s="140"/>
       <c r="K489" s="140"/>
@@ -15857,7 +16173,7 @@
     <row r="490" spans="2:11">
       <c r="B490" s="127"/>
       <c r="E490" s="140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F490" s="140"/>
       <c r="G490" s="140"/>
@@ -15866,7 +16182,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="I490" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J490" s="140"/>
       <c r="K490" s="140"/>
@@ -15883,7 +16199,7 @@
         <v>0</v>
       </c>
       <c r="I491" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J491" s="140"/>
       <c r="K491" s="140"/>
@@ -15891,7 +16207,7 @@
     <row r="492" spans="2:11">
       <c r="B492" s="127"/>
       <c r="E492" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F492" s="140"/>
       <c r="G492" s="140"/>
@@ -15900,11 +16216,11 @@
         <v>0</v>
       </c>
       <c r="I492" s="140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J492" s="140"/>
       <c r="K492" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="493" spans="2:11">
@@ -15974,7 +16290,7 @@
         <v>25</v>
       </c>
       <c r="D513" s="186" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E513" s="186"/>
       <c r="F513" s="186" t="s">
@@ -16031,7 +16347,7 @@
       <c r="A515" s="187"/>
       <c r="B515" s="188"/>
       <c r="C515" s="185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D515" s="140"/>
       <c r="E515" s="140"/>
@@ -16060,7 +16376,7 @@
       <c r="A516" s="187"/>
       <c r="B516" s="188"/>
       <c r="C516" s="189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D516" s="140"/>
       <c r="E516" s="140"/>
@@ -16117,7 +16433,7 @@
       <c r="B518" s="188"/>
       <c r="C518" s="140"/>
       <c r="D518" s="140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E518" s="140"/>
       <c r="F518" s="140"/>
@@ -16152,16 +16468,16 @@
       <c r="F519" s="140"/>
       <c r="G519" s="140"/>
       <c r="H519" s="219" t="s">
+        <v>154</v>
+      </c>
+      <c r="I519" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="I519" s="220" t="s">
-        <v>156</v>
-      </c>
       <c r="J519" s="221" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K519" s="196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L519" s="140"/>
       <c r="M519" s="140"/>
@@ -16180,7 +16496,7 @@
       <c r="B520" s="188"/>
       <c r="C520" s="140"/>
       <c r="D520" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E520" s="187"/>
       <c r="F520" s="140"/>
@@ -16188,10 +16504,10 @@
       <c r="H520" s="191"/>
       <c r="I520" s="192"/>
       <c r="J520" s="222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K520" s="197" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L520" s="140"/>
       <c r="M520" s="140"/>
@@ -16211,14 +16527,14 @@
       <c r="C521" s="140"/>
       <c r="D521" s="140"/>
       <c r="E521" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F521" s="193">
         <f>AVERAGE(J521:J525)</f>
         <v>401.60399999999998</v>
       </c>
       <c r="G521" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H521" s="194">
         <v>42408</v>
@@ -16250,14 +16566,14 @@
       <c r="C522" s="140"/>
       <c r="D522" s="140"/>
       <c r="E522" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F522" s="195">
         <f>F521/1000</f>
         <v>0.40160399999999996</v>
       </c>
       <c r="G522" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H522" s="194">
         <v>42401</v>
@@ -16320,17 +16636,17 @@
       <c r="B524" s="188"/>
       <c r="C524" s="140"/>
       <c r="D524" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E524" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F524" s="193">
         <f>AVERAGE(K521:K525)</f>
         <v>1427.2</v>
       </c>
       <c r="G524" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H524" s="194">
         <v>42387</v>
@@ -16362,14 +16678,14 @@
       <c r="C525" s="140"/>
       <c r="D525" s="140"/>
       <c r="E525" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F525" s="195">
         <f>F524/1000</f>
         <v>1.4272</v>
       </c>
       <c r="G525" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H525" s="194">
         <v>42380</v>
@@ -16432,7 +16748,7 @@
       <c r="B527" s="188"/>
       <c r="C527" s="140"/>
       <c r="D527" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E527" s="140"/>
       <c r="F527" s="198"/>
@@ -16466,16 +16782,16 @@
       <c r="B528" s="188"/>
       <c r="C528" s="140"/>
       <c r="D528" s="140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E528" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F528" s="140">
         <v>21</v>
       </c>
       <c r="G528" s="140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H528" s="194">
         <v>42345</v>
@@ -16506,17 +16822,17 @@
       <c r="B529" s="188"/>
       <c r="C529" s="140"/>
       <c r="D529" s="140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E529" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F529" s="140">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G529" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H529" s="194">
         <v>42338</v>
@@ -16547,17 +16863,17 @@
       <c r="B530" s="188"/>
       <c r="C530" s="140"/>
       <c r="D530" s="140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E530" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F530" s="198">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G530" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H530" s="194">
         <v>42331</v>
@@ -16620,17 +16936,17 @@
       <c r="B532" s="188"/>
       <c r="C532" s="140"/>
       <c r="D532" s="140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E532" s="187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F532" s="198">
         <f>(F530+F529+F522)*1.21</f>
         <v>1.4225655399999999</v>
       </c>
       <c r="G532" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H532" s="194">
         <v>42317</v>
@@ -17239,7 +17555,7 @@
         <v>25</v>
       </c>
       <c r="D556" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E556" s="130"/>
       <c r="F556" s="130" t="s">
@@ -17290,7 +17606,7 @@
     <row r="558" spans="1:25" customFormat="1" ht="16">
       <c r="B558" s="127"/>
       <c r="C558" s="126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D558" s="140"/>
       <c r="E558" s="140"/>
@@ -17324,22 +17640,22 @@
     <row r="561" spans="2:8">
       <c r="B561" s="127"/>
       <c r="D561" s="184" t="s">
+        <v>147</v>
+      </c>
+      <c r="F561" s="184" t="s">
         <v>148</v>
       </c>
-      <c r="F561" s="184" t="s">
+      <c r="G561" s="184" t="s">
         <v>149</v>
-      </c>
-      <c r="G561" s="184" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="562" spans="2:8">
       <c r="B562" s="127"/>
       <c r="D562" s="199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G562" s="184" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="563" spans="2:8">
@@ -17351,10 +17667,10 @@
         <v>0.6</v>
       </c>
       <c r="G564" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H564" s="199" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="565" spans="2:8">
@@ -17364,10 +17680,10 @@
         <v>1.4272</v>
       </c>
       <c r="G565" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H565" s="199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="566" spans="2:8">
@@ -17377,10 +17693,10 @@
         <v>2.0272000000000001</v>
       </c>
       <c r="G566" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H566" s="199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="567" spans="2:8">
@@ -17393,10 +17709,10 @@
         <v>0.76607000000000003</v>
       </c>
       <c r="G568" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H568" s="199" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="569" spans="2:8">
@@ -17406,10 +17722,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G569" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H569" s="199" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="570" spans="2:8">
@@ -17419,10 +17735,10 @@
         <v>21</v>
       </c>
       <c r="G570" s="199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H570" s="199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="571" spans="2:8">
@@ -17448,10 +17764,10 @@
         <v>0.90130190082644646</v>
       </c>
       <c r="G575" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H575" s="199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="576" spans="2:8">
@@ -17461,7 +17777,7 @@
         <v>3.9332535344938857E-2</v>
       </c>
       <c r="G576" s="199" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="577" spans="2:2">
@@ -17560,20 +17876,1646 @@
     <row r="608" spans="2:2">
       <c r="B608" s="127"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:25">
       <c r="B609" s="127"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:25">
       <c r="B610" s="127"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:25">
       <c r="B611" s="127"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:25">
       <c r="B612" s="127"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:25" ht="16" thickBot="1">
       <c r="B613" s="127"/>
+    </row>
+    <row r="614" spans="2:25">
+      <c r="B614" s="234"/>
+      <c r="C614" s="186" t="s">
+        <v>25</v>
+      </c>
+      <c r="D614" s="186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E614" s="186"/>
+      <c r="F614" s="186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G614" s="186"/>
+      <c r="H614" s="186"/>
+      <c r="I614" s="186"/>
+      <c r="J614" s="186"/>
+      <c r="K614" s="186"/>
+      <c r="L614" s="186"/>
+      <c r="M614" s="186"/>
+      <c r="N614" s="186"/>
+      <c r="O614" s="186"/>
+      <c r="P614" s="186"/>
+      <c r="Q614" s="186"/>
+      <c r="R614" s="186"/>
+      <c r="S614" s="186"/>
+      <c r="T614" s="186"/>
+      <c r="U614" s="186"/>
+      <c r="V614" s="185"/>
+      <c r="W614" s="185"/>
+      <c r="X614" s="185"/>
+      <c r="Y614" s="185"/>
+    </row>
+    <row r="615" spans="2:25">
+      <c r="B615" s="188"/>
+      <c r="C615" s="178"/>
+      <c r="D615" s="178"/>
+      <c r="E615" s="178"/>
+      <c r="F615" s="178"/>
+      <c r="G615" s="178"/>
+      <c r="H615" s="178"/>
+      <c r="I615" s="178"/>
+      <c r="J615" s="178"/>
+      <c r="K615" s="178"/>
+      <c r="L615" s="178"/>
+      <c r="M615" s="178"/>
+      <c r="N615" s="178"/>
+      <c r="O615" s="178"/>
+      <c r="P615" s="178"/>
+      <c r="Q615" s="178"/>
+      <c r="R615" s="178"/>
+      <c r="S615" s="178"/>
+      <c r="T615" s="178"/>
+      <c r="U615" s="178"/>
+      <c r="V615" s="178"/>
+      <c r="W615" s="178"/>
+      <c r="X615" s="178"/>
+      <c r="Y615" s="178"/>
+    </row>
+    <row r="616" spans="2:25" ht="16">
+      <c r="B616" s="188"/>
+      <c r="C616" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="D616" s="236"/>
+      <c r="E616" s="236"/>
+      <c r="F616" s="236"/>
+      <c r="G616" s="236"/>
+      <c r="H616" s="236"/>
+      <c r="I616" s="236"/>
+      <c r="J616" s="140"/>
+      <c r="K616" s="140"/>
+      <c r="L616" s="140"/>
+      <c r="M616" s="140"/>
+      <c r="N616" s="140"/>
+      <c r="O616" s="140"/>
+      <c r="P616" s="140"/>
+      <c r="Q616" s="140"/>
+      <c r="R616" s="140"/>
+      <c r="S616" s="140"/>
+      <c r="T616" s="140"/>
+      <c r="U616" s="140"/>
+      <c r="V616" s="140"/>
+      <c r="W616" s="140"/>
+      <c r="X616" s="140"/>
+      <c r="Y616" s="140"/>
+    </row>
+    <row r="617" spans="2:25" ht="16">
+      <c r="B617" s="188"/>
+      <c r="C617" s="236"/>
+      <c r="D617" s="236"/>
+      <c r="E617" s="236"/>
+      <c r="F617" s="236"/>
+      <c r="G617" s="236"/>
+      <c r="H617" s="236"/>
+      <c r="I617" s="236"/>
+      <c r="J617" s="140"/>
+      <c r="K617" s="140"/>
+      <c r="L617" s="140"/>
+      <c r="M617" s="140"/>
+      <c r="N617" s="140"/>
+      <c r="O617" s="140"/>
+      <c r="P617" s="140"/>
+      <c r="Q617" s="140"/>
+      <c r="R617" s="140"/>
+      <c r="S617" s="140"/>
+      <c r="T617" s="140"/>
+      <c r="U617" s="140"/>
+      <c r="V617" s="140"/>
+      <c r="W617" s="140"/>
+      <c r="X617" s="140"/>
+      <c r="Y617" s="140"/>
+    </row>
+    <row r="618" spans="2:25" ht="16">
+      <c r="B618" s="188"/>
+      <c r="C618" s="236"/>
+      <c r="D618" s="242"/>
+      <c r="E618" s="242"/>
+      <c r="F618" s="242"/>
+      <c r="G618" s="242"/>
+      <c r="H618" s="242"/>
+      <c r="I618" s="242"/>
+      <c r="J618" s="245"/>
+      <c r="K618" s="140"/>
+      <c r="L618" s="140"/>
+      <c r="M618" s="140"/>
+      <c r="N618" s="140"/>
+      <c r="O618" s="140"/>
+      <c r="P618" s="140"/>
+      <c r="Q618" s="140"/>
+      <c r="R618" s="140"/>
+      <c r="S618" s="140"/>
+      <c r="T618" s="140"/>
+      <c r="U618" s="140"/>
+      <c r="V618" s="140"/>
+      <c r="W618" s="140"/>
+      <c r="X618" s="140"/>
+      <c r="Y618" s="140"/>
+    </row>
+    <row r="619" spans="2:25" ht="16">
+      <c r="B619" s="188"/>
+      <c r="C619" s="236"/>
+      <c r="D619" s="242"/>
+      <c r="E619" s="242"/>
+      <c r="F619" s="242"/>
+      <c r="G619" s="242"/>
+      <c r="H619" s="242"/>
+      <c r="I619" s="242"/>
+      <c r="J619" s="245"/>
+      <c r="K619" s="140"/>
+      <c r="L619" s="140"/>
+      <c r="M619" s="140"/>
+      <c r="N619" s="140"/>
+      <c r="O619" s="140"/>
+      <c r="P619" s="140"/>
+      <c r="Q619" s="140"/>
+      <c r="R619" s="140"/>
+      <c r="S619" s="140"/>
+      <c r="T619" s="140"/>
+      <c r="U619" s="140"/>
+      <c r="V619" s="140"/>
+      <c r="W619" s="140"/>
+      <c r="X619" s="140"/>
+      <c r="Y619" s="140"/>
+    </row>
+    <row r="620" spans="2:25" ht="16">
+      <c r="B620" s="188"/>
+      <c r="C620" s="236"/>
+      <c r="D620" s="242">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E620" s="242"/>
+      <c r="F620" s="242"/>
+      <c r="G620" s="242" t="s">
+        <v>211</v>
+      </c>
+      <c r="H620" s="242"/>
+      <c r="I620" s="242"/>
+      <c r="J620" s="245"/>
+      <c r="K620" s="140"/>
+      <c r="L620" s="140"/>
+      <c r="M620" s="140"/>
+      <c r="N620" s="140"/>
+      <c r="O620" s="140"/>
+      <c r="P620" s="140"/>
+      <c r="Q620" s="140"/>
+      <c r="R620" s="140"/>
+      <c r="S620" s="140"/>
+      <c r="T620" s="140"/>
+      <c r="U620" s="140"/>
+      <c r="V620" s="140"/>
+      <c r="W620" s="140"/>
+      <c r="X620" s="140"/>
+      <c r="Y620" s="140"/>
+    </row>
+    <row r="621" spans="2:25" ht="16">
+      <c r="B621" s="188"/>
+      <c r="C621" s="236"/>
+      <c r="D621" s="241"/>
+      <c r="E621" s="241"/>
+      <c r="F621" s="241"/>
+      <c r="G621" s="241"/>
+      <c r="H621" s="241"/>
+      <c r="I621" s="241"/>
+      <c r="J621" s="245"/>
+      <c r="K621" s="140"/>
+      <c r="L621" s="140"/>
+      <c r="M621" s="140"/>
+      <c r="N621" s="140"/>
+      <c r="O621" s="140"/>
+      <c r="P621" s="140"/>
+      <c r="Q621" s="140"/>
+      <c r="R621" s="140"/>
+      <c r="S621" s="140"/>
+      <c r="T621" s="140"/>
+      <c r="U621" s="140"/>
+      <c r="V621" s="140"/>
+      <c r="W621" s="140"/>
+      <c r="X621" s="140"/>
+      <c r="Y621" s="140"/>
+    </row>
+    <row r="622" spans="2:25" ht="16">
+      <c r="B622" s="188"/>
+      <c r="C622" s="236"/>
+      <c r="D622" s="241"/>
+      <c r="E622" s="241"/>
+      <c r="F622" s="241"/>
+      <c r="G622" s="241"/>
+      <c r="H622" s="241"/>
+      <c r="I622" s="241"/>
+      <c r="J622" s="245"/>
+      <c r="K622" s="140"/>
+      <c r="L622" s="140"/>
+      <c r="M622" s="140"/>
+      <c r="N622" s="140"/>
+      <c r="O622" s="140"/>
+      <c r="P622" s="140"/>
+      <c r="Q622" s="140"/>
+      <c r="R622" s="140"/>
+      <c r="S622" s="140"/>
+      <c r="T622" s="140"/>
+      <c r="U622" s="140"/>
+      <c r="V622" s="140"/>
+      <c r="W622" s="140"/>
+      <c r="X622" s="140"/>
+      <c r="Y622" s="140"/>
+    </row>
+    <row r="623" spans="2:25" ht="16">
+      <c r="B623" s="188"/>
+      <c r="C623" s="236"/>
+      <c r="D623" s="241"/>
+      <c r="E623" s="241"/>
+      <c r="F623" s="241"/>
+      <c r="G623" s="241"/>
+      <c r="H623" s="241"/>
+      <c r="I623" s="241"/>
+      <c r="J623" s="245"/>
+      <c r="K623" s="140"/>
+      <c r="L623" s="140"/>
+      <c r="M623" s="140"/>
+      <c r="N623" s="140"/>
+      <c r="O623" s="140"/>
+      <c r="P623" s="140"/>
+      <c r="Q623" s="140"/>
+      <c r="R623" s="140"/>
+      <c r="S623" s="140"/>
+      <c r="T623" s="140"/>
+      <c r="U623" s="140"/>
+      <c r="V623" s="140"/>
+      <c r="W623" s="140"/>
+      <c r="X623" s="140"/>
+      <c r="Y623" s="140"/>
+    </row>
+    <row r="624" spans="2:25">
+      <c r="B624" s="188"/>
+      <c r="C624" s="140"/>
+      <c r="D624" s="245"/>
+      <c r="E624" s="245"/>
+      <c r="F624" s="245"/>
+      <c r="G624" s="245"/>
+      <c r="H624" s="245"/>
+      <c r="I624" s="245"/>
+      <c r="J624" s="245"/>
+      <c r="K624" s="140"/>
+      <c r="L624" s="140"/>
+      <c r="M624" s="140"/>
+      <c r="N624" s="140"/>
+      <c r="O624" s="140"/>
+      <c r="P624" s="140"/>
+      <c r="Q624" s="140"/>
+      <c r="R624" s="140"/>
+      <c r="S624" s="140"/>
+      <c r="T624" s="140"/>
+      <c r="U624" s="140"/>
+      <c r="V624" s="140"/>
+      <c r="W624" s="140"/>
+      <c r="X624" s="140"/>
+      <c r="Y624" s="140"/>
+    </row>
+    <row r="625" spans="2:25">
+      <c r="B625" s="188"/>
+      <c r="C625" s="140"/>
+      <c r="D625" s="245"/>
+      <c r="E625" s="245"/>
+      <c r="F625" s="245"/>
+      <c r="G625" s="245"/>
+      <c r="H625" s="245"/>
+      <c r="I625" s="245"/>
+      <c r="J625" s="245"/>
+      <c r="K625" s="140"/>
+      <c r="L625" s="140"/>
+      <c r="M625" s="140"/>
+      <c r="N625" s="140"/>
+      <c r="O625" s="140"/>
+      <c r="P625" s="140"/>
+      <c r="Q625" s="140"/>
+      <c r="R625" s="140"/>
+      <c r="S625" s="140"/>
+      <c r="T625" s="140"/>
+      <c r="U625" s="140"/>
+      <c r="V625" s="140"/>
+      <c r="W625" s="140"/>
+      <c r="X625" s="140"/>
+      <c r="Y625" s="140"/>
+    </row>
+    <row r="626" spans="2:25">
+      <c r="B626" s="188"/>
+      <c r="C626" s="140"/>
+      <c r="D626" s="245"/>
+      <c r="E626" s="245"/>
+      <c r="F626" s="245"/>
+      <c r="G626" s="245"/>
+      <c r="H626" s="245"/>
+      <c r="I626" s="245"/>
+      <c r="J626" s="245"/>
+      <c r="K626" s="140"/>
+      <c r="L626" s="140"/>
+      <c r="M626" s="140"/>
+      <c r="N626" s="140"/>
+      <c r="O626" s="140"/>
+      <c r="P626" s="140"/>
+      <c r="Q626" s="140"/>
+      <c r="R626" s="140"/>
+      <c r="S626" s="140"/>
+      <c r="T626" s="140"/>
+      <c r="U626" s="140"/>
+      <c r="V626" s="140"/>
+      <c r="W626" s="140"/>
+      <c r="X626" s="140"/>
+      <c r="Y626" s="140"/>
+    </row>
+    <row r="627" spans="2:25">
+      <c r="B627" s="188"/>
+      <c r="C627" s="140"/>
+      <c r="D627" s="245"/>
+      <c r="E627" s="245"/>
+      <c r="F627" s="245"/>
+      <c r="G627" s="245"/>
+      <c r="H627" s="245"/>
+      <c r="I627" s="245"/>
+      <c r="J627" s="245"/>
+      <c r="K627" s="140"/>
+      <c r="L627" s="140"/>
+      <c r="M627" s="140"/>
+      <c r="N627" s="140"/>
+      <c r="O627" s="140"/>
+      <c r="P627" s="140"/>
+      <c r="Q627" s="140"/>
+      <c r="R627" s="140"/>
+      <c r="S627" s="140"/>
+      <c r="T627" s="140"/>
+      <c r="U627" s="140"/>
+      <c r="V627" s="140"/>
+      <c r="W627" s="140"/>
+      <c r="X627" s="140"/>
+      <c r="Y627" s="140"/>
+    </row>
+    <row r="628" spans="2:25">
+      <c r="B628" s="188"/>
+      <c r="C628" s="140"/>
+      <c r="D628" s="245"/>
+      <c r="E628" s="245"/>
+      <c r="F628" s="245"/>
+      <c r="G628" s="245"/>
+      <c r="H628" s="245"/>
+      <c r="I628" s="245"/>
+      <c r="J628" s="245"/>
+      <c r="K628" s="140"/>
+      <c r="L628" s="140"/>
+      <c r="M628" s="140"/>
+      <c r="N628" s="140"/>
+      <c r="O628" s="140"/>
+      <c r="P628" s="140"/>
+      <c r="Q628" s="140"/>
+      <c r="R628" s="140"/>
+      <c r="S628" s="140"/>
+      <c r="T628" s="140"/>
+      <c r="U628" s="140"/>
+      <c r="V628" s="140"/>
+      <c r="W628" s="140"/>
+      <c r="X628" s="140"/>
+      <c r="Y628" s="140"/>
+    </row>
+    <row r="629" spans="2:25">
+      <c r="B629" s="188"/>
+      <c r="C629" s="140"/>
+      <c r="D629" s="140"/>
+      <c r="E629" s="140"/>
+      <c r="F629" s="140"/>
+      <c r="G629" s="140"/>
+      <c r="H629" s="140"/>
+      <c r="I629" s="140"/>
+      <c r="J629" s="140"/>
+      <c r="K629" s="140"/>
+      <c r="L629" s="140"/>
+      <c r="M629" s="140"/>
+      <c r="N629" s="140"/>
+      <c r="O629" s="140"/>
+      <c r="P629" s="140"/>
+      <c r="Q629" s="140"/>
+      <c r="R629" s="140"/>
+      <c r="S629" s="140"/>
+      <c r="T629" s="140"/>
+      <c r="U629" s="140"/>
+      <c r="V629" s="140"/>
+      <c r="W629" s="140"/>
+      <c r="X629" s="140"/>
+      <c r="Y629" s="140"/>
+    </row>
+    <row r="630" spans="2:25">
+      <c r="B630" s="188"/>
+      <c r="C630" s="140"/>
+      <c r="D630" s="140"/>
+      <c r="E630" s="140"/>
+      <c r="F630" s="140"/>
+      <c r="G630" s="140"/>
+      <c r="H630" s="140"/>
+      <c r="I630" s="140"/>
+      <c r="J630" s="140"/>
+      <c r="K630" s="140"/>
+      <c r="L630" s="140"/>
+      <c r="M630" s="140"/>
+      <c r="N630" s="140"/>
+      <c r="O630" s="140"/>
+      <c r="P630" s="140"/>
+      <c r="Q630" s="140"/>
+      <c r="R630" s="140"/>
+      <c r="S630" s="140"/>
+      <c r="T630" s="140"/>
+      <c r="U630" s="140"/>
+      <c r="V630" s="140"/>
+      <c r="W630" s="140"/>
+      <c r="X630" s="140"/>
+      <c r="Y630" s="140"/>
+    </row>
+    <row r="631" spans="2:25">
+      <c r="B631" s="188"/>
+      <c r="C631" s="140"/>
+      <c r="D631" s="140"/>
+      <c r="E631" s="140"/>
+      <c r="F631" s="140"/>
+      <c r="G631" s="140"/>
+      <c r="H631" s="140"/>
+      <c r="I631" s="140"/>
+      <c r="J631" s="140"/>
+      <c r="K631" s="140"/>
+      <c r="L631" s="140"/>
+      <c r="M631" s="140"/>
+      <c r="N631" s="140"/>
+      <c r="O631" s="140"/>
+      <c r="P631" s="140"/>
+      <c r="Q631" s="140"/>
+      <c r="R631" s="140"/>
+      <c r="S631" s="140"/>
+      <c r="T631" s="140"/>
+      <c r="U631" s="140"/>
+      <c r="V631" s="140"/>
+      <c r="W631" s="140"/>
+      <c r="X631" s="140"/>
+      <c r="Y631" s="140"/>
+    </row>
+    <row r="632" spans="2:25">
+      <c r="B632" s="188"/>
+      <c r="C632" s="140"/>
+      <c r="D632" s="140"/>
+      <c r="E632" s="140"/>
+      <c r="F632" s="140"/>
+      <c r="G632" s="140"/>
+      <c r="H632" s="140"/>
+      <c r="I632" s="140"/>
+      <c r="J632" s="140"/>
+      <c r="K632" s="140"/>
+      <c r="L632" s="140"/>
+      <c r="M632" s="140"/>
+      <c r="N632" s="140"/>
+      <c r="O632" s="140"/>
+      <c r="P632" s="140"/>
+      <c r="Q632" s="140"/>
+      <c r="R632" s="140"/>
+      <c r="S632" s="140"/>
+      <c r="T632" s="140"/>
+      <c r="U632" s="140"/>
+      <c r="V632" s="140"/>
+      <c r="W632" s="140"/>
+      <c r="X632" s="140"/>
+      <c r="Y632" s="140"/>
+    </row>
+    <row r="633" spans="2:25">
+      <c r="B633" s="188"/>
+      <c r="C633" s="140"/>
+      <c r="D633" s="140"/>
+      <c r="E633" s="140"/>
+      <c r="F633" s="140"/>
+      <c r="G633" s="140"/>
+      <c r="H633" s="140"/>
+      <c r="I633" s="140"/>
+      <c r="J633" s="140"/>
+      <c r="K633" s="140"/>
+      <c r="L633" s="140"/>
+      <c r="M633" s="140"/>
+      <c r="N633" s="140"/>
+      <c r="O633" s="140"/>
+      <c r="P633" s="140"/>
+      <c r="Q633" s="140"/>
+      <c r="R633" s="140"/>
+      <c r="S633" s="140"/>
+      <c r="T633" s="140"/>
+      <c r="U633" s="140"/>
+      <c r="V633" s="140"/>
+      <c r="W633" s="140"/>
+      <c r="X633" s="140"/>
+      <c r="Y633" s="140"/>
+    </row>
+    <row r="634" spans="2:25">
+      <c r="B634" s="188"/>
+      <c r="C634" s="140"/>
+      <c r="D634" s="140"/>
+      <c r="E634" s="140"/>
+      <c r="F634" s="140"/>
+      <c r="G634" s="140"/>
+      <c r="H634" s="140"/>
+      <c r="I634" s="140"/>
+      <c r="J634" s="140"/>
+      <c r="K634" s="140"/>
+      <c r="L634" s="140"/>
+      <c r="M634" s="140"/>
+      <c r="N634" s="140"/>
+      <c r="O634" s="140"/>
+      <c r="P634" s="140"/>
+      <c r="Q634" s="140"/>
+      <c r="R634" s="140"/>
+      <c r="S634" s="140"/>
+      <c r="T634" s="140"/>
+      <c r="U634" s="140"/>
+      <c r="V634" s="140"/>
+      <c r="W634" s="140"/>
+      <c r="X634" s="140"/>
+      <c r="Y634" s="140"/>
+    </row>
+    <row r="635" spans="2:25">
+      <c r="B635" s="188"/>
+      <c r="C635" s="140"/>
+      <c r="D635" s="140"/>
+      <c r="E635" s="140"/>
+      <c r="F635" s="140"/>
+      <c r="G635" s="140"/>
+      <c r="H635" s="140"/>
+      <c r="I635" s="140"/>
+      <c r="J635" s="140"/>
+      <c r="K635" s="140"/>
+      <c r="L635" s="140"/>
+      <c r="M635" s="140"/>
+      <c r="N635" s="140"/>
+      <c r="O635" s="140"/>
+      <c r="P635" s="140"/>
+      <c r="Q635" s="140"/>
+      <c r="R635" s="140"/>
+      <c r="S635" s="140"/>
+      <c r="T635" s="140"/>
+      <c r="U635" s="140"/>
+      <c r="V635" s="140"/>
+      <c r="W635" s="140"/>
+      <c r="X635" s="140"/>
+      <c r="Y635" s="140"/>
+    </row>
+    <row r="636" spans="2:25">
+      <c r="B636" s="188"/>
+      <c r="C636" s="140"/>
+      <c r="D636" s="140"/>
+      <c r="E636" s="140"/>
+      <c r="F636" s="140"/>
+      <c r="G636" s="140"/>
+      <c r="H636" s="140"/>
+      <c r="I636" s="140"/>
+      <c r="J636" s="140"/>
+      <c r="K636" s="140"/>
+      <c r="L636" s="140"/>
+      <c r="M636" s="140"/>
+      <c r="N636" s="140"/>
+      <c r="O636" s="140"/>
+      <c r="P636" s="140"/>
+      <c r="Q636" s="140"/>
+      <c r="R636" s="140"/>
+      <c r="S636" s="140"/>
+      <c r="T636" s="140"/>
+      <c r="U636" s="140"/>
+      <c r="V636" s="140"/>
+      <c r="W636" s="140"/>
+      <c r="X636" s="140"/>
+      <c r="Y636" s="140"/>
+    </row>
+    <row r="637" spans="2:25">
+      <c r="B637" s="188"/>
+      <c r="C637" s="140"/>
+      <c r="D637" s="140"/>
+      <c r="E637" s="140"/>
+      <c r="F637" s="140"/>
+      <c r="G637" s="140"/>
+      <c r="H637" s="140"/>
+      <c r="I637" s="140"/>
+      <c r="J637" s="140"/>
+      <c r="K637" s="140"/>
+      <c r="L637" s="140"/>
+      <c r="M637" s="140"/>
+      <c r="N637" s="140"/>
+      <c r="O637" s="140"/>
+      <c r="P637" s="140"/>
+      <c r="Q637" s="140"/>
+      <c r="R637" s="140"/>
+      <c r="S637" s="140"/>
+      <c r="T637" s="140"/>
+      <c r="U637" s="140"/>
+      <c r="V637" s="140"/>
+      <c r="W637" s="140"/>
+      <c r="X637" s="140"/>
+      <c r="Y637" s="140"/>
+    </row>
+    <row r="638" spans="2:25">
+      <c r="B638" s="188"/>
+      <c r="C638" s="140"/>
+      <c r="D638" s="140"/>
+      <c r="E638" s="140"/>
+      <c r="F638" s="140"/>
+      <c r="G638" s="140"/>
+      <c r="H638" s="140"/>
+      <c r="I638" s="140"/>
+      <c r="J638" s="140"/>
+      <c r="K638" s="140"/>
+      <c r="L638" s="140"/>
+      <c r="M638" s="140"/>
+      <c r="N638" s="140"/>
+      <c r="O638" s="140"/>
+      <c r="P638" s="140"/>
+      <c r="Q638" s="140"/>
+      <c r="R638" s="140"/>
+      <c r="S638" s="140"/>
+      <c r="T638" s="140"/>
+      <c r="U638" s="140"/>
+      <c r="V638" s="140"/>
+      <c r="W638" s="140"/>
+      <c r="X638" s="140"/>
+      <c r="Y638" s="140"/>
+    </row>
+    <row r="639" spans="2:25">
+      <c r="B639" s="188"/>
+      <c r="C639" s="140"/>
+      <c r="D639" s="140"/>
+      <c r="E639" s="140"/>
+      <c r="F639" s="140"/>
+      <c r="G639" s="140"/>
+      <c r="H639" s="140"/>
+      <c r="I639" s="140"/>
+      <c r="J639" s="140"/>
+      <c r="K639" s="140"/>
+      <c r="L639" s="140"/>
+      <c r="M639" s="140"/>
+      <c r="N639" s="140"/>
+      <c r="O639" s="140"/>
+      <c r="P639" s="140"/>
+      <c r="Q639" s="140"/>
+      <c r="R639" s="140"/>
+      <c r="S639" s="140"/>
+      <c r="T639" s="140"/>
+      <c r="U639" s="140"/>
+      <c r="V639" s="140"/>
+      <c r="W639" s="140"/>
+      <c r="X639" s="140"/>
+      <c r="Y639" s="140"/>
+    </row>
+    <row r="640" spans="2:25">
+      <c r="B640" s="188"/>
+      <c r="C640" s="140"/>
+      <c r="D640" s="140"/>
+      <c r="E640" s="140"/>
+      <c r="F640" s="140"/>
+      <c r="G640" s="140"/>
+      <c r="H640" s="140"/>
+      <c r="I640" s="140"/>
+      <c r="J640" s="140"/>
+      <c r="K640" s="140"/>
+      <c r="L640" s="140"/>
+      <c r="M640" s="140"/>
+      <c r="N640" s="140"/>
+      <c r="O640" s="140"/>
+      <c r="P640" s="140"/>
+      <c r="Q640" s="140"/>
+      <c r="R640" s="140"/>
+      <c r="S640" s="140"/>
+      <c r="T640" s="140"/>
+      <c r="U640" s="140"/>
+      <c r="V640" s="140"/>
+      <c r="W640" s="140"/>
+      <c r="X640" s="140"/>
+      <c r="Y640" s="140"/>
+    </row>
+    <row r="641" spans="2:25" ht="16">
+      <c r="B641" s="188"/>
+      <c r="C641" s="187"/>
+      <c r="D641" s="187"/>
+      <c r="E641" s="187"/>
+      <c r="F641" s="187"/>
+      <c r="G641" s="187"/>
+      <c r="H641" s="187"/>
+      <c r="I641" s="187"/>
+      <c r="J641" s="187"/>
+      <c r="K641" s="187"/>
+      <c r="L641" s="187"/>
+      <c r="M641" s="187"/>
+      <c r="N641" s="187"/>
+      <c r="O641" s="187"/>
+      <c r="P641" s="187"/>
+      <c r="Q641" s="187"/>
+      <c r="R641" s="187"/>
+      <c r="S641" s="187"/>
+      <c r="T641" s="187"/>
+      <c r="U641" s="187"/>
+      <c r="V641" s="187"/>
+      <c r="W641" s="187"/>
+      <c r="X641" s="187"/>
+      <c r="Y641" s="187"/>
+    </row>
+    <row r="642" spans="2:25" ht="16">
+      <c r="B642" s="188"/>
+      <c r="C642" s="187"/>
+      <c r="D642" s="187"/>
+      <c r="E642" s="187"/>
+      <c r="F642" s="187"/>
+      <c r="G642" s="187"/>
+      <c r="H642" s="187"/>
+      <c r="I642" s="187"/>
+      <c r="J642" s="187"/>
+      <c r="K642" s="187"/>
+      <c r="L642" s="187"/>
+      <c r="M642" s="187"/>
+      <c r="N642" s="187"/>
+      <c r="O642" s="187"/>
+      <c r="P642" s="187"/>
+      <c r="Q642" s="187"/>
+      <c r="R642" s="187"/>
+      <c r="S642" s="187"/>
+      <c r="T642" s="187"/>
+      <c r="U642" s="187"/>
+      <c r="V642" s="187"/>
+      <c r="W642" s="187"/>
+      <c r="X642" s="187"/>
+      <c r="Y642" s="187"/>
+    </row>
+    <row r="643" spans="2:25" ht="16">
+      <c r="B643" s="188"/>
+      <c r="C643" s="187"/>
+      <c r="D643" s="187"/>
+      <c r="E643" s="187"/>
+      <c r="F643" s="187"/>
+      <c r="G643" s="187"/>
+      <c r="H643" s="187"/>
+      <c r="I643" s="187"/>
+      <c r="J643" s="187"/>
+      <c r="K643" s="187"/>
+      <c r="L643" s="187"/>
+      <c r="M643" s="187"/>
+      <c r="N643" s="187"/>
+      <c r="O643" s="187"/>
+      <c r="P643" s="187"/>
+      <c r="Q643" s="187"/>
+      <c r="R643" s="187"/>
+      <c r="S643" s="187"/>
+      <c r="T643" s="187"/>
+      <c r="U643" s="187"/>
+      <c r="V643" s="187"/>
+      <c r="W643" s="187"/>
+      <c r="X643" s="187"/>
+      <c r="Y643" s="187"/>
+    </row>
+    <row r="644" spans="2:25" ht="16">
+      <c r="B644" s="188"/>
+      <c r="C644" s="187"/>
+      <c r="D644" s="187"/>
+      <c r="E644" s="187"/>
+      <c r="F644" s="187"/>
+      <c r="G644" s="187"/>
+      <c r="H644" s="187"/>
+      <c r="I644" s="187"/>
+      <c r="J644" s="187"/>
+      <c r="K644" s="187"/>
+      <c r="L644" s="187"/>
+      <c r="M644" s="187"/>
+      <c r="N644" s="187"/>
+      <c r="O644" s="187"/>
+      <c r="P644" s="187"/>
+      <c r="Q644" s="187"/>
+      <c r="R644" s="187"/>
+      <c r="S644" s="187"/>
+      <c r="T644" s="187"/>
+      <c r="U644" s="187"/>
+      <c r="V644" s="187"/>
+      <c r="W644" s="187"/>
+      <c r="X644" s="187"/>
+      <c r="Y644" s="187"/>
+    </row>
+    <row r="645" spans="2:25" ht="16">
+      <c r="B645" s="188"/>
+      <c r="C645" s="187"/>
+      <c r="D645" s="187"/>
+      <c r="E645" s="187"/>
+      <c r="F645" s="187"/>
+      <c r="G645" s="187"/>
+      <c r="H645" s="187"/>
+      <c r="I645" s="187"/>
+      <c r="J645" s="187"/>
+      <c r="K645" s="187"/>
+      <c r="L645" s="187"/>
+      <c r="M645" s="187"/>
+      <c r="N645" s="187"/>
+      <c r="O645" s="187"/>
+      <c r="P645" s="187"/>
+      <c r="Q645" s="187"/>
+      <c r="R645" s="187"/>
+      <c r="S645" s="187"/>
+      <c r="T645" s="187"/>
+      <c r="U645" s="187"/>
+      <c r="V645" s="187"/>
+      <c r="W645" s="187"/>
+      <c r="X645" s="187"/>
+      <c r="Y645" s="187"/>
+    </row>
+    <row r="646" spans="2:25" ht="16">
+      <c r="B646" s="188"/>
+      <c r="C646" s="187"/>
+      <c r="D646" s="187"/>
+      <c r="E646" s="187"/>
+      <c r="F646" s="187"/>
+      <c r="G646" s="187"/>
+      <c r="H646" s="187"/>
+      <c r="I646" s="187"/>
+      <c r="J646" s="187"/>
+      <c r="K646" s="187"/>
+      <c r="L646" s="187"/>
+      <c r="M646" s="187"/>
+      <c r="N646" s="187"/>
+      <c r="O646" s="187"/>
+      <c r="P646" s="187"/>
+      <c r="Q646" s="187"/>
+      <c r="R646" s="187"/>
+      <c r="S646" s="187"/>
+      <c r="T646" s="187"/>
+      <c r="U646" s="187"/>
+      <c r="V646" s="187"/>
+      <c r="W646" s="187"/>
+      <c r="X646" s="187"/>
+      <c r="Y646" s="187"/>
+    </row>
+    <row r="647" spans="2:25" ht="16">
+      <c r="B647" s="188"/>
+      <c r="C647" s="187"/>
+      <c r="D647" s="187"/>
+      <c r="E647" s="187"/>
+      <c r="F647" s="187"/>
+      <c r="G647" s="187"/>
+      <c r="H647" s="187"/>
+      <c r="I647" s="187"/>
+      <c r="J647" s="187"/>
+      <c r="K647" s="187"/>
+      <c r="L647" s="187"/>
+      <c r="M647" s="187"/>
+      <c r="N647" s="187"/>
+      <c r="O647" s="187"/>
+      <c r="P647" s="187"/>
+      <c r="Q647" s="187"/>
+      <c r="R647" s="187"/>
+      <c r="S647" s="187"/>
+      <c r="T647" s="187"/>
+      <c r="U647" s="187"/>
+      <c r="V647" s="187"/>
+      <c r="W647" s="187"/>
+      <c r="X647" s="187"/>
+      <c r="Y647" s="187"/>
+    </row>
+    <row r="648" spans="2:25" ht="16">
+      <c r="B648" s="188"/>
+      <c r="C648" s="187"/>
+      <c r="D648" s="187"/>
+      <c r="E648" s="187"/>
+      <c r="F648" s="187"/>
+      <c r="G648" s="187"/>
+      <c r="H648" s="187"/>
+      <c r="I648" s="187"/>
+      <c r="J648" s="187"/>
+      <c r="K648" s="187"/>
+      <c r="L648" s="187"/>
+      <c r="M648" s="187"/>
+      <c r="N648" s="187"/>
+      <c r="O648" s="187"/>
+      <c r="P648" s="187"/>
+      <c r="Q648" s="187"/>
+      <c r="R648" s="187"/>
+      <c r="S648" s="187"/>
+      <c r="T648" s="187"/>
+      <c r="U648" s="187"/>
+      <c r="V648" s="187"/>
+      <c r="W648" s="187"/>
+      <c r="X648" s="187"/>
+      <c r="Y648" s="187"/>
+    </row>
+    <row r="649" spans="2:25" ht="16">
+      <c r="B649" s="188"/>
+      <c r="C649" s="187"/>
+      <c r="D649" s="187"/>
+      <c r="E649" s="187"/>
+      <c r="F649" s="187"/>
+      <c r="G649" s="187"/>
+      <c r="H649" s="187"/>
+      <c r="I649" s="187"/>
+      <c r="J649" s="187"/>
+      <c r="K649" s="187"/>
+      <c r="L649" s="187"/>
+      <c r="M649" s="187"/>
+      <c r="N649" s="187"/>
+      <c r="O649" s="187"/>
+      <c r="P649" s="187"/>
+      <c r="Q649" s="187"/>
+      <c r="R649" s="187"/>
+      <c r="S649" s="187"/>
+      <c r="T649" s="187"/>
+      <c r="U649" s="187"/>
+      <c r="V649" s="187"/>
+      <c r="W649" s="187"/>
+      <c r="X649" s="187"/>
+      <c r="Y649" s="187"/>
+    </row>
+    <row r="650" spans="2:25" ht="16">
+      <c r="B650" s="188"/>
+      <c r="C650" s="187"/>
+      <c r="D650" s="187"/>
+      <c r="E650" s="187"/>
+      <c r="F650" s="187"/>
+      <c r="G650" s="187"/>
+      <c r="H650" s="187"/>
+      <c r="I650" s="187"/>
+      <c r="J650" s="187"/>
+      <c r="K650" s="187"/>
+      <c r="L650" s="187"/>
+      <c r="M650" s="187"/>
+      <c r="N650" s="187"/>
+      <c r="O650" s="187"/>
+      <c r="P650" s="187"/>
+      <c r="Q650" s="187"/>
+      <c r="R650" s="187"/>
+      <c r="S650" s="187"/>
+      <c r="T650" s="187"/>
+      <c r="U650" s="187"/>
+      <c r="V650" s="187"/>
+      <c r="W650" s="187"/>
+      <c r="X650" s="187"/>
+      <c r="Y650" s="187"/>
+    </row>
+    <row r="651" spans="2:25" ht="16">
+      <c r="B651" s="188"/>
+      <c r="C651" s="187"/>
+      <c r="D651" s="187"/>
+      <c r="E651" s="187"/>
+      <c r="F651" s="187"/>
+      <c r="G651" s="187"/>
+      <c r="H651" s="187"/>
+      <c r="I651" s="187"/>
+      <c r="J651" s="187"/>
+      <c r="K651" s="187"/>
+      <c r="L651" s="187"/>
+      <c r="M651" s="187"/>
+      <c r="N651" s="187"/>
+      <c r="O651" s="187"/>
+      <c r="P651" s="187"/>
+      <c r="Q651" s="187"/>
+      <c r="R651" s="187"/>
+      <c r="S651" s="187"/>
+      <c r="T651" s="187"/>
+      <c r="U651" s="187"/>
+      <c r="V651" s="187"/>
+      <c r="W651" s="187"/>
+      <c r="X651" s="187"/>
+      <c r="Y651" s="187"/>
+    </row>
+    <row r="652" spans="2:25" ht="16">
+      <c r="B652" s="188"/>
+      <c r="C652" s="187"/>
+      <c r="D652" s="187"/>
+      <c r="E652" s="187"/>
+      <c r="F652" s="187"/>
+      <c r="G652" s="187"/>
+      <c r="H652" s="187"/>
+      <c r="I652" s="187"/>
+      <c r="J652" s="187"/>
+      <c r="K652" s="187"/>
+      <c r="L652" s="187"/>
+      <c r="M652" s="187"/>
+      <c r="N652" s="187"/>
+      <c r="O652" s="187"/>
+      <c r="P652" s="187"/>
+      <c r="Q652" s="187"/>
+      <c r="R652" s="187"/>
+      <c r="S652" s="187"/>
+      <c r="T652" s="187"/>
+      <c r="U652" s="187"/>
+      <c r="V652" s="187"/>
+      <c r="W652" s="187"/>
+      <c r="X652" s="187"/>
+      <c r="Y652" s="187"/>
+    </row>
+    <row r="653" spans="2:25" ht="16">
+      <c r="B653" s="239"/>
+      <c r="C653" s="240"/>
+      <c r="D653" s="240"/>
+      <c r="E653" s="240"/>
+      <c r="F653" s="240"/>
+      <c r="G653" s="240"/>
+      <c r="H653" s="240"/>
+      <c r="I653" s="240"/>
+      <c r="J653" s="240"/>
+      <c r="K653" s="240"/>
+      <c r="L653" s="240"/>
+      <c r="M653" s="240"/>
+      <c r="N653" s="240"/>
+      <c r="O653" s="240"/>
+      <c r="P653" s="240"/>
+      <c r="Q653" s="187"/>
+      <c r="R653" s="187"/>
+      <c r="S653" s="187"/>
+      <c r="T653" s="187"/>
+      <c r="U653" s="187"/>
+      <c r="V653" s="187"/>
+      <c r="W653" s="187"/>
+      <c r="X653" s="187"/>
+      <c r="Y653" s="187"/>
+    </row>
+    <row r="654" spans="2:25" ht="16">
+      <c r="B654" s="239"/>
+      <c r="C654" s="240"/>
+      <c r="D654" s="240"/>
+      <c r="E654" s="240"/>
+      <c r="F654" s="240"/>
+      <c r="G654" s="240"/>
+      <c r="H654" s="240"/>
+      <c r="I654" s="240"/>
+      <c r="J654" s="240"/>
+      <c r="K654" s="240"/>
+      <c r="L654" s="240"/>
+      <c r="M654" s="240"/>
+      <c r="N654" s="240"/>
+      <c r="O654" s="240"/>
+      <c r="P654" s="240"/>
+      <c r="Q654" s="187"/>
+      <c r="R654" s="187"/>
+      <c r="S654" s="187"/>
+      <c r="T654" s="187"/>
+      <c r="U654" s="187"/>
+      <c r="V654" s="187"/>
+      <c r="W654" s="187"/>
+      <c r="X654" s="187"/>
+      <c r="Y654" s="187"/>
+    </row>
+    <row r="655" spans="2:25" ht="16">
+      <c r="B655" s="239"/>
+      <c r="C655" s="240"/>
+      <c r="D655" s="240"/>
+      <c r="E655" s="240"/>
+      <c r="F655" s="240"/>
+      <c r="G655" s="240"/>
+      <c r="H655" s="240"/>
+      <c r="I655" s="240"/>
+      <c r="J655" s="240"/>
+      <c r="K655" s="240"/>
+      <c r="L655" s="240"/>
+      <c r="M655" s="240"/>
+      <c r="N655" s="240"/>
+      <c r="O655" s="240"/>
+      <c r="P655" s="240"/>
+      <c r="Q655" s="187"/>
+      <c r="R655" s="187"/>
+      <c r="S655" s="187"/>
+      <c r="T655" s="187"/>
+      <c r="U655" s="187"/>
+      <c r="V655" s="187"/>
+      <c r="W655" s="187"/>
+      <c r="X655" s="187"/>
+      <c r="Y655" s="187"/>
+    </row>
+    <row r="656" spans="2:25" ht="16">
+      <c r="B656" s="239"/>
+      <c r="C656" s="240"/>
+      <c r="D656" s="240"/>
+      <c r="E656" s="240"/>
+      <c r="F656" s="240"/>
+      <c r="G656" s="240"/>
+      <c r="H656" s="240"/>
+      <c r="I656" s="240"/>
+      <c r="J656" s="240"/>
+      <c r="K656" s="240"/>
+      <c r="L656" s="240"/>
+      <c r="M656" s="240"/>
+      <c r="N656" s="240"/>
+      <c r="O656" s="240"/>
+      <c r="P656" s="240"/>
+      <c r="Q656" s="187"/>
+      <c r="R656" s="187"/>
+      <c r="S656" s="187"/>
+      <c r="T656" s="187"/>
+      <c r="U656" s="187"/>
+      <c r="V656" s="187"/>
+      <c r="W656" s="187"/>
+      <c r="X656" s="187"/>
+      <c r="Y656" s="187"/>
+    </row>
+    <row r="657" spans="2:25" ht="16">
+      <c r="B657" s="239"/>
+      <c r="C657" s="240"/>
+      <c r="D657" s="240"/>
+      <c r="E657" s="241"/>
+      <c r="F657" s="241"/>
+      <c r="G657" s="241"/>
+      <c r="H657" s="241"/>
+      <c r="I657" s="241"/>
+      <c r="J657" s="242"/>
+      <c r="K657" s="240"/>
+      <c r="L657" s="240"/>
+      <c r="M657" s="240"/>
+      <c r="N657" s="240"/>
+      <c r="O657" s="240"/>
+      <c r="P657" s="240"/>
+      <c r="Q657" s="187"/>
+      <c r="R657" s="187"/>
+      <c r="S657" s="187"/>
+      <c r="T657" s="187"/>
+      <c r="U657" s="187"/>
+      <c r="V657" s="187"/>
+      <c r="W657" s="187"/>
+      <c r="X657" s="187"/>
+      <c r="Y657" s="187"/>
+    </row>
+    <row r="658" spans="2:25" ht="16">
+      <c r="B658" s="239"/>
+      <c r="C658" s="240"/>
+      <c r="D658" s="240"/>
+      <c r="E658" s="241"/>
+      <c r="F658" s="241"/>
+      <c r="G658" s="241"/>
+      <c r="H658" s="241"/>
+      <c r="I658" s="241"/>
+      <c r="J658" s="242"/>
+      <c r="K658" s="240"/>
+      <c r="L658" s="240"/>
+      <c r="M658" s="240"/>
+      <c r="N658" s="240"/>
+      <c r="O658" s="240"/>
+      <c r="P658" s="240"/>
+      <c r="Q658" s="187"/>
+      <c r="R658" s="187"/>
+      <c r="S658" s="187"/>
+      <c r="T658" s="187"/>
+      <c r="U658" s="187"/>
+      <c r="V658" s="187"/>
+      <c r="W658" s="187"/>
+      <c r="X658" s="187"/>
+      <c r="Y658" s="187"/>
+    </row>
+    <row r="659" spans="2:25" ht="16">
+      <c r="B659" s="239"/>
+      <c r="C659" s="240"/>
+      <c r="D659" s="240"/>
+      <c r="E659" s="241"/>
+      <c r="F659" s="241"/>
+      <c r="G659" s="241"/>
+      <c r="H659" s="241"/>
+      <c r="I659" s="241"/>
+      <c r="J659" s="242"/>
+      <c r="K659" s="240"/>
+      <c r="L659" s="240"/>
+      <c r="M659" s="240"/>
+      <c r="N659" s="240"/>
+      <c r="O659" s="240"/>
+      <c r="P659" s="240"/>
+      <c r="Q659" s="187"/>
+      <c r="R659" s="187"/>
+      <c r="S659" s="187"/>
+      <c r="T659" s="187"/>
+      <c r="U659" s="187"/>
+      <c r="V659" s="187"/>
+      <c r="W659" s="187"/>
+      <c r="X659" s="187"/>
+      <c r="Y659" s="187"/>
+    </row>
+    <row r="660" spans="2:25" ht="16">
+      <c r="B660" s="239"/>
+      <c r="C660" s="240"/>
+      <c r="D660" s="240"/>
+      <c r="E660" s="240"/>
+      <c r="F660" s="240"/>
+      <c r="G660" s="240"/>
+      <c r="H660" s="240"/>
+      <c r="I660" s="240"/>
+      <c r="J660" s="240"/>
+      <c r="K660" s="240"/>
+      <c r="L660" s="240"/>
+      <c r="M660" s="240"/>
+      <c r="N660" s="240"/>
+      <c r="O660" s="240"/>
+      <c r="P660" s="240"/>
+      <c r="Q660" s="187"/>
+      <c r="R660" s="187"/>
+      <c r="S660" s="187"/>
+      <c r="T660" s="187"/>
+      <c r="U660" s="187"/>
+      <c r="V660" s="187"/>
+      <c r="W660" s="187"/>
+      <c r="X660" s="187"/>
+      <c r="Y660" s="187"/>
+    </row>
+    <row r="661" spans="2:25">
+      <c r="B661" s="241"/>
+      <c r="C661" s="241"/>
+      <c r="D661" s="241"/>
+      <c r="E661" s="241"/>
+      <c r="F661" s="241"/>
+      <c r="G661" s="241"/>
+      <c r="H661" s="241"/>
+      <c r="I661" s="241"/>
+      <c r="J661" s="241"/>
+      <c r="K661" s="241"/>
+      <c r="L661" s="241"/>
+      <c r="M661" s="241"/>
+      <c r="N661" s="241"/>
+      <c r="O661" s="241"/>
+      <c r="P661" s="241"/>
+    </row>
+    <row r="662" spans="2:25">
+      <c r="B662" s="241"/>
+      <c r="C662" s="241"/>
+      <c r="D662" s="241"/>
+      <c r="E662" s="241"/>
+      <c r="F662" s="241"/>
+      <c r="G662" s="241"/>
+      <c r="H662" s="241"/>
+      <c r="I662" s="241"/>
+      <c r="J662" s="241"/>
+      <c r="K662" s="241"/>
+      <c r="L662" s="241"/>
+      <c r="M662" s="241"/>
+      <c r="N662" s="241"/>
+      <c r="O662" s="241"/>
+      <c r="P662" s="241"/>
+    </row>
+    <row r="663" spans="2:25" ht="16">
+      <c r="B663" s="241"/>
+      <c r="C663" s="241"/>
+      <c r="D663" s="241"/>
+      <c r="E663" s="242">
+        <v>1.23</v>
+      </c>
+      <c r="F663" s="243"/>
+      <c r="G663" s="242"/>
+      <c r="H663" s="242">
+        <v>70800</v>
+      </c>
+      <c r="I663" s="242" t="s">
+        <v>209</v>
+      </c>
+      <c r="J663" s="244" t="s">
+        <v>212</v>
+      </c>
+      <c r="K663" s="241"/>
+      <c r="L663" s="241"/>
+      <c r="M663" s="241"/>
+      <c r="N663" s="241"/>
+      <c r="O663" s="241"/>
+      <c r="P663" s="241"/>
+    </row>
+    <row r="664" spans="2:25" ht="16">
+      <c r="B664" s="241"/>
+      <c r="C664" s="241"/>
+      <c r="D664" s="241"/>
+      <c r="E664" s="242"/>
+      <c r="F664" s="243"/>
+      <c r="G664" s="242"/>
+      <c r="H664" s="242">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="I664" s="242" t="s">
+        <v>210</v>
+      </c>
+      <c r="J664" s="241"/>
+      <c r="K664" s="241"/>
+      <c r="L664" s="241"/>
+      <c r="M664" s="241"/>
+      <c r="N664" s="241"/>
+      <c r="O664" s="241"/>
+      <c r="P664" s="241"/>
+    </row>
+    <row r="665" spans="2:25" ht="16">
+      <c r="B665" s="241"/>
+      <c r="C665" s="241"/>
+      <c r="D665" s="241"/>
+      <c r="E665" s="242"/>
+      <c r="F665" s="243"/>
+      <c r="G665" s="242"/>
+      <c r="H665" s="242">
+        <f>H663/H664</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I665" s="242" t="s">
+        <v>209</v>
+      </c>
+      <c r="J665" s="241"/>
+      <c r="K665" s="241"/>
+      <c r="L665" s="241"/>
+      <c r="M665" s="241"/>
+      <c r="N665" s="241"/>
+      <c r="O665" s="241"/>
+      <c r="P665" s="241"/>
+    </row>
+    <row r="666" spans="2:25">
+      <c r="B666" s="241"/>
+      <c r="C666" s="241"/>
+      <c r="D666" s="241"/>
+      <c r="E666" s="241"/>
+      <c r="F666" s="241"/>
+      <c r="G666" s="241"/>
+      <c r="H666" s="241"/>
+      <c r="I666" s="241"/>
+      <c r="J666" s="241"/>
+      <c r="K666" s="241"/>
+      <c r="L666" s="241"/>
+      <c r="M666" s="241"/>
+      <c r="N666" s="241"/>
+      <c r="O666" s="241"/>
+      <c r="P666" s="241"/>
+    </row>
+    <row r="667" spans="2:25">
+      <c r="B667" s="241"/>
+      <c r="C667" s="241"/>
+      <c r="D667" s="241"/>
+      <c r="E667" s="241"/>
+      <c r="F667" s="241"/>
+      <c r="G667" s="241"/>
+      <c r="H667" s="241"/>
+      <c r="I667" s="241"/>
+      <c r="J667" s="241"/>
+      <c r="K667" s="241"/>
+      <c r="L667" s="241"/>
+      <c r="M667" s="241"/>
+      <c r="N667" s="241"/>
+      <c r="O667" s="241"/>
+      <c r="P667" s="241"/>
+    </row>
+    <row r="668" spans="2:25">
+      <c r="B668" s="241"/>
+      <c r="C668" s="241"/>
+      <c r="D668" s="241"/>
+      <c r="E668" s="241"/>
+      <c r="F668" s="241"/>
+      <c r="G668" s="241"/>
+      <c r="H668" s="241"/>
+      <c r="I668" s="241"/>
+      <c r="J668" s="241"/>
+      <c r="K668" s="241"/>
+      <c r="L668" s="241"/>
+      <c r="M668" s="241"/>
+      <c r="N668" s="241"/>
+      <c r="O668" s="241"/>
+      <c r="P668" s="241"/>
+    </row>
+    <row r="669" spans="2:25">
+      <c r="B669" s="241"/>
+      <c r="C669" s="241"/>
+      <c r="D669" s="241"/>
+      <c r="E669" s="241"/>
+      <c r="F669" s="241"/>
+      <c r="G669" s="241"/>
+      <c r="H669" s="241"/>
+      <c r="I669" s="241"/>
+      <c r="J669" s="241"/>
+      <c r="K669" s="241"/>
+      <c r="L669" s="241"/>
+      <c r="M669" s="241"/>
+      <c r="N669" s="241"/>
+      <c r="O669" s="241"/>
+      <c r="P669" s="241"/>
+    </row>
+    <row r="670" spans="2:25">
+      <c r="B670" s="241"/>
+      <c r="C670" s="241"/>
+      <c r="D670" s="241"/>
+      <c r="E670" s="241"/>
+      <c r="F670" s="241"/>
+      <c r="G670" s="241"/>
+      <c r="H670" s="241"/>
+      <c r="I670" s="241"/>
+      <c r="J670" s="241"/>
+      <c r="K670" s="241"/>
+      <c r="L670" s="241"/>
+      <c r="M670" s="241"/>
+      <c r="N670" s="241"/>
+      <c r="O670" s="241"/>
+      <c r="P670" s="241"/>
+    </row>
+    <row r="671" spans="2:25">
+      <c r="B671" s="241"/>
+      <c r="C671" s="241"/>
+      <c r="D671" s="241"/>
+      <c r="E671" s="241"/>
+      <c r="F671" s="241"/>
+      <c r="G671" s="241"/>
+      <c r="H671" s="241"/>
+      <c r="I671" s="241"/>
+      <c r="J671" s="241"/>
+      <c r="K671" s="241"/>
+      <c r="L671" s="241"/>
+      <c r="M671" s="241"/>
+      <c r="N671" s="241"/>
+      <c r="O671" s="241"/>
+      <c r="P671" s="241"/>
+    </row>
+    <row r="672" spans="2:25">
+      <c r="B672" s="241"/>
+      <c r="C672" s="241"/>
+      <c r="D672" s="241"/>
+      <c r="E672" s="241"/>
+      <c r="F672" s="241"/>
+      <c r="G672" s="241"/>
+      <c r="H672" s="241"/>
+      <c r="I672" s="241"/>
+      <c r="J672" s="241"/>
+      <c r="K672" s="241"/>
+      <c r="L672" s="241"/>
+      <c r="M672" s="241"/>
+      <c r="N672" s="241"/>
+      <c r="O672" s="241"/>
+      <c r="P672" s="241"/>
+    </row>
+    <row r="673" spans="2:16">
+      <c r="B673" s="241"/>
+      <c r="C673" s="241"/>
+      <c r="D673" s="241"/>
+      <c r="E673" s="241"/>
+      <c r="F673" s="241"/>
+      <c r="G673" s="241"/>
+      <c r="H673" s="241"/>
+      <c r="I673" s="241"/>
+      <c r="J673" s="241"/>
+      <c r="K673" s="241"/>
+      <c r="L673" s="241"/>
+      <c r="M673" s="241"/>
+      <c r="N673" s="241"/>
+      <c r="O673" s="241"/>
+      <c r="P673" s="241"/>
+    </row>
+    <row r="674" spans="2:16">
+      <c r="B674" s="241"/>
+      <c r="C674" s="241"/>
+      <c r="D674" s="241"/>
+      <c r="E674" s="241"/>
+      <c r="F674" s="241"/>
+      <c r="G674" s="241"/>
+      <c r="H674" s="241"/>
+      <c r="I674" s="241"/>
+      <c r="J674" s="241"/>
+      <c r="K674" s="241"/>
+      <c r="L674" s="241"/>
+      <c r="M674" s="241"/>
+      <c r="N674" s="241"/>
+      <c r="O674" s="241"/>
+      <c r="P674" s="241"/>
+    </row>
+    <row r="675" spans="2:16">
+      <c r="B675" s="241"/>
+      <c r="C675" s="241"/>
+      <c r="D675" s="241"/>
+      <c r="E675" s="241"/>
+      <c r="F675" s="241"/>
+      <c r="G675" s="241"/>
+      <c r="H675" s="241"/>
+      <c r="I675" s="241"/>
+      <c r="J675" s="241"/>
+      <c r="K675" s="241"/>
+      <c r="L675" s="241"/>
+      <c r="M675" s="241"/>
+      <c r="N675" s="241"/>
+      <c r="O675" s="241"/>
+      <c r="P675" s="241"/>
+    </row>
+    <row r="676" spans="2:16">
+      <c r="B676" s="241"/>
+      <c r="C676" s="241"/>
+      <c r="D676" s="241"/>
+      <c r="E676" s="241"/>
+      <c r="F676" s="241"/>
+      <c r="G676" s="241"/>
+      <c r="H676" s="241"/>
+      <c r="I676" s="241"/>
+      <c r="J676" s="241"/>
+      <c r="K676" s="241"/>
+      <c r="L676" s="241"/>
+      <c r="M676" s="241"/>
+      <c r="N676" s="241"/>
+      <c r="O676" s="241"/>
+      <c r="P676" s="241"/>
+    </row>
+    <row r="677" spans="2:16">
+      <c r="B677" s="241"/>
+      <c r="C677" s="241"/>
+      <c r="D677" s="241"/>
+      <c r="E677" s="241"/>
+      <c r="F677" s="241"/>
+      <c r="G677" s="241"/>
+      <c r="H677" s="241"/>
+      <c r="I677" s="241"/>
+      <c r="J677" s="241"/>
+      <c r="K677" s="241"/>
+      <c r="L677" s="241"/>
+      <c r="M677" s="241"/>
+      <c r="N677" s="241"/>
+      <c r="O677" s="241"/>
+      <c r="P677" s="241"/>
+    </row>
+    <row r="678" spans="2:16">
+      <c r="B678" s="241"/>
+      <c r="C678" s="241"/>
+      <c r="D678" s="241"/>
+      <c r="E678" s="241"/>
+      <c r="F678" s="241"/>
+      <c r="G678" s="241"/>
+      <c r="H678" s="241"/>
+      <c r="I678" s="241"/>
+      <c r="J678" s="241"/>
+      <c r="K678" s="241"/>
+      <c r="L678" s="241"/>
+      <c r="M678" s="241"/>
+      <c r="N678" s="241"/>
+      <c r="O678" s="241"/>
+      <c r="P678" s="241"/>
+    </row>
+    <row r="679" spans="2:16">
+      <c r="B679" s="241"/>
+      <c r="C679" s="241"/>
+      <c r="D679" s="241"/>
+      <c r="E679" s="241"/>
+      <c r="F679" s="241"/>
+      <c r="G679" s="241"/>
+      <c r="H679" s="241"/>
+      <c r="I679" s="241"/>
+      <c r="J679" s="241"/>
+      <c r="K679" s="241"/>
+      <c r="L679" s="241"/>
+      <c r="M679" s="241"/>
+      <c r="N679" s="241"/>
+      <c r="O679" s="241"/>
+      <c r="P679" s="241"/>
+    </row>
+    <row r="680" spans="2:16">
+      <c r="B680" s="241"/>
+      <c r="C680" s="241"/>
+      <c r="D680" s="241"/>
+      <c r="E680" s="241"/>
+      <c r="F680" s="241"/>
+      <c r="G680" s="241"/>
+      <c r="H680" s="241"/>
+      <c r="I680" s="241"/>
+      <c r="J680" s="241"/>
+      <c r="K680" s="241"/>
+      <c r="L680" s="241"/>
+      <c r="M680" s="241"/>
+      <c r="N680" s="241"/>
+      <c r="O680" s="241"/>
+      <c r="P680" s="241"/>
+    </row>
+    <row r="681" spans="2:16">
+      <c r="B681" s="241"/>
+      <c r="C681" s="241"/>
+      <c r="D681" s="241"/>
+      <c r="E681" s="241"/>
+      <c r="F681" s="241"/>
+      <c r="G681" s="241"/>
+      <c r="H681" s="241"/>
+      <c r="I681" s="241"/>
+      <c r="J681" s="241"/>
+      <c r="K681" s="241"/>
+      <c r="L681" s="241"/>
+      <c r="M681" s="241"/>
+      <c r="N681" s="241"/>
+      <c r="O681" s="241"/>
+      <c r="P681" s="241"/>
+    </row>
+    <row r="682" spans="2:16">
+      <c r="B682" s="241"/>
+      <c r="C682" s="241"/>
+      <c r="D682" s="241"/>
+      <c r="E682" s="241"/>
+      <c r="F682" s="241"/>
+      <c r="G682" s="241"/>
+      <c r="H682" s="241"/>
+      <c r="I682" s="241"/>
+      <c r="J682" s="241"/>
+      <c r="K682" s="241"/>
+      <c r="L682" s="241"/>
+      <c r="M682" s="241"/>
+      <c r="N682" s="241"/>
+      <c r="O682" s="241"/>
+      <c r="P682" s="241"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="44840" yWindow="-1880" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -33,8 +38,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -497,10 +505,6 @@
   </si>
   <si>
     <t>bio_ethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
-</t>
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
@@ -842,6 +846,11 @@
   <si>
     <t>biogasoline</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -859,7 +868,7 @@
     <numFmt numFmtId="172" formatCode="0.00000000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1117,11 +1126,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2345,28 +2349,28 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="41" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="42" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2381,7 +2385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2392,28 +2396,28 @@
     <xf numFmtId="172" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="47" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="47" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="49" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2426,8 +2430,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2437,10 +2441,11 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2474,16 +2479,15 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="362">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2851,145 +2855,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3494,14 +3368,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -3511,7 +3385,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4126,7 +4000,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -4239,12 +4113,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -4254,6 +4129,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4588,33 +4464,33 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>142</v>
@@ -4623,7 +4499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -4632,7 +4508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -4641,17 +4517,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="98" t="s">
         <v>15</v>
@@ -4659,13 +4535,13 @@
       <c r="C9" s="99"/>
       <c r="D9" s="179"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="D10" s="180"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="100" t="s">
         <v>16</v>
@@ -4675,7 +4551,7 @@
       </c>
       <c r="D11" s="180"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="100"/>
       <c r="C12" s="20" t="s">
@@ -4683,7 +4559,7 @@
       </c>
       <c r="D12" s="180"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="100"/>
       <c r="C13" s="103" t="s">
@@ -4691,7 +4567,7 @@
       </c>
       <c r="D13" s="180"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="100"/>
       <c r="C14" s="101" t="s">
@@ -4699,13 +4575,13 @@
       </c>
       <c r="D14" s="180"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="180"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="100" t="s">
         <v>21</v>
@@ -4715,7 +4591,7 @@
       </c>
       <c r="D16" s="180"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="100"/>
       <c r="C17" s="105" t="s">
@@ -4723,7 +4599,7 @@
       </c>
       <c r="D17" s="180"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="100"/>
       <c r="C18" s="106" t="s">
@@ -4731,7 +4607,7 @@
       </c>
       <c r="D18" s="180"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="100"/>
       <c r="C19" s="107" t="s">
@@ -4739,7 +4615,7 @@
       </c>
       <c r="D19" s="180"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="108"/>
       <c r="C20" s="109" t="s">
@@ -4747,7 +4623,7 @@
       </c>
       <c r="D20" s="180"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="108"/>
       <c r="C21" s="110" t="s">
@@ -4755,7 +4631,7 @@
       </c>
       <c r="D21" s="180"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="108"/>
       <c r="C22" s="111" t="s">
@@ -4763,114 +4639,109 @@
       </c>
       <c r="D22" s="180"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="108"/>
       <c r="C23" s="112" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="180"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="181"/>
       <c r="C24" s="182"/>
       <c r="D24" s="183"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="212">
         <v>42227</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="211" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="211" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="C29" s="211" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="211" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" s="211" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="246" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="247" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="248"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="249"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="249"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="250"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
       <c r="E3" s="251"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="252"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="252"/>
+    </row>
+    <row r="4" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="253"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
       <c r="E4" s="254"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="F4" s="254"/>
+      <c r="G4" s="255"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4881,7 +4752,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:11" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="113"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4902,7 +4773,7 @@
       </c>
       <c r="J7" s="117"/>
     </row>
-    <row r="8" spans="2:11" s="45" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4913,7 +4784,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
         <v>140</v>
@@ -4926,7 +4797,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="123" t="s">
         <v>38</v>
@@ -4948,7 +4819,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="132" t="s">
         <v>39</v>
@@ -4964,11 +4835,11 @@
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
       <c r="I11" s="217" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="132" t="s">
         <v>141</v>
@@ -4988,7 +4859,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="37" t="s">
         <v>40</v>
@@ -5002,7 +4873,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="228" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="229" t="s">
@@ -5010,10 +4881,10 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="230" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>52</v>
@@ -5024,15 +4895,15 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="228" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="229" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="37" t="s">
         <v>41</v>
@@ -5053,7 +4924,7 @@
       <c r="J15" s="118"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -5066,70 +4937,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5142,56 +4953,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="246" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="255"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="247" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="249"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="256"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="250"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="257"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="257"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="259"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="258"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="260"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5202,7 +5013,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="113"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -5223,7 +5034,7 @@
       </c>
       <c r="J7" s="117"/>
     </row>
-    <row r="8" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -5234,7 +5045,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -5247,10 +5058,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="118"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1">
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
       <c r="C10" s="227" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132"/>
@@ -5260,7 +5071,7 @@
       <c r="I10" s="132"/>
       <c r="J10" s="118"/>
     </row>
-    <row r="11" spans="2:10" ht="16" thickBot="1">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41"/>
       <c r="C11" s="135" t="s">
         <v>46</v>
@@ -5282,7 +5093,7 @@
       </c>
       <c r="J11" s="118"/>
     </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="135" t="s">
         <v>47</v>
@@ -5304,7 +5115,7 @@
       </c>
       <c r="J12" s="118"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="135" t="s">
         <v>51</v>
@@ -5326,7 +5137,7 @@
       </c>
       <c r="J13" s="118"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="135" t="s">
         <v>50</v>
@@ -5348,7 +5159,7 @@
       </c>
       <c r="J14" s="118"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="135" t="s">
         <v>40</v>
@@ -5370,7 +5181,7 @@
       </c>
       <c r="J15" s="118"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="135" t="s">
         <v>49</v>
@@ -5392,7 +5203,7 @@
       </c>
       <c r="J16" s="118"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="135" t="s">
         <v>48</v>
@@ -5414,7 +5225,7 @@
       </c>
       <c r="J17" s="118"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="41"/>
       <c r="C18" s="132"/>
       <c r="D18" s="132"/>
@@ -5425,10 +5236,10 @@
       <c r="I18" s="132"/>
       <c r="J18" s="118"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="227" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="132"/>
       <c r="E19" s="132"/>
@@ -5438,7 +5249,7 @@
       <c r="I19" s="132"/>
       <c r="J19" s="118"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="135" t="s">
         <v>46</v>
@@ -5460,7 +5271,7 @@
       </c>
       <c r="J20" s="118"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="135" t="s">
         <v>47</v>
@@ -5482,7 +5293,7 @@
       </c>
       <c r="J21" s="118"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="135" t="s">
         <v>51</v>
@@ -5504,7 +5315,7 @@
       </c>
       <c r="J22" s="118"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="135" t="s">
         <v>50</v>
@@ -5526,7 +5337,7 @@
       </c>
       <c r="J23" s="118"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="135" t="s">
         <v>40</v>
@@ -5548,7 +5359,7 @@
       </c>
       <c r="J24" s="118"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
       <c r="C25" s="135" t="s">
         <v>49</v>
@@ -5570,7 +5381,7 @@
       </c>
       <c r="J25" s="118"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="135" t="s">
         <v>48</v>
@@ -5592,7 +5403,7 @@
       </c>
       <c r="J26" s="118"/>
     </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -5610,11 +5421,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5629,31 +5435,30 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="73" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="73" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="73" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="73" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="74" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="73" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="73" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="73" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="74" customWidth="1"/>
     <col min="10" max="10" width="3" style="74" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="74" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="74" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="74" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="74" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="74" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="74" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="74" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="74" customWidth="1"/>
     <col min="18" max="18" width="60" style="73" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="73"/>
+    <col min="19" max="16384" width="10.7109375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="75"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -5672,7 +5477,7 @@
       <c r="Q2" s="77"/>
       <c r="R2" s="78"/>
     </row>
-    <row r="3" spans="2:18" s="26" customFormat="1">
+    <row r="3" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="122" t="s">
         <v>30</v>
@@ -5699,17 +5504,17 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -5728,7 +5533,7 @@
       <c r="Q4" s="121"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="79"/>
       <c r="C5" s="20" t="s">
         <v>62</v>
@@ -5749,7 +5554,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="79"/>
       <c r="C6" s="136" t="s">
         <v>38</v>
@@ -5778,7 +5583,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="137" t="s">
         <v>39</v>
@@ -5810,10 +5615,10 @@
       <c r="P7" s="215"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="214" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="137" t="s">
         <v>141</v>
@@ -5846,7 +5651,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="138" t="s">
         <v>40</v>
@@ -5875,10 +5680,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="231" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="138" t="s">
         <v>40</v>
@@ -5908,7 +5713,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79"/>
       <c r="C11" s="138" t="s">
         <v>41</v>
@@ -5941,7 +5746,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="165"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="79"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -5960,7 +5765,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="165"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="79"/>
       <c r="C13" s="20" t="s">
         <v>37</v>
@@ -5981,7 +5786,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="165"/>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79"/>
       <c r="C14" s="137" t="s">
         <v>45</v>
@@ -6004,7 +5809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="79"/>
       <c r="C15" s="139" t="s">
         <v>46</v>
@@ -6035,7 +5840,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="79"/>
       <c r="C16" s="139" t="s">
         <v>47</v>
@@ -6066,7 +5871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="79"/>
       <c r="C17" s="139" t="s">
         <v>51</v>
@@ -6097,7 +5902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="79"/>
       <c r="C18" s="139" t="s">
         <v>50</v>
@@ -6128,7 +5933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="79"/>
       <c r="C19" s="139" t="s">
         <v>40</v>
@@ -6159,7 +5964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="79"/>
       <c r="C20" s="139" t="s">
         <v>49</v>
@@ -6190,7 +5995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="79"/>
       <c r="C21" s="139" t="s">
         <v>48</v>
@@ -6220,7 +6025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="79"/>
       <c r="C22" s="137"/>
       <c r="D22" s="92"/>
@@ -6239,7 +6044,7 @@
       <c r="Q22" s="83"/>
       <c r="R22" s="165"/>
     </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="79"/>
       <c r="C23" s="137" t="s">
         <v>58</v>
@@ -6262,7 +6067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="16" thickBot="1">
+    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="79"/>
       <c r="C24" s="139" t="s">
         <v>46</v>
@@ -6293,7 +6098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="16" thickBot="1">
+    <row r="25" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="79"/>
       <c r="C25" s="139" t="s">
         <v>47</v>
@@ -6321,7 +6126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16" thickBot="1">
+    <row r="26" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="79"/>
       <c r="C26" s="139" t="s">
         <v>51</v>
@@ -6349,7 +6154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="16" thickBot="1">
+    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="79"/>
       <c r="C27" s="139" t="s">
         <v>50</v>
@@ -6377,7 +6182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="16" thickBot="1">
+    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="79"/>
       <c r="C28" s="139" t="s">
         <v>40</v>
@@ -6405,7 +6210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="16" thickBot="1">
+    <row r="29" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="79"/>
       <c r="C29" s="139" t="s">
         <v>49</v>
@@ -6433,7 +6238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="16" thickBot="1">
+    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="79"/>
       <c r="C30" s="139" t="s">
         <v>48</v>
@@ -6460,7 +6265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="16" thickBot="1">
+    <row r="31" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -6479,37 +6284,32 @@
       <c r="Q31" s="95"/>
       <c r="R31" s="96"/>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="15:18">
+    <row r="33" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="15:18">
+    <row r="34" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="15:18">
+    <row r="35" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" spans="15:18">
+    <row r="36" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
     </row>
-    <row r="37" spans="15:18">
+    <row r="37" spans="15:18" x14ac:dyDescent="0.2">
       <c r="R37" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6524,23 +6324,23 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="49"/>
+    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -6553,7 +6353,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -6568,7 +6368,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -6581,7 +6381,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -6610,7 +6410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -6623,7 +6423,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="170" t="s">
         <v>141</v>
@@ -6650,30 +6450,30 @@
       </c>
       <c r="L7" s="71"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
       <c r="C8" s="232" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="233" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" s="233"/>
       <c r="G8" s="57" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="260" t="s">
-        <v>207</v>
+      <c r="K8" s="246" t="s">
+        <v>206</v>
       </c>
       <c r="L8" s="72"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
@@ -6686,7 +6486,7 @@
       <c r="K9" s="58"/>
       <c r="L9" s="72"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="54"/>
       <c r="C10" s="171" t="s">
         <v>41</v>
@@ -6711,7 +6511,7 @@
       </c>
       <c r="L10" s="72"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="62"/>
       <c r="D11" s="67"/>
@@ -6724,7 +6524,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -6737,7 +6537,7 @@
       <c r="K12" s="65"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="54"/>
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
@@ -6758,7 +6558,7 @@
       </c>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -6771,7 +6571,7 @@
       <c r="K14" s="65"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
         <v>136</v>
@@ -6796,7 +6596,7 @@
       </c>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="54"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -6809,7 +6609,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="54"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -6822,7 +6622,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="66"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="54"/>
       <c r="C18" s="63"/>
       <c r="D18" s="62"/>
@@ -6835,24 +6635,24 @@
       <c r="K18" s="68"/>
       <c r="L18" s="66"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="E19" s="169"/>
       <c r="F19" s="169"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
       <c r="C20" s="67"/>
       <c r="E20" s="169"/>
       <c r="F20" s="169"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="54"/>
       <c r="C21" s="131"/>
       <c r="E21" s="169"/>
       <c r="F21" s="169"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
       <c r="E22" s="169"/>
       <c r="F22" s="169"/>
@@ -6860,11 +6660,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6877,17 +6672,17 @@
       <selection activeCell="G628" sqref="G628"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="126" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="126" customWidth="1"/>
     <col min="2" max="2" width="5" style="126" customWidth="1"/>
     <col min="3" max="5" width="7" style="126"/>
-    <col min="6" max="6" width="10.875" style="126" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="126" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="7" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="26" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="129"/>
       <c r="C2" s="130" t="s">
         <v>25</v>
@@ -6915,7 +6710,7 @@
       <c r="T2" s="130"/>
       <c r="U2" s="130"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="127"/>
       <c r="C3" s="128"/>
       <c r="D3" s="128"/>
@@ -6937,7 +6732,7 @@
       <c r="T3" s="128"/>
       <c r="U3" s="128"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="127"/>
       <c r="C4" s="140" t="s">
         <v>65</v>
@@ -6965,7 +6760,7 @@
       <c r="X4" s="140"/>
       <c r="Y4" s="140"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="127"/>
       <c r="C5" s="140"/>
       <c r="D5" s="140"/>
@@ -6991,7 +6786,7 @@
       <c r="X5" s="140"/>
       <c r="Y5" s="140"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="127"/>
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
@@ -7017,13 +6812,13 @@
       <c r="X6" s="140"/>
       <c r="Y6" s="140"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127"/>
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
       <c r="F7" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -7045,7 +6840,7 @@
       <c r="X7" s="140"/>
       <c r="Y7" s="140"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="127"/>
       <c r="C8" s="140"/>
       <c r="D8" s="140">
@@ -7078,7 +6873,7 @@
       <c r="X8" s="140"/>
       <c r="Y8" s="140"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="127"/>
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
@@ -7109,7 +6904,7 @@
       <c r="X9" s="140"/>
       <c r="Y9" s="140"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="127"/>
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
@@ -7141,7 +6936,7 @@
       <c r="X10" s="140"/>
       <c r="Y10" s="140"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="127"/>
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
@@ -7173,7 +6968,7 @@
       <c r="X11" s="140"/>
       <c r="Y11" s="140"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="127"/>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
@@ -7199,7 +6994,7 @@
       <c r="X12" s="140"/>
       <c r="Y12" s="140"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="127"/>
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
@@ -7225,13 +7020,13 @@
       <c r="X13" s="140"/>
       <c r="Y13" s="140"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="127"/>
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
       <c r="F14" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="140"/>
@@ -7253,7 +7048,7 @@
       <c r="X14" s="140"/>
       <c r="Y14" s="140"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="127"/>
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
@@ -7285,7 +7080,7 @@
       <c r="X15" s="140"/>
       <c r="Y15" s="140"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="127"/>
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
@@ -7317,7 +7112,7 @@
       <c r="X16" s="140"/>
       <c r="Y16" s="140"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="127"/>
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
@@ -7350,7 +7145,7 @@
       <c r="X17" s="140"/>
       <c r="Y17" s="140"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="127"/>
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
@@ -7383,7 +7178,7 @@
       <c r="X18" s="140"/>
       <c r="Y18" s="140"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="127"/>
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
@@ -7409,13 +7204,13 @@
       <c r="X19" s="140"/>
       <c r="Y19" s="140"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="127"/>
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
@@ -7437,7 +7232,7 @@
       <c r="X20" s="140"/>
       <c r="Y20" s="140"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="127"/>
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
@@ -7463,7 +7258,7 @@
       <c r="X21" s="140"/>
       <c r="Y21" s="140"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="127"/>
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
@@ -7473,7 +7268,7 @@
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
@@ -7493,7 +7288,7 @@
       <c r="X22" s="140"/>
       <c r="Y22" s="140"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="127"/>
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
@@ -7504,7 +7299,7 @@
       </c>
       <c r="G23" s="140"/>
       <c r="H23" s="140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
@@ -7524,7 +7319,7 @@
       <c r="X23" s="140"/>
       <c r="Y23" s="140"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="127"/>
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
@@ -7537,7 +7332,7 @@
         <v>72</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
@@ -7557,7 +7352,7 @@
       <c r="X24" s="140"/>
       <c r="Y24" s="140"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="127"/>
       <c r="C25" s="140"/>
       <c r="D25" s="140"/>
@@ -7583,7 +7378,7 @@
       <c r="X25" s="140"/>
       <c r="Y25" s="140"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="127"/>
       <c r="C26" s="140"/>
       <c r="D26" s="140"/>
@@ -7609,7 +7404,7 @@
       <c r="X26" s="140"/>
       <c r="Y26" s="140"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="127"/>
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
@@ -7618,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" s="155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -7641,21 +7436,21 @@
       <c r="X27" s="140"/>
       <c r="Y27" s="140"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="127"/>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="157">
         <v>0.15</v>
       </c>
       <c r="G28" s="157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" s="158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
@@ -7675,133 +7470,133 @@
       <c r="X28" s="140"/>
       <c r="Y28" s="140"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="127"/>
       <c r="E29" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="157">
         <f>F28*F18</f>
         <v>4.8276000000000003</v>
       </c>
       <c r="G29" s="157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="127"/>
       <c r="E30" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="157">
         <f>F28*F17</f>
         <v>0.11175</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="127"/>
       <c r="E31" s="204"/>
       <c r="F31" s="205"/>
       <c r="G31" s="205"/>
       <c r="H31" s="206"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="127"/>
       <c r="E32" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" s="157">
         <f>1-F28</f>
         <v>0.85</v>
       </c>
       <c r="G32" s="157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H32" s="158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" customFormat="1" ht="16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="127"/>
       <c r="E33" s="159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="157">
         <f>F32*F11</f>
         <v>18.087320000000002</v>
       </c>
       <c r="G33" s="157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H33" s="158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" customFormat="1" ht="16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="127"/>
       <c r="E34" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F34" s="157">
         <f>F32*F10</f>
         <v>0.67490000000000006</v>
       </c>
       <c r="G34" s="157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H34" s="158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" customFormat="1" ht="16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="127"/>
       <c r="E35" s="159"/>
       <c r="F35" s="157"/>
       <c r="G35" s="157"/>
       <c r="H35" s="158"/>
     </row>
-    <row r="36" spans="2:8" customFormat="1" ht="16">
+    <row r="36" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="127"/>
       <c r="E36" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="157">
         <f>F30+F34</f>
         <v>0.78665000000000007</v>
       </c>
       <c r="G36" s="157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H36" s="158" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" customFormat="1" ht="16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="127"/>
       <c r="E37" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F37" s="157">
         <f>F29+F33</f>
         <v>22.914920000000002</v>
       </c>
       <c r="G37" s="157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H37" s="158" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" customFormat="1" ht="16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="127"/>
       <c r="E38" s="159"/>
       <c r="F38" s="210">
@@ -7812,83 +7607,83 @@
         <v>60</v>
       </c>
       <c r="H38" s="158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" customFormat="1" ht="16">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="127"/>
       <c r="E39" s="207"/>
       <c r="F39" s="208"/>
       <c r="G39" s="208"/>
       <c r="H39" s="209"/>
     </row>
-    <row r="40" spans="2:8" customFormat="1" ht="16">
+    <row r="40" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="127"/>
     </row>
-    <row r="41" spans="2:8" customFormat="1" ht="16">
+    <row r="41" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="127"/>
     </row>
-    <row r="42" spans="2:8" customFormat="1" ht="16">
+    <row r="42" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="127"/>
     </row>
-    <row r="43" spans="2:8" customFormat="1" ht="16">
+    <row r="43" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="127"/>
     </row>
-    <row r="44" spans="2:8" customFormat="1" ht="16">
+    <row r="44" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="127"/>
     </row>
-    <row r="45" spans="2:8" customFormat="1" ht="16">
+    <row r="45" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="127"/>
     </row>
-    <row r="46" spans="2:8" customFormat="1" ht="16">
+    <row r="46" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="127"/>
     </row>
-    <row r="47" spans="2:8" customFormat="1" ht="16">
+    <row r="47" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="127"/>
     </row>
-    <row r="48" spans="2:8" customFormat="1" ht="16">
+    <row r="48" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="127"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" ht="16">
+    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="127"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" ht="16">
+    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="127"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" ht="16">
+    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="127"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" ht="16">
+    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="127"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" ht="16">
+    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="127"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" ht="16">
+    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="127"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" ht="16">
+    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="127"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" ht="16">
+    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="127"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" ht="16">
+    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="127"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" ht="16">
+    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="127"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" ht="16">
+    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="127"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" ht="16">
+    <row r="60" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="127"/>
     </row>
-    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="127"/>
     </row>
-    <row r="62" spans="2:25" s="26" customFormat="1">
+    <row r="62" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="130"/>
       <c r="C62" s="130" t="s">
         <v>25</v>
@@ -7916,7 +7711,7 @@
       <c r="T62" s="130"/>
       <c r="U62" s="130"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" ht="16">
+    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="127"/>
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
@@ -7942,7 +7737,7 @@
       <c r="X63" s="140"/>
       <c r="Y63" s="140"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" ht="16">
+    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="127"/>
       <c r="C64" s="167" t="s">
         <v>122</v>
@@ -7970,7 +7765,7 @@
       <c r="X64" s="140"/>
       <c r="Y64" s="140"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" ht="16">
+    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="127"/>
       <c r="C65" s="126"/>
       <c r="D65" s="140"/>
@@ -7996,7 +7791,7 @@
       <c r="X65" s="140"/>
       <c r="Y65" s="140"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" ht="16">
+    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="127"/>
       <c r="C66" s="140"/>
       <c r="D66">
@@ -8024,7 +7819,7 @@
       <c r="X66" s="140"/>
       <c r="Y66" s="140"/>
     </row>
-    <row r="67" spans="2:25" customFormat="1" ht="16">
+    <row r="67" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="127"/>
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
@@ -8050,7 +7845,7 @@
       <c r="X67" s="140"/>
       <c r="Y67" s="140"/>
     </row>
-    <row r="68" spans="2:25" customFormat="1" ht="16">
+    <row r="68" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="127"/>
       <c r="C68" s="140"/>
       <c r="D68" s="140"/>
@@ -8075,7 +7870,7 @@
       <c r="X68" s="140"/>
       <c r="Y68" s="140"/>
     </row>
-    <row r="69" spans="2:25" customFormat="1" ht="16">
+    <row r="69" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="127"/>
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
@@ -8100,7 +7895,7 @@
       <c r="X69" s="140"/>
       <c r="Y69" s="140"/>
     </row>
-    <row r="70" spans="2:25" customFormat="1" ht="16">
+    <row r="70" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="127"/>
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
@@ -8124,7 +7919,7 @@
       <c r="X70" s="140"/>
       <c r="Y70" s="140"/>
     </row>
-    <row r="71" spans="2:25" customFormat="1" ht="16">
+    <row r="71" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="127"/>
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
@@ -8149,7 +7944,7 @@
       <c r="X71" s="140"/>
       <c r="Y71" s="140"/>
     </row>
-    <row r="72" spans="2:25" customFormat="1" ht="16">
+    <row r="72" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="127"/>
       <c r="C72" s="140"/>
       <c r="D72" s="140"/>
@@ -8175,7 +7970,7 @@
       <c r="X72" s="140"/>
       <c r="Y72" s="140"/>
     </row>
-    <row r="73" spans="2:25" customFormat="1" ht="16">
+    <row r="73" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="127"/>
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
@@ -8201,7 +7996,7 @@
       <c r="X73" s="140"/>
       <c r="Y73" s="140"/>
     </row>
-    <row r="74" spans="2:25" customFormat="1" ht="16">
+    <row r="74" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="127"/>
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
@@ -8227,7 +8022,7 @@
       <c r="X74" s="140"/>
       <c r="Y74" s="140"/>
     </row>
-    <row r="75" spans="2:25" customFormat="1" ht="16">
+    <row r="75" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="127"/>
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
@@ -8253,7 +8048,7 @@
       <c r="X75" s="140"/>
       <c r="Y75" s="140"/>
     </row>
-    <row r="76" spans="2:25" customFormat="1" ht="16">
+    <row r="76" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="127"/>
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
@@ -8281,7 +8076,7 @@
       <c r="X76" s="140"/>
       <c r="Y76" s="140"/>
     </row>
-    <row r="77" spans="2:25" customFormat="1" ht="16">
+    <row r="77" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="127"/>
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
@@ -8307,7 +8102,7 @@
       <c r="X77" s="140"/>
       <c r="Y77" s="140"/>
     </row>
-    <row r="78" spans="2:25" customFormat="1" ht="16">
+    <row r="78" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="127"/>
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
@@ -8333,7 +8128,7 @@
       <c r="X78" s="140"/>
       <c r="Y78" s="140"/>
     </row>
-    <row r="79" spans="2:25" customFormat="1" ht="16">
+    <row r="79" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="127"/>
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
@@ -8359,7 +8154,7 @@
       <c r="X79" s="140"/>
       <c r="Y79" s="140"/>
     </row>
-    <row r="80" spans="2:25" customFormat="1" ht="16">
+    <row r="80" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="127"/>
       <c r="C80" s="140"/>
       <c r="D80" s="140"/>
@@ -8385,7 +8180,7 @@
       <c r="X80" s="140"/>
       <c r="Y80" s="140"/>
     </row>
-    <row r="81" spans="2:25" customFormat="1" ht="16">
+    <row r="81" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="127"/>
       <c r="C81" s="140"/>
       <c r="D81" s="140"/>
@@ -8411,7 +8206,7 @@
       <c r="X81" s="140"/>
       <c r="Y81" s="140"/>
     </row>
-    <row r="82" spans="2:25" customFormat="1" ht="16">
+    <row r="82" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="127"/>
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
@@ -8437,7 +8232,7 @@
       <c r="X82" s="140"/>
       <c r="Y82" s="140"/>
     </row>
-    <row r="83" spans="2:25" customFormat="1" ht="16">
+    <row r="83" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="127"/>
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
@@ -8463,7 +8258,7 @@
       <c r="X83" s="140"/>
       <c r="Y83" s="140"/>
     </row>
-    <row r="84" spans="2:25" customFormat="1" ht="16">
+    <row r="84" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="127"/>
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
@@ -8489,7 +8284,7 @@
       <c r="X84" s="140"/>
       <c r="Y84" s="140"/>
     </row>
-    <row r="85" spans="2:25" customFormat="1" ht="16">
+    <row r="85" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="127"/>
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
@@ -8515,7 +8310,7 @@
       <c r="X85" s="140"/>
       <c r="Y85" s="140"/>
     </row>
-    <row r="86" spans="2:25" customFormat="1" ht="16">
+    <row r="86" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="127"/>
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
@@ -8541,7 +8336,7 @@
       <c r="X86" s="140"/>
       <c r="Y86" s="140"/>
     </row>
-    <row r="87" spans="2:25" customFormat="1" ht="16">
+    <row r="87" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="127"/>
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
@@ -8567,7 +8362,7 @@
       <c r="X87" s="140"/>
       <c r="Y87" s="140"/>
     </row>
-    <row r="88" spans="2:25" customFormat="1" ht="16">
+    <row r="88" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="127"/>
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
@@ -8593,283 +8388,283 @@
       <c r="X88" s="140"/>
       <c r="Y88" s="140"/>
     </row>
-    <row r="89" spans="2:25" customFormat="1" ht="16">
+    <row r="89" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="127"/>
     </row>
-    <row r="90" spans="2:25" customFormat="1" ht="16">
+    <row r="90" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="127"/>
     </row>
-    <row r="91" spans="2:25" customFormat="1" ht="16">
+    <row r="91" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="127"/>
     </row>
-    <row r="92" spans="2:25" customFormat="1" ht="16">
+    <row r="92" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="127"/>
     </row>
-    <row r="93" spans="2:25" customFormat="1" ht="16">
+    <row r="93" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="127"/>
       <c r="D93">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:25" customFormat="1" ht="16">
+    <row r="94" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="127"/>
     </row>
-    <row r="95" spans="2:25" customFormat="1" ht="16">
+    <row r="95" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="127"/>
     </row>
-    <row r="96" spans="2:25" customFormat="1" ht="16">
+    <row r="96" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="127"/>
     </row>
-    <row r="97" spans="2:2" customFormat="1" ht="16">
+    <row r="97" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="127"/>
     </row>
-    <row r="98" spans="2:2" customFormat="1" ht="16">
+    <row r="98" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="127"/>
     </row>
-    <row r="99" spans="2:2" customFormat="1" ht="16">
+    <row r="99" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="127"/>
     </row>
-    <row r="100" spans="2:2" customFormat="1" ht="16">
+    <row r="100" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="127"/>
     </row>
-    <row r="101" spans="2:2" customFormat="1" ht="16">
+    <row r="101" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="127"/>
     </row>
-    <row r="102" spans="2:2" customFormat="1" ht="16">
+    <row r="102" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="127"/>
     </row>
-    <row r="103" spans="2:2" customFormat="1" ht="16">
+    <row r="103" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="127"/>
     </row>
-    <row r="104" spans="2:2" customFormat="1" ht="16">
+    <row r="104" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="127"/>
     </row>
-    <row r="105" spans="2:2" customFormat="1" ht="16">
+    <row r="105" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="127"/>
     </row>
-    <row r="106" spans="2:2" customFormat="1" ht="16">
+    <row r="106" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="127"/>
     </row>
-    <row r="107" spans="2:2" customFormat="1" ht="16">
+    <row r="107" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="127"/>
     </row>
-    <row r="108" spans="2:2" customFormat="1" ht="16">
+    <row r="108" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="127"/>
     </row>
-    <row r="109" spans="2:2" customFormat="1" ht="16">
+    <row r="109" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="127"/>
     </row>
-    <row r="110" spans="2:2" customFormat="1" ht="16">
+    <row r="110" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="127"/>
     </row>
-    <row r="111" spans="2:2" customFormat="1" ht="16">
+    <row r="111" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="127"/>
     </row>
-    <row r="112" spans="2:2" customFormat="1" ht="16">
+    <row r="112" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="127"/>
     </row>
-    <row r="113" spans="2:4" customFormat="1" ht="16">
+    <row r="113" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="127"/>
     </row>
-    <row r="114" spans="2:4" customFormat="1" ht="16">
+    <row r="114" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="127"/>
     </row>
-    <row r="115" spans="2:4" customFormat="1" ht="16">
+    <row r="115" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="127"/>
     </row>
-    <row r="116" spans="2:4" customFormat="1" ht="16">
+    <row r="116" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="127"/>
       <c r="D116">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="2:4" customFormat="1" ht="16">
+    <row r="117" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="127"/>
     </row>
-    <row r="118" spans="2:4" customFormat="1" ht="16">
+    <row r="118" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="127"/>
     </row>
-    <row r="119" spans="2:4" customFormat="1" ht="16">
+    <row r="119" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="127"/>
     </row>
-    <row r="120" spans="2:4" customFormat="1" ht="16">
+    <row r="120" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="127"/>
     </row>
-    <row r="121" spans="2:4" customFormat="1" ht="16">
+    <row r="121" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="127"/>
     </row>
-    <row r="122" spans="2:4" customFormat="1" ht="16">
+    <row r="122" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="127"/>
     </row>
-    <row r="123" spans="2:4" customFormat="1" ht="16">
+    <row r="123" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="127"/>
     </row>
-    <row r="124" spans="2:4" customFormat="1" ht="16">
+    <row r="124" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="127"/>
     </row>
-    <row r="125" spans="2:4" customFormat="1" ht="16">
+    <row r="125" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="127"/>
     </row>
-    <row r="126" spans="2:4" customFormat="1" ht="16">
+    <row r="126" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="127"/>
     </row>
-    <row r="127" spans="2:4" customFormat="1" ht="16">
+    <row r="127" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="127"/>
     </row>
-    <row r="128" spans="2:4" customFormat="1" ht="16">
+    <row r="128" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="127"/>
     </row>
-    <row r="129" spans="2:4" customFormat="1" ht="16">
+    <row r="129" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="127"/>
     </row>
-    <row r="130" spans="2:4" customFormat="1" ht="16">
+    <row r="130" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="127"/>
     </row>
-    <row r="131" spans="2:4" customFormat="1" ht="16">
+    <row r="131" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="127"/>
     </row>
-    <row r="132" spans="2:4" customFormat="1" ht="16">
+    <row r="132" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="127"/>
     </row>
-    <row r="133" spans="2:4" customFormat="1" ht="16">
+    <row r="133" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="127"/>
     </row>
-    <row r="134" spans="2:4" customFormat="1" ht="16">
+    <row r="134" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="127"/>
     </row>
-    <row r="135" spans="2:4" customFormat="1" ht="16">
+    <row r="135" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="127"/>
     </row>
-    <row r="136" spans="2:4" customFormat="1" ht="16">
+    <row r="136" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="127"/>
     </row>
-    <row r="137" spans="2:4" customFormat="1" ht="16">
+    <row r="137" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="127"/>
     </row>
-    <row r="138" spans="2:4" customFormat="1" ht="16">
+    <row r="138" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="127"/>
     </row>
-    <row r="139" spans="2:4" customFormat="1" ht="16">
+    <row r="139" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="127"/>
     </row>
-    <row r="140" spans="2:4" customFormat="1" ht="16">
+    <row r="140" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="127"/>
       <c r="D140">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="2:4" customFormat="1" ht="16">
+    <row r="141" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="127"/>
     </row>
-    <row r="142" spans="2:4" customFormat="1" ht="16">
+    <row r="142" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="127"/>
     </row>
-    <row r="143" spans="2:4" customFormat="1" ht="16">
+    <row r="143" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="127"/>
     </row>
-    <row r="144" spans="2:4" customFormat="1" ht="16">
+    <row r="144" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="127"/>
     </row>
-    <row r="145" spans="2:2" customFormat="1" ht="16">
+    <row r="145" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="127"/>
     </row>
-    <row r="146" spans="2:2" customFormat="1" ht="16">
+    <row r="146" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="127"/>
     </row>
-    <row r="147" spans="2:2" customFormat="1" ht="16">
+    <row r="147" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="127"/>
     </row>
-    <row r="148" spans="2:2" customFormat="1" ht="16">
+    <row r="148" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="127"/>
     </row>
-    <row r="149" spans="2:2" customFormat="1" ht="16">
+    <row r="149" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="127"/>
     </row>
-    <row r="150" spans="2:2" customFormat="1" ht="16">
+    <row r="150" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="127"/>
     </row>
-    <row r="151" spans="2:2" customFormat="1" ht="16">
+    <row r="151" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="127"/>
     </row>
-    <row r="152" spans="2:2" customFormat="1" ht="16">
+    <row r="152" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="127"/>
     </row>
-    <row r="153" spans="2:2" customFormat="1" ht="16">
+    <row r="153" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="127"/>
     </row>
-    <row r="154" spans="2:2" customFormat="1" ht="16">
+    <row r="154" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="127"/>
     </row>
-    <row r="155" spans="2:2" customFormat="1" ht="16">
+    <row r="155" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="127"/>
     </row>
-    <row r="156" spans="2:2" customFormat="1" ht="16">
+    <row r="156" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="127"/>
     </row>
-    <row r="157" spans="2:2" customFormat="1" ht="16">
+    <row r="157" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="127"/>
     </row>
-    <row r="158" spans="2:2" customFormat="1" ht="16">
+    <row r="158" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="127"/>
     </row>
-    <row r="159" spans="2:2" customFormat="1" ht="16">
+    <row r="159" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="127"/>
     </row>
-    <row r="160" spans="2:2" customFormat="1" ht="16">
+    <row r="160" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="127"/>
     </row>
-    <row r="161" spans="2:4" customFormat="1" ht="16">
+    <row r="161" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="127"/>
     </row>
-    <row r="162" spans="2:4" customFormat="1" ht="16">
+    <row r="162" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="127"/>
     </row>
-    <row r="163" spans="2:4" customFormat="1" ht="16">
+    <row r="163" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="127"/>
     </row>
-    <row r="164" spans="2:4" customFormat="1" ht="16">
+    <row r="164" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="127"/>
     </row>
-    <row r="165" spans="2:4" customFormat="1" ht="16">
+    <row r="165" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="127"/>
     </row>
-    <row r="166" spans="2:4" customFormat="1" ht="16">
+    <row r="166" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="127"/>
       <c r="D166">
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="2:4" customFormat="1" ht="16">
+    <row r="167" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="127"/>
     </row>
-    <row r="168" spans="2:4" customFormat="1" ht="16">
+    <row r="168" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="127"/>
     </row>
-    <row r="169" spans="2:4" customFormat="1" ht="16">
+    <row r="169" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="127"/>
     </row>
-    <row r="170" spans="2:4" customFormat="1" ht="16">
+    <row r="170" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="127"/>
     </row>
-    <row r="171" spans="2:4" customFormat="1" ht="16">
+    <row r="171" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="127"/>
     </row>
-    <row r="172" spans="2:4" customFormat="1" ht="16">
+    <row r="172" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="127"/>
     </row>
-    <row r="173" spans="2:4" customFormat="1" ht="16">
+    <row r="173" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="127"/>
     </row>
-    <row r="174" spans="2:4" customFormat="1" ht="16">
+    <row r="174" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="127"/>
     </row>
-    <row r="175" spans="2:4" customFormat="1" ht="16">
+    <row r="175" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="127"/>
     </row>
-    <row r="176" spans="2:4" customFormat="1" ht="16">
+    <row r="176" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="127"/>
     </row>
-    <row r="177" spans="2:7" customFormat="1" ht="16">
+    <row r="177" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="127"/>
       <c r="F177">
         <v>105</v>
@@ -8878,7 +8673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="2:7" customFormat="1" ht="16">
+    <row r="178" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="127"/>
       <c r="F178">
         <f>F177*1000</f>
@@ -8888,7 +8683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="2:7" customFormat="1" ht="16">
+    <row r="179" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="127"/>
       <c r="F179">
         <f>F178*100</f>
@@ -8898,70 +8693,70 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="2:7" customFormat="1" ht="16">
+    <row r="180" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="127"/>
     </row>
-    <row r="181" spans="2:7" customFormat="1" ht="16">
+    <row r="181" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="127"/>
     </row>
-    <row r="182" spans="2:7" customFormat="1" ht="16">
+    <row r="182" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="127"/>
     </row>
-    <row r="183" spans="2:7" customFormat="1" ht="16">
+    <row r="183" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="127"/>
     </row>
-    <row r="184" spans="2:7" customFormat="1" ht="16">
+    <row r="184" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="127"/>
     </row>
-    <row r="185" spans="2:7" customFormat="1" ht="16">
+    <row r="185" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="127"/>
     </row>
-    <row r="186" spans="2:7" customFormat="1" ht="16">
+    <row r="186" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="127"/>
     </row>
-    <row r="187" spans="2:7" customFormat="1" ht="16">
+    <row r="187" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="127"/>
     </row>
-    <row r="188" spans="2:7" customFormat="1" ht="16">
+    <row r="188" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="127"/>
     </row>
-    <row r="189" spans="2:7" customFormat="1" ht="16">
+    <row r="189" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="127"/>
     </row>
-    <row r="190" spans="2:7" customFormat="1" ht="16">
+    <row r="190" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="127"/>
     </row>
-    <row r="191" spans="2:7" customFormat="1" ht="16">
+    <row r="191" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="127"/>
     </row>
-    <row r="192" spans="2:7" customFormat="1" ht="16">
+    <row r="192" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="127"/>
     </row>
-    <row r="193" spans="2:25" customFormat="1" ht="16">
+    <row r="193" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="127"/>
     </row>
-    <row r="194" spans="2:25" customFormat="1" ht="16">
+    <row r="194" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="127"/>
     </row>
-    <row r="195" spans="2:25" customFormat="1" ht="16">
+    <row r="195" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="127"/>
     </row>
-    <row r="196" spans="2:25" customFormat="1" ht="16">
+    <row r="196" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="127"/>
     </row>
-    <row r="197" spans="2:25" customFormat="1" ht="16">
+    <row r="197" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="127"/>
     </row>
-    <row r="198" spans="2:25" customFormat="1" ht="16">
+    <row r="198" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="127"/>
     </row>
-    <row r="199" spans="2:25" customFormat="1" ht="16">
+    <row r="199" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="127"/>
     </row>
-    <row r="200" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="200" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B200" s="127"/>
     </row>
-    <row r="201" spans="2:25" s="26" customFormat="1">
+    <row r="201" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="130"/>
       <c r="C201" s="130" t="s">
         <v>25</v>
@@ -8989,7 +8784,7 @@
       <c r="T201" s="130"/>
       <c r="U201" s="130"/>
     </row>
-    <row r="202" spans="2:25" customFormat="1" ht="16">
+    <row r="202" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="127"/>
       <c r="C202" s="140" t="s">
         <v>73</v>
@@ -9017,7 +8812,7 @@
       <c r="X202" s="140"/>
       <c r="Y202" s="140"/>
     </row>
-    <row r="203" spans="2:25" customFormat="1" ht="16">
+    <row r="203" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="127"/>
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
@@ -9043,7 +8838,7 @@
       <c r="X203" s="140"/>
       <c r="Y203" s="140"/>
     </row>
-    <row r="204" spans="2:25" customFormat="1" ht="16">
+    <row r="204" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="127"/>
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
@@ -9071,7 +8866,7 @@
       <c r="X204" s="140"/>
       <c r="Y204" s="140"/>
     </row>
-    <row r="205" spans="2:25" customFormat="1" ht="16">
+    <row r="205" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="127"/>
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
@@ -9097,7 +8892,7 @@
       <c r="X205" s="140"/>
       <c r="Y205" s="140"/>
     </row>
-    <row r="206" spans="2:25" customFormat="1" ht="16">
+    <row r="206" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="127"/>
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
@@ -9123,7 +8918,7 @@
       <c r="X206" s="140"/>
       <c r="Y206" s="140"/>
     </row>
-    <row r="207" spans="2:25" customFormat="1" ht="16">
+    <row r="207" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="127"/>
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
@@ -9149,7 +8944,7 @@
       <c r="X207" s="140"/>
       <c r="Y207" s="140"/>
     </row>
-    <row r="208" spans="2:25" customFormat="1" ht="16">
+    <row r="208" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="127"/>
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
@@ -9175,7 +8970,7 @@
       <c r="X208" s="140"/>
       <c r="Y208" s="140"/>
     </row>
-    <row r="209" spans="2:25" customFormat="1" ht="16">
+    <row r="209" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="127"/>
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
@@ -9201,7 +8996,7 @@
       <c r="X209" s="140"/>
       <c r="Y209" s="140"/>
     </row>
-    <row r="210" spans="2:25" customFormat="1" ht="16">
+    <row r="210" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="127"/>
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
@@ -9227,7 +9022,7 @@
       <c r="X210" s="140"/>
       <c r="Y210" s="140"/>
     </row>
-    <row r="211" spans="2:25" customFormat="1" ht="16">
+    <row r="211" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="127"/>
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
@@ -9253,7 +9048,7 @@
       <c r="X211" s="140"/>
       <c r="Y211" s="140"/>
     </row>
-    <row r="212" spans="2:25" customFormat="1" ht="16">
+    <row r="212" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="127"/>
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
@@ -9279,7 +9074,7 @@
       <c r="X212" s="140"/>
       <c r="Y212" s="140"/>
     </row>
-    <row r="213" spans="2:25" customFormat="1" ht="16">
+    <row r="213" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="127"/>
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
@@ -9305,7 +9100,7 @@
       <c r="X213" s="140"/>
       <c r="Y213" s="140"/>
     </row>
-    <row r="214" spans="2:25" customFormat="1" ht="16">
+    <row r="214" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="127"/>
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
@@ -9331,7 +9126,7 @@
       <c r="X214" s="140"/>
       <c r="Y214" s="140"/>
     </row>
-    <row r="215" spans="2:25" customFormat="1" ht="16">
+    <row r="215" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="127"/>
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
@@ -9357,7 +9152,7 @@
       <c r="X215" s="140"/>
       <c r="Y215" s="140"/>
     </row>
-    <row r="216" spans="2:25" customFormat="1" ht="16">
+    <row r="216" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="127"/>
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
@@ -9383,7 +9178,7 @@
       <c r="X216" s="140"/>
       <c r="Y216" s="140"/>
     </row>
-    <row r="217" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="217" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B217" s="127"/>
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
@@ -9409,7 +9204,7 @@
       <c r="X217" s="140"/>
       <c r="Y217" s="140"/>
     </row>
-    <row r="218" spans="2:25" customFormat="1" ht="16">
+    <row r="218" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="127"/>
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
@@ -9439,7 +9234,7 @@
       <c r="X218" s="140"/>
       <c r="Y218" s="140"/>
     </row>
-    <row r="219" spans="2:25" customFormat="1" ht="16">
+    <row r="219" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="127"/>
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
@@ -9469,7 +9264,7 @@
       <c r="X219" s="140"/>
       <c r="Y219" s="140"/>
     </row>
-    <row r="220" spans="2:25" customFormat="1" ht="16">
+    <row r="220" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="127"/>
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
@@ -9499,7 +9294,7 @@
       <c r="X220" s="140"/>
       <c r="Y220" s="140"/>
     </row>
-    <row r="221" spans="2:25" customFormat="1" ht="16">
+    <row r="221" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="127"/>
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
@@ -9529,7 +9324,7 @@
       <c r="X221" s="140"/>
       <c r="Y221" s="140"/>
     </row>
-    <row r="222" spans="2:25" customFormat="1" ht="16">
+    <row r="222" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="127"/>
       <c r="C222" s="140"/>
       <c r="D222" s="140"/>
@@ -9559,7 +9354,7 @@
       <c r="X222" s="140"/>
       <c r="Y222" s="140"/>
     </row>
-    <row r="223" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="223" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B223" s="127"/>
       <c r="C223" s="140"/>
       <c r="D223" s="140"/>
@@ -9589,7 +9384,7 @@
       <c r="X223" s="140"/>
       <c r="Y223" s="140"/>
     </row>
-    <row r="224" spans="2:25" customFormat="1" ht="16">
+    <row r="224" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="127"/>
       <c r="C224" s="140"/>
       <c r="D224" s="140"/>
@@ -9615,7 +9410,7 @@
       <c r="X224" s="140"/>
       <c r="Y224" s="140"/>
     </row>
-    <row r="225" spans="2:25" customFormat="1" ht="16">
+    <row r="225" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="127"/>
       <c r="C225" s="140"/>
       <c r="D225" s="140"/>
@@ -9641,7 +9436,7 @@
       <c r="X225" s="140"/>
       <c r="Y225" s="140"/>
     </row>
-    <row r="226" spans="2:25" customFormat="1" ht="16">
+    <row r="226" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="127"/>
       <c r="C226" s="140"/>
       <c r="D226" s="140"/>
@@ -9667,7 +9462,7 @@
       <c r="X226" s="140"/>
       <c r="Y226" s="140"/>
     </row>
-    <row r="227" spans="2:25" customFormat="1" ht="16">
+    <row r="227" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="127"/>
       <c r="C227" s="140"/>
       <c r="D227" s="140"/>
@@ -9693,7 +9488,7 @@
       <c r="X227" s="140"/>
       <c r="Y227" s="140"/>
     </row>
-    <row r="228" spans="2:25" customFormat="1" ht="16">
+    <row r="228" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="127"/>
       <c r="C228" s="140"/>
       <c r="D228" s="140"/>
@@ -9719,7 +9514,7 @@
       <c r="X228" s="140"/>
       <c r="Y228" s="140"/>
     </row>
-    <row r="229" spans="2:25" customFormat="1" ht="16">
+    <row r="229" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="127"/>
       <c r="C229" s="140"/>
       <c r="D229" s="140"/>
@@ -9745,7 +9540,7 @@
       <c r="X229" s="140"/>
       <c r="Y229" s="140"/>
     </row>
-    <row r="230" spans="2:25" customFormat="1" ht="16">
+    <row r="230" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="127"/>
       <c r="C230" s="140"/>
       <c r="D230" s="140"/>
@@ -9771,7 +9566,7 @@
       <c r="X230" s="140"/>
       <c r="Y230" s="140"/>
     </row>
-    <row r="231" spans="2:25" customFormat="1" ht="16">
+    <row r="231" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="127"/>
       <c r="C231" s="140"/>
       <c r="D231" s="140"/>
@@ -9797,7 +9592,7 @@
       <c r="X231" s="140"/>
       <c r="Y231" s="140"/>
     </row>
-    <row r="232" spans="2:25" customFormat="1" ht="16">
+    <row r="232" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="127"/>
       <c r="C232" s="140"/>
       <c r="D232" s="140"/>
@@ -9823,7 +9618,7 @@
       <c r="X232" s="140"/>
       <c r="Y232" s="140"/>
     </row>
-    <row r="233" spans="2:25" customFormat="1" ht="16">
+    <row r="233" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="127"/>
       <c r="C233" s="140"/>
       <c r="D233" s="140"/>
@@ -9849,7 +9644,7 @@
       <c r="X233" s="140"/>
       <c r="Y233" s="140"/>
     </row>
-    <row r="234" spans="2:25" customFormat="1" ht="16">
+    <row r="234" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="127"/>
       <c r="C234" s="140"/>
       <c r="D234" s="140"/>
@@ -9875,7 +9670,7 @@
       <c r="X234" s="140"/>
       <c r="Y234" s="140"/>
     </row>
-    <row r="235" spans="2:25" customFormat="1" ht="16">
+    <row r="235" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="127"/>
       <c r="C235" s="140"/>
       <c r="D235" s="140"/>
@@ -9901,7 +9696,7 @@
       <c r="X235" s="140"/>
       <c r="Y235" s="140"/>
     </row>
-    <row r="236" spans="2:25" customFormat="1" ht="16">
+    <row r="236" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="127"/>
       <c r="C236" s="140"/>
       <c r="D236" s="140"/>
@@ -9927,7 +9722,7 @@
       <c r="X236" s="140"/>
       <c r="Y236" s="140"/>
     </row>
-    <row r="237" spans="2:25" customFormat="1" ht="16">
+    <row r="237" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="127"/>
       <c r="C237" s="140"/>
       <c r="D237" s="140"/>
@@ -9953,7 +9748,7 @@
       <c r="X237" s="140"/>
       <c r="Y237" s="140"/>
     </row>
-    <row r="238" spans="2:25" customFormat="1" ht="16">
+    <row r="238" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="127"/>
       <c r="C238" s="140"/>
       <c r="D238" s="140"/>
@@ -9979,7 +9774,7 @@
       <c r="X238" s="140"/>
       <c r="Y238" s="140"/>
     </row>
-    <row r="239" spans="2:25" customFormat="1" ht="16">
+    <row r="239" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="127"/>
       <c r="C239" s="140"/>
       <c r="D239" s="140"/>
@@ -10005,7 +9800,7 @@
       <c r="X239" s="140"/>
       <c r="Y239" s="140"/>
     </row>
-    <row r="240" spans="2:25" customFormat="1" ht="16">
+    <row r="240" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="127"/>
       <c r="C240" s="140"/>
       <c r="D240" s="140"/>
@@ -10031,7 +9826,7 @@
       <c r="X240" s="140"/>
       <c r="Y240" s="140"/>
     </row>
-    <row r="241" spans="2:25" customFormat="1" ht="16">
+    <row r="241" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="127"/>
       <c r="C241" s="140"/>
       <c r="D241" s="140"/>
@@ -10057,7 +9852,7 @@
       <c r="X241" s="140"/>
       <c r="Y241" s="140"/>
     </row>
-    <row r="242" spans="2:25" customFormat="1" ht="16">
+    <row r="242" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="127"/>
       <c r="C242" s="140"/>
       <c r="D242" s="140"/>
@@ -10085,7 +9880,7 @@
       <c r="X242" s="140"/>
       <c r="Y242" s="140"/>
     </row>
-    <row r="243" spans="2:25" customFormat="1" ht="16">
+    <row r="243" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="127"/>
       <c r="C243" s="140"/>
       <c r="D243" s="140"/>
@@ -10111,7 +9906,7 @@
       <c r="X243" s="140"/>
       <c r="Y243" s="140"/>
     </row>
-    <row r="244" spans="2:25" customFormat="1" ht="16">
+    <row r="244" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="127"/>
       <c r="C244" s="140"/>
       <c r="D244" s="140"/>
@@ -10137,7 +9932,7 @@
       <c r="X244" s="140"/>
       <c r="Y244" s="140"/>
     </row>
-    <row r="245" spans="2:25" customFormat="1" ht="16">
+    <row r="245" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="127"/>
       <c r="C245" s="140"/>
       <c r="D245" s="140"/>
@@ -10163,7 +9958,7 @@
       <c r="X245" s="140"/>
       <c r="Y245" s="140"/>
     </row>
-    <row r="246" spans="2:25" customFormat="1" ht="16">
+    <row r="246" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="127"/>
       <c r="C246" s="140"/>
       <c r="D246" s="140"/>
@@ -10189,7 +9984,7 @@
       <c r="X246" s="140"/>
       <c r="Y246" s="140"/>
     </row>
-    <row r="247" spans="2:25" customFormat="1" ht="16">
+    <row r="247" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="127"/>
       <c r="C247" s="140"/>
       <c r="D247" s="140"/>
@@ -10219,7 +10014,7 @@
       <c r="X247" s="140"/>
       <c r="Y247" s="140"/>
     </row>
-    <row r="248" spans="2:25" customFormat="1" ht="16">
+    <row r="248" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="127"/>
       <c r="C248" s="140"/>
       <c r="D248" s="140"/>
@@ -10249,7 +10044,7 @@
       <c r="X248" s="140"/>
       <c r="Y248" s="140"/>
     </row>
-    <row r="249" spans="2:25" customFormat="1" ht="16">
+    <row r="249" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="127"/>
       <c r="C249" s="140"/>
       <c r="D249" s="140"/>
@@ -10275,7 +10070,7 @@
       <c r="X249" s="140"/>
       <c r="Y249" s="140"/>
     </row>
-    <row r="250" spans="2:25" customFormat="1" ht="16">
+    <row r="250" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="127"/>
       <c r="C250" s="140"/>
       <c r="D250" s="140"/>
@@ -10303,7 +10098,7 @@
       <c r="X250" s="140"/>
       <c r="Y250" s="140"/>
     </row>
-    <row r="251" spans="2:25" customFormat="1" ht="16">
+    <row r="251" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="127"/>
       <c r="C251" s="140"/>
       <c r="D251" s="140"/>
@@ -10329,7 +10124,7 @@
       <c r="X251" s="140"/>
       <c r="Y251" s="140"/>
     </row>
-    <row r="252" spans="2:25" customFormat="1" ht="16">
+    <row r="252" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="127"/>
       <c r="C252" s="140"/>
       <c r="D252" s="140"/>
@@ -10355,7 +10150,7 @@
       <c r="X252" s="140"/>
       <c r="Y252" s="140"/>
     </row>
-    <row r="253" spans="2:25" customFormat="1" ht="16">
+    <row r="253" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="127"/>
       <c r="C253" s="140"/>
       <c r="D253" s="140"/>
@@ -10381,7 +10176,7 @@
       <c r="X253" s="140"/>
       <c r="Y253" s="140"/>
     </row>
-    <row r="254" spans="2:25" customFormat="1" ht="16">
+    <row r="254" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="127"/>
       <c r="C254" s="140"/>
       <c r="D254" s="140"/>
@@ -10407,7 +10202,7 @@
       <c r="X254" s="140"/>
       <c r="Y254" s="140"/>
     </row>
-    <row r="255" spans="2:25" customFormat="1" ht="16">
+    <row r="255" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="127"/>
       <c r="C255" s="140"/>
       <c r="D255" s="140"/>
@@ -10433,7 +10228,7 @@
       <c r="X255" s="140"/>
       <c r="Y255" s="140"/>
     </row>
-    <row r="256" spans="2:25" customFormat="1" ht="16">
+    <row r="256" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="127"/>
       <c r="C256" s="140"/>
       <c r="D256" s="140"/>
@@ -10459,7 +10254,7 @@
       <c r="X256" s="140"/>
       <c r="Y256" s="140"/>
     </row>
-    <row r="257" spans="2:25" customFormat="1" ht="16">
+    <row r="257" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="127"/>
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
@@ -10485,7 +10280,7 @@
       <c r="X257" s="140"/>
       <c r="Y257" s="140"/>
     </row>
-    <row r="258" spans="2:25" customFormat="1" ht="16">
+    <row r="258" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="127"/>
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
@@ -10511,7 +10306,7 @@
       <c r="X258" s="140"/>
       <c r="Y258" s="140"/>
     </row>
-    <row r="259" spans="2:25" customFormat="1" ht="16">
+    <row r="259" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="127"/>
       <c r="C259" s="140"/>
       <c r="D259" s="140"/>
@@ -10537,7 +10332,7 @@
       <c r="X259" s="140"/>
       <c r="Y259" s="140"/>
     </row>
-    <row r="260" spans="2:25" customFormat="1" ht="16">
+    <row r="260" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="127"/>
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
@@ -10563,7 +10358,7 @@
       <c r="X260" s="140"/>
       <c r="Y260" s="140"/>
     </row>
-    <row r="261" spans="2:25" customFormat="1" ht="16">
+    <row r="261" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="127"/>
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
@@ -10589,7 +10384,7 @@
       <c r="X261" s="140"/>
       <c r="Y261" s="140"/>
     </row>
-    <row r="262" spans="2:25" customFormat="1" ht="16">
+    <row r="262" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="127"/>
       <c r="C262" s="140"/>
       <c r="D262" s="140"/>
@@ -10615,7 +10410,7 @@
       <c r="X262" s="140"/>
       <c r="Y262" s="140"/>
     </row>
-    <row r="263" spans="2:25" customFormat="1" ht="16">
+    <row r="263" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="127"/>
       <c r="C263" s="140"/>
       <c r="D263" s="140"/>
@@ -10641,7 +10436,7 @@
       <c r="X263" s="140"/>
       <c r="Y263" s="140"/>
     </row>
-    <row r="264" spans="2:25" customFormat="1" ht="16">
+    <row r="264" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="127"/>
       <c r="C264" s="140"/>
       <c r="D264" s="140"/>
@@ -10667,7 +10462,7 @@
       <c r="X264" s="140"/>
       <c r="Y264" s="140"/>
     </row>
-    <row r="265" spans="2:25" customFormat="1" ht="16">
+    <row r="265" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="127"/>
       <c r="C265" s="140"/>
       <c r="D265" s="140"/>
@@ -10693,7 +10488,7 @@
       <c r="X265" s="140"/>
       <c r="Y265" s="140"/>
     </row>
-    <row r="266" spans="2:25" customFormat="1" ht="16">
+    <row r="266" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="127"/>
       <c r="C266" s="140"/>
       <c r="D266" s="140"/>
@@ -10719,7 +10514,7 @@
       <c r="X266" s="140"/>
       <c r="Y266" s="140"/>
     </row>
-    <row r="267" spans="2:25" customFormat="1" ht="16">
+    <row r="267" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="127"/>
       <c r="C267" s="140"/>
       <c r="D267" s="140"/>
@@ -10745,7 +10540,7 @@
       <c r="X267" s="140"/>
       <c r="Y267" s="140"/>
     </row>
-    <row r="268" spans="2:25" customFormat="1" ht="16">
+    <row r="268" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="127"/>
       <c r="C268" s="140"/>
       <c r="D268" s="140"/>
@@ -10771,7 +10566,7 @@
       <c r="X268" s="140"/>
       <c r="Y268" s="140"/>
     </row>
-    <row r="269" spans="2:25" customFormat="1" ht="16">
+    <row r="269" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="127"/>
       <c r="C269" s="140"/>
       <c r="D269" s="140"/>
@@ -10797,7 +10592,7 @@
       <c r="X269" s="140"/>
       <c r="Y269" s="140"/>
     </row>
-    <row r="270" spans="2:25" customFormat="1" ht="16">
+    <row r="270" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="127"/>
       <c r="C270" s="140"/>
       <c r="D270" s="140"/>
@@ -10825,7 +10620,7 @@
       <c r="X270" s="140"/>
       <c r="Y270" s="140"/>
     </row>
-    <row r="271" spans="2:25" customFormat="1" ht="16">
+    <row r="271" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="127"/>
       <c r="C271" s="140"/>
       <c r="D271" s="140"/>
@@ -10851,7 +10646,7 @@
       <c r="X271" s="140"/>
       <c r="Y271" s="140"/>
     </row>
-    <row r="272" spans="2:25" customFormat="1" ht="16">
+    <row r="272" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="127"/>
       <c r="C272" s="140"/>
       <c r="D272" s="140"/>
@@ -10877,7 +10672,7 @@
       <c r="X272" s="140"/>
       <c r="Y272" s="140"/>
     </row>
-    <row r="273" spans="2:25" customFormat="1" ht="16">
+    <row r="273" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="127"/>
       <c r="C273" s="140"/>
       <c r="D273" s="140"/>
@@ -10903,7 +10698,7 @@
       <c r="X273" s="140"/>
       <c r="Y273" s="140"/>
     </row>
-    <row r="274" spans="2:25" customFormat="1" ht="16">
+    <row r="274" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="127"/>
       <c r="C274" s="140"/>
       <c r="D274" s="140"/>
@@ -10929,7 +10724,7 @@
       <c r="X274" s="140"/>
       <c r="Y274" s="140"/>
     </row>
-    <row r="275" spans="2:25" customFormat="1" ht="16">
+    <row r="275" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="127"/>
       <c r="C275" s="140"/>
       <c r="D275" s="140"/>
@@ -10955,7 +10750,7 @@
       <c r="X275" s="140"/>
       <c r="Y275" s="140"/>
     </row>
-    <row r="276" spans="2:25" customFormat="1" ht="16">
+    <row r="276" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="127"/>
       <c r="C276" s="140"/>
       <c r="D276" s="140"/>
@@ -10981,7 +10776,7 @@
       <c r="X276" s="140"/>
       <c r="Y276" s="140"/>
     </row>
-    <row r="277" spans="2:25" customFormat="1" ht="16">
+    <row r="277" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="127"/>
       <c r="C277" s="140"/>
       <c r="D277" s="140"/>
@@ -11007,7 +10802,7 @@
       <c r="X277" s="140"/>
       <c r="Y277" s="140"/>
     </row>
-    <row r="278" spans="2:25" customFormat="1" ht="16">
+    <row r="278" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="127"/>
       <c r="C278" s="140"/>
       <c r="D278" s="140"/>
@@ -11033,7 +10828,7 @@
       <c r="X278" s="140"/>
       <c r="Y278" s="140"/>
     </row>
-    <row r="279" spans="2:25" customFormat="1" ht="16">
+    <row r="279" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="127"/>
       <c r="C279" s="140"/>
       <c r="D279" s="140"/>
@@ -11059,7 +10854,7 @@
       <c r="X279" s="140"/>
       <c r="Y279" s="140"/>
     </row>
-    <row r="280" spans="2:25" customFormat="1" ht="16">
+    <row r="280" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="127"/>
       <c r="C280" s="140"/>
       <c r="D280" s="140"/>
@@ -11085,7 +10880,7 @@
       <c r="X280" s="140"/>
       <c r="Y280" s="140"/>
     </row>
-    <row r="281" spans="2:25" customFormat="1" ht="16">
+    <row r="281" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="127"/>
       <c r="C281" s="140"/>
       <c r="D281" s="140"/>
@@ -11113,7 +10908,7 @@
       <c r="X281" s="140"/>
       <c r="Y281" s="140"/>
     </row>
-    <row r="282" spans="2:25" customFormat="1" ht="16">
+    <row r="282" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="127"/>
       <c r="C282" s="140"/>
       <c r="D282" s="140"/>
@@ -11139,7 +10934,7 @@
       <c r="X282" s="140"/>
       <c r="Y282" s="140"/>
     </row>
-    <row r="283" spans="2:25" customFormat="1" ht="16">
+    <row r="283" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="127"/>
       <c r="C283" s="140"/>
       <c r="D283" s="140"/>
@@ -11165,7 +10960,7 @@
       <c r="X283" s="140"/>
       <c r="Y283" s="140"/>
     </row>
-    <row r="284" spans="2:25" customFormat="1" ht="16">
+    <row r="284" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="127"/>
       <c r="C284" s="140"/>
       <c r="D284" s="140"/>
@@ -11191,7 +10986,7 @@
       <c r="X284" s="140"/>
       <c r="Y284" s="140"/>
     </row>
-    <row r="285" spans="2:25" customFormat="1" ht="16">
+    <row r="285" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="127"/>
       <c r="C285" s="140"/>
       <c r="D285" s="140"/>
@@ -11217,7 +11012,7 @@
       <c r="X285" s="140"/>
       <c r="Y285" s="140"/>
     </row>
-    <row r="286" spans="2:25" customFormat="1" ht="16">
+    <row r="286" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="127"/>
       <c r="C286" s="140"/>
       <c r="D286" s="140"/>
@@ -11243,7 +11038,7 @@
       <c r="X286" s="140"/>
       <c r="Y286" s="140"/>
     </row>
-    <row r="287" spans="2:25" customFormat="1" ht="16">
+    <row r="287" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="127"/>
       <c r="C287" s="140"/>
       <c r="D287" s="140"/>
@@ -11269,7 +11064,7 @@
       <c r="X287" s="140"/>
       <c r="Y287" s="140"/>
     </row>
-    <row r="288" spans="2:25" customFormat="1" ht="16">
+    <row r="288" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="127"/>
       <c r="C288" s="140"/>
       <c r="D288" s="140"/>
@@ -11295,7 +11090,7 @@
       <c r="X288" s="140"/>
       <c r="Y288" s="140"/>
     </row>
-    <row r="289" spans="2:25" customFormat="1" ht="16">
+    <row r="289" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="127"/>
       <c r="C289" s="140"/>
       <c r="D289" s="140"/>
@@ -11321,7 +11116,7 @@
       <c r="X289" s="140"/>
       <c r="Y289" s="140"/>
     </row>
-    <row r="290" spans="2:25" customFormat="1" ht="16">
+    <row r="290" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="127"/>
       <c r="C290" s="140"/>
       <c r="D290" s="140"/>
@@ -11347,7 +11142,7 @@
       <c r="X290" s="140"/>
       <c r="Y290" s="140"/>
     </row>
-    <row r="291" spans="2:25" customFormat="1" ht="16">
+    <row r="291" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="127"/>
       <c r="C291" s="140"/>
       <c r="D291" s="140"/>
@@ -11373,7 +11168,7 @@
       <c r="X291" s="140"/>
       <c r="Y291" s="140"/>
     </row>
-    <row r="292" spans="2:25" customFormat="1" ht="16">
+    <row r="292" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="127"/>
       <c r="C292" s="140"/>
       <c r="D292" s="140"/>
@@ -11399,7 +11194,7 @@
       <c r="X292" s="140"/>
       <c r="Y292" s="140"/>
     </row>
-    <row r="293" spans="2:25" customFormat="1" ht="16">
+    <row r="293" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="127"/>
       <c r="C293" s="140"/>
       <c r="D293" s="140"/>
@@ -11425,7 +11220,7 @@
       <c r="X293" s="140"/>
       <c r="Y293" s="140"/>
     </row>
-    <row r="294" spans="2:25" customFormat="1" ht="16">
+    <row r="294" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="127"/>
       <c r="C294" s="140"/>
       <c r="D294" s="140"/>
@@ -11451,7 +11246,7 @@
       <c r="X294" s="140"/>
       <c r="Y294" s="140"/>
     </row>
-    <row r="295" spans="2:25" customFormat="1" ht="16">
+    <row r="295" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="127"/>
       <c r="C295" s="140"/>
       <c r="D295" s="140"/>
@@ -11477,7 +11272,7 @@
       <c r="X295" s="140"/>
       <c r="Y295" s="140"/>
     </row>
-    <row r="296" spans="2:25" customFormat="1" ht="16">
+    <row r="296" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="127"/>
       <c r="C296" s="140"/>
       <c r="D296" s="140"/>
@@ -11503,7 +11298,7 @@
       <c r="X296" s="140"/>
       <c r="Y296" s="140"/>
     </row>
-    <row r="297" spans="2:25" customFormat="1" ht="16">
+    <row r="297" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="127"/>
       <c r="C297" s="140"/>
       <c r="D297" s="140"/>
@@ -11529,7 +11324,7 @@
       <c r="X297" s="140"/>
       <c r="Y297" s="140"/>
     </row>
-    <row r="298" spans="2:25" customFormat="1" ht="16">
+    <row r="298" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="127"/>
       <c r="C298" s="140"/>
       <c r="D298" s="140"/>
@@ -11555,7 +11350,7 @@
       <c r="X298" s="140"/>
       <c r="Y298" s="140"/>
     </row>
-    <row r="299" spans="2:25" customFormat="1" ht="16">
+    <row r="299" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="127"/>
       <c r="C299" s="140"/>
       <c r="D299" s="140"/>
@@ -11581,7 +11376,7 @@
       <c r="X299" s="140"/>
       <c r="Y299" s="140"/>
     </row>
-    <row r="300" spans="2:25" customFormat="1" ht="16">
+    <row r="300" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="127"/>
       <c r="C300" s="140"/>
       <c r="D300" s="140"/>
@@ -11607,7 +11402,7 @@
       <c r="X300" s="140"/>
       <c r="Y300" s="140"/>
     </row>
-    <row r="301" spans="2:25" customFormat="1" ht="16">
+    <row r="301" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="127"/>
       <c r="C301" s="140"/>
       <c r="D301" s="140"/>
@@ -11633,7 +11428,7 @@
       <c r="X301" s="140"/>
       <c r="Y301" s="140"/>
     </row>
-    <row r="302" spans="2:25" customFormat="1" ht="16">
+    <row r="302" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="127"/>
       <c r="C302" s="140"/>
       <c r="D302" s="140"/>
@@ -11659,7 +11454,7 @@
       <c r="X302" s="140"/>
       <c r="Y302" s="140"/>
     </row>
-    <row r="303" spans="2:25" customFormat="1" ht="16">
+    <row r="303" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="127"/>
       <c r="C303" s="140"/>
       <c r="D303" s="140"/>
@@ -11685,7 +11480,7 @@
       <c r="X303" s="140"/>
       <c r="Y303" s="140"/>
     </row>
-    <row r="304" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="304" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B304" s="127"/>
       <c r="C304" s="140"/>
       <c r="D304" s="140"/>
@@ -11711,7 +11506,7 @@
       <c r="X304" s="140"/>
       <c r="Y304" s="140"/>
     </row>
-    <row r="305" spans="2:25" s="26" customFormat="1">
+    <row r="305" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="130"/>
       <c r="C305" s="130" t="s">
         <v>25</v>
@@ -11739,7 +11534,7 @@
       <c r="T305" s="130"/>
       <c r="U305" s="130"/>
     </row>
-    <row r="306" spans="2:25" customFormat="1" ht="16">
+    <row r="306" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="127"/>
       <c r="C306" s="150" t="s">
         <v>90</v>
@@ -11767,7 +11562,7 @@
       <c r="X306" s="140"/>
       <c r="Y306" s="140"/>
     </row>
-    <row r="307" spans="2:25" customFormat="1" ht="16">
+    <row r="307" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="127"/>
       <c r="C307" s="140"/>
       <c r="D307" s="140"/>
@@ -11793,7 +11588,7 @@
       <c r="X307" s="140"/>
       <c r="Y307" s="140"/>
     </row>
-    <row r="308" spans="2:25" customFormat="1" ht="16">
+    <row r="308" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="127"/>
       <c r="C308" s="140"/>
       <c r="D308" s="140"/>
@@ -11819,7 +11614,7 @@
       <c r="X308" s="140"/>
       <c r="Y308" s="140"/>
     </row>
-    <row r="309" spans="2:25" customFormat="1" ht="16">
+    <row r="309" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="127"/>
       <c r="C309" s="140"/>
       <c r="D309" s="140"/>
@@ -11845,7 +11640,7 @@
       <c r="X309" s="140"/>
       <c r="Y309" s="140"/>
     </row>
-    <row r="310" spans="2:25" customFormat="1" ht="16">
+    <row r="310" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="127"/>
       <c r="C310" s="140"/>
       <c r="D310" s="140"/>
@@ -11871,7 +11666,7 @@
       <c r="X310" s="140"/>
       <c r="Y310" s="140"/>
     </row>
-    <row r="311" spans="2:25" customFormat="1" ht="16">
+    <row r="311" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="127"/>
       <c r="C311" s="140"/>
       <c r="D311" s="140"/>
@@ -11897,7 +11692,7 @@
       <c r="X311" s="140"/>
       <c r="Y311" s="140"/>
     </row>
-    <row r="312" spans="2:25" customFormat="1" ht="16">
+    <row r="312" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="127"/>
       <c r="C312" s="140"/>
       <c r="D312" s="140"/>
@@ -11923,7 +11718,7 @@
       <c r="X312" s="140"/>
       <c r="Y312" s="140"/>
     </row>
-    <row r="313" spans="2:25" customFormat="1" ht="16">
+    <row r="313" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="127"/>
       <c r="C313" s="140"/>
       <c r="D313" s="140"/>
@@ -11949,7 +11744,7 @@
       <c r="X313" s="140"/>
       <c r="Y313" s="140"/>
     </row>
-    <row r="314" spans="2:25" customFormat="1" ht="16">
+    <row r="314" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="127"/>
       <c r="C314" s="140"/>
       <c r="D314" s="140"/>
@@ -11975,7 +11770,7 @@
       <c r="X314" s="140"/>
       <c r="Y314" s="140"/>
     </row>
-    <row r="315" spans="2:25" customFormat="1" ht="16">
+    <row r="315" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="127"/>
       <c r="C315" s="140"/>
       <c r="D315" s="140"/>
@@ -12001,7 +11796,7 @@
       <c r="X315" s="140"/>
       <c r="Y315" s="140"/>
     </row>
-    <row r="316" spans="2:25" customFormat="1" ht="16">
+    <row r="316" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="127"/>
       <c r="C316" s="140"/>
       <c r="D316" s="140"/>
@@ -12027,7 +11822,7 @@
       <c r="X316" s="140"/>
       <c r="Y316" s="140"/>
     </row>
-    <row r="317" spans="2:25" customFormat="1" ht="16">
+    <row r="317" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="127"/>
       <c r="C317" s="140"/>
       <c r="D317" s="140"/>
@@ -12053,7 +11848,7 @@
       <c r="X317" s="140"/>
       <c r="Y317" s="140"/>
     </row>
-    <row r="318" spans="2:25" customFormat="1" ht="16">
+    <row r="318" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="127"/>
       <c r="C318" s="140"/>
       <c r="D318" s="140"/>
@@ -12079,7 +11874,7 @@
       <c r="X318" s="140"/>
       <c r="Y318" s="140"/>
     </row>
-    <row r="319" spans="2:25" customFormat="1" ht="16">
+    <row r="319" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="127"/>
       <c r="C319" s="140"/>
       <c r="D319" s="140"/>
@@ -12105,7 +11900,7 @@
       <c r="X319" s="140"/>
       <c r="Y319" s="140"/>
     </row>
-    <row r="320" spans="2:25" customFormat="1" ht="16">
+    <row r="320" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="127"/>
       <c r="C320" s="140"/>
       <c r="D320" s="140"/>
@@ -12131,7 +11926,7 @@
       <c r="X320" s="140"/>
       <c r="Y320" s="140"/>
     </row>
-    <row r="321" spans="2:25" customFormat="1" ht="16">
+    <row r="321" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="127"/>
       <c r="C321" s="140"/>
       <c r="D321" s="140"/>
@@ -12157,7 +11952,7 @@
       <c r="X321" s="140"/>
       <c r="Y321" s="140"/>
     </row>
-    <row r="322" spans="2:25" customFormat="1" ht="16">
+    <row r="322" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="127"/>
       <c r="C322" s="140"/>
       <c r="D322" s="140"/>
@@ -12183,7 +11978,7 @@
       <c r="X322" s="140"/>
       <c r="Y322" s="140"/>
     </row>
-    <row r="323" spans="2:25" customFormat="1" ht="16">
+    <row r="323" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="127"/>
       <c r="C323" s="140"/>
       <c r="D323" s="140"/>
@@ -12209,7 +12004,7 @@
       <c r="X323" s="140"/>
       <c r="Y323" s="140"/>
     </row>
-    <row r="324" spans="2:25" customFormat="1" ht="16">
+    <row r="324" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="127"/>
       <c r="C324" s="140"/>
       <c r="D324" s="140"/>
@@ -12235,7 +12030,7 @@
       <c r="X324" s="140"/>
       <c r="Y324" s="140"/>
     </row>
-    <row r="325" spans="2:25" customFormat="1" ht="16">
+    <row r="325" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="127"/>
       <c r="C325" s="140"/>
       <c r="D325" s="140"/>
@@ -12261,7 +12056,7 @@
       <c r="X325" s="140"/>
       <c r="Y325" s="140"/>
     </row>
-    <row r="326" spans="2:25" customFormat="1" ht="16">
+    <row r="326" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="127"/>
       <c r="C326" s="140"/>
       <c r="D326" s="140"/>
@@ -12287,7 +12082,7 @@
       <c r="X326" s="140"/>
       <c r="Y326" s="140"/>
     </row>
-    <row r="327" spans="2:25" customFormat="1" ht="16">
+    <row r="327" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="127"/>
       <c r="C327" s="140"/>
       <c r="D327" s="140"/>
@@ -12313,7 +12108,7 @@
       <c r="X327" s="140"/>
       <c r="Y327" s="140"/>
     </row>
-    <row r="328" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="328" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B328" s="127"/>
       <c r="C328" s="140"/>
       <c r="D328" s="140"/>
@@ -12339,7 +12134,7 @@
       <c r="X328" s="140"/>
       <c r="Y328" s="140"/>
     </row>
-    <row r="329" spans="2:25" s="26" customFormat="1">
+    <row r="329" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="130"/>
       <c r="C329" s="130" t="s">
         <v>25</v>
@@ -12367,7 +12162,7 @@
       <c r="T329" s="130"/>
       <c r="U329" s="130"/>
     </row>
-    <row r="330" spans="2:25" customFormat="1" ht="16">
+    <row r="330" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="127"/>
       <c r="C330" s="140" t="s">
         <v>91</v>
@@ -12395,7 +12190,7 @@
       <c r="X330" s="140"/>
       <c r="Y330" s="140"/>
     </row>
-    <row r="331" spans="2:25" customFormat="1" ht="16">
+    <row r="331" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="127"/>
       <c r="C331" s="140"/>
       <c r="D331" s="140"/>
@@ -12421,7 +12216,7 @@
       <c r="X331" s="140"/>
       <c r="Y331" s="140"/>
     </row>
-    <row r="332" spans="2:25" customFormat="1" ht="16">
+    <row r="332" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="127"/>
       <c r="C332" s="140"/>
       <c r="D332" s="140"/>
@@ -12447,7 +12242,7 @@
       <c r="X332" s="140"/>
       <c r="Y332" s="140"/>
     </row>
-    <row r="333" spans="2:25" customFormat="1" ht="16">
+    <row r="333" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="127"/>
       <c r="C333" s="140"/>
       <c r="D333" s="140"/>
@@ -12475,7 +12270,7 @@
       <c r="X333" s="140"/>
       <c r="Y333" s="140"/>
     </row>
-    <row r="334" spans="2:25" customFormat="1" ht="16">
+    <row r="334" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="127"/>
       <c r="C334" s="140"/>
       <c r="D334" s="140"/>
@@ -12500,7 +12295,7 @@
       <c r="X334" s="140"/>
       <c r="Y334" s="140"/>
     </row>
-    <row r="335" spans="2:25" customFormat="1" ht="16">
+    <row r="335" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="127"/>
       <c r="C335" s="140"/>
       <c r="D335" s="140"/>
@@ -12525,7 +12320,7 @@
       <c r="X335" s="140"/>
       <c r="Y335" s="140"/>
     </row>
-    <row r="336" spans="2:25" customFormat="1" ht="16">
+    <row r="336" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="127"/>
       <c r="C336" s="140"/>
       <c r="D336" s="140"/>
@@ -12550,7 +12345,7 @@
       <c r="X336" s="140"/>
       <c r="Y336" s="140"/>
     </row>
-    <row r="337" spans="2:25" customFormat="1" ht="16">
+    <row r="337" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="127"/>
       <c r="C337" s="140"/>
       <c r="D337" s="140"/>
@@ -12577,7 +12372,7 @@
       <c r="X337" s="140"/>
       <c r="Y337" s="140"/>
     </row>
-    <row r="338" spans="2:25" customFormat="1" ht="16">
+    <row r="338" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="127"/>
       <c r="C338" s="140"/>
       <c r="D338" s="140"/>
@@ -12608,7 +12403,7 @@
       <c r="X338" s="140"/>
       <c r="Y338" s="140"/>
     </row>
-    <row r="339" spans="2:25" customFormat="1" ht="16">
+    <row r="339" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="127"/>
       <c r="C339" s="140"/>
       <c r="D339" s="140"/>
@@ -12637,7 +12432,7 @@
       <c r="X339" s="140"/>
       <c r="Y339" s="140"/>
     </row>
-    <row r="340" spans="2:25" customFormat="1" ht="16">
+    <row r="340" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="127"/>
       <c r="C340" s="140"/>
       <c r="D340" s="140"/>
@@ -12667,7 +12462,7 @@
       <c r="X340" s="140"/>
       <c r="Y340" s="140"/>
     </row>
-    <row r="341" spans="2:25" customFormat="1" ht="16">
+    <row r="341" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="127"/>
       <c r="C341" s="140"/>
       <c r="D341" s="140"/>
@@ -12697,7 +12492,7 @@
       <c r="X341" s="140"/>
       <c r="Y341" s="140"/>
     </row>
-    <row r="342" spans="2:25" customFormat="1" ht="16">
+    <row r="342" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="127"/>
       <c r="C342" s="140"/>
       <c r="D342" s="140"/>
@@ -12726,7 +12521,7 @@
       <c r="X342" s="140"/>
       <c r="Y342" s="140"/>
     </row>
-    <row r="343" spans="2:25" customFormat="1" ht="16">
+    <row r="343" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="127"/>
       <c r="C343" s="140"/>
       <c r="D343" s="140"/>
@@ -12756,7 +12551,7 @@
       <c r="X343" s="140"/>
       <c r="Y343" s="140"/>
     </row>
-    <row r="344" spans="2:25" customFormat="1" ht="16">
+    <row r="344" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="127"/>
       <c r="C344" s="140"/>
       <c r="D344" s="140"/>
@@ -12785,7 +12580,7 @@
       <c r="X344" s="140"/>
       <c r="Y344" s="140"/>
     </row>
-    <row r="345" spans="2:25" customFormat="1" ht="16">
+    <row r="345" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="127"/>
       <c r="C345" s="140"/>
       <c r="D345" s="140"/>
@@ -12816,7 +12611,7 @@
       <c r="X345" s="140"/>
       <c r="Y345" s="140"/>
     </row>
-    <row r="346" spans="2:25" customFormat="1" ht="16">
+    <row r="346" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="127"/>
       <c r="C346" s="140"/>
       <c r="D346" s="140"/>
@@ -12848,7 +12643,7 @@
       <c r="X346" s="140"/>
       <c r="Y346" s="140"/>
     </row>
-    <row r="347" spans="2:25" customFormat="1" ht="16">
+    <row r="347" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="127"/>
       <c r="C347" s="140"/>
       <c r="D347" s="140"/>
@@ -12880,7 +12675,7 @@
       <c r="X347" s="140"/>
       <c r="Y347" s="140"/>
     </row>
-    <row r="348" spans="2:25" customFormat="1" ht="16">
+    <row r="348" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="127"/>
       <c r="C348" s="140"/>
       <c r="D348" s="140"/>
@@ -12911,7 +12706,7 @@
       <c r="X348" s="140"/>
       <c r="Y348" s="140"/>
     </row>
-    <row r="349" spans="2:25" customFormat="1" ht="16">
+    <row r="349" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="127"/>
       <c r="C349" s="140"/>
       <c r="D349" s="140"/>
@@ -12937,7 +12732,7 @@
       <c r="X349" s="140"/>
       <c r="Y349" s="140"/>
     </row>
-    <row r="350" spans="2:25" customFormat="1" ht="16">
+    <row r="350" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="127"/>
       <c r="C350" s="140"/>
       <c r="D350" s="140"/>
@@ -12963,7 +12758,7 @@
       <c r="X350" s="140"/>
       <c r="Y350" s="140"/>
     </row>
-    <row r="351" spans="2:25" customFormat="1" ht="16">
+    <row r="351" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="127"/>
       <c r="C351" s="140"/>
       <c r="D351" s="140"/>
@@ -12989,7 +12784,7 @@
       <c r="X351" s="140"/>
       <c r="Y351" s="140"/>
     </row>
-    <row r="352" spans="2:25" customFormat="1" ht="16">
+    <row r="352" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="127"/>
       <c r="C352" s="140"/>
       <c r="D352" s="140"/>
@@ -13015,7 +12810,7 @@
       <c r="X352" s="140"/>
       <c r="Y352" s="140"/>
     </row>
-    <row r="353" spans="2:25" customFormat="1" ht="16">
+    <row r="353" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="127"/>
       <c r="C353" s="140"/>
       <c r="D353" s="140"/>
@@ -13041,7 +12836,7 @@
       <c r="X353" s="140"/>
       <c r="Y353" s="140"/>
     </row>
-    <row r="354" spans="2:25" customFormat="1" ht="16">
+    <row r="354" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="127"/>
       <c r="C354" s="140"/>
       <c r="D354" s="140"/>
@@ -13067,7 +12862,7 @@
       <c r="X354" s="140"/>
       <c r="Y354" s="140"/>
     </row>
-    <row r="355" spans="2:25" customFormat="1" ht="16">
+    <row r="355" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="127"/>
       <c r="C355" s="140"/>
       <c r="D355" s="140"/>
@@ -13093,7 +12888,7 @@
       <c r="X355" s="140"/>
       <c r="Y355" s="140"/>
     </row>
-    <row r="356" spans="2:25" customFormat="1" ht="16">
+    <row r="356" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="127"/>
       <c r="C356" s="140"/>
       <c r="D356" s="140"/>
@@ -13119,7 +12914,7 @@
       <c r="X356" s="140"/>
       <c r="Y356" s="140"/>
     </row>
-    <row r="357" spans="2:25" customFormat="1" ht="16">
+    <row r="357" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="127"/>
       <c r="C357" s="140"/>
       <c r="D357" s="140"/>
@@ -13145,7 +12940,7 @@
       <c r="X357" s="140"/>
       <c r="Y357" s="140"/>
     </row>
-    <row r="358" spans="2:25" customFormat="1" ht="16">
+    <row r="358" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="127"/>
       <c r="C358" s="140"/>
       <c r="D358" s="140"/>
@@ -13171,7 +12966,7 @@
       <c r="X358" s="140"/>
       <c r="Y358" s="140"/>
     </row>
-    <row r="359" spans="2:25" customFormat="1" ht="16">
+    <row r="359" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="127"/>
       <c r="C359" s="140"/>
       <c r="D359" s="140"/>
@@ -13197,7 +12992,7 @@
       <c r="X359" s="140"/>
       <c r="Y359" s="140"/>
     </row>
-    <row r="360" spans="2:25" customFormat="1" ht="16">
+    <row r="360" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="127"/>
       <c r="C360" s="140"/>
       <c r="D360" s="140"/>
@@ -13223,7 +13018,7 @@
       <c r="X360" s="140"/>
       <c r="Y360" s="140"/>
     </row>
-    <row r="361" spans="2:25" customFormat="1" ht="16">
+    <row r="361" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="127"/>
       <c r="C361" s="140"/>
       <c r="D361" s="140"/>
@@ -13249,7 +13044,7 @@
       <c r="X361" s="140"/>
       <c r="Y361" s="140"/>
     </row>
-    <row r="362" spans="2:25" customFormat="1" ht="16">
+    <row r="362" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="127"/>
       <c r="C362" s="140"/>
       <c r="D362" s="140"/>
@@ -13275,7 +13070,7 @@
       <c r="X362" s="140"/>
       <c r="Y362" s="140"/>
     </row>
-    <row r="363" spans="2:25" customFormat="1" ht="16">
+    <row r="363" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="127"/>
       <c r="C363" s="140"/>
       <c r="D363" s="140"/>
@@ -13301,7 +13096,7 @@
       <c r="X363" s="140"/>
       <c r="Y363" s="140"/>
     </row>
-    <row r="364" spans="2:25" customFormat="1" ht="16">
+    <row r="364" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="127"/>
       <c r="C364" s="140"/>
       <c r="D364" s="140"/>
@@ -13327,7 +13122,7 @@
       <c r="X364" s="140"/>
       <c r="Y364" s="140"/>
     </row>
-    <row r="365" spans="2:25" customFormat="1" ht="16">
+    <row r="365" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="127"/>
       <c r="C365" s="140"/>
       <c r="D365" s="140"/>
@@ -13353,7 +13148,7 @@
       <c r="X365" s="140"/>
       <c r="Y365" s="140"/>
     </row>
-    <row r="366" spans="2:25" customFormat="1" ht="16">
+    <row r="366" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="127"/>
       <c r="C366" s="140"/>
       <c r="D366" s="140"/>
@@ -13379,7 +13174,7 @@
       <c r="X366" s="140"/>
       <c r="Y366" s="140"/>
     </row>
-    <row r="367" spans="2:25" customFormat="1" ht="16">
+    <row r="367" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="127"/>
       <c r="C367" s="140"/>
       <c r="D367" s="140"/>
@@ -13405,7 +13200,7 @@
       <c r="X367" s="140"/>
       <c r="Y367" s="140"/>
     </row>
-    <row r="368" spans="2:25" customFormat="1" ht="16">
+    <row r="368" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="127"/>
       <c r="C368" s="140"/>
       <c r="D368" s="140"/>
@@ -13431,7 +13226,7 @@
       <c r="X368" s="140"/>
       <c r="Y368" s="140"/>
     </row>
-    <row r="369" spans="2:25" customFormat="1" ht="16">
+    <row r="369" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="127"/>
       <c r="C369" s="140"/>
       <c r="D369" s="140"/>
@@ -13457,7 +13252,7 @@
       <c r="X369" s="140"/>
       <c r="Y369" s="140"/>
     </row>
-    <row r="370" spans="2:25" customFormat="1" ht="16">
+    <row r="370" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="127"/>
       <c r="C370" s="140"/>
       <c r="D370" s="140"/>
@@ -13483,7 +13278,7 @@
       <c r="X370" s="140"/>
       <c r="Y370" s="140"/>
     </row>
-    <row r="371" spans="2:25" customFormat="1" ht="16">
+    <row r="371" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="127"/>
       <c r="C371" s="140"/>
       <c r="D371" s="140"/>
@@ -13509,7 +13304,7 @@
       <c r="X371" s="140"/>
       <c r="Y371" s="140"/>
     </row>
-    <row r="372" spans="2:25" customFormat="1" ht="16">
+    <row r="372" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="127"/>
       <c r="C372" s="140"/>
       <c r="D372" s="140"/>
@@ -13535,7 +13330,7 @@
       <c r="X372" s="140"/>
       <c r="Y372" s="140"/>
     </row>
-    <row r="373" spans="2:25" customFormat="1" ht="16">
+    <row r="373" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="127"/>
       <c r="C373" s="140"/>
       <c r="D373" s="140"/>
@@ -13561,7 +13356,7 @@
       <c r="X373" s="140"/>
       <c r="Y373" s="140"/>
     </row>
-    <row r="374" spans="2:25" customFormat="1" ht="16">
+    <row r="374" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="127"/>
       <c r="C374" s="140"/>
       <c r="D374" s="140"/>
@@ -13587,7 +13382,7 @@
       <c r="X374" s="140"/>
       <c r="Y374" s="140"/>
     </row>
-    <row r="375" spans="2:25" customFormat="1" ht="16">
+    <row r="375" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="127"/>
       <c r="C375" s="140"/>
       <c r="D375" s="140"/>
@@ -13613,7 +13408,7 @@
       <c r="X375" s="140"/>
       <c r="Y375" s="140"/>
     </row>
-    <row r="376" spans="2:25" customFormat="1" ht="16">
+    <row r="376" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="127"/>
       <c r="C376" s="140"/>
       <c r="D376" s="140"/>
@@ -13639,7 +13434,7 @@
       <c r="X376" s="140"/>
       <c r="Y376" s="140"/>
     </row>
-    <row r="377" spans="2:25" customFormat="1" ht="16">
+    <row r="377" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="127"/>
       <c r="C377" s="140"/>
       <c r="D377" s="140"/>
@@ -13665,7 +13460,7 @@
       <c r="X377" s="140"/>
       <c r="Y377" s="140"/>
     </row>
-    <row r="378" spans="2:25" customFormat="1" ht="16">
+    <row r="378" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="127"/>
       <c r="C378" s="140"/>
       <c r="D378" s="140"/>
@@ -13691,7 +13486,7 @@
       <c r="X378" s="140"/>
       <c r="Y378" s="140"/>
     </row>
-    <row r="379" spans="2:25" customFormat="1" ht="16">
+    <row r="379" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="127"/>
       <c r="C379" s="140"/>
       <c r="D379" s="140"/>
@@ -13717,7 +13512,7 @@
       <c r="X379" s="140"/>
       <c r="Y379" s="140"/>
     </row>
-    <row r="380" spans="2:25" customFormat="1" ht="16">
+    <row r="380" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="127"/>
       <c r="C380" s="140"/>
       <c r="D380" s="140"/>
@@ -13743,7 +13538,7 @@
       <c r="X380" s="140"/>
       <c r="Y380" s="140"/>
     </row>
-    <row r="381" spans="2:25" customFormat="1" ht="16">
+    <row r="381" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="127"/>
       <c r="C381" s="140"/>
       <c r="D381" s="140"/>
@@ -13769,7 +13564,7 @@
       <c r="X381" s="140"/>
       <c r="Y381" s="140"/>
     </row>
-    <row r="382" spans="2:25" customFormat="1" ht="16">
+    <row r="382" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="127"/>
       <c r="C382" s="140"/>
       <c r="D382" s="140"/>
@@ -13795,7 +13590,7 @@
       <c r="X382" s="140"/>
       <c r="Y382" s="140"/>
     </row>
-    <row r="383" spans="2:25" customFormat="1" ht="16">
+    <row r="383" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="127"/>
       <c r="C383" s="140"/>
       <c r="D383" s="140"/>
@@ -13821,7 +13616,7 @@
       <c r="X383" s="140"/>
       <c r="Y383" s="140"/>
     </row>
-    <row r="384" spans="2:25" customFormat="1" ht="16">
+    <row r="384" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="127"/>
       <c r="C384" s="140"/>
       <c r="D384" s="140"/>
@@ -13847,7 +13642,7 @@
       <c r="X384" s="140"/>
       <c r="Y384" s="140"/>
     </row>
-    <row r="385" spans="2:25" customFormat="1" ht="16">
+    <row r="385" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="127"/>
       <c r="C385" s="140"/>
       <c r="D385" s="140"/>
@@ -13873,7 +13668,7 @@
       <c r="X385" s="140"/>
       <c r="Y385" s="140"/>
     </row>
-    <row r="386" spans="2:25" customFormat="1" ht="16">
+    <row r="386" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="127"/>
       <c r="C386" s="140"/>
       <c r="D386" s="140"/>
@@ -13899,7 +13694,7 @@
       <c r="X386" s="140"/>
       <c r="Y386" s="140"/>
     </row>
-    <row r="387" spans="2:25" customFormat="1" ht="16">
+    <row r="387" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="127"/>
       <c r="C387" s="140"/>
       <c r="D387" s="140"/>
@@ -13925,7 +13720,7 @@
       <c r="X387" s="140"/>
       <c r="Y387" s="140"/>
     </row>
-    <row r="388" spans="2:25" customFormat="1" ht="16">
+    <row r="388" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="127"/>
       <c r="C388" s="140"/>
       <c r="D388" s="140"/>
@@ -13951,7 +13746,7 @@
       <c r="X388" s="140"/>
       <c r="Y388" s="140"/>
     </row>
-    <row r="389" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="389" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B389" s="127"/>
       <c r="C389" s="140"/>
       <c r="D389" s="140"/>
@@ -13977,7 +13772,7 @@
       <c r="X389" s="140"/>
       <c r="Y389" s="140"/>
     </row>
-    <row r="390" spans="2:25" s="26" customFormat="1">
+    <row r="390" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="130"/>
       <c r="C390" s="130" t="s">
         <v>25</v>
@@ -14005,7 +13800,7 @@
       <c r="T390" s="130"/>
       <c r="U390" s="130"/>
     </row>
-    <row r="391" spans="2:25" customFormat="1" ht="16">
+    <row r="391" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="127"/>
       <c r="C391" s="140"/>
       <c r="D391" s="140"/>
@@ -14031,7 +13826,7 @@
       <c r="X391" s="140"/>
       <c r="Y391" s="140"/>
     </row>
-    <row r="392" spans="2:25" customFormat="1" ht="16">
+    <row r="392" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="127"/>
       <c r="C392" s="150"/>
       <c r="D392" s="140"/>
@@ -14057,7 +13852,7 @@
       <c r="X392" s="140"/>
       <c r="Y392" s="140"/>
     </row>
-    <row r="393" spans="2:25" customFormat="1" ht="16">
+    <row r="393" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="127"/>
       <c r="C393" s="151" t="s">
         <v>105</v>
@@ -14085,7 +13880,7 @@
       <c r="X393" s="140"/>
       <c r="Y393" s="140"/>
     </row>
-    <row r="394" spans="2:25" customFormat="1" ht="16">
+    <row r="394" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="127"/>
       <c r="C394" s="140"/>
       <c r="D394" s="140"/>
@@ -14111,7 +13906,7 @@
       <c r="X394" s="140"/>
       <c r="Y394" s="140"/>
     </row>
-    <row r="395" spans="2:25" customFormat="1" ht="16">
+    <row r="395" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="127"/>
       <c r="C395" s="140"/>
       <c r="D395" s="140"/>
@@ -14137,7 +13932,7 @@
       <c r="X395" s="140"/>
       <c r="Y395" s="140"/>
     </row>
-    <row r="396" spans="2:25" customFormat="1" ht="16">
+    <row r="396" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="127"/>
       <c r="C396" s="140"/>
       <c r="D396" s="140"/>
@@ -14163,7 +13958,7 @@
       <c r="X396" s="140"/>
       <c r="Y396" s="140"/>
     </row>
-    <row r="397" spans="2:25" customFormat="1" ht="16">
+    <row r="397" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="127"/>
       <c r="C397" s="140"/>
       <c r="D397" s="140"/>
@@ -14191,7 +13986,7 @@
       <c r="X397" s="140"/>
       <c r="Y397" s="140"/>
     </row>
-    <row r="398" spans="2:25" customFormat="1" ht="16">
+    <row r="398" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="127"/>
       <c r="C398" s="140"/>
       <c r="D398" s="140"/>
@@ -14219,7 +14014,7 @@
       <c r="X398" s="140"/>
       <c r="Y398" s="140"/>
     </row>
-    <row r="399" spans="2:25" customFormat="1" ht="16">
+    <row r="399" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="127"/>
       <c r="C399" s="140"/>
       <c r="D399" s="140"/>
@@ -14245,7 +14040,7 @@
       <c r="X399" s="140"/>
       <c r="Y399" s="140"/>
     </row>
-    <row r="400" spans="2:25" customFormat="1" ht="16">
+    <row r="400" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="127"/>
       <c r="C400" s="140"/>
       <c r="D400" s="140"/>
@@ -14271,7 +14066,7 @@
       <c r="X400" s="140"/>
       <c r="Y400" s="140"/>
     </row>
-    <row r="401" spans="2:25" customFormat="1" ht="16">
+    <row r="401" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="127"/>
       <c r="C401" s="140"/>
       <c r="D401" s="140"/>
@@ -14297,7 +14092,7 @@
       <c r="X401" s="140"/>
       <c r="Y401" s="140"/>
     </row>
-    <row r="402" spans="2:25" customFormat="1" ht="16">
+    <row r="402" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="127"/>
       <c r="C402" s="140"/>
       <c r="D402" s="140"/>
@@ -14329,7 +14124,7 @@
       <c r="X402" s="140"/>
       <c r="Y402" s="140"/>
     </row>
-    <row r="403" spans="2:25" customFormat="1" ht="16">
+    <row r="403" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="127"/>
       <c r="C403" s="140"/>
       <c r="D403" s="140"/>
@@ -14360,7 +14155,7 @@
       <c r="X403" s="140"/>
       <c r="Y403" s="140"/>
     </row>
-    <row r="404" spans="2:25" customFormat="1" ht="16">
+    <row r="404" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="127"/>
       <c r="C404" s="140"/>
       <c r="D404" s="140"/>
@@ -14391,7 +14186,7 @@
       <c r="X404" s="140"/>
       <c r="Y404" s="140"/>
     </row>
-    <row r="405" spans="2:25" customFormat="1" ht="16">
+    <row r="405" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="127"/>
       <c r="C405" s="140"/>
       <c r="D405" s="140"/>
@@ -14424,7 +14219,7 @@
       <c r="X405" s="140"/>
       <c r="Y405" s="140"/>
     </row>
-    <row r="406" spans="2:25" customFormat="1" ht="16">
+    <row r="406" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="127"/>
       <c r="C406" s="140"/>
       <c r="D406" s="140"/>
@@ -14450,7 +14245,7 @@
       <c r="X406" s="140"/>
       <c r="Y406" s="140"/>
     </row>
-    <row r="407" spans="2:25" customFormat="1" ht="16">
+    <row r="407" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="127"/>
       <c r="C407" s="140"/>
       <c r="D407" s="140"/>
@@ -14476,7 +14271,7 @@
       <c r="X407" s="140"/>
       <c r="Y407" s="140"/>
     </row>
-    <row r="408" spans="2:25" customFormat="1" ht="16">
+    <row r="408" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="127"/>
       <c r="C408" s="140"/>
       <c r="D408" s="140"/>
@@ -14502,7 +14297,7 @@
       <c r="X408" s="140"/>
       <c r="Y408" s="140"/>
     </row>
-    <row r="409" spans="2:25" customFormat="1" ht="16">
+    <row r="409" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="127"/>
       <c r="C409" s="140"/>
       <c r="D409" s="140"/>
@@ -14528,7 +14323,7 @@
       <c r="X409" s="140"/>
       <c r="Y409" s="140"/>
     </row>
-    <row r="410" spans="2:25" customFormat="1" ht="16">
+    <row r="410" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="127"/>
       <c r="C410" s="140"/>
       <c r="D410" s="140"/>
@@ -14554,7 +14349,7 @@
       <c r="X410" s="140"/>
       <c r="Y410" s="140"/>
     </row>
-    <row r="411" spans="2:25" customFormat="1" ht="16">
+    <row r="411" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="127"/>
       <c r="C411" s="140"/>
       <c r="D411" s="140"/>
@@ -14580,7 +14375,7 @@
       <c r="X411" s="140"/>
       <c r="Y411" s="140"/>
     </row>
-    <row r="412" spans="2:25" customFormat="1" ht="16">
+    <row r="412" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="127"/>
       <c r="C412" s="140"/>
       <c r="D412" s="140"/>
@@ -14606,7 +14401,7 @@
       <c r="X412" s="140"/>
       <c r="Y412" s="140"/>
     </row>
-    <row r="413" spans="2:25" customFormat="1" ht="16">
+    <row r="413" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="127"/>
       <c r="C413" s="140"/>
       <c r="D413" s="140"/>
@@ -14632,7 +14427,7 @@
       <c r="X413" s="140"/>
       <c r="Y413" s="140"/>
     </row>
-    <row r="414" spans="2:25" customFormat="1" ht="16">
+    <row r="414" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="127"/>
       <c r="C414" s="140"/>
       <c r="D414" s="140"/>
@@ -14658,7 +14453,7 @@
       <c r="X414" s="140"/>
       <c r="Y414" s="140"/>
     </row>
-    <row r="415" spans="2:25" customFormat="1" ht="16">
+    <row r="415" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="127"/>
       <c r="C415" s="140"/>
       <c r="D415" s="140"/>
@@ -14684,7 +14479,7 @@
       <c r="X415" s="140"/>
       <c r="Y415" s="140"/>
     </row>
-    <row r="416" spans="2:25" customFormat="1" ht="16">
+    <row r="416" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="127"/>
       <c r="C416" s="140"/>
       <c r="D416" s="140"/>
@@ -14710,7 +14505,7 @@
       <c r="X416" s="140"/>
       <c r="Y416" s="140"/>
     </row>
-    <row r="417" spans="2:25" customFormat="1" ht="16">
+    <row r="417" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="127"/>
       <c r="C417" s="140"/>
       <c r="D417" s="140"/>
@@ -14736,7 +14531,7 @@
       <c r="X417" s="140"/>
       <c r="Y417" s="140"/>
     </row>
-    <row r="418" spans="2:25" customFormat="1" ht="16">
+    <row r="418" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="127"/>
       <c r="C418" s="140"/>
       <c r="D418" s="140"/>
@@ -14762,7 +14557,7 @@
       <c r="X418" s="140"/>
       <c r="Y418" s="140"/>
     </row>
-    <row r="419" spans="2:25" customFormat="1" ht="16">
+    <row r="419" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="127"/>
       <c r="C419" s="140"/>
       <c r="D419" s="140"/>
@@ -14788,7 +14583,7 @@
       <c r="X419" s="140"/>
       <c r="Y419" s="140"/>
     </row>
-    <row r="420" spans="2:25" customFormat="1" ht="16">
+    <row r="420" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="127"/>
       <c r="C420" s="140"/>
       <c r="D420" s="140"/>
@@ -14814,7 +14609,7 @@
       <c r="X420" s="140"/>
       <c r="Y420" s="140"/>
     </row>
-    <row r="421" spans="2:25" customFormat="1" ht="16">
+    <row r="421" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="127"/>
       <c r="C421" s="140"/>
       <c r="D421" s="140"/>
@@ -14840,7 +14635,7 @@
       <c r="X421" s="140"/>
       <c r="Y421" s="140"/>
     </row>
-    <row r="422" spans="2:25" customFormat="1" ht="16">
+    <row r="422" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="127"/>
       <c r="C422" s="140"/>
       <c r="D422" s="140"/>
@@ -14866,7 +14661,7 @@
       <c r="X422" s="140"/>
       <c r="Y422" s="140"/>
     </row>
-    <row r="423" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="423" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B423" s="127"/>
       <c r="C423" s="140"/>
       <c r="D423" s="140"/>
@@ -14892,7 +14687,7 @@
       <c r="X423" s="140"/>
       <c r="Y423" s="140"/>
     </row>
-    <row r="424" spans="2:25" s="26" customFormat="1">
+    <row r="424" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="130"/>
       <c r="C424" s="130" t="s">
         <v>25</v>
@@ -14920,7 +14715,7 @@
       <c r="T424" s="130"/>
       <c r="U424" s="130"/>
     </row>
-    <row r="425" spans="2:25" customFormat="1" ht="16">
+    <row r="425" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="127"/>
       <c r="C425" s="164" t="s">
         <v>114</v>
@@ -14948,7 +14743,7 @@
       <c r="X425" s="140"/>
       <c r="Y425" s="140"/>
     </row>
-    <row r="426" spans="2:25" customFormat="1" ht="16">
+    <row r="426" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="127"/>
       <c r="C426" s="140"/>
       <c r="D426" s="140">
@@ -14976,7 +14771,7 @@
       <c r="X426" s="140"/>
       <c r="Y426" s="140"/>
     </row>
-    <row r="427" spans="2:25" customFormat="1" ht="16">
+    <row r="427" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="127"/>
       <c r="C427" s="140"/>
       <c r="D427" s="140"/>
@@ -15002,7 +14797,7 @@
       <c r="X427" s="140"/>
       <c r="Y427" s="140"/>
     </row>
-    <row r="428" spans="2:25" customFormat="1" ht="16">
+    <row r="428" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="127"/>
       <c r="C428" s="140"/>
       <c r="D428" s="140"/>
@@ -15034,7 +14829,7 @@
       <c r="X428" s="140"/>
       <c r="Y428" s="140"/>
     </row>
-    <row r="429" spans="2:25" customFormat="1" ht="16">
+    <row r="429" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="127"/>
       <c r="C429" s="140"/>
       <c r="D429" s="140"/>
@@ -15066,7 +14861,7 @@
       <c r="X429" s="140"/>
       <c r="Y429" s="140"/>
     </row>
-    <row r="430" spans="2:25" customFormat="1" ht="16">
+    <row r="430" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="127"/>
       <c r="C430" s="140"/>
       <c r="D430" s="140"/>
@@ -15092,7 +14887,7 @@
       <c r="X430" s="140"/>
       <c r="Y430" s="140"/>
     </row>
-    <row r="431" spans="2:25" customFormat="1" ht="16">
+    <row r="431" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="127"/>
       <c r="C431" s="140"/>
       <c r="D431" s="140"/>
@@ -15118,7 +14913,7 @@
       <c r="X431" s="140"/>
       <c r="Y431" s="140"/>
     </row>
-    <row r="432" spans="2:25" customFormat="1" ht="16">
+    <row r="432" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="127"/>
       <c r="C432" s="140"/>
       <c r="D432" s="140"/>
@@ -15146,7 +14941,7 @@
       <c r="X432" s="140"/>
       <c r="Y432" s="140"/>
     </row>
-    <row r="433" spans="2:25" customFormat="1" ht="16">
+    <row r="433" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="127"/>
       <c r="C433" s="140"/>
       <c r="D433" s="140"/>
@@ -15172,7 +14967,7 @@
       <c r="X433" s="140"/>
       <c r="Y433" s="140"/>
     </row>
-    <row r="434" spans="2:25" customFormat="1" ht="16">
+    <row r="434" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="127"/>
       <c r="C434" s="140"/>
       <c r="D434" s="140"/>
@@ -15198,7 +14993,7 @@
       <c r="X434" s="140"/>
       <c r="Y434" s="140"/>
     </row>
-    <row r="435" spans="2:25" customFormat="1" ht="16">
+    <row r="435" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="127"/>
       <c r="C435" s="140"/>
       <c r="D435" s="140"/>
@@ -15224,7 +15019,7 @@
       <c r="X435" s="140"/>
       <c r="Y435" s="140"/>
     </row>
-    <row r="436" spans="2:25" customFormat="1" ht="16">
+    <row r="436" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="127"/>
       <c r="C436" s="140"/>
       <c r="D436" s="140"/>
@@ -15250,7 +15045,7 @@
       <c r="X436" s="140"/>
       <c r="Y436" s="140"/>
     </row>
-    <row r="437" spans="2:25" customFormat="1" ht="16">
+    <row r="437" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="127"/>
       <c r="C437" s="140"/>
       <c r="D437" s="140"/>
@@ -15276,7 +15071,7 @@
       <c r="X437" s="140"/>
       <c r="Y437" s="140"/>
     </row>
-    <row r="438" spans="2:25" customFormat="1" ht="16">
+    <row r="438" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="127"/>
       <c r="C438" s="140"/>
       <c r="D438" s="140"/>
@@ -15302,7 +15097,7 @@
       <c r="X438" s="140"/>
       <c r="Y438" s="140"/>
     </row>
-    <row r="439" spans="2:25" customFormat="1" ht="16">
+    <row r="439" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="127"/>
       <c r="C439" s="140"/>
       <c r="D439" s="140"/>
@@ -15328,7 +15123,7 @@
       <c r="X439" s="140"/>
       <c r="Y439" s="140"/>
     </row>
-    <row r="440" spans="2:25" customFormat="1" ht="16">
+    <row r="440" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="127"/>
       <c r="C440" s="140"/>
       <c r="D440" s="140"/>
@@ -15354,7 +15149,7 @@
       <c r="X440" s="140"/>
       <c r="Y440" s="140"/>
     </row>
-    <row r="441" spans="2:25" customFormat="1" ht="16">
+    <row r="441" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B441" s="127"/>
       <c r="C441" s="140"/>
       <c r="D441" s="140"/>
@@ -15380,7 +15175,7 @@
       <c r="X441" s="140"/>
       <c r="Y441" s="140"/>
     </row>
-    <row r="442" spans="2:25" customFormat="1" ht="16">
+    <row r="442" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B442" s="127"/>
       <c r="C442" s="140"/>
       <c r="D442" s="140"/>
@@ -15406,7 +15201,7 @@
       <c r="X442" s="140"/>
       <c r="Y442" s="140"/>
     </row>
-    <row r="443" spans="2:25" customFormat="1" ht="16">
+    <row r="443" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B443" s="127"/>
       <c r="C443" s="140"/>
       <c r="D443" s="140"/>
@@ -15432,7 +15227,7 @@
       <c r="X443" s="140"/>
       <c r="Y443" s="140"/>
     </row>
-    <row r="444" spans="2:25" customFormat="1" ht="16">
+    <row r="444" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B444" s="127"/>
       <c r="C444" s="140"/>
       <c r="D444" s="140"/>
@@ -15458,7 +15253,7 @@
       <c r="X444" s="140"/>
       <c r="Y444" s="140"/>
     </row>
-    <row r="445" spans="2:25" customFormat="1" ht="16">
+    <row r="445" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B445" s="127"/>
       <c r="C445" s="140"/>
       <c r="D445" s="140"/>
@@ -15484,7 +15279,7 @@
       <c r="X445" s="140"/>
       <c r="Y445" s="140"/>
     </row>
-    <row r="446" spans="2:25" customFormat="1" ht="16">
+    <row r="446" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="127"/>
       <c r="C446" s="140"/>
       <c r="D446" s="140"/>
@@ -15510,7 +15305,7 @@
       <c r="X446" s="140"/>
       <c r="Y446" s="140"/>
     </row>
-    <row r="447" spans="2:25" customFormat="1" ht="16">
+    <row r="447" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B447" s="127"/>
       <c r="C447" s="140"/>
       <c r="D447" s="140"/>
@@ -15536,7 +15331,7 @@
       <c r="X447" s="140"/>
       <c r="Y447" s="140"/>
     </row>
-    <row r="448" spans="2:25" customFormat="1" ht="16">
+    <row r="448" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B448" s="127"/>
       <c r="C448" s="140"/>
       <c r="D448" s="140"/>
@@ -15562,7 +15357,7 @@
       <c r="X448" s="140"/>
       <c r="Y448" s="140"/>
     </row>
-    <row r="449" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="449" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B449" s="127"/>
       <c r="C449" s="140"/>
       <c r="D449" s="140"/>
@@ -15588,7 +15383,7 @@
       <c r="X449" s="140"/>
       <c r="Y449" s="140"/>
     </row>
-    <row r="450" spans="2:25" s="26" customFormat="1">
+    <row r="450" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B450" s="130"/>
       <c r="C450" s="130" t="s">
         <v>25</v>
@@ -15616,7 +15411,7 @@
       <c r="T450" s="130"/>
       <c r="U450" s="130"/>
     </row>
-    <row r="451" spans="2:25" customFormat="1" ht="16">
+    <row r="451" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B451" s="127"/>
       <c r="C451" s="164"/>
       <c r="D451" s="140"/>
@@ -15642,7 +15437,7 @@
       <c r="X451" s="140"/>
       <c r="Y451" s="140"/>
     </row>
-    <row r="452" spans="2:25" customFormat="1" ht="17">
+    <row r="452" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B452" s="127"/>
       <c r="C452" s="175" t="s">
         <v>135</v>
@@ -15670,7 +15465,7 @@
       <c r="X452" s="140"/>
       <c r="Y452" s="140"/>
     </row>
-    <row r="453" spans="2:25" customFormat="1" ht="16">
+    <row r="453" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B453" s="127"/>
       <c r="C453" s="140"/>
       <c r="D453" s="140"/>
@@ -15696,7 +15491,7 @@
       <c r="X453" s="140"/>
       <c r="Y453" s="140"/>
     </row>
-    <row r="454" spans="2:25" customFormat="1" ht="16">
+    <row r="454" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B454" s="127"/>
       <c r="C454" s="140"/>
       <c r="D454" s="140"/>
@@ -15722,34 +15517,34 @@
       <c r="X454" s="140"/>
       <c r="Y454" s="140"/>
     </row>
-    <row r="455" spans="2:25">
+    <row r="455" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B455" s="127"/>
     </row>
-    <row r="456" spans="2:25">
+    <row r="456" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B456" s="127"/>
       <c r="D456" s="126">
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="2:25">
+    <row r="457" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B457" s="127"/>
     </row>
-    <row r="458" spans="2:25">
+    <row r="458" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B458" s="127"/>
     </row>
-    <row r="459" spans="2:25">
+    <row r="459" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B459" s="127"/>
     </row>
-    <row r="460" spans="2:25">
+    <row r="460" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B460" s="127"/>
     </row>
-    <row r="461" spans="2:25">
+    <row r="461" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B461" s="127"/>
       <c r="E461" s="176" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="2:25">
+    <row r="462" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B462" s="127"/>
       <c r="E462" s="140" t="s">
         <v>46</v>
@@ -15767,7 +15562,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="463" spans="2:25">
+    <row r="463" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B463" s="127"/>
       <c r="E463" s="140" t="s">
         <v>47</v>
@@ -15783,7 +15578,7 @@
       <c r="J463" s="140"/>
       <c r="K463" s="140"/>
     </row>
-    <row r="464" spans="2:25">
+    <row r="464" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B464" s="127"/>
       <c r="E464" s="140" t="s">
         <v>51</v>
@@ -15799,7 +15594,7 @@
       <c r="J464" s="140"/>
       <c r="K464" s="140"/>
     </row>
-    <row r="465" spans="2:11">
+    <row r="465" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B465" s="127"/>
       <c r="D465" s="140"/>
       <c r="E465" s="140" t="s">
@@ -15816,7 +15611,7 @@
       <c r="J465" s="140"/>
       <c r="K465" s="140"/>
     </row>
-    <row r="466" spans="2:11">
+    <row r="466" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B466" s="127"/>
       <c r="D466" s="140"/>
       <c r="E466" s="140" t="s">
@@ -15833,7 +15628,7 @@
       <c r="J466" s="140"/>
       <c r="K466" s="140"/>
     </row>
-    <row r="467" spans="2:11">
+    <row r="467" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B467" s="127"/>
       <c r="D467" s="140"/>
       <c r="E467" s="140" t="s">
@@ -15852,7 +15647,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="468" spans="2:11">
+    <row r="468" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B468" s="127"/>
       <c r="D468" s="140"/>
       <c r="E468" s="140"/>
@@ -15862,7 +15657,7 @@
       <c r="I468" s="140"/>
       <c r="J468" s="140"/>
     </row>
-    <row r="469" spans="2:11">
+    <row r="469" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B469" s="127"/>
       <c r="D469" s="140"/>
       <c r="E469" s="140"/>
@@ -15872,7 +15667,7 @@
       <c r="I469" s="140"/>
       <c r="J469" s="140"/>
     </row>
-    <row r="470" spans="2:11">
+    <row r="470" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B470" s="127"/>
       <c r="D470" s="140"/>
       <c r="E470" s="140" t="s">
@@ -15892,7 +15687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="471" spans="2:11">
+    <row r="471" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B471" s="127"/>
       <c r="E471" s="140" t="s">
         <v>47</v>
@@ -15909,7 +15704,7 @@
       <c r="J471" s="140"/>
       <c r="K471" s="140"/>
     </row>
-    <row r="472" spans="2:11">
+    <row r="472" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B472" s="127"/>
       <c r="E472" s="140" t="s">
         <v>51</v>
@@ -15926,7 +15721,7 @@
       <c r="J472" s="140"/>
       <c r="K472" s="140"/>
     </row>
-    <row r="473" spans="2:11">
+    <row r="473" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B473" s="127"/>
       <c r="E473" s="140" t="s">
         <v>50</v>
@@ -15943,7 +15738,7 @@
       <c r="J473" s="140"/>
       <c r="K473" s="140"/>
     </row>
-    <row r="474" spans="2:11">
+    <row r="474" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B474" s="127"/>
       <c r="E474" s="140" t="s">
         <v>40</v>
@@ -15960,7 +15755,7 @@
       <c r="J474" s="140"/>
       <c r="K474" s="140"/>
     </row>
-    <row r="475" spans="2:11">
+    <row r="475" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B475" s="127"/>
       <c r="E475" s="140" t="s">
         <v>49</v>
@@ -15979,13 +15774,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="476" spans="2:11">
+    <row r="476" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B476" s="127"/>
     </row>
-    <row r="477" spans="2:11">
+    <row r="477" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B477" s="127"/>
     </row>
-    <row r="478" spans="2:11">
+    <row r="478" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B478" s="127"/>
       <c r="E478" s="177" t="s">
         <v>58</v>
@@ -15997,7 +15792,7 @@
       <c r="J478" s="178"/>
       <c r="K478" s="178"/>
     </row>
-    <row r="479" spans="2:11">
+    <row r="479" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B479" s="127"/>
       <c r="E479" s="140" t="s">
         <v>46</v>
@@ -16015,7 +15810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="480" spans="2:11">
+    <row r="480" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B480" s="127"/>
       <c r="E480" s="140" t="s">
         <v>47</v>
@@ -16031,7 +15826,7 @@
       <c r="J480" s="140"/>
       <c r="K480" s="140"/>
     </row>
-    <row r="481" spans="2:11">
+    <row r="481" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B481" s="127"/>
       <c r="E481" s="140" t="s">
         <v>51</v>
@@ -16047,7 +15842,7 @@
       <c r="J481" s="140"/>
       <c r="K481" s="140"/>
     </row>
-    <row r="482" spans="2:11">
+    <row r="482" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B482" s="127"/>
       <c r="E482" s="140" t="s">
         <v>50</v>
@@ -16063,7 +15858,7 @@
       <c r="J482" s="140"/>
       <c r="K482" s="140"/>
     </row>
-    <row r="483" spans="2:11">
+    <row r="483" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B483" s="127"/>
       <c r="E483" s="140" t="s">
         <v>40</v>
@@ -16079,7 +15874,7 @@
       <c r="J483" s="140"/>
       <c r="K483" s="140"/>
     </row>
-    <row r="484" spans="2:11">
+    <row r="484" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B484" s="127"/>
       <c r="E484" s="140" t="s">
         <v>49</v>
@@ -16097,7 +15892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="485" spans="2:11">
+    <row r="485" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B485" s="127"/>
       <c r="E485" s="140"/>
       <c r="F485" s="140"/>
@@ -16107,7 +15902,7 @@
       <c r="J485" s="140"/>
       <c r="K485" s="178"/>
     </row>
-    <row r="486" spans="2:11">
+    <row r="486" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B486" s="127"/>
       <c r="E486" s="140"/>
       <c r="F486" s="140"/>
@@ -16117,7 +15912,7 @@
       <c r="J486" s="140"/>
       <c r="K486" s="178"/>
     </row>
-    <row r="487" spans="2:11">
+    <row r="487" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B487" s="127"/>
       <c r="E487" s="140" t="s">
         <v>46</v>
@@ -16136,7 +15931,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="488" spans="2:11">
+    <row r="488" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B488" s="127"/>
       <c r="E488" s="140" t="s">
         <v>47</v>
@@ -16153,7 +15948,7 @@
       <c r="J488" s="140"/>
       <c r="K488" s="140"/>
     </row>
-    <row r="489" spans="2:11">
+    <row r="489" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B489" s="127"/>
       <c r="E489" s="140" t="s">
         <v>51</v>
@@ -16170,7 +15965,7 @@
       <c r="J489" s="140"/>
       <c r="K489" s="140"/>
     </row>
-    <row r="490" spans="2:11">
+    <row r="490" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B490" s="127"/>
       <c r="E490" s="140" t="s">
         <v>50</v>
@@ -16187,7 +15982,7 @@
       <c r="J490" s="140"/>
       <c r="K490" s="140"/>
     </row>
-    <row r="491" spans="2:11">
+    <row r="491" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B491" s="127"/>
       <c r="E491" s="140" t="s">
         <v>40</v>
@@ -16204,7 +15999,7 @@
       <c r="J491" s="140"/>
       <c r="K491" s="140"/>
     </row>
-    <row r="492" spans="2:11">
+    <row r="492" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B492" s="127"/>
       <c r="E492" s="140" t="s">
         <v>49</v>
@@ -16223,67 +16018,67 @@
         <v>138</v>
       </c>
     </row>
-    <row r="493" spans="2:11">
+    <row r="493" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B493" s="127"/>
     </row>
-    <row r="494" spans="2:11">
+    <row r="494" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B494" s="127"/>
     </row>
-    <row r="495" spans="2:11">
+    <row r="495" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B495" s="127"/>
     </row>
-    <row r="496" spans="2:11">
+    <row r="496" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B496" s="127"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B497" s="127"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B498" s="127"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B499" s="127"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B500" s="127"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B501" s="127"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B502" s="127"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B503" s="127"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B504" s="127"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B505" s="127"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B506" s="127"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B507" s="127"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B508" s="127"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B509" s="127"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B510" s="127"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B511" s="127"/>
     </row>
-    <row r="512" spans="2:2" ht="16" thickBot="1">
+    <row r="512" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B512" s="127"/>
     </row>
-    <row r="513" spans="1:25">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A513" s="185"/>
       <c r="B513" s="186"/>
       <c r="C513" s="186" t="s">
@@ -16316,7 +16111,7 @@
       <c r="X513" s="185"/>
       <c r="Y513" s="185"/>
     </row>
-    <row r="514" spans="1:25" ht="16">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A514" s="187"/>
       <c r="B514" s="188"/>
       <c r="C514" s="140"/>
@@ -16343,11 +16138,11 @@
       <c r="X514" s="140"/>
       <c r="Y514" s="140"/>
     </row>
-    <row r="515" spans="1:25" ht="16">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A515" s="187"/>
       <c r="B515" s="188"/>
       <c r="C515" s="185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D515" s="140"/>
       <c r="E515" s="140"/>
@@ -16372,11 +16167,11 @@
       <c r="X515" s="140"/>
       <c r="Y515" s="140"/>
     </row>
-    <row r="516" spans="1:25" ht="16">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A516" s="187"/>
       <c r="B516" s="188"/>
       <c r="C516" s="189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D516" s="140"/>
       <c r="E516" s="140"/>
@@ -16401,7 +16196,7 @@
       <c r="X516" s="140"/>
       <c r="Y516" s="140"/>
     </row>
-    <row r="517" spans="1:25" ht="16">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A517" s="187"/>
       <c r="B517" s="188"/>
       <c r="C517" s="140"/>
@@ -16428,12 +16223,12 @@
       <c r="X517" s="140"/>
       <c r="Y517" s="140"/>
     </row>
-    <row r="518" spans="1:25" ht="16">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A518" s="187"/>
       <c r="B518" s="188"/>
       <c r="C518" s="140"/>
       <c r="D518" s="140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E518" s="140"/>
       <c r="F518" s="140"/>
@@ -16457,7 +16252,7 @@
       <c r="X518" s="140"/>
       <c r="Y518" s="140"/>
     </row>
-    <row r="519" spans="1:25" ht="24">
+    <row r="519" spans="1:25" ht="28" x14ac:dyDescent="0.2">
       <c r="A519" s="187"/>
       <c r="B519" s="188"/>
       <c r="C519" s="140"/>
@@ -16468,16 +16263,16 @@
       <c r="F519" s="140"/>
       <c r="G519" s="140"/>
       <c r="H519" s="219" t="s">
+        <v>153</v>
+      </c>
+      <c r="I519" s="220" t="s">
         <v>154</v>
       </c>
-      <c r="I519" s="220" t="s">
-        <v>155</v>
-      </c>
       <c r="J519" s="221" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K519" s="196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L519" s="140"/>
       <c r="M519" s="140"/>
@@ -16491,12 +16286,12 @@
       <c r="U519" s="140"/>
       <c r="V519" s="140"/>
     </row>
-    <row r="520" spans="1:25" ht="17" thickBot="1">
+    <row r="520" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A520" s="187"/>
       <c r="B520" s="188"/>
       <c r="C520" s="140"/>
       <c r="D520" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E520" s="187"/>
       <c r="F520" s="140"/>
@@ -16504,10 +16299,10 @@
       <c r="H520" s="191"/>
       <c r="I520" s="192"/>
       <c r="J520" s="222" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K520" s="197" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L520" s="140"/>
       <c r="M520" s="140"/>
@@ -16521,20 +16316,20 @@
       <c r="U520" s="140"/>
       <c r="V520" s="140"/>
     </row>
-    <row r="521" spans="1:25" ht="17" thickBot="1">
+    <row r="521" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A521" s="187"/>
       <c r="B521" s="188"/>
       <c r="C521" s="140"/>
       <c r="D521" s="140"/>
       <c r="E521" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F521" s="193">
         <f>AVERAGE(J521:J525)</f>
         <v>401.60399999999998</v>
       </c>
       <c r="G521" s="140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H521" s="194">
         <v>42408</v>
@@ -16560,20 +16355,20 @@
       <c r="U521" s="140"/>
       <c r="V521" s="140"/>
     </row>
-    <row r="522" spans="1:25" ht="17" thickBot="1">
+    <row r="522" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A522" s="187"/>
       <c r="B522" s="188"/>
       <c r="C522" s="140"/>
       <c r="D522" s="140"/>
       <c r="E522" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F522" s="195">
         <f>F521/1000</f>
         <v>0.40160399999999996</v>
       </c>
       <c r="G522" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H522" s="194">
         <v>42401</v>
@@ -16599,7 +16394,7 @@
       <c r="U522" s="140"/>
       <c r="V522" s="140"/>
     </row>
-    <row r="523" spans="1:25" ht="17" thickBot="1">
+    <row r="523" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A523" s="187"/>
       <c r="B523" s="188"/>
       <c r="C523" s="140"/>
@@ -16631,22 +16426,22 @@
       <c r="U523" s="140"/>
       <c r="V523" s="140"/>
     </row>
-    <row r="524" spans="1:25" ht="17" thickBot="1">
+    <row r="524" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A524" s="187"/>
       <c r="B524" s="188"/>
       <c r="C524" s="140"/>
       <c r="D524" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E524" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F524" s="193">
         <f>AVERAGE(K521:K525)</f>
         <v>1427.2</v>
       </c>
       <c r="G524" s="140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H524" s="194">
         <v>42387</v>
@@ -16672,20 +16467,20 @@
       <c r="U524" s="140"/>
       <c r="V524" s="140"/>
     </row>
-    <row r="525" spans="1:25" ht="17" thickBot="1">
+    <row r="525" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A525" s="187"/>
       <c r="B525" s="188"/>
       <c r="C525" s="140"/>
       <c r="D525" s="140"/>
       <c r="E525" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F525" s="195">
         <f>F524/1000</f>
         <v>1.4272</v>
       </c>
       <c r="G525" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H525" s="194">
         <v>42380</v>
@@ -16711,7 +16506,7 @@
       <c r="U525" s="140"/>
       <c r="V525" s="140"/>
     </row>
-    <row r="526" spans="1:25" ht="16">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A526" s="187"/>
       <c r="B526" s="188"/>
       <c r="C526" s="140"/>
@@ -16743,12 +16538,12 @@
       <c r="U526" s="140"/>
       <c r="V526" s="140"/>
     </row>
-    <row r="527" spans="1:25" ht="16">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A527" s="187"/>
       <c r="B527" s="188"/>
       <c r="C527" s="140"/>
       <c r="D527" s="143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E527" s="140"/>
       <c r="F527" s="198"/>
@@ -16777,21 +16572,21 @@
       <c r="U527" s="140"/>
       <c r="V527" s="140"/>
     </row>
-    <row r="528" spans="1:25" ht="16">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A528" s="187"/>
       <c r="B528" s="188"/>
       <c r="C528" s="140"/>
       <c r="D528" s="140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E528" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F528" s="140">
         <v>21</v>
       </c>
       <c r="G528" s="140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H528" s="194">
         <v>42345</v>
@@ -16817,22 +16612,22 @@
       <c r="U528" s="140"/>
       <c r="V528" s="140"/>
     </row>
-    <row r="529" spans="1:22" ht="16">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A529" s="187"/>
       <c r="B529" s="188"/>
       <c r="C529" s="140"/>
       <c r="D529" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E529" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F529" s="140">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G529" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H529" s="194">
         <v>42338</v>
@@ -16858,22 +16653,22 @@
       <c r="U529" s="140"/>
       <c r="V529" s="140"/>
     </row>
-    <row r="530" spans="1:22" ht="16">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="187"/>
       <c r="B530" s="188"/>
       <c r="C530" s="140"/>
       <c r="D530" s="140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E530" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F530" s="198">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G530" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H530" s="194">
         <v>42331</v>
@@ -16899,7 +16694,7 @@
       <c r="U530" s="140"/>
       <c r="V530" s="140"/>
     </row>
-    <row r="531" spans="1:22" ht="16">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A531" s="187"/>
       <c r="B531" s="188"/>
       <c r="C531" s="140"/>
@@ -16931,22 +16726,22 @@
       <c r="U531" s="140"/>
       <c r="V531" s="140"/>
     </row>
-    <row r="532" spans="1:22" ht="16">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="187"/>
       <c r="B532" s="188"/>
       <c r="C532" s="140"/>
       <c r="D532" s="140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E532" s="187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F532" s="198">
         <f>(F530+F529+F522)*1.21</f>
         <v>1.4225655399999999</v>
       </c>
       <c r="G532" s="140" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H532" s="194">
         <v>42317</v>
@@ -16972,7 +16767,7 @@
       <c r="U532" s="140"/>
       <c r="V532" s="140"/>
     </row>
-    <row r="533" spans="1:22" ht="16">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A533" s="187"/>
       <c r="B533" s="188"/>
       <c r="C533" s="140"/>
@@ -17004,7 +16799,7 @@
       <c r="U533" s="140"/>
       <c r="V533" s="140"/>
     </row>
-    <row r="534" spans="1:22" ht="16">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="187"/>
       <c r="B534" s="188"/>
       <c r="C534" s="140"/>
@@ -17036,7 +16831,7 @@
       <c r="U534" s="140"/>
       <c r="V534" s="140"/>
     </row>
-    <row r="535" spans="1:22" ht="16">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A535" s="187"/>
       <c r="B535" s="188"/>
       <c r="C535" s="140"/>
@@ -17068,7 +16863,7 @@
       <c r="U535" s="140"/>
       <c r="V535" s="140"/>
     </row>
-    <row r="536" spans="1:22" ht="16">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A536" s="187"/>
       <c r="B536" s="188"/>
       <c r="C536" s="140"/>
@@ -17100,7 +16895,7 @@
       <c r="U536" s="140"/>
       <c r="V536" s="140"/>
     </row>
-    <row r="537" spans="1:22" ht="16">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="187"/>
       <c r="B537" s="188"/>
       <c r="C537" s="140"/>
@@ -17132,7 +16927,7 @@
       <c r="U537" s="140"/>
       <c r="V537" s="140"/>
     </row>
-    <row r="538" spans="1:22" ht="16">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A538" s="187"/>
       <c r="B538" s="188"/>
       <c r="C538" s="140"/>
@@ -17164,7 +16959,7 @@
       <c r="U538" s="140"/>
       <c r="V538" s="140"/>
     </row>
-    <row r="539" spans="1:22" ht="16">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="187"/>
       <c r="B539" s="188"/>
       <c r="C539" s="140"/>
@@ -17196,7 +16991,7 @@
       <c r="U539" s="140"/>
       <c r="V539" s="140"/>
     </row>
-    <row r="540" spans="1:22" ht="16">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A540" s="187"/>
       <c r="B540" s="188"/>
       <c r="C540" s="187"/>
@@ -17228,7 +17023,7 @@
       <c r="U540" s="187"/>
       <c r="V540" s="187"/>
     </row>
-    <row r="541" spans="1:22" ht="16">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="187"/>
       <c r="B541" s="188"/>
       <c r="C541" s="187"/>
@@ -17260,7 +17055,7 @@
       <c r="U541" s="187"/>
       <c r="V541" s="187"/>
     </row>
-    <row r="542" spans="1:22" ht="16">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A542" s="187"/>
       <c r="B542" s="188"/>
       <c r="C542" s="187"/>
@@ -17292,7 +17087,7 @@
       <c r="U542" s="187"/>
       <c r="V542" s="187"/>
     </row>
-    <row r="543" spans="1:22" ht="16">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="187"/>
       <c r="B543" s="188"/>
       <c r="C543" s="187"/>
@@ -17324,7 +17119,7 @@
       <c r="U543" s="187"/>
       <c r="V543" s="187"/>
     </row>
-    <row r="544" spans="1:22" ht="16">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A544" s="187"/>
       <c r="B544" s="188"/>
       <c r="C544" s="187"/>
@@ -17356,7 +17151,7 @@
       <c r="U544" s="187"/>
       <c r="V544" s="187"/>
     </row>
-    <row r="545" spans="1:25" ht="16">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A545" s="187"/>
       <c r="B545" s="188"/>
       <c r="C545" s="187"/>
@@ -17388,7 +17183,7 @@
       <c r="U545" s="187"/>
       <c r="V545" s="187"/>
     </row>
-    <row r="546" spans="1:25" ht="16">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A546" s="187"/>
       <c r="B546" s="188"/>
       <c r="C546" s="187"/>
@@ -17420,7 +17215,7 @@
       <c r="U546" s="187"/>
       <c r="V546" s="187"/>
     </row>
-    <row r="547" spans="1:25" ht="16">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A547" s="187"/>
       <c r="B547" s="188"/>
       <c r="C547" s="187"/>
@@ -17452,7 +17247,7 @@
       <c r="U547" s="187"/>
       <c r="V547" s="187"/>
     </row>
-    <row r="548" spans="1:25" ht="16">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A548" s="187"/>
       <c r="B548" s="188"/>
       <c r="C548" s="187"/>
@@ -17484,7 +17279,7 @@
       <c r="U548" s="187"/>
       <c r="V548" s="187"/>
     </row>
-    <row r="549" spans="1:25" ht="16">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A549" s="187"/>
       <c r="B549" s="188"/>
       <c r="C549" s="187"/>
@@ -17516,7 +17311,7 @@
       <c r="U549" s="187"/>
       <c r="V549" s="187"/>
     </row>
-    <row r="550" spans="1:25" ht="16">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A550" s="187"/>
       <c r="B550" s="188"/>
       <c r="C550" s="187"/>
@@ -17548,8 +17343,8 @@
       <c r="U550" s="187"/>
       <c r="V550" s="187"/>
     </row>
-    <row r="555" spans="1:25" ht="16" thickBot="1"/>
-    <row r="556" spans="1:25" s="26" customFormat="1">
+    <row r="555" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="556" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B556" s="130"/>
       <c r="C556" s="130" t="s">
         <v>25</v>
@@ -17577,7 +17372,7 @@
       <c r="T556" s="130"/>
       <c r="U556" s="130"/>
     </row>
-    <row r="557" spans="1:25" customFormat="1" ht="16">
+    <row r="557" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B557" s="127"/>
       <c r="C557" s="164"/>
       <c r="D557" s="140"/>
@@ -17603,10 +17398,10 @@
       <c r="X557" s="140"/>
       <c r="Y557" s="140"/>
     </row>
-    <row r="558" spans="1:25" customFormat="1" ht="16">
+    <row r="558" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B558" s="127"/>
       <c r="C558" s="126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D558" s="140"/>
       <c r="E558" s="140"/>
@@ -17631,146 +17426,146 @@
       <c r="X558" s="140"/>
       <c r="Y558" s="140"/>
     </row>
-    <row r="559" spans="1:25">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B559" s="127"/>
     </row>
-    <row r="560" spans="1:25">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B560" s="127"/>
     </row>
-    <row r="561" spans="2:8">
+    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B561" s="127"/>
       <c r="D561" s="184" t="s">
+        <v>146</v>
+      </c>
+      <c r="F561" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="F561" s="184" t="s">
+      <c r="G561" s="184" t="s">
         <v>148</v>
       </c>
-      <c r="G561" s="184" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="562" spans="2:8">
+    </row>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B562" s="127"/>
       <c r="D562" s="199" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G562" s="184" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="563" spans="2:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B563" s="127"/>
     </row>
-    <row r="564" spans="2:8">
+    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B564" s="127"/>
       <c r="F564" s="126">
         <v>0.6</v>
       </c>
       <c r="G564" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H564" s="199" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="565" spans="2:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B565" s="127"/>
       <c r="F565" s="200">
         <f>F525</f>
         <v>1.4272</v>
       </c>
       <c r="G565" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H565" s="199" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="566" spans="2:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B566" s="127"/>
       <c r="F566" s="200">
         <f>F564+F565</f>
         <v>2.0272000000000001</v>
       </c>
       <c r="G566" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H566" s="199" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="567" spans="2:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B567" s="127"/>
     </row>
-    <row r="568" spans="2:8">
+    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B568" s="127"/>
       <c r="F568" s="126">
         <f>F529</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G568" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H568" s="199" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="569" spans="2:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B569" s="127"/>
       <c r="F569" s="200">
         <f>F530</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G569" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H569" s="199" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="570" spans="2:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B570" s="127"/>
       <c r="F570" s="126">
         <f>F528</f>
         <v>21</v>
       </c>
       <c r="G570" s="199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H570" s="199" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="571" spans="2:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B571" s="127"/>
     </row>
-    <row r="572" spans="2:8">
+    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B572" s="127"/>
       <c r="G572" s="199"/>
       <c r="H572" s="199"/>
     </row>
-    <row r="573" spans="2:8">
+    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B573" s="127"/>
       <c r="G573" s="199"/>
       <c r="H573" s="199"/>
     </row>
-    <row r="574" spans="2:8">
+    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B574" s="127"/>
     </row>
-    <row r="575" spans="2:8">
+    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B575" s="127"/>
       <c r="F575" s="201">
         <f>F566/1.21-F569-F568</f>
         <v>0.90130190082644646</v>
       </c>
       <c r="G575" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H575" s="199" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="576" spans="2:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B576" s="127"/>
       <c r="F576" s="213">
         <f>F575/F24</f>
@@ -17780,118 +17575,118 @@
         <v>61</v>
       </c>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B577" s="127"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B578" s="127"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B579" s="127"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B580" s="127"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B581" s="127"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B582" s="127"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B583" s="127"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B584" s="127"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B585" s="127"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B586" s="127"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B587" s="127"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B588" s="127"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B589" s="127"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B590" s="127"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B591" s="127"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B592" s="127"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B593" s="127"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B594" s="127"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B595" s="127"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B596" s="127"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B597" s="127"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B598" s="127"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B599" s="127"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B600" s="127"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B601" s="127"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B602" s="127"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B603" s="127"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B604" s="127"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B605" s="127"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B606" s="127"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B607" s="127"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B608" s="127"/>
     </row>
-    <row r="609" spans="2:25">
+    <row r="609" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B609" s="127"/>
     </row>
-    <row r="610" spans="2:25">
+    <row r="610" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B610" s="127"/>
     </row>
-    <row r="611" spans="2:25">
+    <row r="611" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B611" s="127"/>
     </row>
-    <row r="612" spans="2:25">
+    <row r="612" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B612" s="127"/>
     </row>
-    <row r="613" spans="2:25" ht="16" thickBot="1">
+    <row r="613" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B613" s="127"/>
     </row>
-    <row r="614" spans="2:25">
+    <row r="614" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B614" s="234"/>
       <c r="C614" s="186" t="s">
         <v>25</v>
@@ -17923,7 +17718,7 @@
       <c r="X614" s="185"/>
       <c r="Y614" s="185"/>
     </row>
-    <row r="615" spans="2:25">
+    <row r="615" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B615" s="188"/>
       <c r="C615" s="178"/>
       <c r="D615" s="178"/>
@@ -17949,10 +17744,10 @@
       <c r="X615" s="178"/>
       <c r="Y615" s="178"/>
     </row>
-    <row r="616" spans="2:25" ht="16">
+    <row r="616" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B616" s="188"/>
       <c r="C616" s="235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D616" s="236"/>
       <c r="E616" s="236"/>
@@ -17977,7 +17772,7 @@
       <c r="X616" s="140"/>
       <c r="Y616" s="140"/>
     </row>
-    <row r="617" spans="2:25" ht="16">
+    <row r="617" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B617" s="188"/>
       <c r="C617" s="236"/>
       <c r="D617" s="236"/>
@@ -18003,7 +17798,7 @@
       <c r="X617" s="140"/>
       <c r="Y617" s="140"/>
     </row>
-    <row r="618" spans="2:25" ht="16">
+    <row r="618" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B618" s="188"/>
       <c r="C618" s="236"/>
       <c r="D618" s="242"/>
@@ -18029,7 +17824,7 @@
       <c r="X618" s="140"/>
       <c r="Y618" s="140"/>
     </row>
-    <row r="619" spans="2:25" ht="16">
+    <row r="619" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B619" s="188"/>
       <c r="C619" s="236"/>
       <c r="D619" s="242"/>
@@ -18055,7 +17850,7 @@
       <c r="X619" s="140"/>
       <c r="Y619" s="140"/>
     </row>
-    <row r="620" spans="2:25" ht="16">
+    <row r="620" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B620" s="188"/>
       <c r="C620" s="236"/>
       <c r="D620" s="242">
@@ -18064,7 +17859,7 @@
       <c r="E620" s="242"/>
       <c r="F620" s="242"/>
       <c r="G620" s="242" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H620" s="242"/>
       <c r="I620" s="242"/>
@@ -18085,7 +17880,7 @@
       <c r="X620" s="140"/>
       <c r="Y620" s="140"/>
     </row>
-    <row r="621" spans="2:25" ht="16">
+    <row r="621" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B621" s="188"/>
       <c r="C621" s="236"/>
       <c r="D621" s="241"/>
@@ -18111,7 +17906,7 @@
       <c r="X621" s="140"/>
       <c r="Y621" s="140"/>
     </row>
-    <row r="622" spans="2:25" ht="16">
+    <row r="622" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B622" s="188"/>
       <c r="C622" s="236"/>
       <c r="D622" s="241"/>
@@ -18137,7 +17932,7 @@
       <c r="X622" s="140"/>
       <c r="Y622" s="140"/>
     </row>
-    <row r="623" spans="2:25" ht="16">
+    <row r="623" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B623" s="188"/>
       <c r="C623" s="236"/>
       <c r="D623" s="241"/>
@@ -18163,7 +17958,7 @@
       <c r="X623" s="140"/>
       <c r="Y623" s="140"/>
     </row>
-    <row r="624" spans="2:25">
+    <row r="624" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B624" s="188"/>
       <c r="C624" s="140"/>
       <c r="D624" s="245"/>
@@ -18189,7 +17984,7 @@
       <c r="X624" s="140"/>
       <c r="Y624" s="140"/>
     </row>
-    <row r="625" spans="2:25">
+    <row r="625" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B625" s="188"/>
       <c r="C625" s="140"/>
       <c r="D625" s="245"/>
@@ -18215,7 +18010,7 @@
       <c r="X625" s="140"/>
       <c r="Y625" s="140"/>
     </row>
-    <row r="626" spans="2:25">
+    <row r="626" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B626" s="188"/>
       <c r="C626" s="140"/>
       <c r="D626" s="245"/>
@@ -18241,7 +18036,7 @@
       <c r="X626" s="140"/>
       <c r="Y626" s="140"/>
     </row>
-    <row r="627" spans="2:25">
+    <row r="627" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B627" s="188"/>
       <c r="C627" s="140"/>
       <c r="D627" s="245"/>
@@ -18267,7 +18062,7 @@
       <c r="X627" s="140"/>
       <c r="Y627" s="140"/>
     </row>
-    <row r="628" spans="2:25">
+    <row r="628" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B628" s="188"/>
       <c r="C628" s="140"/>
       <c r="D628" s="245"/>
@@ -18293,7 +18088,7 @@
       <c r="X628" s="140"/>
       <c r="Y628" s="140"/>
     </row>
-    <row r="629" spans="2:25">
+    <row r="629" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B629" s="188"/>
       <c r="C629" s="140"/>
       <c r="D629" s="140"/>
@@ -18319,7 +18114,7 @@
       <c r="X629" s="140"/>
       <c r="Y629" s="140"/>
     </row>
-    <row r="630" spans="2:25">
+    <row r="630" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B630" s="188"/>
       <c r="C630" s="140"/>
       <c r="D630" s="140"/>
@@ -18345,7 +18140,7 @@
       <c r="X630" s="140"/>
       <c r="Y630" s="140"/>
     </row>
-    <row r="631" spans="2:25">
+    <row r="631" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B631" s="188"/>
       <c r="C631" s="140"/>
       <c r="D631" s="140"/>
@@ -18371,7 +18166,7 @@
       <c r="X631" s="140"/>
       <c r="Y631" s="140"/>
     </row>
-    <row r="632" spans="2:25">
+    <row r="632" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B632" s="188"/>
       <c r="C632" s="140"/>
       <c r="D632" s="140"/>
@@ -18397,7 +18192,7 @@
       <c r="X632" s="140"/>
       <c r="Y632" s="140"/>
     </row>
-    <row r="633" spans="2:25">
+    <row r="633" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B633" s="188"/>
       <c r="C633" s="140"/>
       <c r="D633" s="140"/>
@@ -18423,7 +18218,7 @@
       <c r="X633" s="140"/>
       <c r="Y633" s="140"/>
     </row>
-    <row r="634" spans="2:25">
+    <row r="634" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B634" s="188"/>
       <c r="C634" s="140"/>
       <c r="D634" s="140"/>
@@ -18449,7 +18244,7 @@
       <c r="X634" s="140"/>
       <c r="Y634" s="140"/>
     </row>
-    <row r="635" spans="2:25">
+    <row r="635" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B635" s="188"/>
       <c r="C635" s="140"/>
       <c r="D635" s="140"/>
@@ -18475,7 +18270,7 @@
       <c r="X635" s="140"/>
       <c r="Y635" s="140"/>
     </row>
-    <row r="636" spans="2:25">
+    <row r="636" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B636" s="188"/>
       <c r="C636" s="140"/>
       <c r="D636" s="140"/>
@@ -18501,7 +18296,7 @@
       <c r="X636" s="140"/>
       <c r="Y636" s="140"/>
     </row>
-    <row r="637" spans="2:25">
+    <row r="637" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B637" s="188"/>
       <c r="C637" s="140"/>
       <c r="D637" s="140"/>
@@ -18527,7 +18322,7 @@
       <c r="X637" s="140"/>
       <c r="Y637" s="140"/>
     </row>
-    <row r="638" spans="2:25">
+    <row r="638" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B638" s="188"/>
       <c r="C638" s="140"/>
       <c r="D638" s="140"/>
@@ -18553,7 +18348,7 @@
       <c r="X638" s="140"/>
       <c r="Y638" s="140"/>
     </row>
-    <row r="639" spans="2:25">
+    <row r="639" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B639" s="188"/>
       <c r="C639" s="140"/>
       <c r="D639" s="140"/>
@@ -18579,7 +18374,7 @@
       <c r="X639" s="140"/>
       <c r="Y639" s="140"/>
     </row>
-    <row r="640" spans="2:25">
+    <row r="640" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B640" s="188"/>
       <c r="C640" s="140"/>
       <c r="D640" s="140"/>
@@ -18605,7 +18400,7 @@
       <c r="X640" s="140"/>
       <c r="Y640" s="140"/>
     </row>
-    <row r="641" spans="2:25" ht="16">
+    <row r="641" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B641" s="188"/>
       <c r="C641" s="187"/>
       <c r="D641" s="187"/>
@@ -18631,7 +18426,7 @@
       <c r="X641" s="187"/>
       <c r="Y641" s="187"/>
     </row>
-    <row r="642" spans="2:25" ht="16">
+    <row r="642" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B642" s="188"/>
       <c r="C642" s="187"/>
       <c r="D642" s="187"/>
@@ -18657,7 +18452,7 @@
       <c r="X642" s="187"/>
       <c r="Y642" s="187"/>
     </row>
-    <row r="643" spans="2:25" ht="16">
+    <row r="643" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B643" s="188"/>
       <c r="C643" s="187"/>
       <c r="D643" s="187"/>
@@ -18683,7 +18478,7 @@
       <c r="X643" s="187"/>
       <c r="Y643" s="187"/>
     </row>
-    <row r="644" spans="2:25" ht="16">
+    <row r="644" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B644" s="188"/>
       <c r="C644" s="187"/>
       <c r="D644" s="187"/>
@@ -18709,7 +18504,7 @@
       <c r="X644" s="187"/>
       <c r="Y644" s="187"/>
     </row>
-    <row r="645" spans="2:25" ht="16">
+    <row r="645" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B645" s="188"/>
       <c r="C645" s="187"/>
       <c r="D645" s="187"/>
@@ -18735,7 +18530,7 @@
       <c r="X645" s="187"/>
       <c r="Y645" s="187"/>
     </row>
-    <row r="646" spans="2:25" ht="16">
+    <row r="646" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B646" s="188"/>
       <c r="C646" s="187"/>
       <c r="D646" s="187"/>
@@ -18761,7 +18556,7 @@
       <c r="X646" s="187"/>
       <c r="Y646" s="187"/>
     </row>
-    <row r="647" spans="2:25" ht="16">
+    <row r="647" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B647" s="188"/>
       <c r="C647" s="187"/>
       <c r="D647" s="187"/>
@@ -18787,7 +18582,7 @@
       <c r="X647" s="187"/>
       <c r="Y647" s="187"/>
     </row>
-    <row r="648" spans="2:25" ht="16">
+    <row r="648" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B648" s="188"/>
       <c r="C648" s="187"/>
       <c r="D648" s="187"/>
@@ -18813,7 +18608,7 @@
       <c r="X648" s="187"/>
       <c r="Y648" s="187"/>
     </row>
-    <row r="649" spans="2:25" ht="16">
+    <row r="649" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B649" s="188"/>
       <c r="C649" s="187"/>
       <c r="D649" s="187"/>
@@ -18839,7 +18634,7 @@
       <c r="X649" s="187"/>
       <c r="Y649" s="187"/>
     </row>
-    <row r="650" spans="2:25" ht="16">
+    <row r="650" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B650" s="188"/>
       <c r="C650" s="187"/>
       <c r="D650" s="187"/>
@@ -18865,7 +18660,7 @@
       <c r="X650" s="187"/>
       <c r="Y650" s="187"/>
     </row>
-    <row r="651" spans="2:25" ht="16">
+    <row r="651" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B651" s="188"/>
       <c r="C651" s="187"/>
       <c r="D651" s="187"/>
@@ -18891,7 +18686,7 @@
       <c r="X651" s="187"/>
       <c r="Y651" s="187"/>
     </row>
-    <row r="652" spans="2:25" ht="16">
+    <row r="652" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B652" s="188"/>
       <c r="C652" s="187"/>
       <c r="D652" s="187"/>
@@ -18917,7 +18712,7 @@
       <c r="X652" s="187"/>
       <c r="Y652" s="187"/>
     </row>
-    <row r="653" spans="2:25" ht="16">
+    <row r="653" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B653" s="239"/>
       <c r="C653" s="240"/>
       <c r="D653" s="240"/>
@@ -18943,7 +18738,7 @@
       <c r="X653" s="187"/>
       <c r="Y653" s="187"/>
     </row>
-    <row r="654" spans="2:25" ht="16">
+    <row r="654" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B654" s="239"/>
       <c r="C654" s="240"/>
       <c r="D654" s="240"/>
@@ -18969,7 +18764,7 @@
       <c r="X654" s="187"/>
       <c r="Y654" s="187"/>
     </row>
-    <row r="655" spans="2:25" ht="16">
+    <row r="655" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B655" s="239"/>
       <c r="C655" s="240"/>
       <c r="D655" s="240"/>
@@ -18995,7 +18790,7 @@
       <c r="X655" s="187"/>
       <c r="Y655" s="187"/>
     </row>
-    <row r="656" spans="2:25" ht="16">
+    <row r="656" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B656" s="239"/>
       <c r="C656" s="240"/>
       <c r="D656" s="240"/>
@@ -19021,7 +18816,7 @@
       <c r="X656" s="187"/>
       <c r="Y656" s="187"/>
     </row>
-    <row r="657" spans="2:25" ht="16">
+    <row r="657" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B657" s="239"/>
       <c r="C657" s="240"/>
       <c r="D657" s="240"/>
@@ -19047,7 +18842,7 @@
       <c r="X657" s="187"/>
       <c r="Y657" s="187"/>
     </row>
-    <row r="658" spans="2:25" ht="16">
+    <row r="658" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B658" s="239"/>
       <c r="C658" s="240"/>
       <c r="D658" s="240"/>
@@ -19073,7 +18868,7 @@
       <c r="X658" s="187"/>
       <c r="Y658" s="187"/>
     </row>
-    <row r="659" spans="2:25" ht="16">
+    <row r="659" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B659" s="239"/>
       <c r="C659" s="240"/>
       <c r="D659" s="240"/>
@@ -19099,7 +18894,7 @@
       <c r="X659" s="187"/>
       <c r="Y659" s="187"/>
     </row>
-    <row r="660" spans="2:25" ht="16">
+    <row r="660" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B660" s="239"/>
       <c r="C660" s="240"/>
       <c r="D660" s="240"/>
@@ -19125,7 +18920,7 @@
       <c r="X660" s="187"/>
       <c r="Y660" s="187"/>
     </row>
-    <row r="661" spans="2:25">
+    <row r="661" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B661" s="241"/>
       <c r="C661" s="241"/>
       <c r="D661" s="241"/>
@@ -19142,7 +18937,7 @@
       <c r="O661" s="241"/>
       <c r="P661" s="241"/>
     </row>
-    <row r="662" spans="2:25">
+    <row r="662" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B662" s="241"/>
       <c r="C662" s="241"/>
       <c r="D662" s="241"/>
@@ -19159,7 +18954,7 @@
       <c r="O662" s="241"/>
       <c r="P662" s="241"/>
     </row>
-    <row r="663" spans="2:25" ht="16">
+    <row r="663" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B663" s="241"/>
       <c r="C663" s="241"/>
       <c r="D663" s="241"/>
@@ -19172,10 +18967,10 @@
         <v>70800</v>
       </c>
       <c r="I663" s="242" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J663" s="244" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K663" s="241"/>
       <c r="L663" s="241"/>
@@ -19184,7 +18979,7 @@
       <c r="O663" s="241"/>
       <c r="P663" s="241"/>
     </row>
-    <row r="664" spans="2:25" ht="16">
+    <row r="664" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B664" s="241"/>
       <c r="C664" s="241"/>
       <c r="D664" s="241"/>
@@ -19196,7 +18991,7 @@
         <v>1000000</v>
       </c>
       <c r="I664" s="242" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J664" s="241"/>
       <c r="K664" s="241"/>
@@ -19206,7 +19001,7 @@
       <c r="O664" s="241"/>
       <c r="P664" s="241"/>
     </row>
-    <row r="665" spans="2:25" ht="16">
+    <row r="665" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B665" s="241"/>
       <c r="C665" s="241"/>
       <c r="D665" s="241"/>
@@ -19218,7 +19013,7 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="I665" s="242" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J665" s="241"/>
       <c r="K665" s="241"/>
@@ -19228,7 +19023,7 @@
       <c r="O665" s="241"/>
       <c r="P665" s="241"/>
     </row>
-    <row r="666" spans="2:25">
+    <row r="666" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B666" s="241"/>
       <c r="C666" s="241"/>
       <c r="D666" s="241"/>
@@ -19245,7 +19040,7 @@
       <c r="O666" s="241"/>
       <c r="P666" s="241"/>
     </row>
-    <row r="667" spans="2:25">
+    <row r="667" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B667" s="241"/>
       <c r="C667" s="241"/>
       <c r="D667" s="241"/>
@@ -19262,7 +19057,7 @@
       <c r="O667" s="241"/>
       <c r="P667" s="241"/>
     </row>
-    <row r="668" spans="2:25">
+    <row r="668" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B668" s="241"/>
       <c r="C668" s="241"/>
       <c r="D668" s="241"/>
@@ -19279,7 +19074,7 @@
       <c r="O668" s="241"/>
       <c r="P668" s="241"/>
     </row>
-    <row r="669" spans="2:25">
+    <row r="669" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B669" s="241"/>
       <c r="C669" s="241"/>
       <c r="D669" s="241"/>
@@ -19296,7 +19091,7 @@
       <c r="O669" s="241"/>
       <c r="P669" s="241"/>
     </row>
-    <row r="670" spans="2:25">
+    <row r="670" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B670" s="241"/>
       <c r="C670" s="241"/>
       <c r="D670" s="241"/>
@@ -19313,7 +19108,7 @@
       <c r="O670" s="241"/>
       <c r="P670" s="241"/>
     </row>
-    <row r="671" spans="2:25">
+    <row r="671" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B671" s="241"/>
       <c r="C671" s="241"/>
       <c r="D671" s="241"/>
@@ -19330,7 +19125,7 @@
       <c r="O671" s="241"/>
       <c r="P671" s="241"/>
     </row>
-    <row r="672" spans="2:25">
+    <row r="672" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B672" s="241"/>
       <c r="C672" s="241"/>
       <c r="D672" s="241"/>
@@ -19347,7 +19142,7 @@
       <c r="O672" s="241"/>
       <c r="P672" s="241"/>
     </row>
-    <row r="673" spans="2:16">
+    <row r="673" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B673" s="241"/>
       <c r="C673" s="241"/>
       <c r="D673" s="241"/>
@@ -19364,7 +19159,7 @@
       <c r="O673" s="241"/>
       <c r="P673" s="241"/>
     </row>
-    <row r="674" spans="2:16">
+    <row r="674" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B674" s="241"/>
       <c r="C674" s="241"/>
       <c r="D674" s="241"/>
@@ -19381,7 +19176,7 @@
       <c r="O674" s="241"/>
       <c r="P674" s="241"/>
     </row>
-    <row r="675" spans="2:16">
+    <row r="675" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B675" s="241"/>
       <c r="C675" s="241"/>
       <c r="D675" s="241"/>
@@ -19398,7 +19193,7 @@
       <c r="O675" s="241"/>
       <c r="P675" s="241"/>
     </row>
-    <row r="676" spans="2:16">
+    <row r="676" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B676" s="241"/>
       <c r="C676" s="241"/>
       <c r="D676" s="241"/>
@@ -19415,7 +19210,7 @@
       <c r="O676" s="241"/>
       <c r="P676" s="241"/>
     </row>
-    <row r="677" spans="2:16">
+    <row r="677" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B677" s="241"/>
       <c r="C677" s="241"/>
       <c r="D677" s="241"/>
@@ -19432,7 +19227,7 @@
       <c r="O677" s="241"/>
       <c r="P677" s="241"/>
     </row>
-    <row r="678" spans="2:16">
+    <row r="678" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B678" s="241"/>
       <c r="C678" s="241"/>
       <c r="D678" s="241"/>
@@ -19449,7 +19244,7 @@
       <c r="O678" s="241"/>
       <c r="P678" s="241"/>
     </row>
-    <row r="679" spans="2:16">
+    <row r="679" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B679" s="241"/>
       <c r="C679" s="241"/>
       <c r="D679" s="241"/>
@@ -19466,7 +19261,7 @@
       <c r="O679" s="241"/>
       <c r="P679" s="241"/>
     </row>
-    <row r="680" spans="2:16">
+    <row r="680" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B680" s="241"/>
       <c r="C680" s="241"/>
       <c r="D680" s="241"/>
@@ -19483,7 +19278,7 @@
       <c r="O680" s="241"/>
       <c r="P680" s="241"/>
     </row>
-    <row r="681" spans="2:16">
+    <row r="681" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B681" s="241"/>
       <c r="C681" s="241"/>
       <c r="D681" s="241"/>
@@ -19500,7 +19295,7 @@
       <c r="O681" s="241"/>
       <c r="P681" s="241"/>
     </row>
-    <row r="682" spans="2:16">
+    <row r="682" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B682" s="241"/>
       <c r="C682" s="241"/>
       <c r="D682" s="241"/>
@@ -19527,10 +19322,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44840" yWindow="-1880" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="23740" yWindow="720" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="214">
   <si>
     <t>Source</t>
   </si>
@@ -851,12 +850,15 @@
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
+  <si>
+    <t>Download the 'prices over time' excel (2005 onwards). Numbers below are for NL. Prices are calculated on monthly average (rolling basis).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -867,13 +869,21 @@
     <numFmt numFmtId="171" formatCode="0.0000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="174" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1013,6 +1023,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1020,6 +1031,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,6 +1039,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,6 +1047,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,17 +1055,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,11 +1082,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1119,6 +1138,7 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1146,44 +1166,52 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1199,8 +1227,14 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,8 +1343,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1700,793 +1740,833 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="169" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="49" fontId="45" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="40" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="18" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="46" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="47" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="48" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="49" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="43" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="43" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="49" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="53" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
@@ -3243,7 +3323,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>580536</xdr:colOff>
+      <xdr:colOff>529736</xdr:colOff>
       <xdr:row>265</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
@@ -3288,8 +3368,8 @@
       <xdr:rowOff>31505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>385639</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144339</xdr:colOff>
       <xdr:row>278</xdr:row>
       <xdr:rowOff>139455</xdr:rowOff>
     </xdr:to>
@@ -3334,8 +3414,8 @@
       <xdr:rowOff>117230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485798</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244498</xdr:colOff>
       <xdr:row>323</xdr:row>
       <xdr:rowOff>67163</xdr:rowOff>
     </xdr:to>
@@ -3368,14 +3448,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -3385,7 +3465,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3408,8 +3488,8 @@
       <xdr:rowOff>156064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>621567</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2666267</xdr:colOff>
       <xdr:row>384</xdr:row>
       <xdr:rowOff>55196</xdr:rowOff>
     </xdr:to>
@@ -3455,7 +3535,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>530225</xdr:colOff>
       <xdr:row>419</xdr:row>
       <xdr:rowOff>151668</xdr:rowOff>
     </xdr:to>
@@ -3924,13 +4004,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>638</xdr:row>
+      <xdr:row>642</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>677</xdr:row>
+      <xdr:row>681</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4107,29 +4187,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4466,11 +4523,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="23"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4687,23 +4744,23 @@
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -4713,30 +4770,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="246" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="249"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="248"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="250"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="252"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="251"/>
     </row>
     <row r="4" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="253"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="255"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="254"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
@@ -4829,7 +4886,7 @@
       </c>
       <c r="E11" s="218">
         <f>'Research data'!G7</f>
-        <v>3.9332535344938857E-2</v>
+        <v>4.4562084945976153E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="132"/>
@@ -4872,18 +4929,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="228" t="s">
+      <c r="G13" s="227" t="s">
         <v>200</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="229" t="s">
+      <c r="I13" s="228" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
-      <c r="C14" s="230" t="s">
+      <c r="C14" s="229" t="s">
         <v>203</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -4894,11 +4951,11 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="F14" s="37"/>
-      <c r="G14" s="228" t="s">
+      <c r="G14" s="227" t="s">
         <v>201</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="229" t="s">
+      <c r="I14" s="228" t="s">
         <v>202</v>
       </c>
       <c r="J14" s="46"/>
@@ -4955,17 +5012,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -4975,27 +5032,27 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="246" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="256"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="255"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="250"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="257"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="258"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="260"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -5060,7 +5117,7 @@
     </row>
     <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
-      <c r="C10" s="227" t="s">
+      <c r="C10" s="226" t="s">
         <v>198</v>
       </c>
       <c r="D10" s="132"/>
@@ -5238,7 +5295,7 @@
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
-      <c r="C19" s="227" t="s">
+      <c r="C19" s="226" t="s">
         <v>199</v>
       </c>
       <c r="D19" s="132"/>
@@ -5437,24 +5494,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="73" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="73" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="73" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="74" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="73" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="73" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="74" customWidth="1"/>
     <col min="10" max="10" width="3" style="74" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="74" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="74" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="74" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="74" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="74" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="74" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="74" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" style="74" customWidth="1"/>
     <col min="18" max="18" width="60" style="73" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="73"/>
+    <col min="19" max="16384" width="10.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5599,7 +5656,7 @@
       </c>
       <c r="G7" s="216">
         <f>O7</f>
-        <v>3.9332535344938857E-2</v>
+        <v>4.4562084945976153E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -5608,9 +5665,9 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="237">
+      <c r="O7" s="236">
         <f>Notes!F576</f>
-        <v>3.9332535344938857E-2</v>
+        <v>4.4562084945976153E-2</v>
       </c>
       <c r="P7" s="215"/>
       <c r="Q7" s="16"/>
@@ -5682,7 +5739,7 @@
     </row>
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="230" t="s">
         <v>203</v>
       </c>
       <c r="D10" s="138" t="s">
@@ -5706,8 +5763,8 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="238">
-        <f>Notes!H665</f>
+      <c r="P10" s="237">
+        <f>Notes!H669</f>
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="Q10" s="16"/>
@@ -6324,19 +6381,19 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="49"/>
+    <col min="7" max="7" width="10.33203125" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6452,14 +6509,14 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
-      <c r="C8" s="232" t="s">
+      <c r="C8" s="231" t="s">
         <v>204</v>
       </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="232" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="233"/>
+      <c r="F8" s="232"/>
       <c r="G8" s="57" t="s">
         <v>118</v>
       </c>
@@ -6468,7 +6525,7 @@
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="246" t="s">
+      <c r="K8" s="245" t="s">
         <v>206</v>
       </c>
       <c r="L8" s="72"/>
@@ -6537,7 +6594,7 @@
       <c r="K12" s="65"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="54"/>
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
@@ -6666,19 +6723,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:Y682"/>
+  <dimension ref="A1:Y686"/>
   <sheetViews>
-    <sheetView topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="G628" sqref="G628"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="I516" sqref="I516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="126" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="126" customWidth="1"/>
     <col min="2" max="2" width="5" style="126" customWidth="1"/>
     <col min="3" max="5" width="7" style="126"/>
-    <col min="6" max="6" width="10.85546875" style="126" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="7" style="126"/>
+    <col min="6" max="6" width="10.83203125" style="126" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="126"/>
+    <col min="8" max="8" width="38.1640625" style="126" customWidth="1"/>
+    <col min="9" max="16384" width="7" style="126"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -16178,7 +16237,9 @@
       <c r="F516" s="140"/>
       <c r="G516" s="140"/>
       <c r="H516" s="140"/>
-      <c r="I516" s="140"/>
+      <c r="I516" s="140" t="s">
+        <v>213</v>
+      </c>
       <c r="J516" s="140"/>
       <c r="K516" s="140"/>
       <c r="L516" s="140"/>
@@ -16252,7 +16313,7 @@
       <c r="X518" s="140"/>
       <c r="Y518" s="140"/>
     </row>
-    <row r="519" spans="1:25" ht="28" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" ht="39" x14ac:dyDescent="0.2">
       <c r="A519" s="187"/>
       <c r="B519" s="188"/>
       <c r="C519" s="140"/>
@@ -16326,22 +16387,22 @@
       </c>
       <c r="F521" s="193">
         <f>AVERAGE(J521:J525)</f>
-        <v>401.60399999999998</v>
+        <v>519.13</v>
       </c>
       <c r="G521" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H521" s="194">
-        <v>42408</v>
-      </c>
-      <c r="I521" s="223">
+      <c r="H521" s="260">
+        <v>43059</v>
+      </c>
+      <c r="I521" s="261">
         <v>1</v>
       </c>
-      <c r="J521" s="224">
-        <v>395.65</v>
-      </c>
-      <c r="K521" s="225">
-        <v>1420</v>
+      <c r="J521" s="263">
+        <v>534.66999999999996</v>
+      </c>
+      <c r="K521" s="264">
+        <v>1591</v>
       </c>
       <c r="L521" s="140"/>
       <c r="M521" s="140"/>
@@ -16365,22 +16426,22 @@
       </c>
       <c r="F522" s="195">
         <f>F521/1000</f>
-        <v>0.40160399999999996</v>
+        <v>0.51912999999999998</v>
       </c>
       <c r="G522" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="H522" s="194">
-        <v>42401</v>
+      <c r="H522" s="262">
+        <v>43052</v>
       </c>
       <c r="I522" s="223">
         <v>1</v>
       </c>
-      <c r="J522" s="224">
-        <v>399.79</v>
-      </c>
-      <c r="K522" s="226">
-        <v>1425</v>
+      <c r="J522" s="263">
+        <v>546.24</v>
+      </c>
+      <c r="K522" s="264">
+        <v>1605</v>
       </c>
       <c r="L522" s="140"/>
       <c r="M522" s="140"/>
@@ -16402,17 +16463,17 @@
       <c r="E523" s="140"/>
       <c r="F523" s="140"/>
       <c r="G523" s="140"/>
-      <c r="H523" s="194">
-        <v>42394</v>
+      <c r="H523" s="262">
+        <v>43045</v>
       </c>
       <c r="I523" s="223">
         <v>1</v>
       </c>
-      <c r="J523" s="224">
-        <v>393.17</v>
-      </c>
-      <c r="K523" s="226">
-        <v>1417</v>
+      <c r="J523" s="263">
+        <v>526.4</v>
+      </c>
+      <c r="K523" s="264">
+        <v>1581</v>
       </c>
       <c r="L523" s="140"/>
       <c r="M523" s="140"/>
@@ -16438,22 +16499,22 @@
       </c>
       <c r="F524" s="193">
         <f>AVERAGE(K521:K525)</f>
-        <v>1427.2</v>
+        <v>1572.2</v>
       </c>
       <c r="G524" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H524" s="194">
-        <v>42387</v>
+      <c r="H524" s="262">
+        <v>43038</v>
       </c>
       <c r="I524" s="223">
         <v>1</v>
       </c>
-      <c r="J524" s="224">
-        <v>402.27</v>
-      </c>
-      <c r="K524" s="226">
-        <v>1428</v>
+      <c r="J524" s="263">
+        <v>501.61</v>
+      </c>
+      <c r="K524" s="264">
+        <v>1551</v>
       </c>
       <c r="L524" s="140"/>
       <c r="M524" s="140"/>
@@ -16477,22 +16538,22 @@
       </c>
       <c r="F525" s="195">
         <f>F524/1000</f>
-        <v>1.4272</v>
+        <v>1.5722</v>
       </c>
       <c r="G525" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="H525" s="194">
-        <v>42380</v>
+      <c r="H525" s="262">
+        <v>43031</v>
       </c>
       <c r="I525" s="223">
         <v>1</v>
       </c>
-      <c r="J525" s="224">
-        <v>417.14</v>
-      </c>
-      <c r="K525" s="226">
-        <v>1446</v>
+      <c r="J525" s="263">
+        <v>486.73</v>
+      </c>
+      <c r="K525" s="264">
+        <v>1533</v>
       </c>
       <c r="L525" s="140"/>
       <c r="M525" s="140"/>
@@ -16515,16 +16576,16 @@
       <c r="F526" s="140"/>
       <c r="G526" s="140"/>
       <c r="H526" s="194">
-        <v>42373</v>
+        <v>42401</v>
       </c>
       <c r="I526" s="223">
         <v>1</v>
       </c>
       <c r="J526" s="224">
-        <v>412.18</v>
-      </c>
-      <c r="K526" s="226">
-        <v>1440</v>
+        <v>399.79</v>
+      </c>
+      <c r="K526" s="225">
+        <v>1425</v>
       </c>
       <c r="L526" s="140"/>
       <c r="M526" s="140"/>
@@ -16549,16 +16610,16 @@
       <c r="F527" s="198"/>
       <c r="G527" s="140"/>
       <c r="H527" s="194">
-        <v>42352</v>
+        <v>42394</v>
       </c>
       <c r="I527" s="223">
         <v>1</v>
       </c>
       <c r="J527" s="224">
-        <v>435.02</v>
-      </c>
-      <c r="K527" s="226">
-        <v>1463</v>
+        <v>393.17</v>
+      </c>
+      <c r="K527" s="225">
+        <v>1417</v>
       </c>
       <c r="L527" s="140"/>
       <c r="M527" s="140"/>
@@ -16589,16 +16650,16 @@
         <v>168</v>
       </c>
       <c r="H528" s="194">
-        <v>42345</v>
+        <v>42387</v>
       </c>
       <c r="I528" s="223">
         <v>1</v>
       </c>
       <c r="J528" s="224">
-        <v>452.38</v>
-      </c>
-      <c r="K528" s="226">
-        <v>1484</v>
+        <v>402.27</v>
+      </c>
+      <c r="K528" s="225">
+        <v>1428</v>
       </c>
       <c r="L528" s="140"/>
       <c r="M528" s="140"/>
@@ -16630,16 +16691,16 @@
         <v>158</v>
       </c>
       <c r="H529" s="194">
-        <v>42338</v>
+        <v>42380</v>
       </c>
       <c r="I529" s="223">
         <v>1</v>
       </c>
       <c r="J529" s="224">
-        <v>459.81</v>
-      </c>
-      <c r="K529" s="226">
-        <v>1493</v>
+        <v>417.14</v>
+      </c>
+      <c r="K529" s="225">
+        <v>1446</v>
       </c>
       <c r="L529" s="140"/>
       <c r="M529" s="140"/>
@@ -16671,16 +16732,16 @@
         <v>158</v>
       </c>
       <c r="H530" s="194">
-        <v>42331</v>
+        <v>42373</v>
       </c>
       <c r="I530" s="223">
         <v>1</v>
       </c>
       <c r="J530" s="224">
-        <v>469.73</v>
-      </c>
-      <c r="K530" s="226">
-        <v>1505</v>
+        <v>412.18</v>
+      </c>
+      <c r="K530" s="225">
+        <v>1440</v>
       </c>
       <c r="L530" s="140"/>
       <c r="M530" s="140"/>
@@ -16703,16 +16764,16 @@
       <c r="F531" s="140"/>
       <c r="G531" s="140"/>
       <c r="H531" s="194">
-        <v>42324</v>
+        <v>42352</v>
       </c>
       <c r="I531" s="223">
         <v>1</v>
       </c>
       <c r="J531" s="224">
-        <v>492.87</v>
-      </c>
-      <c r="K531" s="226">
-        <v>1533</v>
+        <v>435.02</v>
+      </c>
+      <c r="K531" s="225">
+        <v>1463</v>
       </c>
       <c r="L531" s="140"/>
       <c r="M531" s="140"/>
@@ -16738,22 +16799,22 @@
       </c>
       <c r="F532" s="198">
         <f>(F530+F529+F522)*1.21</f>
-        <v>1.4225655399999999</v>
+        <v>1.5647720000000001</v>
       </c>
       <c r="G532" s="140" t="s">
         <v>173</v>
       </c>
       <c r="H532" s="194">
-        <v>42317</v>
+        <v>42345</v>
       </c>
       <c r="I532" s="223">
         <v>1</v>
       </c>
       <c r="J532" s="224">
-        <v>478</v>
-      </c>
-      <c r="K532" s="226">
-        <v>1515</v>
+        <v>452.38</v>
+      </c>
+      <c r="K532" s="225">
+        <v>1484</v>
       </c>
       <c r="L532" s="140"/>
       <c r="M532" s="140"/>
@@ -16776,16 +16837,16 @@
       <c r="F533" s="140"/>
       <c r="G533" s="140"/>
       <c r="H533" s="194">
-        <v>42310</v>
+        <v>42338</v>
       </c>
       <c r="I533" s="223">
         <v>1</v>
       </c>
       <c r="J533" s="224">
-        <v>449.07</v>
-      </c>
-      <c r="K533" s="226">
-        <v>1480</v>
+        <v>459.81</v>
+      </c>
+      <c r="K533" s="225">
+        <v>1493</v>
       </c>
       <c r="L533" s="140"/>
       <c r="M533" s="140"/>
@@ -16808,16 +16869,16 @@
       <c r="F534" s="140"/>
       <c r="G534" s="140"/>
       <c r="H534" s="194">
-        <v>42303</v>
+        <v>42331</v>
       </c>
       <c r="I534" s="223">
         <v>1</v>
       </c>
       <c r="J534" s="224">
-        <v>439.98</v>
-      </c>
-      <c r="K534" s="226">
-        <v>1469</v>
+        <v>469.73</v>
+      </c>
+      <c r="K534" s="225">
+        <v>1505</v>
       </c>
       <c r="L534" s="140"/>
       <c r="M534" s="140"/>
@@ -16840,16 +16901,16 @@
       <c r="F535" s="140"/>
       <c r="G535" s="140"/>
       <c r="H535" s="194">
-        <v>42296</v>
+        <v>42324</v>
       </c>
       <c r="I535" s="223">
         <v>1</v>
       </c>
       <c r="J535" s="224">
-        <v>454.03</v>
-      </c>
-      <c r="K535" s="226">
-        <v>1486</v>
+        <v>492.87</v>
+      </c>
+      <c r="K535" s="225">
+        <v>1533</v>
       </c>
       <c r="L535" s="140"/>
       <c r="M535" s="140"/>
@@ -16872,16 +16933,16 @@
       <c r="F536" s="140"/>
       <c r="G536" s="140"/>
       <c r="H536" s="194">
-        <v>42289</v>
+        <v>42317</v>
       </c>
       <c r="I536" s="223">
         <v>1</v>
       </c>
       <c r="J536" s="224">
-        <v>462.29</v>
-      </c>
-      <c r="K536" s="226">
-        <v>1496</v>
+        <v>478</v>
+      </c>
+      <c r="K536" s="225">
+        <v>1515</v>
       </c>
       <c r="L536" s="140"/>
       <c r="M536" s="140"/>
@@ -16904,16 +16965,16 @@
       <c r="F537" s="140"/>
       <c r="G537" s="140"/>
       <c r="H537" s="194">
-        <v>42282</v>
+        <v>42310</v>
       </c>
       <c r="I537" s="223">
         <v>1</v>
       </c>
       <c r="J537" s="224">
-        <v>451.55</v>
-      </c>
-      <c r="K537" s="226">
-        <v>1483</v>
+        <v>449.07</v>
+      </c>
+      <c r="K537" s="225">
+        <v>1480</v>
       </c>
       <c r="L537" s="140"/>
       <c r="M537" s="140"/>
@@ -16936,16 +16997,16 @@
       <c r="F538" s="140"/>
       <c r="G538" s="140"/>
       <c r="H538" s="194">
-        <v>42275</v>
+        <v>42303</v>
       </c>
       <c r="I538" s="223">
         <v>1</v>
       </c>
       <c r="J538" s="224">
-        <v>463.12</v>
-      </c>
-      <c r="K538" s="226">
-        <v>1497</v>
+        <v>439.98</v>
+      </c>
+      <c r="K538" s="225">
+        <v>1469</v>
       </c>
       <c r="L538" s="140"/>
       <c r="M538" s="140"/>
@@ -16968,16 +17029,16 @@
       <c r="F539" s="140"/>
       <c r="G539" s="140"/>
       <c r="H539" s="194">
-        <v>42268</v>
+        <v>42296</v>
       </c>
       <c r="I539" s="223">
         <v>1</v>
       </c>
       <c r="J539" s="224">
-        <v>472.21</v>
-      </c>
-      <c r="K539" s="226">
-        <v>1508</v>
+        <v>454.03</v>
+      </c>
+      <c r="K539" s="225">
+        <v>1486</v>
       </c>
       <c r="L539" s="140"/>
       <c r="M539" s="140"/>
@@ -17000,16 +17061,16 @@
       <c r="F540" s="140"/>
       <c r="G540" s="140"/>
       <c r="H540" s="194">
-        <v>42261</v>
+        <v>42289</v>
       </c>
       <c r="I540" s="223">
         <v>1</v>
       </c>
       <c r="J540" s="224">
-        <v>481.3</v>
-      </c>
-      <c r="K540" s="226">
-        <v>1519</v>
+        <v>462.29</v>
+      </c>
+      <c r="K540" s="225">
+        <v>1496</v>
       </c>
       <c r="L540" s="187"/>
       <c r="M540" s="187"/>
@@ -17032,16 +17093,16 @@
       <c r="F541" s="140"/>
       <c r="G541" s="140"/>
       <c r="H541" s="194">
-        <v>42254</v>
+        <v>42282</v>
       </c>
       <c r="I541" s="223">
         <v>1</v>
       </c>
       <c r="J541" s="224">
-        <v>482.13</v>
-      </c>
-      <c r="K541" s="226">
-        <v>1520</v>
+        <v>451.55</v>
+      </c>
+      <c r="K541" s="225">
+        <v>1483</v>
       </c>
       <c r="L541" s="187"/>
       <c r="M541" s="187"/>
@@ -17064,16 +17125,16 @@
       <c r="F542" s="140"/>
       <c r="G542" s="140"/>
       <c r="H542" s="194">
-        <v>42247</v>
+        <v>42275</v>
       </c>
       <c r="I542" s="223">
         <v>1</v>
       </c>
       <c r="J542" s="224">
-        <v>482.95</v>
-      </c>
-      <c r="K542" s="226">
-        <v>1521</v>
+        <v>463.12</v>
+      </c>
+      <c r="K542" s="225">
+        <v>1497</v>
       </c>
       <c r="L542" s="187"/>
       <c r="M542" s="187"/>
@@ -17096,16 +17157,16 @@
       <c r="F543" s="140"/>
       <c r="G543" s="140"/>
       <c r="H543" s="194">
-        <v>42240</v>
+        <v>42268</v>
       </c>
       <c r="I543" s="223">
         <v>1</v>
       </c>
       <c r="J543" s="224">
-        <v>513.53</v>
-      </c>
-      <c r="K543" s="226">
-        <v>1558</v>
+        <v>472.21</v>
+      </c>
+      <c r="K543" s="225">
+        <v>1508</v>
       </c>
       <c r="L543" s="187"/>
       <c r="M543" s="187"/>
@@ -17128,16 +17189,16 @@
       <c r="F544" s="140"/>
       <c r="G544" s="140"/>
       <c r="H544" s="194">
-        <v>42233</v>
+        <v>42261</v>
       </c>
       <c r="I544" s="223">
         <v>1</v>
       </c>
       <c r="J544" s="224">
-        <v>542.46</v>
-      </c>
-      <c r="K544" s="226">
-        <v>1593</v>
+        <v>481.3</v>
+      </c>
+      <c r="K544" s="225">
+        <v>1519</v>
       </c>
       <c r="L544" s="187"/>
       <c r="M544" s="187"/>
@@ -17160,16 +17221,16 @@
       <c r="F545" s="140"/>
       <c r="G545" s="140"/>
       <c r="H545" s="194">
-        <v>42226</v>
+        <v>42254</v>
       </c>
       <c r="I545" s="223">
         <v>1</v>
       </c>
       <c r="J545" s="224">
-        <v>562.29</v>
-      </c>
-      <c r="K545" s="226">
-        <v>1617</v>
+        <v>482.13</v>
+      </c>
+      <c r="K545" s="225">
+        <v>1520</v>
       </c>
       <c r="L545" s="187"/>
       <c r="M545" s="187"/>
@@ -17192,16 +17253,16 @@
       <c r="F546" s="140"/>
       <c r="G546" s="140"/>
       <c r="H546" s="194">
-        <v>42219</v>
+        <v>42247</v>
       </c>
       <c r="I546" s="223">
         <v>1</v>
       </c>
       <c r="J546" s="224">
-        <v>573.86</v>
-      </c>
-      <c r="K546" s="226">
-        <v>1631</v>
+        <v>482.95</v>
+      </c>
+      <c r="K546" s="225">
+        <v>1521</v>
       </c>
       <c r="L546" s="187"/>
       <c r="M546" s="187"/>
@@ -17224,16 +17285,16 @@
       <c r="F547" s="140"/>
       <c r="G547" s="140"/>
       <c r="H547" s="194">
-        <v>42212</v>
+        <v>42240</v>
       </c>
       <c r="I547" s="223">
         <v>1</v>
       </c>
       <c r="J547" s="224">
-        <v>586.26</v>
-      </c>
-      <c r="K547" s="226">
-        <v>1646</v>
+        <v>513.53</v>
+      </c>
+      <c r="K547" s="225">
+        <v>1558</v>
       </c>
       <c r="L547" s="187"/>
       <c r="M547" s="187"/>
@@ -17256,16 +17317,16 @@
       <c r="F548" s="140"/>
       <c r="G548" s="140"/>
       <c r="H548" s="194">
-        <v>42205</v>
+        <v>42233</v>
       </c>
       <c r="I548" s="223">
         <v>1</v>
       </c>
       <c r="J548" s="224">
-        <v>599.48</v>
-      </c>
-      <c r="K548" s="226">
-        <v>1662</v>
+        <v>542.46</v>
+      </c>
+      <c r="K548" s="225">
+        <v>1593</v>
       </c>
       <c r="L548" s="187"/>
       <c r="M548" s="187"/>
@@ -17288,16 +17349,16 @@
       <c r="F549" s="140"/>
       <c r="G549" s="140"/>
       <c r="H549" s="194">
-        <v>42198</v>
+        <v>42226</v>
       </c>
       <c r="I549" s="223">
         <v>1</v>
       </c>
       <c r="J549" s="224">
-        <v>617.66999999999996</v>
-      </c>
-      <c r="K549" s="226">
-        <v>1684</v>
+        <v>562.29</v>
+      </c>
+      <c r="K549" s="225">
+        <v>1617</v>
       </c>
       <c r="L549" s="187"/>
       <c r="M549" s="187"/>
@@ -17320,16 +17381,16 @@
       <c r="F550" s="140"/>
       <c r="G550" s="140"/>
       <c r="H550" s="194">
-        <v>42191</v>
+        <v>42219</v>
       </c>
       <c r="I550" s="223">
         <v>1</v>
       </c>
       <c r="J550" s="224">
-        <v>601.14</v>
-      </c>
-      <c r="K550" s="226">
-        <v>1664</v>
+        <v>573.86</v>
+      </c>
+      <c r="K550" s="225">
+        <v>1631</v>
       </c>
       <c r="L550" s="187"/>
       <c r="M550" s="187"/>
@@ -17343,6 +17404,62 @@
       <c r="U550" s="187"/>
       <c r="V550" s="187"/>
     </row>
+    <row r="551" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H551" s="194">
+        <v>42212</v>
+      </c>
+      <c r="I551" s="223">
+        <v>1</v>
+      </c>
+      <c r="J551" s="224">
+        <v>586.26</v>
+      </c>
+      <c r="K551" s="225">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="552" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H552" s="194">
+        <v>42205</v>
+      </c>
+      <c r="I552" s="223">
+        <v>1</v>
+      </c>
+      <c r="J552" s="224">
+        <v>599.48</v>
+      </c>
+      <c r="K552" s="225">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="553" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H553" s="194">
+        <v>42198</v>
+      </c>
+      <c r="I553" s="223">
+        <v>1</v>
+      </c>
+      <c r="J553" s="224">
+        <v>617.66999999999996</v>
+      </c>
+      <c r="K553" s="225">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="554" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H554" s="194">
+        <v>42191</v>
+      </c>
+      <c r="I554" s="223">
+        <v>1</v>
+      </c>
+      <c r="J554" s="224">
+        <v>601.14</v>
+      </c>
+      <c r="K554" s="225">
+        <v>1664</v>
+      </c>
+    </row>
     <row r="555" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="556" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B556" s="130"/>
@@ -17357,10 +17474,10 @@
         <v>32</v>
       </c>
       <c r="G556" s="130"/>
-      <c r="H556" s="130"/>
-      <c r="I556" s="130"/>
-      <c r="J556" s="130"/>
-      <c r="K556" s="130"/>
+      <c r="H556" s="126"/>
+      <c r="I556" s="126"/>
+      <c r="J556" s="126"/>
+      <c r="K556" s="126"/>
       <c r="L556" s="130"/>
       <c r="M556" s="130"/>
       <c r="N556" s="130"/>
@@ -17379,10 +17496,10 @@
       <c r="E557" s="140"/>
       <c r="F557" s="140"/>
       <c r="G557" s="140"/>
-      <c r="H557" s="140"/>
-      <c r="I557" s="140"/>
-      <c r="J557" s="140"/>
-      <c r="K557" s="140"/>
+      <c r="H557" s="126"/>
+      <c r="I557" s="126"/>
+      <c r="J557" s="126"/>
+      <c r="K557" s="126"/>
       <c r="L557" s="140"/>
       <c r="M557" s="140"/>
       <c r="N557" s="140"/>
@@ -17407,10 +17524,10 @@
       <c r="E558" s="140"/>
       <c r="F558" s="140"/>
       <c r="G558" s="140"/>
-      <c r="H558" s="140"/>
-      <c r="I558" s="140"/>
-      <c r="J558" s="140"/>
-      <c r="K558" s="140"/>
+      <c r="H558" s="126"/>
+      <c r="I558" s="126"/>
+      <c r="J558" s="126"/>
+      <c r="K558" s="126"/>
       <c r="L558" s="140"/>
       <c r="M558" s="140"/>
       <c r="N558" s="140"/>
@@ -17426,13 +17543,17 @@
       <c r="X558" s="140"/>
       <c r="Y558" s="140"/>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B559" s="127"/>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B560" s="127"/>
-    </row>
-    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H560" s="130"/>
+      <c r="I560" s="130"/>
+      <c r="J560" s="130"/>
+      <c r="K560" s="130"/>
+    </row>
+    <row r="561" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B561" s="127"/>
       <c r="D561" s="184" t="s">
         <v>146</v>
@@ -17443,8 +17564,12 @@
       <c r="G561" s="184" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H561" s="140"/>
+      <c r="I561" s="140"/>
+      <c r="J561" s="140"/>
+      <c r="K561" s="140"/>
+    </row>
+    <row r="562" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B562" s="127"/>
       <c r="D562" s="199" t="s">
         <v>175</v>
@@ -17452,11 +17577,15 @@
       <c r="G562" s="184" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H562" s="140"/>
+      <c r="I562" s="140"/>
+      <c r="J562" s="140"/>
+      <c r="K562" s="140"/>
+    </row>
+    <row r="563" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B563" s="127"/>
     </row>
-    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B564" s="127"/>
       <c r="F564" s="126">
         <v>0.6</v>
@@ -17464,40 +17593,31 @@
       <c r="G564" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="H564" s="199" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B565" s="127"/>
       <c r="F565" s="200">
         <f>F525</f>
-        <v>1.4272</v>
+        <v>1.5722</v>
       </c>
       <c r="G565" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="H565" s="199" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B566" s="127"/>
       <c r="F566" s="200">
         <f>F564+F565</f>
-        <v>2.0272000000000001</v>
+        <v>2.1722000000000001</v>
       </c>
       <c r="G566" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="H566" s="199" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B567" s="127"/>
     </row>
-    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B568" s="127"/>
       <c r="F568" s="126">
         <f>F529</f>
@@ -17507,10 +17627,10 @@
         <v>158</v>
       </c>
       <c r="H568" s="199" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="569" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B569" s="127"/>
       <c r="F569" s="200">
         <f>F530</f>
@@ -17520,10 +17640,10 @@
         <v>158</v>
       </c>
       <c r="H569" s="199" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="570" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B570" s="127"/>
       <c r="F570" s="126">
         <f>F528</f>
@@ -17533,94 +17653,103 @@
         <v>168</v>
       </c>
       <c r="H570" s="199" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="571" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B571" s="127"/>
     </row>
-    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B572" s="127"/>
       <c r="G572" s="199"/>
-      <c r="H572" s="199"/>
-    </row>
-    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H572" s="199" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="573" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B573" s="127"/>
       <c r="G573" s="199"/>
-      <c r="H573" s="199"/>
-    </row>
-    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H573" s="199" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="574" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B574" s="127"/>
-    </row>
-    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H574" s="199" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="575" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B575" s="127"/>
       <c r="F575" s="201">
         <f>F566/1.21-F569-F568</f>
-        <v>0.90130190082644646</v>
+        <v>1.021136611570248</v>
       </c>
       <c r="G575" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="H575" s="199" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B576" s="127"/>
       <c r="F576" s="213">
         <f>F575/F24</f>
-        <v>3.9332535344938857E-2</v>
+        <v>4.4562084945976153E-2</v>
       </c>
       <c r="G576" s="199" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H576" s="199"/>
+    </row>
+    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B577" s="127"/>
-    </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H577" s="199"/>
+    </row>
+    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B578" s="127"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B579" s="127"/>
-    </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="H579" s="199" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B580" s="127"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B581" s="127"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B582" s="127"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B583" s="127"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B584" s="127"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B585" s="127"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B586" s="127"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B587" s="127"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B588" s="127"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B589" s="127"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B590" s="127"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B591" s="127"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B592" s="127"/>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.2">
@@ -17687,7 +17816,7 @@
       <c r="B613" s="127"/>
     </row>
     <row r="614" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B614" s="234"/>
+      <c r="B614" s="233"/>
       <c r="C614" s="186" t="s">
         <v>25</v>
       </c>
@@ -17699,10 +17828,6 @@
         <v>32</v>
       </c>
       <c r="G614" s="186"/>
-      <c r="H614" s="186"/>
-      <c r="I614" s="186"/>
-      <c r="J614" s="186"/>
-      <c r="K614" s="186"/>
       <c r="L614" s="186"/>
       <c r="M614" s="186"/>
       <c r="N614" s="186"/>
@@ -17725,10 +17850,6 @@
       <c r="E615" s="178"/>
       <c r="F615" s="178"/>
       <c r="G615" s="178"/>
-      <c r="H615" s="178"/>
-      <c r="I615" s="178"/>
-      <c r="J615" s="178"/>
-      <c r="K615" s="178"/>
       <c r="L615" s="178"/>
       <c r="M615" s="178"/>
       <c r="N615" s="178"/>
@@ -17746,17 +17867,13 @@
     </row>
     <row r="616" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B616" s="188"/>
-      <c r="C616" s="235" t="s">
+      <c r="C616" s="234" t="s">
         <v>207</v>
       </c>
-      <c r="D616" s="236"/>
-      <c r="E616" s="236"/>
-      <c r="F616" s="236"/>
-      <c r="G616" s="236"/>
-      <c r="H616" s="236"/>
-      <c r="I616" s="236"/>
-      <c r="J616" s="140"/>
-      <c r="K616" s="140"/>
+      <c r="D616" s="235"/>
+      <c r="E616" s="235"/>
+      <c r="F616" s="235"/>
+      <c r="G616" s="235"/>
       <c r="L616" s="140"/>
       <c r="M616" s="140"/>
       <c r="N616" s="140"/>
@@ -17772,17 +17889,13 @@
       <c r="X616" s="140"/>
       <c r="Y616" s="140"/>
     </row>
-    <row r="617" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B617" s="188"/>
-      <c r="C617" s="236"/>
-      <c r="D617" s="236"/>
-      <c r="E617" s="236"/>
-      <c r="F617" s="236"/>
-      <c r="G617" s="236"/>
-      <c r="H617" s="236"/>
-      <c r="I617" s="236"/>
-      <c r="J617" s="140"/>
-      <c r="K617" s="140"/>
+      <c r="C617" s="235"/>
+      <c r="D617" s="235"/>
+      <c r="E617" s="235"/>
+      <c r="F617" s="235"/>
+      <c r="G617" s="235"/>
       <c r="L617" s="140"/>
       <c r="M617" s="140"/>
       <c r="N617" s="140"/>
@@ -17800,15 +17913,15 @@
     </row>
     <row r="618" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B618" s="188"/>
-      <c r="C618" s="236"/>
-      <c r="D618" s="242"/>
-      <c r="E618" s="242"/>
-      <c r="F618" s="242"/>
-      <c r="G618" s="242"/>
-      <c r="H618" s="242"/>
-      <c r="I618" s="242"/>
-      <c r="J618" s="245"/>
-      <c r="K618" s="140"/>
+      <c r="C618" s="235"/>
+      <c r="D618" s="241"/>
+      <c r="E618" s="241"/>
+      <c r="F618" s="241"/>
+      <c r="G618" s="241"/>
+      <c r="H618" s="186"/>
+      <c r="I618" s="186"/>
+      <c r="J618" s="186"/>
+      <c r="K618" s="186"/>
       <c r="L618" s="140"/>
       <c r="M618" s="140"/>
       <c r="N618" s="140"/>
@@ -17826,15 +17939,15 @@
     </row>
     <row r="619" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B619" s="188"/>
-      <c r="C619" s="236"/>
-      <c r="D619" s="242"/>
-      <c r="E619" s="242"/>
-      <c r="F619" s="242"/>
-      <c r="G619" s="242"/>
-      <c r="H619" s="242"/>
-      <c r="I619" s="242"/>
-      <c r="J619" s="245"/>
-      <c r="K619" s="140"/>
+      <c r="C619" s="235"/>
+      <c r="D619" s="241"/>
+      <c r="E619" s="241"/>
+      <c r="F619" s="241"/>
+      <c r="G619" s="241"/>
+      <c r="H619" s="178"/>
+      <c r="I619" s="178"/>
+      <c r="J619" s="178"/>
+      <c r="K619" s="178"/>
       <c r="L619" s="140"/>
       <c r="M619" s="140"/>
       <c r="N619" s="140"/>
@@ -17852,18 +17965,18 @@
     </row>
     <row r="620" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B620" s="188"/>
-      <c r="C620" s="236"/>
-      <c r="D620" s="242">
+      <c r="C620" s="235"/>
+      <c r="D620" s="241">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E620" s="242"/>
-      <c r="F620" s="242"/>
-      <c r="G620" s="242" t="s">
+      <c r="E620" s="241"/>
+      <c r="F620" s="241"/>
+      <c r="G620" s="241" t="s">
         <v>210</v>
       </c>
-      <c r="H620" s="242"/>
-      <c r="I620" s="242"/>
-      <c r="J620" s="245"/>
+      <c r="H620" s="235"/>
+      <c r="I620" s="235"/>
+      <c r="J620" s="140"/>
       <c r="K620" s="140"/>
       <c r="L620" s="140"/>
       <c r="M620" s="140"/>
@@ -17882,14 +17995,14 @@
     </row>
     <row r="621" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B621" s="188"/>
-      <c r="C621" s="236"/>
-      <c r="D621" s="241"/>
-      <c r="E621" s="241"/>
-      <c r="F621" s="241"/>
-      <c r="G621" s="241"/>
-      <c r="H621" s="241"/>
-      <c r="I621" s="241"/>
-      <c r="J621" s="245"/>
+      <c r="C621" s="235"/>
+      <c r="D621" s="240"/>
+      <c r="E621" s="240"/>
+      <c r="F621" s="240"/>
+      <c r="G621" s="240"/>
+      <c r="H621" s="235"/>
+      <c r="I621" s="235"/>
+      <c r="J621" s="140"/>
       <c r="K621" s="140"/>
       <c r="L621" s="140"/>
       <c r="M621" s="140"/>
@@ -17908,14 +18021,14 @@
     </row>
     <row r="622" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B622" s="188"/>
-      <c r="C622" s="236"/>
-      <c r="D622" s="241"/>
-      <c r="E622" s="241"/>
-      <c r="F622" s="241"/>
-      <c r="G622" s="241"/>
+      <c r="C622" s="235"/>
+      <c r="D622" s="240"/>
+      <c r="E622" s="240"/>
+      <c r="F622" s="240"/>
+      <c r="G622" s="240"/>
       <c r="H622" s="241"/>
       <c r="I622" s="241"/>
-      <c r="J622" s="245"/>
+      <c r="J622" s="244"/>
       <c r="K622" s="140"/>
       <c r="L622" s="140"/>
       <c r="M622" s="140"/>
@@ -17934,14 +18047,14 @@
     </row>
     <row r="623" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B623" s="188"/>
-      <c r="C623" s="236"/>
-      <c r="D623" s="241"/>
-      <c r="E623" s="241"/>
-      <c r="F623" s="241"/>
-      <c r="G623" s="241"/>
+      <c r="C623" s="235"/>
+      <c r="D623" s="240"/>
+      <c r="E623" s="240"/>
+      <c r="F623" s="240"/>
+      <c r="G623" s="240"/>
       <c r="H623" s="241"/>
       <c r="I623" s="241"/>
-      <c r="J623" s="245"/>
+      <c r="J623" s="244"/>
       <c r="K623" s="140"/>
       <c r="L623" s="140"/>
       <c r="M623" s="140"/>
@@ -17961,13 +18074,13 @@
     <row r="624" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B624" s="188"/>
       <c r="C624" s="140"/>
-      <c r="D624" s="245"/>
-      <c r="E624" s="245"/>
-      <c r="F624" s="245"/>
-      <c r="G624" s="245"/>
-      <c r="H624" s="245"/>
-      <c r="I624" s="245"/>
-      <c r="J624" s="245"/>
+      <c r="D624" s="244"/>
+      <c r="E624" s="244"/>
+      <c r="F624" s="244"/>
+      <c r="G624" s="244"/>
+      <c r="H624" s="241"/>
+      <c r="I624" s="241"/>
+      <c r="J624" s="244"/>
       <c r="K624" s="140"/>
       <c r="L624" s="140"/>
       <c r="M624" s="140"/>
@@ -17987,13 +18100,13 @@
     <row r="625" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B625" s="188"/>
       <c r="C625" s="140"/>
-      <c r="D625" s="245"/>
-      <c r="E625" s="245"/>
-      <c r="F625" s="245"/>
-      <c r="G625" s="245"/>
-      <c r="H625" s="245"/>
-      <c r="I625" s="245"/>
-      <c r="J625" s="245"/>
+      <c r="D625" s="244"/>
+      <c r="E625" s="244"/>
+      <c r="F625" s="244"/>
+      <c r="G625" s="244"/>
+      <c r="H625" s="240"/>
+      <c r="I625" s="240"/>
+      <c r="J625" s="244"/>
       <c r="K625" s="140"/>
       <c r="L625" s="140"/>
       <c r="M625" s="140"/>
@@ -18013,13 +18126,13 @@
     <row r="626" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B626" s="188"/>
       <c r="C626" s="140"/>
-      <c r="D626" s="245"/>
-      <c r="E626" s="245"/>
-      <c r="F626" s="245"/>
-      <c r="G626" s="245"/>
-      <c r="H626" s="245"/>
-      <c r="I626" s="245"/>
-      <c r="J626" s="245"/>
+      <c r="D626" s="244"/>
+      <c r="E626" s="244"/>
+      <c r="F626" s="244"/>
+      <c r="G626" s="244"/>
+      <c r="H626" s="240"/>
+      <c r="I626" s="240"/>
+      <c r="J626" s="244"/>
       <c r="K626" s="140"/>
       <c r="L626" s="140"/>
       <c r="M626" s="140"/>
@@ -18039,13 +18152,13 @@
     <row r="627" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B627" s="188"/>
       <c r="C627" s="140"/>
-      <c r="D627" s="245"/>
-      <c r="E627" s="245"/>
-      <c r="F627" s="245"/>
-      <c r="G627" s="245"/>
-      <c r="H627" s="245"/>
-      <c r="I627" s="245"/>
-      <c r="J627" s="245"/>
+      <c r="D627" s="244"/>
+      <c r="E627" s="244"/>
+      <c r="F627" s="244"/>
+      <c r="G627" s="244"/>
+      <c r="H627" s="240"/>
+      <c r="I627" s="240"/>
+      <c r="J627" s="244"/>
       <c r="K627" s="140"/>
       <c r="L627" s="140"/>
       <c r="M627" s="140"/>
@@ -18065,13 +18178,13 @@
     <row r="628" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B628" s="188"/>
       <c r="C628" s="140"/>
-      <c r="D628" s="245"/>
-      <c r="E628" s="245"/>
-      <c r="F628" s="245"/>
-      <c r="G628" s="245"/>
-      <c r="H628" s="245"/>
-      <c r="I628" s="245"/>
-      <c r="J628" s="245"/>
+      <c r="D628" s="244"/>
+      <c r="E628" s="244"/>
+      <c r="F628" s="244"/>
+      <c r="G628" s="244"/>
+      <c r="H628" s="244"/>
+      <c r="I628" s="244"/>
+      <c r="J628" s="244"/>
       <c r="K628" s="140"/>
       <c r="L628" s="140"/>
       <c r="M628" s="140"/>
@@ -18095,9 +18208,9 @@
       <c r="E629" s="140"/>
       <c r="F629" s="140"/>
       <c r="G629" s="140"/>
-      <c r="H629" s="140"/>
-      <c r="I629" s="140"/>
-      <c r="J629" s="140"/>
+      <c r="H629" s="244"/>
+      <c r="I629" s="244"/>
+      <c r="J629" s="244"/>
       <c r="K629" s="140"/>
       <c r="L629" s="140"/>
       <c r="M629" s="140"/>
@@ -18121,9 +18234,9 @@
       <c r="E630" s="140"/>
       <c r="F630" s="140"/>
       <c r="G630" s="140"/>
-      <c r="H630" s="140"/>
-      <c r="I630" s="140"/>
-      <c r="J630" s="140"/>
+      <c r="H630" s="244"/>
+      <c r="I630" s="244"/>
+      <c r="J630" s="244"/>
       <c r="K630" s="140"/>
       <c r="L630" s="140"/>
       <c r="M630" s="140"/>
@@ -18147,9 +18260,9 @@
       <c r="E631" s="140"/>
       <c r="F631" s="140"/>
       <c r="G631" s="140"/>
-      <c r="H631" s="140"/>
-      <c r="I631" s="140"/>
-      <c r="J631" s="140"/>
+      <c r="H631" s="244"/>
+      <c r="I631" s="244"/>
+      <c r="J631" s="244"/>
       <c r="K631" s="140"/>
       <c r="L631" s="140"/>
       <c r="M631" s="140"/>
@@ -18173,9 +18286,9 @@
       <c r="E632" s="140"/>
       <c r="F632" s="140"/>
       <c r="G632" s="140"/>
-      <c r="H632" s="140"/>
-      <c r="I632" s="140"/>
-      <c r="J632" s="140"/>
+      <c r="H632" s="244"/>
+      <c r="I632" s="244"/>
+      <c r="J632" s="244"/>
       <c r="K632" s="140"/>
       <c r="L632" s="140"/>
       <c r="M632" s="140"/>
@@ -18407,10 +18520,10 @@
       <c r="E641" s="187"/>
       <c r="F641" s="187"/>
       <c r="G641" s="187"/>
-      <c r="H641" s="187"/>
-      <c r="I641" s="187"/>
-      <c r="J641" s="187"/>
-      <c r="K641" s="187"/>
+      <c r="H641" s="140"/>
+      <c r="I641" s="140"/>
+      <c r="J641" s="140"/>
+      <c r="K641" s="140"/>
       <c r="L641" s="187"/>
       <c r="M641" s="187"/>
       <c r="N641" s="187"/>
@@ -18433,10 +18546,10 @@
       <c r="E642" s="187"/>
       <c r="F642" s="187"/>
       <c r="G642" s="187"/>
-      <c r="H642" s="187"/>
-      <c r="I642" s="187"/>
-      <c r="J642" s="187"/>
-      <c r="K642" s="187"/>
+      <c r="H642" s="140"/>
+      <c r="I642" s="140"/>
+      <c r="J642" s="140"/>
+      <c r="K642" s="140"/>
       <c r="L642" s="187"/>
       <c r="M642" s="187"/>
       <c r="N642" s="187"/>
@@ -18459,10 +18572,10 @@
       <c r="E643" s="187"/>
       <c r="F643" s="187"/>
       <c r="G643" s="187"/>
-      <c r="H643" s="187"/>
-      <c r="I643" s="187"/>
-      <c r="J643" s="187"/>
-      <c r="K643" s="187"/>
+      <c r="H643" s="140"/>
+      <c r="I643" s="140"/>
+      <c r="J643" s="140"/>
+      <c r="K643" s="140"/>
       <c r="L643" s="187"/>
       <c r="M643" s="187"/>
       <c r="N643" s="187"/>
@@ -18485,10 +18598,10 @@
       <c r="E644" s="187"/>
       <c r="F644" s="187"/>
       <c r="G644" s="187"/>
-      <c r="H644" s="187"/>
-      <c r="I644" s="187"/>
-      <c r="J644" s="187"/>
-      <c r="K644" s="187"/>
+      <c r="H644" s="140"/>
+      <c r="I644" s="140"/>
+      <c r="J644" s="140"/>
+      <c r="K644" s="140"/>
       <c r="L644" s="187"/>
       <c r="M644" s="187"/>
       <c r="N644" s="187"/>
@@ -18713,21 +18826,21 @@
       <c r="Y652" s="187"/>
     </row>
     <row r="653" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B653" s="239"/>
-      <c r="C653" s="240"/>
-      <c r="D653" s="240"/>
-      <c r="E653" s="240"/>
-      <c r="F653" s="240"/>
-      <c r="G653" s="240"/>
-      <c r="H653" s="240"/>
-      <c r="I653" s="240"/>
-      <c r="J653" s="240"/>
-      <c r="K653" s="240"/>
-      <c r="L653" s="240"/>
-      <c r="M653" s="240"/>
-      <c r="N653" s="240"/>
-      <c r="O653" s="240"/>
-      <c r="P653" s="240"/>
+      <c r="B653" s="238"/>
+      <c r="C653" s="239"/>
+      <c r="D653" s="239"/>
+      <c r="E653" s="239"/>
+      <c r="F653" s="239"/>
+      <c r="G653" s="239"/>
+      <c r="H653" s="187"/>
+      <c r="I653" s="187"/>
+      <c r="J653" s="187"/>
+      <c r="K653" s="187"/>
+      <c r="L653" s="239"/>
+      <c r="M653" s="239"/>
+      <c r="N653" s="239"/>
+      <c r="O653" s="239"/>
+      <c r="P653" s="239"/>
       <c r="Q653" s="187"/>
       <c r="R653" s="187"/>
       <c r="S653" s="187"/>
@@ -18739,21 +18852,21 @@
       <c r="Y653" s="187"/>
     </row>
     <row r="654" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B654" s="239"/>
-      <c r="C654" s="240"/>
-      <c r="D654" s="240"/>
-      <c r="E654" s="240"/>
-      <c r="F654" s="240"/>
-      <c r="G654" s="240"/>
-      <c r="H654" s="240"/>
-      <c r="I654" s="240"/>
-      <c r="J654" s="240"/>
-      <c r="K654" s="240"/>
-      <c r="L654" s="240"/>
-      <c r="M654" s="240"/>
-      <c r="N654" s="240"/>
-      <c r="O654" s="240"/>
-      <c r="P654" s="240"/>
+      <c r="B654" s="238"/>
+      <c r="C654" s="239"/>
+      <c r="D654" s="239"/>
+      <c r="E654" s="239"/>
+      <c r="F654" s="239"/>
+      <c r="G654" s="239"/>
+      <c r="H654" s="187"/>
+      <c r="I654" s="187"/>
+      <c r="J654" s="187"/>
+      <c r="K654" s="187"/>
+      <c r="L654" s="239"/>
+      <c r="M654" s="239"/>
+      <c r="N654" s="239"/>
+      <c r="O654" s="239"/>
+      <c r="P654" s="239"/>
       <c r="Q654" s="187"/>
       <c r="R654" s="187"/>
       <c r="S654" s="187"/>
@@ -18765,21 +18878,21 @@
       <c r="Y654" s="187"/>
     </row>
     <row r="655" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B655" s="239"/>
-      <c r="C655" s="240"/>
-      <c r="D655" s="240"/>
-      <c r="E655" s="240"/>
-      <c r="F655" s="240"/>
-      <c r="G655" s="240"/>
-      <c r="H655" s="240"/>
-      <c r="I655" s="240"/>
-      <c r="J655" s="240"/>
-      <c r="K655" s="240"/>
-      <c r="L655" s="240"/>
-      <c r="M655" s="240"/>
-      <c r="N655" s="240"/>
-      <c r="O655" s="240"/>
-      <c r="P655" s="240"/>
+      <c r="B655" s="238"/>
+      <c r="C655" s="239"/>
+      <c r="D655" s="239"/>
+      <c r="E655" s="239"/>
+      <c r="F655" s="239"/>
+      <c r="G655" s="239"/>
+      <c r="H655" s="187"/>
+      <c r="I655" s="187"/>
+      <c r="J655" s="187"/>
+      <c r="K655" s="187"/>
+      <c r="L655" s="239"/>
+      <c r="M655" s="239"/>
+      <c r="N655" s="239"/>
+      <c r="O655" s="239"/>
+      <c r="P655" s="239"/>
       <c r="Q655" s="187"/>
       <c r="R655" s="187"/>
       <c r="S655" s="187"/>
@@ -18791,21 +18904,21 @@
       <c r="Y655" s="187"/>
     </row>
     <row r="656" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B656" s="239"/>
-      <c r="C656" s="240"/>
-      <c r="D656" s="240"/>
-      <c r="E656" s="240"/>
-      <c r="F656" s="240"/>
-      <c r="G656" s="240"/>
-      <c r="H656" s="240"/>
-      <c r="I656" s="240"/>
-      <c r="J656" s="240"/>
-      <c r="K656" s="240"/>
-      <c r="L656" s="240"/>
-      <c r="M656" s="240"/>
-      <c r="N656" s="240"/>
-      <c r="O656" s="240"/>
-      <c r="P656" s="240"/>
+      <c r="B656" s="238"/>
+      <c r="C656" s="239"/>
+      <c r="D656" s="239"/>
+      <c r="E656" s="239"/>
+      <c r="F656" s="239"/>
+      <c r="G656" s="239"/>
+      <c r="H656" s="187"/>
+      <c r="I656" s="187"/>
+      <c r="J656" s="187"/>
+      <c r="K656" s="187"/>
+      <c r="L656" s="239"/>
+      <c r="M656" s="239"/>
+      <c r="N656" s="239"/>
+      <c r="O656" s="239"/>
+      <c r="P656" s="239"/>
       <c r="Q656" s="187"/>
       <c r="R656" s="187"/>
       <c r="S656" s="187"/>
@@ -18817,21 +18930,21 @@
       <c r="Y656" s="187"/>
     </row>
     <row r="657" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B657" s="239"/>
-      <c r="C657" s="240"/>
-      <c r="D657" s="240"/>
-      <c r="E657" s="241"/>
-      <c r="F657" s="241"/>
-      <c r="G657" s="241"/>
-      <c r="H657" s="241"/>
-      <c r="I657" s="241"/>
-      <c r="J657" s="242"/>
-      <c r="K657" s="240"/>
-      <c r="L657" s="240"/>
-      <c r="M657" s="240"/>
-      <c r="N657" s="240"/>
-      <c r="O657" s="240"/>
-      <c r="P657" s="240"/>
+      <c r="B657" s="238"/>
+      <c r="C657" s="239"/>
+      <c r="D657" s="239"/>
+      <c r="E657" s="240"/>
+      <c r="F657" s="240"/>
+      <c r="G657" s="240"/>
+      <c r="H657" s="239"/>
+      <c r="I657" s="239"/>
+      <c r="J657" s="239"/>
+      <c r="K657" s="239"/>
+      <c r="L657" s="239"/>
+      <c r="M657" s="239"/>
+      <c r="N657" s="239"/>
+      <c r="O657" s="239"/>
+      <c r="P657" s="239"/>
       <c r="Q657" s="187"/>
       <c r="R657" s="187"/>
       <c r="S657" s="187"/>
@@ -18843,21 +18956,21 @@
       <c r="Y657" s="187"/>
     </row>
     <row r="658" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B658" s="239"/>
-      <c r="C658" s="240"/>
-      <c r="D658" s="240"/>
-      <c r="E658" s="241"/>
-      <c r="F658" s="241"/>
-      <c r="G658" s="241"/>
-      <c r="H658" s="241"/>
-      <c r="I658" s="241"/>
-      <c r="J658" s="242"/>
-      <c r="K658" s="240"/>
-      <c r="L658" s="240"/>
-      <c r="M658" s="240"/>
-      <c r="N658" s="240"/>
-      <c r="O658" s="240"/>
-      <c r="P658" s="240"/>
+      <c r="B658" s="238"/>
+      <c r="C658" s="239"/>
+      <c r="D658" s="239"/>
+      <c r="E658" s="240"/>
+      <c r="F658" s="240"/>
+      <c r="G658" s="240"/>
+      <c r="H658" s="239"/>
+      <c r="I658" s="239"/>
+      <c r="J658" s="239"/>
+      <c r="K658" s="239"/>
+      <c r="L658" s="239"/>
+      <c r="M658" s="239"/>
+      <c r="N658" s="239"/>
+      <c r="O658" s="239"/>
+      <c r="P658" s="239"/>
       <c r="Q658" s="187"/>
       <c r="R658" s="187"/>
       <c r="S658" s="187"/>
@@ -18869,21 +18982,21 @@
       <c r="Y658" s="187"/>
     </row>
     <row r="659" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B659" s="239"/>
-      <c r="C659" s="240"/>
-      <c r="D659" s="240"/>
-      <c r="E659" s="241"/>
-      <c r="F659" s="241"/>
-      <c r="G659" s="241"/>
-      <c r="H659" s="241"/>
-      <c r="I659" s="241"/>
-      <c r="J659" s="242"/>
-      <c r="K659" s="240"/>
-      <c r="L659" s="240"/>
-      <c r="M659" s="240"/>
-      <c r="N659" s="240"/>
-      <c r="O659" s="240"/>
-      <c r="P659" s="240"/>
+      <c r="B659" s="238"/>
+      <c r="C659" s="239"/>
+      <c r="D659" s="239"/>
+      <c r="E659" s="240"/>
+      <c r="F659" s="240"/>
+      <c r="G659" s="240"/>
+      <c r="H659" s="239"/>
+      <c r="I659" s="239"/>
+      <c r="J659" s="239"/>
+      <c r="K659" s="239"/>
+      <c r="L659" s="239"/>
+      <c r="M659" s="239"/>
+      <c r="N659" s="239"/>
+      <c r="O659" s="239"/>
+      <c r="P659" s="239"/>
       <c r="Q659" s="187"/>
       <c r="R659" s="187"/>
       <c r="S659" s="187"/>
@@ -18895,21 +19008,21 @@
       <c r="Y659" s="187"/>
     </row>
     <row r="660" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B660" s="239"/>
-      <c r="C660" s="240"/>
-      <c r="D660" s="240"/>
-      <c r="E660" s="240"/>
-      <c r="F660" s="240"/>
-      <c r="G660" s="240"/>
-      <c r="H660" s="240"/>
-      <c r="I660" s="240"/>
-      <c r="J660" s="240"/>
-      <c r="K660" s="240"/>
-      <c r="L660" s="240"/>
-      <c r="M660" s="240"/>
-      <c r="N660" s="240"/>
-      <c r="O660" s="240"/>
-      <c r="P660" s="240"/>
+      <c r="B660" s="238"/>
+      <c r="C660" s="239"/>
+      <c r="D660" s="239"/>
+      <c r="E660" s="239"/>
+      <c r="F660" s="239"/>
+      <c r="G660" s="239"/>
+      <c r="H660" s="239"/>
+      <c r="I660" s="239"/>
+      <c r="J660" s="239"/>
+      <c r="K660" s="239"/>
+      <c r="L660" s="239"/>
+      <c r="M660" s="239"/>
+      <c r="N660" s="239"/>
+      <c r="O660" s="239"/>
+      <c r="P660" s="239"/>
       <c r="Q660" s="187"/>
       <c r="R660" s="187"/>
       <c r="S660" s="187"/>
@@ -18921,396 +19034,420 @@
       <c r="Y660" s="187"/>
     </row>
     <row r="661" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B661" s="241"/>
-      <c r="C661" s="241"/>
-      <c r="D661" s="241"/>
-      <c r="E661" s="241"/>
-      <c r="F661" s="241"/>
-      <c r="G661" s="241"/>
-      <c r="H661" s="241"/>
-      <c r="I661" s="241"/>
+      <c r="B661" s="240"/>
+      <c r="C661" s="240"/>
+      <c r="D661" s="240"/>
+      <c r="E661" s="240"/>
+      <c r="F661" s="240"/>
+      <c r="G661" s="240"/>
+      <c r="H661" s="240"/>
+      <c r="I661" s="240"/>
       <c r="J661" s="241"/>
-      <c r="K661" s="241"/>
-      <c r="L661" s="241"/>
-      <c r="M661" s="241"/>
-      <c r="N661" s="241"/>
-      <c r="O661" s="241"/>
-      <c r="P661" s="241"/>
+      <c r="K661" s="239"/>
+      <c r="L661" s="240"/>
+      <c r="M661" s="240"/>
+      <c r="N661" s="240"/>
+      <c r="O661" s="240"/>
+      <c r="P661" s="240"/>
     </row>
     <row r="662" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B662" s="241"/>
-      <c r="C662" s="241"/>
-      <c r="D662" s="241"/>
-      <c r="E662" s="241"/>
-      <c r="F662" s="241"/>
-      <c r="G662" s="241"/>
-      <c r="H662" s="241"/>
-      <c r="I662" s="241"/>
+      <c r="B662" s="240"/>
+      <c r="C662" s="240"/>
+      <c r="D662" s="240"/>
+      <c r="E662" s="240"/>
+      <c r="F662" s="240"/>
+      <c r="G662" s="240"/>
+      <c r="H662" s="240"/>
+      <c r="I662" s="240"/>
       <c r="J662" s="241"/>
-      <c r="K662" s="241"/>
-      <c r="L662" s="241"/>
-      <c r="M662" s="241"/>
-      <c r="N662" s="241"/>
-      <c r="O662" s="241"/>
-      <c r="P662" s="241"/>
+      <c r="K662" s="239"/>
+      <c r="L662" s="240"/>
+      <c r="M662" s="240"/>
+      <c r="N662" s="240"/>
+      <c r="O662" s="240"/>
+      <c r="P662" s="240"/>
     </row>
     <row r="663" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B663" s="241"/>
-      <c r="C663" s="241"/>
-      <c r="D663" s="241"/>
-      <c r="E663" s="242">
+      <c r="B663" s="240"/>
+      <c r="C663" s="240"/>
+      <c r="D663" s="240"/>
+      <c r="E663" s="241">
         <v>1.23</v>
       </c>
-      <c r="F663" s="243"/>
-      <c r="G663" s="242"/>
-      <c r="H663" s="242">
+      <c r="F663" s="242"/>
+      <c r="G663" s="241"/>
+      <c r="H663" s="240"/>
+      <c r="I663" s="240"/>
+      <c r="J663" s="241"/>
+      <c r="K663" s="239"/>
+      <c r="L663" s="240"/>
+      <c r="M663" s="240"/>
+      <c r="N663" s="240"/>
+      <c r="O663" s="240"/>
+      <c r="P663" s="240"/>
+    </row>
+    <row r="664" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B664" s="240"/>
+      <c r="C664" s="240"/>
+      <c r="D664" s="240"/>
+      <c r="E664" s="241"/>
+      <c r="F664" s="242"/>
+      <c r="G664" s="241"/>
+      <c r="H664" s="239"/>
+      <c r="I664" s="239"/>
+      <c r="J664" s="239"/>
+      <c r="K664" s="239"/>
+      <c r="L664" s="240"/>
+      <c r="M664" s="240"/>
+      <c r="N664" s="240"/>
+      <c r="O664" s="240"/>
+      <c r="P664" s="240"/>
+    </row>
+    <row r="665" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B665" s="240"/>
+      <c r="C665" s="240"/>
+      <c r="D665" s="240"/>
+      <c r="E665" s="241"/>
+      <c r="F665" s="242"/>
+      <c r="G665" s="241"/>
+      <c r="H665" s="240"/>
+      <c r="I665" s="240"/>
+      <c r="J665" s="240"/>
+      <c r="K665" s="240"/>
+      <c r="L665" s="240"/>
+      <c r="M665" s="240"/>
+      <c r="N665" s="240"/>
+      <c r="O665" s="240"/>
+      <c r="P665" s="240"/>
+    </row>
+    <row r="666" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B666" s="240"/>
+      <c r="C666" s="240"/>
+      <c r="D666" s="240"/>
+      <c r="E666" s="240"/>
+      <c r="F666" s="240"/>
+      <c r="G666" s="240"/>
+      <c r="H666" s="240"/>
+      <c r="I666" s="240"/>
+      <c r="J666" s="240"/>
+      <c r="K666" s="240"/>
+      <c r="L666" s="240"/>
+      <c r="M666" s="240"/>
+      <c r="N666" s="240"/>
+      <c r="O666" s="240"/>
+      <c r="P666" s="240"/>
+    </row>
+    <row r="667" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B667" s="240"/>
+      <c r="C667" s="240"/>
+      <c r="D667" s="240"/>
+      <c r="E667" s="240"/>
+      <c r="F667" s="240"/>
+      <c r="G667" s="240"/>
+      <c r="H667" s="241">
         <v>70800</v>
       </c>
-      <c r="I663" s="242" t="s">
+      <c r="I667" s="241" t="s">
         <v>208</v>
       </c>
-      <c r="J663" s="244" t="s">
+      <c r="J667" s="243" t="s">
         <v>211</v>
       </c>
-      <c r="K663" s="241"/>
-      <c r="L663" s="241"/>
-      <c r="M663" s="241"/>
-      <c r="N663" s="241"/>
-      <c r="O663" s="241"/>
-      <c r="P663" s="241"/>
-    </row>
-    <row r="664" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B664" s="241"/>
-      <c r="C664" s="241"/>
-      <c r="D664" s="241"/>
-      <c r="E664" s="242"/>
-      <c r="F664" s="243"/>
-      <c r="G664" s="242"/>
-      <c r="H664" s="242">
+      <c r="K667" s="240"/>
+      <c r="L667" s="240"/>
+      <c r="M667" s="240"/>
+      <c r="N667" s="240"/>
+      <c r="O667" s="240"/>
+      <c r="P667" s="240"/>
+    </row>
+    <row r="668" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B668" s="240"/>
+      <c r="C668" s="240"/>
+      <c r="D668" s="240"/>
+      <c r="E668" s="240"/>
+      <c r="F668" s="240"/>
+      <c r="G668" s="240"/>
+      <c r="H668" s="241">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="I664" s="242" t="s">
+      <c r="I668" s="241" t="s">
         <v>209</v>
       </c>
-      <c r="J664" s="241"/>
-      <c r="K664" s="241"/>
-      <c r="L664" s="241"/>
-      <c r="M664" s="241"/>
-      <c r="N664" s="241"/>
-      <c r="O664" s="241"/>
-      <c r="P664" s="241"/>
-    </row>
-    <row r="665" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B665" s="241"/>
-      <c r="C665" s="241"/>
-      <c r="D665" s="241"/>
-      <c r="E665" s="242"/>
-      <c r="F665" s="243"/>
-      <c r="G665" s="242"/>
-      <c r="H665" s="242">
-        <f>H663/H664</f>
+      <c r="J668" s="240"/>
+      <c r="K668" s="240"/>
+      <c r="L668" s="240"/>
+      <c r="M668" s="240"/>
+      <c r="N668" s="240"/>
+      <c r="O668" s="240"/>
+      <c r="P668" s="240"/>
+    </row>
+    <row r="669" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B669" s="240"/>
+      <c r="C669" s="240"/>
+      <c r="D669" s="240"/>
+      <c r="E669" s="240"/>
+      <c r="F669" s="240"/>
+      <c r="G669" s="240"/>
+      <c r="H669" s="241">
+        <f>H667/H668</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="I665" s="242" t="s">
+      <c r="I669" s="241" t="s">
         <v>208</v>
       </c>
-      <c r="J665" s="241"/>
-      <c r="K665" s="241"/>
-      <c r="L665" s="241"/>
-      <c r="M665" s="241"/>
-      <c r="N665" s="241"/>
-      <c r="O665" s="241"/>
-      <c r="P665" s="241"/>
-    </row>
-    <row r="666" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B666" s="241"/>
-      <c r="C666" s="241"/>
-      <c r="D666" s="241"/>
-      <c r="E666" s="241"/>
-      <c r="F666" s="241"/>
-      <c r="G666" s="241"/>
-      <c r="H666" s="241"/>
-      <c r="I666" s="241"/>
-      <c r="J666" s="241"/>
-      <c r="K666" s="241"/>
-      <c r="L666" s="241"/>
-      <c r="M666" s="241"/>
-      <c r="N666" s="241"/>
-      <c r="O666" s="241"/>
-      <c r="P666" s="241"/>
-    </row>
-    <row r="667" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B667" s="241"/>
-      <c r="C667" s="241"/>
-      <c r="D667" s="241"/>
-      <c r="E667" s="241"/>
-      <c r="F667" s="241"/>
-      <c r="G667" s="241"/>
-      <c r="H667" s="241"/>
-      <c r="I667" s="241"/>
-      <c r="J667" s="241"/>
-      <c r="K667" s="241"/>
-      <c r="L667" s="241"/>
-      <c r="M667" s="241"/>
-      <c r="N667" s="241"/>
-      <c r="O667" s="241"/>
-      <c r="P667" s="241"/>
-    </row>
-    <row r="668" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B668" s="241"/>
-      <c r="C668" s="241"/>
-      <c r="D668" s="241"/>
-      <c r="E668" s="241"/>
-      <c r="F668" s="241"/>
-      <c r="G668" s="241"/>
-      <c r="H668" s="241"/>
-      <c r="I668" s="241"/>
-      <c r="J668" s="241"/>
-      <c r="K668" s="241"/>
-      <c r="L668" s="241"/>
-      <c r="M668" s="241"/>
-      <c r="N668" s="241"/>
-      <c r="O668" s="241"/>
-      <c r="P668" s="241"/>
-    </row>
-    <row r="669" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B669" s="241"/>
-      <c r="C669" s="241"/>
-      <c r="D669" s="241"/>
-      <c r="E669" s="241"/>
-      <c r="F669" s="241"/>
-      <c r="G669" s="241"/>
-      <c r="H669" s="241"/>
-      <c r="I669" s="241"/>
-      <c r="J669" s="241"/>
-      <c r="K669" s="241"/>
-      <c r="L669" s="241"/>
-      <c r="M669" s="241"/>
-      <c r="N669" s="241"/>
-      <c r="O669" s="241"/>
-      <c r="P669" s="241"/>
+      <c r="J669" s="240"/>
+      <c r="K669" s="240"/>
+      <c r="L669" s="240"/>
+      <c r="M669" s="240"/>
+      <c r="N669" s="240"/>
+      <c r="O669" s="240"/>
+      <c r="P669" s="240"/>
     </row>
     <row r="670" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B670" s="241"/>
-      <c r="C670" s="241"/>
-      <c r="D670" s="241"/>
-      <c r="E670" s="241"/>
-      <c r="F670" s="241"/>
-      <c r="G670" s="241"/>
-      <c r="H670" s="241"/>
-      <c r="I670" s="241"/>
-      <c r="J670" s="241"/>
-      <c r="K670" s="241"/>
-      <c r="L670" s="241"/>
-      <c r="M670" s="241"/>
-      <c r="N670" s="241"/>
-      <c r="O670" s="241"/>
-      <c r="P670" s="241"/>
+      <c r="B670" s="240"/>
+      <c r="C670" s="240"/>
+      <c r="D670" s="240"/>
+      <c r="E670" s="240"/>
+      <c r="F670" s="240"/>
+      <c r="G670" s="240"/>
+      <c r="H670" s="240"/>
+      <c r="I670" s="240"/>
+      <c r="J670" s="240"/>
+      <c r="K670" s="240"/>
+      <c r="L670" s="240"/>
+      <c r="M670" s="240"/>
+      <c r="N670" s="240"/>
+      <c r="O670" s="240"/>
+      <c r="P670" s="240"/>
     </row>
     <row r="671" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B671" s="241"/>
-      <c r="C671" s="241"/>
-      <c r="D671" s="241"/>
-      <c r="E671" s="241"/>
-      <c r="F671" s="241"/>
-      <c r="G671" s="241"/>
-      <c r="H671" s="241"/>
-      <c r="I671" s="241"/>
-      <c r="J671" s="241"/>
-      <c r="K671" s="241"/>
-      <c r="L671" s="241"/>
-      <c r="M671" s="241"/>
-      <c r="N671" s="241"/>
-      <c r="O671" s="241"/>
-      <c r="P671" s="241"/>
+      <c r="B671" s="240"/>
+      <c r="C671" s="240"/>
+      <c r="D671" s="240"/>
+      <c r="E671" s="240"/>
+      <c r="F671" s="240"/>
+      <c r="G671" s="240"/>
+      <c r="H671" s="240"/>
+      <c r="I671" s="240"/>
+      <c r="J671" s="240"/>
+      <c r="K671" s="240"/>
+      <c r="L671" s="240"/>
+      <c r="M671" s="240"/>
+      <c r="N671" s="240"/>
+      <c r="O671" s="240"/>
+      <c r="P671" s="240"/>
     </row>
     <row r="672" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B672" s="241"/>
-      <c r="C672" s="241"/>
-      <c r="D672" s="241"/>
-      <c r="E672" s="241"/>
-      <c r="F672" s="241"/>
-      <c r="G672" s="241"/>
-      <c r="H672" s="241"/>
-      <c r="I672" s="241"/>
-      <c r="J672" s="241"/>
-      <c r="K672" s="241"/>
-      <c r="L672" s="241"/>
-      <c r="M672" s="241"/>
-      <c r="N672" s="241"/>
-      <c r="O672" s="241"/>
-      <c r="P672" s="241"/>
+      <c r="B672" s="240"/>
+      <c r="C672" s="240"/>
+      <c r="D672" s="240"/>
+      <c r="E672" s="240"/>
+      <c r="F672" s="240"/>
+      <c r="G672" s="240"/>
+      <c r="H672" s="240"/>
+      <c r="I672" s="240"/>
+      <c r="J672" s="240"/>
+      <c r="K672" s="240"/>
+      <c r="L672" s="240"/>
+      <c r="M672" s="240"/>
+      <c r="N672" s="240"/>
+      <c r="O672" s="240"/>
+      <c r="P672" s="240"/>
     </row>
     <row r="673" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B673" s="241"/>
-      <c r="C673" s="241"/>
-      <c r="D673" s="241"/>
-      <c r="E673" s="241"/>
-      <c r="F673" s="241"/>
-      <c r="G673" s="241"/>
-      <c r="H673" s="241"/>
-      <c r="I673" s="241"/>
-      <c r="J673" s="241"/>
-      <c r="K673" s="241"/>
-      <c r="L673" s="241"/>
-      <c r="M673" s="241"/>
-      <c r="N673" s="241"/>
-      <c r="O673" s="241"/>
-      <c r="P673" s="241"/>
+      <c r="B673" s="240"/>
+      <c r="C673" s="240"/>
+      <c r="D673" s="240"/>
+      <c r="E673" s="240"/>
+      <c r="F673" s="240"/>
+      <c r="G673" s="240"/>
+      <c r="H673" s="240"/>
+      <c r="I673" s="240"/>
+      <c r="J673" s="240"/>
+      <c r="K673" s="240"/>
+      <c r="L673" s="240"/>
+      <c r="M673" s="240"/>
+      <c r="N673" s="240"/>
+      <c r="O673" s="240"/>
+      <c r="P673" s="240"/>
     </row>
     <row r="674" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B674" s="241"/>
-      <c r="C674" s="241"/>
-      <c r="D674" s="241"/>
-      <c r="E674" s="241"/>
-      <c r="F674" s="241"/>
-      <c r="G674" s="241"/>
-      <c r="H674" s="241"/>
-      <c r="I674" s="241"/>
-      <c r="J674" s="241"/>
-      <c r="K674" s="241"/>
-      <c r="L674" s="241"/>
-      <c r="M674" s="241"/>
-      <c r="N674" s="241"/>
-      <c r="O674" s="241"/>
-      <c r="P674" s="241"/>
+      <c r="B674" s="240"/>
+      <c r="C674" s="240"/>
+      <c r="D674" s="240"/>
+      <c r="E674" s="240"/>
+      <c r="F674" s="240"/>
+      <c r="G674" s="240"/>
+      <c r="H674" s="240"/>
+      <c r="I674" s="240"/>
+      <c r="J674" s="240"/>
+      <c r="K674" s="240"/>
+      <c r="L674" s="240"/>
+      <c r="M674" s="240"/>
+      <c r="N674" s="240"/>
+      <c r="O674" s="240"/>
+      <c r="P674" s="240"/>
     </row>
     <row r="675" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B675" s="241"/>
-      <c r="C675" s="241"/>
-      <c r="D675" s="241"/>
-      <c r="E675" s="241"/>
-      <c r="F675" s="241"/>
-      <c r="G675" s="241"/>
-      <c r="H675" s="241"/>
-      <c r="I675" s="241"/>
-      <c r="J675" s="241"/>
-      <c r="K675" s="241"/>
-      <c r="L675" s="241"/>
-      <c r="M675" s="241"/>
-      <c r="N675" s="241"/>
-      <c r="O675" s="241"/>
-      <c r="P675" s="241"/>
+      <c r="B675" s="240"/>
+      <c r="C675" s="240"/>
+      <c r="D675" s="240"/>
+      <c r="E675" s="240"/>
+      <c r="F675" s="240"/>
+      <c r="G675" s="240"/>
+      <c r="H675" s="240"/>
+      <c r="I675" s="240"/>
+      <c r="J675" s="240"/>
+      <c r="K675" s="240"/>
+      <c r="L675" s="240"/>
+      <c r="M675" s="240"/>
+      <c r="N675" s="240"/>
+      <c r="O675" s="240"/>
+      <c r="P675" s="240"/>
     </row>
     <row r="676" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B676" s="241"/>
-      <c r="C676" s="241"/>
-      <c r="D676" s="241"/>
-      <c r="E676" s="241"/>
-      <c r="F676" s="241"/>
-      <c r="G676" s="241"/>
-      <c r="H676" s="241"/>
-      <c r="I676" s="241"/>
-      <c r="J676" s="241"/>
-      <c r="K676" s="241"/>
-      <c r="L676" s="241"/>
-      <c r="M676" s="241"/>
-      <c r="N676" s="241"/>
-      <c r="O676" s="241"/>
-      <c r="P676" s="241"/>
+      <c r="B676" s="240"/>
+      <c r="C676" s="240"/>
+      <c r="D676" s="240"/>
+      <c r="E676" s="240"/>
+      <c r="F676" s="240"/>
+      <c r="G676" s="240"/>
+      <c r="H676" s="240"/>
+      <c r="I676" s="240"/>
+      <c r="J676" s="240"/>
+      <c r="K676" s="240"/>
+      <c r="L676" s="240"/>
+      <c r="M676" s="240"/>
+      <c r="N676" s="240"/>
+      <c r="O676" s="240"/>
+      <c r="P676" s="240"/>
     </row>
     <row r="677" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B677" s="241"/>
-      <c r="C677" s="241"/>
-      <c r="D677" s="241"/>
-      <c r="E677" s="241"/>
-      <c r="F677" s="241"/>
-      <c r="G677" s="241"/>
-      <c r="H677" s="241"/>
-      <c r="I677" s="241"/>
-      <c r="J677" s="241"/>
-      <c r="K677" s="241"/>
-      <c r="L677" s="241"/>
-      <c r="M677" s="241"/>
-      <c r="N677" s="241"/>
-      <c r="O677" s="241"/>
-      <c r="P677" s="241"/>
+      <c r="B677" s="240"/>
+      <c r="C677" s="240"/>
+      <c r="D677" s="240"/>
+      <c r="E677" s="240"/>
+      <c r="F677" s="240"/>
+      <c r="G677" s="240"/>
+      <c r="H677" s="240"/>
+      <c r="I677" s="240"/>
+      <c r="J677" s="240"/>
+      <c r="K677" s="240"/>
+      <c r="L677" s="240"/>
+      <c r="M677" s="240"/>
+      <c r="N677" s="240"/>
+      <c r="O677" s="240"/>
+      <c r="P677" s="240"/>
     </row>
     <row r="678" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B678" s="241"/>
-      <c r="C678" s="241"/>
-      <c r="D678" s="241"/>
-      <c r="E678" s="241"/>
-      <c r="F678" s="241"/>
-      <c r="G678" s="241"/>
-      <c r="H678" s="241"/>
-      <c r="I678" s="241"/>
-      <c r="J678" s="241"/>
-      <c r="K678" s="241"/>
-      <c r="L678" s="241"/>
-      <c r="M678" s="241"/>
-      <c r="N678" s="241"/>
-      <c r="O678" s="241"/>
-      <c r="P678" s="241"/>
+      <c r="B678" s="240"/>
+      <c r="C678" s="240"/>
+      <c r="D678" s="240"/>
+      <c r="E678" s="240"/>
+      <c r="F678" s="240"/>
+      <c r="G678" s="240"/>
+      <c r="H678" s="240"/>
+      <c r="I678" s="240"/>
+      <c r="J678" s="240"/>
+      <c r="K678" s="240"/>
+      <c r="L678" s="240"/>
+      <c r="M678" s="240"/>
+      <c r="N678" s="240"/>
+      <c r="O678" s="240"/>
+      <c r="P678" s="240"/>
     </row>
     <row r="679" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B679" s="241"/>
-      <c r="C679" s="241"/>
-      <c r="D679" s="241"/>
-      <c r="E679" s="241"/>
-      <c r="F679" s="241"/>
-      <c r="G679" s="241"/>
-      <c r="H679" s="241"/>
-      <c r="I679" s="241"/>
-      <c r="J679" s="241"/>
-      <c r="K679" s="241"/>
-      <c r="L679" s="241"/>
-      <c r="M679" s="241"/>
-      <c r="N679" s="241"/>
-      <c r="O679" s="241"/>
-      <c r="P679" s="241"/>
+      <c r="B679" s="240"/>
+      <c r="C679" s="240"/>
+      <c r="D679" s="240"/>
+      <c r="E679" s="240"/>
+      <c r="F679" s="240"/>
+      <c r="G679" s="240"/>
+      <c r="H679" s="240"/>
+      <c r="I679" s="240"/>
+      <c r="J679" s="240"/>
+      <c r="K679" s="240"/>
+      <c r="L679" s="240"/>
+      <c r="M679" s="240"/>
+      <c r="N679" s="240"/>
+      <c r="O679" s="240"/>
+      <c r="P679" s="240"/>
     </row>
     <row r="680" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B680" s="241"/>
-      <c r="C680" s="241"/>
-      <c r="D680" s="241"/>
-      <c r="E680" s="241"/>
-      <c r="F680" s="241"/>
-      <c r="G680" s="241"/>
-      <c r="H680" s="241"/>
-      <c r="I680" s="241"/>
-      <c r="J680" s="241"/>
-      <c r="K680" s="241"/>
-      <c r="L680" s="241"/>
-      <c r="M680" s="241"/>
-      <c r="N680" s="241"/>
-      <c r="O680" s="241"/>
-      <c r="P680" s="241"/>
+      <c r="B680" s="240"/>
+      <c r="C680" s="240"/>
+      <c r="D680" s="240"/>
+      <c r="E680" s="240"/>
+      <c r="F680" s="240"/>
+      <c r="G680" s="240"/>
+      <c r="H680" s="240"/>
+      <c r="I680" s="240"/>
+      <c r="J680" s="240"/>
+      <c r="K680" s="240"/>
+      <c r="L680" s="240"/>
+      <c r="M680" s="240"/>
+      <c r="N680" s="240"/>
+      <c r="O680" s="240"/>
+      <c r="P680" s="240"/>
     </row>
     <row r="681" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B681" s="241"/>
-      <c r="C681" s="241"/>
-      <c r="D681" s="241"/>
-      <c r="E681" s="241"/>
-      <c r="F681" s="241"/>
-      <c r="G681" s="241"/>
-      <c r="H681" s="241"/>
-      <c r="I681" s="241"/>
-      <c r="J681" s="241"/>
-      <c r="K681" s="241"/>
-      <c r="L681" s="241"/>
-      <c r="M681" s="241"/>
-      <c r="N681" s="241"/>
-      <c r="O681" s="241"/>
-      <c r="P681" s="241"/>
+      <c r="B681" s="240"/>
+      <c r="C681" s="240"/>
+      <c r="D681" s="240"/>
+      <c r="E681" s="240"/>
+      <c r="F681" s="240"/>
+      <c r="G681" s="240"/>
+      <c r="H681" s="240"/>
+      <c r="I681" s="240"/>
+      <c r="J681" s="240"/>
+      <c r="K681" s="240"/>
+      <c r="L681" s="240"/>
+      <c r="M681" s="240"/>
+      <c r="N681" s="240"/>
+      <c r="O681" s="240"/>
+      <c r="P681" s="240"/>
     </row>
     <row r="682" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B682" s="241"/>
-      <c r="C682" s="241"/>
-      <c r="D682" s="241"/>
-      <c r="E682" s="241"/>
-      <c r="F682" s="241"/>
-      <c r="G682" s="241"/>
-      <c r="H682" s="241"/>
-      <c r="I682" s="241"/>
-      <c r="J682" s="241"/>
-      <c r="K682" s="241"/>
-      <c r="L682" s="241"/>
-      <c r="M682" s="241"/>
-      <c r="N682" s="241"/>
-      <c r="O682" s="241"/>
-      <c r="P682" s="241"/>
+      <c r="B682" s="240"/>
+      <c r="C682" s="240"/>
+      <c r="D682" s="240"/>
+      <c r="E682" s="240"/>
+      <c r="F682" s="240"/>
+      <c r="G682" s="240"/>
+      <c r="H682" s="240"/>
+      <c r="I682" s="240"/>
+      <c r="J682" s="240"/>
+      <c r="K682" s="240"/>
+      <c r="L682" s="240"/>
+      <c r="M682" s="240"/>
+      <c r="N682" s="240"/>
+      <c r="O682" s="240"/>
+      <c r="P682" s="240"/>
+    </row>
+    <row r="683" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H683" s="240"/>
+      <c r="I683" s="240"/>
+      <c r="J683" s="240"/>
+      <c r="K683" s="240"/>
+    </row>
+    <row r="684" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H684" s="240"/>
+      <c r="I684" s="240"/>
+      <c r="J684" s="240"/>
+      <c r="K684" s="240"/>
+    </row>
+    <row r="685" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H685" s="240"/>
+      <c r="I685" s="240"/>
+      <c r="J685" s="240"/>
+      <c r="K685" s="240"/>
+    </row>
+    <row r="686" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H686" s="240"/>
+      <c r="I686" s="240"/>
+      <c r="J686" s="240"/>
+      <c r="K686" s="240"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEC015-B383-FF40-88D9-19DFA1992D82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23740" yWindow="720" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="5"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +38,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="213">
   <si>
     <t>Source</t>
   </si>
@@ -239,9 +240,6 @@
   </si>
   <si>
     <t>Carrier (gobal properties)</t>
-  </si>
-  <si>
-    <t>MJ/km2</t>
   </si>
   <si>
     <t>Page</t>
@@ -857,7 +855,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -871,7 +869,7 @@
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
     <numFmt numFmtId="174" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="54">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2511,6 +2509,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="43" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="49" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2552,21 +2565,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="43" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="49" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
@@ -2939,6 +2937,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2960,7 +2961,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3007,7 +3014,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 3"/>
+        <xdr:cNvPr id="8" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3053,7 +3066,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 4"/>
+        <xdr:cNvPr id="9" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3099,7 +3118,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 5"/>
+        <xdr:cNvPr id="10" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3145,7 +3170,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 6"/>
+        <xdr:cNvPr id="11" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3191,7 +3222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 7"/>
+        <xdr:cNvPr id="12" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3237,7 +3274,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 8"/>
+        <xdr:cNvPr id="13" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3283,7 +3326,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 9"/>
+        <xdr:cNvPr id="14" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3329,7 +3378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 10"/>
+        <xdr:cNvPr id="15" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3375,7 +3430,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 11"/>
+        <xdr:cNvPr id="16" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3421,7 +3482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 12"/>
+        <xdr:cNvPr id="17" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3448,14 +3515,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -3465,7 +3532,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3495,7 +3562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 1"/>
+        <xdr:cNvPr id="18" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3541,7 +3614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 1"/>
+        <xdr:cNvPr id="19" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3588,7 +3667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3635,7 +3720,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3673,7 +3764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3711,7 +3808,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3749,7 +3852,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3787,7 +3896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3825,7 +3940,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3863,7 +3984,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3901,7 +4028,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3939,7 +4072,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3977,7 +4116,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4015,7 +4160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4053,7 +4204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4513,15 +4670,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
@@ -4530,33 +4687,33 @@
     <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -4565,7 +4722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -4574,17 +4731,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="98" t="s">
         <v>15</v>
@@ -4592,13 +4749,13 @@
       <c r="C9" s="99"/>
       <c r="D9" s="179"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="D10" s="180"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="100" t="s">
         <v>16</v>
@@ -4608,7 +4765,7 @@
       </c>
       <c r="D11" s="180"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="100"/>
       <c r="C12" s="20" t="s">
@@ -4616,7 +4773,7 @@
       </c>
       <c r="D12" s="180"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="100"/>
       <c r="C13" s="103" t="s">
@@ -4624,7 +4781,7 @@
       </c>
       <c r="D13" s="180"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="100"/>
       <c r="C14" s="101" t="s">
@@ -4632,13 +4789,13 @@
       </c>
       <c r="D14" s="180"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="180"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="100" t="s">
         <v>21</v>
@@ -4648,7 +4805,7 @@
       </c>
       <c r="D16" s="180"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="100"/>
       <c r="C17" s="105" t="s">
@@ -4656,7 +4813,7 @@
       </c>
       <c r="D17" s="180"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="100"/>
       <c r="C18" s="106" t="s">
@@ -4664,7 +4821,7 @@
       </c>
       <c r="D18" s="180"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="100"/>
       <c r="C19" s="107" t="s">
@@ -4672,7 +4829,7 @@
       </c>
       <c r="D19" s="180"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="108"/>
       <c r="C20" s="109" t="s">
@@ -4680,7 +4837,7 @@
       </c>
       <c r="D20" s="180"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="108"/>
       <c r="C21" s="110" t="s">
@@ -4688,7 +4845,7 @@
       </c>
       <c r="D21" s="180"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="108"/>
       <c r="C22" s="111" t="s">
@@ -4696,39 +4853,39 @@
       </c>
       <c r="D22" s="180"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="108"/>
       <c r="C23" s="112" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="180"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="181"/>
       <c r="C24" s="182"/>
       <c r="D24" s="183"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="212">
         <v>42227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="C28" s="211" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="211" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="211" t="s">
+    <row r="30" spans="1:4">
+      <c r="C30" s="211" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="211" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4738,17 +4895,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -4763,42 +4920,42 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="246" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="248"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="249"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="251"/>
-    </row>
-    <row r="4" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="252"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="254"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="251" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="253"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
+    </row>
+    <row r="4" spans="2:10" ht="63" customHeight="1">
+      <c r="B4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="259"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4809,7 +4966,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="113"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4830,7 +4987,7 @@
       </c>
       <c r="J7" s="117"/>
     </row>
-    <row r="8" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4841,10 +4998,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4854,7 +5011,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="123" t="s">
         <v>38</v>
@@ -4876,7 +5033,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="132" t="s">
         <v>39</v>
@@ -4892,14 +5049,14 @@
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
       <c r="I11" s="217" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>60</v>
@@ -4912,11 +5069,11 @@
       <c r="G12" s="132"/>
       <c r="H12" s="32"/>
       <c r="I12" s="133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="37" t="s">
         <v>40</v>
@@ -4930,7 +5087,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="227" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="228" t="s">
@@ -4938,10 +5095,10 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
       <c r="C14" s="229" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>52</v>
@@ -4952,45 +5109,24 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="227" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="228" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="134">
-        <f>'Research data'!G11</f>
-        <v>10500000</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="118"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5002,15 +5138,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -5025,41 +5161,41 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="246" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="255"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="251" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="260"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="249"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="256"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="261"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="257"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="259"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="262"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="264"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -5070,7 +5206,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="113"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -5091,7 +5227,7 @@
       </c>
       <c r="J7" s="117"/>
     </row>
-    <row r="8" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -5102,7 +5238,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -5115,10 +5251,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="118"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="226" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132"/>
@@ -5128,7 +5264,7 @@
       <c r="I10" s="132"/>
       <c r="J10" s="118"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="135" t="s">
         <v>46</v>
@@ -5137,7 +5273,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="125">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G14</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
@@ -5150,7 +5286,7 @@
       </c>
       <c r="J11" s="118"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="135" t="s">
         <v>47</v>
@@ -5159,7 +5295,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="125">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G15</f>
         <v>1.15E-2</v>
       </c>
       <c r="F12" s="37"/>
@@ -5172,7 +5308,7 @@
       </c>
       <c r="J12" s="118"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="135" t="s">
         <v>51</v>
@@ -5181,7 +5317,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="125">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G16</f>
         <v>1.67E-2</v>
       </c>
       <c r="F13" s="37"/>
@@ -5194,7 +5330,7 @@
       </c>
       <c r="J13" s="118"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="135" t="s">
         <v>50</v>
@@ -5203,7 +5339,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="125">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G17</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="F14" s="37"/>
@@ -5216,7 +5352,7 @@
       </c>
       <c r="J14" s="118"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="41"/>
       <c r="C15" s="135" t="s">
         <v>40</v>
@@ -5225,7 +5361,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="125">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
@@ -5238,7 +5374,7 @@
       </c>
       <c r="J15" s="118"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="135" t="s">
         <v>49</v>
@@ -5247,7 +5383,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="125">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
@@ -5260,7 +5396,7 @@
       </c>
       <c r="J16" s="118"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="135" t="s">
         <v>48</v>
@@ -5269,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G21</f>
+        <f>'Research data'!G20</f>
         <v>0.6</v>
       </c>
       <c r="F17" s="37"/>
@@ -5282,7 +5418,7 @@
       </c>
       <c r="J17" s="118"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="41"/>
       <c r="C18" s="132"/>
       <c r="D18" s="132"/>
@@ -5293,10 +5429,10 @@
       <c r="I18" s="132"/>
       <c r="J18" s="118"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="226" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="132"/>
       <c r="E19" s="132"/>
@@ -5306,7 +5442,7 @@
       <c r="I19" s="132"/>
       <c r="J19" s="118"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="135" t="s">
         <v>46</v>
@@ -5315,7 +5451,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="125">
-        <f>'Research data'!G24</f>
+        <f>'Research data'!G23</f>
         <v>0</v>
       </c>
       <c r="F20" s="37"/>
@@ -5328,7 +5464,7 @@
       </c>
       <c r="J20" s="118"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="135" t="s">
         <v>47</v>
@@ -5337,7 +5473,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="125">
-        <f>'Research data'!G25</f>
+        <f>'Research data'!G24</f>
         <v>1.43E-2</v>
       </c>
       <c r="F21" s="37"/>
@@ -5350,7 +5486,7 @@
       </c>
       <c r="J21" s="118"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="135" t="s">
         <v>51</v>
@@ -5359,7 +5495,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="125">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G25</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="F22" s="37"/>
@@ -5372,7 +5508,7 @@
       </c>
       <c r="J22" s="118"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="135" t="s">
         <v>50</v>
@@ -5381,7 +5517,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="125">
-        <f>'Research data'!G27</f>
+        <f>'Research data'!G26</f>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="F23" s="37"/>
@@ -5394,7 +5530,7 @@
       </c>
       <c r="J23" s="118"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="41"/>
       <c r="C24" s="135" t="s">
         <v>40</v>
@@ -5403,7 +5539,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="125">
-        <f>'Research data'!G28</f>
+        <f>'Research data'!G27</f>
         <v>0</v>
       </c>
       <c r="F24" s="37"/>
@@ -5416,7 +5552,7 @@
       </c>
       <c r="J24" s="118"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="135" t="s">
         <v>49</v>
@@ -5425,7 +5561,7 @@
         <v>52</v>
       </c>
       <c r="E25" s="125">
-        <f>'Research data'!G29</f>
+        <f>'Research data'!G28</f>
         <v>0</v>
       </c>
       <c r="F25" s="37"/>
@@ -5438,7 +5574,7 @@
       </c>
       <c r="J25" s="118"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="135" t="s">
         <v>48</v>
@@ -5447,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="48">
-        <f>'Research data'!G30</f>
+        <f>'Research data'!G29</f>
         <v>0.4</v>
       </c>
       <c r="F26" s="37"/>
@@ -5460,7 +5596,7 @@
       </c>
       <c r="J26" s="118"/>
     </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -5482,17 +5618,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R37"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="73" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="73" customWidth="1"/>
@@ -5514,8 +5650,8 @@
     <col min="19" max="16384" width="10.83203125" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="75"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -5534,7 +5670,7 @@
       <c r="Q2" s="77"/>
       <c r="R2" s="78"/>
     </row>
-    <row r="3" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="122" t="s">
         <v>30</v>
@@ -5549,11 +5685,11 @@
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
@@ -5561,17 +5697,17 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18">
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -5590,7 +5726,7 @@
       <c r="Q4" s="121"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="79"/>
       <c r="C5" s="20" t="s">
         <v>62</v>
@@ -5611,7 +5747,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="79"/>
       <c r="C6" s="136" t="s">
         <v>38</v>
@@ -5640,7 +5776,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="137" t="s">
         <v>39</v>
@@ -5672,13 +5808,13 @@
       <c r="P7" s="215"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="214" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="137" t="s">
         <v>59</v>
@@ -5708,7 +5844,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="138" t="s">
         <v>40</v>
@@ -5737,10 +5873,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="230" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="138" t="s">
         <v>40</v>
@@ -5770,31 +5906,17 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="79"/>
-      <c r="C11" s="138" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="138" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="138" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="134">
-        <f>K11</f>
-        <v>10500000</v>
-      </c>
-      <c r="H11" s="86"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="134">
-        <f>Notes!F179</f>
-        <v>10500000</v>
-      </c>
+      <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -5803,14 +5925,16 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="165"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18">
       <c r="B12" s="79"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5822,16 +5946,16 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="165"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="79"/>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="115"/>
+      <c r="C13" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="115"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5841,75 +5965,85 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="165"/>
-    </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="79"/>
-      <c r="C14" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="115"/>
+      <c r="C14" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="125">
+        <f>M14</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="86"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="125">
+        <f>Notes!H470</f>
+        <v>0</v>
+      </c>
       <c r="N14" s="18"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="83"/>
       <c r="R14" s="165" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="79"/>
       <c r="C15" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="125">
-        <f>M15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="86"/>
+        <f t="shared" ref="G15:G19" si="0">M15</f>
+        <v>1.15E-2</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="125">
-        <f>Notes!H470</f>
-        <v>0</v>
+        <f>Notes!H471</f>
+        <v>1.15E-2</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="83"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="165" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="79"/>
       <c r="C16" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+        <v>51</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="125">
-        <f t="shared" ref="G16:G20" si="0">M16</f>
-        <v>1.15E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.67E-2</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5917,8 +6051,8 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="125">
-        <f>Notes!H471</f>
-        <v>1.15E-2</v>
+        <f>Notes!H472</f>
+        <v>1.67E-2</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -5928,10 +6062,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="79"/>
       <c r="C17" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -5940,7 +6074,7 @@
       </c>
       <c r="G17" s="125">
         <f t="shared" si="0"/>
-        <v>1.67E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5948,8 +6082,8 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="125">
-        <f>Notes!H472</f>
-        <v>1.67E-2</v>
+        <f>Notes!H473</f>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -5959,44 +6093,44 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="79"/>
       <c r="C18" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="125">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="86"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="125">
-        <f>Notes!H473</f>
-        <v>1.2999999999999999E-3</v>
+        <f>Notes!H474</f>
+        <v>0</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="83"/>
       <c r="R18" s="165" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="79"/>
       <c r="C19" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="24" t="s">
         <v>52</v>
       </c>
@@ -6004,13 +6138,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="86"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="125">
-        <f>Notes!H474</f>
+        <f>Notes!H475</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
@@ -6021,72 +6155,62 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="79"/>
       <c r="C20" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="48">
+        <f>M20</f>
+        <v>0.6</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="125">
-        <f>Notes!H475</f>
-        <v>0</v>
+      <c r="M20" s="48">
+        <v>0.6</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="165" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="79"/>
-      <c r="C21" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="48">
-        <f>M21</f>
-        <v>0.6</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="48">
-        <v>0.6</v>
-      </c>
+      <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="83"/>
-      <c r="R21" s="165" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="165"/>
+    </row>
+    <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="79"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="132"/>
       <c r="G22" s="132"/>
       <c r="H22" s="86"/>
@@ -6094,28 +6218,38 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="165"/>
-    </row>
-    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="81"/>
+      <c r="R22" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="79"/>
-      <c r="C23" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
+      <c r="C23" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="48">
+        <f>M23</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="86"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="132"/>
+      <c r="M23" s="48">
+        <f>Notes!H487</f>
+        <v>0</v>
+      </c>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -6124,56 +6258,53 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="79"/>
       <c r="C24" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
+        <v>47</v>
+      </c>
       <c r="F24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="48">
-        <f>M24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="86"/>
+      <c r="G24" s="125">
+        <f t="shared" ref="G24:G29" si="1">M24</f>
+        <v>1.43E-2</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="48">
-        <f>Notes!H487</f>
-        <v>0</v>
+      <c r="M24" s="125">
+        <f>Notes!H488</f>
+        <v>1.43E-2</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="81"/>
+      <c r="Q24" s="83"/>
       <c r="R24" s="165" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="79"/>
       <c r="C25" s="139" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="125">
-        <f t="shared" ref="G25:G30" si="1">M25</f>
-        <v>1.43E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="125">
-        <f>Notes!H488</f>
-        <v>1.43E-2</v>
+        <f>Notes!H489</f>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -6183,25 +6314,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="79"/>
       <c r="C26" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="125">
         <f t="shared" si="1"/>
-        <v>8.9999999999999998E-4</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="125">
-        <f>Notes!H489</f>
-        <v>8.9999999999999998E-4</v>
+        <f>Notes!H490</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -6211,25 +6342,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="79"/>
       <c r="C27" s="139" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="125">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="125">
-        <f>Notes!H490</f>
-        <v>2.3999999999999998E-3</v>
+        <f>Notes!H491</f>
+        <v>0</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -6239,10 +6370,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" ht="17" thickBot="1">
       <c r="B28" s="79"/>
       <c r="C28" s="139" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>52</v>
@@ -6256,113 +6387,85 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="125">
-        <f>Notes!H491</f>
+        <f>Notes!H492</f>
         <v>0</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="83"/>
+      <c r="Q28" s="86"/>
       <c r="R28" s="165" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="17" thickBot="1">
       <c r="B29" s="79"/>
       <c r="C29" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="125">
+        <v>1</v>
+      </c>
+      <c r="G29" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="125">
-        <f>Notes!H492</f>
-        <v>0</v>
+      <c r="M29" s="48">
+        <v>0.4</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="86"/>
       <c r="R29" s="165" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="48">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="165" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="93"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="17" thickBot="1">
+      <c r="B30" s="93"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" spans="2:18">
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:18">
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="15:18">
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="15:18">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="R37" s="165"/>
+    <row r="36" spans="15:18">
+      <c r="R36" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6371,8 +6474,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L22"/>
@@ -6381,7 +6484,7 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
@@ -6396,8 +6499,8 @@
     <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -6410,7 +6513,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -6425,7 +6528,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -6438,7 +6541,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -6467,7 +6570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -6480,57 +6583,57 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>119</v>
-      </c>
       <c r="I7" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L7" s="71"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="54"/>
       <c r="C8" s="231" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="232"/>
       <c r="G8" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
       <c r="K8" s="245" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L8" s="72"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="54"/>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
@@ -6543,32 +6646,32 @@
       <c r="K9" s="58"/>
       <c r="L9" s="72"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="54"/>
       <c r="C10" s="171" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="167" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="57" t="s">
+      <c r="H10" s="58" t="s">
         <v>123</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>124</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L10" s="72"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="54"/>
       <c r="C11" s="62"/>
       <c r="D11" s="67"/>
@@ -6581,7 +6684,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="54"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -6594,28 +6697,28 @@
       <c r="K12" s="65"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="34">
       <c r="B13" s="54"/>
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
       <c r="E13" s="167" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="167"/>
       <c r="G13" s="64" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="54"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -6628,14 +6731,14 @@
       <c r="K14" s="65"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="167"/>
       <c r="G15" s="62" t="s">
@@ -6653,7 +6756,7 @@
       </c>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" s="54"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -6666,7 +6769,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" s="54"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -6679,7 +6782,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="66"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" s="54"/>
       <c r="C18" s="63"/>
       <c r="D18" s="62"/>
@@ -6692,24 +6795,24 @@
       <c r="K18" s="68"/>
       <c r="L18" s="66"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" s="54"/>
       <c r="E19" s="169"/>
       <c r="F19" s="169"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" s="54"/>
       <c r="C20" s="67"/>
       <c r="E20" s="169"/>
       <c r="F20" s="169"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" s="54"/>
       <c r="C21" s="131"/>
       <c r="E21" s="169"/>
       <c r="F21" s="169"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" s="54"/>
       <c r="E22" s="169"/>
       <c r="F22" s="169"/>
@@ -6721,15 +6824,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+    <sheetView topLeftCell="A476" workbookViewId="0">
       <selection activeCell="I516" sqref="I516"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="126" customWidth="1"/>
     <col min="2" max="2" width="5" style="126" customWidth="1"/>
@@ -6740,14 +6843,14 @@
     <col min="9" max="16384" width="7" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="26" customFormat="1">
       <c r="B2" s="129"/>
       <c r="C2" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="130"/>
       <c r="F2" s="130" t="s">
@@ -6769,7 +6872,7 @@
       <c r="T2" s="130"/>
       <c r="U2" s="130"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="127"/>
       <c r="C3" s="128"/>
       <c r="D3" s="128"/>
@@ -6791,10 +6894,10 @@
       <c r="T3" s="128"/>
       <c r="U3" s="128"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="127"/>
       <c r="C4" s="140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="140"/>
       <c r="E4" s="140"/>
@@ -6819,7 +6922,7 @@
       <c r="X4" s="140"/>
       <c r="Y4" s="140"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="127"/>
       <c r="C5" s="140"/>
       <c r="D5" s="140"/>
@@ -6845,7 +6948,7 @@
       <c r="X5" s="140"/>
       <c r="Y5" s="140"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="127"/>
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
@@ -6871,13 +6974,13 @@
       <c r="X6" s="140"/>
       <c r="Y6" s="140"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="127"/>
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
       <c r="F7" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -6899,7 +7002,7 @@
       <c r="X7" s="140"/>
       <c r="Y7" s="140"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="127"/>
       <c r="C8" s="140"/>
       <c r="D8" s="140">
@@ -6909,10 +7012,10 @@
         <v>794</v>
       </c>
       <c r="G8" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="142" t="s">
         <v>66</v>
-      </c>
-      <c r="H8" s="142" t="s">
-        <v>67</v>
       </c>
       <c r="I8" s="140"/>
       <c r="J8" s="140"/>
@@ -6932,7 +7035,7 @@
       <c r="X8" s="140"/>
       <c r="Y8" s="140"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="127"/>
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
@@ -6940,10 +7043,10 @@
         <v>26.8</v>
       </c>
       <c r="G9" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="142" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" s="142" t="s">
-        <v>69</v>
       </c>
       <c r="I9" s="140"/>
       <c r="J9" s="140"/>
@@ -6963,7 +7066,7 @@
       <c r="X9" s="140"/>
       <c r="Y9" s="140"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="127"/>
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
@@ -6972,10 +7075,10 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="142" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" s="142" t="s">
-        <v>71</v>
       </c>
       <c r="I10" s="140"/>
       <c r="J10" s="140"/>
@@ -6995,7 +7098,7 @@
       <c r="X10" s="140"/>
       <c r="Y10" s="140"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="127"/>
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
@@ -7004,10 +7107,10 @@
         <v>21.279200000000003</v>
       </c>
       <c r="G11" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="140"/>
       <c r="J11" s="140"/>
@@ -7027,7 +7130,7 @@
       <c r="X11" s="140"/>
       <c r="Y11" s="140"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="127"/>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
@@ -7053,7 +7156,7 @@
       <c r="X12" s="140"/>
       <c r="Y12" s="140"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="127"/>
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
@@ -7079,13 +7182,13 @@
       <c r="X13" s="140"/>
       <c r="Y13" s="140"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="127"/>
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
       <c r="F14" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="140"/>
@@ -7107,7 +7210,7 @@
       <c r="X14" s="140"/>
       <c r="Y14" s="140"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="127"/>
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
@@ -7116,10 +7219,10 @@
         <v>745</v>
       </c>
       <c r="G15" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="142" t="s">
         <v>66</v>
-      </c>
-      <c r="H15" s="142" t="s">
-        <v>67</v>
       </c>
       <c r="I15" s="140"/>
       <c r="J15" s="140"/>
@@ -7139,7 +7242,7 @@
       <c r="X15" s="140"/>
       <c r="Y15" s="140"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="127"/>
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
@@ -7148,10 +7251,10 @@
         <v>43.2</v>
       </c>
       <c r="G16" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="142" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="142" t="s">
-        <v>69</v>
       </c>
       <c r="I16" s="140"/>
       <c r="J16" s="140"/>
@@ -7171,7 +7274,7 @@
       <c r="X16" s="140"/>
       <c r="Y16" s="140"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="127"/>
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
@@ -7181,10 +7284,10 @@
         <v>0.745</v>
       </c>
       <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="142" t="s">
         <v>70</v>
-      </c>
-      <c r="H17" s="142" t="s">
-        <v>71</v>
       </c>
       <c r="I17" s="140"/>
       <c r="J17" s="140"/>
@@ -7204,7 +7307,7 @@
       <c r="X17" s="140"/>
       <c r="Y17" s="140"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="127"/>
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
@@ -7214,10 +7317,10 @@
         <v>32.184000000000005</v>
       </c>
       <c r="G18" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="140"/>
       <c r="J18" s="140"/>
@@ -7237,7 +7340,7 @@
       <c r="X18" s="140"/>
       <c r="Y18" s="140"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="127"/>
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
@@ -7263,13 +7366,13 @@
       <c r="X19" s="140"/>
       <c r="Y19" s="140"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="127"/>
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
@@ -7291,7 +7394,7 @@
       <c r="X20" s="140"/>
       <c r="Y20" s="140"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="127"/>
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
@@ -7317,7 +7420,7 @@
       <c r="X21" s="140"/>
       <c r="Y21" s="140"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="127"/>
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
@@ -7327,7 +7430,7 @@
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I22" s="140"/>
       <c r="J22" s="140"/>
@@ -7347,7 +7450,7 @@
       <c r="X22" s="140"/>
       <c r="Y22" s="140"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="127"/>
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
@@ -7358,7 +7461,7 @@
       </c>
       <c r="G23" s="140"/>
       <c r="H23" s="140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I23" s="140"/>
       <c r="J23" s="140"/>
@@ -7378,7 +7481,7 @@
       <c r="X23" s="140"/>
       <c r="Y23" s="140"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="127"/>
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
@@ -7388,10 +7491,10 @@
         <v>22.914920000000002</v>
       </c>
       <c r="G24" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
@@ -7411,7 +7514,7 @@
       <c r="X24" s="140"/>
       <c r="Y24" s="140"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="127"/>
       <c r="C25" s="140"/>
       <c r="D25" s="140"/>
@@ -7437,7 +7540,7 @@
       <c r="X25" s="140"/>
       <c r="Y25" s="140"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="127"/>
       <c r="C26" s="140"/>
       <c r="D26" s="140"/>
@@ -7463,7 +7566,7 @@
       <c r="X26" s="140"/>
       <c r="Y26" s="140"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="127"/>
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
@@ -7472,10 +7575,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I27" s="140"/>
       <c r="J27" s="140"/>
@@ -7495,21 +7598,21 @@
       <c r="X27" s="140"/>
       <c r="Y27" s="140"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="127"/>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="157">
         <v>0.15</v>
       </c>
       <c r="G28" s="157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H28" s="158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I28" s="140"/>
       <c r="J28" s="140"/>
@@ -7529,133 +7632,133 @@
       <c r="X28" s="140"/>
       <c r="Y28" s="140"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="127"/>
       <c r="E29" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" s="157">
         <f>F28*F18</f>
         <v>4.8276000000000003</v>
       </c>
       <c r="G29" s="157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H29" s="158" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="127"/>
       <c r="E30" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F30" s="157">
         <f>F28*F17</f>
         <v>0.11175</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="127"/>
       <c r="E31" s="204"/>
       <c r="F31" s="205"/>
       <c r="G31" s="205"/>
       <c r="H31" s="206"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="127"/>
       <c r="E32" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32" s="157">
         <f>1-F28</f>
         <v>0.85</v>
       </c>
       <c r="G32" s="157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32" s="158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" customFormat="1">
       <c r="B33" s="127"/>
       <c r="E33" s="159" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F33" s="157">
         <f>F32*F11</f>
         <v>18.087320000000002</v>
       </c>
       <c r="G33" s="157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H33" s="158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" customFormat="1">
       <c r="B34" s="127"/>
       <c r="E34" s="159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="157">
         <f>F32*F10</f>
         <v>0.67490000000000006</v>
       </c>
       <c r="G34" s="157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H34" s="158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" customFormat="1">
       <c r="B35" s="127"/>
       <c r="E35" s="159"/>
       <c r="F35" s="157"/>
       <c r="G35" s="157"/>
       <c r="H35" s="158"/>
     </row>
-    <row r="36" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" customFormat="1">
       <c r="B36" s="127"/>
       <c r="E36" s="159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="157">
         <f>F30+F34</f>
         <v>0.78665000000000007</v>
       </c>
       <c r="G36" s="157" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H36" s="158" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" customFormat="1">
       <c r="B37" s="127"/>
       <c r="E37" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" s="157">
         <f>F29+F33</f>
         <v>22.914920000000002</v>
       </c>
       <c r="G37" s="157" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H37" s="158" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" customFormat="1">
       <c r="B38" s="127"/>
       <c r="E38" s="159"/>
       <c r="F38" s="210">
@@ -7666,89 +7769,89 @@
         <v>60</v>
       </c>
       <c r="H38" s="158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" customFormat="1">
       <c r="B39" s="127"/>
       <c r="E39" s="207"/>
       <c r="F39" s="208"/>
       <c r="G39" s="208"/>
       <c r="H39" s="209"/>
     </row>
-    <row r="40" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" customFormat="1">
       <c r="B40" s="127"/>
     </row>
-    <row r="41" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" customFormat="1">
       <c r="B41" s="127"/>
     </row>
-    <row r="42" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" customFormat="1">
       <c r="B42" s="127"/>
     </row>
-    <row r="43" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" customFormat="1">
       <c r="B43" s="127"/>
     </row>
-    <row r="44" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" customFormat="1">
       <c r="B44" s="127"/>
     </row>
-    <row r="45" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" customFormat="1">
       <c r="B45" s="127"/>
     </row>
-    <row r="46" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" customFormat="1">
       <c r="B46" s="127"/>
     </row>
-    <row r="47" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" customFormat="1">
       <c r="B47" s="127"/>
     </row>
-    <row r="48" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" customFormat="1">
       <c r="B48" s="127"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:25" customFormat="1">
       <c r="B49" s="127"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" customFormat="1">
       <c r="B50" s="127"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:25" customFormat="1">
       <c r="B51" s="127"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" customFormat="1">
       <c r="B52" s="127"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" customFormat="1">
       <c r="B53" s="127"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" customFormat="1">
       <c r="B54" s="127"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" customFormat="1">
       <c r="B55" s="127"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" customFormat="1">
       <c r="B56" s="127"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" customFormat="1">
       <c r="B57" s="127"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" customFormat="1">
       <c r="B58" s="127"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" customFormat="1">
       <c r="B59" s="127"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" customFormat="1">
       <c r="B60" s="127"/>
     </row>
-    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="127"/>
     </row>
-    <row r="62" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" s="26" customFormat="1">
       <c r="B62" s="130"/>
       <c r="C62" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E62" s="130"/>
       <c r="F62" s="130" t="s">
@@ -7770,7 +7873,7 @@
       <c r="T62" s="130"/>
       <c r="U62" s="130"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" customFormat="1">
       <c r="B63" s="127"/>
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
@@ -7796,10 +7899,10 @@
       <c r="X63" s="140"/>
       <c r="Y63" s="140"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" customFormat="1">
       <c r="B64" s="127"/>
       <c r="C64" s="167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
@@ -7824,7 +7927,7 @@
       <c r="X64" s="140"/>
       <c r="Y64" s="140"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" customFormat="1">
       <c r="B65" s="127"/>
       <c r="C65" s="126"/>
       <c r="D65" s="140"/>
@@ -7850,7 +7953,7 @@
       <c r="X65" s="140"/>
       <c r="Y65" s="140"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" customFormat="1">
       <c r="B66" s="127"/>
       <c r="C66" s="140"/>
       <c r="D66">
@@ -7878,7 +7981,7 @@
       <c r="X66" s="140"/>
       <c r="Y66" s="140"/>
     </row>
-    <row r="67" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" customFormat="1">
       <c r="B67" s="127"/>
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
@@ -7904,7 +8007,7 @@
       <c r="X67" s="140"/>
       <c r="Y67" s="140"/>
     </row>
-    <row r="68" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" customFormat="1">
       <c r="B68" s="127"/>
       <c r="C68" s="140"/>
       <c r="D68" s="140"/>
@@ -7929,7 +8032,7 @@
       <c r="X68" s="140"/>
       <c r="Y68" s="140"/>
     </row>
-    <row r="69" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" customFormat="1">
       <c r="B69" s="127"/>
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
@@ -7954,7 +8057,7 @@
       <c r="X69" s="140"/>
       <c r="Y69" s="140"/>
     </row>
-    <row r="70" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" customFormat="1">
       <c r="B70" s="127"/>
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
@@ -7978,7 +8081,7 @@
       <c r="X70" s="140"/>
       <c r="Y70" s="140"/>
     </row>
-    <row r="71" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" customFormat="1">
       <c r="B71" s="127"/>
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
@@ -8003,7 +8106,7 @@
       <c r="X71" s="140"/>
       <c r="Y71" s="140"/>
     </row>
-    <row r="72" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" customFormat="1">
       <c r="B72" s="127"/>
       <c r="C72" s="140"/>
       <c r="D72" s="140"/>
@@ -8029,7 +8132,7 @@
       <c r="X72" s="140"/>
       <c r="Y72" s="140"/>
     </row>
-    <row r="73" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" customFormat="1">
       <c r="B73" s="127"/>
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
@@ -8055,7 +8158,7 @@
       <c r="X73" s="140"/>
       <c r="Y73" s="140"/>
     </row>
-    <row r="74" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" customFormat="1">
       <c r="B74" s="127"/>
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
@@ -8081,7 +8184,7 @@
       <c r="X74" s="140"/>
       <c r="Y74" s="140"/>
     </row>
-    <row r="75" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" customFormat="1">
       <c r="B75" s="127"/>
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
@@ -8107,12 +8210,12 @@
       <c r="X75" s="140"/>
       <c r="Y75" s="140"/>
     </row>
-    <row r="76" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" customFormat="1">
       <c r="B76" s="127"/>
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F76" s="140"/>
       <c r="G76" s="140"/>
@@ -8135,7 +8238,7 @@
       <c r="X76" s="140"/>
       <c r="Y76" s="140"/>
     </row>
-    <row r="77" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" customFormat="1">
       <c r="B77" s="127"/>
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
@@ -8161,7 +8264,7 @@
       <c r="X77" s="140"/>
       <c r="Y77" s="140"/>
     </row>
-    <row r="78" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" customFormat="1">
       <c r="B78" s="127"/>
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
@@ -8187,7 +8290,7 @@
       <c r="X78" s="140"/>
       <c r="Y78" s="140"/>
     </row>
-    <row r="79" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" customFormat="1">
       <c r="B79" s="127"/>
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
@@ -8213,7 +8316,7 @@
       <c r="X79" s="140"/>
       <c r="Y79" s="140"/>
     </row>
-    <row r="80" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" customFormat="1">
       <c r="B80" s="127"/>
       <c r="C80" s="140"/>
       <c r="D80" s="140"/>
@@ -8239,7 +8342,7 @@
       <c r="X80" s="140"/>
       <c r="Y80" s="140"/>
     </row>
-    <row r="81" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:25" customFormat="1">
       <c r="B81" s="127"/>
       <c r="C81" s="140"/>
       <c r="D81" s="140"/>
@@ -8265,7 +8368,7 @@
       <c r="X81" s="140"/>
       <c r="Y81" s="140"/>
     </row>
-    <row r="82" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:25" customFormat="1">
       <c r="B82" s="127"/>
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
@@ -8291,7 +8394,7 @@
       <c r="X82" s="140"/>
       <c r="Y82" s="140"/>
     </row>
-    <row r="83" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:25" customFormat="1">
       <c r="B83" s="127"/>
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
@@ -8317,7 +8420,7 @@
       <c r="X83" s="140"/>
       <c r="Y83" s="140"/>
     </row>
-    <row r="84" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:25" customFormat="1">
       <c r="B84" s="127"/>
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
@@ -8343,7 +8446,7 @@
       <c r="X84" s="140"/>
       <c r="Y84" s="140"/>
     </row>
-    <row r="85" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:25" customFormat="1">
       <c r="B85" s="127"/>
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
@@ -8369,7 +8472,7 @@
       <c r="X85" s="140"/>
       <c r="Y85" s="140"/>
     </row>
-    <row r="86" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" customFormat="1">
       <c r="B86" s="127"/>
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
@@ -8395,7 +8498,7 @@
       <c r="X86" s="140"/>
       <c r="Y86" s="140"/>
     </row>
-    <row r="87" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" customFormat="1">
       <c r="B87" s="127"/>
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
@@ -8421,7 +8524,7 @@
       <c r="X87" s="140"/>
       <c r="Y87" s="140"/>
     </row>
-    <row r="88" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" customFormat="1">
       <c r="B88" s="127"/>
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
@@ -8447,381 +8550,381 @@
       <c r="X88" s="140"/>
       <c r="Y88" s="140"/>
     </row>
-    <row r="89" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:25" customFormat="1">
       <c r="B89" s="127"/>
     </row>
-    <row r="90" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:25" customFormat="1">
       <c r="B90" s="127"/>
     </row>
-    <row r="91" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" customFormat="1">
       <c r="B91" s="127"/>
     </row>
-    <row r="92" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:25" customFormat="1">
       <c r="B92" s="127"/>
     </row>
-    <row r="93" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:25" customFormat="1">
       <c r="B93" s="127"/>
       <c r="D93">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:25" customFormat="1">
       <c r="B94" s="127"/>
     </row>
-    <row r="95" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" customFormat="1">
       <c r="B95" s="127"/>
     </row>
-    <row r="96" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:25" customFormat="1">
       <c r="B96" s="127"/>
     </row>
-    <row r="97" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" customFormat="1">
       <c r="B97" s="127"/>
     </row>
-    <row r="98" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" customFormat="1">
       <c r="B98" s="127"/>
     </row>
-    <row r="99" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" customFormat="1">
       <c r="B99" s="127"/>
     </row>
-    <row r="100" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" customFormat="1">
       <c r="B100" s="127"/>
     </row>
-    <row r="101" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" customFormat="1">
       <c r="B101" s="127"/>
     </row>
-    <row r="102" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" customFormat="1">
       <c r="B102" s="127"/>
     </row>
-    <row r="103" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" customFormat="1">
       <c r="B103" s="127"/>
     </row>
-    <row r="104" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" customFormat="1">
       <c r="B104" s="127"/>
     </row>
-    <row r="105" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" customFormat="1">
       <c r="B105" s="127"/>
     </row>
-    <row r="106" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" customFormat="1">
       <c r="B106" s="127"/>
     </row>
-    <row r="107" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" customFormat="1">
       <c r="B107" s="127"/>
     </row>
-    <row r="108" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" customFormat="1">
       <c r="B108" s="127"/>
     </row>
-    <row r="109" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" customFormat="1">
       <c r="B109" s="127"/>
     </row>
-    <row r="110" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" customFormat="1">
       <c r="B110" s="127"/>
     </row>
-    <row r="111" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" customFormat="1">
       <c r="B111" s="127"/>
     </row>
-    <row r="112" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" customFormat="1">
       <c r="B112" s="127"/>
     </row>
-    <row r="113" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" customFormat="1">
       <c r="B113" s="127"/>
     </row>
-    <row r="114" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" customFormat="1">
       <c r="B114" s="127"/>
     </row>
-    <row r="115" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" customFormat="1">
       <c r="B115" s="127"/>
     </row>
-    <row r="116" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" customFormat="1">
       <c r="B116" s="127"/>
       <c r="D116">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" customFormat="1">
       <c r="B117" s="127"/>
     </row>
-    <row r="118" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" customFormat="1">
       <c r="B118" s="127"/>
     </row>
-    <row r="119" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" customFormat="1">
       <c r="B119" s="127"/>
     </row>
-    <row r="120" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" customFormat="1">
       <c r="B120" s="127"/>
     </row>
-    <row r="121" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" customFormat="1">
       <c r="B121" s="127"/>
     </row>
-    <row r="122" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" customFormat="1">
       <c r="B122" s="127"/>
     </row>
-    <row r="123" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4" customFormat="1">
       <c r="B123" s="127"/>
     </row>
-    <row r="124" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4" customFormat="1">
       <c r="B124" s="127"/>
     </row>
-    <row r="125" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4" customFormat="1">
       <c r="B125" s="127"/>
     </row>
-    <row r="126" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4" customFormat="1">
       <c r="B126" s="127"/>
     </row>
-    <row r="127" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4" customFormat="1">
       <c r="B127" s="127"/>
     </row>
-    <row r="128" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4" customFormat="1">
       <c r="B128" s="127"/>
     </row>
-    <row r="129" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" customFormat="1">
       <c r="B129" s="127"/>
     </row>
-    <row r="130" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" customFormat="1">
       <c r="B130" s="127"/>
     </row>
-    <row r="131" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" customFormat="1">
       <c r="B131" s="127"/>
     </row>
-    <row r="132" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" customFormat="1">
       <c r="B132" s="127"/>
     </row>
-    <row r="133" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" customFormat="1">
       <c r="B133" s="127"/>
     </row>
-    <row r="134" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" customFormat="1">
       <c r="B134" s="127"/>
     </row>
-    <row r="135" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" customFormat="1">
       <c r="B135" s="127"/>
     </row>
-    <row r="136" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" customFormat="1">
       <c r="B136" s="127"/>
     </row>
-    <row r="137" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" customFormat="1">
       <c r="B137" s="127"/>
     </row>
-    <row r="138" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" customFormat="1">
       <c r="B138" s="127"/>
     </row>
-    <row r="139" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" customFormat="1">
       <c r="B139" s="127"/>
     </row>
-    <row r="140" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" customFormat="1">
       <c r="B140" s="127"/>
       <c r="D140">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" customFormat="1">
       <c r="B141" s="127"/>
     </row>
-    <row r="142" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" customFormat="1">
       <c r="B142" s="127"/>
     </row>
-    <row r="143" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" customFormat="1">
       <c r="B143" s="127"/>
     </row>
-    <row r="144" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" customFormat="1">
       <c r="B144" s="127"/>
     </row>
-    <row r="145" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" customFormat="1">
       <c r="B145" s="127"/>
     </row>
-    <row r="146" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" customFormat="1">
       <c r="B146" s="127"/>
     </row>
-    <row r="147" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" customFormat="1">
       <c r="B147" s="127"/>
     </row>
-    <row r="148" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" customFormat="1">
       <c r="B148" s="127"/>
     </row>
-    <row r="149" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" customFormat="1">
       <c r="B149" s="127"/>
     </row>
-    <row r="150" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" customFormat="1">
       <c r="B150" s="127"/>
     </row>
-    <row r="151" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" customFormat="1">
       <c r="B151" s="127"/>
     </row>
-    <row r="152" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" customFormat="1">
       <c r="B152" s="127"/>
     </row>
-    <row r="153" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" customFormat="1">
       <c r="B153" s="127"/>
     </row>
-    <row r="154" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" customFormat="1">
       <c r="B154" s="127"/>
     </row>
-    <row r="155" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" customFormat="1">
       <c r="B155" s="127"/>
     </row>
-    <row r="156" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" customFormat="1">
       <c r="B156" s="127"/>
     </row>
-    <row r="157" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" customFormat="1">
       <c r="B157" s="127"/>
     </row>
-    <row r="158" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" customFormat="1">
       <c r="B158" s="127"/>
     </row>
-    <row r="159" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" customFormat="1">
       <c r="B159" s="127"/>
     </row>
-    <row r="160" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" customFormat="1">
       <c r="B160" s="127"/>
     </row>
-    <row r="161" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" customFormat="1">
       <c r="B161" s="127"/>
     </row>
-    <row r="162" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" customFormat="1">
       <c r="B162" s="127"/>
     </row>
-    <row r="163" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" customFormat="1">
       <c r="B163" s="127"/>
     </row>
-    <row r="164" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" customFormat="1">
       <c r="B164" s="127"/>
     </row>
-    <row r="165" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" customFormat="1">
       <c r="B165" s="127"/>
     </row>
-    <row r="166" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" customFormat="1">
       <c r="B166" s="127"/>
       <c r="D166">
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" customFormat="1">
       <c r="B167" s="127"/>
     </row>
-    <row r="168" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" customFormat="1">
       <c r="B168" s="127"/>
     </row>
-    <row r="169" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" customFormat="1">
       <c r="B169" s="127"/>
     </row>
-    <row r="170" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" customFormat="1">
       <c r="B170" s="127"/>
     </row>
-    <row r="171" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" customFormat="1">
       <c r="B171" s="127"/>
     </row>
-    <row r="172" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" customFormat="1">
       <c r="B172" s="127"/>
     </row>
-    <row r="173" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" customFormat="1">
       <c r="B173" s="127"/>
     </row>
-    <row r="174" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" customFormat="1">
       <c r="B174" s="127"/>
     </row>
-    <row r="175" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" customFormat="1">
       <c r="B175" s="127"/>
     </row>
-    <row r="176" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" customFormat="1">
       <c r="B176" s="127"/>
     </row>
-    <row r="177" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" customFormat="1">
       <c r="B177" s="127"/>
       <c r="F177">
         <v>105</v>
       </c>
       <c r="G177" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" customFormat="1">
       <c r="B178" s="127"/>
       <c r="F178">
         <f>F177*1000</f>
         <v>105000</v>
       </c>
       <c r="G178" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" customFormat="1">
       <c r="B179" s="127"/>
       <c r="F179">
         <f>F178*100</f>
         <v>10500000</v>
       </c>
       <c r="G179" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" customFormat="1">
       <c r="B180" s="127"/>
     </row>
-    <row r="181" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" customFormat="1">
       <c r="B181" s="127"/>
     </row>
-    <row r="182" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" customFormat="1">
       <c r="B182" s="127"/>
     </row>
-    <row r="183" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7" customFormat="1">
       <c r="B183" s="127"/>
     </row>
-    <row r="184" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7" customFormat="1">
       <c r="B184" s="127"/>
     </row>
-    <row r="185" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7" customFormat="1">
       <c r="B185" s="127"/>
     </row>
-    <row r="186" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7" customFormat="1">
       <c r="B186" s="127"/>
     </row>
-    <row r="187" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" customFormat="1">
       <c r="B187" s="127"/>
     </row>
-    <row r="188" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7" customFormat="1">
       <c r="B188" s="127"/>
     </row>
-    <row r="189" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" customFormat="1">
       <c r="B189" s="127"/>
     </row>
-    <row r="190" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7" customFormat="1">
       <c r="B190" s="127"/>
     </row>
-    <row r="191" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7" customFormat="1">
       <c r="B191" s="127"/>
     </row>
-    <row r="192" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7" customFormat="1">
       <c r="B192" s="127"/>
     </row>
-    <row r="193" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:25" customFormat="1">
       <c r="B193" s="127"/>
     </row>
-    <row r="194" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:25" customFormat="1">
       <c r="B194" s="127"/>
     </row>
-    <row r="195" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:25" customFormat="1">
       <c r="B195" s="127"/>
     </row>
-    <row r="196" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:25" customFormat="1">
       <c r="B196" s="127"/>
     </row>
-    <row r="197" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:25" customFormat="1">
       <c r="B197" s="127"/>
     </row>
-    <row r="198" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:25" customFormat="1">
       <c r="B198" s="127"/>
     </row>
-    <row r="199" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:25" customFormat="1">
       <c r="B199" s="127"/>
     </row>
-    <row r="200" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B200" s="127"/>
     </row>
-    <row r="201" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:25" s="26" customFormat="1">
       <c r="B201" s="130"/>
       <c r="C201" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E201" s="130"/>
       <c r="F201" s="130" t="s">
@@ -8843,10 +8946,10 @@
       <c r="T201" s="130"/>
       <c r="U201" s="130"/>
     </row>
-    <row r="202" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:25" customFormat="1">
       <c r="B202" s="127"/>
       <c r="C202" s="140" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D202" s="140"/>
       <c r="E202" s="140"/>
@@ -8871,7 +8974,7 @@
       <c r="X202" s="140"/>
       <c r="Y202" s="140"/>
     </row>
-    <row r="203" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:25" customFormat="1">
       <c r="B203" s="127"/>
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
@@ -8897,12 +9000,12 @@
       <c r="X203" s="140"/>
       <c r="Y203" s="140"/>
     </row>
-    <row r="204" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:25" customFormat="1">
       <c r="B204" s="127"/>
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F204" s="140"/>
       <c r="G204" s="140"/>
@@ -8925,7 +9028,7 @@
       <c r="X204" s="140"/>
       <c r="Y204" s="140"/>
     </row>
-    <row r="205" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:25" customFormat="1">
       <c r="B205" s="127"/>
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
@@ -8951,7 +9054,7 @@
       <c r="X205" s="140"/>
       <c r="Y205" s="140"/>
     </row>
-    <row r="206" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:25" customFormat="1">
       <c r="B206" s="127"/>
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
@@ -8977,7 +9080,7 @@
       <c r="X206" s="140"/>
       <c r="Y206" s="140"/>
     </row>
-    <row r="207" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:25" customFormat="1">
       <c r="B207" s="127"/>
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
@@ -9003,7 +9106,7 @@
       <c r="X207" s="140"/>
       <c r="Y207" s="140"/>
     </row>
-    <row r="208" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:25" customFormat="1">
       <c r="B208" s="127"/>
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
@@ -9029,7 +9132,7 @@
       <c r="X208" s="140"/>
       <c r="Y208" s="140"/>
     </row>
-    <row r="209" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:25" customFormat="1">
       <c r="B209" s="127"/>
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
@@ -9055,7 +9158,7 @@
       <c r="X209" s="140"/>
       <c r="Y209" s="140"/>
     </row>
-    <row r="210" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:25" customFormat="1">
       <c r="B210" s="127"/>
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
@@ -9081,7 +9184,7 @@
       <c r="X210" s="140"/>
       <c r="Y210" s="140"/>
     </row>
-    <row r="211" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:25" customFormat="1">
       <c r="B211" s="127"/>
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
@@ -9107,7 +9210,7 @@
       <c r="X211" s="140"/>
       <c r="Y211" s="140"/>
     </row>
-    <row r="212" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:25" customFormat="1">
       <c r="B212" s="127"/>
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
@@ -9133,7 +9236,7 @@
       <c r="X212" s="140"/>
       <c r="Y212" s="140"/>
     </row>
-    <row r="213" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:25" customFormat="1">
       <c r="B213" s="127"/>
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
@@ -9159,7 +9262,7 @@
       <c r="X213" s="140"/>
       <c r="Y213" s="140"/>
     </row>
-    <row r="214" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:25" customFormat="1">
       <c r="B214" s="127"/>
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
@@ -9185,7 +9288,7 @@
       <c r="X214" s="140"/>
       <c r="Y214" s="140"/>
     </row>
-    <row r="215" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:25" customFormat="1">
       <c r="B215" s="127"/>
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
@@ -9211,7 +9314,7 @@
       <c r="X215" s="140"/>
       <c r="Y215" s="140"/>
     </row>
-    <row r="216" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:25" customFormat="1">
       <c r="B216" s="127"/>
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
@@ -9237,7 +9340,7 @@
       <c r="X216" s="140"/>
       <c r="Y216" s="140"/>
     </row>
-    <row r="217" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B217" s="127"/>
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
@@ -9263,7 +9366,7 @@
       <c r="X217" s="140"/>
       <c r="Y217" s="140"/>
     </row>
-    <row r="218" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:25" customFormat="1">
       <c r="B218" s="127"/>
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
@@ -9275,10 +9378,10 @@
       <c r="J218" s="140"/>
       <c r="K218" s="140"/>
       <c r="L218" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="M218" s="145" t="s">
         <v>75</v>
-      </c>
-      <c r="M218" s="145" t="s">
-        <v>76</v>
       </c>
       <c r="N218" s="140"/>
       <c r="O218" s="140"/>
@@ -9293,7 +9396,7 @@
       <c r="X218" s="140"/>
       <c r="Y218" s="140"/>
     </row>
-    <row r="219" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:25" customFormat="1">
       <c r="B219" s="127"/>
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
@@ -9305,7 +9408,7 @@
       <c r="J219" s="140"/>
       <c r="K219" s="140"/>
       <c r="L219" s="146" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M219" s="147">
         <v>5900</v>
@@ -9323,7 +9426,7 @@
       <c r="X219" s="140"/>
       <c r="Y219" s="140"/>
     </row>
-    <row r="220" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:25" customFormat="1">
       <c r="B220" s="127"/>
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
@@ -9335,7 +9438,7 @@
       <c r="J220" s="140"/>
       <c r="K220" s="140"/>
       <c r="L220" s="146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M220" s="147">
         <v>5000</v>
@@ -9353,7 +9456,7 @@
       <c r="X220" s="140"/>
       <c r="Y220" s="140"/>
     </row>
-    <row r="221" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:25" customFormat="1">
       <c r="B221" s="127"/>
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
@@ -9365,7 +9468,7 @@
       <c r="J221" s="140"/>
       <c r="K221" s="140"/>
       <c r="L221" s="146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M221" s="147">
         <v>4000</v>
@@ -9383,7 +9486,7 @@
       <c r="X221" s="140"/>
       <c r="Y221" s="140"/>
     </row>
-    <row r="222" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:25" customFormat="1">
       <c r="B222" s="127"/>
       <c r="C222" s="140"/>
       <c r="D222" s="140"/>
@@ -9395,7 +9498,7 @@
       <c r="J222" s="140"/>
       <c r="K222" s="140"/>
       <c r="L222" s="146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M222" s="147">
         <v>3200</v>
@@ -9413,7 +9516,7 @@
       <c r="X222" s="140"/>
       <c r="Y222" s="140"/>
     </row>
-    <row r="223" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B223" s="127"/>
       <c r="C223" s="140"/>
       <c r="D223" s="140"/>
@@ -9425,7 +9528,7 @@
       <c r="J223" s="140"/>
       <c r="K223" s="140"/>
       <c r="L223" s="148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M223" s="149">
         <v>2100</v>
@@ -9443,7 +9546,7 @@
       <c r="X223" s="140"/>
       <c r="Y223" s="140"/>
     </row>
-    <row r="224" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:25" customFormat="1">
       <c r="B224" s="127"/>
       <c r="C224" s="140"/>
       <c r="D224" s="140"/>
@@ -9469,7 +9572,7 @@
       <c r="X224" s="140"/>
       <c r="Y224" s="140"/>
     </row>
-    <row r="225" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:25" customFormat="1">
       <c r="B225" s="127"/>
       <c r="C225" s="140"/>
       <c r="D225" s="140"/>
@@ -9495,7 +9598,7 @@
       <c r="X225" s="140"/>
       <c r="Y225" s="140"/>
     </row>
-    <row r="226" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:25" customFormat="1">
       <c r="B226" s="127"/>
       <c r="C226" s="140"/>
       <c r="D226" s="140"/>
@@ -9521,7 +9624,7 @@
       <c r="X226" s="140"/>
       <c r="Y226" s="140"/>
     </row>
-    <row r="227" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:25" customFormat="1">
       <c r="B227" s="127"/>
       <c r="C227" s="140"/>
       <c r="D227" s="140"/>
@@ -9547,7 +9650,7 @@
       <c r="X227" s="140"/>
       <c r="Y227" s="140"/>
     </row>
-    <row r="228" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:25" customFormat="1">
       <c r="B228" s="127"/>
       <c r="C228" s="140"/>
       <c r="D228" s="140"/>
@@ -9573,7 +9676,7 @@
       <c r="X228" s="140"/>
       <c r="Y228" s="140"/>
     </row>
-    <row r="229" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:25" customFormat="1">
       <c r="B229" s="127"/>
       <c r="C229" s="140"/>
       <c r="D229" s="140"/>
@@ -9599,7 +9702,7 @@
       <c r="X229" s="140"/>
       <c r="Y229" s="140"/>
     </row>
-    <row r="230" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:25" customFormat="1">
       <c r="B230" s="127"/>
       <c r="C230" s="140"/>
       <c r="D230" s="140"/>
@@ -9625,7 +9728,7 @@
       <c r="X230" s="140"/>
       <c r="Y230" s="140"/>
     </row>
-    <row r="231" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:25" customFormat="1">
       <c r="B231" s="127"/>
       <c r="C231" s="140"/>
       <c r="D231" s="140"/>
@@ -9651,7 +9754,7 @@
       <c r="X231" s="140"/>
       <c r="Y231" s="140"/>
     </row>
-    <row r="232" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:25" customFormat="1">
       <c r="B232" s="127"/>
       <c r="C232" s="140"/>
       <c r="D232" s="140"/>
@@ -9677,7 +9780,7 @@
       <c r="X232" s="140"/>
       <c r="Y232" s="140"/>
     </row>
-    <row r="233" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:25" customFormat="1">
       <c r="B233" s="127"/>
       <c r="C233" s="140"/>
       <c r="D233" s="140"/>
@@ -9703,7 +9806,7 @@
       <c r="X233" s="140"/>
       <c r="Y233" s="140"/>
     </row>
-    <row r="234" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:25" customFormat="1">
       <c r="B234" s="127"/>
       <c r="C234" s="140"/>
       <c r="D234" s="140"/>
@@ -9729,7 +9832,7 @@
       <c r="X234" s="140"/>
       <c r="Y234" s="140"/>
     </row>
-    <row r="235" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:25" customFormat="1">
       <c r="B235" s="127"/>
       <c r="C235" s="140"/>
       <c r="D235" s="140"/>
@@ -9755,7 +9858,7 @@
       <c r="X235" s="140"/>
       <c r="Y235" s="140"/>
     </row>
-    <row r="236" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:25" customFormat="1">
       <c r="B236" s="127"/>
       <c r="C236" s="140"/>
       <c r="D236" s="140"/>
@@ -9781,7 +9884,7 @@
       <c r="X236" s="140"/>
       <c r="Y236" s="140"/>
     </row>
-    <row r="237" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:25" customFormat="1">
       <c r="B237" s="127"/>
       <c r="C237" s="140"/>
       <c r="D237" s="140"/>
@@ -9807,7 +9910,7 @@
       <c r="X237" s="140"/>
       <c r="Y237" s="140"/>
     </row>
-    <row r="238" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:25" customFormat="1">
       <c r="B238" s="127"/>
       <c r="C238" s="140"/>
       <c r="D238" s="140"/>
@@ -9833,7 +9936,7 @@
       <c r="X238" s="140"/>
       <c r="Y238" s="140"/>
     </row>
-    <row r="239" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:25" customFormat="1">
       <c r="B239" s="127"/>
       <c r="C239" s="140"/>
       <c r="D239" s="140"/>
@@ -9859,7 +9962,7 @@
       <c r="X239" s="140"/>
       <c r="Y239" s="140"/>
     </row>
-    <row r="240" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:25" customFormat="1">
       <c r="B240" s="127"/>
       <c r="C240" s="140"/>
       <c r="D240" s="140"/>
@@ -9885,7 +9988,7 @@
       <c r="X240" s="140"/>
       <c r="Y240" s="140"/>
     </row>
-    <row r="241" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:25" customFormat="1">
       <c r="B241" s="127"/>
       <c r="C241" s="140"/>
       <c r="D241" s="140"/>
@@ -9911,12 +10014,12 @@
       <c r="X241" s="140"/>
       <c r="Y241" s="140"/>
     </row>
-    <row r="242" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:25" customFormat="1">
       <c r="B242" s="127"/>
       <c r="C242" s="140"/>
       <c r="D242" s="140"/>
       <c r="E242" s="140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F242" s="140"/>
       <c r="G242" s="140"/>
@@ -9939,7 +10042,7 @@
       <c r="X242" s="140"/>
       <c r="Y242" s="140"/>
     </row>
-    <row r="243" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:25" customFormat="1">
       <c r="B243" s="127"/>
       <c r="C243" s="140"/>
       <c r="D243" s="140"/>
@@ -9965,7 +10068,7 @@
       <c r="X243" s="140"/>
       <c r="Y243" s="140"/>
     </row>
-    <row r="244" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:25" customFormat="1">
       <c r="B244" s="127"/>
       <c r="C244" s="140"/>
       <c r="D244" s="140"/>
@@ -9991,7 +10094,7 @@
       <c r="X244" s="140"/>
       <c r="Y244" s="140"/>
     </row>
-    <row r="245" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:25" customFormat="1">
       <c r="B245" s="127"/>
       <c r="C245" s="140"/>
       <c r="D245" s="140"/>
@@ -10017,7 +10120,7 @@
       <c r="X245" s="140"/>
       <c r="Y245" s="140"/>
     </row>
-    <row r="246" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:25" customFormat="1">
       <c r="B246" s="127"/>
       <c r="C246" s="140"/>
       <c r="D246" s="140"/>
@@ -10043,16 +10146,16 @@
       <c r="X246" s="140"/>
       <c r="Y246" s="140"/>
     </row>
-    <row r="247" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:25" customFormat="1">
       <c r="B247" s="127"/>
       <c r="C247" s="140"/>
       <c r="D247" s="140"/>
       <c r="E247" s="140"/>
       <c r="F247" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="G247" s="140" t="s">
         <v>83</v>
-      </c>
-      <c r="G247" s="140" t="s">
-        <v>84</v>
       </c>
       <c r="H247" s="140"/>
       <c r="I247" s="140"/>
@@ -10073,16 +10176,16 @@
       <c r="X247" s="140"/>
       <c r="Y247" s="140"/>
     </row>
-    <row r="248" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:25" customFormat="1">
       <c r="B248" s="127"/>
       <c r="C248" s="140"/>
       <c r="D248" s="140"/>
       <c r="E248" s="140"/>
       <c r="F248" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="G248" s="140" t="s">
         <v>85</v>
-      </c>
-      <c r="G248" s="140" t="s">
-        <v>86</v>
       </c>
       <c r="H248" s="140"/>
       <c r="I248" s="140"/>
@@ -10103,7 +10206,7 @@
       <c r="X248" s="140"/>
       <c r="Y248" s="140"/>
     </row>
-    <row r="249" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:25" customFormat="1">
       <c r="B249" s="127"/>
       <c r="C249" s="140"/>
       <c r="D249" s="140"/>
@@ -10129,12 +10232,12 @@
       <c r="X249" s="140"/>
       <c r="Y249" s="140"/>
     </row>
-    <row r="250" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:25" customFormat="1">
       <c r="B250" s="127"/>
       <c r="C250" s="140"/>
       <c r="D250" s="140"/>
       <c r="E250" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F250" s="140"/>
       <c r="G250" s="140"/>
@@ -10157,7 +10260,7 @@
       <c r="X250" s="140"/>
       <c r="Y250" s="140"/>
     </row>
-    <row r="251" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:25" customFormat="1">
       <c r="B251" s="127"/>
       <c r="C251" s="140"/>
       <c r="D251" s="140"/>
@@ -10183,7 +10286,7 @@
       <c r="X251" s="140"/>
       <c r="Y251" s="140"/>
     </row>
-    <row r="252" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:25" customFormat="1">
       <c r="B252" s="127"/>
       <c r="C252" s="140"/>
       <c r="D252" s="140"/>
@@ -10209,7 +10312,7 @@
       <c r="X252" s="140"/>
       <c r="Y252" s="140"/>
     </row>
-    <row r="253" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:25" customFormat="1">
       <c r="B253" s="127"/>
       <c r="C253" s="140"/>
       <c r="D253" s="140"/>
@@ -10235,7 +10338,7 @@
       <c r="X253" s="140"/>
       <c r="Y253" s="140"/>
     </row>
-    <row r="254" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:25" customFormat="1">
       <c r="B254" s="127"/>
       <c r="C254" s="140"/>
       <c r="D254" s="140"/>
@@ -10261,7 +10364,7 @@
       <c r="X254" s="140"/>
       <c r="Y254" s="140"/>
     </row>
-    <row r="255" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:25" customFormat="1">
       <c r="B255" s="127"/>
       <c r="C255" s="140"/>
       <c r="D255" s="140"/>
@@ -10287,7 +10390,7 @@
       <c r="X255" s="140"/>
       <c r="Y255" s="140"/>
     </row>
-    <row r="256" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:25" customFormat="1">
       <c r="B256" s="127"/>
       <c r="C256" s="140"/>
       <c r="D256" s="140"/>
@@ -10313,7 +10416,7 @@
       <c r="X256" s="140"/>
       <c r="Y256" s="140"/>
     </row>
-    <row r="257" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:25" customFormat="1">
       <c r="B257" s="127"/>
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
@@ -10339,7 +10442,7 @@
       <c r="X257" s="140"/>
       <c r="Y257" s="140"/>
     </row>
-    <row r="258" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:25" customFormat="1">
       <c r="B258" s="127"/>
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
@@ -10365,7 +10468,7 @@
       <c r="X258" s="140"/>
       <c r="Y258" s="140"/>
     </row>
-    <row r="259" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:25" customFormat="1">
       <c r="B259" s="127"/>
       <c r="C259" s="140"/>
       <c r="D259" s="140"/>
@@ -10391,7 +10494,7 @@
       <c r="X259" s="140"/>
       <c r="Y259" s="140"/>
     </row>
-    <row r="260" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:25" customFormat="1">
       <c r="B260" s="127"/>
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
@@ -10417,7 +10520,7 @@
       <c r="X260" s="140"/>
       <c r="Y260" s="140"/>
     </row>
-    <row r="261" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:25" customFormat="1">
       <c r="B261" s="127"/>
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
@@ -10443,7 +10546,7 @@
       <c r="X261" s="140"/>
       <c r="Y261" s="140"/>
     </row>
-    <row r="262" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:25" customFormat="1">
       <c r="B262" s="127"/>
       <c r="C262" s="140"/>
       <c r="D262" s="140"/>
@@ -10469,7 +10572,7 @@
       <c r="X262" s="140"/>
       <c r="Y262" s="140"/>
     </row>
-    <row r="263" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:25" customFormat="1">
       <c r="B263" s="127"/>
       <c r="C263" s="140"/>
       <c r="D263" s="140"/>
@@ -10495,7 +10598,7 @@
       <c r="X263" s="140"/>
       <c r="Y263" s="140"/>
     </row>
-    <row r="264" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:25" customFormat="1">
       <c r="B264" s="127"/>
       <c r="C264" s="140"/>
       <c r="D264" s="140"/>
@@ -10521,7 +10624,7 @@
       <c r="X264" s="140"/>
       <c r="Y264" s="140"/>
     </row>
-    <row r="265" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:25" customFormat="1">
       <c r="B265" s="127"/>
       <c r="C265" s="140"/>
       <c r="D265" s="140"/>
@@ -10547,7 +10650,7 @@
       <c r="X265" s="140"/>
       <c r="Y265" s="140"/>
     </row>
-    <row r="266" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:25" customFormat="1">
       <c r="B266" s="127"/>
       <c r="C266" s="140"/>
       <c r="D266" s="140"/>
@@ -10573,7 +10676,7 @@
       <c r="X266" s="140"/>
       <c r="Y266" s="140"/>
     </row>
-    <row r="267" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:25" customFormat="1">
       <c r="B267" s="127"/>
       <c r="C267" s="140"/>
       <c r="D267" s="140"/>
@@ -10599,7 +10702,7 @@
       <c r="X267" s="140"/>
       <c r="Y267" s="140"/>
     </row>
-    <row r="268" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:25" customFormat="1">
       <c r="B268" s="127"/>
       <c r="C268" s="140"/>
       <c r="D268" s="140"/>
@@ -10625,7 +10728,7 @@
       <c r="X268" s="140"/>
       <c r="Y268" s="140"/>
     </row>
-    <row r="269" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:25" customFormat="1">
       <c r="B269" s="127"/>
       <c r="C269" s="140"/>
       <c r="D269" s="140"/>
@@ -10651,12 +10754,12 @@
       <c r="X269" s="140"/>
       <c r="Y269" s="140"/>
     </row>
-    <row r="270" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:25" customFormat="1">
       <c r="B270" s="127"/>
       <c r="C270" s="140"/>
       <c r="D270" s="140"/>
       <c r="E270" s="140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F270" s="140"/>
       <c r="G270" s="140"/>
@@ -10679,7 +10782,7 @@
       <c r="X270" s="140"/>
       <c r="Y270" s="140"/>
     </row>
-    <row r="271" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:25" customFormat="1">
       <c r="B271" s="127"/>
       <c r="C271" s="140"/>
       <c r="D271" s="140"/>
@@ -10705,7 +10808,7 @@
       <c r="X271" s="140"/>
       <c r="Y271" s="140"/>
     </row>
-    <row r="272" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:25" customFormat="1">
       <c r="B272" s="127"/>
       <c r="C272" s="140"/>
       <c r="D272" s="140"/>
@@ -10731,7 +10834,7 @@
       <c r="X272" s="140"/>
       <c r="Y272" s="140"/>
     </row>
-    <row r="273" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:25" customFormat="1">
       <c r="B273" s="127"/>
       <c r="C273" s="140"/>
       <c r="D273" s="140"/>
@@ -10757,7 +10860,7 @@
       <c r="X273" s="140"/>
       <c r="Y273" s="140"/>
     </row>
-    <row r="274" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:25" customFormat="1">
       <c r="B274" s="127"/>
       <c r="C274" s="140"/>
       <c r="D274" s="140"/>
@@ -10783,7 +10886,7 @@
       <c r="X274" s="140"/>
       <c r="Y274" s="140"/>
     </row>
-    <row r="275" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:25" customFormat="1">
       <c r="B275" s="127"/>
       <c r="C275" s="140"/>
       <c r="D275" s="140"/>
@@ -10809,7 +10912,7 @@
       <c r="X275" s="140"/>
       <c r="Y275" s="140"/>
     </row>
-    <row r="276" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:25" customFormat="1">
       <c r="B276" s="127"/>
       <c r="C276" s="140"/>
       <c r="D276" s="140"/>
@@ -10835,7 +10938,7 @@
       <c r="X276" s="140"/>
       <c r="Y276" s="140"/>
     </row>
-    <row r="277" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:25" customFormat="1">
       <c r="B277" s="127"/>
       <c r="C277" s="140"/>
       <c r="D277" s="140"/>
@@ -10861,7 +10964,7 @@
       <c r="X277" s="140"/>
       <c r="Y277" s="140"/>
     </row>
-    <row r="278" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:25" customFormat="1">
       <c r="B278" s="127"/>
       <c r="C278" s="140"/>
       <c r="D278" s="140"/>
@@ -10887,7 +10990,7 @@
       <c r="X278" s="140"/>
       <c r="Y278" s="140"/>
     </row>
-    <row r="279" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:25" customFormat="1">
       <c r="B279" s="127"/>
       <c r="C279" s="140"/>
       <c r="D279" s="140"/>
@@ -10913,7 +11016,7 @@
       <c r="X279" s="140"/>
       <c r="Y279" s="140"/>
     </row>
-    <row r="280" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:25" customFormat="1">
       <c r="B280" s="127"/>
       <c r="C280" s="140"/>
       <c r="D280" s="140"/>
@@ -10939,12 +11042,12 @@
       <c r="X280" s="140"/>
       <c r="Y280" s="140"/>
     </row>
-    <row r="281" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:25" customFormat="1">
       <c r="B281" s="127"/>
       <c r="C281" s="140"/>
       <c r="D281" s="140"/>
       <c r="E281" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F281" s="140"/>
       <c r="G281" s="140"/>
@@ -10967,7 +11070,7 @@
       <c r="X281" s="140"/>
       <c r="Y281" s="140"/>
     </row>
-    <row r="282" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:25" customFormat="1">
       <c r="B282" s="127"/>
       <c r="C282" s="140"/>
       <c r="D282" s="140"/>
@@ -10993,7 +11096,7 @@
       <c r="X282" s="140"/>
       <c r="Y282" s="140"/>
     </row>
-    <row r="283" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:25" customFormat="1">
       <c r="B283" s="127"/>
       <c r="C283" s="140"/>
       <c r="D283" s="140"/>
@@ -11019,7 +11122,7 @@
       <c r="X283" s="140"/>
       <c r="Y283" s="140"/>
     </row>
-    <row r="284" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:25" customFormat="1">
       <c r="B284" s="127"/>
       <c r="C284" s="140"/>
       <c r="D284" s="140"/>
@@ -11045,7 +11148,7 @@
       <c r="X284" s="140"/>
       <c r="Y284" s="140"/>
     </row>
-    <row r="285" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:25" customFormat="1">
       <c r="B285" s="127"/>
       <c r="C285" s="140"/>
       <c r="D285" s="140"/>
@@ -11071,7 +11174,7 @@
       <c r="X285" s="140"/>
       <c r="Y285" s="140"/>
     </row>
-    <row r="286" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:25" customFormat="1">
       <c r="B286" s="127"/>
       <c r="C286" s="140"/>
       <c r="D286" s="140"/>
@@ -11097,7 +11200,7 @@
       <c r="X286" s="140"/>
       <c r="Y286" s="140"/>
     </row>
-    <row r="287" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:25" customFormat="1">
       <c r="B287" s="127"/>
       <c r="C287" s="140"/>
       <c r="D287" s="140"/>
@@ -11123,7 +11226,7 @@
       <c r="X287" s="140"/>
       <c r="Y287" s="140"/>
     </row>
-    <row r="288" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:25" customFormat="1">
       <c r="B288" s="127"/>
       <c r="C288" s="140"/>
       <c r="D288" s="140"/>
@@ -11149,7 +11252,7 @@
       <c r="X288" s="140"/>
       <c r="Y288" s="140"/>
     </row>
-    <row r="289" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:25" customFormat="1">
       <c r="B289" s="127"/>
       <c r="C289" s="140"/>
       <c r="D289" s="140"/>
@@ -11175,7 +11278,7 @@
       <c r="X289" s="140"/>
       <c r="Y289" s="140"/>
     </row>
-    <row r="290" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:25" customFormat="1">
       <c r="B290" s="127"/>
       <c r="C290" s="140"/>
       <c r="D290" s="140"/>
@@ -11201,7 +11304,7 @@
       <c r="X290" s="140"/>
       <c r="Y290" s="140"/>
     </row>
-    <row r="291" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:25" customFormat="1">
       <c r="B291" s="127"/>
       <c r="C291" s="140"/>
       <c r="D291" s="140"/>
@@ -11227,7 +11330,7 @@
       <c r="X291" s="140"/>
       <c r="Y291" s="140"/>
     </row>
-    <row r="292" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:25" customFormat="1">
       <c r="B292" s="127"/>
       <c r="C292" s="140"/>
       <c r="D292" s="140"/>
@@ -11253,7 +11356,7 @@
       <c r="X292" s="140"/>
       <c r="Y292" s="140"/>
     </row>
-    <row r="293" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:25" customFormat="1">
       <c r="B293" s="127"/>
       <c r="C293" s="140"/>
       <c r="D293" s="140"/>
@@ -11279,7 +11382,7 @@
       <c r="X293" s="140"/>
       <c r="Y293" s="140"/>
     </row>
-    <row r="294" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:25" customFormat="1">
       <c r="B294" s="127"/>
       <c r="C294" s="140"/>
       <c r="D294" s="140"/>
@@ -11305,7 +11408,7 @@
       <c r="X294" s="140"/>
       <c r="Y294" s="140"/>
     </row>
-    <row r="295" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:25" customFormat="1">
       <c r="B295" s="127"/>
       <c r="C295" s="140"/>
       <c r="D295" s="140"/>
@@ -11331,7 +11434,7 @@
       <c r="X295" s="140"/>
       <c r="Y295" s="140"/>
     </row>
-    <row r="296" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:25" customFormat="1">
       <c r="B296" s="127"/>
       <c r="C296" s="140"/>
       <c r="D296" s="140"/>
@@ -11357,7 +11460,7 @@
       <c r="X296" s="140"/>
       <c r="Y296" s="140"/>
     </row>
-    <row r="297" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:25" customFormat="1">
       <c r="B297" s="127"/>
       <c r="C297" s="140"/>
       <c r="D297" s="140"/>
@@ -11383,7 +11486,7 @@
       <c r="X297" s="140"/>
       <c r="Y297" s="140"/>
     </row>
-    <row r="298" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:25" customFormat="1">
       <c r="B298" s="127"/>
       <c r="C298" s="140"/>
       <c r="D298" s="140"/>
@@ -11409,7 +11512,7 @@
       <c r="X298" s="140"/>
       <c r="Y298" s="140"/>
     </row>
-    <row r="299" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:25" customFormat="1">
       <c r="B299" s="127"/>
       <c r="C299" s="140"/>
       <c r="D299" s="140"/>
@@ -11435,7 +11538,7 @@
       <c r="X299" s="140"/>
       <c r="Y299" s="140"/>
     </row>
-    <row r="300" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:25" customFormat="1">
       <c r="B300" s="127"/>
       <c r="C300" s="140"/>
       <c r="D300" s="140"/>
@@ -11461,7 +11564,7 @@
       <c r="X300" s="140"/>
       <c r="Y300" s="140"/>
     </row>
-    <row r="301" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:25" customFormat="1">
       <c r="B301" s="127"/>
       <c r="C301" s="140"/>
       <c r="D301" s="140"/>
@@ -11487,7 +11590,7 @@
       <c r="X301" s="140"/>
       <c r="Y301" s="140"/>
     </row>
-    <row r="302" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:25" customFormat="1">
       <c r="B302" s="127"/>
       <c r="C302" s="140"/>
       <c r="D302" s="140"/>
@@ -11513,7 +11616,7 @@
       <c r="X302" s="140"/>
       <c r="Y302" s="140"/>
     </row>
-    <row r="303" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:25" customFormat="1">
       <c r="B303" s="127"/>
       <c r="C303" s="140"/>
       <c r="D303" s="140"/>
@@ -11539,7 +11642,7 @@
       <c r="X303" s="140"/>
       <c r="Y303" s="140"/>
     </row>
-    <row r="304" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B304" s="127"/>
       <c r="C304" s="140"/>
       <c r="D304" s="140"/>
@@ -11565,13 +11668,13 @@
       <c r="X304" s="140"/>
       <c r="Y304" s="140"/>
     </row>
-    <row r="305" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:25" s="26" customFormat="1">
       <c r="B305" s="130"/>
       <c r="C305" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D305" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E305" s="130"/>
       <c r="F305" s="130" t="s">
@@ -11593,10 +11696,10 @@
       <c r="T305" s="130"/>
       <c r="U305" s="130"/>
     </row>
-    <row r="306" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:25" customFormat="1">
       <c r="B306" s="127"/>
       <c r="C306" s="150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D306" s="140"/>
       <c r="E306" s="140"/>
@@ -11621,7 +11724,7 @@
       <c r="X306" s="140"/>
       <c r="Y306" s="140"/>
     </row>
-    <row r="307" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:25" customFormat="1">
       <c r="B307" s="127"/>
       <c r="C307" s="140"/>
       <c r="D307" s="140"/>
@@ -11647,7 +11750,7 @@
       <c r="X307" s="140"/>
       <c r="Y307" s="140"/>
     </row>
-    <row r="308" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:25" customFormat="1">
       <c r="B308" s="127"/>
       <c r="C308" s="140"/>
       <c r="D308" s="140"/>
@@ -11673,7 +11776,7 @@
       <c r="X308" s="140"/>
       <c r="Y308" s="140"/>
     </row>
-    <row r="309" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:25" customFormat="1">
       <c r="B309" s="127"/>
       <c r="C309" s="140"/>
       <c r="D309" s="140"/>
@@ -11699,7 +11802,7 @@
       <c r="X309" s="140"/>
       <c r="Y309" s="140"/>
     </row>
-    <row r="310" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:25" customFormat="1">
       <c r="B310" s="127"/>
       <c r="C310" s="140"/>
       <c r="D310" s="140"/>
@@ -11725,7 +11828,7 @@
       <c r="X310" s="140"/>
       <c r="Y310" s="140"/>
     </row>
-    <row r="311" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:25" customFormat="1">
       <c r="B311" s="127"/>
       <c r="C311" s="140"/>
       <c r="D311" s="140"/>
@@ -11751,7 +11854,7 @@
       <c r="X311" s="140"/>
       <c r="Y311" s="140"/>
     </row>
-    <row r="312" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:25" customFormat="1">
       <c r="B312" s="127"/>
       <c r="C312" s="140"/>
       <c r="D312" s="140"/>
@@ -11777,7 +11880,7 @@
       <c r="X312" s="140"/>
       <c r="Y312" s="140"/>
     </row>
-    <row r="313" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:25" customFormat="1">
       <c r="B313" s="127"/>
       <c r="C313" s="140"/>
       <c r="D313" s="140"/>
@@ -11803,7 +11906,7 @@
       <c r="X313" s="140"/>
       <c r="Y313" s="140"/>
     </row>
-    <row r="314" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:25" customFormat="1">
       <c r="B314" s="127"/>
       <c r="C314" s="140"/>
       <c r="D314" s="140"/>
@@ -11829,7 +11932,7 @@
       <c r="X314" s="140"/>
       <c r="Y314" s="140"/>
     </row>
-    <row r="315" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:25" customFormat="1">
       <c r="B315" s="127"/>
       <c r="C315" s="140"/>
       <c r="D315" s="140"/>
@@ -11855,7 +11958,7 @@
       <c r="X315" s="140"/>
       <c r="Y315" s="140"/>
     </row>
-    <row r="316" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:25" customFormat="1">
       <c r="B316" s="127"/>
       <c r="C316" s="140"/>
       <c r="D316" s="140"/>
@@ -11881,7 +11984,7 @@
       <c r="X316" s="140"/>
       <c r="Y316" s="140"/>
     </row>
-    <row r="317" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:25" customFormat="1">
       <c r="B317" s="127"/>
       <c r="C317" s="140"/>
       <c r="D317" s="140"/>
@@ -11907,7 +12010,7 @@
       <c r="X317" s="140"/>
       <c r="Y317" s="140"/>
     </row>
-    <row r="318" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:25" customFormat="1">
       <c r="B318" s="127"/>
       <c r="C318" s="140"/>
       <c r="D318" s="140"/>
@@ -11933,7 +12036,7 @@
       <c r="X318" s="140"/>
       <c r="Y318" s="140"/>
     </row>
-    <row r="319" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:25" customFormat="1">
       <c r="B319" s="127"/>
       <c r="C319" s="140"/>
       <c r="D319" s="140"/>
@@ -11959,7 +12062,7 @@
       <c r="X319" s="140"/>
       <c r="Y319" s="140"/>
     </row>
-    <row r="320" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:25" customFormat="1">
       <c r="B320" s="127"/>
       <c r="C320" s="140"/>
       <c r="D320" s="140"/>
@@ -11985,7 +12088,7 @@
       <c r="X320" s="140"/>
       <c r="Y320" s="140"/>
     </row>
-    <row r="321" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:25" customFormat="1">
       <c r="B321" s="127"/>
       <c r="C321" s="140"/>
       <c r="D321" s="140"/>
@@ -12011,7 +12114,7 @@
       <c r="X321" s="140"/>
       <c r="Y321" s="140"/>
     </row>
-    <row r="322" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:25" customFormat="1">
       <c r="B322" s="127"/>
       <c r="C322" s="140"/>
       <c r="D322" s="140"/>
@@ -12037,7 +12140,7 @@
       <c r="X322" s="140"/>
       <c r="Y322" s="140"/>
     </row>
-    <row r="323" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:25" customFormat="1">
       <c r="B323" s="127"/>
       <c r="C323" s="140"/>
       <c r="D323" s="140"/>
@@ -12063,7 +12166,7 @@
       <c r="X323" s="140"/>
       <c r="Y323" s="140"/>
     </row>
-    <row r="324" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:25" customFormat="1">
       <c r="B324" s="127"/>
       <c r="C324" s="140"/>
       <c r="D324" s="140"/>
@@ -12089,7 +12192,7 @@
       <c r="X324" s="140"/>
       <c r="Y324" s="140"/>
     </row>
-    <row r="325" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:25" customFormat="1">
       <c r="B325" s="127"/>
       <c r="C325" s="140"/>
       <c r="D325" s="140"/>
@@ -12115,7 +12218,7 @@
       <c r="X325" s="140"/>
       <c r="Y325" s="140"/>
     </row>
-    <row r="326" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:25" customFormat="1">
       <c r="B326" s="127"/>
       <c r="C326" s="140"/>
       <c r="D326" s="140"/>
@@ -12141,7 +12244,7 @@
       <c r="X326" s="140"/>
       <c r="Y326" s="140"/>
     </row>
-    <row r="327" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:25" customFormat="1">
       <c r="B327" s="127"/>
       <c r="C327" s="140"/>
       <c r="D327" s="140"/>
@@ -12167,7 +12270,7 @@
       <c r="X327" s="140"/>
       <c r="Y327" s="140"/>
     </row>
-    <row r="328" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B328" s="127"/>
       <c r="C328" s="140"/>
       <c r="D328" s="140"/>
@@ -12193,13 +12296,13 @@
       <c r="X328" s="140"/>
       <c r="Y328" s="140"/>
     </row>
-    <row r="329" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:25" s="26" customFormat="1">
       <c r="B329" s="130"/>
       <c r="C329" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D329" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E329" s="130"/>
       <c r="F329" s="130" t="s">
@@ -12221,10 +12324,10 @@
       <c r="T329" s="130"/>
       <c r="U329" s="130"/>
     </row>
-    <row r="330" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:25" customFormat="1">
       <c r="B330" s="127"/>
       <c r="C330" s="140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D330" s="140"/>
       <c r="E330" s="140"/>
@@ -12249,7 +12352,7 @@
       <c r="X330" s="140"/>
       <c r="Y330" s="140"/>
     </row>
-    <row r="331" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:25" customFormat="1">
       <c r="B331" s="127"/>
       <c r="C331" s="140"/>
       <c r="D331" s="140"/>
@@ -12275,7 +12378,7 @@
       <c r="X331" s="140"/>
       <c r="Y331" s="140"/>
     </row>
-    <row r="332" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:25" customFormat="1">
       <c r="B332" s="127"/>
       <c r="C332" s="140"/>
       <c r="D332" s="140"/>
@@ -12301,12 +12404,12 @@
       <c r="X332" s="140"/>
       <c r="Y332" s="140"/>
     </row>
-    <row r="333" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:25" customFormat="1">
       <c r="B333" s="127"/>
       <c r="C333" s="140"/>
       <c r="D333" s="140"/>
       <c r="E333" s="140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F333" s="140"/>
       <c r="G333" s="140"/>
@@ -12329,7 +12432,7 @@
       <c r="X333" s="140"/>
       <c r="Y333" s="140"/>
     </row>
-    <row r="334" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:25" customFormat="1">
       <c r="B334" s="127"/>
       <c r="C334" s="140"/>
       <c r="D334" s="140"/>
@@ -12354,7 +12457,7 @@
       <c r="X334" s="140"/>
       <c r="Y334" s="140"/>
     </row>
-    <row r="335" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:25" customFormat="1">
       <c r="B335" s="127"/>
       <c r="C335" s="140"/>
       <c r="D335" s="140"/>
@@ -12379,7 +12482,7 @@
       <c r="X335" s="140"/>
       <c r="Y335" s="140"/>
     </row>
-    <row r="336" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:25" customFormat="1">
       <c r="B336" s="127"/>
       <c r="C336" s="140"/>
       <c r="D336" s="140"/>
@@ -12404,12 +12507,12 @@
       <c r="X336" s="140"/>
       <c r="Y336" s="140"/>
     </row>
-    <row r="337" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:25" customFormat="1">
       <c r="B337" s="127"/>
       <c r="C337" s="140"/>
       <c r="D337" s="140"/>
       <c r="F337" s="140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G337" s="140"/>
       <c r="H337" s="140"/>
@@ -12431,7 +12534,7 @@
       <c r="X337" s="140"/>
       <c r="Y337" s="140"/>
     </row>
-    <row r="338" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:25" customFormat="1">
       <c r="B338" s="127"/>
       <c r="C338" s="140"/>
       <c r="D338" s="140"/>
@@ -12439,10 +12542,10 @@
         <v>5000</v>
       </c>
       <c r="G338" s="140" t="s">
+        <v>93</v>
+      </c>
+      <c r="H338" s="140" t="s">
         <v>94</v>
-      </c>
-      <c r="H338" s="140" t="s">
-        <v>95</v>
       </c>
       <c r="I338" s="140"/>
       <c r="J338" s="140"/>
@@ -12462,7 +12565,7 @@
       <c r="X338" s="140"/>
       <c r="Y338" s="140"/>
     </row>
-    <row r="339" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:25" customFormat="1">
       <c r="B339" s="127"/>
       <c r="C339" s="140"/>
       <c r="D339" s="140"/>
@@ -12470,7 +12573,7 @@
         <v>1.27</v>
       </c>
       <c r="G339" s="140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H339" s="140"/>
       <c r="I339" s="140"/>
@@ -12491,7 +12594,7 @@
       <c r="X339" s="140"/>
       <c r="Y339" s="140"/>
     </row>
-    <row r="340" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:25" customFormat="1">
       <c r="B340" s="127"/>
       <c r="C340" s="140"/>
       <c r="D340" s="140"/>
@@ -12500,7 +12603,7 @@
         <v>515620</v>
       </c>
       <c r="G340" s="140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H340" s="140"/>
       <c r="I340" s="140"/>
@@ -12521,7 +12624,7 @@
       <c r="X340" s="140"/>
       <c r="Y340" s="140"/>
     </row>
-    <row r="341" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:25" customFormat="1">
       <c r="B341" s="127"/>
       <c r="C341" s="140"/>
       <c r="D341" s="140"/>
@@ -12530,7 +12633,7 @@
         <v>5156.2</v>
       </c>
       <c r="G341" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H341" s="140"/>
       <c r="I341" s="140"/>
@@ -12551,7 +12654,7 @@
       <c r="X341" s="140"/>
       <c r="Y341" s="140"/>
     </row>
-    <row r="342" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:25" customFormat="1">
       <c r="B342" s="127"/>
       <c r="C342" s="140"/>
       <c r="D342" s="140"/>
@@ -12559,7 +12662,7 @@
         <v>4060</v>
       </c>
       <c r="G342" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H342" s="140"/>
       <c r="I342" s="140"/>
@@ -12580,7 +12683,7 @@
       <c r="X342" s="140"/>
       <c r="Y342" s="140"/>
     </row>
-    <row r="343" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:25" customFormat="1">
       <c r="B343" s="127"/>
       <c r="C343" s="140"/>
       <c r="D343" s="140"/>
@@ -12589,7 +12692,7 @@
         <v>406000</v>
       </c>
       <c r="G343" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H343" s="140"/>
       <c r="I343" s="140"/>
@@ -12610,7 +12713,7 @@
       <c r="X343" s="140"/>
       <c r="Y343" s="140"/>
     </row>
-    <row r="344" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:25" customFormat="1">
       <c r="B344" s="127"/>
       <c r="C344" s="140"/>
       <c r="D344" s="140"/>
@@ -12618,7 +12721,7 @@
         <v>103</v>
       </c>
       <c r="G344" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H344" s="140"/>
       <c r="I344" s="140"/>
@@ -12639,7 +12742,7 @@
       <c r="X344" s="140"/>
       <c r="Y344" s="140"/>
     </row>
-    <row r="345" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:25" customFormat="1">
       <c r="B345" s="127"/>
       <c r="C345" s="140"/>
       <c r="D345" s="140"/>
@@ -12649,7 +12752,7 @@
         <v>10300000</v>
       </c>
       <c r="G345" s="172" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H345" s="140"/>
       <c r="I345" s="173"/>
@@ -12670,7 +12773,7 @@
       <c r="X345" s="140"/>
       <c r="Y345" s="140"/>
     </row>
-    <row r="346" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:25" customFormat="1">
       <c r="B346" s="127"/>
       <c r="C346" s="140"/>
       <c r="D346" s="140"/>
@@ -12679,10 +12782,10 @@
         <v>2.5369458128078819E-2</v>
       </c>
       <c r="G346" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="H346" s="140" t="s">
         <v>102</v>
-      </c>
-      <c r="H346" s="140" t="s">
-        <v>103</v>
       </c>
       <c r="I346" s="140"/>
       <c r="J346" s="140"/>
@@ -12702,7 +12805,7 @@
       <c r="X346" s="140"/>
       <c r="Y346" s="140"/>
     </row>
-    <row r="347" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:25" customFormat="1">
       <c r="B347" s="127"/>
       <c r="C347" s="140"/>
       <c r="D347" s="140"/>
@@ -12714,7 +12817,7 @@
         <v>60</v>
       </c>
       <c r="H347" s="140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I347" s="140"/>
       <c r="J347" s="140"/>
@@ -12734,7 +12837,7 @@
       <c r="X347" s="140"/>
       <c r="Y347" s="140"/>
     </row>
-    <row r="348" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:25" customFormat="1">
       <c r="B348" s="127"/>
       <c r="C348" s="140"/>
       <c r="D348" s="140"/>
@@ -12744,7 +12847,7 @@
         <v>19.975951281951826</v>
       </c>
       <c r="G348" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H348" s="140"/>
       <c r="I348" s="140"/>
@@ -12765,7 +12868,7 @@
       <c r="X348" s="140"/>
       <c r="Y348" s="140"/>
     </row>
-    <row r="349" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:25" customFormat="1">
       <c r="B349" s="127"/>
       <c r="C349" s="140"/>
       <c r="D349" s="140"/>
@@ -12791,7 +12894,7 @@
       <c r="X349" s="140"/>
       <c r="Y349" s="140"/>
     </row>
-    <row r="350" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:25" customFormat="1">
       <c r="B350" s="127"/>
       <c r="C350" s="140"/>
       <c r="D350" s="140"/>
@@ -12817,7 +12920,7 @@
       <c r="X350" s="140"/>
       <c r="Y350" s="140"/>
     </row>
-    <row r="351" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:25" customFormat="1">
       <c r="B351" s="127"/>
       <c r="C351" s="140"/>
       <c r="D351" s="140"/>
@@ -12843,7 +12946,7 @@
       <c r="X351" s="140"/>
       <c r="Y351" s="140"/>
     </row>
-    <row r="352" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:25" customFormat="1">
       <c r="B352" s="127"/>
       <c r="C352" s="140"/>
       <c r="D352" s="140"/>
@@ -12869,7 +12972,7 @@
       <c r="X352" s="140"/>
       <c r="Y352" s="140"/>
     </row>
-    <row r="353" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:25" customFormat="1">
       <c r="B353" s="127"/>
       <c r="C353" s="140"/>
       <c r="D353" s="140"/>
@@ -12895,7 +12998,7 @@
       <c r="X353" s="140"/>
       <c r="Y353" s="140"/>
     </row>
-    <row r="354" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:25" customFormat="1">
       <c r="B354" s="127"/>
       <c r="C354" s="140"/>
       <c r="D354" s="140"/>
@@ -12921,7 +13024,7 @@
       <c r="X354" s="140"/>
       <c r="Y354" s="140"/>
     </row>
-    <row r="355" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:25" customFormat="1">
       <c r="B355" s="127"/>
       <c r="C355" s="140"/>
       <c r="D355" s="140"/>
@@ -12947,7 +13050,7 @@
       <c r="X355" s="140"/>
       <c r="Y355" s="140"/>
     </row>
-    <row r="356" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:25" customFormat="1">
       <c r="B356" s="127"/>
       <c r="C356" s="140"/>
       <c r="D356" s="140"/>
@@ -12973,7 +13076,7 @@
       <c r="X356" s="140"/>
       <c r="Y356" s="140"/>
     </row>
-    <row r="357" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:25" customFormat="1">
       <c r="B357" s="127"/>
       <c r="C357" s="140"/>
       <c r="D357" s="140"/>
@@ -12999,7 +13102,7 @@
       <c r="X357" s="140"/>
       <c r="Y357" s="140"/>
     </row>
-    <row r="358" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:25" customFormat="1">
       <c r="B358" s="127"/>
       <c r="C358" s="140"/>
       <c r="D358" s="140"/>
@@ -13025,7 +13128,7 @@
       <c r="X358" s="140"/>
       <c r="Y358" s="140"/>
     </row>
-    <row r="359" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:25" customFormat="1">
       <c r="B359" s="127"/>
       <c r="C359" s="140"/>
       <c r="D359" s="140"/>
@@ -13051,7 +13154,7 @@
       <c r="X359" s="140"/>
       <c r="Y359" s="140"/>
     </row>
-    <row r="360" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:25" customFormat="1">
       <c r="B360" s="127"/>
       <c r="C360" s="140"/>
       <c r="D360" s="140"/>
@@ -13077,7 +13180,7 @@
       <c r="X360" s="140"/>
       <c r="Y360" s="140"/>
     </row>
-    <row r="361" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:25" customFormat="1">
       <c r="B361" s="127"/>
       <c r="C361" s="140"/>
       <c r="D361" s="140"/>
@@ -13103,7 +13206,7 @@
       <c r="X361" s="140"/>
       <c r="Y361" s="140"/>
     </row>
-    <row r="362" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:25" customFormat="1">
       <c r="B362" s="127"/>
       <c r="C362" s="140"/>
       <c r="D362" s="140"/>
@@ -13129,7 +13232,7 @@
       <c r="X362" s="140"/>
       <c r="Y362" s="140"/>
     </row>
-    <row r="363" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:25" customFormat="1">
       <c r="B363" s="127"/>
       <c r="C363" s="140"/>
       <c r="D363" s="140"/>
@@ -13155,7 +13258,7 @@
       <c r="X363" s="140"/>
       <c r="Y363" s="140"/>
     </row>
-    <row r="364" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:25" customFormat="1">
       <c r="B364" s="127"/>
       <c r="C364" s="140"/>
       <c r="D364" s="140"/>
@@ -13181,7 +13284,7 @@
       <c r="X364" s="140"/>
       <c r="Y364" s="140"/>
     </row>
-    <row r="365" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:25" customFormat="1">
       <c r="B365" s="127"/>
       <c r="C365" s="140"/>
       <c r="D365" s="140"/>
@@ -13207,7 +13310,7 @@
       <c r="X365" s="140"/>
       <c r="Y365" s="140"/>
     </row>
-    <row r="366" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:25" customFormat="1">
       <c r="B366" s="127"/>
       <c r="C366" s="140"/>
       <c r="D366" s="140"/>
@@ -13233,7 +13336,7 @@
       <c r="X366" s="140"/>
       <c r="Y366" s="140"/>
     </row>
-    <row r="367" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:25" customFormat="1">
       <c r="B367" s="127"/>
       <c r="C367" s="140"/>
       <c r="D367" s="140"/>
@@ -13259,7 +13362,7 @@
       <c r="X367" s="140"/>
       <c r="Y367" s="140"/>
     </row>
-    <row r="368" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:25" customFormat="1">
       <c r="B368" s="127"/>
       <c r="C368" s="140"/>
       <c r="D368" s="140"/>
@@ -13285,7 +13388,7 @@
       <c r="X368" s="140"/>
       <c r="Y368" s="140"/>
     </row>
-    <row r="369" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:25" customFormat="1">
       <c r="B369" s="127"/>
       <c r="C369" s="140"/>
       <c r="D369" s="140"/>
@@ -13311,7 +13414,7 @@
       <c r="X369" s="140"/>
       <c r="Y369" s="140"/>
     </row>
-    <row r="370" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:25" customFormat="1">
       <c r="B370" s="127"/>
       <c r="C370" s="140"/>
       <c r="D370" s="140"/>
@@ -13337,7 +13440,7 @@
       <c r="X370" s="140"/>
       <c r="Y370" s="140"/>
     </row>
-    <row r="371" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:25" customFormat="1">
       <c r="B371" s="127"/>
       <c r="C371" s="140"/>
       <c r="D371" s="140"/>
@@ -13363,7 +13466,7 @@
       <c r="X371" s="140"/>
       <c r="Y371" s="140"/>
     </row>
-    <row r="372" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:25" customFormat="1">
       <c r="B372" s="127"/>
       <c r="C372" s="140"/>
       <c r="D372" s="140"/>
@@ -13389,7 +13492,7 @@
       <c r="X372" s="140"/>
       <c r="Y372" s="140"/>
     </row>
-    <row r="373" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:25" customFormat="1">
       <c r="B373" s="127"/>
       <c r="C373" s="140"/>
       <c r="D373" s="140"/>
@@ -13415,7 +13518,7 @@
       <c r="X373" s="140"/>
       <c r="Y373" s="140"/>
     </row>
-    <row r="374" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:25" customFormat="1">
       <c r="B374" s="127"/>
       <c r="C374" s="140"/>
       <c r="D374" s="140"/>
@@ -13441,7 +13544,7 @@
       <c r="X374" s="140"/>
       <c r="Y374" s="140"/>
     </row>
-    <row r="375" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:25" customFormat="1">
       <c r="B375" s="127"/>
       <c r="C375" s="140"/>
       <c r="D375" s="140"/>
@@ -13467,7 +13570,7 @@
       <c r="X375" s="140"/>
       <c r="Y375" s="140"/>
     </row>
-    <row r="376" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:25" customFormat="1">
       <c r="B376" s="127"/>
       <c r="C376" s="140"/>
       <c r="D376" s="140"/>
@@ -13493,7 +13596,7 @@
       <c r="X376" s="140"/>
       <c r="Y376" s="140"/>
     </row>
-    <row r="377" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:25" customFormat="1">
       <c r="B377" s="127"/>
       <c r="C377" s="140"/>
       <c r="D377" s="140"/>
@@ -13519,7 +13622,7 @@
       <c r="X377" s="140"/>
       <c r="Y377" s="140"/>
     </row>
-    <row r="378" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:25" customFormat="1">
       <c r="B378" s="127"/>
       <c r="C378" s="140"/>
       <c r="D378" s="140"/>
@@ -13545,7 +13648,7 @@
       <c r="X378" s="140"/>
       <c r="Y378" s="140"/>
     </row>
-    <row r="379" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:25" customFormat="1">
       <c r="B379" s="127"/>
       <c r="C379" s="140"/>
       <c r="D379" s="140"/>
@@ -13571,7 +13674,7 @@
       <c r="X379" s="140"/>
       <c r="Y379" s="140"/>
     </row>
-    <row r="380" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:25" customFormat="1">
       <c r="B380" s="127"/>
       <c r="C380" s="140"/>
       <c r="D380" s="140"/>
@@ -13597,7 +13700,7 @@
       <c r="X380" s="140"/>
       <c r="Y380" s="140"/>
     </row>
-    <row r="381" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:25" customFormat="1">
       <c r="B381" s="127"/>
       <c r="C381" s="140"/>
       <c r="D381" s="140"/>
@@ -13623,7 +13726,7 @@
       <c r="X381" s="140"/>
       <c r="Y381" s="140"/>
     </row>
-    <row r="382" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:25" customFormat="1">
       <c r="B382" s="127"/>
       <c r="C382" s="140"/>
       <c r="D382" s="140"/>
@@ -13649,7 +13752,7 @@
       <c r="X382" s="140"/>
       <c r="Y382" s="140"/>
     </row>
-    <row r="383" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:25" customFormat="1">
       <c r="B383" s="127"/>
       <c r="C383" s="140"/>
       <c r="D383" s="140"/>
@@ -13675,7 +13778,7 @@
       <c r="X383" s="140"/>
       <c r="Y383" s="140"/>
     </row>
-    <row r="384" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:25" customFormat="1">
       <c r="B384" s="127"/>
       <c r="C384" s="140"/>
       <c r="D384" s="140"/>
@@ -13701,7 +13804,7 @@
       <c r="X384" s="140"/>
       <c r="Y384" s="140"/>
     </row>
-    <row r="385" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:25" customFormat="1">
       <c r="B385" s="127"/>
       <c r="C385" s="140"/>
       <c r="D385" s="140"/>
@@ -13727,7 +13830,7 @@
       <c r="X385" s="140"/>
       <c r="Y385" s="140"/>
     </row>
-    <row r="386" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:25" customFormat="1">
       <c r="B386" s="127"/>
       <c r="C386" s="140"/>
       <c r="D386" s="140"/>
@@ -13753,7 +13856,7 @@
       <c r="X386" s="140"/>
       <c r="Y386" s="140"/>
     </row>
-    <row r="387" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:25" customFormat="1">
       <c r="B387" s="127"/>
       <c r="C387" s="140"/>
       <c r="D387" s="140"/>
@@ -13779,7 +13882,7 @@
       <c r="X387" s="140"/>
       <c r="Y387" s="140"/>
     </row>
-    <row r="388" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:25" customFormat="1">
       <c r="B388" s="127"/>
       <c r="C388" s="140"/>
       <c r="D388" s="140"/>
@@ -13805,7 +13908,7 @@
       <c r="X388" s="140"/>
       <c r="Y388" s="140"/>
     </row>
-    <row r="389" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B389" s="127"/>
       <c r="C389" s="140"/>
       <c r="D389" s="140"/>
@@ -13831,13 +13934,13 @@
       <c r="X389" s="140"/>
       <c r="Y389" s="140"/>
     </row>
-    <row r="390" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:25" s="26" customFormat="1">
       <c r="B390" s="130"/>
       <c r="C390" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D390" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E390" s="130"/>
       <c r="F390" s="130" t="s">
@@ -13859,7 +13962,7 @@
       <c r="T390" s="130"/>
       <c r="U390" s="130"/>
     </row>
-    <row r="391" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:25" customFormat="1">
       <c r="B391" s="127"/>
       <c r="C391" s="140"/>
       <c r="D391" s="140"/>
@@ -13885,7 +13988,7 @@
       <c r="X391" s="140"/>
       <c r="Y391" s="140"/>
     </row>
-    <row r="392" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:25" customFormat="1">
       <c r="B392" s="127"/>
       <c r="C392" s="150"/>
       <c r="D392" s="140"/>
@@ -13911,10 +14014,10 @@
       <c r="X392" s="140"/>
       <c r="Y392" s="140"/>
     </row>
-    <row r="393" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:25" customFormat="1">
       <c r="B393" s="127"/>
       <c r="C393" s="151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D393" s="140"/>
       <c r="E393" s="140"/>
@@ -13939,7 +14042,7 @@
       <c r="X393" s="140"/>
       <c r="Y393" s="140"/>
     </row>
-    <row r="394" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:25" customFormat="1">
       <c r="B394" s="127"/>
       <c r="C394" s="140"/>
       <c r="D394" s="140"/>
@@ -13965,7 +14068,7 @@
       <c r="X394" s="140"/>
       <c r="Y394" s="140"/>
     </row>
-    <row r="395" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:25" customFormat="1">
       <c r="B395" s="127"/>
       <c r="C395" s="140"/>
       <c r="D395" s="140"/>
@@ -13991,7 +14094,7 @@
       <c r="X395" s="140"/>
       <c r="Y395" s="140"/>
     </row>
-    <row r="396" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:25" customFormat="1">
       <c r="B396" s="127"/>
       <c r="C396" s="140"/>
       <c r="D396" s="140"/>
@@ -14017,7 +14120,7 @@
       <c r="X396" s="140"/>
       <c r="Y396" s="140"/>
     </row>
-    <row r="397" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:25" customFormat="1">
       <c r="B397" s="127"/>
       <c r="C397" s="140"/>
       <c r="D397" s="140"/>
@@ -14026,7 +14129,7 @@
         <v>1055</v>
       </c>
       <c r="G397" s="140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H397" s="140"/>
       <c r="K397" s="140"/>
@@ -14045,7 +14148,7 @@
       <c r="X397" s="140"/>
       <c r="Y397" s="140"/>
     </row>
-    <row r="398" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:25" customFormat="1">
       <c r="B398" s="127"/>
       <c r="C398" s="140"/>
       <c r="D398" s="140"/>
@@ -14054,7 +14157,7 @@
         <v>3.78541178</v>
       </c>
       <c r="G398" s="140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J398" s="140"/>
       <c r="K398" s="140"/>
@@ -14073,7 +14176,7 @@
       <c r="X398" s="140"/>
       <c r="Y398" s="140"/>
     </row>
-    <row r="399" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:25" customFormat="1">
       <c r="B399" s="127"/>
       <c r="C399" s="140"/>
       <c r="D399" s="140"/>
@@ -14099,7 +14202,7 @@
       <c r="X399" s="140"/>
       <c r="Y399" s="140"/>
     </row>
-    <row r="400" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:25" customFormat="1">
       <c r="B400" s="127"/>
       <c r="C400" s="140"/>
       <c r="D400" s="140"/>
@@ -14125,7 +14228,7 @@
       <c r="X400" s="140"/>
       <c r="Y400" s="140"/>
     </row>
-    <row r="401" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:25" customFormat="1">
       <c r="B401" s="127"/>
       <c r="C401" s="140"/>
       <c r="D401" s="140"/>
@@ -14151,18 +14254,18 @@
       <c r="X401" s="140"/>
       <c r="Y401" s="140"/>
     </row>
-    <row r="402" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:25" customFormat="1">
       <c r="B402" s="127"/>
       <c r="C402" s="140"/>
       <c r="D402" s="140"/>
       <c r="E402" s="156" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F402" s="157">
         <v>76330</v>
       </c>
       <c r="G402" s="157" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H402" s="157"/>
       <c r="I402" s="158"/>
@@ -14183,7 +14286,7 @@
       <c r="X402" s="140"/>
       <c r="Y402" s="140"/>
     </row>
-    <row r="403" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:25" customFormat="1">
       <c r="B403" s="127"/>
       <c r="C403" s="140"/>
       <c r="D403" s="140"/>
@@ -14193,7 +14296,7 @@
         <v>80528150</v>
       </c>
       <c r="G403" s="157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H403" s="157"/>
       <c r="I403" s="158"/>
@@ -14214,7 +14317,7 @@
       <c r="X403" s="140"/>
       <c r="Y403" s="140"/>
     </row>
-    <row r="404" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:25" customFormat="1">
       <c r="B404" s="127"/>
       <c r="C404" s="140"/>
       <c r="D404" s="140"/>
@@ -14224,7 +14327,7 @@
         <v>80.528149999999997</v>
       </c>
       <c r="G404" s="157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H404" s="157"/>
       <c r="I404" s="158"/>
@@ -14245,19 +14348,19 @@
       <c r="X404" s="140"/>
       <c r="Y404" s="140"/>
     </row>
-    <row r="405" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:25" customFormat="1">
       <c r="B405" s="127"/>
       <c r="C405" s="140"/>
       <c r="D405" s="140"/>
       <c r="E405" s="160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F405" s="161">
         <f>F404/F398</f>
         <v>21.273286680584061</v>
       </c>
       <c r="G405" s="161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H405" s="162"/>
       <c r="I405" s="163"/>
@@ -14278,7 +14381,7 @@
       <c r="X405" s="140"/>
       <c r="Y405" s="140"/>
     </row>
-    <row r="406" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:25" customFormat="1">
       <c r="B406" s="127"/>
       <c r="C406" s="140"/>
       <c r="D406" s="140"/>
@@ -14304,7 +14407,7 @@
       <c r="X406" s="140"/>
       <c r="Y406" s="140"/>
     </row>
-    <row r="407" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:25" customFormat="1">
       <c r="B407" s="127"/>
       <c r="C407" s="140"/>
       <c r="D407" s="140"/>
@@ -14330,7 +14433,7 @@
       <c r="X407" s="140"/>
       <c r="Y407" s="140"/>
     </row>
-    <row r="408" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:25" customFormat="1">
       <c r="B408" s="127"/>
       <c r="C408" s="140"/>
       <c r="D408" s="140"/>
@@ -14356,7 +14459,7 @@
       <c r="X408" s="140"/>
       <c r="Y408" s="140"/>
     </row>
-    <row r="409" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:25" customFormat="1">
       <c r="B409" s="127"/>
       <c r="C409" s="140"/>
       <c r="D409" s="140"/>
@@ -14382,7 +14485,7 @@
       <c r="X409" s="140"/>
       <c r="Y409" s="140"/>
     </row>
-    <row r="410" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:25" customFormat="1">
       <c r="B410" s="127"/>
       <c r="C410" s="140"/>
       <c r="D410" s="140"/>
@@ -14408,7 +14511,7 @@
       <c r="X410" s="140"/>
       <c r="Y410" s="140"/>
     </row>
-    <row r="411" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:25" customFormat="1">
       <c r="B411" s="127"/>
       <c r="C411" s="140"/>
       <c r="D411" s="140"/>
@@ -14434,7 +14537,7 @@
       <c r="X411" s="140"/>
       <c r="Y411" s="140"/>
     </row>
-    <row r="412" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:25" customFormat="1">
       <c r="B412" s="127"/>
       <c r="C412" s="140"/>
       <c r="D412" s="140"/>
@@ -14460,7 +14563,7 @@
       <c r="X412" s="140"/>
       <c r="Y412" s="140"/>
     </row>
-    <row r="413" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:25" customFormat="1">
       <c r="B413" s="127"/>
       <c r="C413" s="140"/>
       <c r="D413" s="140"/>
@@ -14486,7 +14589,7 @@
       <c r="X413" s="140"/>
       <c r="Y413" s="140"/>
     </row>
-    <row r="414" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:25" customFormat="1">
       <c r="B414" s="127"/>
       <c r="C414" s="140"/>
       <c r="D414" s="140"/>
@@ -14512,7 +14615,7 @@
       <c r="X414" s="140"/>
       <c r="Y414" s="140"/>
     </row>
-    <row r="415" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:25" customFormat="1">
       <c r="B415" s="127"/>
       <c r="C415" s="140"/>
       <c r="D415" s="140"/>
@@ -14538,7 +14641,7 @@
       <c r="X415" s="140"/>
       <c r="Y415" s="140"/>
     </row>
-    <row r="416" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:25" customFormat="1">
       <c r="B416" s="127"/>
       <c r="C416" s="140"/>
       <c r="D416" s="140"/>
@@ -14564,7 +14667,7 @@
       <c r="X416" s="140"/>
       <c r="Y416" s="140"/>
     </row>
-    <row r="417" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:25" customFormat="1">
       <c r="B417" s="127"/>
       <c r="C417" s="140"/>
       <c r="D417" s="140"/>
@@ -14590,7 +14693,7 @@
       <c r="X417" s="140"/>
       <c r="Y417" s="140"/>
     </row>
-    <row r="418" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:25" customFormat="1">
       <c r="B418" s="127"/>
       <c r="C418" s="140"/>
       <c r="D418" s="140"/>
@@ -14616,7 +14719,7 @@
       <c r="X418" s="140"/>
       <c r="Y418" s="140"/>
     </row>
-    <row r="419" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:25" customFormat="1">
       <c r="B419" s="127"/>
       <c r="C419" s="140"/>
       <c r="D419" s="140"/>
@@ -14642,7 +14745,7 @@
       <c r="X419" s="140"/>
       <c r="Y419" s="140"/>
     </row>
-    <row r="420" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:25" customFormat="1">
       <c r="B420" s="127"/>
       <c r="C420" s="140"/>
       <c r="D420" s="140"/>
@@ -14668,7 +14771,7 @@
       <c r="X420" s="140"/>
       <c r="Y420" s="140"/>
     </row>
-    <row r="421" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:25" customFormat="1">
       <c r="B421" s="127"/>
       <c r="C421" s="140"/>
       <c r="D421" s="140"/>
@@ -14694,7 +14797,7 @@
       <c r="X421" s="140"/>
       <c r="Y421" s="140"/>
     </row>
-    <row r="422" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:25" customFormat="1">
       <c r="B422" s="127"/>
       <c r="C422" s="140"/>
       <c r="D422" s="140"/>
@@ -14720,7 +14823,7 @@
       <c r="X422" s="140"/>
       <c r="Y422" s="140"/>
     </row>
-    <row r="423" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B423" s="127"/>
       <c r="C423" s="140"/>
       <c r="D423" s="140"/>
@@ -14746,13 +14849,13 @@
       <c r="X423" s="140"/>
       <c r="Y423" s="140"/>
     </row>
-    <row r="424" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:25" s="26" customFormat="1">
       <c r="B424" s="130"/>
       <c r="C424" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D424" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E424" s="130"/>
       <c r="F424" s="130" t="s">
@@ -14774,10 +14877,10 @@
       <c r="T424" s="130"/>
       <c r="U424" s="130"/>
     </row>
-    <row r="425" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:25" customFormat="1">
       <c r="B425" s="127"/>
       <c r="C425" s="164" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D425" s="140"/>
       <c r="E425" s="140"/>
@@ -14802,7 +14905,7 @@
       <c r="X425" s="140"/>
       <c r="Y425" s="140"/>
     </row>
-    <row r="426" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:25" customFormat="1">
       <c r="B426" s="127"/>
       <c r="C426" s="140"/>
       <c r="D426" s="140">
@@ -14830,7 +14933,7 @@
       <c r="X426" s="140"/>
       <c r="Y426" s="140"/>
     </row>
-    <row r="427" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:25" customFormat="1">
       <c r="B427" s="127"/>
       <c r="C427" s="140"/>
       <c r="D427" s="140"/>
@@ -14856,18 +14959,18 @@
       <c r="X427" s="140"/>
       <c r="Y427" s="140"/>
     </row>
-    <row r="428" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:25" customFormat="1">
       <c r="B428" s="127"/>
       <c r="C428" s="140"/>
       <c r="D428" s="140"/>
       <c r="E428" s="140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F428" s="140">
         <v>21.1</v>
       </c>
       <c r="G428" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H428" s="140"/>
       <c r="I428" s="140"/>
@@ -14888,18 +14991,18 @@
       <c r="X428" s="140"/>
       <c r="Y428" s="140"/>
     </row>
-    <row r="429" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:25" customFormat="1">
       <c r="B429" s="127"/>
       <c r="C429" s="140"/>
       <c r="D429" s="140"/>
       <c r="E429" s="140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F429" s="140">
         <v>23.4</v>
       </c>
       <c r="G429" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H429" s="140"/>
       <c r="I429" s="140"/>
@@ -14920,7 +15023,7 @@
       <c r="X429" s="140"/>
       <c r="Y429" s="140"/>
     </row>
-    <row r="430" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:25" customFormat="1">
       <c r="B430" s="127"/>
       <c r="C430" s="140"/>
       <c r="D430" s="140"/>
@@ -14946,7 +15049,7 @@
       <c r="X430" s="140"/>
       <c r="Y430" s="140"/>
     </row>
-    <row r="431" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:25" customFormat="1">
       <c r="B431" s="127"/>
       <c r="C431" s="140"/>
       <c r="D431" s="140"/>
@@ -14972,12 +15075,12 @@
       <c r="X431" s="140"/>
       <c r="Y431" s="140"/>
     </row>
-    <row r="432" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:25" customFormat="1">
       <c r="B432" s="127"/>
       <c r="C432" s="140"/>
       <c r="D432" s="140"/>
       <c r="E432" s="140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F432" s="140"/>
       <c r="G432" s="140"/>
@@ -15000,7 +15103,7 @@
       <c r="X432" s="140"/>
       <c r="Y432" s="140"/>
     </row>
-    <row r="433" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:25" customFormat="1">
       <c r="B433" s="127"/>
       <c r="C433" s="140"/>
       <c r="D433" s="140"/>
@@ -15026,7 +15129,7 @@
       <c r="X433" s="140"/>
       <c r="Y433" s="140"/>
     </row>
-    <row r="434" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:25" customFormat="1">
       <c r="B434" s="127"/>
       <c r="C434" s="140"/>
       <c r="D434" s="140"/>
@@ -15052,7 +15155,7 @@
       <c r="X434" s="140"/>
       <c r="Y434" s="140"/>
     </row>
-    <row r="435" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:25" customFormat="1">
       <c r="B435" s="127"/>
       <c r="C435" s="140"/>
       <c r="D435" s="140"/>
@@ -15078,7 +15181,7 @@
       <c r="X435" s="140"/>
       <c r="Y435" s="140"/>
     </row>
-    <row r="436" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:25" customFormat="1">
       <c r="B436" s="127"/>
       <c r="C436" s="140"/>
       <c r="D436" s="140"/>
@@ -15104,7 +15207,7 @@
       <c r="X436" s="140"/>
       <c r="Y436" s="140"/>
     </row>
-    <row r="437" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:25" customFormat="1">
       <c r="B437" s="127"/>
       <c r="C437" s="140"/>
       <c r="D437" s="140"/>
@@ -15130,7 +15233,7 @@
       <c r="X437" s="140"/>
       <c r="Y437" s="140"/>
     </row>
-    <row r="438" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:25" customFormat="1">
       <c r="B438" s="127"/>
       <c r="C438" s="140"/>
       <c r="D438" s="140"/>
@@ -15156,7 +15259,7 @@
       <c r="X438" s="140"/>
       <c r="Y438" s="140"/>
     </row>
-    <row r="439" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:25" customFormat="1">
       <c r="B439" s="127"/>
       <c r="C439" s="140"/>
       <c r="D439" s="140"/>
@@ -15182,7 +15285,7 @@
       <c r="X439" s="140"/>
       <c r="Y439" s="140"/>
     </row>
-    <row r="440" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:25" customFormat="1">
       <c r="B440" s="127"/>
       <c r="C440" s="140"/>
       <c r="D440" s="140"/>
@@ -15208,7 +15311,7 @@
       <c r="X440" s="140"/>
       <c r="Y440" s="140"/>
     </row>
-    <row r="441" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:25" customFormat="1">
       <c r="B441" s="127"/>
       <c r="C441" s="140"/>
       <c r="D441" s="140"/>
@@ -15234,7 +15337,7 @@
       <c r="X441" s="140"/>
       <c r="Y441" s="140"/>
     </row>
-    <row r="442" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:25" customFormat="1">
       <c r="B442" s="127"/>
       <c r="C442" s="140"/>
       <c r="D442" s="140"/>
@@ -15260,7 +15363,7 @@
       <c r="X442" s="140"/>
       <c r="Y442" s="140"/>
     </row>
-    <row r="443" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:25" customFormat="1">
       <c r="B443" s="127"/>
       <c r="C443" s="140"/>
       <c r="D443" s="140"/>
@@ -15286,7 +15389,7 @@
       <c r="X443" s="140"/>
       <c r="Y443" s="140"/>
     </row>
-    <row r="444" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:25" customFormat="1">
       <c r="B444" s="127"/>
       <c r="C444" s="140"/>
       <c r="D444" s="140"/>
@@ -15312,7 +15415,7 @@
       <c r="X444" s="140"/>
       <c r="Y444" s="140"/>
     </row>
-    <row r="445" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:25" customFormat="1">
       <c r="B445" s="127"/>
       <c r="C445" s="140"/>
       <c r="D445" s="140"/>
@@ -15338,7 +15441,7 @@
       <c r="X445" s="140"/>
       <c r="Y445" s="140"/>
     </row>
-    <row r="446" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:25" customFormat="1">
       <c r="B446" s="127"/>
       <c r="C446" s="140"/>
       <c r="D446" s="140"/>
@@ -15364,7 +15467,7 @@
       <c r="X446" s="140"/>
       <c r="Y446" s="140"/>
     </row>
-    <row r="447" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:25" customFormat="1">
       <c r="B447" s="127"/>
       <c r="C447" s="140"/>
       <c r="D447" s="140"/>
@@ -15390,7 +15493,7 @@
       <c r="X447" s="140"/>
       <c r="Y447" s="140"/>
     </row>
-    <row r="448" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:25" customFormat="1">
       <c r="B448" s="127"/>
       <c r="C448" s="140"/>
       <c r="D448" s="140"/>
@@ -15416,7 +15519,7 @@
       <c r="X448" s="140"/>
       <c r="Y448" s="140"/>
     </row>
-    <row r="449" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B449" s="127"/>
       <c r="C449" s="140"/>
       <c r="D449" s="140"/>
@@ -15442,13 +15545,13 @@
       <c r="X449" s="140"/>
       <c r="Y449" s="140"/>
     </row>
-    <row r="450" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:25" s="26" customFormat="1">
       <c r="B450" s="130"/>
       <c r="C450" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D450" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E450" s="130"/>
       <c r="F450" s="130" t="s">
@@ -15470,7 +15573,7 @@
       <c r="T450" s="130"/>
       <c r="U450" s="130"/>
     </row>
-    <row r="451" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:25" customFormat="1">
       <c r="B451" s="127"/>
       <c r="C451" s="164"/>
       <c r="D451" s="140"/>
@@ -15496,10 +15599,10 @@
       <c r="X451" s="140"/>
       <c r="Y451" s="140"/>
     </row>
-    <row r="452" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:25" customFormat="1" ht="21">
       <c r="B452" s="127"/>
       <c r="C452" s="175" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D452" s="140"/>
       <c r="E452" s="140"/>
@@ -15524,7 +15627,7 @@
       <c r="X452" s="140"/>
       <c r="Y452" s="140"/>
     </row>
-    <row r="453" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:25" customFormat="1">
       <c r="B453" s="127"/>
       <c r="C453" s="140"/>
       <c r="D453" s="140"/>
@@ -15550,7 +15653,7 @@
       <c r="X453" s="140"/>
       <c r="Y453" s="140"/>
     </row>
-    <row r="454" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:25" customFormat="1">
       <c r="B454" s="127"/>
       <c r="C454" s="140"/>
       <c r="D454" s="140"/>
@@ -15576,34 +15679,34 @@
       <c r="X454" s="140"/>
       <c r="Y454" s="140"/>
     </row>
-    <row r="455" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:25">
       <c r="B455" s="127"/>
     </row>
-    <row r="456" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:25">
       <c r="B456" s="127"/>
       <c r="D456" s="126">
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:25">
       <c r="B457" s="127"/>
     </row>
-    <row r="458" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:25">
       <c r="B458" s="127"/>
     </row>
-    <row r="459" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:25">
       <c r="B459" s="127"/>
     </row>
-    <row r="460" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:25">
       <c r="B460" s="127"/>
     </row>
-    <row r="461" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:25">
       <c r="B461" s="127"/>
       <c r="E461" s="176" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:25">
       <c r="B462" s="127"/>
       <c r="E462" s="140" t="s">
         <v>46</v>
@@ -15614,14 +15717,14 @@
         <v>0</v>
       </c>
       <c r="I462" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J462" s="140"/>
       <c r="K462" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="463" spans="2:25" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="463" spans="2:25">
       <c r="B463" s="127"/>
       <c r="E463" s="140" t="s">
         <v>47</v>
@@ -15632,12 +15735,12 @@
         <v>11.5</v>
       </c>
       <c r="I463" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J463" s="140"/>
       <c r="K463" s="140"/>
     </row>
-    <row r="464" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:25">
       <c r="B464" s="127"/>
       <c r="E464" s="140" t="s">
         <v>51</v>
@@ -15648,12 +15751,12 @@
         <v>16.7</v>
       </c>
       <c r="I464" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J464" s="140"/>
       <c r="K464" s="140"/>
     </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:11">
       <c r="B465" s="127"/>
       <c r="D465" s="140"/>
       <c r="E465" s="140" t="s">
@@ -15665,12 +15768,12 @@
         <v>1.3</v>
       </c>
       <c r="I465" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J465" s="140"/>
       <c r="K465" s="140"/>
     </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:11">
       <c r="B466" s="127"/>
       <c r="D466" s="140"/>
       <c r="E466" s="140" t="s">
@@ -15682,12 +15785,12 @@
         <v>0</v>
       </c>
       <c r="I466" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J466" s="140"/>
       <c r="K466" s="140"/>
     </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:11">
       <c r="B467" s="127"/>
       <c r="D467" s="140"/>
       <c r="E467" s="140" t="s">
@@ -15699,14 +15802,14 @@
         <v>0</v>
       </c>
       <c r="I467" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J467" s="140"/>
       <c r="K467" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="468" spans="2:11">
       <c r="B468" s="127"/>
       <c r="D468" s="140"/>
       <c r="E468" s="140"/>
@@ -15716,7 +15819,7 @@
       <c r="I468" s="140"/>
       <c r="J468" s="140"/>
     </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:11">
       <c r="B469" s="127"/>
       <c r="D469" s="140"/>
       <c r="E469" s="140"/>
@@ -15726,7 +15829,7 @@
       <c r="I469" s="140"/>
       <c r="J469" s="140"/>
     </row>
-    <row r="470" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:11">
       <c r="B470" s="127"/>
       <c r="D470" s="140"/>
       <c r="E470" s="140" t="s">
@@ -15739,14 +15842,14 @@
         <v>0</v>
       </c>
       <c r="I470" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J470" s="140"/>
       <c r="K470" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="471" spans="2:11">
       <c r="B471" s="127"/>
       <c r="E471" s="140" t="s">
         <v>47</v>
@@ -15758,12 +15861,12 @@
         <v>1.15E-2</v>
       </c>
       <c r="I471" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J471" s="140"/>
       <c r="K471" s="140"/>
     </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:11">
       <c r="B472" s="127"/>
       <c r="E472" s="140" t="s">
         <v>51</v>
@@ -15775,12 +15878,12 @@
         <v>1.67E-2</v>
       </c>
       <c r="I472" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J472" s="140"/>
       <c r="K472" s="140"/>
     </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:11">
       <c r="B473" s="127"/>
       <c r="E473" s="140" t="s">
         <v>50</v>
@@ -15792,12 +15895,12 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I473" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J473" s="140"/>
       <c r="K473" s="140"/>
     </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:11">
       <c r="B474" s="127"/>
       <c r="E474" s="140" t="s">
         <v>40</v>
@@ -15809,12 +15912,12 @@
         <v>0</v>
       </c>
       <c r="I474" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J474" s="140"/>
       <c r="K474" s="140"/>
     </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:11">
       <c r="B475" s="127"/>
       <c r="E475" s="140" t="s">
         <v>49</v>
@@ -15826,20 +15929,20 @@
         <v>0</v>
       </c>
       <c r="I475" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J475" s="140"/>
       <c r="K475" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="476" spans="2:11">
       <c r="B476" s="127"/>
     </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:11">
       <c r="B477" s="127"/>
     </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:11">
       <c r="B478" s="127"/>
       <c r="E478" s="177" t="s">
         <v>58</v>
@@ -15851,7 +15954,7 @@
       <c r="J478" s="178"/>
       <c r="K478" s="178"/>
     </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:11">
       <c r="B479" s="127"/>
       <c r="E479" s="140" t="s">
         <v>46</v>
@@ -15862,14 +15965,14 @@
         <v>0</v>
       </c>
       <c r="I479" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J479" s="140"/>
       <c r="K479" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="480" spans="2:11">
       <c r="B480" s="127"/>
       <c r="E480" s="140" t="s">
         <v>47</v>
@@ -15880,12 +15983,12 @@
         <v>14.3</v>
       </c>
       <c r="I480" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J480" s="140"/>
       <c r="K480" s="140"/>
     </row>
-    <row r="481" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:11">
       <c r="B481" s="127"/>
       <c r="E481" s="140" t="s">
         <v>51</v>
@@ -15896,12 +15999,12 @@
         <v>0.9</v>
       </c>
       <c r="I481" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J481" s="140"/>
       <c r="K481" s="140"/>
     </row>
-    <row r="482" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:11">
       <c r="B482" s="127"/>
       <c r="E482" s="140" t="s">
         <v>50</v>
@@ -15912,12 +16015,12 @@
         <v>2.4</v>
       </c>
       <c r="I482" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J482" s="140"/>
       <c r="K482" s="140"/>
     </row>
-    <row r="483" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:11">
       <c r="B483" s="127"/>
       <c r="E483" s="140" t="s">
         <v>40</v>
@@ -15928,12 +16031,12 @@
         <v>0</v>
       </c>
       <c r="I483" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J483" s="140"/>
       <c r="K483" s="140"/>
     </row>
-    <row r="484" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:11">
       <c r="B484" s="127"/>
       <c r="E484" s="140" t="s">
         <v>49</v>
@@ -15944,14 +16047,14 @@
         <v>0</v>
       </c>
       <c r="I484" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J484" s="140"/>
       <c r="K484" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="485" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="485" spans="2:11">
       <c r="B485" s="127"/>
       <c r="E485" s="140"/>
       <c r="F485" s="140"/>
@@ -15961,7 +16064,7 @@
       <c r="J485" s="140"/>
       <c r="K485" s="178"/>
     </row>
-    <row r="486" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:11">
       <c r="B486" s="127"/>
       <c r="E486" s="140"/>
       <c r="F486" s="140"/>
@@ -15971,7 +16074,7 @@
       <c r="J486" s="140"/>
       <c r="K486" s="178"/>
     </row>
-    <row r="487" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:11">
       <c r="B487" s="127"/>
       <c r="E487" s="140" t="s">
         <v>46</v>
@@ -15983,14 +16086,14 @@
         <v>0</v>
       </c>
       <c r="I487" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J487" s="140"/>
       <c r="K487" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="488" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="488" spans="2:11">
       <c r="B488" s="127"/>
       <c r="E488" s="140" t="s">
         <v>47</v>
@@ -16002,12 +16105,12 @@
         <v>1.43E-2</v>
       </c>
       <c r="I488" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J488" s="140"/>
       <c r="K488" s="140"/>
     </row>
-    <row r="489" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:11">
       <c r="B489" s="127"/>
       <c r="E489" s="140" t="s">
         <v>51</v>
@@ -16019,12 +16122,12 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I489" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J489" s="140"/>
       <c r="K489" s="140"/>
     </row>
-    <row r="490" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:11">
       <c r="B490" s="127"/>
       <c r="E490" s="140" t="s">
         <v>50</v>
@@ -16036,12 +16139,12 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="I490" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J490" s="140"/>
       <c r="K490" s="140"/>
     </row>
-    <row r="491" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:11">
       <c r="B491" s="127"/>
       <c r="E491" s="140" t="s">
         <v>40</v>
@@ -16053,12 +16156,12 @@
         <v>0</v>
       </c>
       <c r="I491" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J491" s="140"/>
       <c r="K491" s="140"/>
     </row>
-    <row r="492" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:11">
       <c r="B492" s="127"/>
       <c r="E492" s="140" t="s">
         <v>49</v>
@@ -16070,81 +16173,81 @@
         <v>0</v>
       </c>
       <c r="I492" s="140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J492" s="140"/>
       <c r="K492" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="493" spans="2:11" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="493" spans="2:11">
       <c r="B493" s="127"/>
     </row>
-    <row r="494" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:11">
       <c r="B494" s="127"/>
     </row>
-    <row r="495" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:11">
       <c r="B495" s="127"/>
     </row>
-    <row r="496" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:11">
       <c r="B496" s="127"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:2">
       <c r="B497" s="127"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:2">
       <c r="B498" s="127"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:2">
       <c r="B499" s="127"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:2">
       <c r="B500" s="127"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:2">
       <c r="B501" s="127"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:2">
       <c r="B502" s="127"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:2">
       <c r="B503" s="127"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:2">
       <c r="B504" s="127"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:2">
       <c r="B505" s="127"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:2">
       <c r="B506" s="127"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:2">
       <c r="B507" s="127"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:2">
       <c r="B508" s="127"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:2">
       <c r="B509" s="127"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:2">
       <c r="B510" s="127"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:2">
       <c r="B511" s="127"/>
     </row>
-    <row r="512" spans="2:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="17" thickBot="1">
       <c r="B512" s="127"/>
     </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25">
       <c r="A513" s="185"/>
       <c r="B513" s="186"/>
       <c r="C513" s="186" t="s">
         <v>25</v>
       </c>
       <c r="D513" s="186" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E513" s="186"/>
       <c r="F513" s="186" t="s">
@@ -16170,7 +16273,7 @@
       <c r="X513" s="185"/>
       <c r="Y513" s="185"/>
     </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25">
       <c r="A514" s="187"/>
       <c r="B514" s="188"/>
       <c r="C514" s="140"/>
@@ -16197,11 +16300,11 @@
       <c r="X514" s="140"/>
       <c r="Y514" s="140"/>
     </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25">
       <c r="A515" s="187"/>
       <c r="B515" s="188"/>
       <c r="C515" s="185" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D515" s="140"/>
       <c r="E515" s="140"/>
@@ -16226,11 +16329,11 @@
       <c r="X515" s="140"/>
       <c r="Y515" s="140"/>
     </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25">
       <c r="A516" s="187"/>
       <c r="B516" s="188"/>
       <c r="C516" s="189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D516" s="140"/>
       <c r="E516" s="140"/>
@@ -16238,7 +16341,7 @@
       <c r="G516" s="140"/>
       <c r="H516" s="140"/>
       <c r="I516" s="140" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J516" s="140"/>
       <c r="K516" s="140"/>
@@ -16257,7 +16360,7 @@
       <c r="X516" s="140"/>
       <c r="Y516" s="140"/>
     </row>
-    <row r="517" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25">
       <c r="A517" s="187"/>
       <c r="B517" s="188"/>
       <c r="C517" s="140"/>
@@ -16284,12 +16387,12 @@
       <c r="X517" s="140"/>
       <c r="Y517" s="140"/>
     </row>
-    <row r="518" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25">
       <c r="A518" s="187"/>
       <c r="B518" s="188"/>
       <c r="C518" s="140"/>
       <c r="D518" s="140" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E518" s="140"/>
       <c r="F518" s="140"/>
@@ -16313,7 +16416,7 @@
       <c r="X518" s="140"/>
       <c r="Y518" s="140"/>
     </row>
-    <row r="519" spans="1:25" ht="39" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" ht="48">
       <c r="A519" s="187"/>
       <c r="B519" s="188"/>
       <c r="C519" s="140"/>
@@ -16324,16 +16427,16 @@
       <c r="F519" s="140"/>
       <c r="G519" s="140"/>
       <c r="H519" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="I519" s="220" t="s">
         <v>153</v>
       </c>
-      <c r="I519" s="220" t="s">
-        <v>154</v>
-      </c>
       <c r="J519" s="221" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K519" s="196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L519" s="140"/>
       <c r="M519" s="140"/>
@@ -16347,12 +16450,12 @@
       <c r="U519" s="140"/>
       <c r="V519" s="140"/>
     </row>
-    <row r="520" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="17" thickBot="1">
       <c r="A520" s="187"/>
       <c r="B520" s="188"/>
       <c r="C520" s="140"/>
       <c r="D520" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E520" s="187"/>
       <c r="F520" s="140"/>
@@ -16360,10 +16463,10 @@
       <c r="H520" s="191"/>
       <c r="I520" s="192"/>
       <c r="J520" s="222" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K520" s="197" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L520" s="140"/>
       <c r="M520" s="140"/>
@@ -16377,31 +16480,31 @@
       <c r="U520" s="140"/>
       <c r="V520" s="140"/>
     </row>
-    <row r="521" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="17" thickBot="1">
       <c r="A521" s="187"/>
       <c r="B521" s="188"/>
       <c r="C521" s="140"/>
       <c r="D521" s="140"/>
       <c r="E521" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F521" s="193">
         <f>AVERAGE(J521:J525)</f>
         <v>519.13</v>
       </c>
       <c r="G521" s="140" t="s">
-        <v>157</v>
-      </c>
-      <c r="H521" s="260">
+        <v>156</v>
+      </c>
+      <c r="H521" s="246">
         <v>43059</v>
       </c>
-      <c r="I521" s="261">
+      <c r="I521" s="247">
         <v>1</v>
       </c>
-      <c r="J521" s="263">
+      <c r="J521" s="249">
         <v>534.66999999999996</v>
       </c>
-      <c r="K521" s="264">
+      <c r="K521" s="250">
         <v>1591</v>
       </c>
       <c r="L521" s="140"/>
@@ -16416,31 +16519,31 @@
       <c r="U521" s="140"/>
       <c r="V521" s="140"/>
     </row>
-    <row r="522" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="17" thickBot="1">
       <c r="A522" s="187"/>
       <c r="B522" s="188"/>
       <c r="C522" s="140"/>
       <c r="D522" s="140"/>
       <c r="E522" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F522" s="195">
         <f>F521/1000</f>
         <v>0.51912999999999998</v>
       </c>
       <c r="G522" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="H522" s="262">
+        <v>157</v>
+      </c>
+      <c r="H522" s="248">
         <v>43052</v>
       </c>
       <c r="I522" s="223">
         <v>1</v>
       </c>
-      <c r="J522" s="263">
+      <c r="J522" s="249">
         <v>546.24</v>
       </c>
-      <c r="K522" s="264">
+      <c r="K522" s="250">
         <v>1605</v>
       </c>
       <c r="L522" s="140"/>
@@ -16455,7 +16558,7 @@
       <c r="U522" s="140"/>
       <c r="V522" s="140"/>
     </row>
-    <row r="523" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="17" thickBot="1">
       <c r="A523" s="187"/>
       <c r="B523" s="188"/>
       <c r="C523" s="140"/>
@@ -16463,16 +16566,16 @@
       <c r="E523" s="140"/>
       <c r="F523" s="140"/>
       <c r="G523" s="140"/>
-      <c r="H523" s="262">
+      <c r="H523" s="248">
         <v>43045</v>
       </c>
       <c r="I523" s="223">
         <v>1</v>
       </c>
-      <c r="J523" s="263">
+      <c r="J523" s="249">
         <v>526.4</v>
       </c>
-      <c r="K523" s="264">
+      <c r="K523" s="250">
         <v>1581</v>
       </c>
       <c r="L523" s="140"/>
@@ -16487,33 +16590,33 @@
       <c r="U523" s="140"/>
       <c r="V523" s="140"/>
     </row>
-    <row r="524" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="17" thickBot="1">
       <c r="A524" s="187"/>
       <c r="B524" s="188"/>
       <c r="C524" s="140"/>
       <c r="D524" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E524" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F524" s="193">
         <f>AVERAGE(K521:K525)</f>
         <v>1572.2</v>
       </c>
       <c r="G524" s="140" t="s">
-        <v>157</v>
-      </c>
-      <c r="H524" s="262">
+        <v>156</v>
+      </c>
+      <c r="H524" s="248">
         <v>43038</v>
       </c>
       <c r="I524" s="223">
         <v>1</v>
       </c>
-      <c r="J524" s="263">
+      <c r="J524" s="249">
         <v>501.61</v>
       </c>
-      <c r="K524" s="264">
+      <c r="K524" s="250">
         <v>1551</v>
       </c>
       <c r="L524" s="140"/>
@@ -16528,31 +16631,31 @@
       <c r="U524" s="140"/>
       <c r="V524" s="140"/>
     </row>
-    <row r="525" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="17" thickBot="1">
       <c r="A525" s="187"/>
       <c r="B525" s="188"/>
       <c r="C525" s="140"/>
       <c r="D525" s="140"/>
       <c r="E525" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F525" s="195">
         <f>F524/1000</f>
         <v>1.5722</v>
       </c>
       <c r="G525" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="H525" s="262">
+        <v>157</v>
+      </c>
+      <c r="H525" s="248">
         <v>43031</v>
       </c>
       <c r="I525" s="223">
         <v>1</v>
       </c>
-      <c r="J525" s="263">
+      <c r="J525" s="249">
         <v>486.73</v>
       </c>
-      <c r="K525" s="264">
+      <c r="K525" s="250">
         <v>1533</v>
       </c>
       <c r="L525" s="140"/>
@@ -16567,7 +16670,7 @@
       <c r="U525" s="140"/>
       <c r="V525" s="140"/>
     </row>
-    <row r="526" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25">
       <c r="A526" s="187"/>
       <c r="B526" s="188"/>
       <c r="C526" s="140"/>
@@ -16599,12 +16702,12 @@
       <c r="U526" s="140"/>
       <c r="V526" s="140"/>
     </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25">
       <c r="A527" s="187"/>
       <c r="B527" s="188"/>
       <c r="C527" s="140"/>
       <c r="D527" s="143" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E527" s="140"/>
       <c r="F527" s="198"/>
@@ -16633,21 +16736,21 @@
       <c r="U527" s="140"/>
       <c r="V527" s="140"/>
     </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25">
       <c r="A528" s="187"/>
       <c r="B528" s="188"/>
       <c r="C528" s="140"/>
       <c r="D528" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E528" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F528" s="140">
         <v>21</v>
       </c>
       <c r="G528" s="140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H528" s="194">
         <v>42387</v>
@@ -16673,22 +16776,22 @@
       <c r="U528" s="140"/>
       <c r="V528" s="140"/>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:22">
       <c r="A529" s="187"/>
       <c r="B529" s="188"/>
       <c r="C529" s="140"/>
       <c r="D529" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E529" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F529" s="140">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G529" s="140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H529" s="194">
         <v>42380</v>
@@ -16714,22 +16817,22 @@
       <c r="U529" s="140"/>
       <c r="V529" s="140"/>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:22">
       <c r="A530" s="187"/>
       <c r="B530" s="188"/>
       <c r="C530" s="140"/>
       <c r="D530" s="140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E530" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F530" s="198">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G530" s="140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H530" s="194">
         <v>42373</v>
@@ -16755,7 +16858,7 @@
       <c r="U530" s="140"/>
       <c r="V530" s="140"/>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:22">
       <c r="A531" s="187"/>
       <c r="B531" s="188"/>
       <c r="C531" s="140"/>
@@ -16787,22 +16890,22 @@
       <c r="U531" s="140"/>
       <c r="V531" s="140"/>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:22">
       <c r="A532" s="187"/>
       <c r="B532" s="188"/>
       <c r="C532" s="140"/>
       <c r="D532" s="140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E532" s="187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F532" s="198">
         <f>(F530+F529+F522)*1.21</f>
         <v>1.5647720000000001</v>
       </c>
       <c r="G532" s="140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H532" s="194">
         <v>42345</v>
@@ -16828,7 +16931,7 @@
       <c r="U532" s="140"/>
       <c r="V532" s="140"/>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:22">
       <c r="A533" s="187"/>
       <c r="B533" s="188"/>
       <c r="C533" s="140"/>
@@ -16860,7 +16963,7 @@
       <c r="U533" s="140"/>
       <c r="V533" s="140"/>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:22">
       <c r="A534" s="187"/>
       <c r="B534" s="188"/>
       <c r="C534" s="140"/>
@@ -16892,7 +16995,7 @@
       <c r="U534" s="140"/>
       <c r="V534" s="140"/>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:22">
       <c r="A535" s="187"/>
       <c r="B535" s="188"/>
       <c r="C535" s="140"/>
@@ -16924,7 +17027,7 @@
       <c r="U535" s="140"/>
       <c r="V535" s="140"/>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:22">
       <c r="A536" s="187"/>
       <c r="B536" s="188"/>
       <c r="C536" s="140"/>
@@ -16956,7 +17059,7 @@
       <c r="U536" s="140"/>
       <c r="V536" s="140"/>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:22">
       <c r="A537" s="187"/>
       <c r="B537" s="188"/>
       <c r="C537" s="140"/>
@@ -16988,7 +17091,7 @@
       <c r="U537" s="140"/>
       <c r="V537" s="140"/>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:22">
       <c r="A538" s="187"/>
       <c r="B538" s="188"/>
       <c r="C538" s="140"/>
@@ -17020,7 +17123,7 @@
       <c r="U538" s="140"/>
       <c r="V538" s="140"/>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:22">
       <c r="A539" s="187"/>
       <c r="B539" s="188"/>
       <c r="C539" s="140"/>
@@ -17052,7 +17155,7 @@
       <c r="U539" s="140"/>
       <c r="V539" s="140"/>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:22">
       <c r="A540" s="187"/>
       <c r="B540" s="188"/>
       <c r="C540" s="187"/>
@@ -17084,7 +17187,7 @@
       <c r="U540" s="187"/>
       <c r="V540" s="187"/>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:22">
       <c r="A541" s="187"/>
       <c r="B541" s="188"/>
       <c r="C541" s="187"/>
@@ -17116,7 +17219,7 @@
       <c r="U541" s="187"/>
       <c r="V541" s="187"/>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:22">
       <c r="A542" s="187"/>
       <c r="B542" s="188"/>
       <c r="C542" s="187"/>
@@ -17148,7 +17251,7 @@
       <c r="U542" s="187"/>
       <c r="V542" s="187"/>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:22">
       <c r="A543" s="187"/>
       <c r="B543" s="188"/>
       <c r="C543" s="187"/>
@@ -17180,7 +17283,7 @@
       <c r="U543" s="187"/>
       <c r="V543" s="187"/>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:22">
       <c r="A544" s="187"/>
       <c r="B544" s="188"/>
       <c r="C544" s="187"/>
@@ -17212,7 +17315,7 @@
       <c r="U544" s="187"/>
       <c r="V544" s="187"/>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25">
       <c r="A545" s="187"/>
       <c r="B545" s="188"/>
       <c r="C545" s="187"/>
@@ -17244,7 +17347,7 @@
       <c r="U545" s="187"/>
       <c r="V545" s="187"/>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25">
       <c r="A546" s="187"/>
       <c r="B546" s="188"/>
       <c r="C546" s="187"/>
@@ -17276,7 +17379,7 @@
       <c r="U546" s="187"/>
       <c r="V546" s="187"/>
     </row>
-    <row r="547" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25">
       <c r="A547" s="187"/>
       <c r="B547" s="188"/>
       <c r="C547" s="187"/>
@@ -17308,7 +17411,7 @@
       <c r="U547" s="187"/>
       <c r="V547" s="187"/>
     </row>
-    <row r="548" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25">
       <c r="A548" s="187"/>
       <c r="B548" s="188"/>
       <c r="C548" s="187"/>
@@ -17340,7 +17443,7 @@
       <c r="U548" s="187"/>
       <c r="V548" s="187"/>
     </row>
-    <row r="549" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25">
       <c r="A549" s="187"/>
       <c r="B549" s="188"/>
       <c r="C549" s="187"/>
@@ -17372,7 +17475,7 @@
       <c r="U549" s="187"/>
       <c r="V549" s="187"/>
     </row>
-    <row r="550" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25">
       <c r="A550" s="187"/>
       <c r="B550" s="188"/>
       <c r="C550" s="187"/>
@@ -17404,7 +17507,7 @@
       <c r="U550" s="187"/>
       <c r="V550" s="187"/>
     </row>
-    <row r="551" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25">
       <c r="H551" s="194">
         <v>42212</v>
       </c>
@@ -17418,7 +17521,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="552" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25">
       <c r="H552" s="194">
         <v>42205</v>
       </c>
@@ -17432,7 +17535,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="553" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25">
       <c r="H553" s="194">
         <v>42198</v>
       </c>
@@ -17446,7 +17549,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="554" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25">
       <c r="H554" s="194">
         <v>42191</v>
       </c>
@@ -17460,14 +17563,14 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="555" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="556" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" ht="17" thickBot="1"/>
+    <row r="556" spans="1:25" s="26" customFormat="1">
       <c r="B556" s="130"/>
       <c r="C556" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D556" s="130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E556" s="130"/>
       <c r="F556" s="130" t="s">
@@ -17489,7 +17592,7 @@
       <c r="T556" s="130"/>
       <c r="U556" s="130"/>
     </row>
-    <row r="557" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" customFormat="1">
       <c r="B557" s="127"/>
       <c r="C557" s="164"/>
       <c r="D557" s="140"/>
@@ -17515,10 +17618,10 @@
       <c r="X557" s="140"/>
       <c r="Y557" s="140"/>
     </row>
-    <row r="558" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" customFormat="1">
       <c r="B558" s="127"/>
       <c r="C558" s="126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D558" s="140"/>
       <c r="E558" s="140"/>
@@ -17543,153 +17646,153 @@
       <c r="X558" s="140"/>
       <c r="Y558" s="140"/>
     </row>
-    <row r="559" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="17" thickBot="1">
       <c r="B559" s="127"/>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25">
       <c r="B560" s="127"/>
       <c r="H560" s="130"/>
       <c r="I560" s="130"/>
       <c r="J560" s="130"/>
       <c r="K560" s="130"/>
     </row>
-    <row r="561" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:11">
       <c r="B561" s="127"/>
       <c r="D561" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="F561" s="184" t="s">
         <v>146</v>
       </c>
-      <c r="F561" s="184" t="s">
+      <c r="G561" s="184" t="s">
         <v>147</v>
-      </c>
-      <c r="G561" s="184" t="s">
-        <v>148</v>
       </c>
       <c r="H561" s="140"/>
       <c r="I561" s="140"/>
       <c r="J561" s="140"/>
       <c r="K561" s="140"/>
     </row>
-    <row r="562" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:11">
       <c r="B562" s="127"/>
       <c r="D562" s="199" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G562" s="184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H562" s="140"/>
       <c r="I562" s="140"/>
       <c r="J562" s="140"/>
       <c r="K562" s="140"/>
     </row>
-    <row r="563" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:11">
       <c r="B563" s="127"/>
     </row>
-    <row r="564" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:11">
       <c r="B564" s="127"/>
       <c r="F564" s="126">
         <v>0.6</v>
       </c>
       <c r="G564" s="199" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="565" spans="2:11" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="565" spans="2:11">
       <c r="B565" s="127"/>
       <c r="F565" s="200">
         <f>F525</f>
         <v>1.5722</v>
       </c>
       <c r="G565" s="199" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="566" spans="2:11" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="566" spans="2:11">
       <c r="B566" s="127"/>
       <c r="F566" s="200">
         <f>F564+F565</f>
         <v>2.1722000000000001</v>
       </c>
       <c r="G566" s="199" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="567" spans="2:11" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="567" spans="2:11">
       <c r="B567" s="127"/>
     </row>
-    <row r="568" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:11">
       <c r="B568" s="127"/>
       <c r="F568" s="126">
         <f>F529</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G568" s="199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H568" s="199" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="569" spans="2:11" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="569" spans="2:11">
       <c r="B569" s="127"/>
       <c r="F569" s="200">
         <f>F530</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G569" s="199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H569" s="199" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="570" spans="2:11" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="570" spans="2:11">
       <c r="B570" s="127"/>
       <c r="F570" s="126">
         <f>F528</f>
         <v>21</v>
       </c>
       <c r="G570" s="199" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H570" s="199" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="571" spans="2:11" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="571" spans="2:11">
       <c r="B571" s="127"/>
     </row>
-    <row r="572" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:11">
       <c r="B572" s="127"/>
       <c r="G572" s="199"/>
       <c r="H572" s="199" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="573" spans="2:11" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="573" spans="2:11">
       <c r="B573" s="127"/>
       <c r="G573" s="199"/>
       <c r="H573" s="199" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="574" spans="2:11" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="574" spans="2:11">
       <c r="B574" s="127"/>
       <c r="H574" s="199" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="575" spans="2:11" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="575" spans="2:11">
       <c r="B575" s="127"/>
       <c r="F575" s="201">
         <f>F566/1.21-F569-F568</f>
         <v>1.021136611570248</v>
       </c>
       <c r="G575" s="199" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="576" spans="2:11" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="576" spans="2:11">
       <c r="B576" s="127"/>
       <c r="F576" s="213">
         <f>F575/F24</f>
@@ -17700,128 +17803,128 @@
       </c>
       <c r="H576" s="199"/>
     </row>
-    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:8">
       <c r="B577" s="127"/>
       <c r="H577" s="199"/>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:8">
       <c r="B578" s="127"/>
     </row>
-    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:8">
       <c r="B579" s="127"/>
       <c r="H579" s="199" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8">
       <c r="B580" s="127"/>
     </row>
-    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:8">
       <c r="B581" s="127"/>
     </row>
-    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:8">
       <c r="B582" s="127"/>
     </row>
-    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:8">
       <c r="B583" s="127"/>
     </row>
-    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:8">
       <c r="B584" s="127"/>
     </row>
-    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:8">
       <c r="B585" s="127"/>
     </row>
-    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:8">
       <c r="B586" s="127"/>
     </row>
-    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:8">
       <c r="B587" s="127"/>
     </row>
-    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:8">
       <c r="B588" s="127"/>
     </row>
-    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:8">
       <c r="B589" s="127"/>
     </row>
-    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:8">
       <c r="B590" s="127"/>
     </row>
-    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:8">
       <c r="B591" s="127"/>
     </row>
-    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:8">
       <c r="B592" s="127"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:2">
       <c r="B593" s="127"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:2">
       <c r="B594" s="127"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:2">
       <c r="B595" s="127"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:2">
       <c r="B596" s="127"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:2">
       <c r="B597" s="127"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:2">
       <c r="B598" s="127"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:2">
       <c r="B599" s="127"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:2">
       <c r="B600" s="127"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:2">
       <c r="B601" s="127"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:2">
       <c r="B602" s="127"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:2">
       <c r="B603" s="127"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:2">
       <c r="B604" s="127"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:2">
       <c r="B605" s="127"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:2">
       <c r="B606" s="127"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:2">
       <c r="B607" s="127"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:2">
       <c r="B608" s="127"/>
     </row>
-    <row r="609" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:25">
       <c r="B609" s="127"/>
     </row>
-    <row r="610" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:25">
       <c r="B610" s="127"/>
     </row>
-    <row r="611" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:25">
       <c r="B611" s="127"/>
     </row>
-    <row r="612" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:25">
       <c r="B612" s="127"/>
     </row>
-    <row r="613" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:25" ht="17" thickBot="1">
       <c r="B613" s="127"/>
     </row>
-    <row r="614" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:25">
       <c r="B614" s="233"/>
       <c r="C614" s="186" t="s">
         <v>25</v>
       </c>
       <c r="D614" s="186" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E614" s="186"/>
       <c r="F614" s="186" t="s">
@@ -17843,7 +17946,7 @@
       <c r="X614" s="185"/>
       <c r="Y614" s="185"/>
     </row>
-    <row r="615" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:25">
       <c r="B615" s="188"/>
       <c r="C615" s="178"/>
       <c r="D615" s="178"/>
@@ -17865,10 +17968,10 @@
       <c r="X615" s="178"/>
       <c r="Y615" s="178"/>
     </row>
-    <row r="616" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:25">
       <c r="B616" s="188"/>
       <c r="C616" s="234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D616" s="235"/>
       <c r="E616" s="235"/>
@@ -17889,7 +17992,7 @@
       <c r="X616" s="140"/>
       <c r="Y616" s="140"/>
     </row>
-    <row r="617" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:25" ht="17" thickBot="1">
       <c r="B617" s="188"/>
       <c r="C617" s="235"/>
       <c r="D617" s="235"/>
@@ -17911,7 +18014,7 @@
       <c r="X617" s="140"/>
       <c r="Y617" s="140"/>
     </row>
-    <row r="618" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:25">
       <c r="B618" s="188"/>
       <c r="C618" s="235"/>
       <c r="D618" s="241"/>
@@ -17937,7 +18040,7 @@
       <c r="X618" s="140"/>
       <c r="Y618" s="140"/>
     </row>
-    <row r="619" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:25">
       <c r="B619" s="188"/>
       <c r="C619" s="235"/>
       <c r="D619" s="241"/>
@@ -17963,7 +18066,7 @@
       <c r="X619" s="140"/>
       <c r="Y619" s="140"/>
     </row>
-    <row r="620" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:25">
       <c r="B620" s="188"/>
       <c r="C620" s="235"/>
       <c r="D620" s="241">
@@ -17972,7 +18075,7 @@
       <c r="E620" s="241"/>
       <c r="F620" s="241"/>
       <c r="G620" s="241" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H620" s="235"/>
       <c r="I620" s="235"/>
@@ -17993,7 +18096,7 @@
       <c r="X620" s="140"/>
       <c r="Y620" s="140"/>
     </row>
-    <row r="621" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:25">
       <c r="B621" s="188"/>
       <c r="C621" s="235"/>
       <c r="D621" s="240"/>
@@ -18019,7 +18122,7 @@
       <c r="X621" s="140"/>
       <c r="Y621" s="140"/>
     </row>
-    <row r="622" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:25">
       <c r="B622" s="188"/>
       <c r="C622" s="235"/>
       <c r="D622" s="240"/>
@@ -18045,7 +18148,7 @@
       <c r="X622" s="140"/>
       <c r="Y622" s="140"/>
     </row>
-    <row r="623" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:25">
       <c r="B623" s="188"/>
       <c r="C623" s="235"/>
       <c r="D623" s="240"/>
@@ -18071,7 +18174,7 @@
       <c r="X623" s="140"/>
       <c r="Y623" s="140"/>
     </row>
-    <row r="624" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:25">
       <c r="B624" s="188"/>
       <c r="C624" s="140"/>
       <c r="D624" s="244"/>
@@ -18097,7 +18200,7 @@
       <c r="X624" s="140"/>
       <c r="Y624" s="140"/>
     </row>
-    <row r="625" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:25">
       <c r="B625" s="188"/>
       <c r="C625" s="140"/>
       <c r="D625" s="244"/>
@@ -18123,7 +18226,7 @@
       <c r="X625" s="140"/>
       <c r="Y625" s="140"/>
     </row>
-    <row r="626" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:25">
       <c r="B626" s="188"/>
       <c r="C626" s="140"/>
       <c r="D626" s="244"/>
@@ -18149,7 +18252,7 @@
       <c r="X626" s="140"/>
       <c r="Y626" s="140"/>
     </row>
-    <row r="627" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:25">
       <c r="B627" s="188"/>
       <c r="C627" s="140"/>
       <c r="D627" s="244"/>
@@ -18175,7 +18278,7 @@
       <c r="X627" s="140"/>
       <c r="Y627" s="140"/>
     </row>
-    <row r="628" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:25">
       <c r="B628" s="188"/>
       <c r="C628" s="140"/>
       <c r="D628" s="244"/>
@@ -18201,7 +18304,7 @@
       <c r="X628" s="140"/>
       <c r="Y628" s="140"/>
     </row>
-    <row r="629" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:25">
       <c r="B629" s="188"/>
       <c r="C629" s="140"/>
       <c r="D629" s="140"/>
@@ -18227,7 +18330,7 @@
       <c r="X629" s="140"/>
       <c r="Y629" s="140"/>
     </row>
-    <row r="630" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:25">
       <c r="B630" s="188"/>
       <c r="C630" s="140"/>
       <c r="D630" s="140"/>
@@ -18253,7 +18356,7 @@
       <c r="X630" s="140"/>
       <c r="Y630" s="140"/>
     </row>
-    <row r="631" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:25">
       <c r="B631" s="188"/>
       <c r="C631" s="140"/>
       <c r="D631" s="140"/>
@@ -18279,7 +18382,7 @@
       <c r="X631" s="140"/>
       <c r="Y631" s="140"/>
     </row>
-    <row r="632" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:25">
       <c r="B632" s="188"/>
       <c r="C632" s="140"/>
       <c r="D632" s="140"/>
@@ -18305,7 +18408,7 @@
       <c r="X632" s="140"/>
       <c r="Y632" s="140"/>
     </row>
-    <row r="633" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:25">
       <c r="B633" s="188"/>
       <c r="C633" s="140"/>
       <c r="D633" s="140"/>
@@ -18331,7 +18434,7 @@
       <c r="X633" s="140"/>
       <c r="Y633" s="140"/>
     </row>
-    <row r="634" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:25">
       <c r="B634" s="188"/>
       <c r="C634" s="140"/>
       <c r="D634" s="140"/>
@@ -18357,7 +18460,7 @@
       <c r="X634" s="140"/>
       <c r="Y634" s="140"/>
     </row>
-    <row r="635" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:25">
       <c r="B635" s="188"/>
       <c r="C635" s="140"/>
       <c r="D635" s="140"/>
@@ -18383,7 +18486,7 @@
       <c r="X635" s="140"/>
       <c r="Y635" s="140"/>
     </row>
-    <row r="636" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:25">
       <c r="B636" s="188"/>
       <c r="C636" s="140"/>
       <c r="D636" s="140"/>
@@ -18409,7 +18512,7 @@
       <c r="X636" s="140"/>
       <c r="Y636" s="140"/>
     </row>
-    <row r="637" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:25">
       <c r="B637" s="188"/>
       <c r="C637" s="140"/>
       <c r="D637" s="140"/>
@@ -18435,7 +18538,7 @@
       <c r="X637" s="140"/>
       <c r="Y637" s="140"/>
     </row>
-    <row r="638" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:25">
       <c r="B638" s="188"/>
       <c r="C638" s="140"/>
       <c r="D638" s="140"/>
@@ -18461,7 +18564,7 @@
       <c r="X638" s="140"/>
       <c r="Y638" s="140"/>
     </row>
-    <row r="639" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:25">
       <c r="B639" s="188"/>
       <c r="C639" s="140"/>
       <c r="D639" s="140"/>
@@ -18487,7 +18590,7 @@
       <c r="X639" s="140"/>
       <c r="Y639" s="140"/>
     </row>
-    <row r="640" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:25">
       <c r="B640" s="188"/>
       <c r="C640" s="140"/>
       <c r="D640" s="140"/>
@@ -18513,7 +18616,7 @@
       <c r="X640" s="140"/>
       <c r="Y640" s="140"/>
     </row>
-    <row r="641" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:25">
       <c r="B641" s="188"/>
       <c r="C641" s="187"/>
       <c r="D641" s="187"/>
@@ -18539,7 +18642,7 @@
       <c r="X641" s="187"/>
       <c r="Y641" s="187"/>
     </row>
-    <row r="642" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:25">
       <c r="B642" s="188"/>
       <c r="C642" s="187"/>
       <c r="D642" s="187"/>
@@ -18565,7 +18668,7 @@
       <c r="X642" s="187"/>
       <c r="Y642" s="187"/>
     </row>
-    <row r="643" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:25">
       <c r="B643" s="188"/>
       <c r="C643" s="187"/>
       <c r="D643" s="187"/>
@@ -18591,7 +18694,7 @@
       <c r="X643" s="187"/>
       <c r="Y643" s="187"/>
     </row>
-    <row r="644" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:25">
       <c r="B644" s="188"/>
       <c r="C644" s="187"/>
       <c r="D644" s="187"/>
@@ -18617,7 +18720,7 @@
       <c r="X644" s="187"/>
       <c r="Y644" s="187"/>
     </row>
-    <row r="645" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:25">
       <c r="B645" s="188"/>
       <c r="C645" s="187"/>
       <c r="D645" s="187"/>
@@ -18643,7 +18746,7 @@
       <c r="X645" s="187"/>
       <c r="Y645" s="187"/>
     </row>
-    <row r="646" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:25">
       <c r="B646" s="188"/>
       <c r="C646" s="187"/>
       <c r="D646" s="187"/>
@@ -18669,7 +18772,7 @@
       <c r="X646" s="187"/>
       <c r="Y646" s="187"/>
     </row>
-    <row r="647" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:25">
       <c r="B647" s="188"/>
       <c r="C647" s="187"/>
       <c r="D647" s="187"/>
@@ -18695,7 +18798,7 @@
       <c r="X647" s="187"/>
       <c r="Y647" s="187"/>
     </row>
-    <row r="648" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:25">
       <c r="B648" s="188"/>
       <c r="C648" s="187"/>
       <c r="D648" s="187"/>
@@ -18721,7 +18824,7 @@
       <c r="X648" s="187"/>
       <c r="Y648" s="187"/>
     </row>
-    <row r="649" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:25">
       <c r="B649" s="188"/>
       <c r="C649" s="187"/>
       <c r="D649" s="187"/>
@@ -18747,7 +18850,7 @@
       <c r="X649" s="187"/>
       <c r="Y649" s="187"/>
     </row>
-    <row r="650" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:25">
       <c r="B650" s="188"/>
       <c r="C650" s="187"/>
       <c r="D650" s="187"/>
@@ -18773,7 +18876,7 @@
       <c r="X650" s="187"/>
       <c r="Y650" s="187"/>
     </row>
-    <row r="651" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:25">
       <c r="B651" s="188"/>
       <c r="C651" s="187"/>
       <c r="D651" s="187"/>
@@ -18799,7 +18902,7 @@
       <c r="X651" s="187"/>
       <c r="Y651" s="187"/>
     </row>
-    <row r="652" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:25">
       <c r="B652" s="188"/>
       <c r="C652" s="187"/>
       <c r="D652" s="187"/>
@@ -18825,7 +18928,7 @@
       <c r="X652" s="187"/>
       <c r="Y652" s="187"/>
     </row>
-    <row r="653" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:25">
       <c r="B653" s="238"/>
       <c r="C653" s="239"/>
       <c r="D653" s="239"/>
@@ -18851,7 +18954,7 @@
       <c r="X653" s="187"/>
       <c r="Y653" s="187"/>
     </row>
-    <row r="654" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:25">
       <c r="B654" s="238"/>
       <c r="C654" s="239"/>
       <c r="D654" s="239"/>
@@ -18877,7 +18980,7 @@
       <c r="X654" s="187"/>
       <c r="Y654" s="187"/>
     </row>
-    <row r="655" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:25">
       <c r="B655" s="238"/>
       <c r="C655" s="239"/>
       <c r="D655" s="239"/>
@@ -18903,7 +19006,7 @@
       <c r="X655" s="187"/>
       <c r="Y655" s="187"/>
     </row>
-    <row r="656" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:25">
       <c r="B656" s="238"/>
       <c r="C656" s="239"/>
       <c r="D656" s="239"/>
@@ -18929,7 +19032,7 @@
       <c r="X656" s="187"/>
       <c r="Y656" s="187"/>
     </row>
-    <row r="657" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:25">
       <c r="B657" s="238"/>
       <c r="C657" s="239"/>
       <c r="D657" s="239"/>
@@ -18955,7 +19058,7 @@
       <c r="X657" s="187"/>
       <c r="Y657" s="187"/>
     </row>
-    <row r="658" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:25">
       <c r="B658" s="238"/>
       <c r="C658" s="239"/>
       <c r="D658" s="239"/>
@@ -18981,7 +19084,7 @@
       <c r="X658" s="187"/>
       <c r="Y658" s="187"/>
     </row>
-    <row r="659" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:25">
       <c r="B659" s="238"/>
       <c r="C659" s="239"/>
       <c r="D659" s="239"/>
@@ -19007,7 +19110,7 @@
       <c r="X659" s="187"/>
       <c r="Y659" s="187"/>
     </row>
-    <row r="660" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:25">
       <c r="B660" s="238"/>
       <c r="C660" s="239"/>
       <c r="D660" s="239"/>
@@ -19033,7 +19136,7 @@
       <c r="X660" s="187"/>
       <c r="Y660" s="187"/>
     </row>
-    <row r="661" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:25">
       <c r="B661" s="240"/>
       <c r="C661" s="240"/>
       <c r="D661" s="240"/>
@@ -19050,7 +19153,7 @@
       <c r="O661" s="240"/>
       <c r="P661" s="240"/>
     </row>
-    <row r="662" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:25">
       <c r="B662" s="240"/>
       <c r="C662" s="240"/>
       <c r="D662" s="240"/>
@@ -19067,7 +19170,7 @@
       <c r="O662" s="240"/>
       <c r="P662" s="240"/>
     </row>
-    <row r="663" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:25">
       <c r="B663" s="240"/>
       <c r="C663" s="240"/>
       <c r="D663" s="240"/>
@@ -19086,7 +19189,7 @@
       <c r="O663" s="240"/>
       <c r="P663" s="240"/>
     </row>
-    <row r="664" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:25">
       <c r="B664" s="240"/>
       <c r="C664" s="240"/>
       <c r="D664" s="240"/>
@@ -19103,7 +19206,7 @@
       <c r="O664" s="240"/>
       <c r="P664" s="240"/>
     </row>
-    <row r="665" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:25">
       <c r="B665" s="240"/>
       <c r="C665" s="240"/>
       <c r="D665" s="240"/>
@@ -19120,7 +19223,7 @@
       <c r="O665" s="240"/>
       <c r="P665" s="240"/>
     </row>
-    <row r="666" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:25">
       <c r="B666" s="240"/>
       <c r="C666" s="240"/>
       <c r="D666" s="240"/>
@@ -19137,7 +19240,7 @@
       <c r="O666" s="240"/>
       <c r="P666" s="240"/>
     </row>
-    <row r="667" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:25">
       <c r="B667" s="240"/>
       <c r="C667" s="240"/>
       <c r="D667" s="240"/>
@@ -19148,10 +19251,10 @@
         <v>70800</v>
       </c>
       <c r="I667" s="241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J667" s="243" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K667" s="240"/>
       <c r="L667" s="240"/>
@@ -19160,7 +19263,7 @@
       <c r="O667" s="240"/>
       <c r="P667" s="240"/>
     </row>
-    <row r="668" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:25">
       <c r="B668" s="240"/>
       <c r="C668" s="240"/>
       <c r="D668" s="240"/>
@@ -19172,7 +19275,7 @@
         <v>1000000</v>
       </c>
       <c r="I668" s="241" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J668" s="240"/>
       <c r="K668" s="240"/>
@@ -19182,7 +19285,7 @@
       <c r="O668" s="240"/>
       <c r="P668" s="240"/>
     </row>
-    <row r="669" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:25">
       <c r="B669" s="240"/>
       <c r="C669" s="240"/>
       <c r="D669" s="240"/>
@@ -19194,7 +19297,7 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="I669" s="241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J669" s="240"/>
       <c r="K669" s="240"/>
@@ -19204,7 +19307,7 @@
       <c r="O669" s="240"/>
       <c r="P669" s="240"/>
     </row>
-    <row r="670" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:25">
       <c r="B670" s="240"/>
       <c r="C670" s="240"/>
       <c r="D670" s="240"/>
@@ -19221,7 +19324,7 @@
       <c r="O670" s="240"/>
       <c r="P670" s="240"/>
     </row>
-    <row r="671" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:25">
       <c r="B671" s="240"/>
       <c r="C671" s="240"/>
       <c r="D671" s="240"/>
@@ -19238,7 +19341,7 @@
       <c r="O671" s="240"/>
       <c r="P671" s="240"/>
     </row>
-    <row r="672" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:25">
       <c r="B672" s="240"/>
       <c r="C672" s="240"/>
       <c r="D672" s="240"/>
@@ -19255,7 +19358,7 @@
       <c r="O672" s="240"/>
       <c r="P672" s="240"/>
     </row>
-    <row r="673" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:16">
       <c r="B673" s="240"/>
       <c r="C673" s="240"/>
       <c r="D673" s="240"/>
@@ -19272,7 +19375,7 @@
       <c r="O673" s="240"/>
       <c r="P673" s="240"/>
     </row>
-    <row r="674" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:16">
       <c r="B674" s="240"/>
       <c r="C674" s="240"/>
       <c r="D674" s="240"/>
@@ -19289,7 +19392,7 @@
       <c r="O674" s="240"/>
       <c r="P674" s="240"/>
     </row>
-    <row r="675" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:16">
       <c r="B675" s="240"/>
       <c r="C675" s="240"/>
       <c r="D675" s="240"/>
@@ -19306,7 +19409,7 @@
       <c r="O675" s="240"/>
       <c r="P675" s="240"/>
     </row>
-    <row r="676" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:16">
       <c r="B676" s="240"/>
       <c r="C676" s="240"/>
       <c r="D676" s="240"/>
@@ -19323,7 +19426,7 @@
       <c r="O676" s="240"/>
       <c r="P676" s="240"/>
     </row>
-    <row r="677" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:16">
       <c r="B677" s="240"/>
       <c r="C677" s="240"/>
       <c r="D677" s="240"/>
@@ -19340,7 +19443,7 @@
       <c r="O677" s="240"/>
       <c r="P677" s="240"/>
     </row>
-    <row r="678" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:16">
       <c r="B678" s="240"/>
       <c r="C678" s="240"/>
       <c r="D678" s="240"/>
@@ -19357,7 +19460,7 @@
       <c r="O678" s="240"/>
       <c r="P678" s="240"/>
     </row>
-    <row r="679" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:16">
       <c r="B679" s="240"/>
       <c r="C679" s="240"/>
       <c r="D679" s="240"/>
@@ -19374,7 +19477,7 @@
       <c r="O679" s="240"/>
       <c r="P679" s="240"/>
     </row>
-    <row r="680" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:16">
       <c r="B680" s="240"/>
       <c r="C680" s="240"/>
       <c r="D680" s="240"/>
@@ -19391,7 +19494,7 @@
       <c r="O680" s="240"/>
       <c r="P680" s="240"/>
     </row>
-    <row r="681" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:16">
       <c r="B681" s="240"/>
       <c r="C681" s="240"/>
       <c r="D681" s="240"/>
@@ -19408,7 +19511,7 @@
       <c r="O681" s="240"/>
       <c r="P681" s="240"/>
     </row>
-    <row r="682" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:16">
       <c r="B682" s="240"/>
       <c r="C682" s="240"/>
       <c r="D682" s="240"/>
@@ -19425,25 +19528,25 @@
       <c r="O682" s="240"/>
       <c r="P682" s="240"/>
     </row>
-    <row r="683" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:16">
       <c r="H683" s="240"/>
       <c r="I683" s="240"/>
       <c r="J683" s="240"/>
       <c r="K683" s="240"/>
     </row>
-    <row r="684" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:16">
       <c r="H684" s="240"/>
       <c r="I684" s="240"/>
       <c r="J684" s="240"/>
       <c r="K684" s="240"/>
     </row>
-    <row r="685" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:16">
       <c r="H685" s="240"/>
       <c r="I685" s="240"/>
       <c r="J685" s="240"/>
       <c r="K685" s="240"/>
     </row>
-    <row r="686" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:16">
       <c r="H686" s="240"/>
       <c r="I686" s="240"/>
       <c r="J686" s="240"/>
@@ -19451,10 +19554,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C306" r:id="rId1"/>
-    <hyperlink ref="C425" r:id="rId2"/>
-    <hyperlink ref="C393" r:id="rId3"/>
-    <hyperlink ref="C516" r:id="rId4"/>
+    <hyperlink ref="C306" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C425" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C393" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C516" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEC015-B383-FF40-88D9-19DFA1992D82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9EA9B5-60B5-074B-B7D3-E1E5E47E6141}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25580" yWindow="500" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,6 +43,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="216">
   <si>
     <t>Source</t>
   </si>
@@ -850,6 +856,15 @@
   </si>
   <si>
     <t>Download the 'prices over time' excel (2005 onwards). Numbers below are for NL. Prices are calculated on monthly average (rolling basis).</t>
+  </si>
+  <si>
+    <t>kg_per_liter</t>
+  </si>
+  <si>
+    <t>kg/ltr</t>
+  </si>
+  <si>
+    <t>mj_per_kg, kg_per_liter</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2149,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2395,7 +2410,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2566,6 +2580,12 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="362">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3515,14 +3535,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -3532,7 +3552,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4747,13 +4767,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="99"/>
-      <c r="D9" s="179"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="180"/>
+      <c r="D10" s="179"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -4763,7 +4783,7 @@
       <c r="C11" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="180"/>
+      <c r="D11" s="179"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
@@ -4771,7 +4791,7 @@
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="180"/>
+      <c r="D12" s="179"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
@@ -4779,7 +4799,7 @@
       <c r="C13" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="180"/>
+      <c r="D13" s="179"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -4787,13 +4807,13 @@
       <c r="C14" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="180"/>
+      <c r="D14" s="179"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
-      <c r="D15" s="180"/>
+      <c r="D15" s="179"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -4803,7 +4823,7 @@
       <c r="C16" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="180"/>
+      <c r="D16" s="179"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -4811,7 +4831,7 @@
       <c r="C17" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="180"/>
+      <c r="D17" s="179"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -4819,7 +4839,7 @@
       <c r="C18" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="180"/>
+      <c r="D18" s="179"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -4827,7 +4847,7 @@
       <c r="C19" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="180"/>
+      <c r="D19" s="179"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -4835,7 +4855,7 @@
       <c r="C20" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="180"/>
+      <c r="D20" s="179"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -4843,7 +4863,7 @@
       <c r="C21" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="179"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -4851,40 +4871,40 @@
       <c r="C22" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="180"/>
+      <c r="D22" s="179"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="108"/>
       <c r="C23" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="180"/>
+      <c r="D23" s="179"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="181"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="183"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="212">
+      <c r="C27" s="211">
         <v>42227</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="C28" s="211" t="s">
+      <c r="C28" s="210" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="C29" s="211" t="s">
+      <c r="C29" s="210" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="C30" s="211" t="s">
+      <c r="C30" s="210" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4899,10 +4919,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4927,30 +4947,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="250" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="253"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="252"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="254"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="255"/>
     </row>
     <row r="4" spans="2:10" ht="63" customHeight="1">
-      <c r="B4" s="257"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="259"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="258"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
@@ -5041,14 +5061,14 @@
       <c r="D11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="218">
+      <c r="E11" s="217">
         <f>'Research data'!G7</f>
         <v>4.4562084945976153E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="132"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="216" t="s">
         <v>194</v>
       </c>
       <c r="J11" s="46"/>
@@ -5075,58 +5095,78 @@
     </row>
     <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="37" t="s">
-        <v>40</v>
+      <c r="C13" s="264" t="s">
+        <v>213</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="48">
+        <v>214</v>
+      </c>
+      <c r="E13" s="267">
         <f>'Research data'!G9</f>
-        <v>0</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="227" t="s">
-        <v>199</v>
-      </c>
+      <c r="G13" s="132"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="228" t="s">
-        <v>44</v>
+      <c r="I13" s="133" t="s">
+        <v>119</v>
       </c>
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="229" t="s">
-        <v>202</v>
+      <c r="C14" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="48">
         <f>'Research data'!G10</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="226" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="227" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="228" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="125">
+        <f>'Research data'!G11</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="227" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="228" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5168,27 +5208,27 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="260"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="259"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="254"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="261"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="260"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="262"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="264"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="263"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -5253,7 +5293,7 @@
     </row>
     <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="225" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="132"/>
@@ -5273,7 +5313,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="125">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
@@ -5295,7 +5335,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="125">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G16</f>
         <v>1.15E-2</v>
       </c>
       <c r="F12" s="37"/>
@@ -5317,7 +5357,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="125">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G17</f>
         <v>1.67E-2</v>
       </c>
       <c r="F13" s="37"/>
@@ -5339,7 +5379,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="125">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G18</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="F14" s="37"/>
@@ -5361,7 +5401,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="125">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
@@ -5383,7 +5423,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="125">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
@@ -5405,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G21</f>
         <v>0.6</v>
       </c>
       <c r="F17" s="37"/>
@@ -5431,7 +5471,7 @@
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="225" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="132"/>
@@ -5451,7 +5491,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="125">
-        <f>'Research data'!G23</f>
+        <f>'Research data'!G24</f>
         <v>0</v>
       </c>
       <c r="F20" s="37"/>
@@ -5473,7 +5513,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="125">
-        <f>'Research data'!G24</f>
+        <f>'Research data'!G25</f>
         <v>1.43E-2</v>
       </c>
       <c r="F21" s="37"/>
@@ -5495,7 +5535,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="125">
-        <f>'Research data'!G25</f>
+        <f>'Research data'!G26</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="F22" s="37"/>
@@ -5517,7 +5557,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="125">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G27</f>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="F23" s="37"/>
@@ -5539,7 +5579,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="125">
-        <f>'Research data'!G27</f>
+        <f>'Research data'!G28</f>
         <v>0</v>
       </c>
       <c r="F24" s="37"/>
@@ -5561,7 +5601,7 @@
         <v>52</v>
       </c>
       <c r="E25" s="125">
-        <f>'Research data'!G28</f>
+        <f>'Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F25" s="37"/>
@@ -5583,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="48">
-        <f>'Research data'!G29</f>
+        <f>'Research data'!G30</f>
         <v>0.4</v>
       </c>
       <c r="F26" s="37"/>
@@ -5622,10 +5662,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R36"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5790,7 +5830,7 @@
       <c r="F7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="216">
+      <c r="G7" s="215">
         <f>O7</f>
         <v>4.4562084945976153E-2</v>
       </c>
@@ -5801,13 +5841,13 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="236">
+      <c r="O7" s="235">
         <f>Notes!F576</f>
         <v>4.4562084945976153E-2</v>
       </c>
-      <c r="P7" s="215"/>
+      <c r="P7" s="214"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="214" t="s">
+      <c r="R7" s="213" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5846,23 +5886,23 @@
     </row>
     <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="138" t="s">
-        <v>40</v>
-      </c>
+      <c r="C9" s="265" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="24" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="G9" s="47">
-        <v>0</v>
+        <f>I9</f>
+        <v>0.79400000000000004</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="47">
+        <f>Notes!F10</f>
+        <v>0.79400000000000004</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -5875,8 +5915,8 @@
     </row>
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="230" t="s">
-        <v>202</v>
+      <c r="C10" s="138" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="138" t="s">
         <v>40</v>
@@ -5887,9 +5927,8 @@
       <c r="F10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="125">
-        <f>P10</f>
-        <v>7.0800000000000002E-2</v>
+      <c r="G10" s="47">
+        <v>0</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="18"/>
@@ -5899,21 +5938,29 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="237">
-        <f>Notes!H669</f>
-        <v>7.0800000000000002E-2</v>
-      </c>
+      <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="79"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+    <row r="11" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="229" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="125">
+        <f>P11</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -5921,20 +5968,21 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="236">
+        <f>Notes!H669</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="165"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="79"/>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="85"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5946,16 +5994,16 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="165"/>
     </row>
-    <row r="13" spans="2:18" ht="17" thickBot="1">
+    <row r="13" spans="2:18">
       <c r="B13" s="79"/>
-      <c r="C13" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="132"/>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="115"/>
-      <c r="H13" s="86"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5965,37 +6013,27 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="165" t="s">
-        <v>55</v>
-      </c>
+      <c r="R13" s="165"/>
     </row>
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="79"/>
-      <c r="C14" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="125">
-        <f>M14</f>
-        <v>0</v>
-      </c>
+      <c r="C14" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="86"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="125">
-        <f>Notes!H470</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="83"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="165" t="s">
         <v>55</v>
       </c>
@@ -6003,30 +6041,30 @@
     <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="79"/>
       <c r="C15" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+        <v>46</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="125">
-        <f t="shared" ref="G15:G19" si="0">M15</f>
-        <v>1.15E-2</v>
-      </c>
-      <c r="H15" s="18"/>
+        <f>M15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="86"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="125">
-        <f>Notes!H471</f>
-        <v>1.15E-2</v>
+        <f>Notes!H470</f>
+        <v>0</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="83"/>
       <c r="R15" s="165" t="s">
         <v>55</v>
       </c>
@@ -6034,16 +6072,16 @@
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="79"/>
       <c r="C16" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="125">
-        <f t="shared" si="0"/>
-        <v>1.67E-2</v>
+        <f t="shared" ref="G16:G20" si="0">M16</f>
+        <v>1.15E-2</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -6051,8 +6089,8 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="125">
-        <f>Notes!H472</f>
-        <v>1.67E-2</v>
+        <f>Notes!H471</f>
+        <v>1.15E-2</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -6065,7 +6103,7 @@
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="79"/>
       <c r="C17" s="139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -6074,7 +6112,7 @@
       </c>
       <c r="G17" s="125">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -6082,8 +6120,8 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="125">
-        <f>Notes!H473</f>
-        <v>1.2999999999999999E-3</v>
+        <f>Notes!H472</f>
+        <v>1.67E-2</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -6096,30 +6134,30 @@
     <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="79"/>
       <c r="C18" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+        <v>50</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="125">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="86"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="125">
-        <f>Notes!H474</f>
-        <v>0</v>
+        <f>Notes!H473</f>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="83"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="165" t="s">
         <v>55</v>
       </c>
@@ -6127,10 +6165,10 @@
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="79"/>
       <c r="C19" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="24" t="s">
         <v>52</v>
       </c>
@@ -6138,13 +6176,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="125">
-        <f>Notes!H475</f>
+        <f>Notes!H474</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
@@ -6158,59 +6196,69 @@
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="79"/>
       <c r="C20" s="139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="48">
-        <f>M20</f>
-        <v>0.6</v>
+        <v>52</v>
+      </c>
+      <c r="G20" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="48">
-        <v>0.6</v>
+      <c r="M20" s="125">
+        <f>Notes!H475</f>
+        <v>0</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="165" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="79"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48">
+        <f>M21</f>
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="48">
+        <v>0.6</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="83"/>
-      <c r="R21" s="165"/>
+      <c r="R21" s="165" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="79"/>
-      <c r="C22" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="132"/>
       <c r="G22" s="132"/>
       <c r="H22" s="86"/>
@@ -6218,38 +6266,28 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="132"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="165" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="165"/>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="79"/>
-      <c r="C23" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="48">
-        <f>M23</f>
-        <v>0</v>
-      </c>
+      <c r="C23" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
       <c r="H23" s="86"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="48">
-        <f>Notes!H487</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="132"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -6261,27 +6299,30 @@
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="79"/>
       <c r="C24" s="139" t="s">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="125">
-        <f t="shared" ref="G24:G29" si="1">M24</f>
-        <v>1.43E-2</v>
-      </c>
+      <c r="G24" s="48">
+        <f>M24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="86"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="125">
-        <f>Notes!H488</f>
-        <v>1.43E-2</v>
+      <c r="M24" s="48">
+        <f>Notes!H487</f>
+        <v>0</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="83"/>
+      <c r="Q24" s="81"/>
       <c r="R24" s="165" t="s">
         <v>55</v>
       </c>
@@ -6289,22 +6330,22 @@
     <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="79"/>
       <c r="C25" s="139" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="125">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999998E-4</v>
+        <f t="shared" ref="G25:G30" si="1">M25</f>
+        <v>1.43E-2</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="125">
-        <f>Notes!H489</f>
-        <v>8.9999999999999998E-4</v>
+        <f>Notes!H488</f>
+        <v>1.43E-2</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -6317,22 +6358,22 @@
     <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="79"/>
       <c r="C26" s="139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="125">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="125">
-        <f>Notes!H490</f>
-        <v>2.3999999999999998E-3</v>
+        <f>Notes!H489</f>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -6345,22 +6386,22 @@
     <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="79"/>
       <c r="C27" s="139" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="125">
-        <f>Notes!H491</f>
-        <v>0</v>
+        <f>Notes!H490</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -6373,7 +6414,7 @@
     <row r="28" spans="2:18" ht="17" thickBot="1">
       <c r="B28" s="79"/>
       <c r="C28" s="139" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>52</v>
@@ -6387,13 +6428,13 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="125">
-        <f>Notes!H492</f>
+        <f>Notes!H491</f>
         <v>0</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="86"/>
+      <c r="Q28" s="83"/>
       <c r="R28" s="165" t="s">
         <v>55</v>
       </c>
@@ -6401,52 +6442,76 @@
     <row r="29" spans="2:18" ht="17" thickBot="1">
       <c r="B29" s="79"/>
       <c r="C29" s="139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="48">
+        <v>52</v>
+      </c>
+      <c r="G29" s="125">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="48">
-        <v>0.4</v>
+      <c r="M29" s="125">
+        <f>Notes!H492</f>
+        <v>0</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="86"/>
       <c r="R29" s="165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="17" thickBot="1">
+      <c r="B30" s="79"/>
+      <c r="C30" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="165" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="17" thickBot="1">
-      <c r="B30" s="93"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+    <row r="31" spans="2:18" ht="17" thickBot="1">
+      <c r="B31" s="93"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96"/>
     </row>
     <row r="32" spans="2:18">
       <c r="O32" s="18"/>
@@ -6465,7 +6530,11 @@
       <c r="P35" s="18"/>
     </row>
     <row r="36" spans="15:18">
-      <c r="R36" s="165"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="15:18">
+      <c r="R37" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6481,7 +6550,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
@@ -6585,8 +6654,8 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
-      <c r="C7" s="170" t="s">
-        <v>140</v>
+      <c r="C7" s="266" t="s">
+        <v>215</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="167" t="s">
@@ -6612,14 +6681,14 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="54"/>
-      <c r="C8" s="231" t="s">
+      <c r="C8" s="230" t="s">
         <v>203</v>
       </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="232" t="s">
+      <c r="E8" s="231" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="232"/>
+      <c r="F8" s="231"/>
       <c r="G8" s="57" t="s">
         <v>117</v>
       </c>
@@ -6628,7 +6697,7 @@
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="245" t="s">
+      <c r="K8" s="244" t="s">
         <v>205</v>
       </c>
       <c r="L8" s="72"/>
@@ -6648,7 +6717,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="54"/>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="170" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="63"/>
@@ -6828,8 +6897,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y686"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="I516" sqref="I516"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
@@ -7425,7 +7494,7 @@
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140"/>
-      <c r="F22" s="202">
+      <c r="F22" s="201">
         <v>0.15</v>
       </c>
       <c r="G22" s="140"/>
@@ -7455,7 +7524,7 @@
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140"/>
-      <c r="F23" s="202">
+      <c r="F23" s="201">
         <f>1-F22</f>
         <v>0.85</v>
       </c>
@@ -7486,7 +7555,7 @@
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140"/>
-      <c r="F24" s="203">
+      <c r="F24" s="202">
         <f>F22*F18+F23*F11</f>
         <v>22.914920000000002</v>
       </c>
@@ -7666,10 +7735,10 @@
     </row>
     <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="127"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="206"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="205"/>
     </row>
     <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="127"/>
@@ -7761,7 +7830,7 @@
     <row r="38" spans="2:8" customFormat="1">
       <c r="B38" s="127"/>
       <c r="E38" s="159"/>
-      <c r="F38" s="210">
+      <c r="F38" s="209">
         <f>F37/F36</f>
         <v>29.129752748998918</v>
       </c>
@@ -7774,10 +7843,10 @@
     </row>
     <row r="39" spans="2:8" customFormat="1">
       <c r="B39" s="127"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="209"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="208"/>
     </row>
     <row r="40" spans="2:8" customFormat="1">
       <c r="B40" s="127"/>
@@ -12751,13 +12820,13 @@
         <f>F344*100*1000</f>
         <v>10300000</v>
       </c>
-      <c r="G345" s="172" t="s">
+      <c r="G345" s="171" t="s">
         <v>132</v>
       </c>
       <c r="H345" s="140"/>
-      <c r="I345" s="173"/>
+      <c r="I345" s="172"/>
       <c r="J345" s="140"/>
-      <c r="K345" s="174"/>
+      <c r="K345" s="173"/>
       <c r="L345" s="140"/>
       <c r="M345" s="140"/>
       <c r="N345" s="140"/>
@@ -15601,7 +15670,7 @@
     </row>
     <row r="452" spans="2:25" customFormat="1" ht="21">
       <c r="B452" s="127"/>
-      <c r="C452" s="175" t="s">
+      <c r="C452" s="174" t="s">
         <v>134</v>
       </c>
       <c r="D452" s="140"/>
@@ -15702,7 +15771,7 @@
     </row>
     <row r="461" spans="2:25">
       <c r="B461" s="127"/>
-      <c r="E461" s="176" t="s">
+      <c r="E461" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -15944,15 +16013,15 @@
     </row>
     <row r="478" spans="2:11">
       <c r="B478" s="127"/>
-      <c r="E478" s="177" t="s">
+      <c r="E478" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="F478" s="178"/>
-      <c r="G478" s="178"/>
-      <c r="H478" s="178"/>
-      <c r="I478" s="178"/>
-      <c r="J478" s="178"/>
-      <c r="K478" s="178"/>
+      <c r="F478" s="177"/>
+      <c r="G478" s="177"/>
+      <c r="H478" s="177"/>
+      <c r="I478" s="177"/>
+      <c r="J478" s="177"/>
+      <c r="K478" s="177"/>
     </row>
     <row r="479" spans="2:11">
       <c r="B479" s="127"/>
@@ -16062,7 +16131,7 @@
       <c r="H485" s="140"/>
       <c r="I485" s="140"/>
       <c r="J485" s="140"/>
-      <c r="K485" s="178"/>
+      <c r="K485" s="177"/>
     </row>
     <row r="486" spans="2:11">
       <c r="B486" s="127"/>
@@ -16072,7 +16141,7 @@
       <c r="H486" s="140"/>
       <c r="I486" s="140"/>
       <c r="J486" s="140"/>
-      <c r="K486" s="178"/>
+      <c r="K486" s="177"/>
     </row>
     <row r="487" spans="2:11">
       <c r="B487" s="127"/>
@@ -16241,41 +16310,41 @@
       <c r="B512" s="127"/>
     </row>
     <row r="513" spans="1:25">
-      <c r="A513" s="185"/>
-      <c r="B513" s="186"/>
-      <c r="C513" s="186" t="s">
+      <c r="A513" s="184"/>
+      <c r="B513" s="185"/>
+      <c r="C513" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="D513" s="186" t="s">
+      <c r="D513" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="E513" s="186"/>
-      <c r="F513" s="186" t="s">
+      <c r="E513" s="185"/>
+      <c r="F513" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="G513" s="186"/>
-      <c r="H513" s="186"/>
-      <c r="I513" s="186"/>
-      <c r="J513" s="186"/>
-      <c r="K513" s="186"/>
-      <c r="L513" s="186"/>
-      <c r="M513" s="186"/>
-      <c r="N513" s="186"/>
-      <c r="O513" s="186"/>
-      <c r="P513" s="186"/>
-      <c r="Q513" s="186"/>
-      <c r="R513" s="186"/>
-      <c r="S513" s="186"/>
-      <c r="T513" s="186"/>
-      <c r="U513" s="186"/>
-      <c r="V513" s="185"/>
-      <c r="W513" s="185"/>
-      <c r="X513" s="185"/>
-      <c r="Y513" s="185"/>
+      <c r="G513" s="185"/>
+      <c r="H513" s="185"/>
+      <c r="I513" s="185"/>
+      <c r="J513" s="185"/>
+      <c r="K513" s="185"/>
+      <c r="L513" s="185"/>
+      <c r="M513" s="185"/>
+      <c r="N513" s="185"/>
+      <c r="O513" s="185"/>
+      <c r="P513" s="185"/>
+      <c r="Q513" s="185"/>
+      <c r="R513" s="185"/>
+      <c r="S513" s="185"/>
+      <c r="T513" s="185"/>
+      <c r="U513" s="185"/>
+      <c r="V513" s="184"/>
+      <c r="W513" s="184"/>
+      <c r="X513" s="184"/>
+      <c r="Y513" s="184"/>
     </row>
     <row r="514" spans="1:25">
-      <c r="A514" s="187"/>
-      <c r="B514" s="188"/>
+      <c r="A514" s="186"/>
+      <c r="B514" s="187"/>
       <c r="C514" s="140"/>
       <c r="D514" s="140"/>
       <c r="E514" s="140"/>
@@ -16301,9 +16370,9 @@
       <c r="Y514" s="140"/>
     </row>
     <row r="515" spans="1:25">
-      <c r="A515" s="187"/>
-      <c r="B515" s="188"/>
-      <c r="C515" s="185" t="s">
+      <c r="A515" s="186"/>
+      <c r="B515" s="187"/>
+      <c r="C515" s="184" t="s">
         <v>149</v>
       </c>
       <c r="D515" s="140"/>
@@ -16330,9 +16399,9 @@
       <c r="Y515" s="140"/>
     </row>
     <row r="516" spans="1:25">
-      <c r="A516" s="187"/>
-      <c r="B516" s="188"/>
-      <c r="C516" s="189" t="s">
+      <c r="A516" s="186"/>
+      <c r="B516" s="187"/>
+      <c r="C516" s="188" t="s">
         <v>150</v>
       </c>
       <c r="D516" s="140"/>
@@ -16361,10 +16430,10 @@
       <c r="Y516" s="140"/>
     </row>
     <row r="517" spans="1:25">
-      <c r="A517" s="187"/>
-      <c r="B517" s="188"/>
+      <c r="A517" s="186"/>
+      <c r="B517" s="187"/>
       <c r="C517" s="140"/>
-      <c r="D517" s="187"/>
+      <c r="D517" s="186"/>
       <c r="E517" s="140"/>
       <c r="F517" s="140"/>
       <c r="G517" s="140"/>
@@ -16388,8 +16457,8 @@
       <c r="Y517" s="140"/>
     </row>
     <row r="518" spans="1:25">
-      <c r="A518" s="187"/>
-      <c r="B518" s="188"/>
+      <c r="A518" s="186"/>
+      <c r="B518" s="187"/>
       <c r="C518" s="140"/>
       <c r="D518" s="140" t="s">
         <v>151</v>
@@ -16417,25 +16486,25 @@
       <c r="Y518" s="140"/>
     </row>
     <row r="519" spans="1:25" ht="48">
-      <c r="A519" s="187"/>
-      <c r="B519" s="188"/>
+      <c r="A519" s="186"/>
+      <c r="B519" s="187"/>
       <c r="C519" s="140"/>
-      <c r="D519" s="190" t="s">
+      <c r="D519" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E519" s="187"/>
+      <c r="E519" s="186"/>
       <c r="F519" s="140"/>
       <c r="G519" s="140"/>
-      <c r="H519" s="219" t="s">
+      <c r="H519" s="218" t="s">
         <v>152</v>
       </c>
-      <c r="I519" s="220" t="s">
+      <c r="I519" s="219" t="s">
         <v>153</v>
       </c>
-      <c r="J519" s="221" t="s">
+      <c r="J519" s="220" t="s">
         <v>196</v>
       </c>
-      <c r="K519" s="196" t="s">
+      <c r="K519" s="195" t="s">
         <v>195</v>
       </c>
       <c r="L519" s="140"/>
@@ -16451,21 +16520,21 @@
       <c r="V519" s="140"/>
     </row>
     <row r="520" spans="1:25" ht="17" thickBot="1">
-      <c r="A520" s="187"/>
-      <c r="B520" s="188"/>
+      <c r="A520" s="186"/>
+      <c r="B520" s="187"/>
       <c r="C520" s="140"/>
       <c r="D520" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="E520" s="187"/>
+      <c r="E520" s="186"/>
       <c r="F520" s="140"/>
       <c r="G520" s="140"/>
-      <c r="H520" s="191"/>
-      <c r="I520" s="192"/>
-      <c r="J520" s="222" t="s">
+      <c r="H520" s="190"/>
+      <c r="I520" s="191"/>
+      <c r="J520" s="221" t="s">
         <v>154</v>
       </c>
-      <c r="K520" s="197" t="s">
+      <c r="K520" s="196" t="s">
         <v>154</v>
       </c>
       <c r="L520" s="140"/>
@@ -16481,30 +16550,30 @@
       <c r="V520" s="140"/>
     </row>
     <row r="521" spans="1:25" ht="17" thickBot="1">
-      <c r="A521" s="187"/>
-      <c r="B521" s="188"/>
+      <c r="A521" s="186"/>
+      <c r="B521" s="187"/>
       <c r="C521" s="140"/>
       <c r="D521" s="140"/>
-      <c r="E521" s="187" t="s">
+      <c r="E521" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="F521" s="193">
+      <c r="F521" s="192">
         <f>AVERAGE(J521:J525)</f>
         <v>519.13</v>
       </c>
       <c r="G521" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="H521" s="246">
+      <c r="H521" s="245">
         <v>43059</v>
       </c>
-      <c r="I521" s="247">
+      <c r="I521" s="246">
         <v>1</v>
       </c>
-      <c r="J521" s="249">
+      <c r="J521" s="248">
         <v>534.66999999999996</v>
       </c>
-      <c r="K521" s="250">
+      <c r="K521" s="249">
         <v>1591</v>
       </c>
       <c r="L521" s="140"/>
@@ -16520,30 +16589,30 @@
       <c r="V521" s="140"/>
     </row>
     <row r="522" spans="1:25" ht="17" thickBot="1">
-      <c r="A522" s="187"/>
-      <c r="B522" s="188"/>
+      <c r="A522" s="186"/>
+      <c r="B522" s="187"/>
       <c r="C522" s="140"/>
       <c r="D522" s="140"/>
-      <c r="E522" s="187" t="s">
+      <c r="E522" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="F522" s="195">
+      <c r="F522" s="194">
         <f>F521/1000</f>
         <v>0.51912999999999998</v>
       </c>
       <c r="G522" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H522" s="248">
+      <c r="H522" s="247">
         <v>43052</v>
       </c>
-      <c r="I522" s="223">
+      <c r="I522" s="222">
         <v>1</v>
       </c>
-      <c r="J522" s="249">
+      <c r="J522" s="248">
         <v>546.24</v>
       </c>
-      <c r="K522" s="250">
+      <c r="K522" s="249">
         <v>1605</v>
       </c>
       <c r="L522" s="140"/>
@@ -16559,23 +16628,23 @@
       <c r="V522" s="140"/>
     </row>
     <row r="523" spans="1:25" ht="17" thickBot="1">
-      <c r="A523" s="187"/>
-      <c r="B523" s="188"/>
+      <c r="A523" s="186"/>
+      <c r="B523" s="187"/>
       <c r="C523" s="140"/>
       <c r="D523" s="140"/>
       <c r="E523" s="140"/>
       <c r="F523" s="140"/>
       <c r="G523" s="140"/>
-      <c r="H523" s="248">
+      <c r="H523" s="247">
         <v>43045</v>
       </c>
-      <c r="I523" s="223">
+      <c r="I523" s="222">
         <v>1</v>
       </c>
-      <c r="J523" s="249">
+      <c r="J523" s="248">
         <v>526.4</v>
       </c>
-      <c r="K523" s="250">
+      <c r="K523" s="249">
         <v>1581</v>
       </c>
       <c r="L523" s="140"/>
@@ -16591,32 +16660,32 @@
       <c r="V523" s="140"/>
     </row>
     <row r="524" spans="1:25" ht="17" thickBot="1">
-      <c r="A524" s="187"/>
-      <c r="B524" s="188"/>
+      <c r="A524" s="186"/>
+      <c r="B524" s="187"/>
       <c r="C524" s="140"/>
       <c r="D524" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="E524" s="187" t="s">
+      <c r="E524" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="F524" s="193">
+      <c r="F524" s="192">
         <f>AVERAGE(K521:K525)</f>
         <v>1572.2</v>
       </c>
       <c r="G524" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="H524" s="248">
+      <c r="H524" s="247">
         <v>43038</v>
       </c>
-      <c r="I524" s="223">
+      <c r="I524" s="222">
         <v>1</v>
       </c>
-      <c r="J524" s="249">
+      <c r="J524" s="248">
         <v>501.61</v>
       </c>
-      <c r="K524" s="250">
+      <c r="K524" s="249">
         <v>1551</v>
       </c>
       <c r="L524" s="140"/>
@@ -16632,30 +16701,30 @@
       <c r="V524" s="140"/>
     </row>
     <row r="525" spans="1:25" ht="17" thickBot="1">
-      <c r="A525" s="187"/>
-      <c r="B525" s="188"/>
+      <c r="A525" s="186"/>
+      <c r="B525" s="187"/>
       <c r="C525" s="140"/>
       <c r="D525" s="140"/>
-      <c r="E525" s="187" t="s">
+      <c r="E525" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="F525" s="195">
+      <c r="F525" s="194">
         <f>F524/1000</f>
         <v>1.5722</v>
       </c>
       <c r="G525" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H525" s="248">
+      <c r="H525" s="247">
         <v>43031</v>
       </c>
-      <c r="I525" s="223">
+      <c r="I525" s="222">
         <v>1</v>
       </c>
-      <c r="J525" s="249">
+      <c r="J525" s="248">
         <v>486.73</v>
       </c>
-      <c r="K525" s="250">
+      <c r="K525" s="249">
         <v>1533</v>
       </c>
       <c r="L525" s="140"/>
@@ -16671,23 +16740,23 @@
       <c r="V525" s="140"/>
     </row>
     <row r="526" spans="1:25">
-      <c r="A526" s="187"/>
-      <c r="B526" s="188"/>
+      <c r="A526" s="186"/>
+      <c r="B526" s="187"/>
       <c r="C526" s="140"/>
       <c r="D526" s="140"/>
       <c r="E526" s="140"/>
       <c r="F526" s="140"/>
       <c r="G526" s="140"/>
-      <c r="H526" s="194">
+      <c r="H526" s="193">
         <v>42401</v>
       </c>
-      <c r="I526" s="223">
+      <c r="I526" s="222">
         <v>1</v>
       </c>
-      <c r="J526" s="224">
+      <c r="J526" s="223">
         <v>399.79</v>
       </c>
-      <c r="K526" s="225">
+      <c r="K526" s="224">
         <v>1425</v>
       </c>
       <c r="L526" s="140"/>
@@ -16703,25 +16772,25 @@
       <c r="V526" s="140"/>
     </row>
     <row r="527" spans="1:25">
-      <c r="A527" s="187"/>
-      <c r="B527" s="188"/>
+      <c r="A527" s="186"/>
+      <c r="B527" s="187"/>
       <c r="C527" s="140"/>
       <c r="D527" s="143" t="s">
         <v>170</v>
       </c>
       <c r="E527" s="140"/>
-      <c r="F527" s="198"/>
+      <c r="F527" s="197"/>
       <c r="G527" s="140"/>
-      <c r="H527" s="194">
+      <c r="H527" s="193">
         <v>42394</v>
       </c>
-      <c r="I527" s="223">
+      <c r="I527" s="222">
         <v>1</v>
       </c>
-      <c r="J527" s="224">
+      <c r="J527" s="223">
         <v>393.17</v>
       </c>
-      <c r="K527" s="225">
+      <c r="K527" s="224">
         <v>1417</v>
       </c>
       <c r="L527" s="140"/>
@@ -16737,13 +16806,13 @@
       <c r="V527" s="140"/>
     </row>
     <row r="528" spans="1:25">
-      <c r="A528" s="187"/>
-      <c r="B528" s="188"/>
+      <c r="A528" s="186"/>
+      <c r="B528" s="187"/>
       <c r="C528" s="140"/>
       <c r="D528" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="E528" s="187" t="s">
+      <c r="E528" s="186" t="s">
         <v>155</v>
       </c>
       <c r="F528" s="140">
@@ -16752,16 +16821,16 @@
       <c r="G528" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="H528" s="194">
+      <c r="H528" s="193">
         <v>42387</v>
       </c>
-      <c r="I528" s="223">
+      <c r="I528" s="222">
         <v>1</v>
       </c>
-      <c r="J528" s="224">
+      <c r="J528" s="223">
         <v>402.27</v>
       </c>
-      <c r="K528" s="225">
+      <c r="K528" s="224">
         <v>1428</v>
       </c>
       <c r="L528" s="140"/>
@@ -16777,13 +16846,13 @@
       <c r="V528" s="140"/>
     </row>
     <row r="529" spans="1:22">
-      <c r="A529" s="187"/>
-      <c r="B529" s="188"/>
+      <c r="A529" s="186"/>
+      <c r="B529" s="187"/>
       <c r="C529" s="140"/>
       <c r="D529" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="E529" s="187" t="s">
+      <c r="E529" s="186" t="s">
         <v>155</v>
       </c>
       <c r="F529" s="140">
@@ -16793,16 +16862,16 @@
       <c r="G529" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H529" s="194">
+      <c r="H529" s="193">
         <v>42380</v>
       </c>
-      <c r="I529" s="223">
+      <c r="I529" s="222">
         <v>1</v>
       </c>
-      <c r="J529" s="224">
+      <c r="J529" s="223">
         <v>417.14</v>
       </c>
-      <c r="K529" s="225">
+      <c r="K529" s="224">
         <v>1446</v>
       </c>
       <c r="L529" s="140"/>
@@ -16818,32 +16887,32 @@
       <c r="V529" s="140"/>
     </row>
     <row r="530" spans="1:22">
-      <c r="A530" s="187"/>
-      <c r="B530" s="188"/>
+      <c r="A530" s="186"/>
+      <c r="B530" s="187"/>
       <c r="C530" s="140"/>
       <c r="D530" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="E530" s="187" t="s">
+      <c r="E530" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="F530" s="198">
+      <c r="F530" s="197">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G530" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="H530" s="194">
+      <c r="H530" s="193">
         <v>42373</v>
       </c>
-      <c r="I530" s="223">
+      <c r="I530" s="222">
         <v>1</v>
       </c>
-      <c r="J530" s="224">
+      <c r="J530" s="223">
         <v>412.18</v>
       </c>
-      <c r="K530" s="225">
+      <c r="K530" s="224">
         <v>1440</v>
       </c>
       <c r="L530" s="140"/>
@@ -16859,23 +16928,23 @@
       <c r="V530" s="140"/>
     </row>
     <row r="531" spans="1:22">
-      <c r="A531" s="187"/>
-      <c r="B531" s="188"/>
+      <c r="A531" s="186"/>
+      <c r="B531" s="187"/>
       <c r="C531" s="140"/>
       <c r="D531" s="140"/>
       <c r="E531" s="140"/>
       <c r="F531" s="140"/>
       <c r="G531" s="140"/>
-      <c r="H531" s="194">
+      <c r="H531" s="193">
         <v>42352</v>
       </c>
-      <c r="I531" s="223">
+      <c r="I531" s="222">
         <v>1</v>
       </c>
-      <c r="J531" s="224">
+      <c r="J531" s="223">
         <v>435.02</v>
       </c>
-      <c r="K531" s="225">
+      <c r="K531" s="224">
         <v>1463</v>
       </c>
       <c r="L531" s="140"/>
@@ -16891,32 +16960,32 @@
       <c r="V531" s="140"/>
     </row>
     <row r="532" spans="1:22">
-      <c r="A532" s="187"/>
-      <c r="B532" s="188"/>
+      <c r="A532" s="186"/>
+      <c r="B532" s="187"/>
       <c r="C532" s="140"/>
       <c r="D532" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="E532" s="187" t="s">
+      <c r="E532" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="F532" s="198">
+      <c r="F532" s="197">
         <f>(F530+F529+F522)*1.21</f>
         <v>1.5647720000000001</v>
       </c>
       <c r="G532" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="H532" s="194">
+      <c r="H532" s="193">
         <v>42345</v>
       </c>
-      <c r="I532" s="223">
+      <c r="I532" s="222">
         <v>1</v>
       </c>
-      <c r="J532" s="224">
+      <c r="J532" s="223">
         <v>452.38</v>
       </c>
-      <c r="K532" s="225">
+      <c r="K532" s="224">
         <v>1484</v>
       </c>
       <c r="L532" s="140"/>
@@ -16932,23 +17001,23 @@
       <c r="V532" s="140"/>
     </row>
     <row r="533" spans="1:22">
-      <c r="A533" s="187"/>
-      <c r="B533" s="188"/>
+      <c r="A533" s="186"/>
+      <c r="B533" s="187"/>
       <c r="C533" s="140"/>
       <c r="D533" s="140"/>
       <c r="E533" s="140"/>
       <c r="F533" s="140"/>
       <c r="G533" s="140"/>
-      <c r="H533" s="194">
+      <c r="H533" s="193">
         <v>42338</v>
       </c>
-      <c r="I533" s="223">
+      <c r="I533" s="222">
         <v>1</v>
       </c>
-      <c r="J533" s="224">
+      <c r="J533" s="223">
         <v>459.81</v>
       </c>
-      <c r="K533" s="225">
+      <c r="K533" s="224">
         <v>1493</v>
       </c>
       <c r="L533" s="140"/>
@@ -16964,23 +17033,23 @@
       <c r="V533" s="140"/>
     </row>
     <row r="534" spans="1:22">
-      <c r="A534" s="187"/>
-      <c r="B534" s="188"/>
+      <c r="A534" s="186"/>
+      <c r="B534" s="187"/>
       <c r="C534" s="140"/>
       <c r="D534" s="140"/>
       <c r="E534" s="140"/>
       <c r="F534" s="140"/>
       <c r="G534" s="140"/>
-      <c r="H534" s="194">
+      <c r="H534" s="193">
         <v>42331</v>
       </c>
-      <c r="I534" s="223">
+      <c r="I534" s="222">
         <v>1</v>
       </c>
-      <c r="J534" s="224">
+      <c r="J534" s="223">
         <v>469.73</v>
       </c>
-      <c r="K534" s="225">
+      <c r="K534" s="224">
         <v>1505</v>
       </c>
       <c r="L534" s="140"/>
@@ -16996,23 +17065,23 @@
       <c r="V534" s="140"/>
     </row>
     <row r="535" spans="1:22">
-      <c r="A535" s="187"/>
-      <c r="B535" s="188"/>
+      <c r="A535" s="186"/>
+      <c r="B535" s="187"/>
       <c r="C535" s="140"/>
       <c r="D535" s="140"/>
       <c r="E535" s="140"/>
       <c r="F535" s="140"/>
       <c r="G535" s="140"/>
-      <c r="H535" s="194">
+      <c r="H535" s="193">
         <v>42324</v>
       </c>
-      <c r="I535" s="223">
+      <c r="I535" s="222">
         <v>1</v>
       </c>
-      <c r="J535" s="224">
+      <c r="J535" s="223">
         <v>492.87</v>
       </c>
-      <c r="K535" s="225">
+      <c r="K535" s="224">
         <v>1533</v>
       </c>
       <c r="L535" s="140"/>
@@ -17028,23 +17097,23 @@
       <c r="V535" s="140"/>
     </row>
     <row r="536" spans="1:22">
-      <c r="A536" s="187"/>
-      <c r="B536" s="188"/>
+      <c r="A536" s="186"/>
+      <c r="B536" s="187"/>
       <c r="C536" s="140"/>
       <c r="D536" s="140"/>
       <c r="E536" s="140"/>
       <c r="F536" s="140"/>
       <c r="G536" s="140"/>
-      <c r="H536" s="194">
+      <c r="H536" s="193">
         <v>42317</v>
       </c>
-      <c r="I536" s="223">
+      <c r="I536" s="222">
         <v>1</v>
       </c>
-      <c r="J536" s="224">
+      <c r="J536" s="223">
         <v>478</v>
       </c>
-      <c r="K536" s="225">
+      <c r="K536" s="224">
         <v>1515</v>
       </c>
       <c r="L536" s="140"/>
@@ -17060,23 +17129,23 @@
       <c r="V536" s="140"/>
     </row>
     <row r="537" spans="1:22">
-      <c r="A537" s="187"/>
-      <c r="B537" s="188"/>
+      <c r="A537" s="186"/>
+      <c r="B537" s="187"/>
       <c r="C537" s="140"/>
       <c r="D537" s="140"/>
       <c r="E537" s="140"/>
       <c r="F537" s="140"/>
       <c r="G537" s="140"/>
-      <c r="H537" s="194">
+      <c r="H537" s="193">
         <v>42310</v>
       </c>
-      <c r="I537" s="223">
+      <c r="I537" s="222">
         <v>1</v>
       </c>
-      <c r="J537" s="224">
+      <c r="J537" s="223">
         <v>449.07</v>
       </c>
-      <c r="K537" s="225">
+      <c r="K537" s="224">
         <v>1480</v>
       </c>
       <c r="L537" s="140"/>
@@ -17092,23 +17161,23 @@
       <c r="V537" s="140"/>
     </row>
     <row r="538" spans="1:22">
-      <c r="A538" s="187"/>
-      <c r="B538" s="188"/>
+      <c r="A538" s="186"/>
+      <c r="B538" s="187"/>
       <c r="C538" s="140"/>
       <c r="D538" s="140"/>
       <c r="E538" s="140"/>
       <c r="F538" s="140"/>
       <c r="G538" s="140"/>
-      <c r="H538" s="194">
+      <c r="H538" s="193">
         <v>42303</v>
       </c>
-      <c r="I538" s="223">
+      <c r="I538" s="222">
         <v>1</v>
       </c>
-      <c r="J538" s="224">
+      <c r="J538" s="223">
         <v>439.98</v>
       </c>
-      <c r="K538" s="225">
+      <c r="K538" s="224">
         <v>1469</v>
       </c>
       <c r="L538" s="140"/>
@@ -17124,23 +17193,23 @@
       <c r="V538" s="140"/>
     </row>
     <row r="539" spans="1:22">
-      <c r="A539" s="187"/>
-      <c r="B539" s="188"/>
+      <c r="A539" s="186"/>
+      <c r="B539" s="187"/>
       <c r="C539" s="140"/>
       <c r="D539" s="140"/>
       <c r="E539" s="140"/>
       <c r="F539" s="140"/>
       <c r="G539" s="140"/>
-      <c r="H539" s="194">
+      <c r="H539" s="193">
         <v>42296</v>
       </c>
-      <c r="I539" s="223">
+      <c r="I539" s="222">
         <v>1</v>
       </c>
-      <c r="J539" s="224">
+      <c r="J539" s="223">
         <v>454.03</v>
       </c>
-      <c r="K539" s="225">
+      <c r="K539" s="224">
         <v>1486</v>
       </c>
       <c r="L539" s="140"/>
@@ -17156,410 +17225,410 @@
       <c r="V539" s="140"/>
     </row>
     <row r="540" spans="1:22">
-      <c r="A540" s="187"/>
-      <c r="B540" s="188"/>
-      <c r="C540" s="187"/>
-      <c r="D540" s="187"/>
-      <c r="E540" s="187"/>
+      <c r="A540" s="186"/>
+      <c r="B540" s="187"/>
+      <c r="C540" s="186"/>
+      <c r="D540" s="186"/>
+      <c r="E540" s="186"/>
       <c r="F540" s="140"/>
       <c r="G540" s="140"/>
-      <c r="H540" s="194">
+      <c r="H540" s="193">
         <v>42289</v>
       </c>
-      <c r="I540" s="223">
+      <c r="I540" s="222">
         <v>1</v>
       </c>
-      <c r="J540" s="224">
+      <c r="J540" s="223">
         <v>462.29</v>
       </c>
-      <c r="K540" s="225">
+      <c r="K540" s="224">
         <v>1496</v>
       </c>
-      <c r="L540" s="187"/>
-      <c r="M540" s="187"/>
-      <c r="N540" s="187"/>
-      <c r="O540" s="187"/>
-      <c r="P540" s="187"/>
-      <c r="Q540" s="187"/>
-      <c r="R540" s="187"/>
-      <c r="S540" s="187"/>
-      <c r="T540" s="187"/>
-      <c r="U540" s="187"/>
-      <c r="V540" s="187"/>
+      <c r="L540" s="186"/>
+      <c r="M540" s="186"/>
+      <c r="N540" s="186"/>
+      <c r="O540" s="186"/>
+      <c r="P540" s="186"/>
+      <c r="Q540" s="186"/>
+      <c r="R540" s="186"/>
+      <c r="S540" s="186"/>
+      <c r="T540" s="186"/>
+      <c r="U540" s="186"/>
+      <c r="V540" s="186"/>
     </row>
     <row r="541" spans="1:22">
-      <c r="A541" s="187"/>
-      <c r="B541" s="188"/>
-      <c r="C541" s="187"/>
-      <c r="D541" s="187"/>
-      <c r="E541" s="187"/>
+      <c r="A541" s="186"/>
+      <c r="B541" s="187"/>
+      <c r="C541" s="186"/>
+      <c r="D541" s="186"/>
+      <c r="E541" s="186"/>
       <c r="F541" s="140"/>
       <c r="G541" s="140"/>
-      <c r="H541" s="194">
+      <c r="H541" s="193">
         <v>42282</v>
       </c>
-      <c r="I541" s="223">
+      <c r="I541" s="222">
         <v>1</v>
       </c>
-      <c r="J541" s="224">
+      <c r="J541" s="223">
         <v>451.55</v>
       </c>
-      <c r="K541" s="225">
+      <c r="K541" s="224">
         <v>1483</v>
       </c>
-      <c r="L541" s="187"/>
-      <c r="M541" s="187"/>
-      <c r="N541" s="187"/>
-      <c r="O541" s="187"/>
-      <c r="P541" s="187"/>
-      <c r="Q541" s="187"/>
-      <c r="R541" s="187"/>
-      <c r="S541" s="187"/>
-      <c r="T541" s="187"/>
-      <c r="U541" s="187"/>
-      <c r="V541" s="187"/>
+      <c r="L541" s="186"/>
+      <c r="M541" s="186"/>
+      <c r="N541" s="186"/>
+      <c r="O541" s="186"/>
+      <c r="P541" s="186"/>
+      <c r="Q541" s="186"/>
+      <c r="R541" s="186"/>
+      <c r="S541" s="186"/>
+      <c r="T541" s="186"/>
+      <c r="U541" s="186"/>
+      <c r="V541" s="186"/>
     </row>
     <row r="542" spans="1:22">
-      <c r="A542" s="187"/>
-      <c r="B542" s="188"/>
-      <c r="C542" s="187"/>
-      <c r="D542" s="187"/>
-      <c r="E542" s="187"/>
+      <c r="A542" s="186"/>
+      <c r="B542" s="187"/>
+      <c r="C542" s="186"/>
+      <c r="D542" s="186"/>
+      <c r="E542" s="186"/>
       <c r="F542" s="140"/>
       <c r="G542" s="140"/>
-      <c r="H542" s="194">
+      <c r="H542" s="193">
         <v>42275</v>
       </c>
-      <c r="I542" s="223">
+      <c r="I542" s="222">
         <v>1</v>
       </c>
-      <c r="J542" s="224">
+      <c r="J542" s="223">
         <v>463.12</v>
       </c>
-      <c r="K542" s="225">
+      <c r="K542" s="224">
         <v>1497</v>
       </c>
-      <c r="L542" s="187"/>
-      <c r="M542" s="187"/>
-      <c r="N542" s="187"/>
-      <c r="O542" s="187"/>
-      <c r="P542" s="187"/>
-      <c r="Q542" s="187"/>
-      <c r="R542" s="187"/>
-      <c r="S542" s="187"/>
-      <c r="T542" s="187"/>
-      <c r="U542" s="187"/>
-      <c r="V542" s="187"/>
+      <c r="L542" s="186"/>
+      <c r="M542" s="186"/>
+      <c r="N542" s="186"/>
+      <c r="O542" s="186"/>
+      <c r="P542" s="186"/>
+      <c r="Q542" s="186"/>
+      <c r="R542" s="186"/>
+      <c r="S542" s="186"/>
+      <c r="T542" s="186"/>
+      <c r="U542" s="186"/>
+      <c r="V542" s="186"/>
     </row>
     <row r="543" spans="1:22">
-      <c r="A543" s="187"/>
-      <c r="B543" s="188"/>
-      <c r="C543" s="187"/>
-      <c r="D543" s="187"/>
-      <c r="E543" s="187"/>
+      <c r="A543" s="186"/>
+      <c r="B543" s="187"/>
+      <c r="C543" s="186"/>
+      <c r="D543" s="186"/>
+      <c r="E543" s="186"/>
       <c r="F543" s="140"/>
       <c r="G543" s="140"/>
-      <c r="H543" s="194">
+      <c r="H543" s="193">
         <v>42268</v>
       </c>
-      <c r="I543" s="223">
+      <c r="I543" s="222">
         <v>1</v>
       </c>
-      <c r="J543" s="224">
+      <c r="J543" s="223">
         <v>472.21</v>
       </c>
-      <c r="K543" s="225">
+      <c r="K543" s="224">
         <v>1508</v>
       </c>
-      <c r="L543" s="187"/>
-      <c r="M543" s="187"/>
-      <c r="N543" s="187"/>
-      <c r="O543" s="187"/>
-      <c r="P543" s="187"/>
-      <c r="Q543" s="187"/>
-      <c r="R543" s="187"/>
-      <c r="S543" s="187"/>
-      <c r="T543" s="187"/>
-      <c r="U543" s="187"/>
-      <c r="V543" s="187"/>
+      <c r="L543" s="186"/>
+      <c r="M543" s="186"/>
+      <c r="N543" s="186"/>
+      <c r="O543" s="186"/>
+      <c r="P543" s="186"/>
+      <c r="Q543" s="186"/>
+      <c r="R543" s="186"/>
+      <c r="S543" s="186"/>
+      <c r="T543" s="186"/>
+      <c r="U543" s="186"/>
+      <c r="V543" s="186"/>
     </row>
     <row r="544" spans="1:22">
-      <c r="A544" s="187"/>
-      <c r="B544" s="188"/>
-      <c r="C544" s="187"/>
-      <c r="D544" s="187"/>
-      <c r="E544" s="187"/>
+      <c r="A544" s="186"/>
+      <c r="B544" s="187"/>
+      <c r="C544" s="186"/>
+      <c r="D544" s="186"/>
+      <c r="E544" s="186"/>
       <c r="F544" s="140"/>
       <c r="G544" s="140"/>
-      <c r="H544" s="194">
+      <c r="H544" s="193">
         <v>42261</v>
       </c>
-      <c r="I544" s="223">
+      <c r="I544" s="222">
         <v>1</v>
       </c>
-      <c r="J544" s="224">
+      <c r="J544" s="223">
         <v>481.3</v>
       </c>
-      <c r="K544" s="225">
+      <c r="K544" s="224">
         <v>1519</v>
       </c>
-      <c r="L544" s="187"/>
-      <c r="M544" s="187"/>
-      <c r="N544" s="187"/>
-      <c r="O544" s="187"/>
-      <c r="P544" s="187"/>
-      <c r="Q544" s="187"/>
-      <c r="R544" s="187"/>
-      <c r="S544" s="187"/>
-      <c r="T544" s="187"/>
-      <c r="U544" s="187"/>
-      <c r="V544" s="187"/>
+      <c r="L544" s="186"/>
+      <c r="M544" s="186"/>
+      <c r="N544" s="186"/>
+      <c r="O544" s="186"/>
+      <c r="P544" s="186"/>
+      <c r="Q544" s="186"/>
+      <c r="R544" s="186"/>
+      <c r="S544" s="186"/>
+      <c r="T544" s="186"/>
+      <c r="U544" s="186"/>
+      <c r="V544" s="186"/>
     </row>
     <row r="545" spans="1:25">
-      <c r="A545" s="187"/>
-      <c r="B545" s="188"/>
-      <c r="C545" s="187"/>
-      <c r="D545" s="187"/>
-      <c r="E545" s="187"/>
+      <c r="A545" s="186"/>
+      <c r="B545" s="187"/>
+      <c r="C545" s="186"/>
+      <c r="D545" s="186"/>
+      <c r="E545" s="186"/>
       <c r="F545" s="140"/>
       <c r="G545" s="140"/>
-      <c r="H545" s="194">
+      <c r="H545" s="193">
         <v>42254</v>
       </c>
-      <c r="I545" s="223">
+      <c r="I545" s="222">
         <v>1</v>
       </c>
-      <c r="J545" s="224">
+      <c r="J545" s="223">
         <v>482.13</v>
       </c>
-      <c r="K545" s="225">
+      <c r="K545" s="224">
         <v>1520</v>
       </c>
-      <c r="L545" s="187"/>
-      <c r="M545" s="187"/>
-      <c r="N545" s="187"/>
-      <c r="O545" s="187"/>
-      <c r="P545" s="187"/>
-      <c r="Q545" s="187"/>
-      <c r="R545" s="187"/>
-      <c r="S545" s="187"/>
-      <c r="T545" s="187"/>
-      <c r="U545" s="187"/>
-      <c r="V545" s="187"/>
+      <c r="L545" s="186"/>
+      <c r="M545" s="186"/>
+      <c r="N545" s="186"/>
+      <c r="O545" s="186"/>
+      <c r="P545" s="186"/>
+      <c r="Q545" s="186"/>
+      <c r="R545" s="186"/>
+      <c r="S545" s="186"/>
+      <c r="T545" s="186"/>
+      <c r="U545" s="186"/>
+      <c r="V545" s="186"/>
     </row>
     <row r="546" spans="1:25">
-      <c r="A546" s="187"/>
-      <c r="B546" s="188"/>
-      <c r="C546" s="187"/>
-      <c r="D546" s="187"/>
-      <c r="E546" s="187"/>
+      <c r="A546" s="186"/>
+      <c r="B546" s="187"/>
+      <c r="C546" s="186"/>
+      <c r="D546" s="186"/>
+      <c r="E546" s="186"/>
       <c r="F546" s="140"/>
       <c r="G546" s="140"/>
-      <c r="H546" s="194">
+      <c r="H546" s="193">
         <v>42247</v>
       </c>
-      <c r="I546" s="223">
+      <c r="I546" s="222">
         <v>1</v>
       </c>
-      <c r="J546" s="224">
+      <c r="J546" s="223">
         <v>482.95</v>
       </c>
-      <c r="K546" s="225">
+      <c r="K546" s="224">
         <v>1521</v>
       </c>
-      <c r="L546" s="187"/>
-      <c r="M546" s="187"/>
-      <c r="N546" s="187"/>
-      <c r="O546" s="187"/>
-      <c r="P546" s="187"/>
-      <c r="Q546" s="187"/>
-      <c r="R546" s="187"/>
-      <c r="S546" s="187"/>
-      <c r="T546" s="187"/>
-      <c r="U546" s="187"/>
-      <c r="V546" s="187"/>
+      <c r="L546" s="186"/>
+      <c r="M546" s="186"/>
+      <c r="N546" s="186"/>
+      <c r="O546" s="186"/>
+      <c r="P546" s="186"/>
+      <c r="Q546" s="186"/>
+      <c r="R546" s="186"/>
+      <c r="S546" s="186"/>
+      <c r="T546" s="186"/>
+      <c r="U546" s="186"/>
+      <c r="V546" s="186"/>
     </row>
     <row r="547" spans="1:25">
-      <c r="A547" s="187"/>
-      <c r="B547" s="188"/>
-      <c r="C547" s="187"/>
-      <c r="D547" s="187"/>
-      <c r="E547" s="187"/>
+      <c r="A547" s="186"/>
+      <c r="B547" s="187"/>
+      <c r="C547" s="186"/>
+      <c r="D547" s="186"/>
+      <c r="E547" s="186"/>
       <c r="F547" s="140"/>
       <c r="G547" s="140"/>
-      <c r="H547" s="194">
+      <c r="H547" s="193">
         <v>42240</v>
       </c>
-      <c r="I547" s="223">
+      <c r="I547" s="222">
         <v>1</v>
       </c>
-      <c r="J547" s="224">
+      <c r="J547" s="223">
         <v>513.53</v>
       </c>
-      <c r="K547" s="225">
+      <c r="K547" s="224">
         <v>1558</v>
       </c>
-      <c r="L547" s="187"/>
-      <c r="M547" s="187"/>
-      <c r="N547" s="187"/>
-      <c r="O547" s="187"/>
-      <c r="P547" s="187"/>
-      <c r="Q547" s="187"/>
-      <c r="R547" s="187"/>
-      <c r="S547" s="187"/>
-      <c r="T547" s="187"/>
-      <c r="U547" s="187"/>
-      <c r="V547" s="187"/>
+      <c r="L547" s="186"/>
+      <c r="M547" s="186"/>
+      <c r="N547" s="186"/>
+      <c r="O547" s="186"/>
+      <c r="P547" s="186"/>
+      <c r="Q547" s="186"/>
+      <c r="R547" s="186"/>
+      <c r="S547" s="186"/>
+      <c r="T547" s="186"/>
+      <c r="U547" s="186"/>
+      <c r="V547" s="186"/>
     </row>
     <row r="548" spans="1:25">
-      <c r="A548" s="187"/>
-      <c r="B548" s="188"/>
-      <c r="C548" s="187"/>
-      <c r="D548" s="187"/>
-      <c r="E548" s="187"/>
+      <c r="A548" s="186"/>
+      <c r="B548" s="187"/>
+      <c r="C548" s="186"/>
+      <c r="D548" s="186"/>
+      <c r="E548" s="186"/>
       <c r="F548" s="140"/>
       <c r="G548" s="140"/>
-      <c r="H548" s="194">
+      <c r="H548" s="193">
         <v>42233</v>
       </c>
-      <c r="I548" s="223">
+      <c r="I548" s="222">
         <v>1</v>
       </c>
-      <c r="J548" s="224">
+      <c r="J548" s="223">
         <v>542.46</v>
       </c>
-      <c r="K548" s="225">
+      <c r="K548" s="224">
         <v>1593</v>
       </c>
-      <c r="L548" s="187"/>
-      <c r="M548" s="187"/>
-      <c r="N548" s="187"/>
-      <c r="O548" s="187"/>
-      <c r="P548" s="187"/>
-      <c r="Q548" s="187"/>
-      <c r="R548" s="187"/>
-      <c r="S548" s="187"/>
-      <c r="T548" s="187"/>
-      <c r="U548" s="187"/>
-      <c r="V548" s="187"/>
+      <c r="L548" s="186"/>
+      <c r="M548" s="186"/>
+      <c r="N548" s="186"/>
+      <c r="O548" s="186"/>
+      <c r="P548" s="186"/>
+      <c r="Q548" s="186"/>
+      <c r="R548" s="186"/>
+      <c r="S548" s="186"/>
+      <c r="T548" s="186"/>
+      <c r="U548" s="186"/>
+      <c r="V548" s="186"/>
     </row>
     <row r="549" spans="1:25">
-      <c r="A549" s="187"/>
-      <c r="B549" s="188"/>
-      <c r="C549" s="187"/>
-      <c r="D549" s="187"/>
-      <c r="E549" s="187"/>
+      <c r="A549" s="186"/>
+      <c r="B549" s="187"/>
+      <c r="C549" s="186"/>
+      <c r="D549" s="186"/>
+      <c r="E549" s="186"/>
       <c r="F549" s="140"/>
       <c r="G549" s="140"/>
-      <c r="H549" s="194">
+      <c r="H549" s="193">
         <v>42226</v>
       </c>
-      <c r="I549" s="223">
+      <c r="I549" s="222">
         <v>1</v>
       </c>
-      <c r="J549" s="224">
+      <c r="J549" s="223">
         <v>562.29</v>
       </c>
-      <c r="K549" s="225">
+      <c r="K549" s="224">
         <v>1617</v>
       </c>
-      <c r="L549" s="187"/>
-      <c r="M549" s="187"/>
-      <c r="N549" s="187"/>
-      <c r="O549" s="187"/>
-      <c r="P549" s="187"/>
-      <c r="Q549" s="187"/>
-      <c r="R549" s="187"/>
-      <c r="S549" s="187"/>
-      <c r="T549" s="187"/>
-      <c r="U549" s="187"/>
-      <c r="V549" s="187"/>
+      <c r="L549" s="186"/>
+      <c r="M549" s="186"/>
+      <c r="N549" s="186"/>
+      <c r="O549" s="186"/>
+      <c r="P549" s="186"/>
+      <c r="Q549" s="186"/>
+      <c r="R549" s="186"/>
+      <c r="S549" s="186"/>
+      <c r="T549" s="186"/>
+      <c r="U549" s="186"/>
+      <c r="V549" s="186"/>
     </row>
     <row r="550" spans="1:25">
-      <c r="A550" s="187"/>
-      <c r="B550" s="188"/>
-      <c r="C550" s="187"/>
-      <c r="D550" s="187"/>
-      <c r="E550" s="187"/>
+      <c r="A550" s="186"/>
+      <c r="B550" s="187"/>
+      <c r="C550" s="186"/>
+      <c r="D550" s="186"/>
+      <c r="E550" s="186"/>
       <c r="F550" s="140"/>
       <c r="G550" s="140"/>
-      <c r="H550" s="194">
+      <c r="H550" s="193">
         <v>42219</v>
       </c>
-      <c r="I550" s="223">
+      <c r="I550" s="222">
         <v>1</v>
       </c>
-      <c r="J550" s="224">
+      <c r="J550" s="223">
         <v>573.86</v>
       </c>
-      <c r="K550" s="225">
+      <c r="K550" s="224">
         <v>1631</v>
       </c>
-      <c r="L550" s="187"/>
-      <c r="M550" s="187"/>
-      <c r="N550" s="187"/>
-      <c r="O550" s="187"/>
-      <c r="P550" s="187"/>
-      <c r="Q550" s="187"/>
-      <c r="R550" s="187"/>
-      <c r="S550" s="187"/>
-      <c r="T550" s="187"/>
-      <c r="U550" s="187"/>
-      <c r="V550" s="187"/>
+      <c r="L550" s="186"/>
+      <c r="M550" s="186"/>
+      <c r="N550" s="186"/>
+      <c r="O550" s="186"/>
+      <c r="P550" s="186"/>
+      <c r="Q550" s="186"/>
+      <c r="R550" s="186"/>
+      <c r="S550" s="186"/>
+      <c r="T550" s="186"/>
+      <c r="U550" s="186"/>
+      <c r="V550" s="186"/>
     </row>
     <row r="551" spans="1:25">
-      <c r="H551" s="194">
+      <c r="H551" s="193">
         <v>42212</v>
       </c>
-      <c r="I551" s="223">
+      <c r="I551" s="222">
         <v>1</v>
       </c>
-      <c r="J551" s="224">
+      <c r="J551" s="223">
         <v>586.26</v>
       </c>
-      <c r="K551" s="225">
+      <c r="K551" s="224">
         <v>1646</v>
       </c>
     </row>
     <row r="552" spans="1:25">
-      <c r="H552" s="194">
+      <c r="H552" s="193">
         <v>42205</v>
       </c>
-      <c r="I552" s="223">
+      <c r="I552" s="222">
         <v>1</v>
       </c>
-      <c r="J552" s="224">
+      <c r="J552" s="223">
         <v>599.48</v>
       </c>
-      <c r="K552" s="225">
+      <c r="K552" s="224">
         <v>1662</v>
       </c>
     </row>
     <row r="553" spans="1:25">
-      <c r="H553" s="194">
+      <c r="H553" s="193">
         <v>42198</v>
       </c>
-      <c r="I553" s="223">
+      <c r="I553" s="222">
         <v>1</v>
       </c>
-      <c r="J553" s="224">
+      <c r="J553" s="223">
         <v>617.66999999999996</v>
       </c>
-      <c r="K553" s="225">
+      <c r="K553" s="224">
         <v>1684</v>
       </c>
     </row>
     <row r="554" spans="1:25">
-      <c r="H554" s="194">
+      <c r="H554" s="193">
         <v>42191</v>
       </c>
-      <c r="I554" s="223">
+      <c r="I554" s="222">
         <v>1</v>
       </c>
-      <c r="J554" s="224">
+      <c r="J554" s="223">
         <v>601.14</v>
       </c>
-      <c r="K554" s="225">
+      <c r="K554" s="224">
         <v>1664</v>
       </c>
     </row>
@@ -17658,13 +17727,13 @@
     </row>
     <row r="561" spans="2:11">
       <c r="B561" s="127"/>
-      <c r="D561" s="184" t="s">
+      <c r="D561" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="F561" s="184" t="s">
+      <c r="F561" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="G561" s="184" t="s">
+      <c r="G561" s="183" t="s">
         <v>147</v>
       </c>
       <c r="H561" s="140"/>
@@ -17674,10 +17743,10 @@
     </row>
     <row r="562" spans="2:11">
       <c r="B562" s="127"/>
-      <c r="D562" s="199" t="s">
+      <c r="D562" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="G562" s="184" t="s">
+      <c r="G562" s="183" t="s">
         <v>148</v>
       </c>
       <c r="H562" s="140"/>
@@ -17693,27 +17762,27 @@
       <c r="F564" s="126">
         <v>0.6</v>
       </c>
-      <c r="G564" s="199" t="s">
+      <c r="G564" s="198" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="565" spans="2:11">
       <c r="B565" s="127"/>
-      <c r="F565" s="200">
+      <c r="F565" s="199">
         <f>F525</f>
         <v>1.5722</v>
       </c>
-      <c r="G565" s="199" t="s">
+      <c r="G565" s="198" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="566" spans="2:11">
       <c r="B566" s="127"/>
-      <c r="F566" s="200">
+      <c r="F566" s="199">
         <f>F564+F565</f>
         <v>2.1722000000000001</v>
       </c>
-      <c r="G566" s="199" t="s">
+      <c r="G566" s="198" t="s">
         <v>157</v>
       </c>
     </row>
@@ -17726,23 +17795,23 @@
         <f>F529</f>
         <v>0.76607000000000003</v>
       </c>
-      <c r="G568" s="199" t="s">
+      <c r="G568" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="H568" s="199" t="s">
+      <c r="H568" s="198" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="569" spans="2:11">
       <c r="B569" s="127"/>
-      <c r="F569" s="200">
+      <c r="F569" s="199">
         <f>F530</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G569" s="199" t="s">
+      <c r="G569" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="H569" s="199" t="s">
+      <c r="H569" s="198" t="s">
         <v>161</v>
       </c>
     </row>
@@ -17752,10 +17821,10 @@
         <f>F528</f>
         <v>21</v>
       </c>
-      <c r="G570" s="199" t="s">
+      <c r="G570" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="H570" s="199" t="s">
+      <c r="H570" s="198" t="s">
         <v>162</v>
       </c>
     </row>
@@ -17764,55 +17833,55 @@
     </row>
     <row r="572" spans="2:11">
       <c r="B572" s="127"/>
-      <c r="G572" s="199"/>
-      <c r="H572" s="199" t="s">
+      <c r="G572" s="198"/>
+      <c r="H572" s="198" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="573" spans="2:11">
       <c r="B573" s="127"/>
-      <c r="G573" s="199"/>
-      <c r="H573" s="199" t="s">
+      <c r="G573" s="198"/>
+      <c r="H573" s="198" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="574" spans="2:11">
       <c r="B574" s="127"/>
-      <c r="H574" s="199" t="s">
+      <c r="H574" s="198" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="575" spans="2:11">
       <c r="B575" s="127"/>
-      <c r="F575" s="201">
+      <c r="F575" s="200">
         <f>F566/1.21-F569-F568</f>
         <v>1.021136611570248</v>
       </c>
-      <c r="G575" s="199" t="s">
+      <c r="G575" s="198" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="576" spans="2:11">
       <c r="B576" s="127"/>
-      <c r="F576" s="213">
+      <c r="F576" s="212">
         <f>F575/F24</f>
         <v>4.4562084945976153E-2</v>
       </c>
-      <c r="G576" s="199" t="s">
+      <c r="G576" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="H576" s="199"/>
+      <c r="H576" s="198"/>
     </row>
     <row r="577" spans="2:8">
       <c r="B577" s="127"/>
-      <c r="H577" s="199"/>
+      <c r="H577" s="198"/>
     </row>
     <row r="578" spans="2:8">
       <c r="B578" s="127"/>
     </row>
     <row r="579" spans="2:8">
       <c r="B579" s="127"/>
-      <c r="H579" s="199" t="s">
+      <c r="H579" s="198" t="s">
         <v>168</v>
       </c>
     </row>
@@ -17919,64 +17988,64 @@
       <c r="B613" s="127"/>
     </row>
     <row r="614" spans="2:25">
-      <c r="B614" s="233"/>
-      <c r="C614" s="186" t="s">
+      <c r="B614" s="232"/>
+      <c r="C614" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="D614" s="186" t="s">
+      <c r="D614" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="E614" s="186"/>
-      <c r="F614" s="186" t="s">
+      <c r="E614" s="185"/>
+      <c r="F614" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="G614" s="186"/>
-      <c r="L614" s="186"/>
-      <c r="M614" s="186"/>
-      <c r="N614" s="186"/>
-      <c r="O614" s="186"/>
-      <c r="P614" s="186"/>
-      <c r="Q614" s="186"/>
-      <c r="R614" s="186"/>
-      <c r="S614" s="186"/>
-      <c r="T614" s="186"/>
-      <c r="U614" s="186"/>
-      <c r="V614" s="185"/>
-      <c r="W614" s="185"/>
-      <c r="X614" s="185"/>
-      <c r="Y614" s="185"/>
+      <c r="G614" s="185"/>
+      <c r="L614" s="185"/>
+      <c r="M614" s="185"/>
+      <c r="N614" s="185"/>
+      <c r="O614" s="185"/>
+      <c r="P614" s="185"/>
+      <c r="Q614" s="185"/>
+      <c r="R614" s="185"/>
+      <c r="S614" s="185"/>
+      <c r="T614" s="185"/>
+      <c r="U614" s="185"/>
+      <c r="V614" s="184"/>
+      <c r="W614" s="184"/>
+      <c r="X614" s="184"/>
+      <c r="Y614" s="184"/>
     </row>
     <row r="615" spans="2:25">
-      <c r="B615" s="188"/>
-      <c r="C615" s="178"/>
-      <c r="D615" s="178"/>
-      <c r="E615" s="178"/>
-      <c r="F615" s="178"/>
-      <c r="G615" s="178"/>
-      <c r="L615" s="178"/>
-      <c r="M615" s="178"/>
-      <c r="N615" s="178"/>
-      <c r="O615" s="178"/>
-      <c r="P615" s="178"/>
-      <c r="Q615" s="178"/>
-      <c r="R615" s="178"/>
-      <c r="S615" s="178"/>
-      <c r="T615" s="178"/>
-      <c r="U615" s="178"/>
-      <c r="V615" s="178"/>
-      <c r="W615" s="178"/>
-      <c r="X615" s="178"/>
-      <c r="Y615" s="178"/>
+      <c r="B615" s="187"/>
+      <c r="C615" s="177"/>
+      <c r="D615" s="177"/>
+      <c r="E615" s="177"/>
+      <c r="F615" s="177"/>
+      <c r="G615" s="177"/>
+      <c r="L615" s="177"/>
+      <c r="M615" s="177"/>
+      <c r="N615" s="177"/>
+      <c r="O615" s="177"/>
+      <c r="P615" s="177"/>
+      <c r="Q615" s="177"/>
+      <c r="R615" s="177"/>
+      <c r="S615" s="177"/>
+      <c r="T615" s="177"/>
+      <c r="U615" s="177"/>
+      <c r="V615" s="177"/>
+      <c r="W615" s="177"/>
+      <c r="X615" s="177"/>
+      <c r="Y615" s="177"/>
     </row>
     <row r="616" spans="2:25">
-      <c r="B616" s="188"/>
-      <c r="C616" s="234" t="s">
+      <c r="B616" s="187"/>
+      <c r="C616" s="233" t="s">
         <v>206</v>
       </c>
-      <c r="D616" s="235"/>
-      <c r="E616" s="235"/>
-      <c r="F616" s="235"/>
-      <c r="G616" s="235"/>
+      <c r="D616" s="234"/>
+      <c r="E616" s="234"/>
+      <c r="F616" s="234"/>
+      <c r="G616" s="234"/>
       <c r="L616" s="140"/>
       <c r="M616" s="140"/>
       <c r="N616" s="140"/>
@@ -17993,12 +18062,12 @@
       <c r="Y616" s="140"/>
     </row>
     <row r="617" spans="2:25" ht="17" thickBot="1">
-      <c r="B617" s="188"/>
-      <c r="C617" s="235"/>
-      <c r="D617" s="235"/>
-      <c r="E617" s="235"/>
-      <c r="F617" s="235"/>
-      <c r="G617" s="235"/>
+      <c r="B617" s="187"/>
+      <c r="C617" s="234"/>
+      <c r="D617" s="234"/>
+      <c r="E617" s="234"/>
+      <c r="F617" s="234"/>
+      <c r="G617" s="234"/>
       <c r="L617" s="140"/>
       <c r="M617" s="140"/>
       <c r="N617" s="140"/>
@@ -18015,16 +18084,16 @@
       <c r="Y617" s="140"/>
     </row>
     <row r="618" spans="2:25">
-      <c r="B618" s="188"/>
-      <c r="C618" s="235"/>
-      <c r="D618" s="241"/>
-      <c r="E618" s="241"/>
-      <c r="F618" s="241"/>
-      <c r="G618" s="241"/>
-      <c r="H618" s="186"/>
-      <c r="I618" s="186"/>
-      <c r="J618" s="186"/>
-      <c r="K618" s="186"/>
+      <c r="B618" s="187"/>
+      <c r="C618" s="234"/>
+      <c r="D618" s="240"/>
+      <c r="E618" s="240"/>
+      <c r="F618" s="240"/>
+      <c r="G618" s="240"/>
+      <c r="H618" s="185"/>
+      <c r="I618" s="185"/>
+      <c r="J618" s="185"/>
+      <c r="K618" s="185"/>
       <c r="L618" s="140"/>
       <c r="M618" s="140"/>
       <c r="N618" s="140"/>
@@ -18041,16 +18110,16 @@
       <c r="Y618" s="140"/>
     </row>
     <row r="619" spans="2:25">
-      <c r="B619" s="188"/>
-      <c r="C619" s="235"/>
-      <c r="D619" s="241"/>
-      <c r="E619" s="241"/>
-      <c r="F619" s="241"/>
-      <c r="G619" s="241"/>
-      <c r="H619" s="178"/>
-      <c r="I619" s="178"/>
-      <c r="J619" s="178"/>
-      <c r="K619" s="178"/>
+      <c r="B619" s="187"/>
+      <c r="C619" s="234"/>
+      <c r="D619" s="240"/>
+      <c r="E619" s="240"/>
+      <c r="F619" s="240"/>
+      <c r="G619" s="240"/>
+      <c r="H619" s="177"/>
+      <c r="I619" s="177"/>
+      <c r="J619" s="177"/>
+      <c r="K619" s="177"/>
       <c r="L619" s="140"/>
       <c r="M619" s="140"/>
       <c r="N619" s="140"/>
@@ -18067,18 +18136,18 @@
       <c r="Y619" s="140"/>
     </row>
     <row r="620" spans="2:25">
-      <c r="B620" s="188"/>
-      <c r="C620" s="235"/>
-      <c r="D620" s="241">
+      <c r="B620" s="187"/>
+      <c r="C620" s="234"/>
+      <c r="D620" s="240">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E620" s="241"/>
-      <c r="F620" s="241"/>
-      <c r="G620" s="241" t="s">
+      <c r="E620" s="240"/>
+      <c r="F620" s="240"/>
+      <c r="G620" s="240" t="s">
         <v>209</v>
       </c>
-      <c r="H620" s="235"/>
-      <c r="I620" s="235"/>
+      <c r="H620" s="234"/>
+      <c r="I620" s="234"/>
       <c r="J620" s="140"/>
       <c r="K620" s="140"/>
       <c r="L620" s="140"/>
@@ -18097,14 +18166,14 @@
       <c r="Y620" s="140"/>
     </row>
     <row r="621" spans="2:25">
-      <c r="B621" s="188"/>
-      <c r="C621" s="235"/>
-      <c r="D621" s="240"/>
-      <c r="E621" s="240"/>
-      <c r="F621" s="240"/>
-      <c r="G621" s="240"/>
-      <c r="H621" s="235"/>
-      <c r="I621" s="235"/>
+      <c r="B621" s="187"/>
+      <c r="C621" s="234"/>
+      <c r="D621" s="239"/>
+      <c r="E621" s="239"/>
+      <c r="F621" s="239"/>
+      <c r="G621" s="239"/>
+      <c r="H621" s="234"/>
+      <c r="I621" s="234"/>
       <c r="J621" s="140"/>
       <c r="K621" s="140"/>
       <c r="L621" s="140"/>
@@ -18123,15 +18192,15 @@
       <c r="Y621" s="140"/>
     </row>
     <row r="622" spans="2:25">
-      <c r="B622" s="188"/>
-      <c r="C622" s="235"/>
-      <c r="D622" s="240"/>
-      <c r="E622" s="240"/>
-      <c r="F622" s="240"/>
-      <c r="G622" s="240"/>
-      <c r="H622" s="241"/>
-      <c r="I622" s="241"/>
-      <c r="J622" s="244"/>
+      <c r="B622" s="187"/>
+      <c r="C622" s="234"/>
+      <c r="D622" s="239"/>
+      <c r="E622" s="239"/>
+      <c r="F622" s="239"/>
+      <c r="G622" s="239"/>
+      <c r="H622" s="240"/>
+      <c r="I622" s="240"/>
+      <c r="J622" s="243"/>
       <c r="K622" s="140"/>
       <c r="L622" s="140"/>
       <c r="M622" s="140"/>
@@ -18149,15 +18218,15 @@
       <c r="Y622" s="140"/>
     </row>
     <row r="623" spans="2:25">
-      <c r="B623" s="188"/>
-      <c r="C623" s="235"/>
-      <c r="D623" s="240"/>
-      <c r="E623" s="240"/>
-      <c r="F623" s="240"/>
-      <c r="G623" s="240"/>
-      <c r="H623" s="241"/>
-      <c r="I623" s="241"/>
-      <c r="J623" s="244"/>
+      <c r="B623" s="187"/>
+      <c r="C623" s="234"/>
+      <c r="D623" s="239"/>
+      <c r="E623" s="239"/>
+      <c r="F623" s="239"/>
+      <c r="G623" s="239"/>
+      <c r="H623" s="240"/>
+      <c r="I623" s="240"/>
+      <c r="J623" s="243"/>
       <c r="K623" s="140"/>
       <c r="L623" s="140"/>
       <c r="M623" s="140"/>
@@ -18175,15 +18244,15 @@
       <c r="Y623" s="140"/>
     </row>
     <row r="624" spans="2:25">
-      <c r="B624" s="188"/>
+      <c r="B624" s="187"/>
       <c r="C624" s="140"/>
-      <c r="D624" s="244"/>
-      <c r="E624" s="244"/>
-      <c r="F624" s="244"/>
-      <c r="G624" s="244"/>
-      <c r="H624" s="241"/>
-      <c r="I624" s="241"/>
-      <c r="J624" s="244"/>
+      <c r="D624" s="243"/>
+      <c r="E624" s="243"/>
+      <c r="F624" s="243"/>
+      <c r="G624" s="243"/>
+      <c r="H624" s="240"/>
+      <c r="I624" s="240"/>
+      <c r="J624" s="243"/>
       <c r="K624" s="140"/>
       <c r="L624" s="140"/>
       <c r="M624" s="140"/>
@@ -18201,15 +18270,15 @@
       <c r="Y624" s="140"/>
     </row>
     <row r="625" spans="2:25">
-      <c r="B625" s="188"/>
+      <c r="B625" s="187"/>
       <c r="C625" s="140"/>
-      <c r="D625" s="244"/>
-      <c r="E625" s="244"/>
-      <c r="F625" s="244"/>
-      <c r="G625" s="244"/>
-      <c r="H625" s="240"/>
-      <c r="I625" s="240"/>
-      <c r="J625" s="244"/>
+      <c r="D625" s="243"/>
+      <c r="E625" s="243"/>
+      <c r="F625" s="243"/>
+      <c r="G625" s="243"/>
+      <c r="H625" s="239"/>
+      <c r="I625" s="239"/>
+      <c r="J625" s="243"/>
       <c r="K625" s="140"/>
       <c r="L625" s="140"/>
       <c r="M625" s="140"/>
@@ -18227,15 +18296,15 @@
       <c r="Y625" s="140"/>
     </row>
     <row r="626" spans="2:25">
-      <c r="B626" s="188"/>
+      <c r="B626" s="187"/>
       <c r="C626" s="140"/>
-      <c r="D626" s="244"/>
-      <c r="E626" s="244"/>
-      <c r="F626" s="244"/>
-      <c r="G626" s="244"/>
-      <c r="H626" s="240"/>
-      <c r="I626" s="240"/>
-      <c r="J626" s="244"/>
+      <c r="D626" s="243"/>
+      <c r="E626" s="243"/>
+      <c r="F626" s="243"/>
+      <c r="G626" s="243"/>
+      <c r="H626" s="239"/>
+      <c r="I626" s="239"/>
+      <c r="J626" s="243"/>
       <c r="K626" s="140"/>
       <c r="L626" s="140"/>
       <c r="M626" s="140"/>
@@ -18253,15 +18322,15 @@
       <c r="Y626" s="140"/>
     </row>
     <row r="627" spans="2:25">
-      <c r="B627" s="188"/>
+      <c r="B627" s="187"/>
       <c r="C627" s="140"/>
-      <c r="D627" s="244"/>
-      <c r="E627" s="244"/>
-      <c r="F627" s="244"/>
-      <c r="G627" s="244"/>
-      <c r="H627" s="240"/>
-      <c r="I627" s="240"/>
-      <c r="J627" s="244"/>
+      <c r="D627" s="243"/>
+      <c r="E627" s="243"/>
+      <c r="F627" s="243"/>
+      <c r="G627" s="243"/>
+      <c r="H627" s="239"/>
+      <c r="I627" s="239"/>
+      <c r="J627" s="243"/>
       <c r="K627" s="140"/>
       <c r="L627" s="140"/>
       <c r="M627" s="140"/>
@@ -18279,15 +18348,15 @@
       <c r="Y627" s="140"/>
     </row>
     <row r="628" spans="2:25">
-      <c r="B628" s="188"/>
+      <c r="B628" s="187"/>
       <c r="C628" s="140"/>
-      <c r="D628" s="244"/>
-      <c r="E628" s="244"/>
-      <c r="F628" s="244"/>
-      <c r="G628" s="244"/>
-      <c r="H628" s="244"/>
-      <c r="I628" s="244"/>
-      <c r="J628" s="244"/>
+      <c r="D628" s="243"/>
+      <c r="E628" s="243"/>
+      <c r="F628" s="243"/>
+      <c r="G628" s="243"/>
+      <c r="H628" s="243"/>
+      <c r="I628" s="243"/>
+      <c r="J628" s="243"/>
       <c r="K628" s="140"/>
       <c r="L628" s="140"/>
       <c r="M628" s="140"/>
@@ -18305,15 +18374,15 @@
       <c r="Y628" s="140"/>
     </row>
     <row r="629" spans="2:25">
-      <c r="B629" s="188"/>
+      <c r="B629" s="187"/>
       <c r="C629" s="140"/>
       <c r="D629" s="140"/>
       <c r="E629" s="140"/>
       <c r="F629" s="140"/>
       <c r="G629" s="140"/>
-      <c r="H629" s="244"/>
-      <c r="I629" s="244"/>
-      <c r="J629" s="244"/>
+      <c r="H629" s="243"/>
+      <c r="I629" s="243"/>
+      <c r="J629" s="243"/>
       <c r="K629" s="140"/>
       <c r="L629" s="140"/>
       <c r="M629" s="140"/>
@@ -18331,15 +18400,15 @@
       <c r="Y629" s="140"/>
     </row>
     <row r="630" spans="2:25">
-      <c r="B630" s="188"/>
+      <c r="B630" s="187"/>
       <c r="C630" s="140"/>
       <c r="D630" s="140"/>
       <c r="E630" s="140"/>
       <c r="F630" s="140"/>
       <c r="G630" s="140"/>
-      <c r="H630" s="244"/>
-      <c r="I630" s="244"/>
-      <c r="J630" s="244"/>
+      <c r="H630" s="243"/>
+      <c r="I630" s="243"/>
+      <c r="J630" s="243"/>
       <c r="K630" s="140"/>
       <c r="L630" s="140"/>
       <c r="M630" s="140"/>
@@ -18357,15 +18426,15 @@
       <c r="Y630" s="140"/>
     </row>
     <row r="631" spans="2:25">
-      <c r="B631" s="188"/>
+      <c r="B631" s="187"/>
       <c r="C631" s="140"/>
       <c r="D631" s="140"/>
       <c r="E631" s="140"/>
       <c r="F631" s="140"/>
       <c r="G631" s="140"/>
-      <c r="H631" s="244"/>
-      <c r="I631" s="244"/>
-      <c r="J631" s="244"/>
+      <c r="H631" s="243"/>
+      <c r="I631" s="243"/>
+      <c r="J631" s="243"/>
       <c r="K631" s="140"/>
       <c r="L631" s="140"/>
       <c r="M631" s="140"/>
@@ -18383,15 +18452,15 @@
       <c r="Y631" s="140"/>
     </row>
     <row r="632" spans="2:25">
-      <c r="B632" s="188"/>
+      <c r="B632" s="187"/>
       <c r="C632" s="140"/>
       <c r="D632" s="140"/>
       <c r="E632" s="140"/>
       <c r="F632" s="140"/>
       <c r="G632" s="140"/>
-      <c r="H632" s="244"/>
-      <c r="I632" s="244"/>
-      <c r="J632" s="244"/>
+      <c r="H632" s="243"/>
+      <c r="I632" s="243"/>
+      <c r="J632" s="243"/>
       <c r="K632" s="140"/>
       <c r="L632" s="140"/>
       <c r="M632" s="140"/>
@@ -18409,7 +18478,7 @@
       <c r="Y632" s="140"/>
     </row>
     <row r="633" spans="2:25">
-      <c r="B633" s="188"/>
+      <c r="B633" s="187"/>
       <c r="C633" s="140"/>
       <c r="D633" s="140"/>
       <c r="E633" s="140"/>
@@ -18435,7 +18504,7 @@
       <c r="Y633" s="140"/>
     </row>
     <row r="634" spans="2:25">
-      <c r="B634" s="188"/>
+      <c r="B634" s="187"/>
       <c r="C634" s="140"/>
       <c r="D634" s="140"/>
       <c r="E634" s="140"/>
@@ -18461,7 +18530,7 @@
       <c r="Y634" s="140"/>
     </row>
     <row r="635" spans="2:25">
-      <c r="B635" s="188"/>
+      <c r="B635" s="187"/>
       <c r="C635" s="140"/>
       <c r="D635" s="140"/>
       <c r="E635" s="140"/>
@@ -18487,7 +18556,7 @@
       <c r="Y635" s="140"/>
     </row>
     <row r="636" spans="2:25">
-      <c r="B636" s="188"/>
+      <c r="B636" s="187"/>
       <c r="C636" s="140"/>
       <c r="D636" s="140"/>
       <c r="E636" s="140"/>
@@ -18513,7 +18582,7 @@
       <c r="Y636" s="140"/>
     </row>
     <row r="637" spans="2:25">
-      <c r="B637" s="188"/>
+      <c r="B637" s="187"/>
       <c r="C637" s="140"/>
       <c r="D637" s="140"/>
       <c r="E637" s="140"/>
@@ -18539,7 +18608,7 @@
       <c r="Y637" s="140"/>
     </row>
     <row r="638" spans="2:25">
-      <c r="B638" s="188"/>
+      <c r="B638" s="187"/>
       <c r="C638" s="140"/>
       <c r="D638" s="140"/>
       <c r="E638" s="140"/>
@@ -18565,7 +18634,7 @@
       <c r="Y638" s="140"/>
     </row>
     <row r="639" spans="2:25">
-      <c r="B639" s="188"/>
+      <c r="B639" s="187"/>
       <c r="C639" s="140"/>
       <c r="D639" s="140"/>
       <c r="E639" s="140"/>
@@ -18591,7 +18660,7 @@
       <c r="Y639" s="140"/>
     </row>
     <row r="640" spans="2:25">
-      <c r="B640" s="188"/>
+      <c r="B640" s="187"/>
       <c r="C640" s="140"/>
       <c r="D640" s="140"/>
       <c r="E640" s="140"/>
@@ -18617,940 +18686,940 @@
       <c r="Y640" s="140"/>
     </row>
     <row r="641" spans="2:25">
-      <c r="B641" s="188"/>
-      <c r="C641" s="187"/>
-      <c r="D641" s="187"/>
-      <c r="E641" s="187"/>
-      <c r="F641" s="187"/>
-      <c r="G641" s="187"/>
+      <c r="B641" s="187"/>
+      <c r="C641" s="186"/>
+      <c r="D641" s="186"/>
+      <c r="E641" s="186"/>
+      <c r="F641" s="186"/>
+      <c r="G641" s="186"/>
       <c r="H641" s="140"/>
       <c r="I641" s="140"/>
       <c r="J641" s="140"/>
       <c r="K641" s="140"/>
-      <c r="L641" s="187"/>
-      <c r="M641" s="187"/>
-      <c r="N641" s="187"/>
-      <c r="O641" s="187"/>
-      <c r="P641" s="187"/>
-      <c r="Q641" s="187"/>
-      <c r="R641" s="187"/>
-      <c r="S641" s="187"/>
-      <c r="T641" s="187"/>
-      <c r="U641" s="187"/>
-      <c r="V641" s="187"/>
-      <c r="W641" s="187"/>
-      <c r="X641" s="187"/>
-      <c r="Y641" s="187"/>
+      <c r="L641" s="186"/>
+      <c r="M641" s="186"/>
+      <c r="N641" s="186"/>
+      <c r="O641" s="186"/>
+      <c r="P641" s="186"/>
+      <c r="Q641" s="186"/>
+      <c r="R641" s="186"/>
+      <c r="S641" s="186"/>
+      <c r="T641" s="186"/>
+      <c r="U641" s="186"/>
+      <c r="V641" s="186"/>
+      <c r="W641" s="186"/>
+      <c r="X641" s="186"/>
+      <c r="Y641" s="186"/>
     </row>
     <row r="642" spans="2:25">
-      <c r="B642" s="188"/>
-      <c r="C642" s="187"/>
-      <c r="D642" s="187"/>
-      <c r="E642" s="187"/>
-      <c r="F642" s="187"/>
-      <c r="G642" s="187"/>
+      <c r="B642" s="187"/>
+      <c r="C642" s="186"/>
+      <c r="D642" s="186"/>
+      <c r="E642" s="186"/>
+      <c r="F642" s="186"/>
+      <c r="G642" s="186"/>
       <c r="H642" s="140"/>
       <c r="I642" s="140"/>
       <c r="J642" s="140"/>
       <c r="K642" s="140"/>
-      <c r="L642" s="187"/>
-      <c r="M642" s="187"/>
-      <c r="N642" s="187"/>
-      <c r="O642" s="187"/>
-      <c r="P642" s="187"/>
-      <c r="Q642" s="187"/>
-      <c r="R642" s="187"/>
-      <c r="S642" s="187"/>
-      <c r="T642" s="187"/>
-      <c r="U642" s="187"/>
-      <c r="V642" s="187"/>
-      <c r="W642" s="187"/>
-      <c r="X642" s="187"/>
-      <c r="Y642" s="187"/>
+      <c r="L642" s="186"/>
+      <c r="M642" s="186"/>
+      <c r="N642" s="186"/>
+      <c r="O642" s="186"/>
+      <c r="P642" s="186"/>
+      <c r="Q642" s="186"/>
+      <c r="R642" s="186"/>
+      <c r="S642" s="186"/>
+      <c r="T642" s="186"/>
+      <c r="U642" s="186"/>
+      <c r="V642" s="186"/>
+      <c r="W642" s="186"/>
+      <c r="X642" s="186"/>
+      <c r="Y642" s="186"/>
     </row>
     <row r="643" spans="2:25">
-      <c r="B643" s="188"/>
-      <c r="C643" s="187"/>
-      <c r="D643" s="187"/>
-      <c r="E643" s="187"/>
-      <c r="F643" s="187"/>
-      <c r="G643" s="187"/>
+      <c r="B643" s="187"/>
+      <c r="C643" s="186"/>
+      <c r="D643" s="186"/>
+      <c r="E643" s="186"/>
+      <c r="F643" s="186"/>
+      <c r="G643" s="186"/>
       <c r="H643" s="140"/>
       <c r="I643" s="140"/>
       <c r="J643" s="140"/>
       <c r="K643" s="140"/>
-      <c r="L643" s="187"/>
-      <c r="M643" s="187"/>
-      <c r="N643" s="187"/>
-      <c r="O643" s="187"/>
-      <c r="P643" s="187"/>
-      <c r="Q643" s="187"/>
-      <c r="R643" s="187"/>
-      <c r="S643" s="187"/>
-      <c r="T643" s="187"/>
-      <c r="U643" s="187"/>
-      <c r="V643" s="187"/>
-      <c r="W643" s="187"/>
-      <c r="X643" s="187"/>
-      <c r="Y643" s="187"/>
+      <c r="L643" s="186"/>
+      <c r="M643" s="186"/>
+      <c r="N643" s="186"/>
+      <c r="O643" s="186"/>
+      <c r="P643" s="186"/>
+      <c r="Q643" s="186"/>
+      <c r="R643" s="186"/>
+      <c r="S643" s="186"/>
+      <c r="T643" s="186"/>
+      <c r="U643" s="186"/>
+      <c r="V643" s="186"/>
+      <c r="W643" s="186"/>
+      <c r="X643" s="186"/>
+      <c r="Y643" s="186"/>
     </row>
     <row r="644" spans="2:25">
-      <c r="B644" s="188"/>
-      <c r="C644" s="187"/>
-      <c r="D644" s="187"/>
-      <c r="E644" s="187"/>
-      <c r="F644" s="187"/>
-      <c r="G644" s="187"/>
+      <c r="B644" s="187"/>
+      <c r="C644" s="186"/>
+      <c r="D644" s="186"/>
+      <c r="E644" s="186"/>
+      <c r="F644" s="186"/>
+      <c r="G644" s="186"/>
       <c r="H644" s="140"/>
       <c r="I644" s="140"/>
       <c r="J644" s="140"/>
       <c r="K644" s="140"/>
-      <c r="L644" s="187"/>
-      <c r="M644" s="187"/>
-      <c r="N644" s="187"/>
-      <c r="O644" s="187"/>
-      <c r="P644" s="187"/>
-      <c r="Q644" s="187"/>
-      <c r="R644" s="187"/>
-      <c r="S644" s="187"/>
-      <c r="T644" s="187"/>
-      <c r="U644" s="187"/>
-      <c r="V644" s="187"/>
-      <c r="W644" s="187"/>
-      <c r="X644" s="187"/>
-      <c r="Y644" s="187"/>
+      <c r="L644" s="186"/>
+      <c r="M644" s="186"/>
+      <c r="N644" s="186"/>
+      <c r="O644" s="186"/>
+      <c r="P644" s="186"/>
+      <c r="Q644" s="186"/>
+      <c r="R644" s="186"/>
+      <c r="S644" s="186"/>
+      <c r="T644" s="186"/>
+      <c r="U644" s="186"/>
+      <c r="V644" s="186"/>
+      <c r="W644" s="186"/>
+      <c r="X644" s="186"/>
+      <c r="Y644" s="186"/>
     </row>
     <row r="645" spans="2:25">
-      <c r="B645" s="188"/>
-      <c r="C645" s="187"/>
-      <c r="D645" s="187"/>
-      <c r="E645" s="187"/>
-      <c r="F645" s="187"/>
-      <c r="G645" s="187"/>
-      <c r="H645" s="187"/>
-      <c r="I645" s="187"/>
-      <c r="J645" s="187"/>
-      <c r="K645" s="187"/>
-      <c r="L645" s="187"/>
-      <c r="M645" s="187"/>
-      <c r="N645" s="187"/>
-      <c r="O645" s="187"/>
-      <c r="P645" s="187"/>
-      <c r="Q645" s="187"/>
-      <c r="R645" s="187"/>
-      <c r="S645" s="187"/>
-      <c r="T645" s="187"/>
-      <c r="U645" s="187"/>
-      <c r="V645" s="187"/>
-      <c r="W645" s="187"/>
-      <c r="X645" s="187"/>
-      <c r="Y645" s="187"/>
+      <c r="B645" s="187"/>
+      <c r="C645" s="186"/>
+      <c r="D645" s="186"/>
+      <c r="E645" s="186"/>
+      <c r="F645" s="186"/>
+      <c r="G645" s="186"/>
+      <c r="H645" s="186"/>
+      <c r="I645" s="186"/>
+      <c r="J645" s="186"/>
+      <c r="K645" s="186"/>
+      <c r="L645" s="186"/>
+      <c r="M645" s="186"/>
+      <c r="N645" s="186"/>
+      <c r="O645" s="186"/>
+      <c r="P645" s="186"/>
+      <c r="Q645" s="186"/>
+      <c r="R645" s="186"/>
+      <c r="S645" s="186"/>
+      <c r="T645" s="186"/>
+      <c r="U645" s="186"/>
+      <c r="V645" s="186"/>
+      <c r="W645" s="186"/>
+      <c r="X645" s="186"/>
+      <c r="Y645" s="186"/>
     </row>
     <row r="646" spans="2:25">
-      <c r="B646" s="188"/>
-      <c r="C646" s="187"/>
-      <c r="D646" s="187"/>
-      <c r="E646" s="187"/>
-      <c r="F646" s="187"/>
-      <c r="G646" s="187"/>
-      <c r="H646" s="187"/>
-      <c r="I646" s="187"/>
-      <c r="J646" s="187"/>
-      <c r="K646" s="187"/>
-      <c r="L646" s="187"/>
-      <c r="M646" s="187"/>
-      <c r="N646" s="187"/>
-      <c r="O646" s="187"/>
-      <c r="P646" s="187"/>
-      <c r="Q646" s="187"/>
-      <c r="R646" s="187"/>
-      <c r="S646" s="187"/>
-      <c r="T646" s="187"/>
-      <c r="U646" s="187"/>
-      <c r="V646" s="187"/>
-      <c r="W646" s="187"/>
-      <c r="X646" s="187"/>
-      <c r="Y646" s="187"/>
+      <c r="B646" s="187"/>
+      <c r="C646" s="186"/>
+      <c r="D646" s="186"/>
+      <c r="E646" s="186"/>
+      <c r="F646" s="186"/>
+      <c r="G646" s="186"/>
+      <c r="H646" s="186"/>
+      <c r="I646" s="186"/>
+      <c r="J646" s="186"/>
+      <c r="K646" s="186"/>
+      <c r="L646" s="186"/>
+      <c r="M646" s="186"/>
+      <c r="N646" s="186"/>
+      <c r="O646" s="186"/>
+      <c r="P646" s="186"/>
+      <c r="Q646" s="186"/>
+      <c r="R646" s="186"/>
+      <c r="S646" s="186"/>
+      <c r="T646" s="186"/>
+      <c r="U646" s="186"/>
+      <c r="V646" s="186"/>
+      <c r="W646" s="186"/>
+      <c r="X646" s="186"/>
+      <c r="Y646" s="186"/>
     </row>
     <row r="647" spans="2:25">
-      <c r="B647" s="188"/>
-      <c r="C647" s="187"/>
-      <c r="D647" s="187"/>
-      <c r="E647" s="187"/>
-      <c r="F647" s="187"/>
-      <c r="G647" s="187"/>
-      <c r="H647" s="187"/>
-      <c r="I647" s="187"/>
-      <c r="J647" s="187"/>
-      <c r="K647" s="187"/>
-      <c r="L647" s="187"/>
-      <c r="M647" s="187"/>
-      <c r="N647" s="187"/>
-      <c r="O647" s="187"/>
-      <c r="P647" s="187"/>
-      <c r="Q647" s="187"/>
-      <c r="R647" s="187"/>
-      <c r="S647" s="187"/>
-      <c r="T647" s="187"/>
-      <c r="U647" s="187"/>
-      <c r="V647" s="187"/>
-      <c r="W647" s="187"/>
-      <c r="X647" s="187"/>
-      <c r="Y647" s="187"/>
+      <c r="B647" s="187"/>
+      <c r="C647" s="186"/>
+      <c r="D647" s="186"/>
+      <c r="E647" s="186"/>
+      <c r="F647" s="186"/>
+      <c r="G647" s="186"/>
+      <c r="H647" s="186"/>
+      <c r="I647" s="186"/>
+      <c r="J647" s="186"/>
+      <c r="K647" s="186"/>
+      <c r="L647" s="186"/>
+      <c r="M647" s="186"/>
+      <c r="N647" s="186"/>
+      <c r="O647" s="186"/>
+      <c r="P647" s="186"/>
+      <c r="Q647" s="186"/>
+      <c r="R647" s="186"/>
+      <c r="S647" s="186"/>
+      <c r="T647" s="186"/>
+      <c r="U647" s="186"/>
+      <c r="V647" s="186"/>
+      <c r="W647" s="186"/>
+      <c r="X647" s="186"/>
+      <c r="Y647" s="186"/>
     </row>
     <row r="648" spans="2:25">
-      <c r="B648" s="188"/>
-      <c r="C648" s="187"/>
-      <c r="D648" s="187"/>
-      <c r="E648" s="187"/>
-      <c r="F648" s="187"/>
-      <c r="G648" s="187"/>
-      <c r="H648" s="187"/>
-      <c r="I648" s="187"/>
-      <c r="J648" s="187"/>
-      <c r="K648" s="187"/>
-      <c r="L648" s="187"/>
-      <c r="M648" s="187"/>
-      <c r="N648" s="187"/>
-      <c r="O648" s="187"/>
-      <c r="P648" s="187"/>
-      <c r="Q648" s="187"/>
-      <c r="R648" s="187"/>
-      <c r="S648" s="187"/>
-      <c r="T648" s="187"/>
-      <c r="U648" s="187"/>
-      <c r="V648" s="187"/>
-      <c r="W648" s="187"/>
-      <c r="X648" s="187"/>
-      <c r="Y648" s="187"/>
+      <c r="B648" s="187"/>
+      <c r="C648" s="186"/>
+      <c r="D648" s="186"/>
+      <c r="E648" s="186"/>
+      <c r="F648" s="186"/>
+      <c r="G648" s="186"/>
+      <c r="H648" s="186"/>
+      <c r="I648" s="186"/>
+      <c r="J648" s="186"/>
+      <c r="K648" s="186"/>
+      <c r="L648" s="186"/>
+      <c r="M648" s="186"/>
+      <c r="N648" s="186"/>
+      <c r="O648" s="186"/>
+      <c r="P648" s="186"/>
+      <c r="Q648" s="186"/>
+      <c r="R648" s="186"/>
+      <c r="S648" s="186"/>
+      <c r="T648" s="186"/>
+      <c r="U648" s="186"/>
+      <c r="V648" s="186"/>
+      <c r="W648" s="186"/>
+      <c r="X648" s="186"/>
+      <c r="Y648" s="186"/>
     </row>
     <row r="649" spans="2:25">
-      <c r="B649" s="188"/>
-      <c r="C649" s="187"/>
-      <c r="D649" s="187"/>
-      <c r="E649" s="187"/>
-      <c r="F649" s="187"/>
-      <c r="G649" s="187"/>
-      <c r="H649" s="187"/>
-      <c r="I649" s="187"/>
-      <c r="J649" s="187"/>
-      <c r="K649" s="187"/>
-      <c r="L649" s="187"/>
-      <c r="M649" s="187"/>
-      <c r="N649" s="187"/>
-      <c r="O649" s="187"/>
-      <c r="P649" s="187"/>
-      <c r="Q649" s="187"/>
-      <c r="R649" s="187"/>
-      <c r="S649" s="187"/>
-      <c r="T649" s="187"/>
-      <c r="U649" s="187"/>
-      <c r="V649" s="187"/>
-      <c r="W649" s="187"/>
-      <c r="X649" s="187"/>
-      <c r="Y649" s="187"/>
+      <c r="B649" s="187"/>
+      <c r="C649" s="186"/>
+      <c r="D649" s="186"/>
+      <c r="E649" s="186"/>
+      <c r="F649" s="186"/>
+      <c r="G649" s="186"/>
+      <c r="H649" s="186"/>
+      <c r="I649" s="186"/>
+      <c r="J649" s="186"/>
+      <c r="K649" s="186"/>
+      <c r="L649" s="186"/>
+      <c r="M649" s="186"/>
+      <c r="N649" s="186"/>
+      <c r="O649" s="186"/>
+      <c r="P649" s="186"/>
+      <c r="Q649" s="186"/>
+      <c r="R649" s="186"/>
+      <c r="S649" s="186"/>
+      <c r="T649" s="186"/>
+      <c r="U649" s="186"/>
+      <c r="V649" s="186"/>
+      <c r="W649" s="186"/>
+      <c r="X649" s="186"/>
+      <c r="Y649" s="186"/>
     </row>
     <row r="650" spans="2:25">
-      <c r="B650" s="188"/>
-      <c r="C650" s="187"/>
-      <c r="D650" s="187"/>
-      <c r="E650" s="187"/>
-      <c r="F650" s="187"/>
-      <c r="G650" s="187"/>
-      <c r="H650" s="187"/>
-      <c r="I650" s="187"/>
-      <c r="J650" s="187"/>
-      <c r="K650" s="187"/>
-      <c r="L650" s="187"/>
-      <c r="M650" s="187"/>
-      <c r="N650" s="187"/>
-      <c r="O650" s="187"/>
-      <c r="P650" s="187"/>
-      <c r="Q650" s="187"/>
-      <c r="R650" s="187"/>
-      <c r="S650" s="187"/>
-      <c r="T650" s="187"/>
-      <c r="U650" s="187"/>
-      <c r="V650" s="187"/>
-      <c r="W650" s="187"/>
-      <c r="X650" s="187"/>
-      <c r="Y650" s="187"/>
+      <c r="B650" s="187"/>
+      <c r="C650" s="186"/>
+      <c r="D650" s="186"/>
+      <c r="E650" s="186"/>
+      <c r="F650" s="186"/>
+      <c r="G650" s="186"/>
+      <c r="H650" s="186"/>
+      <c r="I650" s="186"/>
+      <c r="J650" s="186"/>
+      <c r="K650" s="186"/>
+      <c r="L650" s="186"/>
+      <c r="M650" s="186"/>
+      <c r="N650" s="186"/>
+      <c r="O650" s="186"/>
+      <c r="P650" s="186"/>
+      <c r="Q650" s="186"/>
+      <c r="R650" s="186"/>
+      <c r="S650" s="186"/>
+      <c r="T650" s="186"/>
+      <c r="U650" s="186"/>
+      <c r="V650" s="186"/>
+      <c r="W650" s="186"/>
+      <c r="X650" s="186"/>
+      <c r="Y650" s="186"/>
     </row>
     <row r="651" spans="2:25">
-      <c r="B651" s="188"/>
-      <c r="C651" s="187"/>
-      <c r="D651" s="187"/>
-      <c r="E651" s="187"/>
-      <c r="F651" s="187"/>
-      <c r="G651" s="187"/>
-      <c r="H651" s="187"/>
-      <c r="I651" s="187"/>
-      <c r="J651" s="187"/>
-      <c r="K651" s="187"/>
-      <c r="L651" s="187"/>
-      <c r="M651" s="187"/>
-      <c r="N651" s="187"/>
-      <c r="O651" s="187"/>
-      <c r="P651" s="187"/>
-      <c r="Q651" s="187"/>
-      <c r="R651" s="187"/>
-      <c r="S651" s="187"/>
-      <c r="T651" s="187"/>
-      <c r="U651" s="187"/>
-      <c r="V651" s="187"/>
-      <c r="W651" s="187"/>
-      <c r="X651" s="187"/>
-      <c r="Y651" s="187"/>
+      <c r="B651" s="187"/>
+      <c r="C651" s="186"/>
+      <c r="D651" s="186"/>
+      <c r="E651" s="186"/>
+      <c r="F651" s="186"/>
+      <c r="G651" s="186"/>
+      <c r="H651" s="186"/>
+      <c r="I651" s="186"/>
+      <c r="J651" s="186"/>
+      <c r="K651" s="186"/>
+      <c r="L651" s="186"/>
+      <c r="M651" s="186"/>
+      <c r="N651" s="186"/>
+      <c r="O651" s="186"/>
+      <c r="P651" s="186"/>
+      <c r="Q651" s="186"/>
+      <c r="R651" s="186"/>
+      <c r="S651" s="186"/>
+      <c r="T651" s="186"/>
+      <c r="U651" s="186"/>
+      <c r="V651" s="186"/>
+      <c r="W651" s="186"/>
+      <c r="X651" s="186"/>
+      <c r="Y651" s="186"/>
     </row>
     <row r="652" spans="2:25">
-      <c r="B652" s="188"/>
-      <c r="C652" s="187"/>
-      <c r="D652" s="187"/>
-      <c r="E652" s="187"/>
-      <c r="F652" s="187"/>
-      <c r="G652" s="187"/>
-      <c r="H652" s="187"/>
-      <c r="I652" s="187"/>
-      <c r="J652" s="187"/>
-      <c r="K652" s="187"/>
-      <c r="L652" s="187"/>
-      <c r="M652" s="187"/>
-      <c r="N652" s="187"/>
-      <c r="O652" s="187"/>
-      <c r="P652" s="187"/>
-      <c r="Q652" s="187"/>
-      <c r="R652" s="187"/>
-      <c r="S652" s="187"/>
-      <c r="T652" s="187"/>
-      <c r="U652" s="187"/>
-      <c r="V652" s="187"/>
-      <c r="W652" s="187"/>
-      <c r="X652" s="187"/>
-      <c r="Y652" s="187"/>
+      <c r="B652" s="187"/>
+      <c r="C652" s="186"/>
+      <c r="D652" s="186"/>
+      <c r="E652" s="186"/>
+      <c r="F652" s="186"/>
+      <c r="G652" s="186"/>
+      <c r="H652" s="186"/>
+      <c r="I652" s="186"/>
+      <c r="J652" s="186"/>
+      <c r="K652" s="186"/>
+      <c r="L652" s="186"/>
+      <c r="M652" s="186"/>
+      <c r="N652" s="186"/>
+      <c r="O652" s="186"/>
+      <c r="P652" s="186"/>
+      <c r="Q652" s="186"/>
+      <c r="R652" s="186"/>
+      <c r="S652" s="186"/>
+      <c r="T652" s="186"/>
+      <c r="U652" s="186"/>
+      <c r="V652" s="186"/>
+      <c r="W652" s="186"/>
+      <c r="X652" s="186"/>
+      <c r="Y652" s="186"/>
     </row>
     <row r="653" spans="2:25">
-      <c r="B653" s="238"/>
-      <c r="C653" s="239"/>
-      <c r="D653" s="239"/>
-      <c r="E653" s="239"/>
-      <c r="F653" s="239"/>
-      <c r="G653" s="239"/>
-      <c r="H653" s="187"/>
-      <c r="I653" s="187"/>
-      <c r="J653" s="187"/>
-      <c r="K653" s="187"/>
-      <c r="L653" s="239"/>
-      <c r="M653" s="239"/>
-      <c r="N653" s="239"/>
-      <c r="O653" s="239"/>
-      <c r="P653" s="239"/>
-      <c r="Q653" s="187"/>
-      <c r="R653" s="187"/>
-      <c r="S653" s="187"/>
-      <c r="T653" s="187"/>
-      <c r="U653" s="187"/>
-      <c r="V653" s="187"/>
-      <c r="W653" s="187"/>
-      <c r="X653" s="187"/>
-      <c r="Y653" s="187"/>
+      <c r="B653" s="237"/>
+      <c r="C653" s="238"/>
+      <c r="D653" s="238"/>
+      <c r="E653" s="238"/>
+      <c r="F653" s="238"/>
+      <c r="G653" s="238"/>
+      <c r="H653" s="186"/>
+      <c r="I653" s="186"/>
+      <c r="J653" s="186"/>
+      <c r="K653" s="186"/>
+      <c r="L653" s="238"/>
+      <c r="M653" s="238"/>
+      <c r="N653" s="238"/>
+      <c r="O653" s="238"/>
+      <c r="P653" s="238"/>
+      <c r="Q653" s="186"/>
+      <c r="R653" s="186"/>
+      <c r="S653" s="186"/>
+      <c r="T653" s="186"/>
+      <c r="U653" s="186"/>
+      <c r="V653" s="186"/>
+      <c r="W653" s="186"/>
+      <c r="X653" s="186"/>
+      <c r="Y653" s="186"/>
     </row>
     <row r="654" spans="2:25">
-      <c r="B654" s="238"/>
-      <c r="C654" s="239"/>
-      <c r="D654" s="239"/>
-      <c r="E654" s="239"/>
-      <c r="F654" s="239"/>
-      <c r="G654" s="239"/>
-      <c r="H654" s="187"/>
-      <c r="I654" s="187"/>
-      <c r="J654" s="187"/>
-      <c r="K654" s="187"/>
-      <c r="L654" s="239"/>
-      <c r="M654" s="239"/>
-      <c r="N654" s="239"/>
-      <c r="O654" s="239"/>
-      <c r="P654" s="239"/>
-      <c r="Q654" s="187"/>
-      <c r="R654" s="187"/>
-      <c r="S654" s="187"/>
-      <c r="T654" s="187"/>
-      <c r="U654" s="187"/>
-      <c r="V654" s="187"/>
-      <c r="W654" s="187"/>
-      <c r="X654" s="187"/>
-      <c r="Y654" s="187"/>
+      <c r="B654" s="237"/>
+      <c r="C654" s="238"/>
+      <c r="D654" s="238"/>
+      <c r="E654" s="238"/>
+      <c r="F654" s="238"/>
+      <c r="G654" s="238"/>
+      <c r="H654" s="186"/>
+      <c r="I654" s="186"/>
+      <c r="J654" s="186"/>
+      <c r="K654" s="186"/>
+      <c r="L654" s="238"/>
+      <c r="M654" s="238"/>
+      <c r="N654" s="238"/>
+      <c r="O654" s="238"/>
+      <c r="P654" s="238"/>
+      <c r="Q654" s="186"/>
+      <c r="R654" s="186"/>
+      <c r="S654" s="186"/>
+      <c r="T654" s="186"/>
+      <c r="U654" s="186"/>
+      <c r="V654" s="186"/>
+      <c r="W654" s="186"/>
+      <c r="X654" s="186"/>
+      <c r="Y654" s="186"/>
     </row>
     <row r="655" spans="2:25">
-      <c r="B655" s="238"/>
-      <c r="C655" s="239"/>
-      <c r="D655" s="239"/>
-      <c r="E655" s="239"/>
-      <c r="F655" s="239"/>
-      <c r="G655" s="239"/>
-      <c r="H655" s="187"/>
-      <c r="I655" s="187"/>
-      <c r="J655" s="187"/>
-      <c r="K655" s="187"/>
-      <c r="L655" s="239"/>
-      <c r="M655" s="239"/>
-      <c r="N655" s="239"/>
-      <c r="O655" s="239"/>
-      <c r="P655" s="239"/>
-      <c r="Q655" s="187"/>
-      <c r="R655" s="187"/>
-      <c r="S655" s="187"/>
-      <c r="T655" s="187"/>
-      <c r="U655" s="187"/>
-      <c r="V655" s="187"/>
-      <c r="W655" s="187"/>
-      <c r="X655" s="187"/>
-      <c r="Y655" s="187"/>
+      <c r="B655" s="237"/>
+      <c r="C655" s="238"/>
+      <c r="D655" s="238"/>
+      <c r="E655" s="238"/>
+      <c r="F655" s="238"/>
+      <c r="G655" s="238"/>
+      <c r="H655" s="186"/>
+      <c r="I655" s="186"/>
+      <c r="J655" s="186"/>
+      <c r="K655" s="186"/>
+      <c r="L655" s="238"/>
+      <c r="M655" s="238"/>
+      <c r="N655" s="238"/>
+      <c r="O655" s="238"/>
+      <c r="P655" s="238"/>
+      <c r="Q655" s="186"/>
+      <c r="R655" s="186"/>
+      <c r="S655" s="186"/>
+      <c r="T655" s="186"/>
+      <c r="U655" s="186"/>
+      <c r="V655" s="186"/>
+      <c r="W655" s="186"/>
+      <c r="X655" s="186"/>
+      <c r="Y655" s="186"/>
     </row>
     <row r="656" spans="2:25">
-      <c r="B656" s="238"/>
-      <c r="C656" s="239"/>
-      <c r="D656" s="239"/>
-      <c r="E656" s="239"/>
-      <c r="F656" s="239"/>
-      <c r="G656" s="239"/>
-      <c r="H656" s="187"/>
-      <c r="I656" s="187"/>
-      <c r="J656" s="187"/>
-      <c r="K656" s="187"/>
-      <c r="L656" s="239"/>
-      <c r="M656" s="239"/>
-      <c r="N656" s="239"/>
-      <c r="O656" s="239"/>
-      <c r="P656" s="239"/>
-      <c r="Q656" s="187"/>
-      <c r="R656" s="187"/>
-      <c r="S656" s="187"/>
-      <c r="T656" s="187"/>
-      <c r="U656" s="187"/>
-      <c r="V656" s="187"/>
-      <c r="W656" s="187"/>
-      <c r="X656" s="187"/>
-      <c r="Y656" s="187"/>
+      <c r="B656" s="237"/>
+      <c r="C656" s="238"/>
+      <c r="D656" s="238"/>
+      <c r="E656" s="238"/>
+      <c r="F656" s="238"/>
+      <c r="G656" s="238"/>
+      <c r="H656" s="186"/>
+      <c r="I656" s="186"/>
+      <c r="J656" s="186"/>
+      <c r="K656" s="186"/>
+      <c r="L656" s="238"/>
+      <c r="M656" s="238"/>
+      <c r="N656" s="238"/>
+      <c r="O656" s="238"/>
+      <c r="P656" s="238"/>
+      <c r="Q656" s="186"/>
+      <c r="R656" s="186"/>
+      <c r="S656" s="186"/>
+      <c r="T656" s="186"/>
+      <c r="U656" s="186"/>
+      <c r="V656" s="186"/>
+      <c r="W656" s="186"/>
+      <c r="X656" s="186"/>
+      <c r="Y656" s="186"/>
     </row>
     <row r="657" spans="2:25">
-      <c r="B657" s="238"/>
-      <c r="C657" s="239"/>
-      <c r="D657" s="239"/>
-      <c r="E657" s="240"/>
-      <c r="F657" s="240"/>
-      <c r="G657" s="240"/>
-      <c r="H657" s="239"/>
-      <c r="I657" s="239"/>
-      <c r="J657" s="239"/>
-      <c r="K657" s="239"/>
-      <c r="L657" s="239"/>
-      <c r="M657" s="239"/>
-      <c r="N657" s="239"/>
-      <c r="O657" s="239"/>
-      <c r="P657" s="239"/>
-      <c r="Q657" s="187"/>
-      <c r="R657" s="187"/>
-      <c r="S657" s="187"/>
-      <c r="T657" s="187"/>
-      <c r="U657" s="187"/>
-      <c r="V657" s="187"/>
-      <c r="W657" s="187"/>
-      <c r="X657" s="187"/>
-      <c r="Y657" s="187"/>
+      <c r="B657" s="237"/>
+      <c r="C657" s="238"/>
+      <c r="D657" s="238"/>
+      <c r="E657" s="239"/>
+      <c r="F657" s="239"/>
+      <c r="G657" s="239"/>
+      <c r="H657" s="238"/>
+      <c r="I657" s="238"/>
+      <c r="J657" s="238"/>
+      <c r="K657" s="238"/>
+      <c r="L657" s="238"/>
+      <c r="M657" s="238"/>
+      <c r="N657" s="238"/>
+      <c r="O657" s="238"/>
+      <c r="P657" s="238"/>
+      <c r="Q657" s="186"/>
+      <c r="R657" s="186"/>
+      <c r="S657" s="186"/>
+      <c r="T657" s="186"/>
+      <c r="U657" s="186"/>
+      <c r="V657" s="186"/>
+      <c r="W657" s="186"/>
+      <c r="X657" s="186"/>
+      <c r="Y657" s="186"/>
     </row>
     <row r="658" spans="2:25">
-      <c r="B658" s="238"/>
-      <c r="C658" s="239"/>
-      <c r="D658" s="239"/>
-      <c r="E658" s="240"/>
-      <c r="F658" s="240"/>
-      <c r="G658" s="240"/>
-      <c r="H658" s="239"/>
-      <c r="I658" s="239"/>
-      <c r="J658" s="239"/>
-      <c r="K658" s="239"/>
-      <c r="L658" s="239"/>
-      <c r="M658" s="239"/>
-      <c r="N658" s="239"/>
-      <c r="O658" s="239"/>
-      <c r="P658" s="239"/>
-      <c r="Q658" s="187"/>
-      <c r="R658" s="187"/>
-      <c r="S658" s="187"/>
-      <c r="T658" s="187"/>
-      <c r="U658" s="187"/>
-      <c r="V658" s="187"/>
-      <c r="W658" s="187"/>
-      <c r="X658" s="187"/>
-      <c r="Y658" s="187"/>
+      <c r="B658" s="237"/>
+      <c r="C658" s="238"/>
+      <c r="D658" s="238"/>
+      <c r="E658" s="239"/>
+      <c r="F658" s="239"/>
+      <c r="G658" s="239"/>
+      <c r="H658" s="238"/>
+      <c r="I658" s="238"/>
+      <c r="J658" s="238"/>
+      <c r="K658" s="238"/>
+      <c r="L658" s="238"/>
+      <c r="M658" s="238"/>
+      <c r="N658" s="238"/>
+      <c r="O658" s="238"/>
+      <c r="P658" s="238"/>
+      <c r="Q658" s="186"/>
+      <c r="R658" s="186"/>
+      <c r="S658" s="186"/>
+      <c r="T658" s="186"/>
+      <c r="U658" s="186"/>
+      <c r="V658" s="186"/>
+      <c r="W658" s="186"/>
+      <c r="X658" s="186"/>
+      <c r="Y658" s="186"/>
     </row>
     <row r="659" spans="2:25">
-      <c r="B659" s="238"/>
-      <c r="C659" s="239"/>
-      <c r="D659" s="239"/>
-      <c r="E659" s="240"/>
-      <c r="F659" s="240"/>
-      <c r="G659" s="240"/>
-      <c r="H659" s="239"/>
-      <c r="I659" s="239"/>
-      <c r="J659" s="239"/>
-      <c r="K659" s="239"/>
-      <c r="L659" s="239"/>
-      <c r="M659" s="239"/>
-      <c r="N659" s="239"/>
-      <c r="O659" s="239"/>
-      <c r="P659" s="239"/>
-      <c r="Q659" s="187"/>
-      <c r="R659" s="187"/>
-      <c r="S659" s="187"/>
-      <c r="T659" s="187"/>
-      <c r="U659" s="187"/>
-      <c r="V659" s="187"/>
-      <c r="W659" s="187"/>
-      <c r="X659" s="187"/>
-      <c r="Y659" s="187"/>
+      <c r="B659" s="237"/>
+      <c r="C659" s="238"/>
+      <c r="D659" s="238"/>
+      <c r="E659" s="239"/>
+      <c r="F659" s="239"/>
+      <c r="G659" s="239"/>
+      <c r="H659" s="238"/>
+      <c r="I659" s="238"/>
+      <c r="J659" s="238"/>
+      <c r="K659" s="238"/>
+      <c r="L659" s="238"/>
+      <c r="M659" s="238"/>
+      <c r="N659" s="238"/>
+      <c r="O659" s="238"/>
+      <c r="P659" s="238"/>
+      <c r="Q659" s="186"/>
+      <c r="R659" s="186"/>
+      <c r="S659" s="186"/>
+      <c r="T659" s="186"/>
+      <c r="U659" s="186"/>
+      <c r="V659" s="186"/>
+      <c r="W659" s="186"/>
+      <c r="X659" s="186"/>
+      <c r="Y659" s="186"/>
     </row>
     <row r="660" spans="2:25">
-      <c r="B660" s="238"/>
-      <c r="C660" s="239"/>
-      <c r="D660" s="239"/>
-      <c r="E660" s="239"/>
-      <c r="F660" s="239"/>
-      <c r="G660" s="239"/>
-      <c r="H660" s="239"/>
-      <c r="I660" s="239"/>
-      <c r="J660" s="239"/>
-      <c r="K660" s="239"/>
-      <c r="L660" s="239"/>
-      <c r="M660" s="239"/>
-      <c r="N660" s="239"/>
-      <c r="O660" s="239"/>
-      <c r="P660" s="239"/>
-      <c r="Q660" s="187"/>
-      <c r="R660" s="187"/>
-      <c r="S660" s="187"/>
-      <c r="T660" s="187"/>
-      <c r="U660" s="187"/>
-      <c r="V660" s="187"/>
-      <c r="W660" s="187"/>
-      <c r="X660" s="187"/>
-      <c r="Y660" s="187"/>
+      <c r="B660" s="237"/>
+      <c r="C660" s="238"/>
+      <c r="D660" s="238"/>
+      <c r="E660" s="238"/>
+      <c r="F660" s="238"/>
+      <c r="G660" s="238"/>
+      <c r="H660" s="238"/>
+      <c r="I660" s="238"/>
+      <c r="J660" s="238"/>
+      <c r="K660" s="238"/>
+      <c r="L660" s="238"/>
+      <c r="M660" s="238"/>
+      <c r="N660" s="238"/>
+      <c r="O660" s="238"/>
+      <c r="P660" s="238"/>
+      <c r="Q660" s="186"/>
+      <c r="R660" s="186"/>
+      <c r="S660" s="186"/>
+      <c r="T660" s="186"/>
+      <c r="U660" s="186"/>
+      <c r="V660" s="186"/>
+      <c r="W660" s="186"/>
+      <c r="X660" s="186"/>
+      <c r="Y660" s="186"/>
     </row>
     <row r="661" spans="2:25">
-      <c r="B661" s="240"/>
-      <c r="C661" s="240"/>
-      <c r="D661" s="240"/>
-      <c r="E661" s="240"/>
-      <c r="F661" s="240"/>
-      <c r="G661" s="240"/>
-      <c r="H661" s="240"/>
-      <c r="I661" s="240"/>
-      <c r="J661" s="241"/>
-      <c r="K661" s="239"/>
-      <c r="L661" s="240"/>
-      <c r="M661" s="240"/>
-      <c r="N661" s="240"/>
-      <c r="O661" s="240"/>
-      <c r="P661" s="240"/>
+      <c r="B661" s="239"/>
+      <c r="C661" s="239"/>
+      <c r="D661" s="239"/>
+      <c r="E661" s="239"/>
+      <c r="F661" s="239"/>
+      <c r="G661" s="239"/>
+      <c r="H661" s="239"/>
+      <c r="I661" s="239"/>
+      <c r="J661" s="240"/>
+      <c r="K661" s="238"/>
+      <c r="L661" s="239"/>
+      <c r="M661" s="239"/>
+      <c r="N661" s="239"/>
+      <c r="O661" s="239"/>
+      <c r="P661" s="239"/>
     </row>
     <row r="662" spans="2:25">
-      <c r="B662" s="240"/>
-      <c r="C662" s="240"/>
-      <c r="D662" s="240"/>
-      <c r="E662" s="240"/>
-      <c r="F662" s="240"/>
-      <c r="G662" s="240"/>
-      <c r="H662" s="240"/>
-      <c r="I662" s="240"/>
-      <c r="J662" s="241"/>
-      <c r="K662" s="239"/>
-      <c r="L662" s="240"/>
-      <c r="M662" s="240"/>
-      <c r="N662" s="240"/>
-      <c r="O662" s="240"/>
-      <c r="P662" s="240"/>
+      <c r="B662" s="239"/>
+      <c r="C662" s="239"/>
+      <c r="D662" s="239"/>
+      <c r="E662" s="239"/>
+      <c r="F662" s="239"/>
+      <c r="G662" s="239"/>
+      <c r="H662" s="239"/>
+      <c r="I662" s="239"/>
+      <c r="J662" s="240"/>
+      <c r="K662" s="238"/>
+      <c r="L662" s="239"/>
+      <c r="M662" s="239"/>
+      <c r="N662" s="239"/>
+      <c r="O662" s="239"/>
+      <c r="P662" s="239"/>
     </row>
     <row r="663" spans="2:25">
-      <c r="B663" s="240"/>
-      <c r="C663" s="240"/>
-      <c r="D663" s="240"/>
-      <c r="E663" s="241">
+      <c r="B663" s="239"/>
+      <c r="C663" s="239"/>
+      <c r="D663" s="239"/>
+      <c r="E663" s="240">
         <v>1.23</v>
       </c>
-      <c r="F663" s="242"/>
-      <c r="G663" s="241"/>
-      <c r="H663" s="240"/>
-      <c r="I663" s="240"/>
-      <c r="J663" s="241"/>
-      <c r="K663" s="239"/>
-      <c r="L663" s="240"/>
-      <c r="M663" s="240"/>
-      <c r="N663" s="240"/>
-      <c r="O663" s="240"/>
-      <c r="P663" s="240"/>
+      <c r="F663" s="241"/>
+      <c r="G663" s="240"/>
+      <c r="H663" s="239"/>
+      <c r="I663" s="239"/>
+      <c r="J663" s="240"/>
+      <c r="K663" s="238"/>
+      <c r="L663" s="239"/>
+      <c r="M663" s="239"/>
+      <c r="N663" s="239"/>
+      <c r="O663" s="239"/>
+      <c r="P663" s="239"/>
     </row>
     <row r="664" spans="2:25">
-      <c r="B664" s="240"/>
-      <c r="C664" s="240"/>
-      <c r="D664" s="240"/>
-      <c r="E664" s="241"/>
-      <c r="F664" s="242"/>
-      <c r="G664" s="241"/>
-      <c r="H664" s="239"/>
-      <c r="I664" s="239"/>
-      <c r="J664" s="239"/>
-      <c r="K664" s="239"/>
-      <c r="L664" s="240"/>
-      <c r="M664" s="240"/>
-      <c r="N664" s="240"/>
-      <c r="O664" s="240"/>
-      <c r="P664" s="240"/>
+      <c r="B664" s="239"/>
+      <c r="C664" s="239"/>
+      <c r="D664" s="239"/>
+      <c r="E664" s="240"/>
+      <c r="F664" s="241"/>
+      <c r="G664" s="240"/>
+      <c r="H664" s="238"/>
+      <c r="I664" s="238"/>
+      <c r="J664" s="238"/>
+      <c r="K664" s="238"/>
+      <c r="L664" s="239"/>
+      <c r="M664" s="239"/>
+      <c r="N664" s="239"/>
+      <c r="O664" s="239"/>
+      <c r="P664" s="239"/>
     </row>
     <row r="665" spans="2:25">
-      <c r="B665" s="240"/>
-      <c r="C665" s="240"/>
-      <c r="D665" s="240"/>
-      <c r="E665" s="241"/>
-      <c r="F665" s="242"/>
-      <c r="G665" s="241"/>
-      <c r="H665" s="240"/>
-      <c r="I665" s="240"/>
-      <c r="J665" s="240"/>
-      <c r="K665" s="240"/>
-      <c r="L665" s="240"/>
-      <c r="M665" s="240"/>
-      <c r="N665" s="240"/>
-      <c r="O665" s="240"/>
-      <c r="P665" s="240"/>
+      <c r="B665" s="239"/>
+      <c r="C665" s="239"/>
+      <c r="D665" s="239"/>
+      <c r="E665" s="240"/>
+      <c r="F665" s="241"/>
+      <c r="G665" s="240"/>
+      <c r="H665" s="239"/>
+      <c r="I665" s="239"/>
+      <c r="J665" s="239"/>
+      <c r="K665" s="239"/>
+      <c r="L665" s="239"/>
+      <c r="M665" s="239"/>
+      <c r="N665" s="239"/>
+      <c r="O665" s="239"/>
+      <c r="P665" s="239"/>
     </row>
     <row r="666" spans="2:25">
-      <c r="B666" s="240"/>
-      <c r="C666" s="240"/>
-      <c r="D666" s="240"/>
-      <c r="E666" s="240"/>
-      <c r="F666" s="240"/>
-      <c r="G666" s="240"/>
-      <c r="H666" s="240"/>
-      <c r="I666" s="240"/>
-      <c r="J666" s="240"/>
-      <c r="K666" s="240"/>
-      <c r="L666" s="240"/>
-      <c r="M666" s="240"/>
-      <c r="N666" s="240"/>
-      <c r="O666" s="240"/>
-      <c r="P666" s="240"/>
+      <c r="B666" s="239"/>
+      <c r="C666" s="239"/>
+      <c r="D666" s="239"/>
+      <c r="E666" s="239"/>
+      <c r="F666" s="239"/>
+      <c r="G666" s="239"/>
+      <c r="H666" s="239"/>
+      <c r="I666" s="239"/>
+      <c r="J666" s="239"/>
+      <c r="K666" s="239"/>
+      <c r="L666" s="239"/>
+      <c r="M666" s="239"/>
+      <c r="N666" s="239"/>
+      <c r="O666" s="239"/>
+      <c r="P666" s="239"/>
     </row>
     <row r="667" spans="2:25">
-      <c r="B667" s="240"/>
-      <c r="C667" s="240"/>
-      <c r="D667" s="240"/>
-      <c r="E667" s="240"/>
-      <c r="F667" s="240"/>
-      <c r="G667" s="240"/>
-      <c r="H667" s="241">
+      <c r="B667" s="239"/>
+      <c r="C667" s="239"/>
+      <c r="D667" s="239"/>
+      <c r="E667" s="239"/>
+      <c r="F667" s="239"/>
+      <c r="G667" s="239"/>
+      <c r="H667" s="240">
         <v>70800</v>
       </c>
-      <c r="I667" s="241" t="s">
+      <c r="I667" s="240" t="s">
         <v>207</v>
       </c>
-      <c r="J667" s="243" t="s">
+      <c r="J667" s="242" t="s">
         <v>210</v>
       </c>
-      <c r="K667" s="240"/>
-      <c r="L667" s="240"/>
-      <c r="M667" s="240"/>
-      <c r="N667" s="240"/>
-      <c r="O667" s="240"/>
-      <c r="P667" s="240"/>
+      <c r="K667" s="239"/>
+      <c r="L667" s="239"/>
+      <c r="M667" s="239"/>
+      <c r="N667" s="239"/>
+      <c r="O667" s="239"/>
+      <c r="P667" s="239"/>
     </row>
     <row r="668" spans="2:25">
-      <c r="B668" s="240"/>
-      <c r="C668" s="240"/>
-      <c r="D668" s="240"/>
-      <c r="E668" s="240"/>
-      <c r="F668" s="240"/>
-      <c r="G668" s="240"/>
-      <c r="H668" s="241">
+      <c r="B668" s="239"/>
+      <c r="C668" s="239"/>
+      <c r="D668" s="239"/>
+      <c r="E668" s="239"/>
+      <c r="F668" s="239"/>
+      <c r="G668" s="239"/>
+      <c r="H668" s="240">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="I668" s="241" t="s">
+      <c r="I668" s="240" t="s">
         <v>208</v>
       </c>
-      <c r="J668" s="240"/>
-      <c r="K668" s="240"/>
-      <c r="L668" s="240"/>
-      <c r="M668" s="240"/>
-      <c r="N668" s="240"/>
-      <c r="O668" s="240"/>
-      <c r="P668" s="240"/>
+      <c r="J668" s="239"/>
+      <c r="K668" s="239"/>
+      <c r="L668" s="239"/>
+      <c r="M668" s="239"/>
+      <c r="N668" s="239"/>
+      <c r="O668" s="239"/>
+      <c r="P668" s="239"/>
     </row>
     <row r="669" spans="2:25">
-      <c r="B669" s="240"/>
-      <c r="C669" s="240"/>
-      <c r="D669" s="240"/>
-      <c r="E669" s="240"/>
-      <c r="F669" s="240"/>
-      <c r="G669" s="240"/>
-      <c r="H669" s="241">
+      <c r="B669" s="239"/>
+      <c r="C669" s="239"/>
+      <c r="D669" s="239"/>
+      <c r="E669" s="239"/>
+      <c r="F669" s="239"/>
+      <c r="G669" s="239"/>
+      <c r="H669" s="240">
         <f>H667/H668</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="I669" s="241" t="s">
+      <c r="I669" s="240" t="s">
         <v>207</v>
       </c>
-      <c r="J669" s="240"/>
-      <c r="K669" s="240"/>
-      <c r="L669" s="240"/>
-      <c r="M669" s="240"/>
-      <c r="N669" s="240"/>
-      <c r="O669" s="240"/>
-      <c r="P669" s="240"/>
+      <c r="J669" s="239"/>
+      <c r="K669" s="239"/>
+      <c r="L669" s="239"/>
+      <c r="M669" s="239"/>
+      <c r="N669" s="239"/>
+      <c r="O669" s="239"/>
+      <c r="P669" s="239"/>
     </row>
     <row r="670" spans="2:25">
-      <c r="B670" s="240"/>
-      <c r="C670" s="240"/>
-      <c r="D670" s="240"/>
-      <c r="E670" s="240"/>
-      <c r="F670" s="240"/>
-      <c r="G670" s="240"/>
-      <c r="H670" s="240"/>
-      <c r="I670" s="240"/>
-      <c r="J670" s="240"/>
-      <c r="K670" s="240"/>
-      <c r="L670" s="240"/>
-      <c r="M670" s="240"/>
-      <c r="N670" s="240"/>
-      <c r="O670" s="240"/>
-      <c r="P670" s="240"/>
+      <c r="B670" s="239"/>
+      <c r="C670" s="239"/>
+      <c r="D670" s="239"/>
+      <c r="E670" s="239"/>
+      <c r="F670" s="239"/>
+      <c r="G670" s="239"/>
+      <c r="H670" s="239"/>
+      <c r="I670" s="239"/>
+      <c r="J670" s="239"/>
+      <c r="K670" s="239"/>
+      <c r="L670" s="239"/>
+      <c r="M670" s="239"/>
+      <c r="N670" s="239"/>
+      <c r="O670" s="239"/>
+      <c r="P670" s="239"/>
     </row>
     <row r="671" spans="2:25">
-      <c r="B671" s="240"/>
-      <c r="C671" s="240"/>
-      <c r="D671" s="240"/>
-      <c r="E671" s="240"/>
-      <c r="F671" s="240"/>
-      <c r="G671" s="240"/>
-      <c r="H671" s="240"/>
-      <c r="I671" s="240"/>
-      <c r="J671" s="240"/>
-      <c r="K671" s="240"/>
-      <c r="L671" s="240"/>
-      <c r="M671" s="240"/>
-      <c r="N671" s="240"/>
-      <c r="O671" s="240"/>
-      <c r="P671" s="240"/>
+      <c r="B671" s="239"/>
+      <c r="C671" s="239"/>
+      <c r="D671" s="239"/>
+      <c r="E671" s="239"/>
+      <c r="F671" s="239"/>
+      <c r="G671" s="239"/>
+      <c r="H671" s="239"/>
+      <c r="I671" s="239"/>
+      <c r="J671" s="239"/>
+      <c r="K671" s="239"/>
+      <c r="L671" s="239"/>
+      <c r="M671" s="239"/>
+      <c r="N671" s="239"/>
+      <c r="O671" s="239"/>
+      <c r="P671" s="239"/>
     </row>
     <row r="672" spans="2:25">
-      <c r="B672" s="240"/>
-      <c r="C672" s="240"/>
-      <c r="D672" s="240"/>
-      <c r="E672" s="240"/>
-      <c r="F672" s="240"/>
-      <c r="G672" s="240"/>
-      <c r="H672" s="240"/>
-      <c r="I672" s="240"/>
-      <c r="J672" s="240"/>
-      <c r="K672" s="240"/>
-      <c r="L672" s="240"/>
-      <c r="M672" s="240"/>
-      <c r="N672" s="240"/>
-      <c r="O672" s="240"/>
-      <c r="P672" s="240"/>
+      <c r="B672" s="239"/>
+      <c r="C672" s="239"/>
+      <c r="D672" s="239"/>
+      <c r="E672" s="239"/>
+      <c r="F672" s="239"/>
+      <c r="G672" s="239"/>
+      <c r="H672" s="239"/>
+      <c r="I672" s="239"/>
+      <c r="J672" s="239"/>
+      <c r="K672" s="239"/>
+      <c r="L672" s="239"/>
+      <c r="M672" s="239"/>
+      <c r="N672" s="239"/>
+      <c r="O672" s="239"/>
+      <c r="P672" s="239"/>
     </row>
     <row r="673" spans="2:16">
-      <c r="B673" s="240"/>
-      <c r="C673" s="240"/>
-      <c r="D673" s="240"/>
-      <c r="E673" s="240"/>
-      <c r="F673" s="240"/>
-      <c r="G673" s="240"/>
-      <c r="H673" s="240"/>
-      <c r="I673" s="240"/>
-      <c r="J673" s="240"/>
-      <c r="K673" s="240"/>
-      <c r="L673" s="240"/>
-      <c r="M673" s="240"/>
-      <c r="N673" s="240"/>
-      <c r="O673" s="240"/>
-      <c r="P673" s="240"/>
+      <c r="B673" s="239"/>
+      <c r="C673" s="239"/>
+      <c r="D673" s="239"/>
+      <c r="E673" s="239"/>
+      <c r="F673" s="239"/>
+      <c r="G673" s="239"/>
+      <c r="H673" s="239"/>
+      <c r="I673" s="239"/>
+      <c r="J673" s="239"/>
+      <c r="K673" s="239"/>
+      <c r="L673" s="239"/>
+      <c r="M673" s="239"/>
+      <c r="N673" s="239"/>
+      <c r="O673" s="239"/>
+      <c r="P673" s="239"/>
     </row>
     <row r="674" spans="2:16">
-      <c r="B674" s="240"/>
-      <c r="C674" s="240"/>
-      <c r="D674" s="240"/>
-      <c r="E674" s="240"/>
-      <c r="F674" s="240"/>
-      <c r="G674" s="240"/>
-      <c r="H674" s="240"/>
-      <c r="I674" s="240"/>
-      <c r="J674" s="240"/>
-      <c r="K674" s="240"/>
-      <c r="L674" s="240"/>
-      <c r="M674" s="240"/>
-      <c r="N674" s="240"/>
-      <c r="O674" s="240"/>
-      <c r="P674" s="240"/>
+      <c r="B674" s="239"/>
+      <c r="C674" s="239"/>
+      <c r="D674" s="239"/>
+      <c r="E674" s="239"/>
+      <c r="F674" s="239"/>
+      <c r="G674" s="239"/>
+      <c r="H674" s="239"/>
+      <c r="I674" s="239"/>
+      <c r="J674" s="239"/>
+      <c r="K674" s="239"/>
+      <c r="L674" s="239"/>
+      <c r="M674" s="239"/>
+      <c r="N674" s="239"/>
+      <c r="O674" s="239"/>
+      <c r="P674" s="239"/>
     </row>
     <row r="675" spans="2:16">
-      <c r="B675" s="240"/>
-      <c r="C675" s="240"/>
-      <c r="D675" s="240"/>
-      <c r="E675" s="240"/>
-      <c r="F675" s="240"/>
-      <c r="G675" s="240"/>
-      <c r="H675" s="240"/>
-      <c r="I675" s="240"/>
-      <c r="J675" s="240"/>
-      <c r="K675" s="240"/>
-      <c r="L675" s="240"/>
-      <c r="M675" s="240"/>
-      <c r="N675" s="240"/>
-      <c r="O675" s="240"/>
-      <c r="P675" s="240"/>
+      <c r="B675" s="239"/>
+      <c r="C675" s="239"/>
+      <c r="D675" s="239"/>
+      <c r="E675" s="239"/>
+      <c r="F675" s="239"/>
+      <c r="G675" s="239"/>
+      <c r="H675" s="239"/>
+      <c r="I675" s="239"/>
+      <c r="J675" s="239"/>
+      <c r="K675" s="239"/>
+      <c r="L675" s="239"/>
+      <c r="M675" s="239"/>
+      <c r="N675" s="239"/>
+      <c r="O675" s="239"/>
+      <c r="P675" s="239"/>
     </row>
     <row r="676" spans="2:16">
-      <c r="B676" s="240"/>
-      <c r="C676" s="240"/>
-      <c r="D676" s="240"/>
-      <c r="E676" s="240"/>
-      <c r="F676" s="240"/>
-      <c r="G676" s="240"/>
-      <c r="H676" s="240"/>
-      <c r="I676" s="240"/>
-      <c r="J676" s="240"/>
-      <c r="K676" s="240"/>
-      <c r="L676" s="240"/>
-      <c r="M676" s="240"/>
-      <c r="N676" s="240"/>
-      <c r="O676" s="240"/>
-      <c r="P676" s="240"/>
+      <c r="B676" s="239"/>
+      <c r="C676" s="239"/>
+      <c r="D676" s="239"/>
+      <c r="E676" s="239"/>
+      <c r="F676" s="239"/>
+      <c r="G676" s="239"/>
+      <c r="H676" s="239"/>
+      <c r="I676" s="239"/>
+      <c r="J676" s="239"/>
+      <c r="K676" s="239"/>
+      <c r="L676" s="239"/>
+      <c r="M676" s="239"/>
+      <c r="N676" s="239"/>
+      <c r="O676" s="239"/>
+      <c r="P676" s="239"/>
     </row>
     <row r="677" spans="2:16">
-      <c r="B677" s="240"/>
-      <c r="C677" s="240"/>
-      <c r="D677" s="240"/>
-      <c r="E677" s="240"/>
-      <c r="F677" s="240"/>
-      <c r="G677" s="240"/>
-      <c r="H677" s="240"/>
-      <c r="I677" s="240"/>
-      <c r="J677" s="240"/>
-      <c r="K677" s="240"/>
-      <c r="L677" s="240"/>
-      <c r="M677" s="240"/>
-      <c r="N677" s="240"/>
-      <c r="O677" s="240"/>
-      <c r="P677" s="240"/>
+      <c r="B677" s="239"/>
+      <c r="C677" s="239"/>
+      <c r="D677" s="239"/>
+      <c r="E677" s="239"/>
+      <c r="F677" s="239"/>
+      <c r="G677" s="239"/>
+      <c r="H677" s="239"/>
+      <c r="I677" s="239"/>
+      <c r="J677" s="239"/>
+      <c r="K677" s="239"/>
+      <c r="L677" s="239"/>
+      <c r="M677" s="239"/>
+      <c r="N677" s="239"/>
+      <c r="O677" s="239"/>
+      <c r="P677" s="239"/>
     </row>
     <row r="678" spans="2:16">
-      <c r="B678" s="240"/>
-      <c r="C678" s="240"/>
-      <c r="D678" s="240"/>
-      <c r="E678" s="240"/>
-      <c r="F678" s="240"/>
-      <c r="G678" s="240"/>
-      <c r="H678" s="240"/>
-      <c r="I678" s="240"/>
-      <c r="J678" s="240"/>
-      <c r="K678" s="240"/>
-      <c r="L678" s="240"/>
-      <c r="M678" s="240"/>
-      <c r="N678" s="240"/>
-      <c r="O678" s="240"/>
-      <c r="P678" s="240"/>
+      <c r="B678" s="239"/>
+      <c r="C678" s="239"/>
+      <c r="D678" s="239"/>
+      <c r="E678" s="239"/>
+      <c r="F678" s="239"/>
+      <c r="G678" s="239"/>
+      <c r="H678" s="239"/>
+      <c r="I678" s="239"/>
+      <c r="J678" s="239"/>
+      <c r="K678" s="239"/>
+      <c r="L678" s="239"/>
+      <c r="M678" s="239"/>
+      <c r="N678" s="239"/>
+      <c r="O678" s="239"/>
+      <c r="P678" s="239"/>
     </row>
     <row r="679" spans="2:16">
-      <c r="B679" s="240"/>
-      <c r="C679" s="240"/>
-      <c r="D679" s="240"/>
-      <c r="E679" s="240"/>
-      <c r="F679" s="240"/>
-      <c r="G679" s="240"/>
-      <c r="H679" s="240"/>
-      <c r="I679" s="240"/>
-      <c r="J679" s="240"/>
-      <c r="K679" s="240"/>
-      <c r="L679" s="240"/>
-      <c r="M679" s="240"/>
-      <c r="N679" s="240"/>
-      <c r="O679" s="240"/>
-      <c r="P679" s="240"/>
+      <c r="B679" s="239"/>
+      <c r="C679" s="239"/>
+      <c r="D679" s="239"/>
+      <c r="E679" s="239"/>
+      <c r="F679" s="239"/>
+      <c r="G679" s="239"/>
+      <c r="H679" s="239"/>
+      <c r="I679" s="239"/>
+      <c r="J679" s="239"/>
+      <c r="K679" s="239"/>
+      <c r="L679" s="239"/>
+      <c r="M679" s="239"/>
+      <c r="N679" s="239"/>
+      <c r="O679" s="239"/>
+      <c r="P679" s="239"/>
     </row>
     <row r="680" spans="2:16">
-      <c r="B680" s="240"/>
-      <c r="C680" s="240"/>
-      <c r="D680" s="240"/>
-      <c r="E680" s="240"/>
-      <c r="F680" s="240"/>
-      <c r="G680" s="240"/>
-      <c r="H680" s="240"/>
-      <c r="I680" s="240"/>
-      <c r="J680" s="240"/>
-      <c r="K680" s="240"/>
-      <c r="L680" s="240"/>
-      <c r="M680" s="240"/>
-      <c r="N680" s="240"/>
-      <c r="O680" s="240"/>
-      <c r="P680" s="240"/>
+      <c r="B680" s="239"/>
+      <c r="C680" s="239"/>
+      <c r="D680" s="239"/>
+      <c r="E680" s="239"/>
+      <c r="F680" s="239"/>
+      <c r="G680" s="239"/>
+      <c r="H680" s="239"/>
+      <c r="I680" s="239"/>
+      <c r="J680" s="239"/>
+      <c r="K680" s="239"/>
+      <c r="L680" s="239"/>
+      <c r="M680" s="239"/>
+      <c r="N680" s="239"/>
+      <c r="O680" s="239"/>
+      <c r="P680" s="239"/>
     </row>
     <row r="681" spans="2:16">
-      <c r="B681" s="240"/>
-      <c r="C681" s="240"/>
-      <c r="D681" s="240"/>
-      <c r="E681" s="240"/>
-      <c r="F681" s="240"/>
-      <c r="G681" s="240"/>
-      <c r="H681" s="240"/>
-      <c r="I681" s="240"/>
-      <c r="J681" s="240"/>
-      <c r="K681" s="240"/>
-      <c r="L681" s="240"/>
-      <c r="M681" s="240"/>
-      <c r="N681" s="240"/>
-      <c r="O681" s="240"/>
-      <c r="P681" s="240"/>
+      <c r="B681" s="239"/>
+      <c r="C681" s="239"/>
+      <c r="D681" s="239"/>
+      <c r="E681" s="239"/>
+      <c r="F681" s="239"/>
+      <c r="G681" s="239"/>
+      <c r="H681" s="239"/>
+      <c r="I681" s="239"/>
+      <c r="J681" s="239"/>
+      <c r="K681" s="239"/>
+      <c r="L681" s="239"/>
+      <c r="M681" s="239"/>
+      <c r="N681" s="239"/>
+      <c r="O681" s="239"/>
+      <c r="P681" s="239"/>
     </row>
     <row r="682" spans="2:16">
-      <c r="B682" s="240"/>
-      <c r="C682" s="240"/>
-      <c r="D682" s="240"/>
-      <c r="E682" s="240"/>
-      <c r="F682" s="240"/>
-      <c r="G682" s="240"/>
-      <c r="H682" s="240"/>
-      <c r="I682" s="240"/>
-      <c r="J682" s="240"/>
-      <c r="K682" s="240"/>
-      <c r="L682" s="240"/>
-      <c r="M682" s="240"/>
-      <c r="N682" s="240"/>
-      <c r="O682" s="240"/>
-      <c r="P682" s="240"/>
+      <c r="B682" s="239"/>
+      <c r="C682" s="239"/>
+      <c r="D682" s="239"/>
+      <c r="E682" s="239"/>
+      <c r="F682" s="239"/>
+      <c r="G682" s="239"/>
+      <c r="H682" s="239"/>
+      <c r="I682" s="239"/>
+      <c r="J682" s="239"/>
+      <c r="K682" s="239"/>
+      <c r="L682" s="239"/>
+      <c r="M682" s="239"/>
+      <c r="N682" s="239"/>
+      <c r="O682" s="239"/>
+      <c r="P682" s="239"/>
     </row>
     <row r="683" spans="2:16">
-      <c r="H683" s="240"/>
-      <c r="I683" s="240"/>
-      <c r="J683" s="240"/>
-      <c r="K683" s="240"/>
+      <c r="H683" s="239"/>
+      <c r="I683" s="239"/>
+      <c r="J683" s="239"/>
+      <c r="K683" s="239"/>
     </row>
     <row r="684" spans="2:16">
-      <c r="H684" s="240"/>
-      <c r="I684" s="240"/>
-      <c r="J684" s="240"/>
-      <c r="K684" s="240"/>
+      <c r="H684" s="239"/>
+      <c r="I684" s="239"/>
+      <c r="J684" s="239"/>
+      <c r="K684" s="239"/>
     </row>
     <row r="685" spans="2:16">
-      <c r="H685" s="240"/>
-      <c r="I685" s="240"/>
-      <c r="J685" s="240"/>
-      <c r="K685" s="240"/>
+      <c r="H685" s="239"/>
+      <c r="I685" s="239"/>
+      <c r="J685" s="239"/>
+      <c r="K685" s="239"/>
     </row>
     <row r="686" spans="2:16">
-      <c r="H686" s="240"/>
-      <c r="I686" s="240"/>
-      <c r="J686" s="240"/>
-      <c r="K686" s="240"/>
+      <c r="H686" s="239"/>
+      <c r="I686" s="239"/>
+      <c r="J686" s="239"/>
+      <c r="K686" s="239"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/bio_ethanol.carrier.xlsx
+++ b/carriers_source_analyses/bio_ethanol.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9EA9B5-60B5-074B-B7D3-E1E5E47E6141}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4599A7-EFE0-0A49-9680-9C3F5A16D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="500" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="213">
   <si>
     <t>Source</t>
   </si>
@@ -189,9 +192,6 @@
   </si>
   <si>
     <t>Quintel assumption</t>
-  </si>
-  <si>
-    <t>Quintel definition</t>
   </si>
   <si>
     <t>from sugar beets</t>
@@ -717,9 +717,6 @@
     </r>
   </si>
   <si>
-    <t>EC Oil Bulletin and biotanken.nl</t>
-  </si>
-  <si>
     <t>Euro-super 95(I) incl tax</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     </r>
   </si>
   <si>
-    <t>CO2 emission from biomass is defined as 0</t>
-  </si>
-  <si>
     <t>Actual CO2 emission from biomass</t>
   </si>
   <si>
@@ -871,7 +865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -881,15 +875,21 @@
     <numFmt numFmtId="170" formatCode="0.000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000000"/>
     <numFmt numFmtId="174" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1784,808 +1784,806 @@
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   